--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BFB506-20C5-4236-A898-F3D988506732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77562CDE-809C-4BA1-A0D1-B0A981C37D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="570" windowWidth="16095" windowHeight="15000" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="12450" yWindow="0" windowWidth="16410" windowHeight="15000" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Main</t>
   </si>
@@ -177,13 +177,61 @@
   </si>
   <si>
     <t>Headcount</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Online Stores y/y</t>
+  </si>
+  <si>
+    <t>Third-party y/y</t>
+  </si>
+  <si>
+    <t>Subscription y/y</t>
+  </si>
+  <si>
+    <t>Ads y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Electronics/General</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -194,6 +242,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -215,10 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -238,8 +294,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -259,15 +336,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -285,6 +362,56 @@
         <a:xfrm>
           <a:off x="6867525" y="76200"/>
           <a:ext cx="0" cy="7505700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFACF6FC-997B-412A-9CA8-F656EA181A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28832175" y="0"/>
+          <a:ext cx="0" cy="9772650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -686,124 +813,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:BN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3">
+        <v>2000</v>
+      </c>
+      <c r="AA3">
+        <f>+Z3+1</f>
+        <v>2001</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:BN3" si="0">+AA3+1</f>
+        <v>2002</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="4">
+        <v>44124</v>
+      </c>
+      <c r="D4" s="4">
+        <v>35812</v>
+      </c>
+      <c r="E4" s="4">
+        <v>38653</v>
+      </c>
       <c r="F4" s="4">
+        <v>42638</v>
+      </c>
+      <c r="G4" s="4">
+        <v>53670</v>
+      </c>
+      <c r="H4" s="4">
+        <v>46127</v>
+      </c>
+      <c r="I4" s="4">
+        <v>55436</v>
+      </c>
+      <c r="J4" s="4">
+        <v>59373</v>
+      </c>
+      <c r="K4" s="4">
         <v>75346</v>
       </c>
-      <c r="G4" s="4">
+      <c r="L4" s="4">
         <v>64366</v>
       </c>
-      <c r="H4" s="4">
+      <c r="M4" s="4">
         <v>67550</v>
       </c>
-      <c r="I4" s="4">
+      <c r="N4" s="4">
         <v>65557</v>
       </c>
-      <c r="J4" s="4">
+      <c r="O4" s="4">
         <v>82360</v>
       </c>
-      <c r="K4" s="4">
+      <c r="P4" s="4">
         <v>69244</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="AN4" s="2">
+        <v>50834</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>63708</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>79785</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>106110</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>141366</v>
+      </c>
+      <c r="AS4" s="2">
+        <f>SUM(D4:G4)</f>
+        <v>170773</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" ref="AT4:AT7" si="1">SUM(H4:K4)</f>
+        <v>236282</v>
+      </c>
+      <c r="AU4" s="2">
+        <f>SUM(L4:O4)</f>
+        <v>279833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>37467</v>
-      </c>
-      <c r="G5" s="4">
-        <v>30649</v>
-      </c>
-      <c r="H5" s="4">
-        <v>30721</v>
-      </c>
-      <c r="I5" s="4">
-        <v>29145</v>
-      </c>
-      <c r="J5" s="4">
-        <v>37272</v>
-      </c>
-      <c r="K5" s="4">
-        <v>28759</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="AN5" s="2">
+        <v>11567</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>12483</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>13580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -816,732 +1186,2540 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="AN6" s="2">
+        <v>38517</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>50401</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>64887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41873</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16192</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16370</v>
+      </c>
       <c r="F7" s="4">
-        <v>12742</v>
+        <v>18348</v>
       </c>
       <c r="G7" s="4">
-        <v>13503</v>
+        <v>23813</v>
       </c>
       <c r="H7" s="4">
-        <v>14809</v>
+        <v>19106</v>
       </c>
       <c r="I7" s="4">
-        <v>16110</v>
+        <v>22668</v>
       </c>
       <c r="J7" s="4">
-        <v>17780</v>
+        <v>25171</v>
       </c>
       <c r="K7" s="4">
-        <v>18441</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37467</v>
+      </c>
+      <c r="L7" s="4">
+        <v>30649</v>
+      </c>
+      <c r="M7" s="4">
+        <v>30721</v>
+      </c>
+      <c r="N7" s="4">
+        <v>29145</v>
+      </c>
+      <c r="O7" s="4">
+        <v>37272</v>
+      </c>
+      <c r="P7" s="4">
+        <v>28759</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="AN7" s="2">
+        <v>33510</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>35418</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>103273</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>134099</v>
+      </c>
+      <c r="AS7" s="2">
+        <f>SUM(D7:G7)</f>
+        <v>74723</v>
+      </c>
+      <c r="AT7" s="2">
+        <f t="shared" si="1"/>
+        <v>104412</v>
+      </c>
+      <c r="AU7" s="2">
+        <f t="shared" ref="AU7" si="2">SUM(L7:O7)</f>
+        <v>127787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="AN8" s="2">
+        <v>10938</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>10026</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>66451</v>
-      </c>
-      <c r="G9" s="4">
-        <v>52901</v>
-      </c>
-      <c r="H9" s="4">
-        <v>53157</v>
-      </c>
-      <c r="I9" s="4">
-        <v>49942</v>
-      </c>
-      <c r="J9" s="4">
-        <v>66075</v>
-      </c>
-      <c r="K9" s="4">
-        <v>51129</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="AN9" s="2">
+        <v>22369</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>25196</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>33107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7430</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7696</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8381</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8995</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9954</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10219</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10808</v>
+      </c>
+      <c r="J10" s="4">
+        <v>11601</v>
+      </c>
+      <c r="K10" s="4">
+        <v>12742</v>
+      </c>
+      <c r="L10" s="4">
+        <v>13503</v>
+      </c>
+      <c r="M10" s="4">
+        <v>14809</v>
+      </c>
+      <c r="N10" s="4">
+        <v>16110</v>
+      </c>
+      <c r="O10" s="4">
+        <v>17780</v>
+      </c>
+      <c r="P10" s="4">
+        <v>18441</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="AN10" s="17">
+        <v>4644</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>7880</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>12219</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>17459</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>25655</v>
+      </c>
+      <c r="AS10" s="2">
+        <f>SUM(D10:G10)</f>
+        <v>35026</v>
+      </c>
+      <c r="AT10" s="2">
+        <f>SUM(H10:K10)</f>
+        <v>45370</v>
+      </c>
+      <c r="AU10" s="2">
+        <f>SUM(L10:O10)</f>
+        <v>62202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39822</v>
+      </c>
+      <c r="D12" s="4">
+        <v>29498</v>
+      </c>
+      <c r="E12" s="4">
+        <v>31053</v>
+      </c>
+      <c r="F12" s="4">
+        <v>35039</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45657</v>
+      </c>
+      <c r="H12" s="4">
+        <v>36652</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45896</v>
+      </c>
+      <c r="J12" s="4">
+        <v>48350</v>
+      </c>
+      <c r="K12" s="4">
+        <v>66451</v>
+      </c>
+      <c r="L12" s="4">
+        <v>52901</v>
+      </c>
+      <c r="M12" s="4">
+        <v>53157</v>
+      </c>
+      <c r="N12" s="4">
+        <v>49942</v>
+      </c>
+      <c r="O12" s="4">
+        <v>66075</v>
+      </c>
+      <c r="P12" s="4">
+        <v>51129</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="AR12" s="2">
+        <f>26939+27165+29061+39822</f>
+        <v>122987</v>
+      </c>
+      <c r="AS12" s="2">
+        <f t="shared" ref="AS12:AS27" si="3">SUM(D12:G12)</f>
+        <v>141247</v>
+      </c>
+      <c r="AT12" s="2">
+        <f t="shared" ref="AT12:AT17" si="4">SUM(H12:K12)</f>
+        <v>197349</v>
+      </c>
+      <c r="AU12" s="2">
+        <f t="shared" ref="AU12:AU17" si="5">SUM(L12:O12)</f>
+        <v>222075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="C13" s="4">
+        <v>4401</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4307</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4330</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4192</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4363</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4640</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3774</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3788</v>
+      </c>
+      <c r="K13" s="4">
         <v>4022</v>
       </c>
-      <c r="G10" s="4">
+      <c r="L13" s="4">
         <v>3920</v>
       </c>
-      <c r="H10" s="4">
+      <c r="M13" s="4">
         <v>4198</v>
       </c>
-      <c r="I10" s="4">
+      <c r="N13" s="4">
         <v>4269</v>
       </c>
-      <c r="J10" s="4">
+      <c r="O13" s="4">
         <v>4688</v>
       </c>
-      <c r="K10" s="4">
+      <c r="P13" s="4">
         <v>4591</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="AR13" s="2">
+        <f>4263+4312+4248+4401</f>
+        <v>17224</v>
+      </c>
+      <c r="AS13" s="2">
+        <f t="shared" si="3"/>
+        <v>17192</v>
+      </c>
+      <c r="AT13" s="2">
+        <f t="shared" si="4"/>
+        <v>16224</v>
+      </c>
+      <c r="AU13" s="2">
+        <f t="shared" si="5"/>
+        <v>17075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="C14" s="4">
+        <v>13383</v>
+      </c>
+      <c r="D14" s="4">
+        <v>11141</v>
+      </c>
+      <c r="E14" s="4">
+        <v>11962</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13212</v>
+      </c>
+      <c r="G14" s="4">
+        <v>17446</v>
+      </c>
+      <c r="H14" s="4">
+        <v>14479</v>
+      </c>
+      <c r="I14" s="4">
+        <v>18195</v>
+      </c>
+      <c r="J14" s="4">
+        <v>20436</v>
+      </c>
+      <c r="K14" s="4">
         <v>27327</v>
       </c>
-      <c r="G11" s="4">
+      <c r="L14" s="4">
         <v>23709</v>
       </c>
-      <c r="H11" s="4">
+      <c r="M14" s="4">
         <v>25085</v>
       </c>
-      <c r="I11" s="4">
+      <c r="N14" s="4">
         <v>24252</v>
       </c>
-      <c r="J11" s="4">
+      <c r="O14" s="4">
         <v>30320</v>
       </c>
-      <c r="K11" s="4">
+      <c r="P14" s="4">
         <v>25335</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="AR14" s="2">
+        <f>9265+9702+10395+13383</f>
+        <v>42745</v>
+      </c>
+      <c r="AS14" s="2">
+        <f t="shared" si="3"/>
+        <v>53761</v>
+      </c>
+      <c r="AT14" s="2">
+        <f t="shared" si="4"/>
+        <v>80437</v>
+      </c>
+      <c r="AU14" s="2">
+        <f t="shared" si="5"/>
+        <v>103366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="C15" s="4">
+        <v>3959</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4342</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4676</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4957</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5235</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5556</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6018</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6572</v>
+      </c>
+      <c r="K15" s="4">
         <v>7061</v>
       </c>
-      <c r="G12" s="4">
+      <c r="L15" s="4">
         <v>7580</v>
       </c>
-      <c r="H12" s="4">
+      <c r="M15" s="4">
         <v>7917</v>
       </c>
-      <c r="I12" s="4">
+      <c r="N15" s="4">
         <v>8148</v>
       </c>
-      <c r="J12" s="4">
+      <c r="O15" s="4">
         <v>8123</v>
       </c>
-      <c r="K12" s="4">
+      <c r="P15" s="4">
         <v>8410</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="AR15" s="2">
+        <f>3102+3408+3698+3959</f>
+        <v>14167</v>
+      </c>
+      <c r="AS15" s="2">
+        <f t="shared" si="3"/>
+        <v>19210</v>
+      </c>
+      <c r="AT15" s="2">
+        <f t="shared" si="4"/>
+        <v>25207</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" si="5"/>
+        <v>31768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="C16" s="4">
+        <v>3388</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2716</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3586</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4782</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3906</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4221</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5398</v>
+      </c>
+      <c r="K16" s="4">
         <v>7350</v>
       </c>
-      <c r="G13" s="4">
+      <c r="L16" s="4">
         <v>6381</v>
       </c>
-      <c r="H13" s="4">
+      <c r="M16" s="4">
         <v>7451</v>
       </c>
-      <c r="I13" s="4">
+      <c r="N16" s="4">
         <v>7612</v>
       </c>
-      <c r="J13" s="4">
+      <c r="O16" s="4">
         <v>9716</v>
       </c>
-      <c r="K13" s="4">
+      <c r="P16" s="4">
         <v>7877</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="AR16" s="2">
+        <f>2031+2194+2495+3388</f>
+        <v>10108</v>
+      </c>
+      <c r="AS16" s="2">
+        <f t="shared" si="3"/>
+        <v>14086</v>
+      </c>
+      <c r="AT16" s="2">
+        <f t="shared" si="4"/>
+        <v>20875</v>
+      </c>
+      <c r="AU16" s="2">
+        <f t="shared" si="5"/>
+        <v>31160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <v>602</v>
       </c>
-      <c r="G14" s="4">
+      <c r="L17" s="4">
         <v>524</v>
       </c>
-      <c r="H14" s="4">
+      <c r="M17" s="4">
         <v>463</v>
       </c>
-      <c r="I14" s="4">
+      <c r="N17" s="4">
         <v>479</v>
       </c>
-      <c r="J14" s="4">
+      <c r="O17" s="4">
         <v>710</v>
       </c>
-      <c r="K14" s="4">
+      <c r="P17" s="4">
         <v>661</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>71056</v>
-      </c>
-      <c r="G16" s="4">
-        <v>57491</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>71416</v>
-      </c>
-      <c r="K16" s="4">
-        <v>56455</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <v>54499</v>
-      </c>
-      <c r="G17" s="4">
-        <v>51027</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>65996</v>
-      </c>
-      <c r="K17" s="4">
-        <v>59989</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" ref="C18:J18" si="0">C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>125555</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>108518</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="0"/>
-        <v>137412</v>
-      </c>
-      <c r="K18" s="6">
-        <f>K16+K17</f>
-        <v>116444</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>62403</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>66499</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>16530</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>20271</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <f>G18-G19-G20</f>
-        <v>29585</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21:K21" si="1">H18-H19-H20</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="1"/>
-        <v>137412</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>29674</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>12488</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>14842</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>6207</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>8320</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1987</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="4">
-        <f>SUM(G22:G24)</f>
-        <v>20682</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" ref="H25:K25" si="2">SUM(H22:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="2"/>
-        <v>25756</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="4">
-        <f>G21-G25</f>
-        <v>8903</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" ref="H26:K26" si="3">H21-H25</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="AS17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AT17" s="2">
+        <f t="shared" si="4"/>
+        <v>602</v>
+      </c>
+      <c r="AU17" s="2">
+        <f t="shared" si="5"/>
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44700</v>
+      </c>
+      <c r="D19" s="4">
+        <v>34283</v>
+      </c>
+      <c r="E19" s="4">
+        <v>35856</v>
+      </c>
+      <c r="F19" s="4">
+        <v>39726</v>
+      </c>
+      <c r="G19" s="4">
+        <v>50542</v>
+      </c>
+      <c r="H19" s="4">
+        <v>41841</v>
+      </c>
+      <c r="I19" s="4">
+        <v>50244</v>
+      </c>
+      <c r="J19" s="4">
+        <v>52774</v>
+      </c>
+      <c r="K19" s="4">
+        <v>71056</v>
+      </c>
+      <c r="L19" s="4">
+        <v>57491</v>
+      </c>
+      <c r="M19" s="4">
+        <v>58004</v>
+      </c>
+      <c r="N19" s="4">
+        <v>54876</v>
+      </c>
+      <c r="O19" s="4">
+        <v>71416</v>
+      </c>
+      <c r="P19" s="4">
+        <v>56455</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="AQ19" s="2">
+        <v>118573</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>141915</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" si="3"/>
+        <v>160407</v>
+      </c>
+      <c r="AT19" s="2">
+        <f>SUM(H19:K19)</f>
+        <v>215915</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" ref="AU19:AU27" si="6">SUM(L19:O19)</f>
+        <v>241787</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4">
+        <v>27683</v>
+      </c>
+      <c r="D20" s="4">
+        <v>25417</v>
+      </c>
+      <c r="E20" s="4">
+        <v>27548</v>
+      </c>
+      <c r="F20" s="4">
+        <v>30255</v>
+      </c>
+      <c r="G20" s="4">
+        <v>36895</v>
+      </c>
+      <c r="H20" s="4">
+        <v>33611</v>
+      </c>
+      <c r="I20" s="4">
+        <v>38668</v>
+      </c>
+      <c r="J20" s="4">
+        <v>43371</v>
+      </c>
+      <c r="K20" s="4">
+        <v>54499</v>
+      </c>
+      <c r="L20" s="4">
+        <v>51027</v>
+      </c>
+      <c r="M20" s="4">
+        <v>55076</v>
+      </c>
+      <c r="N20" s="4">
+        <v>55936</v>
+      </c>
+      <c r="O20" s="4">
+        <v>65996</v>
+      </c>
+      <c r="P20" s="4">
+        <v>59989</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="AQ20" s="2">
+        <v>59293</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>90972</v>
+      </c>
+      <c r="AS20" s="2">
+        <f t="shared" si="3"/>
+        <v>120115</v>
+      </c>
+      <c r="AT20" s="2">
+        <f t="shared" ref="AT20:AT27" si="7">SUM(H20:K20)</f>
+        <v>170149</v>
+      </c>
+      <c r="AU20" s="2">
+        <f t="shared" si="6"/>
+        <v>228035</v>
+      </c>
+    </row>
+    <row r="21" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:D21" si="8">C19+C20</f>
+        <v>72383</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:F21" si="9">D19+D20</f>
+        <v>59700</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:F21" si="10">E19+E20</f>
+        <v>63404</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="9"/>
+        <v>69981</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" ref="G21" si="11">G19+G20</f>
+        <v>87437</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:I21" si="12">H19+H20</f>
+        <v>75452</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:J21" si="13">I19+I20</f>
+        <v>88912</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" ref="J21:O21" si="14">J19+J20</f>
+        <v>96145</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="14"/>
+        <v>125555</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="14"/>
+        <v>108518</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="14"/>
+        <v>113080</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="14"/>
+        <v>110812</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="14"/>
+        <v>137412</v>
+      </c>
+      <c r="P21" s="6">
+        <f>P19+P20</f>
+        <v>116444</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21:S21" si="15">Q19+Q20</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21" si="16">T19+T20</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" ref="U21" si="17">U19+U20</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" ref="V21" si="18">V19+V20</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" ref="W21" si="19">W19+W20</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>61093</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>74452</v>
+      </c>
+      <c r="AN21" s="5">
+        <f>+AN4+AN7+AN10</f>
+        <v>88988</v>
+      </c>
+      <c r="AO21" s="5">
+        <f t="shared" ref="AO21:AP21" si="20">+AO4+AO7+AO10</f>
+        <v>107006</v>
+      </c>
+      <c r="AP21" s="5">
+        <f t="shared" si="20"/>
+        <v>135987</v>
+      </c>
+      <c r="AQ21" s="6">
+        <f t="shared" ref="AQ21" si="21">AQ19+AQ20</f>
+        <v>177866</v>
+      </c>
+      <c r="AR21" s="6">
+        <f t="shared" ref="AR21" si="22">AR19+AR20</f>
+        <v>232887</v>
+      </c>
+      <c r="AS21" s="6">
+        <f>AS19+AS20</f>
+        <v>280522</v>
+      </c>
+      <c r="AT21" s="6">
+        <f>AT19+AT20</f>
+        <v>386064</v>
+      </c>
+      <c r="AU21" s="6">
+        <f>AU19+AU20</f>
+        <v>469822</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44786</v>
+      </c>
+      <c r="D22" s="4">
+        <v>33920</v>
+      </c>
+      <c r="E22" s="4">
+        <v>36337</v>
+      </c>
+      <c r="F22" s="4">
+        <v>41302</v>
+      </c>
+      <c r="G22" s="4">
+        <v>53977</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44257</v>
+      </c>
+      <c r="I22" s="4">
+        <v>52660</v>
+      </c>
+      <c r="J22" s="4">
+        <v>57106</v>
+      </c>
+      <c r="K22" s="4">
+        <v>79284</v>
+      </c>
+      <c r="L22" s="4">
+        <v>62403</v>
+      </c>
+      <c r="M22" s="4">
+        <v>64176</v>
+      </c>
+      <c r="N22" s="4">
+        <v>62930</v>
+      </c>
+      <c r="O22" s="4">
+        <v>82835</v>
+      </c>
+      <c r="P22" s="4">
+        <v>66499</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="AN22" s="2">
+        <v>62752</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>71651</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>88265</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>111934</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>139156</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" si="3"/>
+        <v>165536</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" si="7"/>
+        <v>233307</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" si="6"/>
+        <v>272344</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10028</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8601</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9271</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10167</v>
+      </c>
+      <c r="G23" s="4">
+        <v>12192</v>
+      </c>
+      <c r="H23" s="4">
+        <v>11531</v>
+      </c>
+      <c r="I23" s="4">
+        <v>13806</v>
+      </c>
+      <c r="J23" s="4">
+        <v>14705</v>
+      </c>
+      <c r="K23" s="4">
+        <v>18474</v>
+      </c>
+      <c r="L23" s="4">
+        <v>16530</v>
+      </c>
+      <c r="M23" s="4">
+        <v>17638</v>
+      </c>
+      <c r="N23" s="4">
+        <v>18498</v>
+      </c>
+      <c r="O23" s="4">
+        <v>22445</v>
+      </c>
+      <c r="P23" s="4">
+        <v>20271</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="AN23" s="2">
+        <v>10766</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>13410</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>17619</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>25249</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>34027</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="3"/>
+        <v>40231</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="7"/>
+        <v>58516</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="6"/>
+        <v>75111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24" si="23">C21-C22-C23</f>
+        <v>17569</v>
+      </c>
+      <c r="D24" s="4">
+        <f>D21-D22-D23</f>
+        <v>17179</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24" si="24">E21-E22-E23</f>
+        <v>17796</v>
+      </c>
+      <c r="F24" s="4">
+        <f>F21-F22-F23</f>
+        <v>18512</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24" si="25">G21-G22-G23</f>
+        <v>21268</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24" si="26">H21-H22-H23</f>
+        <v>19664</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" ref="I24" si="27">I21-I22-I23</f>
+        <v>22446</v>
+      </c>
+      <c r="J24" s="4">
+        <f>J21-J22-J23</f>
+        <v>24334</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24" si="28">K21-K22-K23</f>
+        <v>27797</v>
+      </c>
+      <c r="L24" s="4">
+        <f>L21-L22-L23</f>
+        <v>29585</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" ref="M24:P24" si="29">M21-M22-M23</f>
+        <v>31266</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="29"/>
+        <v>29384</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="29"/>
+        <v>32132</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="29"/>
+        <v>29674</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="AN24" s="4">
+        <f t="shared" ref="AN24:AR24" si="30">AN21-AN22-AN23</f>
+        <v>15470</v>
+      </c>
+      <c r="AO24" s="4">
+        <f t="shared" si="30"/>
+        <v>21945</v>
+      </c>
+      <c r="AP24" s="4">
+        <f t="shared" si="30"/>
+        <v>30103</v>
+      </c>
+      <c r="AQ24" s="4">
+        <f t="shared" si="30"/>
+        <v>40683</v>
+      </c>
+      <c r="AR24" s="4">
+        <f t="shared" ref="AR24:AT24" si="31">AR21-AR22-AR23</f>
+        <v>59704</v>
+      </c>
+      <c r="AS24" s="4">
+        <f t="shared" si="31"/>
+        <v>74755</v>
+      </c>
+      <c r="AT24" s="4">
+        <f t="shared" ref="AT24:AU24" si="32">AT21-AT22-AT23</f>
+        <v>94241</v>
+      </c>
+      <c r="AU24" s="4">
+        <f t="shared" si="32"/>
+        <v>122367</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7669</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7927</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9065</v>
+      </c>
+      <c r="F25" s="4">
+        <v>9200</v>
+      </c>
+      <c r="G25" s="4">
+        <v>9740</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9325</v>
+      </c>
+      <c r="I25" s="4">
+        <v>10388</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10976</v>
+      </c>
+      <c r="K25" s="4">
+        <v>12049</v>
+      </c>
+      <c r="L25" s="4">
+        <v>12488</v>
+      </c>
+      <c r="M25" s="4">
+        <v>13871</v>
+      </c>
+      <c r="N25" s="4">
+        <v>14380</v>
+      </c>
+      <c r="O25" s="4">
+        <v>15313</v>
+      </c>
+      <c r="P25" s="4">
+        <v>14842</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="AN25" s="2">
+        <v>9275</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>12540</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>16085</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>22620</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>28837</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="3"/>
+        <v>35932</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" si="7"/>
+        <v>42738</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" si="6"/>
+        <v>56052</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4911</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3664</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4291</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4752</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6172</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4828</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4345</v>
+      </c>
       <c r="J26" s="4">
+        <v>5434</v>
+      </c>
+      <c r="K26" s="4">
+        <v>7403</v>
+      </c>
+      <c r="L26" s="4">
+        <v>6207</v>
+      </c>
+      <c r="M26" s="4">
+        <v>7524</v>
+      </c>
+      <c r="N26" s="4">
+        <v>8010</v>
+      </c>
+      <c r="O26" s="4">
+        <v>10810</v>
+      </c>
+      <c r="P26" s="4">
+        <v>8320</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="AN26" s="2">
+        <v>4332</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>5254</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>7233</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>10069</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>13814</v>
+      </c>
+      <c r="AS26" s="2">
         <f t="shared" si="3"/>
-        <v>137412</v>
-      </c>
-      <c r="K26" s="4">
+        <v>18879</v>
+      </c>
+      <c r="AT26" s="2">
+        <f t="shared" si="7"/>
+        <v>22010</v>
+      </c>
+      <c r="AU26" s="2">
+        <f t="shared" si="6"/>
+        <v>32551</v>
+      </c>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1117</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1173</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1270</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1348</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1412</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1452</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1580</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1668</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1968</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1987</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2158</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2153</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2525</v>
+      </c>
+      <c r="P27" s="4">
+        <v>2594</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>1552</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>1747</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>2432</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>3674</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>4336</v>
+      </c>
+      <c r="AS27" s="2">
         <f t="shared" si="3"/>
+        <v>5203</v>
+      </c>
+      <c r="AT27" s="2">
+        <f t="shared" si="7"/>
+        <v>6668</v>
+      </c>
+      <c r="AU27" s="2">
+        <f t="shared" si="6"/>
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28" si="33">SUM(C25:C27)</f>
+        <v>13697</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D25:D27)</f>
+        <v>12764</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ref="E28" si="34">SUM(E25:E27)</f>
+        <v>14626</v>
+      </c>
+      <c r="F28" s="4">
+        <f>SUM(F25:F27)</f>
+        <v>15300</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28" si="35">SUM(G25:G27)</f>
+        <v>17324</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28" si="36">SUM(H25:H27)</f>
+        <v>15605</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" ref="I28" si="37">SUM(I25:I27)</f>
+        <v>16313</v>
+      </c>
+      <c r="J28" s="4">
+        <f>SUM(J25:J27)</f>
+        <v>18078</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" ref="K28" si="38">SUM(K25:K27)</f>
+        <v>21420</v>
+      </c>
+      <c r="L28" s="4">
+        <f>SUM(L25:L27)</f>
+        <v>20682</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:P28" si="39">SUM(M25:M27)</f>
+        <v>23553</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="39"/>
+        <v>24543</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="39"/>
+        <v>28648</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="39"/>
+        <v>25756</v>
+      </c>
+      <c r="AN28" s="4">
+        <f t="shared" ref="AN28:AQ28" si="40">SUM(AN25:AN27)</f>
+        <v>15159</v>
+      </c>
+      <c r="AO28" s="4">
+        <f t="shared" si="40"/>
+        <v>19541</v>
+      </c>
+      <c r="AP28" s="4">
+        <f t="shared" si="40"/>
+        <v>25750</v>
+      </c>
+      <c r="AQ28" s="4">
+        <f t="shared" ref="AQ28:AR28" si="41">SUM(AQ25:AQ27)</f>
+        <v>36363</v>
+      </c>
+      <c r="AR28" s="4">
+        <f t="shared" ref="AR28:AT28" si="42">SUM(AR25:AR27)</f>
+        <v>46987</v>
+      </c>
+      <c r="AS28" s="4">
+        <f t="shared" si="42"/>
+        <v>60014</v>
+      </c>
+      <c r="AT28" s="4">
+        <f t="shared" ref="AT28:AU28" si="43">SUM(AT25:AT27)</f>
+        <v>71416</v>
+      </c>
+      <c r="AU28" s="4">
+        <f t="shared" si="43"/>
+        <v>97426</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" ref="C29" si="44">C24-C28</f>
+        <v>3872</v>
+      </c>
+      <c r="D29" s="4">
+        <f>D24-D28</f>
+        <v>4415</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" ref="E29" si="45">E24-E28</f>
+        <v>3170</v>
+      </c>
+      <c r="F29" s="4">
+        <f>F24-F28</f>
+        <v>3212</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" ref="G29" si="46">G24-G28</f>
+        <v>3944</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" ref="H29" si="47">H24-H28</f>
+        <v>4059</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" ref="I29" si="48">I24-I28</f>
+        <v>6133</v>
+      </c>
+      <c r="J29" s="4">
+        <f>J24-J28</f>
+        <v>6256</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" ref="K29" si="49">K24-K28</f>
+        <v>6377</v>
+      </c>
+      <c r="L29" s="4">
+        <f>L24-L28</f>
+        <v>8903</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" ref="M29:P29" si="50">M24-M28</f>
+        <v>7713</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="50"/>
+        <v>4841</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="50"/>
+        <v>3484</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="50"/>
         <v>3918</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="AN29" s="4">
+        <f t="shared" ref="AN29:AQ29" si="51">AN24-AN28</f>
+        <v>311</v>
+      </c>
+      <c r="AO29" s="4">
+        <f t="shared" si="51"/>
+        <v>2404</v>
+      </c>
+      <c r="AP29" s="4">
+        <f t="shared" si="51"/>
+        <v>4353</v>
+      </c>
+      <c r="AQ29" s="4">
+        <f t="shared" ref="AQ29:AR29" si="52">AQ24-AQ28</f>
+        <v>4320</v>
+      </c>
+      <c r="AR29" s="4">
+        <f t="shared" ref="AR29:AT29" si="53">AR24-AR28</f>
+        <v>12717</v>
+      </c>
+      <c r="AS29" s="4">
+        <f t="shared" si="53"/>
+        <v>14741</v>
+      </c>
+      <c r="AT29" s="4">
+        <f t="shared" ref="AT29:AU29" si="54">AT24-AT28</f>
+        <v>22825</v>
+      </c>
+      <c r="AU29" s="4">
+        <f t="shared" si="54"/>
+        <v>24941</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
+      <c r="C30" s="4">
+        <f>-86+150-387-199</f>
+        <v>-522</v>
+      </c>
+      <c r="D30" s="4">
+        <f>5+183-366+164</f>
+        <v>-14</v>
+      </c>
+      <c r="E30" s="4">
+        <f>-86+215-383-27</f>
+        <v>-281</v>
+      </c>
+      <c r="F30" s="4">
+        <f>-55+224-396-353</f>
+        <v>-580</v>
+      </c>
+      <c r="G30" s="4">
+        <f>-65+211-455+418</f>
+        <v>109</v>
+      </c>
+      <c r="H30" s="4">
+        <f>-70+202-402-406</f>
+        <v>-676</v>
+      </c>
+      <c r="I30" s="4">
+        <f>-290+135-403+646</f>
+        <v>88</v>
+      </c>
+      <c r="J30" s="4">
+        <f>-62+118-428+925</f>
+        <v>553</v>
+      </c>
+      <c r="K30" s="4">
+        <f>496+100-414+1206</f>
+        <v>1388</v>
+      </c>
+      <c r="L30" s="4">
         <f>-38+105-399+1697</f>
         <v>1365</v>
       </c>
-      <c r="H27" s="4">
-        <f t="shared" ref="H27" si="4">H22-H26</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" ref="I27" si="5">I22-I26</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" ref="J27" si="6">J22-J26</f>
-        <v>-137412</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="M30" s="4">
+        <f>-11+106-435+1261</f>
+        <v>921</v>
+      </c>
+      <c r="N30" s="4">
+        <f>11+119-493-163</f>
+        <v>-526</v>
+      </c>
+      <c r="O30" s="4">
+        <f>-24+118-482+11838</f>
+        <v>11450</v>
+      </c>
+      <c r="P30" s="4">
         <f>-249+108-472-8570</f>
         <v>-9183</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="AN30" s="2">
+        <f>-133+39-210-118</f>
+        <v>-422</v>
+      </c>
+      <c r="AO30" s="2">
+        <f>-171+50-459-256</f>
+        <v>-836</v>
+      </c>
+      <c r="AP30" s="2">
+        <f>-167+100-484+90</f>
+        <v>-461</v>
+      </c>
+      <c r="AQ30" s="2">
+        <f>-214+202-848+346</f>
+        <v>-514</v>
+      </c>
+      <c r="AR30" s="2">
+        <f>-296+440-1417-183</f>
+        <v>-1456</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" ref="AS30" si="55">SUM(D30:G30)</f>
+        <v>-766</v>
+      </c>
+      <c r="AT30" s="2">
+        <f t="shared" ref="AT30" si="56">SUM(H30:K30)</f>
+        <v>1353</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" ref="AU30" si="57">SUM(L30:O30)</f>
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <f>G26+G27</f>
+      <c r="C31" s="4">
+        <f t="shared" ref="C31" si="58">C29+C30</f>
+        <v>3350</v>
+      </c>
+      <c r="D31" s="4">
+        <f>D29+D30</f>
+        <v>4401</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31" si="59">E29+E30</f>
+        <v>2889</v>
+      </c>
+      <c r="F31" s="4">
+        <f>F29+F30</f>
+        <v>2632</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31" si="60">G29+G30</f>
+        <v>4053</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" ref="H31" si="61">H29+H30</f>
+        <v>3383</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" ref="I31" si="62">I29+I30</f>
+        <v>6221</v>
+      </c>
+      <c r="J31" s="4">
+        <f>J29+J30</f>
+        <v>6809</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" ref="K31" si="63">K29+K30</f>
+        <v>7765</v>
+      </c>
+      <c r="L31" s="4">
+        <f>L29+L30</f>
         <v>10268</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" ref="H28:K28" si="7">H26+H27</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="7"/>
+      <c r="M31" s="4">
+        <f t="shared" ref="M31:P31" si="64">M29+M30</f>
+        <v>8634</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="64"/>
+        <v>4315</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="64"/>
+        <v>14934</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="64"/>
         <v>-5265</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="AN31" s="4">
+        <f t="shared" ref="AN31:AQ31" si="65">AN29+AN30</f>
+        <v>-111</v>
+      </c>
+      <c r="AO31" s="4">
+        <f t="shared" si="65"/>
+        <v>1568</v>
+      </c>
+      <c r="AP31" s="4">
+        <f t="shared" si="65"/>
+        <v>3892</v>
+      </c>
+      <c r="AQ31" s="4">
+        <f t="shared" ref="AQ31:AR31" si="66">AQ29+AQ30</f>
+        <v>3806</v>
+      </c>
+      <c r="AR31" s="4">
+        <f t="shared" ref="AR31:AT31" si="67">AR29+AR30</f>
+        <v>11261</v>
+      </c>
+      <c r="AS31" s="4">
+        <f t="shared" si="67"/>
+        <v>13975</v>
+      </c>
+      <c r="AT31" s="4">
+        <f t="shared" ref="AT31:AU31" si="68">AT29+AT30</f>
+        <v>24178</v>
+      </c>
+      <c r="AU31" s="4">
+        <f t="shared" si="68"/>
+        <v>38151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
+      <c r="C32" s="4">
+        <f>327-4</f>
+        <v>323</v>
+      </c>
+      <c r="D32" s="4">
+        <f>836+4</f>
+        <v>840</v>
+      </c>
+      <c r="E32" s="4">
+        <f>257+7</f>
+        <v>264</v>
+      </c>
+      <c r="F32" s="4">
+        <f>494+4</f>
+        <v>498</v>
+      </c>
+      <c r="G32" s="4">
+        <f>786-1</f>
+        <v>785</v>
+      </c>
+      <c r="H32" s="4">
+        <f>744+104</f>
+        <v>848</v>
+      </c>
+      <c r="I32" s="4">
+        <f>984-6</f>
+        <v>978</v>
+      </c>
+      <c r="J32" s="4">
+        <f>569-91</f>
+        <v>478</v>
+      </c>
+      <c r="K32" s="4">
+        <f>566-23</f>
+        <v>543</v>
+      </c>
+      <c r="L32" s="4">
         <f>2156+5</f>
         <v>2161</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="M32" s="4">
+        <f>868-12</f>
+        <v>856</v>
+      </c>
+      <c r="N32" s="4">
+        <f>1155+4</f>
+        <v>1159</v>
+      </c>
+      <c r="O32" s="4">
+        <f>612-1</f>
+        <v>611</v>
+      </c>
+      <c r="P32" s="4">
         <f>-1422+1</f>
         <v>-1421</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="AN32" s="2">
+        <f>167-37</f>
+        <v>130</v>
+      </c>
+      <c r="AO32" s="2">
+        <f>950+22</f>
+        <v>972</v>
+      </c>
+      <c r="AP32" s="2">
+        <f>1425+96</f>
+        <v>1521</v>
+      </c>
+      <c r="AQ32" s="2">
+        <f>769+4</f>
+        <v>773</v>
+      </c>
+      <c r="AR32" s="2">
+        <f>1197-9</f>
+        <v>1188</v>
+      </c>
+      <c r="AS32" s="2">
+        <f t="shared" ref="AS32" si="69">SUM(D32:G32)</f>
+        <v>2387</v>
+      </c>
+      <c r="AT32" s="2">
+        <f t="shared" ref="AT32" si="70">SUM(H32:K32)</f>
+        <v>2847</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" ref="AU32" si="71">SUM(L32:O32)</f>
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="33" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <f>G28-G29</f>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33" si="72">C31-C32</f>
+        <v>3027</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D31-D32</f>
+        <v>3561</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33" si="73">E31-E32</f>
+        <v>2625</v>
+      </c>
+      <c r="F33" s="4">
+        <f>F31-F32</f>
+        <v>2134</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" ref="G33" si="74">G31-G32</f>
+        <v>3268</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" ref="H33" si="75">H31-H32</f>
+        <v>2535</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" ref="I33" si="76">I31-I32</f>
+        <v>5243</v>
+      </c>
+      <c r="J33" s="4">
+        <f>J31-J32</f>
+        <v>6331</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33" si="77">K31-K32</f>
+        <v>7222</v>
+      </c>
+      <c r="L33" s="4">
+        <f>L31-L32</f>
         <v>8107</v>
       </c>
-      <c r="H30" s="4">
-        <f t="shared" ref="H30:K30" si="8">H28-H29</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="8"/>
+      <c r="M33" s="4">
+        <f t="shared" ref="M33:P33" si="78">M31-M32</f>
+        <v>7778</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="78"/>
+        <v>3156</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="78"/>
+        <v>14323</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="78"/>
         <v>-3844</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="AN33" s="4">
+        <f t="shared" ref="AN33:AQ33" si="79">AN31-AN32</f>
+        <v>-241</v>
+      </c>
+      <c r="AO33" s="4">
+        <f t="shared" si="79"/>
+        <v>596</v>
+      </c>
+      <c r="AP33" s="4">
+        <f t="shared" si="79"/>
+        <v>2371</v>
+      </c>
+      <c r="AQ33" s="4">
+        <f t="shared" ref="AQ33:AR33" si="80">AQ31-AQ32</f>
+        <v>3033</v>
+      </c>
+      <c r="AR33" s="4">
+        <f t="shared" ref="AR33:AT33" si="81">AR31-AR32</f>
+        <v>10073</v>
+      </c>
+      <c r="AS33" s="4">
+        <f t="shared" si="81"/>
+        <v>11588</v>
+      </c>
+      <c r="AT33" s="4">
+        <f t="shared" ref="AT33:AU33" si="82">AT31-AT32</f>
+        <v>21331</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="82"/>
+        <v>33364</v>
+      </c>
+    </row>
+    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="7">
-        <f>G30/G32</f>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34" si="83">C33/C35</f>
+        <v>6.0419161676646711</v>
+      </c>
+      <c r="D34" s="7">
+        <f>D33/D35</f>
+        <v>7.0936254980079685</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" ref="E34" si="84">E33/E35</f>
+        <v>5.2186878727634198</v>
+      </c>
+      <c r="F34" s="7">
+        <f>F33/F35</f>
+        <v>4.2341269841269842</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" ref="G34" si="85">G33/G35</f>
+        <v>6.4712871287128717</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" ref="H34" si="86">H33/H35</f>
+        <v>5.0098814229249014</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" ref="I34" si="87">I33/I35</f>
+        <v>10.300589390962672</v>
+      </c>
+      <c r="J34" s="7">
+        <f>J33/J35</f>
+        <v>12.365234375</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" ref="K34" si="88">K33/K35</f>
+        <v>14.077972709551657</v>
+      </c>
+      <c r="L34" s="7">
+        <f>L33/L35</f>
         <v>15.803118908382066</v>
       </c>
-      <c r="K31" s="7">
-        <f>K30/K32</f>
+      <c r="M34" s="7">
+        <f>M33/M35</f>
+        <v>15.132295719844358</v>
+      </c>
+      <c r="N34" s="7">
+        <f>N33/N35</f>
+        <v>6.1281553398058248</v>
+      </c>
+      <c r="O34" s="7">
+        <f>O33/O35</f>
+        <v>27.757751937984494</v>
+      </c>
+      <c r="P34" s="7">
+        <f>P33/P35</f>
         <v>-7.5520628683693518</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="Q34" s="7"/>
+      <c r="AN34" s="7">
+        <f t="shared" ref="AN34" si="89">AN33/AN35</f>
+        <v>-0.52164502164502169</v>
+      </c>
+      <c r="AO34" s="7">
+        <f t="shared" ref="AO34" si="90">AO33/AO35</f>
+        <v>1.249475890985325</v>
+      </c>
+      <c r="AP34" s="7">
+        <f t="shared" ref="AP34" si="91">AP33/AP35</f>
+        <v>4.8987603305785123</v>
+      </c>
+      <c r="AQ34" s="7">
+        <f t="shared" ref="AQ34" si="92">AQ33/AQ35</f>
+        <v>6.1521298174442194</v>
+      </c>
+      <c r="AR34" s="7">
+        <f t="shared" ref="AR34:AS34" si="93">AR33/AR35</f>
+        <v>20.146000000000001</v>
+      </c>
+      <c r="AS34" s="7">
+        <f t="shared" si="93"/>
+        <v>23.014895729890764</v>
+      </c>
+      <c r="AT34" s="7">
+        <f>AT33/AT35</f>
+        <v>41.825490196078434</v>
+      </c>
+      <c r="AU34" s="7">
+        <f>AU33/AU35</f>
+        <v>64.847424684159378</v>
+      </c>
+    </row>
+    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="C35" s="3">
+        <v>501</v>
+      </c>
+      <c r="D35" s="3">
+        <v>502</v>
+      </c>
+      <c r="E35" s="3">
+        <v>503</v>
+      </c>
+      <c r="F35" s="3">
+        <v>504</v>
+      </c>
+      <c r="G35" s="3">
+        <v>505</v>
+      </c>
+      <c r="H35" s="3">
+        <v>506</v>
+      </c>
+      <c r="I35" s="3">
+        <v>509</v>
+      </c>
+      <c r="J35" s="3">
+        <v>512</v>
+      </c>
+      <c r="K35" s="3">
         <v>513</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L35" s="3">
+        <v>513</v>
+      </c>
+      <c r="M35" s="3">
+        <v>514</v>
+      </c>
+      <c r="N35" s="3">
+        <v>515</v>
+      </c>
+      <c r="O35" s="3">
+        <v>516</v>
+      </c>
+      <c r="P35" s="3">
         <v>509</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+      <c r="AN35">
+        <v>462</v>
+      </c>
+      <c r="AO35">
+        <v>477</v>
+      </c>
+      <c r="AP35">
+        <v>484</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>493</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>500</v>
+      </c>
+      <c r="AS35" s="4">
+        <f>AVERAGE(D35:G35)</f>
+        <v>503.5</v>
+      </c>
+      <c r="AT35" s="4">
+        <f>AVERAGE(H35:K35)</f>
+        <v>510</v>
+      </c>
+      <c r="AU35" s="4">
+        <f>AVERAGE(L35:O35)</f>
+        <v>514.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:47" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="8">
-        <f>K18/G18-1</f>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10">
+        <f>G21/C21-1</f>
+        <v>0.20797701117665746</v>
+      </c>
+      <c r="H37" s="10">
+        <f>H21/D21-1</f>
+        <v>0.26385259631490787</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" ref="I37:K37" si="94">I21/E21-1</f>
+        <v>0.40230900258658764</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="94"/>
+        <v>0.37387290836084075</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="94"/>
+        <v>0.43594816839553041</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" ref="L37" si="95">L21/H21-1</f>
+        <v>0.43823888034777081</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" ref="M37" si="96">M21/I21-1</f>
+        <v>0.27181932697498645</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" ref="N37" si="97">N21/J21-1</f>
+        <v>0.15255083467679031</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37" si="98">O21/K21-1</f>
+        <v>9.4436701047349692E-2</v>
+      </c>
+      <c r="P37" s="10">
+        <f>P21/L21-1</f>
         <v>7.3038574245747334E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="AM37" s="15">
+        <f t="shared" ref="AM37:AR37" si="99">AM21/AL21-1</f>
+        <v>0.21866662301736706</v>
+      </c>
+      <c r="AN37" s="15">
+        <f t="shared" si="99"/>
+        <v>0.1952398861011122</v>
+      </c>
+      <c r="AO37" s="15">
+        <f t="shared" si="99"/>
+        <v>0.20247673843664304</v>
+      </c>
+      <c r="AP37" s="15">
+        <f t="shared" si="99"/>
+        <v>0.27083528026465808</v>
+      </c>
+      <c r="AQ37" s="15">
+        <f t="shared" si="99"/>
+        <v>0.30796326119408479</v>
+      </c>
+      <c r="AR37" s="15">
+        <f t="shared" ref="AR37:AS37" si="100">AR21/AQ21-1</f>
+        <v>0.3093396152159491</v>
+      </c>
+      <c r="AS37" s="15">
+        <f t="shared" ref="AS37:AT37" si="101">AS21/AR21-1</f>
+        <v>0.20454125820676983</v>
+      </c>
+      <c r="AT37" s="15">
+        <f t="shared" ref="AT37:AU37" si="102">AT21/AS21-1</f>
+        <v>0.37623430604373276</v>
+      </c>
+      <c r="AU37" s="15">
+        <f>AU21/AT21-1</f>
+        <v>0.21695366571345676</v>
+      </c>
+    </row>
+    <row r="38" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20">
+        <f t="shared" ref="AS38" si="103">AS12/AR12-1</f>
+        <v>0.14847097660728359</v>
+      </c>
+      <c r="AT38" s="20">
+        <f t="shared" ref="AT38" si="104">AT12/AS12-1</f>
+        <v>0.39719073679440986</v>
+      </c>
+      <c r="AU38" s="20">
+        <f>AU12/AT12-1</f>
+        <v>0.12529072860769497</v>
+      </c>
+    </row>
+    <row r="39" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20">
+        <f t="shared" ref="AS39" si="105">AS14/AR14-1</f>
+        <v>0.25771435255585451</v>
+      </c>
+      <c r="AT39" s="20">
+        <f t="shared" ref="AT39:AU39" si="106">AT14/AS14-1</f>
+        <v>0.4961961273041795</v>
+      </c>
+      <c r="AU39" s="20">
+        <f>AU14/AT14-1</f>
+        <v>0.28505538495965776</v>
+      </c>
+    </row>
+    <row r="40" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="AR40" s="20"/>
+      <c r="AS40" s="20">
+        <f t="shared" ref="AS40" si="107">AS15/AR15-1</f>
+        <v>0.35596809486835612</v>
+      </c>
+      <c r="AT40" s="20">
+        <f t="shared" ref="AT40:AU40" si="108">AT15/AS15-1</f>
+        <v>0.31218115564810001</v>
+      </c>
+      <c r="AU40" s="20">
+        <f>AU15/AT15-1</f>
+        <v>0.26028484151227826</v>
+      </c>
+    </row>
+    <row r="41" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="20">
+        <f t="shared" ref="AS41" si="109">AS16/AR16-1</f>
+        <v>0.39354966363276622</v>
+      </c>
+      <c r="AT41" s="20">
+        <f t="shared" ref="AT41:AU41" si="110">AT16/AS16-1</f>
+        <v>0.4819679114013915</v>
+      </c>
+      <c r="AU41" s="20">
+        <f t="shared" si="110"/>
+        <v>0.49269461077844312</v>
+      </c>
+    </row>
+    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="8">
-        <f>K7/G7-1</f>
+      <c r="G42" s="8">
+        <f t="shared" ref="G42:H42" si="111">G10/C10-1</f>
+        <v>0.33970390309555865</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="111"/>
+        <v>0.32783264033264037</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" ref="I42" si="112">I10/E10-1</f>
+        <v>0.28958358191146649</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" ref="J42" si="113">J10/F10-1</f>
+        <v>0.28971650917176217</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" ref="K42" si="114">K10/G10-1</f>
+        <v>0.28008840667068524</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" ref="L42" si="115">L10/H10-1</f>
+        <v>0.32136216850963883</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" ref="M42" si="116">M10/I10-1</f>
+        <v>0.37018874907475952</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" ref="N42" si="117">N10/J10-1</f>
+        <v>0.3886733902249806</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" ref="O42" si="118">O10/K10-1</f>
+        <v>0.39538533982106427</v>
+      </c>
+      <c r="P42" s="8">
+        <f>P10/L10-1</f>
         <v>0.36569651188624741</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="AO42" s="13">
+        <f t="shared" ref="AO42:AR42" si="119">AO10/AN10-1</f>
+        <v>0.69681309216192933</v>
+      </c>
+      <c r="AP42" s="13">
+        <f t="shared" si="119"/>
+        <v>0.55063451776649752</v>
+      </c>
+      <c r="AQ42" s="13">
+        <f t="shared" si="119"/>
+        <v>0.42884033063262139</v>
+      </c>
+      <c r="AR42" s="13">
+        <f t="shared" ref="AR42" si="120">AR10/AQ10-1</f>
+        <v>0.46944269431238905</v>
+      </c>
+      <c r="AS42" s="13">
+        <f t="shared" ref="AS42:AT42" si="121">AS10/AR10-1</f>
+        <v>0.36526992788930035</v>
+      </c>
+      <c r="AT42" s="13">
+        <f t="shared" ref="AT42:AU42" si="122">AT10/AS10-1</f>
+        <v>0.29532347399074976</v>
+      </c>
+      <c r="AU42" s="13">
+        <f>AU10/AT10-1</f>
+        <v>0.37099404893101173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="8">
-        <f>G21/G18</f>
+      <c r="C43" s="8">
+        <f t="shared" ref="C43:I43" si="123">C24/C21</f>
+        <v>0.24272273876462705</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="123"/>
+        <v>0.28775544388609714</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="123"/>
+        <v>0.28067629802536115</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="123"/>
+        <v>0.26452894357039769</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="123"/>
+        <v>0.24323798849457323</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="123"/>
+        <v>0.26061602078142393</v>
+      </c>
+      <c r="I43" s="8">
+        <f>I24/I21</f>
+        <v>0.25245186251574592</v>
+      </c>
+      <c r="J43" s="8">
+        <f>J24/J21</f>
+        <v>0.25309688491341203</v>
+      </c>
+      <c r="K43" s="8">
+        <f>K24/K21</f>
+        <v>0.22139301501334077</v>
+      </c>
+      <c r="L43" s="8">
+        <f>L24/L21</f>
         <v>0.2726275825208721</v>
       </c>
-      <c r="H36" s="8" t="e">
-        <f t="shared" ref="H36:K36" si="9">H21/H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" si="9"/>
+      <c r="M43" s="8">
+        <f t="shared" ref="M43:P43" si="124">M24/M21</f>
+        <v>0.27649451715599577</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="124"/>
+        <v>0.26516983720174708</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="124"/>
+        <v>0.23383692836142403</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="124"/>
         <v>0.25483494211809971</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+      <c r="AN43" s="14">
+        <f t="shared" ref="AN43:AP43" si="125">AN24/AN21</f>
+        <v>0.17384366431428958</v>
+      </c>
+      <c r="AO43" s="14">
+        <f t="shared" si="125"/>
+        <v>0.20508195802104554</v>
+      </c>
+      <c r="AP43" s="14">
+        <f t="shared" si="125"/>
+        <v>0.22136674829211617</v>
+      </c>
+      <c r="AQ43" s="14">
+        <f t="shared" ref="AQ43:AR43" si="126">AQ24/AQ21</f>
+        <v>0.22872836854710848</v>
+      </c>
+      <c r="AR43" s="14">
+        <f t="shared" ref="AR43:AT43" si="127">AR24/AR21</f>
+        <v>0.25636467471348767</v>
+      </c>
+      <c r="AS43" s="14">
+        <f t="shared" si="127"/>
+        <v>0.26648533804835273</v>
+      </c>
+      <c r="AT43" s="14">
+        <f t="shared" ref="AT43:AU43" si="128">AT24/AT21</f>
+        <v>0.24410719466202496</v>
+      </c>
+      <c r="AU43" s="14">
+        <f>AU24/AU21</f>
+        <v>0.26045395915900066</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4">
         <v>1298</v>
       </c>
-      <c r="G59" s="4">
+      <c r="L66" s="4">
         <v>1271</v>
       </c>
-      <c r="H59" s="4">
+      <c r="M66" s="4">
         <v>1335</v>
       </c>
-      <c r="I59" s="4">
+      <c r="N66" s="4">
         <v>1468</v>
       </c>
-      <c r="J59" s="4">
+      <c r="O66" s="4">
         <v>1608</v>
       </c>
-      <c r="K59" s="4">
+      <c r="P66" s="4">
         <v>1622</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AFEA6183-18E6-40BC-83A6-7384E586F887}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77562CDE-809C-4BA1-A0D1-B0A981C37D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDB610-3763-4C7F-953B-ECC737BCA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="0" windowWidth="16410" windowHeight="15000" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="10995" yWindow="1995" windowWidth="17760" windowHeight="13500" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Main</t>
   </si>
@@ -222,6 +222,60 @@
   </si>
   <si>
     <t xml:space="preserve">  Electronics/General</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
@@ -737,7 +791,7 @@
   <dimension ref="J2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -802,9 +856,7 @@
         <f>K4-K5+K6</f>
         <v>1107384.3999999999</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,13 +865,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:BN66"/>
+  <dimension ref="A1:DN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AW16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ24" sqref="AQ24"/>
+      <selection pane="bottomRight" activeCell="BC44" sqref="BC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1386,9 +1438,34 @@
       <c r="P10" s="4">
         <v>18441</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="Q10" s="4">
+        <f>+M10*1.4</f>
+        <v>20732.599999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" ref="R10:W10" si="3">+N10*1.4</f>
+        <v>22554</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="3"/>
+        <v>24892</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="3"/>
+        <v>25817.399999999998</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="3"/>
+        <v>29025.639999999996</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="3"/>
+        <v>31575.599999999999</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="3"/>
+        <v>34848.799999999996</v>
+      </c>
       <c r="AN10" s="17">
         <v>4644</v>
       </c>
@@ -1416,6 +1493,42 @@
         <f>SUM(L10:O10)</f>
         <v>62202</v>
       </c>
+      <c r="AV10" s="2">
+        <f>SUM(P10:S10)</f>
+        <v>86619.6</v>
+      </c>
+      <c r="AW10" s="2">
+        <f>SUM(T10:W10)</f>
+        <v>121267.43999999997</v>
+      </c>
+      <c r="AX10" s="2">
+        <f>+AW10*1.3</f>
+        <v>157647.67199999996</v>
+      </c>
+      <c r="AY10" s="2">
+        <f t="shared" ref="AY10:BA10" si="4">+AX10*1.3</f>
+        <v>204941.97359999997</v>
+      </c>
+      <c r="AZ10" s="2">
+        <f t="shared" si="4"/>
+        <v>266424.56567999994</v>
+      </c>
+      <c r="BA10" s="2">
+        <f t="shared" si="4"/>
+        <v>346351.93538399995</v>
+      </c>
+      <c r="BB10" s="2">
+        <f>+BA10*1.2</f>
+        <v>415622.32246079994</v>
+      </c>
+      <c r="BC10" s="2">
+        <f t="shared" ref="BC10:BD10" si="5">+BB10*1.2</f>
+        <v>498746.7869529599</v>
+      </c>
+      <c r="BD10" s="2">
+        <f t="shared" si="5"/>
+        <v>598496.14434355183</v>
+      </c>
     </row>
     <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -1463,24 +1576,85 @@
       <c r="P12" s="4">
         <v>51129</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="Q12" s="4">
+        <f>+M12*1.1</f>
+        <v>58472.700000000004</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" ref="R12:W12" si="6">+N12*1.1</f>
+        <v>54936.200000000004</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="6"/>
+        <v>72682.5</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="6"/>
+        <v>56241.9</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="6"/>
+        <v>64319.970000000008</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="6"/>
+        <v>60429.820000000007</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="6"/>
+        <v>79950.75</v>
+      </c>
       <c r="AR12" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" ref="AS12:AS27" si="3">SUM(D12:G12)</f>
+        <f t="shared" ref="AS12:AS27" si="7">SUM(D12:G12)</f>
         <v>141247</v>
       </c>
       <c r="AT12" s="2">
-        <f t="shared" ref="AT12:AT17" si="4">SUM(H12:K12)</f>
+        <f t="shared" ref="AT12:AT17" si="8">SUM(H12:K12)</f>
         <v>197349</v>
       </c>
       <c r="AU12" s="2">
-        <f t="shared" ref="AU12:AU17" si="5">SUM(L12:O12)</f>
+        <f t="shared" ref="AU12:AU17" si="9">SUM(L12:O12)</f>
         <v>222075</v>
+      </c>
+      <c r="AV12" s="2">
+        <f>SUM(P12:S12)</f>
+        <v>237220.40000000002</v>
+      </c>
+      <c r="AW12" s="2">
+        <f>SUM(T12:W12)</f>
+        <v>260942.44</v>
+      </c>
+      <c r="AX12" s="2">
+        <f>+AW12*1.05</f>
+        <v>273989.56200000003</v>
+      </c>
+      <c r="AY12" s="2">
+        <f t="shared" ref="AY12:BD12" si="10">+AX12*1.05</f>
+        <v>287689.04010000004</v>
+      </c>
+      <c r="AZ12" s="2">
+        <f t="shared" si="10"/>
+        <v>302073.49210500007</v>
+      </c>
+      <c r="BA12" s="2">
+        <f t="shared" si="10"/>
+        <v>317177.16671025008</v>
+      </c>
+      <c r="BB12" s="2">
+        <f t="shared" si="10"/>
+        <v>333036.0250457626</v>
+      </c>
+      <c r="BC12" s="2">
+        <f t="shared" si="10"/>
+        <v>349687.82629805076</v>
+      </c>
+      <c r="BD12" s="2">
+        <f t="shared" si="10"/>
+        <v>367172.21761295333</v>
       </c>
     </row>
     <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1529,24 +1703,85 @@
       <c r="P13" s="4">
         <v>4591</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="Q13" s="4">
+        <f>+M13</f>
+        <v>4198</v>
+      </c>
+      <c r="R13" s="4">
+        <f>+N13</f>
+        <v>4269</v>
+      </c>
+      <c r="S13" s="4">
+        <f>+O13</f>
+        <v>4688</v>
+      </c>
+      <c r="T13" s="4">
+        <f>+P13</f>
+        <v>4591</v>
+      </c>
+      <c r="U13" s="4">
+        <f>+Q13</f>
+        <v>4198</v>
+      </c>
+      <c r="V13" s="4">
+        <f>+R13</f>
+        <v>4269</v>
+      </c>
+      <c r="W13" s="4">
+        <f>+S13</f>
+        <v>4688</v>
+      </c>
       <c r="AR13" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17192</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16224</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17075</v>
+      </c>
+      <c r="AV13" s="2">
+        <f>SUM(P13:S13)</f>
+        <v>17746</v>
+      </c>
+      <c r="AW13" s="2">
+        <f>SUM(T13:W13)</f>
+        <v>17746</v>
+      </c>
+      <c r="AX13" s="2">
+        <f t="shared" ref="AX13:BD13" si="11">+AW13*1.05</f>
+        <v>18633.3</v>
+      </c>
+      <c r="AY13" s="2">
+        <f t="shared" si="11"/>
+        <v>19564.965</v>
+      </c>
+      <c r="AZ13" s="2">
+        <f t="shared" si="11"/>
+        <v>20543.213250000001</v>
+      </c>
+      <c r="BA13" s="2">
+        <f t="shared" si="11"/>
+        <v>21570.373912500003</v>
+      </c>
+      <c r="BB13" s="2">
+        <f t="shared" si="11"/>
+        <v>22648.892608125003</v>
+      </c>
+      <c r="BC13" s="2">
+        <f t="shared" si="11"/>
+        <v>23781.337238531254</v>
+      </c>
+      <c r="BD13" s="2">
+        <f t="shared" si="11"/>
+        <v>24970.404100457818</v>
       </c>
     </row>
     <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1595,24 +1830,85 @@
       <c r="P14" s="4">
         <v>25335</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="Q14" s="4">
+        <f>+M14*1.2</f>
+        <v>30102</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" ref="R14:W14" si="12">+N14*1.2</f>
+        <v>29102.399999999998</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="12"/>
+        <v>36384</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="12"/>
+        <v>30402</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="12"/>
+        <v>36122.400000000001</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="12"/>
+        <v>34922.879999999997</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="12"/>
+        <v>43660.799999999996</v>
+      </c>
       <c r="AR14" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>53761</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>80437</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>103366</v>
+      </c>
+      <c r="AV14" s="2">
+        <f>SUM(P14:S14)</f>
+        <v>120923.4</v>
+      </c>
+      <c r="AW14" s="2">
+        <f>SUM(T14:W14)</f>
+        <v>145108.07999999999</v>
+      </c>
+      <c r="AX14" s="2">
+        <f t="shared" ref="AX14:BD14" si="13">+AW14*1.05</f>
+        <v>152363.484</v>
+      </c>
+      <c r="AY14" s="2">
+        <f t="shared" si="13"/>
+        <v>159981.65820000001</v>
+      </c>
+      <c r="AZ14" s="2">
+        <f t="shared" si="13"/>
+        <v>167980.74111</v>
+      </c>
+      <c r="BA14" s="2">
+        <f t="shared" si="13"/>
+        <v>176379.7781655</v>
+      </c>
+      <c r="BB14" s="2">
+        <f t="shared" si="13"/>
+        <v>185198.767073775</v>
+      </c>
+      <c r="BC14" s="2">
+        <f t="shared" si="13"/>
+        <v>194458.70542746375</v>
+      </c>
+      <c r="BD14" s="2">
+        <f t="shared" si="13"/>
+        <v>204181.64069883694</v>
       </c>
     </row>
     <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1661,24 +1957,85 @@
       <c r="P15" s="4">
         <v>8410</v>
       </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="Q15" s="4">
+        <f t="shared" ref="Q15:Q16" si="14">+M15*1.2</f>
+        <v>9500.4</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" ref="R15:R16" si="15">+N15*1.2</f>
+        <v>9777.6</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" ref="S15:S16" si="16">+O15*1.2</f>
+        <v>9747.6</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" ref="T15:T16" si="17">+P15*1.2</f>
+        <v>10092</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" ref="U15:U16" si="18">+Q15*1.2</f>
+        <v>11400.48</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" ref="V15:V16" si="19">+R15*1.2</f>
+        <v>11733.12</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" ref="W15:W16" si="20">+S15*1.2</f>
+        <v>11697.12</v>
+      </c>
       <c r="AR15" s="2">
         <f>3102+3408+3698+3959</f>
         <v>14167</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19210</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>25207</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>31768</v>
+      </c>
+      <c r="AV15" s="2">
+        <f>SUM(P15:S15)</f>
+        <v>37435.599999999999</v>
+      </c>
+      <c r="AW15" s="2">
+        <f>SUM(T15:W15)</f>
+        <v>44922.720000000001</v>
+      </c>
+      <c r="AX15" s="2">
+        <f>+AW15*1.1</f>
+        <v>49414.992000000006</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" ref="AY15:BA15" si="21">+AX15*1.1</f>
+        <v>54356.491200000011</v>
+      </c>
+      <c r="AZ15" s="2">
+        <f t="shared" si="21"/>
+        <v>59792.14032000002</v>
+      </c>
+      <c r="BA15" s="2">
+        <f t="shared" si="21"/>
+        <v>65771.354352000024</v>
+      </c>
+      <c r="BB15" s="2">
+        <f t="shared" ref="AX15:BD15" si="22">+BA15*1.05</f>
+        <v>69059.922069600027</v>
+      </c>
+      <c r="BC15" s="2">
+        <f t="shared" si="22"/>
+        <v>72512.918173080034</v>
+      </c>
+      <c r="BD15" s="2">
+        <f t="shared" si="22"/>
+        <v>76138.564081734032</v>
       </c>
     </row>
     <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1727,27 +2084,88 @@
       <c r="P16" s="4">
         <v>7877</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="14"/>
+        <v>8941.1999999999989</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="15"/>
+        <v>9134.4</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="16"/>
+        <v>11659.199999999999</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="17"/>
+        <v>9452.4</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="18"/>
+        <v>10729.439999999999</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="19"/>
+        <v>10961.279999999999</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="20"/>
+        <v>13991.039999999999</v>
+      </c>
       <c r="AR16" s="2">
         <f>2031+2194+2495+3388</f>
         <v>10108</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14086</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20875</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>31160</v>
       </c>
-    </row>
-    <row r="17" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV16" s="2">
+        <f>SUM(P16:S16)</f>
+        <v>37611.799999999996</v>
+      </c>
+      <c r="AW16" s="2">
+        <f>SUM(T16:W16)</f>
+        <v>45134.159999999996</v>
+      </c>
+      <c r="AX16" s="2">
+        <f t="shared" ref="AX16:BA16" si="23">+AW16*1.1</f>
+        <v>49647.576000000001</v>
+      </c>
+      <c r="AY16" s="2">
+        <f t="shared" si="23"/>
+        <v>54612.333600000005</v>
+      </c>
+      <c r="AZ16" s="2">
+        <f t="shared" si="23"/>
+        <v>60073.566960000011</v>
+      </c>
+      <c r="BA16" s="2">
+        <f t="shared" si="23"/>
+        <v>66080.923656000014</v>
+      </c>
+      <c r="BB16" s="2">
+        <f t="shared" ref="AX16:BD16" si="24">+BA16*1.05</f>
+        <v>69384.969838800011</v>
+      </c>
+      <c r="BC16" s="2">
+        <f t="shared" si="24"/>
+        <v>72854.218330740012</v>
+      </c>
+      <c r="BD16" s="2">
+        <f t="shared" si="24"/>
+        <v>76496.929247277018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1791,23 +2209,88 @@
       <c r="P17" s="4">
         <v>661</v>
       </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="Q17" s="4">
+        <f>+M17</f>
+        <v>463</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" ref="R17:W17" si="25">+N17</f>
+        <v>479</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="25"/>
+        <v>710</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="25"/>
+        <v>661</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="25"/>
+        <v>463</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="25"/>
+        <v>479</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="25"/>
+        <v>710</v>
+      </c>
       <c r="AS17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>602</v>
       </c>
       <c r="AU17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2176</v>
       </c>
-    </row>
-    <row r="19" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV17" s="2">
+        <f>SUM(P17:S17)</f>
+        <v>2313</v>
+      </c>
+      <c r="AW17" s="2">
+        <f>SUM(T17:W17)</f>
+        <v>2313</v>
+      </c>
+      <c r="AX17" s="2">
+        <f t="shared" ref="AX17:BD17" si="26">+AW17*1.05</f>
+        <v>2428.65</v>
+      </c>
+      <c r="AY17" s="2">
+        <f t="shared" si="26"/>
+        <v>2550.0825</v>
+      </c>
+      <c r="AZ17" s="2">
+        <f t="shared" si="26"/>
+        <v>2677.5866249999999</v>
+      </c>
+      <c r="BA17" s="2">
+        <f t="shared" si="26"/>
+        <v>2811.4659562500001</v>
+      </c>
+      <c r="BB17" s="2">
+        <f t="shared" si="26"/>
+        <v>2952.0392540625003</v>
+      </c>
+      <c r="BC17" s="2">
+        <f t="shared" si="26"/>
+        <v>3099.6412167656254</v>
+      </c>
+      <c r="BD17" s="2">
+        <f t="shared" si="26"/>
+        <v>3254.6232776039069</v>
+      </c>
+    </row>
+    <row r="18" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+    </row>
+    <row r="19" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +2346,7 @@
         <v>141915</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>160407</v>
       </c>
       <c r="AT19" s="2">
@@ -1871,11 +2354,11 @@
         <v>215915</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" ref="AU19:AU27" si="6">SUM(L19:O19)</f>
+        <f t="shared" ref="AU19:AU27" si="27">SUM(L19:O19)</f>
         <v>241787</v>
       </c>
     </row>
-    <row r="20" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1931,72 +2414,72 @@
         <v>90972</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>120115</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" ref="AT20:AT27" si="7">SUM(H20:K20)</f>
+        <f t="shared" ref="AT20:AT27" si="28">SUM(H20:K20)</f>
         <v>170149</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>228035</v>
       </c>
     </row>
-    <row r="21" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:D21" si="8">C19+C20</f>
+        <f t="shared" ref="C21" si="29">C19+C20</f>
         <v>72383</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:F21" si="9">D19+D20</f>
+        <f t="shared" ref="D21:F21" si="30">D19+D20</f>
         <v>59700</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:F21" si="10">E19+E20</f>
+        <f t="shared" ref="E21" si="31">E19+E20</f>
         <v>63404</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>69981</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21" si="11">G19+G20</f>
+        <f t="shared" ref="G21" si="32">G19+G20</f>
         <v>87437</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:I21" si="12">H19+H20</f>
+        <f t="shared" ref="H21" si="33">H19+H20</f>
         <v>75452</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" ref="I21:J21" si="13">I19+I20</f>
+        <f t="shared" ref="I21" si="34">I19+I20</f>
         <v>88912</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:O21" si="14">J19+J20</f>
+        <f t="shared" ref="J21:O21" si="35">J19+J20</f>
         <v>96145</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>125555</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>108518</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>113080</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>110812</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>137412</v>
       </c>
       <c r="P21" s="6">
@@ -2004,32 +2487,32 @@
         <v>116444</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" ref="Q21:S21" si="15">Q19+Q20</f>
-        <v>0</v>
+        <f>SUM(Q10:Q17)</f>
+        <v>132409.9</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="R21:W21" si="36">SUM(R10:R17)</f>
+        <v>130252.6</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>160763.30000000002</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" ref="T21" si="16">T19+T20</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>137257.70000000001</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" ref="U21" si="17">U19+U20</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>156258.93000000002</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" ref="V21" si="18">V19+V20</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>154370.70000000001</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" ref="W21" si="19">W19+W20</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>189546.50999999998</v>
       </c>
       <c r="AL21" s="5">
         <v>61093</v>
@@ -2042,19 +2525,19 @@
         <v>88988</v>
       </c>
       <c r="AO21" s="5">
-        <f t="shared" ref="AO21:AP21" si="20">+AO4+AO7+AO10</f>
+        <f t="shared" ref="AO21:AP21" si="37">+AO4+AO7+AO10</f>
         <v>107006</v>
       </c>
       <c r="AP21" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>135987</v>
       </c>
       <c r="AQ21" s="6">
-        <f t="shared" ref="AQ21" si="21">AQ19+AQ20</f>
+        <f t="shared" ref="AQ21" si="38">AQ19+AQ20</f>
         <v>177866</v>
       </c>
       <c r="AR21" s="6">
-        <f t="shared" ref="AR21" si="22">AR19+AR20</f>
+        <f t="shared" ref="AR21" si="39">AR19+AR20</f>
         <v>232887</v>
       </c>
       <c r="AS21" s="6">
@@ -2069,8 +2552,44 @@
         <f>AU19+AU20</f>
         <v>469822</v>
       </c>
-    </row>
-    <row r="22" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV21" s="5">
+        <f>SUM(AV10:AV17)</f>
+        <v>539869.80000000005</v>
+      </c>
+      <c r="AW21" s="5">
+        <f>SUM(AW10:AW17)</f>
+        <v>637433.84</v>
+      </c>
+      <c r="AX21" s="5">
+        <f t="shared" ref="AX21:BD21" si="40">SUM(AX10:AX17)</f>
+        <v>704125.23599999992</v>
+      </c>
+      <c r="AY21" s="5">
+        <f t="shared" si="40"/>
+        <v>783696.54420000012</v>
+      </c>
+      <c r="AZ21" s="5">
+        <f t="shared" si="40"/>
+        <v>879565.30605000001</v>
+      </c>
+      <c r="BA21" s="5">
+        <f t="shared" si="40"/>
+        <v>996142.99813650013</v>
+      </c>
+      <c r="BB21" s="5">
+        <f t="shared" si="40"/>
+        <v>1097902.938350925</v>
+      </c>
+      <c r="BC21" s="5">
+        <f t="shared" si="40"/>
+        <v>1215141.4336375913</v>
+      </c>
+      <c r="BD21" s="5">
+        <f t="shared" si="40"/>
+        <v>1350710.5233624149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2116,9 +2635,34 @@
       <c r="P22" s="4">
         <v>66499</v>
       </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="Q22" s="4">
+        <f>SUM(Q12:Q14)*0.8+Q10*0.7</f>
+        <v>88730.98000000001</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" ref="R22:W22" si="41">SUM(R12:R14)*0.8+R10*0.7</f>
+        <v>86433.88</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="41"/>
+        <v>108428</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="41"/>
+        <v>91060.099999999991</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="41"/>
+        <v>104030.24400000001</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="41"/>
+        <v>101800.28000000001</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="41"/>
+        <v>127033.79999999999</v>
+      </c>
       <c r="AN22" s="2">
         <v>62752</v>
       </c>
@@ -2135,19 +2679,55 @@
         <v>139156</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>165536</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>233307</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>272344</v>
       </c>
-    </row>
-    <row r="23" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV22" s="17">
+        <f>SUM(P22:S22)</f>
+        <v>350091.86</v>
+      </c>
+      <c r="AW22" s="17">
+        <f>SUM(T22:W22)</f>
+        <v>423924.424</v>
+      </c>
+      <c r="AX22" s="4">
+        <f t="shared" ref="AX22:BD22" si="42">SUM(AX12:AX14)*0.8+AX10*0.7</f>
+        <v>466342.4472</v>
+      </c>
+      <c r="AY22" s="4">
+        <f t="shared" si="42"/>
+        <v>517247.91216000007</v>
+      </c>
+      <c r="AZ22" s="4">
+        <f t="shared" si="42"/>
+        <v>578975.15314800001</v>
+      </c>
+      <c r="BA22" s="4">
+        <f t="shared" si="42"/>
+        <v>654548.20979940007</v>
+      </c>
+      <c r="BB22" s="4">
+        <f t="shared" si="42"/>
+        <v>723642.57350469008</v>
+      </c>
+      <c r="BC22" s="4">
+        <f t="shared" si="42"/>
+        <v>803465.04603830853</v>
+      </c>
+      <c r="BD22" s="4">
+        <f t="shared" si="42"/>
+        <v>896006.71097028488</v>
+      </c>
+    </row>
+    <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2193,9 +2773,34 @@
       <c r="P23" s="4">
         <v>20271</v>
       </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="Q23" s="4">
+        <f>(Q14+Q12)*0.1</f>
+        <v>8857.4700000000012</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" ref="R23:W23" si="43">(R14+R12)*0.1</f>
+        <v>8403.86</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="43"/>
+        <v>10906.650000000001</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="43"/>
+        <v>8664.39</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="43"/>
+        <v>10044.237000000001</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="43"/>
+        <v>9535.2700000000023</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="43"/>
+        <v>12361.154999999999</v>
+      </c>
       <c r="AN23" s="2">
         <v>10766</v>
       </c>
@@ -2212,24 +2817,60 @@
         <v>34027</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40231</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>58516</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>75111</v>
       </c>
-    </row>
-    <row r="24" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV23" s="17">
+        <f>SUM(P23:S23)</f>
+        <v>48438.98</v>
+      </c>
+      <c r="AW23" s="17">
+        <f>SUM(T23:W23)</f>
+        <v>40605.052000000003</v>
+      </c>
+      <c r="AX23" s="4">
+        <f t="shared" ref="AX23:BD23" si="44">(AX14+AX12)*0.1</f>
+        <v>42635.304600000003</v>
+      </c>
+      <c r="AY23" s="4">
+        <f t="shared" si="44"/>
+        <v>44767.069830000008</v>
+      </c>
+      <c r="AZ23" s="4">
+        <f t="shared" si="44"/>
+        <v>47005.423321500013</v>
+      </c>
+      <c r="BA23" s="4">
+        <f t="shared" si="44"/>
+        <v>49355.694487575012</v>
+      </c>
+      <c r="BB23" s="4">
+        <f t="shared" si="44"/>
+        <v>51823.47921195376</v>
+      </c>
+      <c r="BC23" s="4">
+        <f t="shared" si="44"/>
+        <v>54414.653172551451</v>
+      </c>
+      <c r="BD23" s="4">
+        <f t="shared" si="44"/>
+        <v>57135.385831179032</v>
+      </c>
+    </row>
+    <row r="24" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24" si="23">C21-C22-C23</f>
+        <f t="shared" ref="C24" si="45">C21-C22-C23</f>
         <v>17569</v>
       </c>
       <c r="D24" s="4">
@@ -2237,7 +2878,7 @@
         <v>17179</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24" si="24">E21-E22-E23</f>
+        <f t="shared" ref="E24" si="46">E21-E22-E23</f>
         <v>17796</v>
       </c>
       <c r="F24" s="4">
@@ -2245,15 +2886,15 @@
         <v>18512</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ref="G24" si="25">G21-G22-G23</f>
+        <f t="shared" ref="G24" si="47">G21-G22-G23</f>
         <v>21268</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" ref="H24" si="26">H21-H22-H23</f>
+        <f t="shared" ref="H24" si="48">H21-H22-H23</f>
         <v>19664</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ref="I24" si="27">I21-I22-I23</f>
+        <f t="shared" ref="I24" si="49">I21-I22-I23</f>
         <v>22446</v>
       </c>
       <c r="J24" s="4">
@@ -2261,7 +2902,7 @@
         <v>24334</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" ref="K24" si="28">K21-K22-K23</f>
+        <f t="shared" ref="K24" si="50">K21-K22-K23</f>
         <v>27797</v>
       </c>
       <c r="L24" s="4">
@@ -2269,58 +2910,119 @@
         <v>29585</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24:P24" si="29">M21-M22-M23</f>
+        <f t="shared" ref="M24:W24" si="51">M21-M22-M23</f>
         <v>31266</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>29384</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>32132</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>29674</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="51"/>
+        <v>34821.449999999983</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="51"/>
+        <v>35414.86</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="51"/>
+        <v>41428.650000000016</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="51"/>
+        <v>37533.210000000021</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="51"/>
+        <v>42184.449000000015</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="51"/>
+        <v>43035.149999999994</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="51"/>
+        <v>50151.554999999993</v>
+      </c>
       <c r="AN24" s="4">
-        <f t="shared" ref="AN24:AR24" si="30">AN21-AN22-AN23</f>
+        <f t="shared" ref="AN24:AQ24" si="52">AN21-AN22-AN23</f>
         <v>15470</v>
       </c>
       <c r="AO24" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>21945</v>
       </c>
       <c r="AP24" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>30103</v>
       </c>
       <c r="AQ24" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>40683</v>
       </c>
       <c r="AR24" s="4">
-        <f t="shared" ref="AR24:AT24" si="31">AR21-AR22-AR23</f>
+        <f t="shared" ref="AR24:AS24" si="53">AR21-AR22-AR23</f>
         <v>59704</v>
       </c>
       <c r="AS24" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="53"/>
         <v>74755</v>
       </c>
       <c r="AT24" s="4">
-        <f t="shared" ref="AT24:AU24" si="32">AT21-AT22-AT23</f>
+        <f t="shared" ref="AT24:BD24" si="54">AT21-AT22-AT23</f>
         <v>94241</v>
       </c>
       <c r="AU24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="54"/>
         <v>122367</v>
       </c>
-    </row>
-    <row r="25" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV24" s="4">
+        <f t="shared" si="54"/>
+        <v>141338.96000000005</v>
+      </c>
+      <c r="AW24" s="4">
+        <f t="shared" si="54"/>
+        <v>172904.36399999997</v>
+      </c>
+      <c r="AX24" s="4">
+        <f t="shared" si="54"/>
+        <v>195147.48419999992</v>
+      </c>
+      <c r="AY24" s="4">
+        <f t="shared" si="54"/>
+        <v>221681.56221000006</v>
+      </c>
+      <c r="AZ24" s="4">
+        <f t="shared" si="54"/>
+        <v>253584.72958049999</v>
+      </c>
+      <c r="BA24" s="4">
+        <f t="shared" si="54"/>
+        <v>292239.09384952503</v>
+      </c>
+      <c r="BB24" s="4">
+        <f t="shared" si="54"/>
+        <v>322436.88563428115</v>
+      </c>
+      <c r="BC24" s="4">
+        <f t="shared" si="54"/>
+        <v>357261.73442673136</v>
+      </c>
+      <c r="BD24" s="4">
+        <f t="shared" si="54"/>
+        <v>397568.42656095099</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2366,9 +3068,34 @@
       <c r="P25" s="4">
         <v>14842</v>
       </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="Q25" s="4">
+        <f>+M25*1.1</f>
+        <v>15258.1</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" ref="R25:W25" si="55">+N25*1.1</f>
+        <v>15818.000000000002</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="55"/>
+        <v>16844.300000000003</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="55"/>
+        <v>16326.2</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="55"/>
+        <v>16783.910000000003</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="55"/>
+        <v>17399.800000000003</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="55"/>
+        <v>18528.730000000003</v>
+      </c>
       <c r="AN25" s="2">
         <v>9275</v>
       </c>
@@ -2385,19 +3112,55 @@
         <v>28837</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>35932</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>42738</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>56052</v>
       </c>
-    </row>
-    <row r="26" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV25" s="17">
+        <f>SUM(P25:S25)</f>
+        <v>62762.400000000001</v>
+      </c>
+      <c r="AW25" s="17">
+        <f>SUM(T25:W25)</f>
+        <v>69038.640000000014</v>
+      </c>
+      <c r="AX25" s="2">
+        <f>+AW25*1.03</f>
+        <v>71109.799200000023</v>
+      </c>
+      <c r="AY25" s="2">
+        <f t="shared" ref="AY25:BD25" si="56">+AX25*1.03</f>
+        <v>73243.093176000024</v>
+      </c>
+      <c r="AZ25" s="2">
+        <f t="shared" si="56"/>
+        <v>75440.385971280033</v>
+      </c>
+      <c r="BA25" s="2">
+        <f t="shared" si="56"/>
+        <v>77703.597550418432</v>
+      </c>
+      <c r="BB25" s="2">
+        <f t="shared" si="56"/>
+        <v>80034.705476930991</v>
+      </c>
+      <c r="BC25" s="2">
+        <f t="shared" si="56"/>
+        <v>82435.746641238919</v>
+      </c>
+      <c r="BD25" s="2">
+        <f t="shared" si="56"/>
+        <v>84908.819040476083</v>
+      </c>
+    </row>
+    <row r="26" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2443,9 +3206,34 @@
       <c r="P26" s="4">
         <v>8320</v>
       </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="Q26" s="4">
+        <f>+M26*1.05</f>
+        <v>7900.2000000000007</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" ref="R26:R27" si="57">+N26*1.05</f>
+        <v>8410.5</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" ref="S26:S27" si="58">+O26*1.05</f>
+        <v>11350.5</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" ref="T26:T27" si="59">+P26*1.05</f>
+        <v>8736</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" ref="U26:U27" si="60">+Q26*1.05</f>
+        <v>8295.2100000000009</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" ref="V26:V27" si="61">+R26*1.05</f>
+        <v>8831.0249999999996</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" ref="W26:W27" si="62">+S26*1.05</f>
+        <v>11918.025</v>
+      </c>
       <c r="AN26" s="2">
         <v>4332</v>
       </c>
@@ -2462,19 +3250,55 @@
         <v>13814</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18879</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>22010</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>32551</v>
       </c>
-    </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV26" s="17">
+        <f>SUM(P26:S26)</f>
+        <v>35981.199999999997</v>
+      </c>
+      <c r="AW26" s="17">
+        <f>SUM(T26:W26)</f>
+        <v>37780.26</v>
+      </c>
+      <c r="AX26" s="2">
+        <f t="shared" ref="AX26:BD26" si="63">+AW26*1.03</f>
+        <v>38913.667800000003</v>
+      </c>
+      <c r="AY26" s="2">
+        <f t="shared" si="63"/>
+        <v>40081.077834000003</v>
+      </c>
+      <c r="AZ26" s="2">
+        <f t="shared" si="63"/>
+        <v>41283.510169020003</v>
+      </c>
+      <c r="BA26" s="2">
+        <f t="shared" si="63"/>
+        <v>42522.015474090607</v>
+      </c>
+      <c r="BB26" s="2">
+        <f t="shared" si="63"/>
+        <v>43797.675938313325</v>
+      </c>
+      <c r="BC26" s="2">
+        <f t="shared" si="63"/>
+        <v>45111.606216462729</v>
+      </c>
+      <c r="BD26" s="2">
+        <f t="shared" si="63"/>
+        <v>46464.95440295661</v>
+      </c>
+    </row>
+    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2520,6 +3344,34 @@
       <c r="P27" s="4">
         <v>2594</v>
       </c>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27" si="64">+M27*1.05</f>
+        <v>2265.9</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="57"/>
+        <v>2260.65</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="58"/>
+        <v>2651.25</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="59"/>
+        <v>2723.7000000000003</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="60"/>
+        <v>2379.1950000000002</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="61"/>
+        <v>2373.6825000000003</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="62"/>
+        <v>2783.8125</v>
+      </c>
       <c r="AN27" s="2">
         <v>1552</v>
       </c>
@@ -2536,24 +3388,60 @@
         <v>4336</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5203</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>6668</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>8823</v>
       </c>
-    </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV27" s="17">
+        <f>SUM(P27:S27)</f>
+        <v>9771.7999999999993</v>
+      </c>
+      <c r="AW27" s="17">
+        <f>SUM(T27:W27)</f>
+        <v>10260.390000000001</v>
+      </c>
+      <c r="AX27" s="2">
+        <f t="shared" ref="AX27:BD27" si="65">+AW27*1.03</f>
+        <v>10568.201700000001</v>
+      </c>
+      <c r="AY27" s="2">
+        <f t="shared" si="65"/>
+        <v>10885.247751000003</v>
+      </c>
+      <c r="AZ27" s="2">
+        <f t="shared" si="65"/>
+        <v>11211.805183530003</v>
+      </c>
+      <c r="BA27" s="2">
+        <f t="shared" si="65"/>
+        <v>11548.159339035903</v>
+      </c>
+      <c r="BB27" s="2">
+        <f t="shared" si="65"/>
+        <v>11894.604119206981</v>
+      </c>
+      <c r="BC27" s="2">
+        <f t="shared" si="65"/>
+        <v>12251.442242783191</v>
+      </c>
+      <c r="BD27" s="2">
+        <f t="shared" si="65"/>
+        <v>12618.985510066686</v>
+      </c>
+    </row>
+    <row r="28" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28" si="33">SUM(C25:C27)</f>
+        <f t="shared" ref="C28" si="66">SUM(C25:C27)</f>
         <v>13697</v>
       </c>
       <c r="D28" s="4">
@@ -2561,7 +3449,7 @@
         <v>12764</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ref="E28" si="34">SUM(E25:E27)</f>
+        <f t="shared" ref="E28" si="67">SUM(E25:E27)</f>
         <v>14626</v>
       </c>
       <c r="F28" s="4">
@@ -2569,15 +3457,15 @@
         <v>15300</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28" si="35">SUM(G25:G27)</f>
+        <f t="shared" ref="G28" si="68">SUM(G25:G27)</f>
         <v>17324</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" ref="H28" si="36">SUM(H25:H27)</f>
+        <f t="shared" ref="H28" si="69">SUM(H25:H27)</f>
         <v>15605</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28" si="37">SUM(I25:I27)</f>
+        <f t="shared" ref="I28" si="70">SUM(I25:I27)</f>
         <v>16313</v>
       </c>
       <c r="J28" s="4">
@@ -2585,7 +3473,7 @@
         <v>18078</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28" si="38">SUM(K25:K27)</f>
+        <f t="shared" ref="K28" si="71">SUM(K25:K27)</f>
         <v>21420</v>
       </c>
       <c r="L28" s="4">
@@ -2593,60 +3481,124 @@
         <v>20682</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28:P28" si="39">SUM(M25:M27)</f>
+        <f t="shared" ref="M28:P28" si="72">SUM(M25:M27)</f>
         <v>23553</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="72"/>
         <v>24543</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="72"/>
         <v>28648</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="72"/>
         <v>25756</v>
       </c>
+      <c r="Q28" s="4">
+        <f t="shared" ref="Q28:W28" si="73">SUM(Q25:Q27)</f>
+        <v>25424.200000000004</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="73"/>
+        <v>26489.15</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="73"/>
+        <v>30846.050000000003</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="73"/>
+        <v>27785.9</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="73"/>
+        <v>27458.315000000002</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="73"/>
+        <v>28604.507500000003</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="73"/>
+        <v>33230.567500000005</v>
+      </c>
       <c r="AN28" s="4">
-        <f t="shared" ref="AN28:AQ28" si="40">SUM(AN25:AN27)</f>
+        <f t="shared" ref="AN28:AP28" si="74">SUM(AN25:AN27)</f>
         <v>15159</v>
       </c>
       <c r="AO28" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="74"/>
         <v>19541</v>
       </c>
       <c r="AP28" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="74"/>
         <v>25750</v>
       </c>
       <c r="AQ28" s="4">
-        <f t="shared" ref="AQ28:AR28" si="41">SUM(AQ25:AQ27)</f>
+        <f t="shared" ref="AQ28" si="75">SUM(AQ25:AQ27)</f>
         <v>36363</v>
       </c>
       <c r="AR28" s="4">
-        <f t="shared" ref="AR28:AT28" si="42">SUM(AR25:AR27)</f>
+        <f t="shared" ref="AR28:AS28" si="76">SUM(AR25:AR27)</f>
         <v>46987</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="76"/>
         <v>60014</v>
       </c>
       <c r="AT28" s="4">
-        <f t="shared" ref="AT28:AU28" si="43">SUM(AT25:AT27)</f>
+        <f t="shared" ref="AT28:AU28" si="77">SUM(AT25:AT27)</f>
         <v>71416</v>
       </c>
       <c r="AU28" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="77"/>
         <v>97426</v>
       </c>
-    </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV28" s="4">
+        <f t="shared" ref="AV28:AW28" si="78">SUM(AV25:AV27)</f>
+        <v>108515.40000000001</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="78"/>
+        <v>117079.29000000002</v>
+      </c>
+      <c r="AX28" s="4">
+        <f t="shared" ref="AX28:BD28" si="79">SUM(AX25:AX27)</f>
+        <v>120591.66870000004</v>
+      </c>
+      <c r="AY28" s="4">
+        <f t="shared" si="79"/>
+        <v>124209.41876100002</v>
+      </c>
+      <c r="AZ28" s="4">
+        <f t="shared" si="79"/>
+        <v>127935.70132383003</v>
+      </c>
+      <c r="BA28" s="4">
+        <f t="shared" si="79"/>
+        <v>131773.77236354494</v>
+      </c>
+      <c r="BB28" s="4">
+        <f t="shared" si="79"/>
+        <v>135726.98553445129</v>
+      </c>
+      <c r="BC28" s="4">
+        <f t="shared" si="79"/>
+        <v>139798.79510048486</v>
+      </c>
+      <c r="BD28" s="4">
+        <f t="shared" si="79"/>
+        <v>143992.75895349937</v>
+      </c>
+    </row>
+    <row r="29" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29" si="44">C24-C28</f>
+        <f t="shared" ref="C29" si="80">C24-C28</f>
         <v>3872</v>
       </c>
       <c r="D29" s="4">
@@ -2654,7 +3606,7 @@
         <v>4415</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29" si="45">E24-E28</f>
+        <f t="shared" ref="E29" si="81">E24-E28</f>
         <v>3170</v>
       </c>
       <c r="F29" s="4">
@@ -2662,15 +3614,15 @@
         <v>3212</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ref="G29" si="46">G24-G28</f>
+        <f t="shared" ref="G29" si="82">G24-G28</f>
         <v>3944</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29" si="47">H24-H28</f>
+        <f t="shared" ref="H29" si="83">H24-H28</f>
         <v>4059</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29" si="48">I24-I28</f>
+        <f t="shared" ref="I29" si="84">I24-I28</f>
         <v>6133</v>
       </c>
       <c r="J29" s="4">
@@ -2678,7 +3630,7 @@
         <v>6256</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" ref="K29" si="49">K24-K28</f>
+        <f t="shared" ref="K29" si="85">K24-K28</f>
         <v>6377</v>
       </c>
       <c r="L29" s="4">
@@ -2686,55 +3638,119 @@
         <v>8903</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" ref="M29:P29" si="50">M24-M28</f>
+        <f t="shared" ref="M29:P29" si="86">M24-M28</f>
         <v>7713</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="86"/>
         <v>4841</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="86"/>
         <v>3484</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="86"/>
         <v>3918</v>
       </c>
+      <c r="Q29" s="4">
+        <f t="shared" ref="Q29:W29" si="87">Q24-Q28</f>
+        <v>9397.2499999999782</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="87"/>
+        <v>8925.7099999999991</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="87"/>
+        <v>10582.600000000013</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="87"/>
+        <v>9747.3100000000195</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="87"/>
+        <v>14726.134000000013</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="87"/>
+        <v>14430.642499999991</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" si="87"/>
+        <v>16920.987499999988</v>
+      </c>
       <c r="AN29" s="4">
-        <f t="shared" ref="AN29:AQ29" si="51">AN24-AN28</f>
+        <f t="shared" ref="AN29:AP29" si="88">AN24-AN28</f>
         <v>311</v>
       </c>
       <c r="AO29" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="88"/>
         <v>2404</v>
       </c>
       <c r="AP29" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="88"/>
         <v>4353</v>
       </c>
       <c r="AQ29" s="4">
-        <f t="shared" ref="AQ29:AR29" si="52">AQ24-AQ28</f>
+        <f t="shared" ref="AQ29" si="89">AQ24-AQ28</f>
         <v>4320</v>
       </c>
       <c r="AR29" s="4">
-        <f t="shared" ref="AR29:AT29" si="53">AR24-AR28</f>
+        <f t="shared" ref="AR29:AS29" si="90">AR24-AR28</f>
         <v>12717</v>
       </c>
       <c r="AS29" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="90"/>
         <v>14741</v>
       </c>
       <c r="AT29" s="4">
-        <f t="shared" ref="AT29:AU29" si="54">AT24-AT28</f>
+        <f t="shared" ref="AT29:AU29" si="91">AT24-AT28</f>
         <v>22825</v>
       </c>
       <c r="AU29" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="91"/>
         <v>24941</v>
       </c>
-    </row>
-    <row r="30" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV29" s="4">
+        <f t="shared" ref="AV29:AW29" si="92">AV24-AV28</f>
+        <v>32823.560000000041</v>
+      </c>
+      <c r="AW29" s="4">
+        <f t="shared" si="92"/>
+        <v>55825.07399999995</v>
+      </c>
+      <c r="AX29" s="4">
+        <f t="shared" ref="AX29:BD29" si="93">AX24-AX28</f>
+        <v>74555.815499999881</v>
+      </c>
+      <c r="AY29" s="4">
+        <f t="shared" si="93"/>
+        <v>97472.143449000039</v>
+      </c>
+      <c r="AZ29" s="4">
+        <f t="shared" si="93"/>
+        <v>125649.02825666996</v>
+      </c>
+      <c r="BA29" s="4">
+        <f t="shared" si="93"/>
+        <v>160465.32148598009</v>
+      </c>
+      <c r="BB29" s="4">
+        <f t="shared" si="93"/>
+        <v>186709.90009982986</v>
+      </c>
+      <c r="BC29" s="4">
+        <f t="shared" si="93"/>
+        <v>217462.9393262465</v>
+      </c>
+      <c r="BD29" s="4">
+        <f t="shared" si="93"/>
+        <v>253575.66760745161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2818,24 +3834,60 @@
         <v>-1456</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" ref="AS30" si="55">SUM(D30:G30)</f>
+        <f t="shared" ref="AS30" si="94">SUM(D30:G30)</f>
         <v>-766</v>
       </c>
       <c r="AT30" s="2">
-        <f t="shared" ref="AT30" si="56">SUM(H30:K30)</f>
+        <f t="shared" ref="AT30" si="95">SUM(H30:K30)</f>
         <v>1353</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" ref="AU30" si="57">SUM(L30:O30)</f>
+        <f t="shared" ref="AU30" si="96">SUM(L30:O30)</f>
         <v>13210</v>
       </c>
-    </row>
-    <row r="31" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV30" s="17">
+        <f>SUM(P30:S30)</f>
+        <v>-9183</v>
+      </c>
+      <c r="AW30" s="17">
+        <f>SUM(T30:W30)</f>
+        <v>0</v>
+      </c>
+      <c r="AX30" s="2">
+        <f>+AW45*$BG$44</f>
+        <v>908.50038900000004</v>
+      </c>
+      <c r="AY30" s="2">
+        <f t="shared" ref="AY30:BD30" si="97">+AX45*$BG$44</f>
+        <v>1549.9470740564989</v>
+      </c>
+      <c r="AZ30" s="2">
+        <f t="shared" si="97"/>
+        <v>2391.6348435024797</v>
+      </c>
+      <c r="BA30" s="2">
+        <f t="shared" si="97"/>
+        <v>3479.9804798539453</v>
+      </c>
+      <c r="BB30" s="2">
+        <f t="shared" si="97"/>
+        <v>4873.5155465635353</v>
+      </c>
+      <c r="BC30" s="2">
+        <f t="shared" si="97"/>
+        <v>6501.9745795578792</v>
+      </c>
+      <c r="BD30" s="2">
+        <f t="shared" si="97"/>
+        <v>8405.6763477572167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31" si="58">C29+C30</f>
+        <f t="shared" ref="C31" si="98">C29+C30</f>
         <v>3350</v>
       </c>
       <c r="D31" s="4">
@@ -2843,7 +3895,7 @@
         <v>4401</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31" si="59">E29+E30</f>
+        <f t="shared" ref="E31" si="99">E29+E30</f>
         <v>2889</v>
       </c>
       <c r="F31" s="4">
@@ -2851,15 +3903,15 @@
         <v>2632</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31" si="60">G29+G30</f>
+        <f t="shared" ref="G31" si="100">G29+G30</f>
         <v>4053</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31" si="61">H29+H30</f>
+        <f t="shared" ref="H31" si="101">H29+H30</f>
         <v>3383</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31" si="62">I29+I30</f>
+        <f t="shared" ref="I31" si="102">I29+I30</f>
         <v>6221</v>
       </c>
       <c r="J31" s="4">
@@ -2867,7 +3919,7 @@
         <v>6809</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" ref="K31" si="63">K29+K30</f>
+        <f t="shared" ref="K31" si="103">K29+K30</f>
         <v>7765</v>
       </c>
       <c r="L31" s="4">
@@ -2875,58 +3927,119 @@
         <v>10268</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" ref="M31:P31" si="64">M29+M30</f>
+        <f t="shared" ref="M31:W31" si="104">M29+M30</f>
         <v>8634</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="104"/>
         <v>4315</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="104"/>
         <v>14934</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="104"/>
         <v>-5265</v>
       </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="Q31" s="4">
+        <f t="shared" si="104"/>
+        <v>9397.2499999999782</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="104"/>
+        <v>8925.7099999999991</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="104"/>
+        <v>10582.600000000013</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="104"/>
+        <v>9747.3100000000195</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="104"/>
+        <v>14726.134000000013</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" si="104"/>
+        <v>14430.642499999991</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" si="104"/>
+        <v>16920.987499999988</v>
+      </c>
       <c r="AN31" s="4">
-        <f t="shared" ref="AN31:AQ31" si="65">AN29+AN30</f>
+        <f t="shared" ref="AN31:AP31" si="105">AN29+AN30</f>
         <v>-111</v>
       </c>
       <c r="AO31" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1568</v>
       </c>
       <c r="AP31" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>3892</v>
       </c>
       <c r="AQ31" s="4">
-        <f t="shared" ref="AQ31:AR31" si="66">AQ29+AQ30</f>
+        <f t="shared" ref="AQ31" si="106">AQ29+AQ30</f>
         <v>3806</v>
       </c>
       <c r="AR31" s="4">
-        <f t="shared" ref="AR31:AT31" si="67">AR29+AR30</f>
+        <f t="shared" ref="AR31:AS31" si="107">AR29+AR30</f>
         <v>11261</v>
       </c>
       <c r="AS31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="107"/>
         <v>13975</v>
       </c>
       <c r="AT31" s="4">
-        <f t="shared" ref="AT31:AU31" si="68">AT29+AT30</f>
+        <f t="shared" ref="AT31:BD31" si="108">AT29+AT30</f>
         <v>24178</v>
       </c>
       <c r="AU31" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="108"/>
         <v>38151</v>
       </c>
-    </row>
-    <row r="32" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV31" s="4">
+        <f t="shared" si="108"/>
+        <v>23640.560000000041</v>
+      </c>
+      <c r="AW31" s="4">
+        <f t="shared" si="108"/>
+        <v>55825.07399999995</v>
+      </c>
+      <c r="AX31" s="4">
+        <f t="shared" si="108"/>
+        <v>75464.315888999874</v>
+      </c>
+      <c r="AY31" s="4">
+        <f t="shared" si="108"/>
+        <v>99022.09052305654</v>
+      </c>
+      <c r="AZ31" s="4">
+        <f t="shared" si="108"/>
+        <v>128040.66310017245</v>
+      </c>
+      <c r="BA31" s="4">
+        <f t="shared" si="108"/>
+        <v>163945.30196583405</v>
+      </c>
+      <c r="BB31" s="4">
+        <f t="shared" si="108"/>
+        <v>191583.41564639341</v>
+      </c>
+      <c r="BC31" s="4">
+        <f t="shared" si="108"/>
+        <v>223964.91390580439</v>
+      </c>
+      <c r="BD31" s="4">
+        <f t="shared" si="108"/>
+        <v>261981.34395520884</v>
+      </c>
+    </row>
+    <row r="32" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -2986,9 +4099,34 @@
         <f>-1422+1</f>
         <v>-1421</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="Q32" s="4">
+        <f>+Q31*0.15</f>
+        <v>1409.5874999999967</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" ref="R32:W32" si="109">+R31*0.15</f>
+        <v>1338.8564999999999</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="109"/>
+        <v>1587.3900000000019</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="109"/>
+        <v>1462.0965000000028</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="109"/>
+        <v>2208.9201000000016</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="109"/>
+        <v>2164.5963749999987</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="109"/>
+        <v>2538.1481249999983</v>
+      </c>
       <c r="AN32" s="2">
         <f>167-37</f>
         <v>130</v>
@@ -3010,24 +4148,60 @@
         <v>1188</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" ref="AS32" si="69">SUM(D32:G32)</f>
+        <f t="shared" ref="AS32" si="110">SUM(D32:G32)</f>
         <v>2387</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" ref="AT32" si="70">SUM(H32:K32)</f>
+        <f t="shared" ref="AT32" si="111">SUM(H32:K32)</f>
         <v>2847</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" ref="AU32" si="71">SUM(L32:O32)</f>
+        <f t="shared" ref="AU32" si="112">SUM(L32:O32)</f>
         <v>4787</v>
       </c>
-    </row>
-    <row r="33" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV32" s="17">
+        <f>SUM(P32:S32)</f>
+        <v>2914.8339999999985</v>
+      </c>
+      <c r="AW32" s="17">
+        <f>SUM(T32:W32)</f>
+        <v>8373.7611000000015</v>
+      </c>
+      <c r="AX32" s="2">
+        <f>+AX31*0.15</f>
+        <v>11319.64738334998</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" ref="AY32:BD32" si="113">+AY31*0.15</f>
+        <v>14853.313578458481</v>
+      </c>
+      <c r="AZ32" s="2">
+        <f t="shared" si="113"/>
+        <v>19206.099465025865</v>
+      </c>
+      <c r="BA32" s="2">
+        <f t="shared" si="113"/>
+        <v>24591.795294875108</v>
+      </c>
+      <c r="BB32" s="2">
+        <f t="shared" si="113"/>
+        <v>28737.512346959011</v>
+      </c>
+      <c r="BC32" s="2">
+        <f t="shared" si="113"/>
+        <v>33594.737085870656</v>
+      </c>
+      <c r="BD32" s="2">
+        <f t="shared" si="113"/>
+        <v>39297.201593281323</v>
+      </c>
+    </row>
+    <row r="33" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33" si="72">C31-C32</f>
+        <f t="shared" ref="C33" si="114">C31-C32</f>
         <v>3027</v>
       </c>
       <c r="D33" s="4">
@@ -3035,7 +4209,7 @@
         <v>3561</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" ref="E33" si="73">E31-E32</f>
+        <f t="shared" ref="E33" si="115">E31-E32</f>
         <v>2625</v>
       </c>
       <c r="F33" s="4">
@@ -3043,15 +4217,15 @@
         <v>2134</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33" si="74">G31-G32</f>
+        <f t="shared" ref="G33" si="116">G31-G32</f>
         <v>3268</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" ref="H33" si="75">H31-H32</f>
+        <f t="shared" ref="H33" si="117">H31-H32</f>
         <v>2535</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33" si="76">I31-I32</f>
+        <f t="shared" ref="I33" si="118">I31-I32</f>
         <v>5243</v>
       </c>
       <c r="J33" s="4">
@@ -3059,7 +4233,7 @@
         <v>6331</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="77">K31-K32</f>
+        <f t="shared" ref="K33" si="119">K31-K32</f>
         <v>7222</v>
       </c>
       <c r="L33" s="4">
@@ -3067,63 +4241,372 @@
         <v>8107</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" ref="M33:P33" si="78">M31-M32</f>
+        <f t="shared" ref="M33:W33" si="120">M31-M32</f>
         <v>7778</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="120"/>
         <v>3156</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="120"/>
         <v>14323</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="120"/>
         <v>-3844</v>
       </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="Q33" s="4">
+        <f t="shared" si="120"/>
+        <v>7987.6624999999813</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="120"/>
+        <v>7586.8534999999993</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="120"/>
+        <v>8995.2100000000119</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="120"/>
+        <v>8285.2135000000162</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="120"/>
+        <v>12517.213900000012</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="120"/>
+        <v>12266.046124999992</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="120"/>
+        <v>14382.83937499999</v>
+      </c>
       <c r="AN33" s="4">
-        <f t="shared" ref="AN33:AQ33" si="79">AN31-AN32</f>
+        <f t="shared" ref="AN33:AP33" si="121">AN31-AN32</f>
         <v>-241</v>
       </c>
       <c r="AO33" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="121"/>
         <v>596</v>
       </c>
       <c r="AP33" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="121"/>
         <v>2371</v>
       </c>
       <c r="AQ33" s="4">
-        <f t="shared" ref="AQ33:AR33" si="80">AQ31-AQ32</f>
+        <f t="shared" ref="AQ33" si="122">AQ31-AQ32</f>
         <v>3033</v>
       </c>
       <c r="AR33" s="4">
-        <f t="shared" ref="AR33:AT33" si="81">AR31-AR32</f>
+        <f t="shared" ref="AR33:AS33" si="123">AR31-AR32</f>
         <v>10073</v>
       </c>
       <c r="AS33" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="123"/>
         <v>11588</v>
       </c>
       <c r="AT33" s="4">
-        <f t="shared" ref="AT33:AU33" si="82">AT31-AT32</f>
+        <f t="shared" ref="AT33:AW33" si="124">AT31-AT32</f>
         <v>21331</v>
       </c>
       <c r="AU33" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="124"/>
         <v>33364</v>
       </c>
-    </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV33" s="4">
+        <f t="shared" si="124"/>
+        <v>20725.726000000042</v>
+      </c>
+      <c r="AW33" s="4">
+        <f t="shared" si="124"/>
+        <v>47451.312899999946</v>
+      </c>
+      <c r="AX33" s="4">
+        <f t="shared" ref="AX33:BD33" si="125">AX31-AX32</f>
+        <v>64144.668505649897</v>
+      </c>
+      <c r="AY33" s="4">
+        <f t="shared" si="125"/>
+        <v>84168.776944598067</v>
+      </c>
+      <c r="AZ33" s="4">
+        <f t="shared" si="125"/>
+        <v>108834.56363514658</v>
+      </c>
+      <c r="BA33" s="4">
+        <f t="shared" si="125"/>
+        <v>139353.50667095894</v>
+      </c>
+      <c r="BB33" s="4">
+        <f t="shared" si="125"/>
+        <v>162845.9032994344</v>
+      </c>
+      <c r="BC33" s="4">
+        <f t="shared" si="125"/>
+        <v>190370.17681993375</v>
+      </c>
+      <c r="BD33" s="4">
+        <f t="shared" si="125"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BE33" s="2">
+        <f>+BD33*(1+$BG$45)</f>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BF33" s="2">
+        <f t="shared" ref="BF33:DN33" si="126">+BE33*(1+$BG$45)</f>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BG33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BH33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BI33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BJ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BK33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BL33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BM33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BN33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BO33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BP33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BQ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BR33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BS33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BT33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BU33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BV33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BW33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BX33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BY33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="BZ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CA33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CB33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CC33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CD33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CE33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CF33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CG33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CH33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CI33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CJ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CK33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CL33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CM33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CN33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CO33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CP33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CQ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CR33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CS33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CT33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CU33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CV33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CW33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CX33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CY33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="CZ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DA33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DB33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DC33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DD33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DE33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DF33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DG33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DH33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DI33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DJ33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DK33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DL33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DM33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+      <c r="DN33" s="2">
+        <f t="shared" si="126"/>
+        <v>222684.14236192752</v>
+      </c>
+    </row>
+    <row r="34" spans="2:118" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" ref="C34" si="83">C33/C35</f>
+        <f t="shared" ref="C34" si="127">C33/C35</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="D34" s="7">
@@ -3131,7 +4614,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" ref="E34" si="84">E33/E35</f>
+        <f t="shared" ref="E34" si="128">E33/E35</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="F34" s="7">
@@ -3139,15 +4622,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34" si="85">G33/G35</f>
+        <f t="shared" ref="G34" si="129">G33/G35</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34" si="86">H33/H35</f>
+        <f t="shared" ref="H34" si="130">H33/H35</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" ref="I34" si="87">I33/I35</f>
+        <f t="shared" ref="I34" si="131">I33/I35</f>
         <v>10.300589390962672</v>
       </c>
       <c r="J34" s="7">
@@ -3155,7 +4638,7 @@
         <v>12.365234375</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" ref="K34" si="88">K33/K35</f>
+        <f t="shared" ref="K34" si="132">K33/K35</f>
         <v>14.077972709551657</v>
       </c>
       <c r="L34" s="7">
@@ -3178,29 +4661,56 @@
         <f>P33/P35</f>
         <v>-7.5520628683693518</v>
       </c>
-      <c r="Q34" s="7"/>
+      <c r="Q34" s="7">
+        <f t="shared" ref="Q34:W34" si="133">Q33/Q35</f>
+        <v>15.692853634577567</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="133"/>
+        <v>14.905409626719056</v>
+      </c>
+      <c r="S34" s="7">
+        <f t="shared" si="133"/>
+        <v>17.672318271119867</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="133"/>
+        <v>16.277433202357596</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" si="133"/>
+        <v>24.591775834970552</v>
+      </c>
+      <c r="V34" s="7">
+        <f t="shared" si="133"/>
+        <v>24.098322445972478</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" si="133"/>
+        <v>28.257051817288783</v>
+      </c>
       <c r="AN34" s="7">
-        <f t="shared" ref="AN34" si="89">AN33/AN35</f>
+        <f t="shared" ref="AN34" si="134">AN33/AN35</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="AO34" s="7">
-        <f t="shared" ref="AO34" si="90">AO33/AO35</f>
+        <f t="shared" ref="AO34" si="135">AO33/AO35</f>
         <v>1.249475890985325</v>
       </c>
       <c r="AP34" s="7">
-        <f t="shared" ref="AP34" si="91">AP33/AP35</f>
+        <f t="shared" ref="AP34" si="136">AP33/AP35</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="AQ34" s="7">
-        <f t="shared" ref="AQ34" si="92">AQ33/AQ35</f>
+        <f t="shared" ref="AQ34" si="137">AQ33/AQ35</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="AR34" s="7">
-        <f t="shared" ref="AR34:AS34" si="93">AR33/AR35</f>
+        <f t="shared" ref="AR34:AS34" si="138">AR33/AR35</f>
         <v>20.146000000000001</v>
       </c>
       <c r="AS34" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="138"/>
         <v>23.014895729890764</v>
       </c>
       <c r="AT34" s="7">
@@ -3211,8 +4721,44 @@
         <f>AU33/AU35</f>
         <v>64.847424684159378</v>
       </c>
-    </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV34" s="7">
+        <f t="shared" ref="AV34:AW34" si="139">AV33/AV35</f>
+        <v>40.718518664047238</v>
+      </c>
+      <c r="AW34" s="7">
+        <f t="shared" si="139"/>
+        <v>93.224583300589288</v>
+      </c>
+      <c r="AX34" s="7">
+        <f t="shared" ref="AX34" si="140">AX33/AX35</f>
+        <v>126.02095973605088</v>
+      </c>
+      <c r="AY34" s="7">
+        <f t="shared" ref="AY34" si="141">AY33/AY35</f>
+        <v>165.36105490097853</v>
+      </c>
+      <c r="AZ34" s="7">
+        <f t="shared" ref="AZ34" si="142">AZ33/AZ35</f>
+        <v>213.8203607763194</v>
+      </c>
+      <c r="BA34" s="7">
+        <f t="shared" ref="BA34" si="143">BA33/BA35</f>
+        <v>273.77899149500774</v>
+      </c>
+      <c r="BB34" s="7">
+        <f t="shared" ref="BB34" si="144">BB33/BB35</f>
+        <v>319.93301237609904</v>
+      </c>
+      <c r="BC34" s="7">
+        <f t="shared" ref="BC34" si="145">BC33/BC35</f>
+        <v>374.00820593307219</v>
+      </c>
+      <c r="BD34" s="7">
+        <f t="shared" ref="BD34" si="146">BD33/BD35</f>
+        <v>437.49340346154719</v>
+      </c>
+    </row>
+    <row r="35" spans="2:118" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -3256,6 +4802,34 @@
         <v>516</v>
       </c>
       <c r="P35" s="3">
+        <v>509</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>+P35</f>
+        <v>509</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" ref="R35:W35" si="147">+Q35</f>
+        <v>509</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="147"/>
+        <v>509</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="147"/>
+        <v>509</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="147"/>
+        <v>509</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="147"/>
+        <v>509</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="147"/>
         <v>509</v>
       </c>
       <c r="AN35">
@@ -3285,8 +4859,44 @@
         <f>AVERAGE(L35:O35)</f>
         <v>514.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:47" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV35">
+        <f>AVERAGE(P35:S35)</f>
+        <v>509</v>
+      </c>
+      <c r="AW35">
+        <f>AVERAGE(T35:W35)</f>
+        <v>509</v>
+      </c>
+      <c r="AX35">
+        <f>+AW35</f>
+        <v>509</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" ref="AY35:BD35" si="148">+AX35</f>
+        <v>509</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" si="148"/>
+        <v>509</v>
+      </c>
+      <c r="BA35">
+        <f t="shared" si="148"/>
+        <v>509</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="148"/>
+        <v>509</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="148"/>
+        <v>509</v>
+      </c>
+      <c r="BD35">
+        <f t="shared" si="148"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="2:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
@@ -3303,78 +4913,139 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" ref="I37:K37" si="94">I21/E21-1</f>
+        <f t="shared" ref="I37:K37" si="149">I21/E21-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="149"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="149"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" ref="L37" si="95">L21/H21-1</f>
+        <f t="shared" ref="L37" si="150">L21/H21-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" ref="M37" si="96">M21/I21-1</f>
+        <f t="shared" ref="M37" si="151">M21/I21-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" ref="N37" si="97">N21/J21-1</f>
+        <f t="shared" ref="N37" si="152">N21/J21-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" ref="O37" si="98">O21/K21-1</f>
+        <f t="shared" ref="O37" si="153">O21/K21-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="P37" s="10">
         <f>P21/L21-1</f>
         <v>7.3038574245747334E-2</v>
       </c>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
+      <c r="Q37" s="10">
+        <f t="shared" ref="Q37:W37" si="154">Q21/M21-1</f>
+        <v>0.17094004244782446</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="154"/>
+        <v>0.17543767822979461</v>
+      </c>
+      <c r="S37" s="10">
+        <f t="shared" si="154"/>
+        <v>0.16993639565685692</v>
+      </c>
+      <c r="T37" s="10">
+        <f t="shared" si="154"/>
+        <v>0.17874428910034013</v>
+      </c>
+      <c r="U37" s="10">
+        <f t="shared" si="154"/>
+        <v>0.18011515755241891</v>
+      </c>
+      <c r="V37" s="10">
+        <f t="shared" si="154"/>
+        <v>0.18516405814548054</v>
+      </c>
+      <c r="W37" s="10">
+        <f t="shared" si="154"/>
+        <v>0.17904092538533334</v>
+      </c>
       <c r="AM37" s="15">
-        <f t="shared" ref="AM37:AR37" si="99">AM21/AL21-1</f>
+        <f t="shared" ref="AM37:AQ37" si="155">AM21/AL21-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="AN37" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="155"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="AO37" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="155"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="155"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="155"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" ref="AR37:AS37" si="100">AR21/AQ21-1</f>
+        <f t="shared" ref="AR37" si="156">AR21/AQ21-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" ref="AS37:AT37" si="101">AS21/AR21-1</f>
+        <f t="shared" ref="AS37" si="157">AS21/AR21-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" ref="AT37:AU37" si="102">AT21/AS21-1</f>
+        <f t="shared" ref="AT37" si="158">AT21/AS21-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="AU37" s="15">
         <f>AU21/AT21-1</f>
         <v>0.21695366571345676</v>
       </c>
-    </row>
-    <row r="38" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV37" s="15">
+        <f t="shared" ref="AV37:BD37" si="159">AV21/AU21-1</f>
+        <v>0.14909433785561355</v>
+      </c>
+      <c r="AW37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.18071772119870366</v>
+      </c>
+      <c r="AX37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.10462481251387579</v>
+      </c>
+      <c r="AY37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.11300732331655872</v>
+      </c>
+      <c r="AZ37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.12232893274764023</v>
+      </c>
+      <c r="BA37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.13254012099457801</v>
+      </c>
+      <c r="BB37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.10215394818293033</v>
+      </c>
+      <c r="BC37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.10678402542829613</v>
+      </c>
+      <c r="BD37" s="15">
+        <f t="shared" si="159"/>
+        <v>0.11156651067274548</v>
+      </c>
+    </row>
+    <row r="38" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
         <v>56</v>
       </c>
@@ -3382,34 +5053,125 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="G38" s="19">
+        <f t="shared" ref="G38" si="160">+G12/C12-1</f>
+        <v>0.14652704535181549</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" ref="H38" si="161">+H12/D12-1</f>
+        <v>0.24252491694352152</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" ref="I38" si="162">+I12/E12-1</f>
+        <v>0.47798924419540789</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" ref="J38" si="163">+J12/F12-1</f>
+        <v>0.37989097862381915</v>
+      </c>
+      <c r="K38" s="19">
+        <f t="shared" ref="K38:O38" si="164">+K12/G12-1</f>
+        <v>0.45543947258908823</v>
+      </c>
+      <c r="L38" s="19">
+        <f t="shared" si="164"/>
+        <v>0.44333187820582776</v>
+      </c>
+      <c r="M38" s="19">
+        <f t="shared" si="164"/>
+        <v>0.15820550810528156</v>
+      </c>
+      <c r="N38" s="19">
+        <f t="shared" si="164"/>
+        <v>3.2926577042399208E-2</v>
+      </c>
+      <c r="O38" s="19">
+        <f t="shared" si="164"/>
+        <v>-5.6583046154309313E-3</v>
+      </c>
+      <c r="P38" s="19">
+        <f>+P12/L12-1</f>
+        <v>-3.3496531256497986E-2</v>
+      </c>
+      <c r="Q38" s="19">
+        <f t="shared" ref="Q38:W38" si="165">+Q12/M12-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R38" s="19">
+        <f t="shared" si="165"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S38" s="19">
+        <f t="shared" si="165"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T38" s="19">
+        <f t="shared" si="165"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="165"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V38" s="19">
+        <f t="shared" si="165"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="W38" s="19">
+        <f t="shared" si="165"/>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="AR38" s="20"/>
       <c r="AS38" s="20">
-        <f t="shared" ref="AS38" si="103">AS12/AR12-1</f>
+        <f t="shared" ref="AS38" si="166">AS12/AR12-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="AT38" s="20">
-        <f t="shared" ref="AT38" si="104">AT12/AS12-1</f>
+        <f t="shared" ref="AT38" si="167">AT12/AS12-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="AU38" s="20">
         <f>AU12/AT12-1</f>
         <v>0.12529072860769497</v>
       </c>
-    </row>
-    <row r="39" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV38" s="20">
+        <f t="shared" ref="AV38:BD38" si="168">AV12/AU12-1</f>
+        <v>6.819948215692917E-2</v>
+      </c>
+      <c r="AW38" s="20">
+        <f t="shared" si="168"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="AX38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AY38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AZ38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BA38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BB38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BC38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BD38" s="20">
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
         <v>57</v>
       </c>
@@ -3417,34 +5179,125 @@
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
+      <c r="G39" s="19">
+        <f t="shared" ref="G39:O39" si="169">+G14/C14-1</f>
+        <v>0.30359411193304942</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.29961403823714217</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.52106671125229886</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.54677565849227983</v>
+      </c>
+      <c r="K39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.56637624670411557</v>
+      </c>
+      <c r="L39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.63747496374058987</v>
+      </c>
+      <c r="M39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.37867546029128873</v>
+      </c>
+      <c r="N39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.18672930123311793</v>
+      </c>
+      <c r="O39" s="19">
+        <f t="shared" si="169"/>
+        <v>0.10952537783144867</v>
+      </c>
+      <c r="P39" s="19">
+        <f>+P14/L14-1</f>
+        <v>6.8581551309629285E-2</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" ref="Q39:W39" si="170">+Q14/M14-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="R39" s="19">
+        <f t="shared" si="170"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="S39" s="19">
+        <f t="shared" si="170"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="T39" s="19">
+        <f t="shared" si="170"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="U39" s="19">
+        <f t="shared" si="170"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V39" s="19">
+        <f t="shared" si="170"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W39" s="19">
+        <f t="shared" si="170"/>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="AR39" s="20"/>
       <c r="AS39" s="20">
-        <f t="shared" ref="AS39" si="105">AS14/AR14-1</f>
+        <f t="shared" ref="AS39" si="171">AS14/AR14-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="AT39" s="20">
-        <f t="shared" ref="AT39:AU39" si="106">AT14/AS14-1</f>
+        <f t="shared" ref="AT39" si="172">AT14/AS14-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="AU39" s="20">
         <f>AU14/AT14-1</f>
         <v>0.28505538495965776</v>
       </c>
-    </row>
-    <row r="40" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV39" s="20">
+        <f t="shared" ref="AV39:BD39" si="173">AV14/AU14-1</f>
+        <v>0.16985662596985462</v>
+      </c>
+      <c r="AW39" s="20">
+        <f t="shared" si="173"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AX39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AY39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AZ39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BA39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BB39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BC39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BD39" s="20">
+        <f t="shared" si="173"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
         <v>58</v>
       </c>
@@ -3452,34 +5305,125 @@
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
+      <c r="G40" s="19">
+        <f t="shared" ref="G40:O41" si="174">+G15/C15-1</f>
+        <v>0.3223036120232381</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.27959465684016571</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.28699743370402042</v>
+      </c>
+      <c r="J40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.32580189630825096</v>
+      </c>
+      <c r="K40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.34880611270296091</v>
+      </c>
+      <c r="L40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.36429085673146155</v>
+      </c>
+      <c r="M40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.31555333998005985</v>
+      </c>
+      <c r="N40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.23980523432744971</v>
+      </c>
+      <c r="O40" s="19">
+        <f t="shared" si="174"/>
+        <v>0.15040362554878905</v>
+      </c>
+      <c r="P40" s="19">
+        <f>+P15/L15-1</f>
+        <v>0.10949868073878632</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" ref="Q40:W41" si="175">+Q15/M15-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="R40" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="S40" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="T40" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="U40" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V40" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W40" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="AR40" s="20"/>
       <c r="AS40" s="20">
-        <f t="shared" ref="AS40" si="107">AS15/AR15-1</f>
+        <f t="shared" ref="AS40" si="176">AS15/AR15-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="AT40" s="20">
-        <f t="shared" ref="AT40:AU40" si="108">AT15/AS15-1</f>
+        <f t="shared" ref="AT40" si="177">AT15/AS15-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="AU40" s="20">
         <f>AU15/AT15-1</f>
         <v>0.26028484151227826</v>
       </c>
-    </row>
-    <row r="41" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV40" s="20">
+        <f t="shared" ref="AV40:BD41" si="178">AV15/AU15-1</f>
+        <v>0.17840594308738345</v>
+      </c>
+      <c r="AW40" s="20">
+        <f t="shared" si="178"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AX40" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AY40" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AZ40" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BA40" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BB40" s="20">
+        <f t="shared" si="178"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BC40" s="20">
+        <f t="shared" si="178"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BD40" s="20">
+        <f t="shared" si="178"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
         <v>59</v>
       </c>
@@ -3487,132 +5431,287 @@
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
+      <c r="G41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.41145218417945695</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.43814432989690721</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.40606262491672229</v>
+      </c>
+      <c r="J41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.50529838259899607</v>
+      </c>
+      <c r="K41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.53701380175658731</v>
+      </c>
+      <c r="L41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.63364055299539168</v>
+      </c>
+      <c r="M41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.76522151149016815</v>
+      </c>
+      <c r="N41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.41015190811411628</v>
+      </c>
+      <c r="O41" s="19">
+        <f t="shared" si="174"/>
+        <v>0.32190476190476192</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" ref="P40:P41" si="179">+P16/L16-1</f>
+        <v>0.23444601159692846</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="R41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W41" s="19">
+        <f t="shared" si="175"/>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="AR41" s="20"/>
       <c r="AS41" s="20">
-        <f t="shared" ref="AS41" si="109">AS16/AR16-1</f>
+        <f t="shared" ref="AS41" si="180">AS16/AR16-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="AT41" s="20">
-        <f t="shared" ref="AT41:AU41" si="110">AT16/AS16-1</f>
+        <f t="shared" ref="AT41:AU41" si="181">AT16/AS16-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="AU41" s="20">
-        <f t="shared" si="110"/>
+        <f t="shared" si="181"/>
         <v>0.49269461077844312</v>
       </c>
-    </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV41" s="20">
+        <f t="shared" si="178"/>
+        <v>0.2070539152759947</v>
+      </c>
+      <c r="AW41" s="20">
+        <f t="shared" si="178"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AX41" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AY41" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AZ41" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BA41" s="20">
+        <f t="shared" si="178"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BB41" s="20">
+        <f t="shared" si="178"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BC41" s="20">
+        <f t="shared" si="178"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BD41" s="20">
+        <f t="shared" si="178"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:118" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" ref="G42:H42" si="111">G10/C10-1</f>
+        <f t="shared" ref="G42:H42" si="182">G10/C10-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="182"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" ref="I42" si="112">I10/E10-1</f>
+        <f t="shared" ref="I42" si="183">I10/E10-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42" si="113">J10/F10-1</f>
+        <f t="shared" ref="J42" si="184">J10/F10-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" ref="K42" si="114">K10/G10-1</f>
+        <f t="shared" ref="K42" si="185">K10/G10-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" ref="L42" si="115">L10/H10-1</f>
+        <f t="shared" ref="L42" si="186">L10/H10-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" ref="M42" si="116">M10/I10-1</f>
+        <f t="shared" ref="M42" si="187">M10/I10-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42" si="117">N10/J10-1</f>
+        <f t="shared" ref="N42" si="188">N10/J10-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" ref="O42" si="118">O10/K10-1</f>
+        <f t="shared" ref="O42" si="189">O10/K10-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="P42" s="8">
         <f>P10/L10-1</f>
         <v>0.36569651188624741</v>
       </c>
+      <c r="Q42" s="8">
+        <f t="shared" ref="Q42:W42" si="190">Q10/M10-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="R42" s="8">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S42" s="8">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="T42" s="8">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="U42" s="8">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="V42" s="8">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="W42" s="8">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999991</v>
+      </c>
       <c r="AO42" s="13">
-        <f t="shared" ref="AO42:AR42" si="119">AO10/AN10-1</f>
+        <f t="shared" ref="AO42:AQ42" si="191">AO10/AN10-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="AP42" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="191"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="AQ42" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="191"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="AR42" s="13">
-        <f t="shared" ref="AR42" si="120">AR10/AQ10-1</f>
+        <f t="shared" ref="AR42" si="192">AR10/AQ10-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="AS42" s="13">
-        <f t="shared" ref="AS42:AT42" si="121">AS10/AR10-1</f>
+        <f t="shared" ref="AS42" si="193">AS10/AR10-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="AT42" s="13">
-        <f t="shared" ref="AT42:AU42" si="122">AT10/AS10-1</f>
+        <f t="shared" ref="AT42" si="194">AT10/AS10-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="AU42" s="13">
         <f>AU10/AT10-1</f>
         <v>0.37099404893101173</v>
       </c>
-    </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV42" s="13">
+        <f t="shared" ref="AV42:BD42" si="195">AV10/AU10-1</f>
+        <v>0.39255329410629902</v>
+      </c>
+      <c r="AW42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="AX42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AY42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AZ42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="BA42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="BB42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="BC42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="BD42" s="13">
+        <f t="shared" si="195"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:118" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:I43" si="123">C24/C21</f>
+        <f t="shared" ref="C43:H43" si="196">C24/C21</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="196"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="196"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="196"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="196"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="196"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="I43" s="8">
@@ -3632,53 +5731,609 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" ref="M43:P43" si="124">M24/M21</f>
+        <f t="shared" ref="M43:P43" si="197">M24/M21</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="124"/>
+        <f t="shared" si="197"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="124"/>
+        <f t="shared" si="197"/>
         <v>0.23383692836142403</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="124"/>
+        <f t="shared" si="197"/>
         <v>0.25483494211809971</v>
       </c>
+      <c r="Q43" s="8">
+        <f t="shared" ref="Q43:W43" si="198">Q24/Q21</f>
+        <v>0.26298222413882938</v>
+      </c>
+      <c r="R43" s="8">
+        <f t="shared" si="198"/>
+        <v>0.27189368964611837</v>
+      </c>
+      <c r="S43" s="8">
+        <f t="shared" si="198"/>
+        <v>0.25769967399275839</v>
+      </c>
+      <c r="T43" s="8">
+        <f t="shared" si="198"/>
+        <v>0.27345066979848864</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" si="198"/>
+        <v>0.26996504455777348</v>
+      </c>
+      <c r="V43" s="8">
+        <f t="shared" si="198"/>
+        <v>0.27877796758063539</v>
+      </c>
+      <c r="W43" s="8">
+        <f t="shared" si="198"/>
+        <v>0.26458706625619222</v>
+      </c>
       <c r="AN43" s="14">
-        <f t="shared" ref="AN43:AP43" si="125">AN24/AN21</f>
+        <f t="shared" ref="AN43:AP43" si="199">AN24/AN21</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="AO43" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="199"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="AP43" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="199"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="AQ43" s="14">
-        <f t="shared" ref="AQ43:AR43" si="126">AQ24/AQ21</f>
+        <f t="shared" ref="AQ43" si="200">AQ24/AQ21</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="AR43" s="14">
-        <f t="shared" ref="AR43:AT43" si="127">AR24/AR21</f>
+        <f t="shared" ref="AR43:AS43" si="201">AR24/AR21</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="AS43" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="201"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="AT43" s="14">
-        <f t="shared" ref="AT43:AU43" si="128">AT24/AT21</f>
+        <f t="shared" ref="AT43" si="202">AT24/AT21</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="AU43" s="14">
         <f>AU24/AU21</f>
         <v>0.26045395915900066</v>
       </c>
+      <c r="AV43" s="14">
+        <f t="shared" ref="AV43:BD43" si="203">AV24/AV21</f>
+        <v>0.26180193817101832</v>
+      </c>
+      <c r="AW43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.27125068226688431</v>
+      </c>
+      <c r="AX43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.27714882839393068</v>
+      </c>
+      <c r="AY43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.28286658126876557</v>
+      </c>
+      <c r="AZ43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.28830688049681286</v>
+      </c>
+      <c r="BA43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.29337062489644677</v>
+      </c>
+      <c r="BB43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.2936843270668249</v>
+      </c>
+      <c r="BC43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.29400835535436326</v>
+      </c>
+      <c r="BD43" s="14">
+        <f t="shared" si="203"/>
+        <v>0.29434021552690437</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG43" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="BF44" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG44" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" s="4">
+        <f>+P46-P59</f>
+        <v>18829</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>+P45+Q33</f>
+        <v>26816.66249999998</v>
+      </c>
+      <c r="R45" s="4">
+        <f>+Q45+R33</f>
+        <v>34403.515999999981</v>
+      </c>
+      <c r="S45" s="4">
+        <f>+R45+S33</f>
+        <v>43398.725999999995</v>
+      </c>
+      <c r="T45" s="4">
+        <f>+S45+T33</f>
+        <v>51683.939500000008</v>
+      </c>
+      <c r="U45" s="4">
+        <f>+T45+U33</f>
+        <v>64201.153400000017</v>
+      </c>
+      <c r="V45" s="4">
+        <f>+U45+V33</f>
+        <v>76467.199525000004</v>
+      </c>
+      <c r="W45" s="4">
+        <f>+V45+W33</f>
+        <v>90850.0389</v>
+      </c>
+      <c r="X45" s="4"/>
+      <c r="AV45" s="2">
+        <f>+S45</f>
+        <v>43398.725999999995</v>
+      </c>
+      <c r="AW45" s="2">
+        <f>+W45</f>
+        <v>90850.0389</v>
+      </c>
+      <c r="AX45" s="2">
+        <f>+AW45+AX33</f>
+        <v>154994.70740564988</v>
+      </c>
+      <c r="AY45" s="2">
+        <f t="shared" ref="AY45:BD45" si="204">+AX45+AY33</f>
+        <v>239163.48435024795</v>
+      </c>
+      <c r="AZ45" s="2">
+        <f t="shared" si="204"/>
+        <v>347998.04798539454</v>
+      </c>
+      <c r="BA45" s="2">
+        <f t="shared" si="204"/>
+        <v>487351.55465635349</v>
+      </c>
+      <c r="BB45" s="2">
+        <f t="shared" si="204"/>
+        <v>650197.45795578789</v>
+      </c>
+      <c r="BC45" s="2">
+        <f t="shared" si="204"/>
+        <v>840567.6347757217</v>
+      </c>
+      <c r="BD45" s="2">
+        <f t="shared" si="204"/>
+        <v>1063251.7771376492</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4">
+        <f>36393+29992</f>
+        <v>66385</v>
+      </c>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="BF46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG46" s="2">
+        <f>NPV(BG43,AW33:DN33)+Main!K5-Main!K6</f>
+        <v>2550544.6921945531</v>
+      </c>
+    </row>
+    <row r="47" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4">
+        <v>34987</v>
+      </c>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="BG47" s="1">
+        <f>+BG46/Main!K3</f>
+        <v>250.54466524504451</v>
+      </c>
+    </row>
+    <row r="48" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4">
+        <v>32504</v>
+      </c>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4">
+        <v>168468</v>
+      </c>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4">
+        <v>56161</v>
+      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4">
+        <v>20229</v>
+      </c>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4">
+        <v>32033</v>
+      </c>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4">
+        <f>SUM(P46:P52)</f>
+        <v>410767</v>
+      </c>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+    </row>
+    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4">
+        <v>68547</v>
+      </c>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4">
+        <v>58141</v>
+      </c>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4">
+        <v>12820</v>
+      </c>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4">
+        <v>65731</v>
+      </c>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4">
+        <v>47556</v>
+      </c>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4">
+        <v>23971</v>
+      </c>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4">
+        <v>134001</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4">
+        <f>SUM(P55:P61)</f>
+        <v>410767</v>
+      </c>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
     </row>
     <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDB610-3763-4C7F-953B-ECC737BCA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE48321-EF84-4ECD-B021-95D7B9792568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="1995" windowWidth="17760" windowHeight="13500" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="10755" yWindow="3300" windowWidth="17760" windowHeight="11475" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={89E45B5F-0C20-4B81-874E-AD8DF93707A2}</author>
+    <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
+  </authors>
+  <commentList>
+    <comment ref="R21" authorId="0" shapeId="0" xr:uid="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q222 guidance: 125-130B</t>
+      </text>
+    </comment>
+    <comment ref="R29" authorId="1" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q222 guidance: 0.0-3.5B</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Main</t>
   </si>
@@ -276,6 +303,9 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>CEO: Andy Jassy</t>
   </si>
 </sst>
 </file>
@@ -285,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -304,6 +334,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -390,16 +426,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -414,8 +450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="76200"/>
-          <a:ext cx="0" cy="7505700"/>
+          <a:off x="10791825" y="209550"/>
+          <a:ext cx="0" cy="10906125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -489,6 +525,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,12 +828,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="R21" dT="2022-07-29T15:08:40.16" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
+    <text>Q222 guidance: 125-130B</text>
+  </threadedComment>
+  <threadedComment ref="R29" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <text>Q222 guidance: 0.0-3.5B</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
-  <dimension ref="J2:L7"/>
+  <dimension ref="J2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -809,8 +862,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <f>509*20</f>
-        <v>10180</v>
+        <v>10175</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>7</v>
@@ -822,7 +874,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1126213.3999999999</v>
+        <v>1125660.25</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.2">
@@ -854,9 +906,14 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1107384.3999999999</v>
+        <v>1106831.25</v>
       </c>
       <c r="L7" s="3"/>
+    </row>
+    <row r="9" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,14 +921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:DN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AW16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BC44" sqref="BC44"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1439,8 +1496,7 @@
         <v>18441</v>
       </c>
       <c r="Q10" s="4">
-        <f>+M10*1.4</f>
-        <v>20732.599999999999</v>
+        <v>19739</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" ref="R10:W10" si="3">+N10*1.4</f>
@@ -1456,7 +1512,7 @@
       </c>
       <c r="U10" s="4">
         <f t="shared" si="3"/>
-        <v>29025.639999999996</v>
+        <v>27634.6</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="3"/>
@@ -1495,39 +1551,39 @@
       </c>
       <c r="AV10" s="2">
         <f>SUM(P10:S10)</f>
-        <v>86619.6</v>
+        <v>85626</v>
       </c>
       <c r="AW10" s="2">
         <f>SUM(T10:W10)</f>
-        <v>121267.43999999997</v>
+        <v>119876.4</v>
       </c>
       <c r="AX10" s="2">
         <f>+AW10*1.3</f>
-        <v>157647.67199999996</v>
+        <v>155839.32</v>
       </c>
       <c r="AY10" s="2">
         <f t="shared" ref="AY10:BA10" si="4">+AX10*1.3</f>
-        <v>204941.97359999997</v>
+        <v>202591.11600000001</v>
       </c>
       <c r="AZ10" s="2">
         <f t="shared" si="4"/>
-        <v>266424.56567999994</v>
+        <v>263368.45080000005</v>
       </c>
       <c r="BA10" s="2">
         <f t="shared" si="4"/>
-        <v>346351.93538399995</v>
+        <v>342378.98604000011</v>
       </c>
       <c r="BB10" s="2">
         <f>+BA10*1.2</f>
-        <v>415622.32246079994</v>
+        <v>410854.78324800014</v>
       </c>
       <c r="BC10" s="2">
         <f t="shared" ref="BC10:BD10" si="5">+BB10*1.2</f>
-        <v>498746.7869529599</v>
+        <v>493025.73989760014</v>
       </c>
       <c r="BD10" s="2">
         <f t="shared" si="5"/>
-        <v>598496.14434355183</v>
+        <v>591630.88787712017</v>
       </c>
     </row>
     <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1577,8 +1633,7 @@
         <v>51129</v>
       </c>
       <c r="Q12" s="4">
-        <f>+M12*1.1</f>
-        <v>58472.700000000004</v>
+        <v>50855</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" ref="R12:W12" si="6">+N12*1.1</f>
@@ -1594,7 +1649,7 @@
       </c>
       <c r="U12" s="4">
         <f t="shared" si="6"/>
-        <v>64319.970000000008</v>
+        <v>55940.500000000007</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="6"/>
@@ -1621,40 +1676,40 @@
         <v>222075</v>
       </c>
       <c r="AV12" s="2">
-        <f>SUM(P12:S12)</f>
-        <v>237220.40000000002</v>
+        <f t="shared" ref="AV12:AV17" si="10">SUM(P12:S12)</f>
+        <v>229602.7</v>
       </c>
       <c r="AW12" s="2">
-        <f>SUM(T12:W12)</f>
-        <v>260942.44</v>
+        <f t="shared" ref="AW12:AW17" si="11">SUM(T12:W12)</f>
+        <v>252562.97000000003</v>
       </c>
       <c r="AX12" s="2">
         <f>+AW12*1.05</f>
-        <v>273989.56200000003</v>
+        <v>265191.11850000004</v>
       </c>
       <c r="AY12" s="2">
-        <f t="shared" ref="AY12:BD12" si="10">+AX12*1.05</f>
-        <v>287689.04010000004</v>
+        <f t="shared" ref="AY12:BD12" si="12">+AX12*1.05</f>
+        <v>278450.67442500003</v>
       </c>
       <c r="AZ12" s="2">
-        <f t="shared" si="10"/>
-        <v>302073.49210500007</v>
+        <f t="shared" si="12"/>
+        <v>292373.20814625005</v>
       </c>
       <c r="BA12" s="2">
-        <f t="shared" si="10"/>
-        <v>317177.16671025008</v>
+        <f t="shared" si="12"/>
+        <v>306991.86855356256</v>
       </c>
       <c r="BB12" s="2">
-        <f t="shared" si="10"/>
-        <v>333036.0250457626</v>
+        <f t="shared" si="12"/>
+        <v>322341.46198124072</v>
       </c>
       <c r="BC12" s="2">
-        <f t="shared" si="10"/>
-        <v>349687.82629805076</v>
+        <f t="shared" si="12"/>
+        <v>338458.53508030274</v>
       </c>
       <c r="BD12" s="2">
-        <f t="shared" si="10"/>
-        <v>367172.21761295333</v>
+        <f t="shared" si="12"/>
+        <v>355381.46183431789</v>
       </c>
     </row>
     <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1704,31 +1759,30 @@
         <v>4591</v>
       </c>
       <c r="Q13" s="4">
-        <f>+M13</f>
-        <v>4198</v>
+        <v>4721</v>
       </c>
       <c r="R13" s="4">
-        <f>+N13</f>
+        <f t="shared" ref="Q13:W13" si="13">+N13</f>
         <v>4269</v>
       </c>
       <c r="S13" s="4">
-        <f>+O13</f>
+        <f t="shared" si="13"/>
         <v>4688</v>
       </c>
       <c r="T13" s="4">
-        <f>+P13</f>
+        <f t="shared" si="13"/>
         <v>4591</v>
       </c>
       <c r="U13" s="4">
-        <f>+Q13</f>
-        <v>4198</v>
+        <f t="shared" si="13"/>
+        <v>4721</v>
       </c>
       <c r="V13" s="4">
-        <f>+R13</f>
+        <f t="shared" si="13"/>
         <v>4269</v>
       </c>
       <c r="W13" s="4">
-        <f>+S13</f>
+        <f t="shared" si="13"/>
         <v>4688</v>
       </c>
       <c r="AR13" s="2">
@@ -1748,40 +1802,40 @@
         <v>17075</v>
       </c>
       <c r="AV13" s="2">
-        <f>SUM(P13:S13)</f>
-        <v>17746</v>
+        <f t="shared" si="10"/>
+        <v>18269</v>
       </c>
       <c r="AW13" s="2">
-        <f>SUM(T13:W13)</f>
-        <v>17746</v>
+        <f t="shared" si="11"/>
+        <v>18269</v>
       </c>
       <c r="AX13" s="2">
-        <f t="shared" ref="AX13:BD13" si="11">+AW13*1.05</f>
-        <v>18633.3</v>
+        <f t="shared" ref="AX13:BD13" si="14">+AW13*1.05</f>
+        <v>19182.45</v>
       </c>
       <c r="AY13" s="2">
-        <f t="shared" si="11"/>
-        <v>19564.965</v>
+        <f t="shared" si="14"/>
+        <v>20141.572500000002</v>
       </c>
       <c r="AZ13" s="2">
-        <f t="shared" si="11"/>
-        <v>20543.213250000001</v>
+        <f t="shared" si="14"/>
+        <v>21148.651125000004</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" si="11"/>
-        <v>21570.373912500003</v>
+        <f t="shared" si="14"/>
+        <v>22206.083681250006</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="11"/>
-        <v>22648.892608125003</v>
+        <f t="shared" si="14"/>
+        <v>23316.387865312507</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="11"/>
-        <v>23781.337238531254</v>
+        <f t="shared" si="14"/>
+        <v>24482.207258578132</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="11"/>
-        <v>24970.404100457818</v>
+        <f t="shared" si="14"/>
+        <v>25706.317621507038</v>
       </c>
     </row>
     <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1831,31 +1885,30 @@
         <v>25335</v>
       </c>
       <c r="Q14" s="4">
-        <f>+M14*1.2</f>
-        <v>30102</v>
+        <v>27376</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" ref="R14:W14" si="12">+N14*1.2</f>
+        <f t="shared" ref="R14:W14" si="15">+N14*1.2</f>
         <v>29102.399999999998</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>36384</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30402</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="12"/>
-        <v>36122.400000000001</v>
+        <f t="shared" si="15"/>
+        <v>32851.199999999997</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34922.879999999997</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>43660.799999999996</v>
       </c>
       <c r="AR14" s="2">
@@ -1875,40 +1928,40 @@
         <v>103366</v>
       </c>
       <c r="AV14" s="2">
-        <f>SUM(P14:S14)</f>
-        <v>120923.4</v>
+        <f t="shared" si="10"/>
+        <v>118197.4</v>
       </c>
       <c r="AW14" s="2">
-        <f>SUM(T14:W14)</f>
-        <v>145108.07999999999</v>
+        <f t="shared" si="11"/>
+        <v>141836.87999999998</v>
       </c>
       <c r="AX14" s="2">
-        <f t="shared" ref="AX14:BD14" si="13">+AW14*1.05</f>
-        <v>152363.484</v>
+        <f t="shared" ref="AX14:BD14" si="16">+AW14*1.05</f>
+        <v>148928.72399999999</v>
       </c>
       <c r="AY14" s="2">
-        <f t="shared" si="13"/>
-        <v>159981.65820000001</v>
+        <f t="shared" si="16"/>
+        <v>156375.16019999998</v>
       </c>
       <c r="AZ14" s="2">
-        <f t="shared" si="13"/>
-        <v>167980.74111</v>
+        <f t="shared" si="16"/>
+        <v>164193.91821</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" si="13"/>
-        <v>176379.7781655</v>
+        <f t="shared" si="16"/>
+        <v>172403.61412050002</v>
       </c>
       <c r="BB14" s="2">
-        <f t="shared" si="13"/>
-        <v>185198.767073775</v>
+        <f t="shared" si="16"/>
+        <v>181023.79482652503</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="13"/>
-        <v>194458.70542746375</v>
+        <f t="shared" si="16"/>
+        <v>190074.98456785129</v>
       </c>
       <c r="BD14" s="2">
-        <f t="shared" si="13"/>
-        <v>204181.64069883694</v>
+        <f t="shared" si="16"/>
+        <v>199578.73379624388</v>
       </c>
     </row>
     <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1958,31 +2011,30 @@
         <v>8410</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" ref="Q15:Q16" si="14">+M15*1.2</f>
-        <v>9500.4</v>
+        <v>8716</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" ref="R15:R16" si="15">+N15*1.2</f>
+        <f t="shared" ref="R15:R16" si="17">+N15*1.2</f>
         <v>9777.6</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15:S16" si="16">+O15*1.2</f>
+        <f t="shared" ref="S15:S16" si="18">+O15*1.2</f>
         <v>9747.6</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" ref="T15:T16" si="17">+P15*1.2</f>
+        <f t="shared" ref="T15:T16" si="19">+P15*1.2</f>
         <v>10092</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" ref="U15:U16" si="18">+Q15*1.2</f>
-        <v>11400.48</v>
+        <f t="shared" ref="U15:U16" si="20">+Q15*1.2</f>
+        <v>10459.199999999999</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" ref="V15:V16" si="19">+R15*1.2</f>
+        <f t="shared" ref="V15:V16" si="21">+R15*1.2</f>
         <v>11733.12</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" ref="W15:W16" si="20">+S15*1.2</f>
+        <f t="shared" ref="W15:W16" si="22">+S15*1.2</f>
         <v>11697.12</v>
       </c>
       <c r="AR15" s="2">
@@ -2002,40 +2054,40 @@
         <v>31768</v>
       </c>
       <c r="AV15" s="2">
-        <f>SUM(P15:S15)</f>
-        <v>37435.599999999999</v>
+        <f t="shared" si="10"/>
+        <v>36651.199999999997</v>
       </c>
       <c r="AW15" s="2">
-        <f>SUM(T15:W15)</f>
-        <v>44922.720000000001</v>
+        <f t="shared" si="11"/>
+        <v>43981.440000000002</v>
       </c>
       <c r="AX15" s="2">
         <f>+AW15*1.1</f>
-        <v>49414.992000000006</v>
+        <v>48379.58400000001</v>
       </c>
       <c r="AY15" s="2">
-        <f t="shared" ref="AY15:BA15" si="21">+AX15*1.1</f>
-        <v>54356.491200000011</v>
+        <f t="shared" ref="AY15:BA15" si="23">+AX15*1.1</f>
+        <v>53217.542400000013</v>
       </c>
       <c r="AZ15" s="2">
-        <f t="shared" si="21"/>
-        <v>59792.14032000002</v>
+        <f t="shared" si="23"/>
+        <v>58539.296640000022</v>
       </c>
       <c r="BA15" s="2">
-        <f t="shared" si="21"/>
-        <v>65771.354352000024</v>
+        <f t="shared" si="23"/>
+        <v>64393.226304000033</v>
       </c>
       <c r="BB15" s="2">
-        <f t="shared" ref="AX15:BD15" si="22">+BA15*1.05</f>
-        <v>69059.922069600027</v>
+        <f t="shared" ref="BB15:BD15" si="24">+BA15*1.05</f>
+        <v>67612.887619200032</v>
       </c>
       <c r="BC15" s="2">
-        <f t="shared" si="22"/>
-        <v>72512.918173080034</v>
+        <f t="shared" si="24"/>
+        <v>70993.532000160034</v>
       </c>
       <c r="BD15" s="2">
-        <f t="shared" si="22"/>
-        <v>76138.564081734032</v>
+        <f t="shared" si="24"/>
+        <v>74543.208600168044</v>
       </c>
     </row>
     <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2085,31 +2137,30 @@
         <v>7877</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="14"/>
-        <v>8941.1999999999989</v>
+        <v>8757</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9134.4</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11659.199999999999</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9452.4</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="18"/>
-        <v>10729.439999999999</v>
+        <f t="shared" si="20"/>
+        <v>10508.4</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10961.279999999999</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13991.039999999999</v>
       </c>
       <c r="AR16" s="2">
@@ -2129,40 +2180,40 @@
         <v>31160</v>
       </c>
       <c r="AV16" s="2">
-        <f>SUM(P16:S16)</f>
-        <v>37611.799999999996</v>
+        <f t="shared" si="10"/>
+        <v>37427.599999999999</v>
       </c>
       <c r="AW16" s="2">
-        <f>SUM(T16:W16)</f>
-        <v>45134.159999999996</v>
+        <f t="shared" si="11"/>
+        <v>44913.119999999995</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" ref="AX16:BA16" si="23">+AW16*1.1</f>
-        <v>49647.576000000001</v>
+        <f t="shared" ref="AX16:BA16" si="25">+AW16*1.1</f>
+        <v>49404.432000000001</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="23"/>
-        <v>54612.333600000005</v>
+        <f t="shared" si="25"/>
+        <v>54344.875200000002</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="23"/>
-        <v>60073.566960000011</v>
+        <f t="shared" si="25"/>
+        <v>59779.362720000005</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="23"/>
-        <v>66080.923656000014</v>
+        <f t="shared" si="25"/>
+        <v>65757.298992000011</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" ref="AX16:BD16" si="24">+BA16*1.05</f>
-        <v>69384.969838800011</v>
+        <f t="shared" ref="BB16:BD16" si="26">+BA16*1.05</f>
+        <v>69045.163941600011</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="24"/>
-        <v>72854.218330740012</v>
+        <f t="shared" si="26"/>
+        <v>72497.42213868002</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="24"/>
-        <v>76496.929247277018</v>
+        <f t="shared" si="26"/>
+        <v>76122.293245614026</v>
       </c>
     </row>
     <row r="17" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2210,31 +2261,30 @@
         <v>661</v>
       </c>
       <c r="Q17" s="4">
-        <f>+M17</f>
-        <v>463</v>
+        <v>1070</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" ref="R17:W17" si="25">+N17</f>
+        <f t="shared" ref="R17:W17" si="27">+N17</f>
         <v>479</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>710</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>661</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="25"/>
-        <v>463</v>
+        <f t="shared" si="27"/>
+        <v>1070</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>479</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>710</v>
       </c>
       <c r="AS17" s="2">
@@ -2250,40 +2300,40 @@
         <v>2176</v>
       </c>
       <c r="AV17" s="2">
-        <f>SUM(P17:S17)</f>
-        <v>2313</v>
+        <f t="shared" si="10"/>
+        <v>2920</v>
       </c>
       <c r="AW17" s="2">
-        <f>SUM(T17:W17)</f>
-        <v>2313</v>
+        <f t="shared" si="11"/>
+        <v>2920</v>
       </c>
       <c r="AX17" s="2">
-        <f t="shared" ref="AX17:BD17" si="26">+AW17*1.05</f>
-        <v>2428.65</v>
+        <f t="shared" ref="AX17:BD17" si="28">+AW17*1.05</f>
+        <v>3066</v>
       </c>
       <c r="AY17" s="2">
-        <f t="shared" si="26"/>
-        <v>2550.0825</v>
+        <f t="shared" si="28"/>
+        <v>3219.3</v>
       </c>
       <c r="AZ17" s="2">
-        <f t="shared" si="26"/>
-        <v>2677.5866249999999</v>
+        <f t="shared" si="28"/>
+        <v>3380.2650000000003</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" si="26"/>
-        <v>2811.4659562500001</v>
+        <f t="shared" si="28"/>
+        <v>3549.2782500000003</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="26"/>
-        <v>2952.0392540625003</v>
+        <f t="shared" si="28"/>
+        <v>3726.7421625000006</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="26"/>
-        <v>3099.6412167656254</v>
+        <f t="shared" si="28"/>
+        <v>3913.0792706250008</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="26"/>
-        <v>3254.6232776039069</v>
+        <f t="shared" si="28"/>
+        <v>4108.7332341562515</v>
       </c>
     </row>
     <row r="18" spans="2:56" x14ac:dyDescent="0.2">
@@ -2336,7 +2386,9 @@
       <c r="P19" s="4">
         <v>56455</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4">
+        <v>56575</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="AQ19" s="2">
@@ -2354,7 +2406,7 @@
         <v>215915</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" ref="AU19:AU27" si="27">SUM(L19:O19)</f>
+        <f t="shared" ref="AU19:AU27" si="29">SUM(L19:O19)</f>
         <v>241787</v>
       </c>
     </row>
@@ -2404,7 +2456,9 @@
       <c r="P20" s="4">
         <v>59989</v>
       </c>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="4">
+        <v>64659</v>
+      </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="AQ20" s="2">
@@ -2418,11 +2472,11 @@
         <v>120115</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" ref="AT20:AT27" si="28">SUM(H20:K20)</f>
+        <f t="shared" ref="AT20:AT27" si="30">SUM(H20:K20)</f>
         <v>170149</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>228035</v>
       </c>
     </row>
@@ -2431,55 +2485,55 @@
         <v>8</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21" si="29">C19+C20</f>
+        <f t="shared" ref="C21" si="31">C19+C20</f>
         <v>72383</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:F21" si="30">D19+D20</f>
+        <f t="shared" ref="D21:F21" si="32">D19+D20</f>
         <v>59700</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21" si="31">E19+E20</f>
+        <f t="shared" ref="E21" si="33">E19+E20</f>
         <v>63404</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>69981</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21" si="32">G19+G20</f>
+        <f t="shared" ref="G21" si="34">G19+G20</f>
         <v>87437</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21" si="33">H19+H20</f>
+        <f t="shared" ref="H21" si="35">H19+H20</f>
         <v>75452</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" ref="I21" si="34">I19+I20</f>
+        <f t="shared" ref="I21" si="36">I19+I20</f>
         <v>88912</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:O21" si="35">J19+J20</f>
+        <f t="shared" ref="J21:O21" si="37">J19+J20</f>
         <v>96145</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>125555</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>108518</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113080</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>110812</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>137412</v>
       </c>
       <c r="P21" s="6">
@@ -2487,31 +2541,31 @@
         <v>116444</v>
       </c>
       <c r="Q21" s="6">
-        <f>SUM(Q10:Q17)</f>
-        <v>132409.9</v>
+        <f>Q19+Q20</f>
+        <v>121234</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21:W21" si="36">SUM(R10:R17)</f>
+        <f t="shared" ref="R21:W21" si="38">SUM(R10:R17)</f>
         <v>130252.6</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>160763.30000000002</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>137257.70000000001</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="36"/>
-        <v>156258.93000000002</v>
+        <f t="shared" si="38"/>
+        <v>143184.9</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>154370.70000000001</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>189546.50999999998</v>
       </c>
       <c r="AL21" s="5">
@@ -2525,19 +2579,19 @@
         <v>88988</v>
       </c>
       <c r="AO21" s="5">
-        <f t="shared" ref="AO21:AP21" si="37">+AO4+AO7+AO10</f>
+        <f t="shared" ref="AO21:AP21" si="39">+AO4+AO7+AO10</f>
         <v>107006</v>
       </c>
       <c r="AP21" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>135987</v>
       </c>
       <c r="AQ21" s="6">
-        <f t="shared" ref="AQ21" si="38">AQ19+AQ20</f>
+        <f t="shared" ref="AQ21" si="40">AQ19+AQ20</f>
         <v>177866</v>
       </c>
       <c r="AR21" s="6">
-        <f t="shared" ref="AR21" si="39">AR19+AR20</f>
+        <f t="shared" ref="AR21" si="41">AR19+AR20</f>
         <v>232887</v>
       </c>
       <c r="AS21" s="6">
@@ -2554,39 +2608,39 @@
       </c>
       <c r="AV21" s="5">
         <f>SUM(AV10:AV17)</f>
-        <v>539869.80000000005</v>
+        <v>528693.9</v>
       </c>
       <c r="AW21" s="5">
         <f>SUM(AW10:AW17)</f>
-        <v>637433.84</v>
+        <v>624359.80999999994</v>
       </c>
       <c r="AX21" s="5">
-        <f t="shared" ref="AX21:BD21" si="40">SUM(AX10:AX17)</f>
-        <v>704125.23599999992</v>
+        <f t="shared" ref="AX21:BD21" si="42">SUM(AX10:AX17)</f>
+        <v>689991.62850000011</v>
       </c>
       <c r="AY21" s="5">
-        <f t="shared" si="40"/>
-        <v>783696.54420000012</v>
+        <f t="shared" si="42"/>
+        <v>768340.24072500016</v>
       </c>
       <c r="AZ21" s="5">
-        <f t="shared" si="40"/>
-        <v>879565.30605000001</v>
+        <f t="shared" si="42"/>
+        <v>862783.15264125017</v>
       </c>
       <c r="BA21" s="5">
-        <f t="shared" si="40"/>
-        <v>996142.99813650013</v>
+        <f t="shared" si="42"/>
+        <v>977680.35594131274</v>
       </c>
       <c r="BB21" s="5">
-        <f t="shared" si="40"/>
-        <v>1097902.938350925</v>
+        <f t="shared" si="42"/>
+        <v>1077921.2216443785</v>
       </c>
       <c r="BC21" s="5">
-        <f t="shared" si="40"/>
-        <v>1215141.4336375913</v>
+        <f t="shared" si="42"/>
+        <v>1193445.5002137974</v>
       </c>
       <c r="BD21" s="5">
-        <f t="shared" si="40"/>
-        <v>1350710.5233624149</v>
+        <f t="shared" si="42"/>
+        <v>1327071.6362091273</v>
       </c>
     </row>
     <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2636,32 +2690,31 @@
         <v>66499</v>
       </c>
       <c r="Q22" s="4">
-        <f>SUM(Q12:Q14)*0.8+Q10*0.7</f>
-        <v>88730.98000000001</v>
+        <v>66424</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" ref="R22:W22" si="41">SUM(R12:R14)*0.8+R10*0.7</f>
-        <v>86433.88</v>
+        <f>SUM(R12:R14)*0.68+R10*0.5</f>
+        <v>71326.168000000005</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="41"/>
-        <v>108428</v>
+        <f t="shared" ref="S22:W22" si="43">SUM(S12:S14)*0.68+S10*0.5</f>
+        <v>89799.060000000012</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="41"/>
-        <v>91060.099999999991</v>
+        <f t="shared" si="43"/>
+        <v>74948.432000000001</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="41"/>
-        <v>104030.24400000001</v>
+        <f t="shared" si="43"/>
+        <v>77405.936000000016</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="41"/>
-        <v>101800.28000000001</v>
+        <f t="shared" si="43"/>
+        <v>83530.556000000011</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="41"/>
-        <v>127033.79999999999</v>
+        <f t="shared" si="43"/>
+        <v>104668.094</v>
       </c>
       <c r="AN22" s="2">
         <v>62752</v>
@@ -2683,48 +2736,48 @@
         <v>165536</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>233307</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>272344</v>
       </c>
       <c r="AV22" s="17">
         <f>SUM(P22:S22)</f>
-        <v>350091.86</v>
+        <v>294048.228</v>
       </c>
       <c r="AW22" s="17">
         <f>SUM(T22:W22)</f>
-        <v>423924.424</v>
+        <v>340553.01800000004</v>
       </c>
       <c r="AX22" s="4">
-        <f t="shared" ref="AX22:BD22" si="42">SUM(AX12:AX14)*0.8+AX10*0.7</f>
-        <v>466342.4472</v>
+        <f t="shared" ref="AX22:BD22" si="44">SUM(AX12:AX14)*0.8+AX10*0.7</f>
+        <v>455729.35800000001</v>
       </c>
       <c r="AY22" s="4">
-        <f t="shared" si="42"/>
-        <v>517247.91216000007</v>
+        <f t="shared" si="44"/>
+        <v>505787.70689999999</v>
       </c>
       <c r="AZ22" s="4">
-        <f t="shared" si="42"/>
-        <v>578975.15314800001</v>
+        <f t="shared" si="44"/>
+        <v>566530.53754500009</v>
       </c>
       <c r="BA22" s="4">
-        <f t="shared" si="42"/>
-        <v>654548.20979940007</v>
+        <f t="shared" si="44"/>
+        <v>640946.54331225017</v>
       </c>
       <c r="BB22" s="4">
-        <f t="shared" si="42"/>
-        <v>723642.57350469008</v>
+        <f t="shared" si="44"/>
+        <v>708943.66401206283</v>
       </c>
       <c r="BC22" s="4">
-        <f t="shared" si="42"/>
-        <v>803465.04603830853</v>
+        <f t="shared" si="44"/>
+        <v>787530.59945370583</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="42"/>
-        <v>896006.71097028488</v>
+        <f t="shared" si="44"/>
+        <v>878674.83211563923</v>
       </c>
     </row>
     <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2774,32 +2827,31 @@
         <v>20271</v>
       </c>
       <c r="Q23" s="4">
-        <f>(Q14+Q12)*0.1</f>
-        <v>8857.4700000000012</v>
+        <v>20342</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23:W23" si="43">(R14+R12)*0.1</f>
-        <v>8403.86</v>
+        <f>(R14+R12)*0.25</f>
+        <v>21009.65</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="43"/>
-        <v>10906.650000000001</v>
+        <f t="shared" ref="S23:W23" si="45">(S14+S12)*0.25</f>
+        <v>27266.625</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="43"/>
-        <v>8664.39</v>
+        <f t="shared" si="45"/>
+        <v>21660.974999999999</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="43"/>
-        <v>10044.237000000001</v>
+        <f t="shared" si="45"/>
+        <v>22197.925000000003</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="43"/>
-        <v>9535.2700000000023</v>
+        <f t="shared" si="45"/>
+        <v>23838.175000000003</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="43"/>
-        <v>12361.154999999999</v>
+        <f t="shared" si="45"/>
+        <v>30902.887499999997</v>
       </c>
       <c r="AN23" s="2">
         <v>10766</v>
@@ -2821,48 +2873,48 @@
         <v>40231</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>58516</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>75111</v>
       </c>
       <c r="AV23" s="17">
         <f>SUM(P23:S23)</f>
-        <v>48438.98</v>
+        <v>88889.274999999994</v>
       </c>
       <c r="AW23" s="17">
         <f>SUM(T23:W23)</f>
-        <v>40605.052000000003</v>
+        <v>98599.962500000009</v>
       </c>
       <c r="AX23" s="4">
-        <f t="shared" ref="AX23:BD23" si="44">(AX14+AX12)*0.1</f>
-        <v>42635.304600000003</v>
+        <f t="shared" ref="AX23:BD23" si="46">(AX14+AX12)*0.1</f>
+        <v>41411.984250000009</v>
       </c>
       <c r="AY23" s="4">
-        <f t="shared" si="44"/>
-        <v>44767.069830000008</v>
+        <f t="shared" si="46"/>
+        <v>43482.583462500006</v>
       </c>
       <c r="AZ23" s="4">
-        <f t="shared" si="44"/>
-        <v>47005.423321500013</v>
+        <f t="shared" si="46"/>
+        <v>45656.712635625008</v>
       </c>
       <c r="BA23" s="4">
-        <f t="shared" si="44"/>
-        <v>49355.694487575012</v>
+        <f t="shared" si="46"/>
+        <v>47939.548267406266</v>
       </c>
       <c r="BB23" s="4">
-        <f t="shared" si="44"/>
-        <v>51823.47921195376</v>
+        <f t="shared" si="46"/>
+        <v>50336.525680776576</v>
       </c>
       <c r="BC23" s="4">
-        <f t="shared" si="44"/>
-        <v>54414.653172551451</v>
+        <f t="shared" si="46"/>
+        <v>52853.351964815403</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="44"/>
-        <v>57135.385831179032</v>
+        <f t="shared" si="46"/>
+        <v>55496.019563056179</v>
       </c>
     </row>
     <row r="24" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2870,7 +2922,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24" si="45">C21-C22-C23</f>
+        <f t="shared" ref="C24" si="47">C21-C22-C23</f>
         <v>17569</v>
       </c>
       <c r="D24" s="4">
@@ -2878,7 +2930,7 @@
         <v>17179</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24" si="46">E21-E22-E23</f>
+        <f t="shared" ref="E24" si="48">E21-E22-E23</f>
         <v>17796</v>
       </c>
       <c r="F24" s="4">
@@ -2886,15 +2938,15 @@
         <v>18512</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ref="G24" si="47">G21-G22-G23</f>
+        <f t="shared" ref="G24" si="49">G21-G22-G23</f>
         <v>21268</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" ref="H24" si="48">H21-H22-H23</f>
+        <f t="shared" ref="H24" si="50">H21-H22-H23</f>
         <v>19664</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ref="I24" si="49">I21-I22-I23</f>
+        <f t="shared" ref="I24" si="51">I21-I22-I23</f>
         <v>22446</v>
       </c>
       <c r="J24" s="4">
@@ -2902,7 +2954,7 @@
         <v>24334</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" ref="K24" si="50">K21-K22-K23</f>
+        <f t="shared" ref="K24" si="52">K21-K22-K23</f>
         <v>27797</v>
       </c>
       <c r="L24" s="4">
@@ -2910,116 +2962,116 @@
         <v>29585</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24:W24" si="51">M21-M22-M23</f>
+        <f t="shared" ref="M24:W24" si="53">M21-M22-M23</f>
         <v>31266</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>29384</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>32132</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>29674</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="51"/>
-        <v>34821.449999999983</v>
+        <f t="shared" si="53"/>
+        <v>34468</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="51"/>
-        <v>35414.86</v>
+        <f>R21-R22-R23</f>
+        <v>37916.781999999999</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="51"/>
-        <v>41428.650000000016</v>
+        <f t="shared" si="53"/>
+        <v>43697.615000000005</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="51"/>
-        <v>37533.210000000021</v>
+        <f t="shared" si="53"/>
+        <v>40648.293000000012</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="51"/>
-        <v>42184.449000000015</v>
+        <f t="shared" si="53"/>
+        <v>43581.038999999975</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="51"/>
-        <v>43035.149999999994</v>
+        <f t="shared" si="53"/>
+        <v>47001.968999999997</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="51"/>
-        <v>50151.554999999993</v>
+        <f t="shared" si="53"/>
+        <v>53975.528499999986</v>
       </c>
       <c r="AN24" s="4">
-        <f t="shared" ref="AN24:AQ24" si="52">AN21-AN22-AN23</f>
+        <f t="shared" ref="AN24:AQ24" si="54">AN21-AN22-AN23</f>
         <v>15470</v>
       </c>
       <c r="AO24" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>21945</v>
       </c>
       <c r="AP24" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>30103</v>
       </c>
       <c r="AQ24" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>40683</v>
       </c>
       <c r="AR24" s="4">
-        <f t="shared" ref="AR24:AS24" si="53">AR21-AR22-AR23</f>
+        <f t="shared" ref="AR24:AS24" si="55">AR21-AR22-AR23</f>
         <v>59704</v>
       </c>
       <c r="AS24" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>74755</v>
       </c>
       <c r="AT24" s="4">
-        <f t="shared" ref="AT24:BD24" si="54">AT21-AT22-AT23</f>
+        <f t="shared" ref="AT24:BD24" si="56">AT21-AT22-AT23</f>
         <v>94241</v>
       </c>
       <c r="AU24" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>122367</v>
       </c>
       <c r="AV24" s="4">
-        <f t="shared" si="54"/>
-        <v>141338.96000000005</v>
+        <f t="shared" si="56"/>
+        <v>145756.39700000003</v>
       </c>
       <c r="AW24" s="4">
-        <f t="shared" si="54"/>
-        <v>172904.36399999997</v>
+        <f t="shared" si="56"/>
+        <v>185206.82949999988</v>
       </c>
       <c r="AX24" s="4">
-        <f t="shared" si="54"/>
-        <v>195147.48419999992</v>
+        <f t="shared" si="56"/>
+        <v>192850.28625000009</v>
       </c>
       <c r="AY24" s="4">
-        <f t="shared" si="54"/>
-        <v>221681.56221000006</v>
+        <f t="shared" si="56"/>
+        <v>219069.95036250015</v>
       </c>
       <c r="AZ24" s="4">
-        <f t="shared" si="54"/>
-        <v>253584.72958049999</v>
+        <f t="shared" si="56"/>
+        <v>250595.90246062508</v>
       </c>
       <c r="BA24" s="4">
-        <f t="shared" si="54"/>
-        <v>292239.09384952503</v>
+        <f t="shared" si="56"/>
+        <v>288794.26436165627</v>
       </c>
       <c r="BB24" s="4">
-        <f t="shared" si="54"/>
-        <v>322436.88563428115</v>
+        <f t="shared" si="56"/>
+        <v>318641.0319515391</v>
       </c>
       <c r="BC24" s="4">
-        <f t="shared" si="54"/>
-        <v>357261.73442673136</v>
+        <f t="shared" si="56"/>
+        <v>353061.54879527621</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="54"/>
-        <v>397568.42656095099</v>
+        <f t="shared" si="56"/>
+        <v>392900.78453043185</v>
       </c>
     </row>
     <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3069,31 +3121,30 @@
         <v>14842</v>
       </c>
       <c r="Q25" s="4">
-        <f>+M25*1.1</f>
-        <v>15258.1</v>
+        <v>18072</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" ref="R25:W25" si="55">+N25*1.1</f>
-        <v>15818.000000000002</v>
+        <f>+N25*1.25</f>
+        <v>17975</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="R25:W25" si="57">+O25*1.1</f>
         <v>16844.300000000003</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>16326.2</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="55"/>
-        <v>16783.910000000003</v>
+        <f t="shared" si="57"/>
+        <v>19879.2</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="55"/>
-        <v>17399.800000000003</v>
+        <f t="shared" si="57"/>
+        <v>19772.5</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>18528.730000000003</v>
       </c>
       <c r="AN25" s="2">
@@ -3116,48 +3167,48 @@
         <v>35932</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>42738</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>56052</v>
       </c>
       <c r="AV25" s="17">
         <f>SUM(P25:S25)</f>
-        <v>62762.400000000001</v>
+        <v>67733.3</v>
       </c>
       <c r="AW25" s="17">
         <f>SUM(T25:W25)</f>
-        <v>69038.640000000014</v>
+        <v>74506.63</v>
       </c>
       <c r="AX25" s="2">
         <f>+AW25*1.03</f>
-        <v>71109.799200000023</v>
+        <v>76741.828900000008</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" ref="AY25:BD25" si="56">+AX25*1.03</f>
-        <v>73243.093176000024</v>
+        <f t="shared" ref="AY25:BD25" si="58">+AX25*1.03</f>
+        <v>79044.083767000004</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="56"/>
-        <v>75440.385971280033</v>
+        <f t="shared" si="58"/>
+        <v>81415.406280010007</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="56"/>
-        <v>77703.597550418432</v>
+        <f t="shared" si="58"/>
+        <v>83857.868468410306</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="56"/>
-        <v>80034.705476930991</v>
+        <f t="shared" si="58"/>
+        <v>86373.604522462614</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="56"/>
-        <v>82435.746641238919</v>
+        <f t="shared" si="58"/>
+        <v>88964.812658136492</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="56"/>
-        <v>84908.819040476083</v>
+        <f t="shared" si="58"/>
+        <v>91633.757037880583</v>
       </c>
     </row>
     <row r="26" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3207,31 +3258,30 @@
         <v>8320</v>
       </c>
       <c r="Q26" s="4">
-        <f>+M26*1.05</f>
-        <v>7900.2000000000007</v>
+        <v>10086</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" ref="R26:R27" si="57">+N26*1.05</f>
-        <v>8410.5</v>
+        <f>+N26*1.15</f>
+        <v>9211.5</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26:S27" si="58">+O26*1.05</f>
+        <f t="shared" ref="S26:S27" si="59">+O26*1.05</f>
         <v>11350.5</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26:T27" si="59">+P26*1.05</f>
+        <f t="shared" ref="T26:T27" si="60">+P26*1.05</f>
         <v>8736</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" ref="U26:U27" si="60">+Q26*1.05</f>
-        <v>8295.2100000000009</v>
+        <f t="shared" ref="U26:U27" si="61">+Q26*1.05</f>
+        <v>10590.300000000001</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ref="V26:V27" si="61">+R26*1.05</f>
-        <v>8831.0249999999996</v>
+        <f t="shared" ref="V26:V27" si="62">+R26*1.05</f>
+        <v>9672.0750000000007</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" ref="W26:W27" si="62">+S26*1.05</f>
+        <f t="shared" ref="W26:W27" si="63">+S26*1.05</f>
         <v>11918.025</v>
       </c>
       <c r="AN26" s="2">
@@ -3254,48 +3304,48 @@
         <v>18879</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22010</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>32551</v>
       </c>
       <c r="AV26" s="17">
         <f>SUM(P26:S26)</f>
-        <v>35981.199999999997</v>
+        <v>38968</v>
       </c>
       <c r="AW26" s="17">
         <f>SUM(T26:W26)</f>
-        <v>37780.26</v>
+        <v>40916.400000000001</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" ref="AX26:BD26" si="63">+AW26*1.03</f>
-        <v>38913.667800000003</v>
+        <f t="shared" ref="AX26:BD26" si="64">+AW26*1.03</f>
+        <v>42143.892</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="63"/>
-        <v>40081.077834000003</v>
+        <f t="shared" si="64"/>
+        <v>43408.208760000001</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="63"/>
-        <v>41283.510169020003</v>
+        <f t="shared" si="64"/>
+        <v>44710.455022800001</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="63"/>
-        <v>42522.015474090607</v>
+        <f t="shared" si="64"/>
+        <v>46051.768673484003</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="63"/>
-        <v>43797.675938313325</v>
+        <f t="shared" si="64"/>
+        <v>47433.321733688521</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="63"/>
-        <v>45111.606216462729</v>
+        <f t="shared" si="64"/>
+        <v>48856.321385699179</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="63"/>
-        <v>46464.95440295661</v>
+        <f t="shared" si="64"/>
+        <v>50322.011027270157</v>
       </c>
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.2">
@@ -3345,31 +3395,30 @@
         <v>2594</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" ref="Q27" si="64">+M27*1.05</f>
-        <v>2265.9</v>
+        <v>2903</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="57"/>
-        <v>2260.65</v>
+        <f>+N27*1.15</f>
+        <v>2475.9499999999998</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2651.25</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2723.7000000000003</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="60"/>
-        <v>2379.1950000000002</v>
+        <f t="shared" si="61"/>
+        <v>3048.15</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="61"/>
-        <v>2373.6825000000003</v>
+        <f t="shared" si="62"/>
+        <v>2599.7474999999999</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2783.8125</v>
       </c>
       <c r="AN27" s="2">
@@ -3392,48 +3441,48 @@
         <v>5203</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6668</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8823</v>
       </c>
       <c r="AV27" s="17">
         <f>SUM(P27:S27)</f>
-        <v>9771.7999999999993</v>
+        <v>10624.2</v>
       </c>
       <c r="AW27" s="17">
         <f>SUM(T27:W27)</f>
-        <v>10260.390000000001</v>
+        <v>11155.41</v>
       </c>
       <c r="AX27" s="2">
         <f t="shared" ref="AX27:BD27" si="65">+AW27*1.03</f>
-        <v>10568.201700000001</v>
+        <v>11490.0723</v>
       </c>
       <c r="AY27" s="2">
         <f t="shared" si="65"/>
-        <v>10885.247751000003</v>
+        <v>11834.774469</v>
       </c>
       <c r="AZ27" s="2">
         <f t="shared" si="65"/>
-        <v>11211.805183530003</v>
+        <v>12189.817703070001</v>
       </c>
       <c r="BA27" s="2">
         <f t="shared" si="65"/>
-        <v>11548.159339035903</v>
+        <v>12555.512234162101</v>
       </c>
       <c r="BB27" s="2">
         <f t="shared" si="65"/>
-        <v>11894.604119206981</v>
+        <v>12932.177601186964</v>
       </c>
       <c r="BC27" s="2">
         <f t="shared" si="65"/>
-        <v>12251.442242783191</v>
+        <v>13320.142929222573</v>
       </c>
       <c r="BD27" s="2">
         <f t="shared" si="65"/>
-        <v>12618.985510066686</v>
+        <v>13719.747217099251</v>
       </c>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.2">
@@ -3498,11 +3547,11 @@
       </c>
       <c r="Q28" s="4">
         <f t="shared" ref="Q28:W28" si="73">SUM(Q25:Q27)</f>
-        <v>25424.200000000004</v>
+        <v>31061</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="73"/>
-        <v>26489.15</v>
+        <f>SUM(R25:R27)</f>
+        <v>29662.45</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="73"/>
@@ -3514,11 +3563,11 @@
       </c>
       <c r="U28" s="4">
         <f t="shared" si="73"/>
-        <v>27458.315000000002</v>
+        <v>33517.65</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="73"/>
-        <v>28604.507500000003</v>
+        <v>32044.322500000002</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="73"/>
@@ -3558,39 +3607,39 @@
       </c>
       <c r="AV28" s="4">
         <f t="shared" ref="AV28:AW28" si="78">SUM(AV25:AV27)</f>
-        <v>108515.40000000001</v>
+        <v>117325.5</v>
       </c>
       <c r="AW28" s="4">
         <f t="shared" si="78"/>
-        <v>117079.29000000002</v>
+        <v>126578.44</v>
       </c>
       <c r="AX28" s="4">
         <f t="shared" ref="AX28:BD28" si="79">SUM(AX25:AX27)</f>
-        <v>120591.66870000004</v>
+        <v>130375.79320000001</v>
       </c>
       <c r="AY28" s="4">
         <f t="shared" si="79"/>
-        <v>124209.41876100002</v>
+        <v>134287.06699600001</v>
       </c>
       <c r="AZ28" s="4">
         <f t="shared" si="79"/>
-        <v>127935.70132383003</v>
+        <v>138315.67900588</v>
       </c>
       <c r="BA28" s="4">
         <f t="shared" si="79"/>
-        <v>131773.77236354494</v>
+        <v>142465.14937605642</v>
       </c>
       <c r="BB28" s="4">
         <f t="shared" si="79"/>
-        <v>135726.98553445129</v>
+        <v>146739.10385733811</v>
       </c>
       <c r="BC28" s="4">
         <f t="shared" si="79"/>
-        <v>139798.79510048486</v>
+        <v>151141.27697305827</v>
       </c>
       <c r="BD28" s="4">
         <f t="shared" si="79"/>
-        <v>143992.75895349937</v>
+        <v>155675.51528224998</v>
       </c>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.2">
@@ -3655,31 +3704,31 @@
       </c>
       <c r="Q29" s="4">
         <f t="shared" ref="Q29:W29" si="87">Q24-Q28</f>
-        <v>9397.2499999999782</v>
+        <v>3407</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="87"/>
-        <v>8925.7099999999991</v>
+        <v>8254.3319999999985</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="87"/>
-        <v>10582.600000000013</v>
+        <v>12851.565000000002</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="87"/>
-        <v>9747.3100000000195</v>
+        <v>12862.393000000011</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="87"/>
-        <v>14726.134000000013</v>
+        <v>10063.388999999974</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="87"/>
-        <v>14430.642499999991</v>
+        <v>14957.646499999995</v>
       </c>
       <c r="W29" s="4">
         <f t="shared" si="87"/>
-        <v>16920.987499999988</v>
+        <v>20744.960999999981</v>
       </c>
       <c r="AN29" s="4">
         <f t="shared" ref="AN29:AP29" si="88">AN24-AN28</f>
@@ -3715,39 +3764,39 @@
       </c>
       <c r="AV29" s="4">
         <f t="shared" ref="AV29:AW29" si="92">AV24-AV28</f>
-        <v>32823.560000000041</v>
+        <v>28430.897000000026</v>
       </c>
       <c r="AW29" s="4">
         <f t="shared" si="92"/>
-        <v>55825.07399999995</v>
+        <v>58628.389499999874</v>
       </c>
       <c r="AX29" s="4">
         <f t="shared" ref="AX29:BD29" si="93">AX24-AX28</f>
-        <v>74555.815499999881</v>
+        <v>62474.493050000077</v>
       </c>
       <c r="AY29" s="4">
         <f t="shared" si="93"/>
-        <v>97472.143449000039</v>
+        <v>84782.883366500144</v>
       </c>
       <c r="AZ29" s="4">
         <f t="shared" si="93"/>
-        <v>125649.02825666996</v>
+        <v>112280.22345474508</v>
       </c>
       <c r="BA29" s="4">
         <f t="shared" si="93"/>
-        <v>160465.32148598009</v>
+        <v>146329.11498559985</v>
       </c>
       <c r="BB29" s="4">
         <f t="shared" si="93"/>
-        <v>186709.90009982986</v>
+        <v>171901.92809420099</v>
       </c>
       <c r="BC29" s="4">
         <f t="shared" si="93"/>
-        <v>217462.9393262465</v>
+        <v>201920.27182221794</v>
       </c>
       <c r="BD29" s="4">
         <f t="shared" si="93"/>
-        <v>253575.66760745161</v>
+        <v>237225.26924818187</v>
       </c>
     </row>
     <row r="30" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3810,7 +3859,10 @@
         <f>-249+108-472-8570</f>
         <v>-9183</v>
       </c>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="4">
+        <f>159-584</f>
+        <v>-425</v>
+      </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="AN30" s="2">
@@ -3847,7 +3899,7 @@
       </c>
       <c r="AV30" s="17">
         <f>SUM(P30:S30)</f>
-        <v>-9183</v>
+        <v>-9608</v>
       </c>
       <c r="AW30" s="17">
         <f>SUM(T30:W30)</f>
@@ -3855,31 +3907,31 @@
       </c>
       <c r="AX30" s="2">
         <f>+AW45*$BG$44</f>
-        <v>908.50038900000004</v>
+        <v>895.85143524999967</v>
       </c>
       <c r="AY30" s="2">
         <f t="shared" ref="AY30:BD30" si="97">+AX45*$BG$44</f>
-        <v>1549.9470740564989</v>
+        <v>1434.4993633746251</v>
       </c>
       <c r="AZ30" s="2">
         <f t="shared" si="97"/>
-        <v>2391.6348435024797</v>
+        <v>2167.3471165785609</v>
       </c>
       <c r="BA30" s="2">
         <f t="shared" si="97"/>
-        <v>3479.9804798539453</v>
+        <v>3140.1514664348115</v>
       </c>
       <c r="BB30" s="2">
         <f t="shared" si="97"/>
-        <v>4873.5155465635353</v>
+        <v>4410.6402312771061</v>
       </c>
       <c r="BC30" s="2">
         <f t="shared" si="97"/>
-        <v>6501.9745795578792</v>
+        <v>5909.2970620436699</v>
       </c>
       <c r="BD30" s="2">
         <f t="shared" si="97"/>
-        <v>8405.6763477572167</v>
+        <v>7675.8483975598938</v>
       </c>
     </row>
     <row r="31" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3944,31 +3996,31 @@
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="104"/>
-        <v>9397.2499999999782</v>
+        <v>2982</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" si="104"/>
-        <v>8925.7099999999991</v>
+        <v>8254.3319999999985</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="104"/>
-        <v>10582.600000000013</v>
+        <v>12851.565000000002</v>
       </c>
       <c r="T31" s="4">
         <f t="shared" si="104"/>
-        <v>9747.3100000000195</v>
+        <v>12862.393000000011</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="104"/>
-        <v>14726.134000000013</v>
+        <v>10063.388999999974</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" si="104"/>
-        <v>14430.642499999991</v>
+        <v>14957.646499999995</v>
       </c>
       <c r="W31" s="4">
         <f t="shared" si="104"/>
-        <v>16920.987499999988</v>
+        <v>20744.960999999981</v>
       </c>
       <c r="AN31" s="4">
         <f t="shared" ref="AN31:AP31" si="105">AN29+AN30</f>
@@ -4004,39 +4056,39 @@
       </c>
       <c r="AV31" s="4">
         <f t="shared" si="108"/>
-        <v>23640.560000000041</v>
+        <v>18822.897000000026</v>
       </c>
       <c r="AW31" s="4">
         <f t="shared" si="108"/>
-        <v>55825.07399999995</v>
+        <v>58628.389499999874</v>
       </c>
       <c r="AX31" s="4">
         <f t="shared" si="108"/>
-        <v>75464.315888999874</v>
+        <v>63370.344485250076</v>
       </c>
       <c r="AY31" s="4">
         <f t="shared" si="108"/>
-        <v>99022.09052305654</v>
+        <v>86217.382729874764</v>
       </c>
       <c r="AZ31" s="4">
         <f t="shared" si="108"/>
-        <v>128040.66310017245</v>
+        <v>114447.57057132364</v>
       </c>
       <c r="BA31" s="4">
         <f t="shared" si="108"/>
-        <v>163945.30196583405</v>
+        <v>149469.26645203467</v>
       </c>
       <c r="BB31" s="4">
         <f t="shared" si="108"/>
-        <v>191583.41564639341</v>
+        <v>176312.56832547809</v>
       </c>
       <c r="BC31" s="4">
         <f t="shared" si="108"/>
-        <v>223964.91390580439</v>
+        <v>207829.56888426162</v>
       </c>
       <c r="BD31" s="4">
         <f t="shared" si="108"/>
-        <v>261981.34395520884</v>
+        <v>244901.11764574176</v>
       </c>
     </row>
     <row r="32" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4100,32 +4152,31 @@
         <v>-1421</v>
       </c>
       <c r="Q32" s="4">
-        <f>+Q31*0.15</f>
-        <v>1409.5874999999967</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" ref="R32:W32" si="109">+R31*0.15</f>
-        <v>1338.8564999999999</v>
+        <v>1238.1497999999997</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="109"/>
-        <v>1587.3900000000019</v>
+        <v>1927.7347500000003</v>
       </c>
       <c r="T32" s="4">
         <f t="shared" si="109"/>
-        <v>1462.0965000000028</v>
+        <v>1929.3589500000016</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="109"/>
-        <v>2208.9201000000016</v>
+        <v>1509.508349999996</v>
       </c>
       <c r="V32" s="4">
         <f t="shared" si="109"/>
-        <v>2164.5963749999987</v>
+        <v>2243.6469749999992</v>
       </c>
       <c r="W32" s="4">
         <f t="shared" si="109"/>
-        <v>2538.1481249999983</v>
+        <v>3111.7441499999973</v>
       </c>
       <c r="AN32" s="2">
         <f>167-37</f>
@@ -4161,39 +4212,39 @@
       </c>
       <c r="AV32" s="17">
         <f>SUM(P32:S32)</f>
-        <v>2914.8339999999985</v>
+        <v>1744.88455</v>
       </c>
       <c r="AW32" s="17">
         <f>SUM(T32:W32)</f>
-        <v>8373.7611000000015</v>
+        <v>8794.2584249999945</v>
       </c>
       <c r="AX32" s="2">
         <f>+AX31*0.15</f>
-        <v>11319.64738334998</v>
+        <v>9505.5516727875111</v>
       </c>
       <c r="AY32" s="2">
         <f t="shared" ref="AY32:BD32" si="113">+AY31*0.15</f>
-        <v>14853.313578458481</v>
+        <v>12932.607409481214</v>
       </c>
       <c r="AZ32" s="2">
         <f t="shared" si="113"/>
-        <v>19206.099465025865</v>
+        <v>17167.135585698546</v>
       </c>
       <c r="BA32" s="2">
         <f t="shared" si="113"/>
-        <v>24591.795294875108</v>
+        <v>22420.3899678052</v>
       </c>
       <c r="BB32" s="2">
         <f t="shared" si="113"/>
-        <v>28737.512346959011</v>
+        <v>26446.885248821713</v>
       </c>
       <c r="BC32" s="2">
         <f t="shared" si="113"/>
-        <v>33594.737085870656</v>
+        <v>31174.435332639241</v>
       </c>
       <c r="BD32" s="2">
         <f t="shared" si="113"/>
-        <v>39297.201593281323</v>
+        <v>36735.167646861264</v>
       </c>
     </row>
     <row r="33" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4258,31 +4309,31 @@
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="120"/>
-        <v>7987.6624999999813</v>
+        <v>2982</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="120"/>
-        <v>7586.8534999999993</v>
+        <v>7016.1821999999993</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="120"/>
-        <v>8995.2100000000119</v>
+        <v>10923.830250000003</v>
       </c>
       <c r="T33" s="4">
         <f t="shared" si="120"/>
-        <v>8285.2135000000162</v>
+        <v>10933.034050000009</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="120"/>
-        <v>12517.213900000012</v>
+        <v>8553.8806499999773</v>
       </c>
       <c r="V33" s="4">
         <f t="shared" si="120"/>
-        <v>12266.046124999992</v>
+        <v>12713.999524999996</v>
       </c>
       <c r="W33" s="4">
         <f t="shared" si="120"/>
-        <v>14382.83937499999</v>
+        <v>17633.216849999983</v>
       </c>
       <c r="AN33" s="4">
         <f t="shared" ref="AN33:AP33" si="121">AN31-AN32</f>
@@ -4318,287 +4369,287 @@
       </c>
       <c r="AV33" s="4">
         <f t="shared" si="124"/>
-        <v>20725.726000000042</v>
+        <v>17078.012450000027</v>
       </c>
       <c r="AW33" s="4">
         <f t="shared" si="124"/>
-        <v>47451.312899999946</v>
+        <v>49834.131074999881</v>
       </c>
       <c r="AX33" s="4">
         <f t="shared" ref="AX33:BD33" si="125">AX31-AX32</f>
-        <v>64144.668505649897</v>
+        <v>53864.792812462561</v>
       </c>
       <c r="AY33" s="4">
         <f t="shared" si="125"/>
-        <v>84168.776944598067</v>
+        <v>73284.775320393557</v>
       </c>
       <c r="AZ33" s="4">
         <f t="shared" si="125"/>
-        <v>108834.56363514658</v>
+        <v>97280.434985625092</v>
       </c>
       <c r="BA33" s="4">
         <f t="shared" si="125"/>
-        <v>139353.50667095894</v>
+        <v>127048.87648422948</v>
       </c>
       <c r="BB33" s="4">
         <f t="shared" si="125"/>
-        <v>162845.9032994344</v>
+        <v>149865.68307665637</v>
       </c>
       <c r="BC33" s="4">
         <f t="shared" si="125"/>
-        <v>190370.17681993375</v>
+        <v>176655.13355162239</v>
       </c>
       <c r="BD33" s="4">
         <f t="shared" si="125"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BE33" s="2">
         <f>+BD33*(1+$BG$45)</f>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BF33" s="2">
         <f t="shared" ref="BF33:DN33" si="126">+BE33*(1+$BG$45)</f>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BG33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BH33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BI33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BJ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BL33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BM33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BN33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BO33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BP33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BQ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BR33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BS33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BT33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BU33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BV33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BW33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BX33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BY33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="BZ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CA33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CB33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CC33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CD33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CE33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CF33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CG33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CH33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CI33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CJ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CK33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CL33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CM33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CN33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CO33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CP33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CQ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CR33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CS33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CT33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CU33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CV33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CW33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CX33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CY33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="CZ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DA33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DB33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DC33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DD33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DE33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DF33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DG33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DH33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DI33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DJ33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DK33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DL33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DM33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
       <c r="DN33" s="2">
         <f t="shared" si="126"/>
-        <v>222684.14236192752</v>
+        <v>208165.9499988805</v>
       </c>
     </row>
     <row r="34" spans="2:118" x14ac:dyDescent="0.2">
@@ -4647,7 +4698,7 @@
       </c>
       <c r="M34" s="7">
         <f>M33/M35</f>
-        <v>15.132295719844358</v>
+        <v>0.75617343962667705</v>
       </c>
       <c r="N34" s="7">
         <f>N33/N35</f>
@@ -4663,31 +4714,31 @@
       </c>
       <c r="Q34" s="7">
         <f t="shared" ref="Q34:W34" si="133">Q33/Q35</f>
-        <v>15.692853634577567</v>
+        <v>0.29307125307125309</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="133"/>
-        <v>14.905409626719056</v>
+        <v>0.68955107616707612</v>
       </c>
       <c r="S34" s="7">
         <f t="shared" si="133"/>
-        <v>17.672318271119867</v>
+        <v>1.0735951105651109</v>
       </c>
       <c r="T34" s="7">
         <f t="shared" si="133"/>
-        <v>16.277433202357596</v>
+        <v>1.0744996609336619</v>
       </c>
       <c r="U34" s="7">
         <f t="shared" si="133"/>
-        <v>24.591775834970552</v>
+        <v>0.84067623095822874</v>
       </c>
       <c r="V34" s="7">
         <f t="shared" si="133"/>
-        <v>24.098322445972478</v>
+        <v>1.2495331228501225</v>
       </c>
       <c r="W34" s="7">
         <f t="shared" si="133"/>
-        <v>28.257051817288783</v>
+        <v>1.7329942850122833</v>
       </c>
       <c r="AN34" s="7">
         <f t="shared" ref="AN34" si="134">AN33/AN35</f>
@@ -4719,43 +4770,43 @@
       </c>
       <c r="AU34" s="7">
         <f>AU33/AU35</f>
-        <v>64.847424684159378</v>
+        <v>11.281149619611158</v>
       </c>
       <c r="AV34" s="7">
         <f t="shared" ref="AV34:AW34" si="139">AV33/AV35</f>
-        <v>40.718518664047238</v>
+        <v>1.6784287420147448</v>
       </c>
       <c r="AW34" s="7">
         <f t="shared" si="139"/>
-        <v>93.224583300589288</v>
+        <v>4.897703299754288</v>
       </c>
       <c r="AX34" s="7">
         <f t="shared" ref="AX34" si="140">AX33/AX35</f>
-        <v>126.02095973605088</v>
+        <v>5.2938371314459518</v>
       </c>
       <c r="AY34" s="7">
         <f t="shared" ref="AY34" si="141">AY33/AY35</f>
-        <v>165.36105490097853</v>
+        <v>7.2024349209232001</v>
       </c>
       <c r="AZ34" s="7">
         <f t="shared" ref="AZ34" si="142">AZ33/AZ35</f>
-        <v>213.8203607763194</v>
+        <v>9.5607307111179445</v>
       </c>
       <c r="BA34" s="7">
         <f t="shared" ref="BA34" si="143">BA33/BA35</f>
-        <v>273.77899149500774</v>
+        <v>12.486376067246141</v>
       </c>
       <c r="BB34" s="7">
         <f t="shared" ref="BB34" si="144">BB33/BB35</f>
-        <v>319.93301237609904</v>
+        <v>14.728814061587849</v>
       </c>
       <c r="BC34" s="7">
         <f t="shared" ref="BC34" si="145">BC33/BC35</f>
-        <v>374.00820593307219</v>
+        <v>17.361683887137335</v>
       </c>
       <c r="BD34" s="7">
         <f t="shared" ref="BD34" si="146">BD33/BD35</f>
-        <v>437.49340346154719</v>
+        <v>20.458570024460002</v>
       </c>
     </row>
     <row r="35" spans="2:118" x14ac:dyDescent="0.2">
@@ -4792,8 +4843,8 @@
       <c r="L35" s="3">
         <v>513</v>
       </c>
-      <c r="M35" s="3">
-        <v>514</v>
+      <c r="M35" s="4">
+        <v>10286</v>
       </c>
       <c r="N35" s="3">
         <v>515</v>
@@ -4804,41 +4855,40 @@
       <c r="P35" s="3">
         <v>509</v>
       </c>
-      <c r="Q35" s="3">
-        <f>+P35</f>
-        <v>509</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="Q35" s="4">
+        <v>10175</v>
+      </c>
+      <c r="R35" s="4">
         <f t="shared" ref="R35:W35" si="147">+Q35</f>
-        <v>509</v>
-      </c>
-      <c r="S35" s="3">
+        <v>10175</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="147"/>
-        <v>509</v>
-      </c>
-      <c r="T35" s="3">
+        <v>10175</v>
+      </c>
+      <c r="T35" s="4">
         <f t="shared" si="147"/>
-        <v>509</v>
-      </c>
-      <c r="U35" s="3">
+        <v>10175</v>
+      </c>
+      <c r="U35" s="4">
         <f t="shared" si="147"/>
-        <v>509</v>
-      </c>
-      <c r="V35" s="3">
+        <v>10175</v>
+      </c>
+      <c r="V35" s="4">
         <f t="shared" si="147"/>
-        <v>509</v>
-      </c>
-      <c r="W35" s="3">
+        <v>10175</v>
+      </c>
+      <c r="W35" s="4">
         <f t="shared" si="147"/>
-        <v>509</v>
-      </c>
-      <c r="AN35">
+        <v>10175</v>
+      </c>
+      <c r="AN35" s="2">
         <v>462</v>
       </c>
-      <c r="AO35">
+      <c r="AO35" s="2">
         <v>477</v>
       </c>
-      <c r="AP35">
+      <c r="AP35" s="2">
         <v>484</v>
       </c>
       <c r="AQ35" s="4">
@@ -4857,43 +4907,43 @@
       </c>
       <c r="AU35" s="4">
         <f>AVERAGE(L35:O35)</f>
-        <v>514.5</v>
-      </c>
-      <c r="AV35">
-        <f>AVERAGE(P35:S35)</f>
-        <v>509</v>
-      </c>
-      <c r="AW35">
+        <v>2957.5</v>
+      </c>
+      <c r="AV35" s="2">
+        <f>Q35</f>
+        <v>10175</v>
+      </c>
+      <c r="AW35" s="2">
         <f>AVERAGE(T35:W35)</f>
-        <v>509</v>
-      </c>
-      <c r="AX35">
+        <v>10175</v>
+      </c>
+      <c r="AX35" s="2">
         <f>+AW35</f>
-        <v>509</v>
-      </c>
-      <c r="AY35">
+        <v>10175</v>
+      </c>
+      <c r="AY35" s="2">
         <f t="shared" ref="AY35:BD35" si="148">+AX35</f>
-        <v>509</v>
-      </c>
-      <c r="AZ35">
+        <v>10175</v>
+      </c>
+      <c r="AZ35" s="2">
         <f t="shared" si="148"/>
-        <v>509</v>
-      </c>
-      <c r="BA35">
+        <v>10175</v>
+      </c>
+      <c r="BA35" s="2">
         <f t="shared" si="148"/>
-        <v>509</v>
-      </c>
-      <c r="BB35">
+        <v>10175</v>
+      </c>
+      <c r="BB35" s="2">
         <f t="shared" si="148"/>
-        <v>509</v>
-      </c>
-      <c r="BC35">
+        <v>10175</v>
+      </c>
+      <c r="BC35" s="2">
         <f t="shared" si="148"/>
-        <v>509</v>
-      </c>
-      <c r="BD35">
+        <v>10175</v>
+      </c>
+      <c r="BD35" s="2">
         <f t="shared" si="148"/>
-        <v>509</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="37" spans="2:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -4946,7 +4996,7 @@
       </c>
       <c r="Q37" s="10">
         <f t="shared" ref="Q37:W37" si="154">Q21/M21-1</f>
-        <v>0.17094004244782446</v>
+        <v>7.2108241952600016E-2</v>
       </c>
       <c r="R37" s="10">
         <f t="shared" si="154"/>
@@ -4962,7 +5012,7 @@
       </c>
       <c r="U37" s="10">
         <f t="shared" si="154"/>
-        <v>0.18011515755241891</v>
+        <v>0.18106224326509057</v>
       </c>
       <c r="V37" s="10">
         <f t="shared" si="154"/>
@@ -5010,39 +5060,39 @@
       </c>
       <c r="AV37" s="15">
         <f t="shared" ref="AV37:BD37" si="159">AV21/AU21-1</f>
-        <v>0.14909433785561355</v>
+        <v>0.12530681832694079</v>
       </c>
       <c r="AW37" s="15">
         <f t="shared" si="159"/>
-        <v>0.18071772119870366</v>
+        <v>0.18094763340375208</v>
       </c>
       <c r="AX37" s="15">
         <f t="shared" si="159"/>
-        <v>0.10462481251387579</v>
+        <v>0.10511858298502608</v>
       </c>
       <c r="AY37" s="15">
         <f t="shared" si="159"/>
-        <v>0.11300732331655872</v>
+        <v>0.11355009102838709</v>
       </c>
       <c r="AZ37" s="15">
         <f t="shared" si="159"/>
-        <v>0.12232893274764023</v>
+        <v>0.12291808616861499</v>
       </c>
       <c r="BA37" s="15">
         <f t="shared" si="159"/>
-        <v>0.13254012099457801</v>
+        <v>0.13317042984477179</v>
       </c>
       <c r="BB37" s="15">
         <f t="shared" si="159"/>
-        <v>0.10215394818293033</v>
+        <v>0.10252928280077156</v>
       </c>
       <c r="BC37" s="15">
         <f t="shared" si="159"/>
-        <v>0.10678402542829613</v>
+        <v>0.10717321103780253</v>
       </c>
       <c r="BD37" s="15">
         <f t="shared" si="159"/>
-        <v>0.11156651067274548</v>
+        <v>0.1119666846717271</v>
       </c>
     </row>
     <row r="38" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -5095,7 +5145,7 @@
       </c>
       <c r="Q38" s="19">
         <f t="shared" ref="Q38:W38" si="165">+Q12/M12-1</f>
-        <v>0.10000000000000009</v>
+        <v>-4.3305679402524611E-2</v>
       </c>
       <c r="R38" s="19">
         <f t="shared" si="165"/>
@@ -5136,11 +5186,11 @@
       </c>
       <c r="AV38" s="20">
         <f t="shared" ref="AV38:BD38" si="168">AV12/AU12-1</f>
-        <v>6.819948215692917E-2</v>
+        <v>3.389710683327718E-2</v>
       </c>
       <c r="AW38" s="20">
         <f t="shared" si="168"/>
-        <v>9.9999999999999867E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="AX38" s="20">
         <f t="shared" si="168"/>
@@ -5221,7 +5271,7 @@
       </c>
       <c r="Q39" s="19">
         <f t="shared" ref="Q39:W39" si="170">+Q14/M14-1</f>
-        <v>0.19999999999999996</v>
+        <v>9.1329479768786026E-2</v>
       </c>
       <c r="R39" s="19">
         <f t="shared" si="170"/>
@@ -5262,7 +5312,7 @@
       </c>
       <c r="AV39" s="20">
         <f t="shared" ref="AV39:BD39" si="173">AV14/AU14-1</f>
-        <v>0.16985662596985462</v>
+        <v>0.14348431786080518</v>
       </c>
       <c r="AW39" s="20">
         <f t="shared" si="173"/>
@@ -5347,7 +5397,7 @@
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40:W41" si="175">+Q15/M15-1</f>
-        <v>0.19999999999999996</v>
+        <v>0.10092206643930779</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" si="175"/>
@@ -5388,7 +5438,7 @@
       </c>
       <c r="AV40" s="20">
         <f t="shared" ref="AV40:BD41" si="178">AV15/AU15-1</f>
-        <v>0.17840594308738345</v>
+        <v>0.1537144296147066</v>
       </c>
       <c r="AW40" s="20">
         <f t="shared" si="178"/>
@@ -5468,12 +5518,12 @@
         <v>0.32190476190476192</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" ref="P40:P41" si="179">+P16/L16-1</f>
+        <f t="shared" ref="P41" si="179">+P16/L16-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="Q41" s="19">
         <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
+        <v>0.17527848610924712</v>
       </c>
       <c r="R41" s="19">
         <f t="shared" si="175"/>
@@ -5514,7 +5564,7 @@
       </c>
       <c r="AV41" s="20">
         <f t="shared" si="178"/>
-        <v>0.2070539152759947</v>
+        <v>0.20114249037227205</v>
       </c>
       <c r="AW41" s="20">
         <f t="shared" si="178"/>
@@ -5594,11 +5644,11 @@
         <v>0.36569651188624741</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" ref="Q42:W42" si="190">Q10/M10-1</f>
-        <v>0.39999999999999991</v>
+        <f>Q10/M10-1</f>
+        <v>0.33290566547369838</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" ref="Q42:W42" si="190">R10/N10-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="S42" s="8">
@@ -5651,11 +5701,11 @@
       </c>
       <c r="AV42" s="13">
         <f t="shared" ref="AV42:BD42" si="195">AV10/AU10-1</f>
-        <v>0.39255329410629902</v>
+        <v>0.37657953120478438</v>
       </c>
       <c r="AW42" s="13">
         <f t="shared" si="195"/>
-        <v>0.39999999999999969</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AX42" s="13">
         <f t="shared" si="195"/>
@@ -5667,7 +5717,7 @@
       </c>
       <c r="AZ42" s="13">
         <f t="shared" si="195"/>
-        <v>0.29999999999999982</v>
+        <v>0.30000000000000027</v>
       </c>
       <c r="BA42" s="13">
         <f t="shared" si="195"/>
@@ -5748,31 +5798,31 @@
       </c>
       <c r="Q43" s="8">
         <f t="shared" ref="Q43:W43" si="198">Q24/Q21</f>
-        <v>0.26298222413882938</v>
+        <v>0.2843096821023805</v>
       </c>
       <c r="R43" s="8">
         <f t="shared" si="198"/>
-        <v>0.27189368964611837</v>
+        <v>0.29110192042231786</v>
       </c>
       <c r="S43" s="8">
         <f t="shared" si="198"/>
-        <v>0.25769967399275839</v>
+        <v>0.27181337407231626</v>
       </c>
       <c r="T43" s="8">
         <f t="shared" si="198"/>
-        <v>0.27345066979848864</v>
+        <v>0.29614581185609268</v>
       </c>
       <c r="U43" s="8">
         <f t="shared" si="198"/>
-        <v>0.26996504455777348</v>
+        <v>0.30436895929668545</v>
       </c>
       <c r="V43" s="8">
         <f t="shared" si="198"/>
-        <v>0.27877796758063539</v>
+        <v>0.30447467686549323</v>
       </c>
       <c r="W43" s="8">
         <f t="shared" si="198"/>
-        <v>0.26458706625619222</v>
+        <v>0.28476139444614407</v>
       </c>
       <c r="AN43" s="14">
         <f t="shared" ref="AN43:AP43" si="199">AN24/AN21</f>
@@ -5808,39 +5858,39 @@
       </c>
       <c r="AV43" s="14">
         <f t="shared" ref="AV43:BD43" si="203">AV24/AV21</f>
-        <v>0.26180193817101832</v>
+        <v>0.27569146721760934</v>
       </c>
       <c r="AW43" s="14">
         <f t="shared" si="203"/>
-        <v>0.27125068226688431</v>
+        <v>0.29663477138286637</v>
       </c>
       <c r="AX43" s="14">
         <f t="shared" si="203"/>
-        <v>0.27714882839393068</v>
+        <v>0.27949655950064917</v>
       </c>
       <c r="AY43" s="14">
         <f t="shared" si="203"/>
-        <v>0.28286658126876557</v>
+        <v>0.28512101638173654</v>
       </c>
       <c r="AZ43" s="14">
         <f t="shared" si="203"/>
-        <v>0.28830688049681286</v>
+        <v>0.29045062098566982</v>
       </c>
       <c r="BA43" s="14">
         <f t="shared" si="203"/>
-        <v>0.29337062489644677</v>
+        <v>0.29538720155996645</v>
       </c>
       <c r="BB43" s="14">
         <f t="shared" si="203"/>
-        <v>0.2936843270668249</v>
+        <v>0.29560697530887214</v>
       </c>
       <c r="BC43" s="14">
         <f t="shared" si="203"/>
-        <v>0.29400835535436326</v>
+        <v>0.29583382628869748</v>
       </c>
       <c r="BD43" s="14">
         <f t="shared" si="203"/>
-        <v>0.29434021552690437</v>
+        <v>0.2960659950903482</v>
       </c>
       <c r="BF43" t="s">
         <v>77</v>
@@ -5866,69 +5916,69 @@
         <v>18829</v>
       </c>
       <c r="Q45" s="4">
-        <f>+P45+Q33</f>
-        <v>26816.66249999998</v>
+        <f t="shared" ref="Q45:W45" si="204">+P45+Q33</f>
+        <v>21811</v>
       </c>
       <c r="R45" s="4">
-        <f>+Q45+R33</f>
-        <v>34403.515999999981</v>
+        <f t="shared" si="204"/>
+        <v>28827.182199999999</v>
       </c>
       <c r="S45" s="4">
-        <f>+R45+S33</f>
-        <v>43398.725999999995</v>
+        <f t="shared" si="204"/>
+        <v>39751.012450000002</v>
       </c>
       <c r="T45" s="4">
-        <f>+S45+T33</f>
-        <v>51683.939500000008</v>
+        <f t="shared" si="204"/>
+        <v>50684.046500000011</v>
       </c>
       <c r="U45" s="4">
-        <f>+T45+U33</f>
-        <v>64201.153400000017</v>
+        <f t="shared" si="204"/>
+        <v>59237.927149999989</v>
       </c>
       <c r="V45" s="4">
-        <f>+U45+V33</f>
-        <v>76467.199525000004</v>
+        <f t="shared" si="204"/>
+        <v>71951.926674999981</v>
       </c>
       <c r="W45" s="4">
-        <f>+V45+W33</f>
-        <v>90850.0389</v>
+        <f t="shared" si="204"/>
+        <v>89585.143524999963</v>
       </c>
       <c r="X45" s="4"/>
       <c r="AV45" s="2">
         <f>+S45</f>
-        <v>43398.725999999995</v>
+        <v>39751.012450000002</v>
       </c>
       <c r="AW45" s="2">
         <f>+W45</f>
-        <v>90850.0389</v>
+        <v>89585.143524999963</v>
       </c>
       <c r="AX45" s="2">
         <f>+AW45+AX33</f>
-        <v>154994.70740564988</v>
+        <v>143449.93633746251</v>
       </c>
       <c r="AY45" s="2">
-        <f t="shared" ref="AY45:BD45" si="204">+AX45+AY33</f>
-        <v>239163.48435024795</v>
+        <f t="shared" ref="AY45:BD45" si="205">+AX45+AY33</f>
+        <v>216734.71165785607</v>
       </c>
       <c r="AZ45" s="2">
-        <f t="shared" si="204"/>
-        <v>347998.04798539454</v>
+        <f t="shared" si="205"/>
+        <v>314015.14664348116</v>
       </c>
       <c r="BA45" s="2">
-        <f t="shared" si="204"/>
-        <v>487351.55465635349</v>
+        <f t="shared" si="205"/>
+        <v>441064.02312771062</v>
       </c>
       <c r="BB45" s="2">
-        <f t="shared" si="204"/>
-        <v>650197.45795578789</v>
+        <f t="shared" si="205"/>
+        <v>590929.70620436699</v>
       </c>
       <c r="BC45" s="2">
-        <f t="shared" si="204"/>
-        <v>840567.6347757217</v>
+        <f t="shared" si="205"/>
+        <v>767584.83975598938</v>
       </c>
       <c r="BD45" s="2">
-        <f t="shared" si="204"/>
-        <v>1063251.7771376492</v>
+        <f t="shared" si="205"/>
+        <v>975750.78975486988</v>
       </c>
       <c r="BF45" t="s">
         <v>78</v>
@@ -5966,7 +6016,7 @@
       </c>
       <c r="BG46" s="2">
         <f>NPV(BG43,AW33:DN33)+Main!K5-Main!K6</f>
-        <v>2550544.6921945531</v>
+        <v>2372789.7507874882</v>
       </c>
     </row>
     <row r="47" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5994,7 +6044,7 @@
       <c r="S47" s="4"/>
       <c r="BG47" s="1">
         <f>+BG46/Main!K3</f>
-        <v>250.54466524504451</v>
+        <v>233.19800990540423</v>
       </c>
     </row>
     <row r="48" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6376,5 +6426,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE48321-EF84-4ECD-B021-95D7B9792568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CBCB3-946F-47ED-89BB-B91B2E093519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="3300" windowWidth="17760" windowHeight="11475" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="51780" yWindow="3660" windowWidth="16620" windowHeight="11790" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>Main</t>
   </si>
@@ -306,6 +306,63 @@
   </si>
   <si>
     <t>CEO: Andy Jassy</t>
+  </si>
+  <si>
+    <t>North America OI</t>
+  </si>
+  <si>
+    <t>International OI</t>
+  </si>
+  <si>
+    <t>AWS OI</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Sale of CapEx</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
   </si>
 </sst>
 </file>
@@ -315,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -334,12 +391,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -427,15 +478,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -450,8 +501,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10791825" y="209550"/>
-          <a:ext cx="0" cy="10906125"/>
+          <a:off x="10725150" y="19050"/>
+          <a:ext cx="0" cy="13773150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -484,7 +535,7 @@
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -844,7 +895,7 @@
   <dimension ref="J2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -862,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10175</v>
+        <v>10187.554818000001</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="10:12" x14ac:dyDescent="0.2">
@@ -874,7 +925,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1125660.25</v>
+        <v>1127049.1895153399</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.2">
@@ -882,11 +933,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <f>36393+29992</f>
-        <v>66385</v>
+        <v>60710</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="10:12" x14ac:dyDescent="0.2">
@@ -894,10 +944,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>47556</v>
+        <v>58053</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="10:12" x14ac:dyDescent="0.2">
@@ -906,7 +956,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1106831.25</v>
+        <v>1124392.1895153399</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -922,13 +972,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:DN66"/>
+  <dimension ref="A1:DN90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1267,9 @@
       <c r="P4" s="4">
         <v>69244</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4">
+        <v>74430</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="AN4" s="2">
@@ -1356,7 +1408,9 @@
       <c r="P7" s="4">
         <v>28759</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4">
+        <v>27065</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="AN7" s="2">
@@ -1762,7 +1816,7 @@
         <v>4721</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" ref="Q13:W13" si="13">+N13</f>
+        <f t="shared" ref="R13:W13" si="13">+N13</f>
         <v>4269</v>
       </c>
       <c r="S13" s="4">
@@ -3128,7 +3182,7 @@
         <v>17975</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" ref="R25:W25" si="57">+O25*1.1</f>
+        <f t="shared" ref="S25:W25" si="57">+O25*1.1</f>
         <v>16844.300000000003</v>
       </c>
       <c r="T25" s="4">
@@ -5648,7 +5702,7 @@
         <v>0.33290566547369838</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" ref="Q42:W42" si="190">R10/N10-1</f>
+        <f t="shared" ref="R42:W42" si="190">R10/N10-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="S42" s="8">
@@ -6008,7 +6062,10 @@
         <f>36393+29992</f>
         <v>66385</v>
       </c>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="4">
+        <f>37478+23232</f>
+        <v>60710</v>
+      </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="BF46" s="2" t="s">
@@ -6016,7 +6073,7 @@
       </c>
       <c r="BG46" s="2">
         <f>NPV(BG43,AW33:DN33)+Main!K5-Main!K6</f>
-        <v>2372789.7507874882</v>
+        <v>2356617.7507874882</v>
       </c>
     </row>
     <row r="47" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6039,12 +6096,14 @@
       <c r="P47" s="4">
         <v>34987</v>
       </c>
-      <c r="Q47" s="4"/>
+      <c r="Q47" s="4">
+        <v>38153</v>
+      </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="BG47" s="1">
         <f>+BG46/Main!K3</f>
-        <v>233.19800990540423</v>
+        <v>231.32319706625486</v>
       </c>
     </row>
     <row r="48" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6067,7 +6126,9 @@
       <c r="P48" s="4">
         <v>32504</v>
       </c>
-      <c r="Q48" s="4"/>
+      <c r="Q48" s="4">
+        <v>34804</v>
+      </c>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
@@ -6091,7 +6152,9 @@
       <c r="P49" s="4">
         <v>168468</v>
       </c>
-      <c r="Q49" s="4"/>
+      <c r="Q49" s="4">
+        <v>173706</v>
+      </c>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
@@ -6115,7 +6178,9 @@
       <c r="P50" s="4">
         <v>56161</v>
       </c>
-      <c r="Q50" s="4"/>
+      <c r="Q50" s="4">
+        <v>58430</v>
+      </c>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
@@ -6139,7 +6204,9 @@
       <c r="P51" s="4">
         <v>20229</v>
       </c>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="4">
+        <v>20195</v>
+      </c>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
@@ -6163,7 +6230,9 @@
       <c r="P52" s="4">
         <v>32033</v>
       </c>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4">
+        <v>33730</v>
+      </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
@@ -6188,7 +6257,10 @@
         <f>SUM(P46:P52)</f>
         <v>410767</v>
       </c>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="4">
+        <f>SUM(Q46:Q52)</f>
+        <v>419728</v>
+      </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
@@ -6212,7 +6284,9 @@
       <c r="P55" s="4">
         <v>68547</v>
       </c>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4">
+        <v>71219</v>
+      </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
@@ -6236,7 +6310,9 @@
       <c r="P56" s="4">
         <v>58141</v>
       </c>
-      <c r="Q56" s="4"/>
+      <c r="Q56" s="4">
+        <v>56254</v>
+      </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
@@ -6260,7 +6336,9 @@
       <c r="P57" s="4">
         <v>12820</v>
       </c>
-      <c r="Q57" s="4"/>
+      <c r="Q57" s="4">
+        <v>12818</v>
+      </c>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
@@ -6284,7 +6362,9 @@
       <c r="P58" s="4">
         <v>65731</v>
       </c>
-      <c r="Q58" s="4"/>
+      <c r="Q58" s="4">
+        <v>66524</v>
+      </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
@@ -6308,7 +6388,9 @@
       <c r="P59" s="4">
         <v>47556</v>
       </c>
-      <c r="Q59" s="4"/>
+      <c r="Q59" s="4">
+        <v>58053</v>
+      </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
@@ -6332,7 +6414,9 @@
       <c r="P60" s="4">
         <v>23971</v>
       </c>
-      <c r="Q60" s="4"/>
+      <c r="Q60" s="4">
+        <v>23458</v>
+      </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
@@ -6356,7 +6440,9 @@
       <c r="P61" s="4">
         <v>134001</v>
       </c>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="4">
+        <v>131402</v>
+      </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
@@ -6381,13 +6467,70 @@
         <f>SUM(P55:P61)</f>
         <v>410767</v>
       </c>
-      <c r="Q62" s="4"/>
+      <c r="Q62" s="4">
+        <f>SUM(Q55:Q61)</f>
+        <v>419728</v>
+      </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
+    <row r="64" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4">
+        <f>+P33</f>
+        <v>-3844</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>+Q33</f>
+        <v>2982</v>
+      </c>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4">
+        <v>-3844</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>-2028</v>
+      </c>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+    </row>
     <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -6397,27 +6540,601 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4">
-        <v>1298</v>
-      </c>
-      <c r="L66" s="4">
-        <v>1271</v>
-      </c>
-      <c r="M66" s="4">
-        <v>1335</v>
-      </c>
-      <c r="N66" s="4">
-        <v>1468</v>
-      </c>
-      <c r="O66" s="4">
-        <v>1608</v>
-      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
       <c r="P66" s="4">
-        <v>1622</v>
-      </c>
-      <c r="Q66" s="4"/>
+        <v>8978</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>9594</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4">
+        <v>3250</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>5209</v>
+      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4">
+        <v>215</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>122</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4">
+        <v>8689</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>6104</v>
+      </c>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4">
+        <v>-2001</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>-1955</v>
+      </c>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4">
+        <f>-2614-1516-9380-5903+1336</f>
+        <v>-18077</v>
+      </c>
+      <c r="Q71" s="4">
+        <f>-3890-6799+3699-1412+321</f>
+        <v>-8081</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4">
+        <f>SUM(P65:P71)</f>
+        <v>-2790</v>
+      </c>
+      <c r="Q72" s="4">
+        <f>SUM(Q65:Q71)</f>
+        <v>8965</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4">
+        <v>-14951</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>-15724</v>
+      </c>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4">
+        <v>1209</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1626</v>
+      </c>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4">
+        <v>-6341</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>-259</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4">
+        <f>22753-1764</f>
+        <v>20989</v>
+      </c>
+      <c r="Q77" s="4">
+        <f>2608-329</f>
+        <v>2279</v>
+      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4">
+        <f>SUM(P74:P77)</f>
+        <v>906</v>
+      </c>
+      <c r="Q78" s="4">
+        <f>SUM(Q74:Q77)</f>
+        <v>-12078</v>
+      </c>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4">
+        <v>-2666</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>-3334</v>
+      </c>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4">
+        <f>13743-6231-2777-79</f>
+        <v>4656</v>
+      </c>
+      <c r="Q81" s="4">
+        <f>4865-7610+12824-1-2059-59</f>
+        <v>7960</v>
+      </c>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4">
+        <f>SUM(P80:P81)</f>
+        <v>1990</v>
+      </c>
+      <c r="Q82" s="4">
+        <f>SUM(Q80:Q81)</f>
+        <v>4626</v>
+      </c>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>-412</v>
+      </c>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4">
+        <f>+P83+P82+P78+P72</f>
+        <v>122</v>
+      </c>
+      <c r="Q84" s="4">
+        <f>+Q83+Q82+Q78+Q72</f>
+        <v>1101</v>
+      </c>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+    </row>
+    <row r="86" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4">
+        <v>1298</v>
+      </c>
+      <c r="L86" s="4">
+        <v>1271</v>
+      </c>
+      <c r="M86" s="4">
+        <v>1335</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1468</v>
+      </c>
+      <c r="O86" s="4">
+        <v>1608</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1622</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>1523</v>
+      </c>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+    </row>
+    <row r="88" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4">
+        <v>3147</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4">
+        <v>-627</v>
+      </c>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+    </row>
+    <row r="89" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4">
+        <v>362</v>
+      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4">
+        <v>-1771</v>
+      </c>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4">
+        <v>4193</v>
+      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4">
+        <v>5715</v>
+      </c>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CBCB3-946F-47ED-89BB-B91B2E093519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED368ABB-B778-4387-A413-DE1F5FDD7A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51780" yWindow="3660" windowWidth="16620" windowHeight="11790" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-27825" yWindow="1110" windowWidth="25905" windowHeight="18960" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={89E45B5F-0C20-4B81-874E-AD8DF93707A2}</author>
+    <author>tc={9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}</author>
     <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
+    <author>tc={1123E429-DC3C-402F-A940-60A8A504E208}</author>
+    <author>tc={7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}</author>
   </authors>
   <commentList>
     <comment ref="R21" authorId="0" shapeId="0" xr:uid="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
@@ -50,7 +53,15 @@
     Q222 guidance: 125-130B</t>
       </text>
     </comment>
-    <comment ref="R29" authorId="1" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <comment ref="S21" authorId="1" shapeId="0" xr:uid="{9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 guidance: 140-148B</t>
+      </text>
+    </comment>
+    <comment ref="R29" authorId="2" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,12 +69,28 @@
     Q222 guidance: 0.0-3.5B</t>
       </text>
     </comment>
+    <comment ref="S29" authorId="3" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 guidance: 0-4B</t>
+      </text>
+    </comment>
+    <comment ref="R37" authorId="4" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +19% net of FX</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Main</t>
   </si>
@@ -363,6 +390,27 @@
   </si>
   <si>
     <t>CIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Product y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Service y/y</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Incorporated in Washington in 1994</t>
+  </si>
+  <si>
+    <t>IPO 1997</t>
+  </si>
+  <si>
+    <t>Stock Price</t>
+  </si>
+  <si>
+    <t>July 1995 - store opened</t>
   </si>
 </sst>
 </file>
@@ -372,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -391,6 +439,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -415,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -455,6 +509,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,16 +534,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -501,8 +558,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10725150" y="19050"/>
-          <a:ext cx="0" cy="13773150"/>
+          <a:off x="11334750" y="0"/>
+          <a:ext cx="0" cy="17481096"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -527,15 +584,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -884,83 +941,101 @@
   <threadedComment ref="R21" dT="2022-07-29T15:08:40.16" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
     <text>Q222 guidance: 125-130B</text>
   </threadedComment>
+  <threadedComment ref="S21" dT="2022-12-19T01:59:36.72" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}">
+    <text>Q3 guidance: 140-148B</text>
+  </threadedComment>
   <threadedComment ref="R29" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
     <text>Q222 guidance: 0.0-3.5B</text>
+  </threadedComment>
+  <threadedComment ref="S29" dT="2022-12-19T02:00:02.84" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{1123E429-DC3C-402F-A940-60A8A504E208}">
+    <text>Q3 guidance: 0-4B</text>
+  </threadedComment>
+  <threadedComment ref="R37" dT="2022-12-19T01:32:23.85" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+    <text>+19% net of FX</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
-  <dimension ref="J2:L9"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>110.63</v>
-      </c>
-    </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
+        <v>87.86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10187.554818000001</v>
+        <v>10331</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1127049.1895153399</v>
-      </c>
-    </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
+        <v>907681.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>60710</v>
+        <v>58662</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
       <c r="J6" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>58053</v>
+        <v>58919</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1124392.1895153399</v>
+        <v>907938.66</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="9" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>80</v>
       </c>
@@ -972,13 +1047,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:DN90"/>
+  <dimension ref="A1:DS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q88" sqref="Q88"/>
+      <selection pane="bottomRight" activeCell="BC21" sqref="BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,12 +1063,12 @@
     <col min="3" max="19" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
@@ -1058,170 +1133,185 @@
         <v>55</v>
       </c>
       <c r="Z3">
+        <v>1995</v>
+      </c>
+      <c r="AA3">
+        <v>1996</v>
+      </c>
+      <c r="AB3">
+        <v>1997</v>
+      </c>
+      <c r="AC3">
+        <v>1998</v>
+      </c>
+      <c r="AD3">
+        <v>1999</v>
+      </c>
+      <c r="AE3">
         <v>2000</v>
       </c>
-      <c r="AA3">
-        <f>+Z3+1</f>
+      <c r="AF3">
+        <f>+AE3+1</f>
         <v>2001</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:BN3" si="0">+AA3+1</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:BS3" si="0">+AF3+1</f>
         <v>2002</v>
       </c>
-      <c r="AC3">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="AD3">
+      <c r="AI3">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="AE3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="AF3">
+      <c r="AK3">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="AG3">
+      <c r="AL3">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="AH3">
+      <c r="AM3">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="AI3">
+      <c r="AN3">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="AJ3">
+      <c r="AO3">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="AK3">
+      <c r="AP3">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="AL3">
+      <c r="AQ3">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="AM3">
+      <c r="AR3">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="AN3">
+      <c r="AS3">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AO3">
+      <c r="AT3">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AP3">
+      <c r="AU3">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AQ3">
+      <c r="AV3">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AR3">
+      <c r="AW3">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AS3">
+      <c r="AX3">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AT3">
+      <c r="AY3">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AX3">
+      <c r="BC3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AY3">
+      <c r="BD3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AZ3">
+      <c r="BE3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="BA3">
+      <c r="BF3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="BB3">
+      <c r="BG3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="BC3">
+      <c r="BH3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="BD3">
+      <c r="BI3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="BE3">
+      <c r="BJ3">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="BF3">
+      <c r="BK3">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="BG3">
+      <c r="BL3">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="BH3">
+      <c r="BM3">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="BI3">
+      <c r="BN3">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="BJ3">
+      <c r="BO3">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="BK3">
+      <c r="BP3">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="BL3">
+      <c r="BQ3">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="BM3">
+      <c r="BR3">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="BN3">
+      <c r="BS3">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1270,37 +1360,39 @@
       <c r="Q4" s="4">
         <v>74430</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4">
+        <v>78843</v>
+      </c>
       <c r="S4" s="4"/>
-      <c r="AN4" s="2">
+      <c r="AS4" s="2">
         <v>50834</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AT4" s="2">
         <v>63708</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AU4" s="2">
         <v>79785</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AV4" s="2">
         <v>106110</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AW4" s="2">
         <v>141366</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AX4" s="2">
         <f>SUM(D4:G4)</f>
         <v>170773</v>
       </c>
-      <c r="AT4" s="2">
-        <f t="shared" ref="AT4:AT7" si="1">SUM(H4:K4)</f>
+      <c r="AY4" s="2">
+        <f t="shared" ref="AY4:AY7" si="1">SUM(H4:K4)</f>
         <v>236282</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AZ4" s="2">
         <f>SUM(L4:O4)</f>
         <v>279833</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1321,17 +1413,17 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="AN5" s="2">
+      <c r="AS5" s="2">
         <v>11567</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AT5" s="2">
         <v>12483</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AU5" s="2">
         <v>13580</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1352,17 +1444,17 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="AN6" s="2">
+      <c r="AS6" s="2">
         <v>38517</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AT6" s="2">
         <v>50401</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AU6" s="2">
         <v>64887</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1411,37 +1503,39 @@
       <c r="Q7" s="4">
         <v>27065</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4">
+        <v>27720</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="AN7" s="2">
+      <c r="AS7" s="2">
         <v>33510</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AT7" s="2">
         <v>35418</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AU7" s="2">
         <v>43983</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AV7" s="2">
         <v>103273</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AW7" s="2">
         <v>134099</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AX7" s="2">
         <f>SUM(D7:G7)</f>
         <v>74723</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AY7" s="2">
         <f t="shared" si="1"/>
         <v>104412</v>
       </c>
-      <c r="AU7" s="2">
-        <f t="shared" ref="AU7" si="2">SUM(L7:O7)</f>
+      <c r="AZ7" s="2">
+        <f t="shared" ref="AZ7" si="2">SUM(L7:O7)</f>
         <v>127787</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1462,17 +1556,17 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="AN8" s="2">
+      <c r="AS8" s="2">
         <v>10938</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AT8" s="2">
         <v>10026</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AU8" s="2">
         <v>10631</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1493,17 +1587,17 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="AN9" s="2">
+      <c r="AS9" s="2">
         <v>22369</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AT9" s="2">
         <v>25196</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AU9" s="2">
         <v>33107</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1553,94 +1647,94 @@
         <v>19739</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" ref="R10:W10" si="3">+N10*1.4</f>
+        <f t="shared" ref="R10" si="3">+N10*1.4</f>
         <v>22554</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="3"/>
-        <v>24892</v>
+        <f>+O10*1.3</f>
+        <v>23114</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="3"/>
-        <v>25817.399999999998</v>
+        <f>+P10*1.3</f>
+        <v>23973.3</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="3"/>
-        <v>27634.6</v>
+        <f>+Q10*1.3</f>
+        <v>25660.7</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="3"/>
-        <v>31575.599999999999</v>
+        <f>+R10*1.3</f>
+        <v>29320.2</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="3"/>
-        <v>34848.799999999996</v>
-      </c>
-      <c r="AN10" s="17">
+        <f>+S10*1.3</f>
+        <v>30048.2</v>
+      </c>
+      <c r="AS10" s="2">
         <v>4644</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AT10" s="2">
         <v>7880</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AU10" s="2">
         <v>12219</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AV10" s="2">
         <v>17459</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AW10" s="2">
         <v>25655</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AX10" s="2">
         <f>SUM(D10:G10)</f>
         <v>35026</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="AY10" s="2">
         <f>SUM(H10:K10)</f>
         <v>45370</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AZ10" s="2">
         <f>SUM(L10:O10)</f>
         <v>62202</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="BA10" s="2">
         <f>SUM(P10:S10)</f>
-        <v>85626</v>
-      </c>
-      <c r="AW10" s="2">
+        <v>83848</v>
+      </c>
+      <c r="BB10" s="2">
         <f>SUM(T10:W10)</f>
-        <v>119876.4</v>
-      </c>
-      <c r="AX10" s="2">
-        <f>+AW10*1.3</f>
-        <v>155839.32</v>
-      </c>
-      <c r="AY10" s="2">
-        <f t="shared" ref="AY10:BA10" si="4">+AX10*1.3</f>
-        <v>202591.11600000001</v>
-      </c>
-      <c r="AZ10" s="2">
+        <v>109002.4</v>
+      </c>
+      <c r="BC10" s="2">
+        <f>+BB10*1.3</f>
+        <v>141703.12</v>
+      </c>
+      <c r="BD10" s="2">
+        <f t="shared" ref="BD10:BF10" si="4">+BC10*1.3</f>
+        <v>184214.05600000001</v>
+      </c>
+      <c r="BE10" s="2">
         <f t="shared" si="4"/>
-        <v>263368.45080000005</v>
-      </c>
-      <c r="BA10" s="2">
+        <v>239478.27280000004</v>
+      </c>
+      <c r="BF10" s="2">
         <f t="shared" si="4"/>
-        <v>342378.98604000011</v>
-      </c>
-      <c r="BB10" s="2">
-        <f>+BA10*1.2</f>
-        <v>410854.78324800014</v>
-      </c>
-      <c r="BC10" s="2">
-        <f t="shared" ref="BC10:BD10" si="5">+BB10*1.2</f>
-        <v>493025.73989760014</v>
-      </c>
-      <c r="BD10" s="2">
+        <v>311321.75464000006</v>
+      </c>
+      <c r="BG10" s="2">
+        <f>+BF10*1.2</f>
+        <v>373586.10556800006</v>
+      </c>
+      <c r="BH10" s="2">
+        <f t="shared" ref="BH10:BI10" si="5">+BG10*1.2</f>
+        <v>448303.32668160007</v>
+      </c>
+      <c r="BI10" s="2">
         <f t="shared" si="5"/>
-        <v>591630.88787712017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>537963.99201792001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1690,83 +1784,82 @@
         <v>50855</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" ref="R12:W12" si="6">+N12*1.1</f>
-        <v>54936.200000000004</v>
+        <v>53489</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="6"/>
-        <v>72682.5</v>
+        <f>+O12*1.03</f>
+        <v>68057.25</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="6"/>
-        <v>56241.9</v>
+        <f>+P12*1.03</f>
+        <v>52662.87</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="6"/>
-        <v>55940.500000000007</v>
+        <f>+Q12*1.03</f>
+        <v>52380.65</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="6"/>
-        <v>60429.820000000007</v>
+        <f>+R12*1.03</f>
+        <v>55093.67</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="6"/>
-        <v>79950.75</v>
-      </c>
-      <c r="AR12" s="2">
+        <f>+S12*1.03</f>
+        <v>70098.967499999999</v>
+      </c>
+      <c r="AW12" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
       </c>
-      <c r="AS12" s="2">
-        <f t="shared" ref="AS12:AS27" si="7">SUM(D12:G12)</f>
+      <c r="AX12" s="2">
+        <f t="shared" ref="AX12:AX27" si="6">SUM(D12:G12)</f>
         <v>141247</v>
       </c>
-      <c r="AT12" s="2">
-        <f t="shared" ref="AT12:AT17" si="8">SUM(H12:K12)</f>
+      <c r="AY12" s="2">
+        <f t="shared" ref="AY12:AY17" si="7">SUM(H12:K12)</f>
         <v>197349</v>
       </c>
-      <c r="AU12" s="2">
-        <f t="shared" ref="AU12:AU17" si="9">SUM(L12:O12)</f>
+      <c r="AZ12" s="2">
+        <f t="shared" ref="AZ12:AZ17" si="8">SUM(L12:O12)</f>
         <v>222075</v>
       </c>
-      <c r="AV12" s="2">
-        <f t="shared" ref="AV12:AV17" si="10">SUM(P12:S12)</f>
-        <v>229602.7</v>
-      </c>
-      <c r="AW12" s="2">
-        <f t="shared" ref="AW12:AW17" si="11">SUM(T12:W12)</f>
-        <v>252562.97000000003</v>
-      </c>
-      <c r="AX12" s="2">
-        <f>+AW12*1.05</f>
-        <v>265191.11850000004</v>
-      </c>
-      <c r="AY12" s="2">
-        <f t="shared" ref="AY12:BD12" si="12">+AX12*1.05</f>
-        <v>278450.67442500003</v>
-      </c>
-      <c r="AZ12" s="2">
-        <f t="shared" si="12"/>
-        <v>292373.20814625005</v>
-      </c>
       <c r="BA12" s="2">
-        <f t="shared" si="12"/>
-        <v>306991.86855356256</v>
+        <f>SUM(P12:S12)</f>
+        <v>223530.25</v>
       </c>
       <c r="BB12" s="2">
-        <f t="shared" si="12"/>
-        <v>322341.46198124072</v>
+        <f t="shared" ref="BB12:BB17" si="9">SUM(T12:W12)</f>
+        <v>230236.1575</v>
       </c>
       <c r="BC12" s="2">
-        <f t="shared" si="12"/>
-        <v>338458.53508030274</v>
+        <f>+BB12*1.05</f>
+        <v>241747.965375</v>
       </c>
       <c r="BD12" s="2">
-        <f t="shared" si="12"/>
-        <v>355381.46183431789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD12:BI12" si="10">+BC12*1.05</f>
+        <v>253835.36364375002</v>
+      </c>
+      <c r="BE12" s="2">
+        <f t="shared" si="10"/>
+        <v>266527.13182593754</v>
+      </c>
+      <c r="BF12" s="2">
+        <f t="shared" si="10"/>
+        <v>279853.48841723445</v>
+      </c>
+      <c r="BG12" s="2">
+        <f t="shared" si="10"/>
+        <v>293846.16283809621</v>
+      </c>
+      <c r="BH12" s="2">
+        <f t="shared" si="10"/>
+        <v>308538.47098000103</v>
+      </c>
+      <c r="BI12" s="2">
+        <f t="shared" si="10"/>
+        <v>323965.39452900109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
@@ -1816,83 +1909,82 @@
         <v>4721</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" ref="R13:W13" si="13">+N13</f>
-        <v>4269</v>
+        <v>4694</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="13"/>
+        <f>+O13</f>
         <v>4688</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="T13:W13" si="11">+P13</f>
         <v>4591</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4721</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="13"/>
-        <v>4269</v>
+        <f t="shared" si="11"/>
+        <v>4694</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4688</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AW13" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AX13" s="2">
+        <f t="shared" si="6"/>
+        <v>17192</v>
+      </c>
+      <c r="AY13" s="2">
         <f t="shared" si="7"/>
-        <v>17192</v>
-      </c>
-      <c r="AT13" s="2">
+        <v>16224</v>
+      </c>
+      <c r="AZ13" s="2">
         <f t="shared" si="8"/>
-        <v>16224</v>
-      </c>
-      <c r="AU13" s="2">
+        <v>17075</v>
+      </c>
+      <c r="BA13" s="2">
+        <f>SUM(P13:S13)</f>
+        <v>18694</v>
+      </c>
+      <c r="BB13" s="2">
         <f t="shared" si="9"/>
-        <v>17075</v>
-      </c>
-      <c r="AV13" s="2">
-        <f t="shared" si="10"/>
-        <v>18269</v>
-      </c>
-      <c r="AW13" s="2">
-        <f t="shared" si="11"/>
-        <v>18269</v>
-      </c>
-      <c r="AX13" s="2">
-        <f t="shared" ref="AX13:BD13" si="14">+AW13*1.05</f>
-        <v>19182.45</v>
-      </c>
-      <c r="AY13" s="2">
-        <f t="shared" si="14"/>
-        <v>20141.572500000002</v>
-      </c>
-      <c r="AZ13" s="2">
-        <f t="shared" si="14"/>
-        <v>21148.651125000004</v>
-      </c>
-      <c r="BA13" s="2">
-        <f t="shared" si="14"/>
-        <v>22206.083681250006</v>
-      </c>
-      <c r="BB13" s="2">
-        <f t="shared" si="14"/>
-        <v>23316.387865312507</v>
+        <v>18694</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="14"/>
-        <v>24482.207258578132</v>
+        <f t="shared" ref="BC13:BI13" si="12">+BB13*1.05</f>
+        <v>19628.7</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="14"/>
-        <v>25706.317621507038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>20610.135000000002</v>
+      </c>
+      <c r="BE13" s="2">
+        <f t="shared" si="12"/>
+        <v>21640.641750000003</v>
+      </c>
+      <c r="BF13" s="2">
+        <f t="shared" si="12"/>
+        <v>22722.673837500002</v>
+      </c>
+      <c r="BG13" s="2">
+        <f t="shared" si="12"/>
+        <v>23858.807529375004</v>
+      </c>
+      <c r="BH13" s="2">
+        <f t="shared" si="12"/>
+        <v>25051.747905843757</v>
+      </c>
+      <c r="BI13" s="2">
+        <f t="shared" si="12"/>
+        <v>26304.335301135947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1942,83 +2034,82 @@
         <v>27376</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" ref="R14:W14" si="15">+N14*1.2</f>
-        <v>29102.399999999998</v>
+        <v>28666</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="15"/>
-        <v>36384</v>
+        <f>+O14*1.03</f>
+        <v>31229.600000000002</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="15"/>
-        <v>30402</v>
+        <f>+P14*1.03</f>
+        <v>26095.05</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="15"/>
-        <v>32851.199999999997</v>
+        <f>+Q14*1.03</f>
+        <v>28197.280000000002</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="15"/>
-        <v>34922.879999999997</v>
+        <f>+R14*1.03</f>
+        <v>29525.98</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="15"/>
-        <v>43660.799999999996</v>
-      </c>
-      <c r="AR14" s="2">
+        <f>+S14*1.03</f>
+        <v>32166.488000000005</v>
+      </c>
+      <c r="AW14" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AX14" s="2">
+        <f t="shared" si="6"/>
+        <v>53761</v>
+      </c>
+      <c r="AY14" s="2">
         <f t="shared" si="7"/>
-        <v>53761</v>
-      </c>
-      <c r="AT14" s="2">
+        <v>80437</v>
+      </c>
+      <c r="AZ14" s="2">
         <f t="shared" si="8"/>
-        <v>80437</v>
-      </c>
-      <c r="AU14" s="2">
+        <v>103366</v>
+      </c>
+      <c r="BA14" s="2">
+        <f>SUM(P14:S14)</f>
+        <v>112606.6</v>
+      </c>
+      <c r="BB14" s="2">
         <f t="shared" si="9"/>
-        <v>103366</v>
-      </c>
-      <c r="AV14" s="2">
-        <f t="shared" si="10"/>
-        <v>118197.4</v>
-      </c>
-      <c r="AW14" s="2">
-        <f t="shared" si="11"/>
-        <v>141836.87999999998</v>
-      </c>
-      <c r="AX14" s="2">
-        <f t="shared" ref="AX14:BD14" si="16">+AW14*1.05</f>
-        <v>148928.72399999999</v>
-      </c>
-      <c r="AY14" s="2">
-        <f t="shared" si="16"/>
-        <v>156375.16019999998</v>
-      </c>
-      <c r="AZ14" s="2">
-        <f t="shared" si="16"/>
-        <v>164193.91821</v>
-      </c>
-      <c r="BA14" s="2">
-        <f t="shared" si="16"/>
-        <v>172403.61412050002</v>
-      </c>
-      <c r="BB14" s="2">
-        <f t="shared" si="16"/>
-        <v>181023.79482652503</v>
+        <v>115984.79800000001</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="16"/>
-        <v>190074.98456785129</v>
+        <f t="shared" ref="BC14:BI14" si="13">+BB14*1.05</f>
+        <v>121784.03790000001</v>
       </c>
       <c r="BD14" s="2">
-        <f t="shared" si="16"/>
-        <v>199578.73379624388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>127873.23979500002</v>
+      </c>
+      <c r="BE14" s="2">
+        <f t="shared" si="13"/>
+        <v>134266.90178475002</v>
+      </c>
+      <c r="BF14" s="2">
+        <f t="shared" si="13"/>
+        <v>140980.24687398752</v>
+      </c>
+      <c r="BG14" s="2">
+        <f t="shared" si="13"/>
+        <v>148029.25921768689</v>
+      </c>
+      <c r="BH14" s="2">
+        <f t="shared" si="13"/>
+        <v>155430.72217857125</v>
+      </c>
+      <c r="BI14" s="2">
+        <f t="shared" si="13"/>
+        <v>163202.2582874998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2068,83 +2159,82 @@
         <v>8716</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" ref="R15:R16" si="17">+N15*1.2</f>
-        <v>9777.6</v>
+        <v>8903</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15:S16" si="18">+O15*1.2</f>
-        <v>9747.6</v>
+        <f>+O15*1.08</f>
+        <v>8772.84</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" ref="T15:T16" si="19">+P15*1.2</f>
-        <v>10092</v>
+        <f>+P15*1.08</f>
+        <v>9082.8000000000011</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" ref="U15:U16" si="20">+Q15*1.2</f>
-        <v>10459.199999999999</v>
+        <f>+Q15*1.08</f>
+        <v>9413.2800000000007</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" ref="V15:V16" si="21">+R15*1.2</f>
-        <v>11733.12</v>
+        <f>+R15*1.08</f>
+        <v>9615.24</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" ref="W15:W16" si="22">+S15*1.2</f>
-        <v>11697.12</v>
-      </c>
-      <c r="AR15" s="2">
+        <f>+S15*1.08</f>
+        <v>9474.6672000000017</v>
+      </c>
+      <c r="AW15" s="2">
         <f>3102+3408+3698+3959</f>
         <v>14167</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AX15" s="2">
+        <f t="shared" si="6"/>
+        <v>19210</v>
+      </c>
+      <c r="AY15" s="2">
         <f t="shared" si="7"/>
-        <v>19210</v>
-      </c>
-      <c r="AT15" s="2">
+        <v>25207</v>
+      </c>
+      <c r="AZ15" s="2">
         <f t="shared" si="8"/>
-        <v>25207</v>
-      </c>
-      <c r="AU15" s="2">
+        <v>31768</v>
+      </c>
+      <c r="BA15" s="2">
+        <f>SUM(P15:S15)</f>
+        <v>34801.839999999997</v>
+      </c>
+      <c r="BB15" s="2">
         <f t="shared" si="9"/>
-        <v>31768</v>
-      </c>
-      <c r="AV15" s="2">
-        <f t="shared" si="10"/>
-        <v>36651.199999999997</v>
-      </c>
-      <c r="AW15" s="2">
-        <f t="shared" si="11"/>
-        <v>43981.440000000002</v>
-      </c>
-      <c r="AX15" s="2">
-        <f>+AW15*1.1</f>
-        <v>48379.58400000001</v>
-      </c>
-      <c r="AY15" s="2">
-        <f t="shared" ref="AY15:BA15" si="23">+AX15*1.1</f>
-        <v>53217.542400000013</v>
-      </c>
-      <c r="AZ15" s="2">
-        <f t="shared" si="23"/>
-        <v>58539.296640000022</v>
-      </c>
-      <c r="BA15" s="2">
-        <f t="shared" si="23"/>
-        <v>64393.226304000033</v>
-      </c>
-      <c r="BB15" s="2">
-        <f t="shared" ref="BB15:BD15" si="24">+BA15*1.05</f>
-        <v>67612.887619200032</v>
+        <v>37585.987200000003</v>
       </c>
       <c r="BC15" s="2">
-        <f t="shared" si="24"/>
-        <v>70993.532000160034</v>
+        <f>+BB15*1.1</f>
+        <v>41344.585920000005</v>
       </c>
       <c r="BD15" s="2">
-        <f t="shared" si="24"/>
-        <v>74543.208600168044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD15:BF15" si="14">+BC15*1.1</f>
+        <v>45479.044512000008</v>
+      </c>
+      <c r="BE15" s="2">
+        <f t="shared" si="14"/>
+        <v>50026.948963200011</v>
+      </c>
+      <c r="BF15" s="2">
+        <f t="shared" si="14"/>
+        <v>55029.643859520016</v>
+      </c>
+      <c r="BG15" s="2">
+        <f t="shared" ref="BG15:BI15" si="15">+BF15*1.05</f>
+        <v>57781.126052496016</v>
+      </c>
+      <c r="BH15" s="2">
+        <f t="shared" si="15"/>
+        <v>60670.182355120822</v>
+      </c>
+      <c r="BI15" s="2">
+        <f t="shared" si="15"/>
+        <v>63703.691472876868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2194,83 +2284,82 @@
         <v>8757</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="17"/>
-        <v>9134.4</v>
+        <v>9548</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="18"/>
-        <v>11659.199999999999</v>
+        <f>+O16*1.1</f>
+        <v>10687.6</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="19"/>
-        <v>9452.4</v>
+        <f>+P16*1.1</f>
+        <v>8664.7000000000007</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="20"/>
-        <v>10508.4</v>
+        <f>+Q16*1.1</f>
+        <v>9632.7000000000007</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="21"/>
-        <v>10961.279999999999</v>
+        <f>+R16*1.1</f>
+        <v>10502.800000000001</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="22"/>
-        <v>13991.039999999999</v>
-      </c>
-      <c r="AR16" s="2">
+        <f>+S16*1.1</f>
+        <v>11756.36</v>
+      </c>
+      <c r="AW16" s="2">
         <f>2031+2194+2495+3388</f>
         <v>10108</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AX16" s="2">
+        <f t="shared" si="6"/>
+        <v>14086</v>
+      </c>
+      <c r="AY16" s="2">
         <f t="shared" si="7"/>
-        <v>14086</v>
-      </c>
-      <c r="AT16" s="2">
+        <v>20875</v>
+      </c>
+      <c r="AZ16" s="2">
         <f t="shared" si="8"/>
-        <v>20875</v>
-      </c>
-      <c r="AU16" s="2">
+        <v>31160</v>
+      </c>
+      <c r="BA16" s="2">
+        <f>SUM(P16:S16)</f>
+        <v>36869.599999999999</v>
+      </c>
+      <c r="BB16" s="2">
         <f t="shared" si="9"/>
-        <v>31160</v>
-      </c>
-      <c r="AV16" s="2">
-        <f t="shared" si="10"/>
-        <v>37427.599999999999</v>
-      </c>
-      <c r="AW16" s="2">
-        <f t="shared" si="11"/>
-        <v>44913.119999999995</v>
-      </c>
-      <c r="AX16" s="2">
-        <f t="shared" ref="AX16:BA16" si="25">+AW16*1.1</f>
-        <v>49404.432000000001</v>
-      </c>
-      <c r="AY16" s="2">
-        <f t="shared" si="25"/>
-        <v>54344.875200000002</v>
-      </c>
-      <c r="AZ16" s="2">
-        <f t="shared" si="25"/>
-        <v>59779.362720000005</v>
-      </c>
-      <c r="BA16" s="2">
-        <f t="shared" si="25"/>
-        <v>65757.298992000011</v>
-      </c>
-      <c r="BB16" s="2">
-        <f t="shared" ref="BB16:BD16" si="26">+BA16*1.05</f>
-        <v>69045.163941600011</v>
+        <v>40556.560000000005</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="26"/>
-        <v>72497.42213868002</v>
+        <f t="shared" ref="BC16:BF16" si="16">+BB16*1.1</f>
+        <v>44612.216000000008</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="26"/>
-        <v>76122.293245614026</v>
-      </c>
-    </row>
-    <row r="17" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>49073.437600000012</v>
+      </c>
+      <c r="BE16" s="2">
+        <f t="shared" si="16"/>
+        <v>53980.781360000015</v>
+      </c>
+      <c r="BF16" s="2">
+        <f t="shared" si="16"/>
+        <v>59378.859496000019</v>
+      </c>
+      <c r="BG16" s="2">
+        <f t="shared" ref="BG16:BI16" si="17">+BF16*1.05</f>
+        <v>62347.802470800023</v>
+      </c>
+      <c r="BH16" s="2">
+        <f t="shared" si="17"/>
+        <v>65465.192594340027</v>
+      </c>
+      <c r="BI16" s="2">
+        <f t="shared" si="17"/>
+        <v>68738.452224057037</v>
+      </c>
+    </row>
+    <row r="17" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2318,83 +2407,82 @@
         <v>1070</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" ref="R17:W17" si="27">+N17</f>
-        <v>479</v>
+        <v>1263</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="27"/>
+        <f>+O17</f>
         <v>710</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="T17:W17" si="18">+P17</f>
         <v>661</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>1070</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="27"/>
-        <v>479</v>
+        <f t="shared" si="18"/>
+        <v>1263</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>710</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AX17" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT17" s="2">
+        <v>602</v>
+      </c>
+      <c r="AZ17" s="2">
         <f t="shared" si="8"/>
-        <v>602</v>
-      </c>
-      <c r="AU17" s="2">
+        <v>2176</v>
+      </c>
+      <c r="BA17" s="2">
+        <f>SUM(P17:S17)</f>
+        <v>3704</v>
+      </c>
+      <c r="BB17" s="2">
         <f t="shared" si="9"/>
-        <v>2176</v>
-      </c>
-      <c r="AV17" s="2">
-        <f t="shared" si="10"/>
-        <v>2920</v>
-      </c>
-      <c r="AW17" s="2">
-        <f t="shared" si="11"/>
-        <v>2920</v>
-      </c>
-      <c r="AX17" s="2">
-        <f t="shared" ref="AX17:BD17" si="28">+AW17*1.05</f>
-        <v>3066</v>
-      </c>
-      <c r="AY17" s="2">
-        <f t="shared" si="28"/>
-        <v>3219.3</v>
-      </c>
-      <c r="AZ17" s="2">
-        <f t="shared" si="28"/>
-        <v>3380.2650000000003</v>
-      </c>
-      <c r="BA17" s="2">
-        <f t="shared" si="28"/>
-        <v>3549.2782500000003</v>
-      </c>
-      <c r="BB17" s="2">
-        <f t="shared" si="28"/>
-        <v>3726.7421625000006</v>
+        <v>3704</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="28"/>
-        <v>3913.0792706250008</v>
+        <f t="shared" ref="BC17:BI17" si="19">+BB17*1.05</f>
+        <v>3889.2000000000003</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="28"/>
-        <v>4108.7332341562515</v>
-      </c>
-    </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.2">
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-    </row>
-    <row r="19" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>4083.6600000000003</v>
+      </c>
+      <c r="BE17" s="2">
+        <f t="shared" si="19"/>
+        <v>4287.8430000000008</v>
+      </c>
+      <c r="BF17" s="2">
+        <f t="shared" si="19"/>
+        <v>4502.2351500000013</v>
+      </c>
+      <c r="BG17" s="2">
+        <f t="shared" si="19"/>
+        <v>4727.3469075000012</v>
+      </c>
+      <c r="BH17" s="2">
+        <f t="shared" si="19"/>
+        <v>4963.7142528750019</v>
+      </c>
+      <c r="BI17" s="2">
+        <f t="shared" si="19"/>
+        <v>5211.8999655187517</v>
+      </c>
+    </row>
+    <row r="18" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+    </row>
+    <row r="19" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2443,28 +2531,30 @@
       <c r="Q19" s="4">
         <v>56575</v>
       </c>
-      <c r="R19" s="4"/>
+      <c r="R19" s="4">
+        <v>59340</v>
+      </c>
       <c r="S19" s="4"/>
-      <c r="AQ19" s="2">
+      <c r="AV19" s="2">
         <v>118573</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AW19" s="2">
         <v>141915</v>
       </c>
-      <c r="AS19" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX19" s="2">
+        <f t="shared" si="6"/>
         <v>160407</v>
       </c>
-      <c r="AT19" s="2">
+      <c r="AY19" s="2">
         <f>SUM(H19:K19)</f>
         <v>215915</v>
       </c>
-      <c r="AU19" s="2">
-        <f t="shared" ref="AU19:AU27" si="29">SUM(L19:O19)</f>
+      <c r="AZ19" s="2">
+        <f t="shared" ref="AZ19:AZ27" si="20">SUM(L19:O19)</f>
         <v>241787</v>
       </c>
     </row>
-    <row r="20" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2513,81 +2603,83 @@
       <c r="Q20" s="4">
         <v>64659</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4">
+        <v>67761</v>
+      </c>
       <c r="S20" s="4"/>
-      <c r="AQ20" s="2">
+      <c r="AV20" s="2">
         <v>59293</v>
       </c>
-      <c r="AR20" s="2">
+      <c r="AW20" s="2">
         <v>90972</v>
       </c>
-      <c r="AS20" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX20" s="2">
+        <f t="shared" si="6"/>
         <v>120115</v>
       </c>
-      <c r="AT20" s="2">
-        <f t="shared" ref="AT20:AT27" si="30">SUM(H20:K20)</f>
+      <c r="AY20" s="2">
+        <f t="shared" ref="AY20:AY27" si="21">SUM(H20:K20)</f>
         <v>170149</v>
       </c>
-      <c r="AU20" s="2">
-        <f t="shared" si="29"/>
+      <c r="AZ20" s="2">
+        <f t="shared" si="20"/>
         <v>228035</v>
       </c>
     </row>
-    <row r="21" spans="2:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21" si="31">C19+C20</f>
+        <f t="shared" ref="C21" si="22">C19+C20</f>
         <v>72383</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:F21" si="32">D19+D20</f>
+        <f t="shared" ref="D21:F21" si="23">D19+D20</f>
         <v>59700</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21" si="33">E19+E20</f>
+        <f t="shared" ref="E21" si="24">E19+E20</f>
         <v>63404</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>69981</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21" si="34">G19+G20</f>
+        <f t="shared" ref="G21" si="25">G19+G20</f>
         <v>87437</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21" si="35">H19+H20</f>
+        <f t="shared" ref="H21" si="26">H19+H20</f>
         <v>75452</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" ref="I21" si="36">I19+I20</f>
+        <f t="shared" ref="I21" si="27">I19+I20</f>
         <v>88912</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:O21" si="37">J19+J20</f>
+        <f t="shared" ref="J21:O21" si="28">J19+J20</f>
         <v>96145</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>125555</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>108518</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>113080</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>110812</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>137412</v>
       </c>
       <c r="P21" s="6">
@@ -2599,105 +2691,156 @@
         <v>121234</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21:W21" si="38">SUM(R10:R17)</f>
-        <v>130252.6</v>
+        <f>+R19+R20</f>
+        <v>127101</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="38"/>
-        <v>160763.30000000002</v>
+        <f t="shared" ref="S21:W21" si="29">SUM(S10:S17)</f>
+        <v>147259.29</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="38"/>
-        <v>137257.70000000001</v>
+        <f t="shared" si="29"/>
+        <v>125730.72</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="38"/>
-        <v>143184.9</v>
+        <f t="shared" si="29"/>
+        <v>131075.60999999999</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="38"/>
-        <v>154370.70000000001</v>
+        <f t="shared" si="29"/>
+        <v>140014.88999999998</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="38"/>
-        <v>189546.50999999998</v>
+        <f t="shared" si="29"/>
+        <v>158942.6827</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>15.746</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>147.78700000000001</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>609.81899999999996</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>1639.8389999999999</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>2761.9830000000002</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>3122.433</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>3932.9360000000001</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>5263.6989999999996</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>6921</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>8490</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>10711</v>
       </c>
       <c r="AL21" s="5">
+        <v>14835</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>19166</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>24509</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>34204</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>48077</v>
+      </c>
+      <c r="AQ21" s="5">
         <v>61093</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AR21" s="5">
         <v>74452</v>
       </c>
-      <c r="AN21" s="5">
-        <f>+AN4+AN7+AN10</f>
+      <c r="AS21" s="5">
+        <f>+AS4+AS7+AS10</f>
         <v>88988</v>
       </c>
-      <c r="AO21" s="5">
-        <f t="shared" ref="AO21:AP21" si="39">+AO4+AO7+AO10</f>
+      <c r="AT21" s="5">
+        <f t="shared" ref="AT21:AU21" si="30">+AT4+AT7+AT10</f>
         <v>107006</v>
       </c>
-      <c r="AP21" s="5">
-        <f t="shared" si="39"/>
+      <c r="AU21" s="5">
+        <f t="shared" si="30"/>
         <v>135987</v>
       </c>
-      <c r="AQ21" s="6">
-        <f t="shared" ref="AQ21" si="40">AQ19+AQ20</f>
+      <c r="AV21" s="6">
+        <f t="shared" ref="AV21" si="31">AV19+AV20</f>
         <v>177866</v>
       </c>
-      <c r="AR21" s="6">
-        <f t="shared" ref="AR21" si="41">AR19+AR20</f>
+      <c r="AW21" s="6">
+        <f t="shared" ref="AW21" si="32">AW19+AW20</f>
         <v>232887</v>
       </c>
-      <c r="AS21" s="6">
-        <f>AS19+AS20</f>
+      <c r="AX21" s="6">
+        <f>AX19+AX20</f>
         <v>280522</v>
       </c>
-      <c r="AT21" s="6">
-        <f>AT19+AT20</f>
+      <c r="AY21" s="6">
+        <f>AY19+AY20</f>
         <v>386064</v>
       </c>
-      <c r="AU21" s="6">
-        <f>AU19+AU20</f>
+      <c r="AZ21" s="6">
+        <f>AZ19+AZ20</f>
         <v>469822</v>
       </c>
-      <c r="AV21" s="5">
-        <f>SUM(AV10:AV17)</f>
-        <v>528693.9</v>
-      </c>
-      <c r="AW21" s="5">
-        <f>SUM(AW10:AW17)</f>
-        <v>624359.80999999994</v>
-      </c>
-      <c r="AX21" s="5">
-        <f t="shared" ref="AX21:BD21" si="42">SUM(AX10:AX17)</f>
-        <v>689991.62850000011</v>
-      </c>
-      <c r="AY21" s="5">
-        <f t="shared" si="42"/>
-        <v>768340.24072500016</v>
-      </c>
-      <c r="AZ21" s="5">
-        <f t="shared" si="42"/>
-        <v>862783.15264125017</v>
-      </c>
       <c r="BA21" s="5">
-        <f t="shared" si="42"/>
-        <v>977680.35594131274</v>
+        <f>SUM(BA10:BA17)</f>
+        <v>514054.28999999992</v>
       </c>
       <c r="BB21" s="5">
-        <f t="shared" si="42"/>
-        <v>1077921.2216443785</v>
+        <f>SUM(BB10:BB17)</f>
+        <v>555763.90270000009</v>
       </c>
       <c r="BC21" s="5">
-        <f t="shared" si="42"/>
-        <v>1193445.5002137974</v>
+        <f t="shared" ref="BC21:BI21" si="33">SUM(BC10:BC17)</f>
+        <v>614709.82519500004</v>
       </c>
       <c r="BD21" s="5">
-        <f t="shared" si="42"/>
-        <v>1327071.6362091273</v>
-      </c>
-    </row>
-    <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>685168.93655075028</v>
+      </c>
+      <c r="BE21" s="5">
+        <f t="shared" si="33"/>
+        <v>770208.52148388757</v>
+      </c>
+      <c r="BF21" s="5">
+        <f t="shared" si="33"/>
+        <v>873788.9022742419</v>
+      </c>
+      <c r="BG21" s="5">
+        <f t="shared" si="33"/>
+        <v>964176.61058395403</v>
+      </c>
+      <c r="BH21" s="5">
+        <f t="shared" si="33"/>
+        <v>1068423.356948352</v>
+      </c>
+      <c r="BI21" s="5">
+        <f t="shared" si="33"/>
+        <v>1189090.0237980094</v>
+      </c>
+    </row>
+    <row r="22" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2747,94 +2890,93 @@
         <v>66424</v>
       </c>
       <c r="R22" s="4">
-        <f>SUM(R12:R14)*0.68+R10*0.5</f>
-        <v>71326.168000000005</v>
+        <v>70268</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" ref="S22:W22" si="43">SUM(S12:S14)*0.68+S10*0.5</f>
-        <v>89799.060000000012</v>
+        <f>SUM(S12:S14)*0.69+S10*0.51</f>
+        <v>83530.786500000002</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="43"/>
-        <v>74948.432000000001</v>
+        <f t="shared" ref="T22:W22" si="34">SUM(T12:T14)*0.68+T10*0.5</f>
+        <v>68663.915600000008</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="43"/>
-        <v>77405.936000000016</v>
+        <f t="shared" si="34"/>
+        <v>70833.622400000007</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="43"/>
-        <v>83530.556000000011</v>
+        <f t="shared" si="34"/>
+        <v>75393.381999999998</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="43"/>
-        <v>104668.094</v>
-      </c>
-      <c r="AN22" s="2">
+        <f t="shared" si="34"/>
+        <v>87752.449740000025</v>
+      </c>
+      <c r="AS22" s="2">
         <v>62752</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AT22" s="2">
         <v>71651</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AU22" s="2">
         <v>88265</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AV22" s="2">
         <v>111934</v>
       </c>
-      <c r="AR22" s="2">
+      <c r="AW22" s="2">
         <v>139156</v>
       </c>
-      <c r="AS22" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX22" s="2">
+        <f t="shared" si="6"/>
         <v>165536</v>
       </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="30"/>
+      <c r="AY22" s="2">
+        <f t="shared" si="21"/>
         <v>233307</v>
       </c>
-      <c r="AU22" s="2">
-        <f t="shared" si="29"/>
+      <c r="AZ22" s="2">
+        <f t="shared" si="20"/>
         <v>272344</v>
       </c>
-      <c r="AV22" s="17">
+      <c r="BA22" s="2">
         <f>SUM(P22:S22)</f>
-        <v>294048.228</v>
-      </c>
-      <c r="AW22" s="17">
+        <v>286721.78649999999</v>
+      </c>
+      <c r="BB22" s="2">
         <f>SUM(T22:W22)</f>
-        <v>340553.01800000004</v>
-      </c>
-      <c r="AX22" s="4">
-        <f t="shared" ref="AX22:BD22" si="44">SUM(AX12:AX14)*0.8+AX10*0.7</f>
-        <v>455729.35800000001</v>
-      </c>
-      <c r="AY22" s="4">
-        <f t="shared" si="44"/>
-        <v>505787.70689999999</v>
-      </c>
-      <c r="AZ22" s="4">
-        <f t="shared" si="44"/>
-        <v>566530.53754500009</v>
-      </c>
-      <c r="BA22" s="4">
-        <f t="shared" si="44"/>
-        <v>640946.54331225017</v>
-      </c>
-      <c r="BB22" s="4">
-        <f t="shared" si="44"/>
-        <v>708943.66401206283</v>
+        <v>302643.36973999999</v>
       </c>
       <c r="BC22" s="4">
-        <f t="shared" si="44"/>
-        <v>787530.59945370583</v>
+        <f t="shared" ref="BC22:BI22" si="35">SUM(BC12:BC14)*0.8+BC10*0.7</f>
+        <v>405720.74662000005</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="44"/>
-        <v>878674.83211563923</v>
-      </c>
-    </row>
-    <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="35"/>
+        <v>450804.82995100005</v>
+      </c>
+      <c r="BE22" s="4">
+        <f t="shared" si="35"/>
+        <v>505582.53124855005</v>
+      </c>
+      <c r="BF22" s="4">
+        <f t="shared" si="35"/>
+        <v>572770.35555097763</v>
+      </c>
+      <c r="BG22" s="4">
+        <f t="shared" si="35"/>
+        <v>634097.65756572655</v>
+      </c>
+      <c r="BH22" s="4">
+        <f t="shared" si="35"/>
+        <v>705029.08152865293</v>
+      </c>
+      <c r="BI22" s="4">
+        <f t="shared" si="35"/>
+        <v>787352.38490665355</v>
+      </c>
+    </row>
+    <row r="23" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2884,99 +3026,98 @@
         <v>20342</v>
       </c>
       <c r="R23" s="4">
-        <f>(R14+R12)*0.25</f>
-        <v>21009.65</v>
+        <v>20583</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" ref="S23:W23" si="45">(S14+S12)*0.25</f>
-        <v>27266.625</v>
+        <f>(S14+S12)*0.26</f>
+        <v>25814.581000000002</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="45"/>
-        <v>21660.974999999999</v>
+        <f t="shared" ref="T23:W23" si="36">(T14+T12)*0.25</f>
+        <v>19689.48</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="45"/>
-        <v>22197.925000000003</v>
+        <f t="shared" si="36"/>
+        <v>20144.482500000002</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="45"/>
-        <v>23838.175000000003</v>
+        <f t="shared" si="36"/>
+        <v>21154.912499999999</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="45"/>
-        <v>30902.887499999997</v>
-      </c>
-      <c r="AN23" s="2">
+        <f t="shared" si="36"/>
+        <v>25566.363875000003</v>
+      </c>
+      <c r="AS23" s="2">
         <v>10766</v>
       </c>
-      <c r="AO23" s="2">
+      <c r="AT23" s="2">
         <v>13410</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="AU23" s="2">
         <v>17619</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AV23" s="2">
         <v>25249</v>
       </c>
-      <c r="AR23" s="2">
+      <c r="AW23" s="2">
         <v>34027</v>
       </c>
-      <c r="AS23" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX23" s="2">
+        <f t="shared" si="6"/>
         <v>40231</v>
       </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="30"/>
+      <c r="AY23" s="2">
+        <f t="shared" si="21"/>
         <v>58516</v>
       </c>
-      <c r="AU23" s="2">
-        <f t="shared" si="29"/>
+      <c r="AZ23" s="2">
+        <f t="shared" si="20"/>
         <v>75111</v>
       </c>
-      <c r="AV23" s="17">
+      <c r="BA23" s="2">
         <f>SUM(P23:S23)</f>
-        <v>88889.274999999994</v>
-      </c>
-      <c r="AW23" s="17">
+        <v>87010.581000000006</v>
+      </c>
+      <c r="BB23" s="2">
         <f>SUM(T23:W23)</f>
-        <v>98599.962500000009</v>
-      </c>
-      <c r="AX23" s="4">
-        <f t="shared" ref="AX23:BD23" si="46">(AX14+AX12)*0.1</f>
-        <v>41411.984250000009</v>
-      </c>
-      <c r="AY23" s="4">
-        <f t="shared" si="46"/>
-        <v>43482.583462500006</v>
-      </c>
-      <c r="AZ23" s="4">
-        <f t="shared" si="46"/>
-        <v>45656.712635625008</v>
-      </c>
-      <c r="BA23" s="4">
-        <f t="shared" si="46"/>
-        <v>47939.548267406266</v>
-      </c>
-      <c r="BB23" s="4">
-        <f t="shared" si="46"/>
-        <v>50336.525680776576</v>
+        <v>86555.23887500001</v>
       </c>
       <c r="BC23" s="4">
-        <f t="shared" si="46"/>
-        <v>52853.351964815403</v>
+        <f t="shared" ref="BC23:BI23" si="37">(BC14+BC12)*0.1</f>
+        <v>36353.200327500002</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="46"/>
-        <v>55496.019563056179</v>
-      </c>
-    </row>
-    <row r="24" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="37"/>
+        <v>38170.860343875007</v>
+      </c>
+      <c r="BE23" s="4">
+        <f t="shared" si="37"/>
+        <v>40079.403361068762</v>
+      </c>
+      <c r="BF23" s="4">
+        <f t="shared" si="37"/>
+        <v>42083.373529122204</v>
+      </c>
+      <c r="BG23" s="4">
+        <f t="shared" si="37"/>
+        <v>44187.542205578313</v>
+      </c>
+      <c r="BH23" s="4">
+        <f t="shared" si="37"/>
+        <v>46396.919315857231</v>
+      </c>
+      <c r="BI23" s="4">
+        <f t="shared" si="37"/>
+        <v>48716.765281650092</v>
+      </c>
+    </row>
+    <row r="24" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24" si="47">C21-C22-C23</f>
+        <f t="shared" ref="C24" si="38">C21-C22-C23</f>
         <v>17569</v>
       </c>
       <c r="D24" s="4">
@@ -2984,7 +3125,7 @@
         <v>17179</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24" si="48">E21-E22-E23</f>
+        <f t="shared" ref="E24" si="39">E21-E22-E23</f>
         <v>17796</v>
       </c>
       <c r="F24" s="4">
@@ -2992,15 +3133,15 @@
         <v>18512</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ref="G24" si="49">G21-G22-G23</f>
+        <f t="shared" ref="G24" si="40">G21-G22-G23</f>
         <v>21268</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" ref="H24" si="50">H21-H22-H23</f>
+        <f t="shared" ref="H24" si="41">H21-H22-H23</f>
         <v>19664</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ref="I24" si="51">I21-I22-I23</f>
+        <f t="shared" ref="I24" si="42">I21-I22-I23</f>
         <v>22446</v>
       </c>
       <c r="J24" s="4">
@@ -3008,7 +3149,7 @@
         <v>24334</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" ref="K24" si="52">K21-K22-K23</f>
+        <f t="shared" ref="K24" si="43">K21-K22-K23</f>
         <v>27797</v>
       </c>
       <c r="L24" s="4">
@@ -3016,119 +3157,119 @@
         <v>29585</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24:W24" si="53">M21-M22-M23</f>
+        <f t="shared" ref="M24:W24" si="44">M21-M22-M23</f>
         <v>31266</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="44"/>
         <v>29384</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="44"/>
         <v>32132</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="44"/>
         <v>29674</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="44"/>
         <v>34468</v>
       </c>
       <c r="R24" s="4">
         <f>R21-R22-R23</f>
-        <v>37916.781999999999</v>
+        <v>36250</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="53"/>
-        <v>43697.615000000005</v>
+        <f>S21-S22-S23</f>
+        <v>37913.922500000001</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="53"/>
-        <v>40648.293000000012</v>
+        <f t="shared" si="44"/>
+        <v>37377.324399999998</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="53"/>
-        <v>43581.038999999975</v>
+        <f t="shared" si="44"/>
+        <v>40097.50509999998</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="53"/>
-        <v>47001.968999999997</v>
+        <f t="shared" si="44"/>
+        <v>43466.595499999989</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="53"/>
-        <v>53975.528499999986</v>
-      </c>
-      <c r="AN24" s="4">
-        <f t="shared" ref="AN24:AQ24" si="54">AN21-AN22-AN23</f>
+        <f t="shared" si="44"/>
+        <v>45623.869084999977</v>
+      </c>
+      <c r="AS24" s="4">
+        <f t="shared" ref="AS24:AV24" si="45">AS21-AS22-AS23</f>
         <v>15470</v>
       </c>
-      <c r="AO24" s="4">
-        <f t="shared" si="54"/>
+      <c r="AT24" s="4">
+        <f t="shared" si="45"/>
         <v>21945</v>
       </c>
-      <c r="AP24" s="4">
-        <f t="shared" si="54"/>
+      <c r="AU24" s="4">
+        <f t="shared" si="45"/>
         <v>30103</v>
       </c>
-      <c r="AQ24" s="4">
-        <f t="shared" si="54"/>
+      <c r="AV24" s="4">
+        <f t="shared" si="45"/>
         <v>40683</v>
       </c>
-      <c r="AR24" s="4">
-        <f t="shared" ref="AR24:AS24" si="55">AR21-AR22-AR23</f>
+      <c r="AW24" s="4">
+        <f t="shared" ref="AW24:AX24" si="46">AW21-AW22-AW23</f>
         <v>59704</v>
       </c>
-      <c r="AS24" s="4">
-        <f t="shared" si="55"/>
+      <c r="AX24" s="4">
+        <f t="shared" si="46"/>
         <v>74755</v>
       </c>
-      <c r="AT24" s="4">
-        <f t="shared" ref="AT24:BD24" si="56">AT21-AT22-AT23</f>
+      <c r="AY24" s="4">
+        <f t="shared" ref="AY24:BI24" si="47">AY21-AY22-AY23</f>
         <v>94241</v>
       </c>
-      <c r="AU24" s="4">
-        <f t="shared" si="56"/>
+      <c r="AZ24" s="4">
+        <f t="shared" si="47"/>
         <v>122367</v>
       </c>
-      <c r="AV24" s="4">
-        <f t="shared" si="56"/>
-        <v>145756.39700000003</v>
-      </c>
-      <c r="AW24" s="4">
-        <f t="shared" si="56"/>
-        <v>185206.82949999988</v>
-      </c>
-      <c r="AX24" s="4">
-        <f t="shared" si="56"/>
-        <v>192850.28625000009</v>
-      </c>
-      <c r="AY24" s="4">
-        <f t="shared" si="56"/>
-        <v>219069.95036250015</v>
-      </c>
-      <c r="AZ24" s="4">
-        <f t="shared" si="56"/>
-        <v>250595.90246062508</v>
-      </c>
       <c r="BA24" s="4">
-        <f t="shared" si="56"/>
-        <v>288794.26436165627</v>
+        <f t="shared" si="47"/>
+        <v>140321.92249999993</v>
       </c>
       <c r="BB24" s="4">
-        <f t="shared" si="56"/>
-        <v>318641.0319515391</v>
+        <f t="shared" si="47"/>
+        <v>166565.29408500009</v>
       </c>
       <c r="BC24" s="4">
-        <f t="shared" si="56"/>
-        <v>353061.54879527621</v>
+        <f t="shared" si="47"/>
+        <v>172635.87824749999</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="56"/>
-        <v>392900.78453043185</v>
-      </c>
-    </row>
-    <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>196193.24625587522</v>
+      </c>
+      <c r="BE24" s="4">
+        <f t="shared" si="47"/>
+        <v>224546.58687426877</v>
+      </c>
+      <c r="BF24" s="4">
+        <f t="shared" si="47"/>
+        <v>258935.17319414206</v>
+      </c>
+      <c r="BG24" s="4">
+        <f t="shared" si="47"/>
+        <v>285891.41081264918</v>
+      </c>
+      <c r="BH24" s="4">
+        <f t="shared" si="47"/>
+        <v>316997.3561038418</v>
+      </c>
+      <c r="BI24" s="4">
+        <f t="shared" si="47"/>
+        <v>353020.87360970571</v>
+      </c>
+    </row>
+    <row r="25" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3178,94 +3319,93 @@
         <v>18072</v>
       </c>
       <c r="R25" s="4">
-        <f>+N25*1.25</f>
-        <v>17975</v>
+        <v>19485</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" ref="S25:W25" si="57">+O25*1.1</f>
-        <v>16844.300000000003</v>
+        <f>+O25*1.15</f>
+        <v>17609.949999999997</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="T25:W25" si="48">+P25*1.1</f>
         <v>16326.2</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>19879.2</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="57"/>
-        <v>19772.5</v>
+        <f t="shared" si="48"/>
+        <v>21433.5</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="57"/>
-        <v>18528.730000000003</v>
-      </c>
-      <c r="AN25" s="2">
+        <f t="shared" si="48"/>
+        <v>19370.945</v>
+      </c>
+      <c r="AS25" s="2">
         <v>9275</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AT25" s="2">
         <v>12540</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AU25" s="2">
         <v>16085</v>
       </c>
-      <c r="AQ25" s="2">
+      <c r="AV25" s="2">
         <v>22620</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AW25" s="2">
         <v>28837</v>
       </c>
-      <c r="AS25" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX25" s="2">
+        <f t="shared" si="6"/>
         <v>35932</v>
       </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="30"/>
+      <c r="AY25" s="2">
+        <f t="shared" si="21"/>
         <v>42738</v>
       </c>
-      <c r="AU25" s="2">
-        <f t="shared" si="29"/>
+      <c r="AZ25" s="2">
+        <f t="shared" si="20"/>
         <v>56052</v>
       </c>
-      <c r="AV25" s="17">
+      <c r="BA25" s="2">
         <f>SUM(P25:S25)</f>
-        <v>67733.3</v>
-      </c>
-      <c r="AW25" s="17">
+        <v>70008.95</v>
+      </c>
+      <c r="BB25" s="2">
         <f>SUM(T25:W25)</f>
-        <v>74506.63</v>
-      </c>
-      <c r="AX25" s="2">
-        <f>+AW25*1.03</f>
-        <v>76741.828900000008</v>
-      </c>
-      <c r="AY25" s="2">
-        <f t="shared" ref="AY25:BD25" si="58">+AX25*1.03</f>
-        <v>79044.083767000004</v>
-      </c>
-      <c r="AZ25" s="2">
-        <f t="shared" si="58"/>
-        <v>81415.406280010007</v>
-      </c>
-      <c r="BA25" s="2">
-        <f t="shared" si="58"/>
-        <v>83857.868468410306</v>
-      </c>
-      <c r="BB25" s="2">
-        <f t="shared" si="58"/>
-        <v>86373.604522462614</v>
+        <v>77009.845000000001</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="58"/>
-        <v>88964.812658136492</v>
+        <f>+BB25*1.03</f>
+        <v>79320.140350000001</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="58"/>
-        <v>91633.757037880583</v>
-      </c>
-    </row>
-    <row r="26" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD25:BI25" si="49">+BC25*1.03</f>
+        <v>81699.74456050001</v>
+      </c>
+      <c r="BE25" s="2">
+        <f t="shared" si="49"/>
+        <v>84150.736897315015</v>
+      </c>
+      <c r="BF25" s="2">
+        <f t="shared" si="49"/>
+        <v>86675.259004234467</v>
+      </c>
+      <c r="BG25" s="2">
+        <f t="shared" si="49"/>
+        <v>89275.516774361502</v>
+      </c>
+      <c r="BH25" s="2">
+        <f t="shared" si="49"/>
+        <v>91953.782277592356</v>
+      </c>
+      <c r="BI25" s="2">
+        <f t="shared" si="49"/>
+        <v>94712.395745920134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3315,94 +3455,93 @@
         <v>10086</v>
       </c>
       <c r="R26" s="4">
-        <f>+N26*1.15</f>
-        <v>9211.5</v>
+        <v>11014</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26:S27" si="59">+O26*1.05</f>
-        <v>11350.5</v>
+        <f>+O26*1.1</f>
+        <v>11891.000000000002</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26:T27" si="60">+P26*1.05</f>
+        <f t="shared" ref="T26:T27" si="50">+P26*1.05</f>
         <v>8736</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" ref="U26:U27" si="61">+Q26*1.05</f>
+        <f t="shared" ref="U26:U27" si="51">+Q26*1.05</f>
         <v>10590.300000000001</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ref="V26:V27" si="62">+R26*1.05</f>
-        <v>9672.0750000000007</v>
+        <f t="shared" ref="V26:V27" si="52">+R26*1.05</f>
+        <v>11564.7</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" ref="W26:W27" si="63">+S26*1.05</f>
-        <v>11918.025</v>
-      </c>
-      <c r="AN26" s="2">
+        <f t="shared" ref="W26:W27" si="53">+S26*1.05</f>
+        <v>12485.550000000003</v>
+      </c>
+      <c r="AS26" s="2">
         <v>4332</v>
       </c>
-      <c r="AO26" s="2">
+      <c r="AT26" s="2">
         <v>5254</v>
       </c>
-      <c r="AP26" s="2">
+      <c r="AU26" s="2">
         <v>7233</v>
       </c>
-      <c r="AQ26" s="2">
+      <c r="AV26" s="2">
         <v>10069</v>
       </c>
-      <c r="AR26" s="2">
+      <c r="AW26" s="2">
         <v>13814</v>
       </c>
-      <c r="AS26" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX26" s="2">
+        <f t="shared" si="6"/>
         <v>18879</v>
       </c>
-      <c r="AT26" s="2">
-        <f t="shared" si="30"/>
+      <c r="AY26" s="2">
+        <f t="shared" si="21"/>
         <v>22010</v>
       </c>
-      <c r="AU26" s="2">
-        <f t="shared" si="29"/>
+      <c r="AZ26" s="2">
+        <f t="shared" si="20"/>
         <v>32551</v>
       </c>
-      <c r="AV26" s="17">
+      <c r="BA26" s="2">
         <f>SUM(P26:S26)</f>
-        <v>38968</v>
-      </c>
-      <c r="AW26" s="17">
+        <v>41311</v>
+      </c>
+      <c r="BB26" s="2">
         <f>SUM(T26:W26)</f>
-        <v>40916.400000000001</v>
-      </c>
-      <c r="AX26" s="2">
-        <f t="shared" ref="AX26:BD26" si="64">+AW26*1.03</f>
-        <v>42143.892</v>
-      </c>
-      <c r="AY26" s="2">
-        <f t="shared" si="64"/>
-        <v>43408.208760000001</v>
-      </c>
-      <c r="AZ26" s="2">
-        <f t="shared" si="64"/>
-        <v>44710.455022800001</v>
-      </c>
-      <c r="BA26" s="2">
-        <f t="shared" si="64"/>
-        <v>46051.768673484003</v>
-      </c>
-      <c r="BB26" s="2">
-        <f t="shared" si="64"/>
-        <v>47433.321733688521</v>
+        <v>43376.55</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="64"/>
-        <v>48856.321385699179</v>
+        <f t="shared" ref="BC26:BI26" si="54">+BB26*1.03</f>
+        <v>44677.846500000007</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="64"/>
-        <v>50322.011027270157</v>
-      </c>
-    </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
+        <f t="shared" si="54"/>
+        <v>46018.181895000009</v>
+      </c>
+      <c r="BE26" s="2">
+        <f t="shared" si="54"/>
+        <v>47398.727351850008</v>
+      </c>
+      <c r="BF26" s="2">
+        <f t="shared" si="54"/>
+        <v>48820.689172405509</v>
+      </c>
+      <c r="BG26" s="2">
+        <f t="shared" si="54"/>
+        <v>50285.309847577679</v>
+      </c>
+      <c r="BH26" s="2">
+        <f t="shared" si="54"/>
+        <v>51793.869143005009</v>
+      </c>
+      <c r="BI26" s="2">
+        <f t="shared" si="54"/>
+        <v>53347.685217295162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3452,99 +3591,98 @@
         <v>2903</v>
       </c>
       <c r="R27" s="4">
-        <f>+N27*1.15</f>
-        <v>2475.9499999999998</v>
+        <v>3061</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="59"/>
-        <v>2651.25</v>
+        <f>+O27*1.1</f>
+        <v>2777.5</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v>2723.7000000000003</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>3048.15</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="62"/>
-        <v>2599.7474999999999</v>
+        <f t="shared" si="52"/>
+        <v>3214.05</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="63"/>
-        <v>2783.8125</v>
-      </c>
-      <c r="AN27" s="2">
+        <f t="shared" si="53"/>
+        <v>2916.375</v>
+      </c>
+      <c r="AS27" s="2">
         <v>1552</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AT27" s="2">
         <v>1747</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AU27" s="2">
         <v>2432</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AV27" s="2">
         <v>3674</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AW27" s="2">
         <v>4336</v>
       </c>
-      <c r="AS27" s="2">
-        <f t="shared" si="7"/>
+      <c r="AX27" s="2">
+        <f t="shared" si="6"/>
         <v>5203</v>
       </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="30"/>
+      <c r="AY27" s="2">
+        <f t="shared" si="21"/>
         <v>6668</v>
       </c>
-      <c r="AU27" s="2">
-        <f t="shared" si="29"/>
+      <c r="AZ27" s="2">
+        <f t="shared" si="20"/>
         <v>8823</v>
       </c>
-      <c r="AV27" s="17">
+      <c r="BA27" s="2">
         <f>SUM(P27:S27)</f>
-        <v>10624.2</v>
-      </c>
-      <c r="AW27" s="17">
+        <v>11335.5</v>
+      </c>
+      <c r="BB27" s="2">
         <f>SUM(T27:W27)</f>
-        <v>11155.41</v>
-      </c>
-      <c r="AX27" s="2">
-        <f t="shared" ref="AX27:BD27" si="65">+AW27*1.03</f>
-        <v>11490.0723</v>
-      </c>
-      <c r="AY27" s="2">
-        <f t="shared" si="65"/>
-        <v>11834.774469</v>
-      </c>
-      <c r="AZ27" s="2">
-        <f t="shared" si="65"/>
-        <v>12189.817703070001</v>
-      </c>
-      <c r="BA27" s="2">
-        <f t="shared" si="65"/>
-        <v>12555.512234162101</v>
-      </c>
-      <c r="BB27" s="2">
-        <f t="shared" si="65"/>
-        <v>12932.177601186964</v>
+        <v>11902.275000000001</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="65"/>
-        <v>13320.142929222573</v>
+        <f t="shared" ref="BC27:BI27" si="55">+BB27*1.03</f>
+        <v>12259.343250000002</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="65"/>
-        <v>13719.747217099251</v>
-      </c>
-    </row>
-    <row r="28" spans="2:56" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>12627.123547500001</v>
+      </c>
+      <c r="BE27" s="2">
+        <f t="shared" si="55"/>
+        <v>13005.937253925002</v>
+      </c>
+      <c r="BF27" s="2">
+        <f t="shared" si="55"/>
+        <v>13396.115371542752</v>
+      </c>
+      <c r="BG27" s="2">
+        <f t="shared" si="55"/>
+        <v>13797.998832689034</v>
+      </c>
+      <c r="BH27" s="2">
+        <f t="shared" si="55"/>
+        <v>14211.938797669705</v>
+      </c>
+      <c r="BI27" s="2">
+        <f t="shared" si="55"/>
+        <v>14638.296961599797</v>
+      </c>
+    </row>
+    <row r="28" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28" si="66">SUM(C25:C27)</f>
+        <f t="shared" ref="C28" si="56">SUM(C25:C27)</f>
         <v>13697</v>
       </c>
       <c r="D28" s="4">
@@ -3552,7 +3690,7 @@
         <v>12764</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ref="E28" si="67">SUM(E25:E27)</f>
+        <f t="shared" ref="E28" si="57">SUM(E25:E27)</f>
         <v>14626</v>
       </c>
       <c r="F28" s="4">
@@ -3560,15 +3698,15 @@
         <v>15300</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28" si="68">SUM(G25:G27)</f>
+        <f t="shared" ref="G28" si="58">SUM(G25:G27)</f>
         <v>17324</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" ref="H28" si="69">SUM(H25:H27)</f>
+        <f t="shared" ref="H28" si="59">SUM(H25:H27)</f>
         <v>15605</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28" si="70">SUM(I25:I27)</f>
+        <f t="shared" ref="I28" si="60">SUM(I25:I27)</f>
         <v>16313</v>
       </c>
       <c r="J28" s="4">
@@ -3576,7 +3714,7 @@
         <v>18078</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28" si="71">SUM(K25:K27)</f>
+        <f t="shared" ref="K28" si="61">SUM(K25:K27)</f>
         <v>21420</v>
       </c>
       <c r="L28" s="4">
@@ -3584,124 +3722,124 @@
         <v>20682</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28:P28" si="72">SUM(M25:M27)</f>
+        <f t="shared" ref="M28:P28" si="62">SUM(M25:M27)</f>
         <v>23553</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="62"/>
         <v>24543</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="62"/>
         <v>28648</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="62"/>
         <v>25756</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" ref="Q28:W28" si="73">SUM(Q25:Q27)</f>
+        <f t="shared" ref="Q28:W28" si="63">SUM(Q25:Q27)</f>
         <v>31061</v>
       </c>
       <c r="R28" s="4">
         <f>SUM(R25:R27)</f>
-        <v>29662.45</v>
+        <v>33560</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="73"/>
-        <v>30846.050000000003</v>
+        <f t="shared" si="63"/>
+        <v>32278.449999999997</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="63"/>
         <v>27785.9</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="63"/>
         <v>33517.65</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="73"/>
-        <v>32044.322500000002</v>
+        <f t="shared" si="63"/>
+        <v>36212.25</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="73"/>
-        <v>33230.567500000005</v>
-      </c>
-      <c r="AN28" s="4">
-        <f t="shared" ref="AN28:AP28" si="74">SUM(AN25:AN27)</f>
+        <f t="shared" si="63"/>
+        <v>34772.870000000003</v>
+      </c>
+      <c r="AS28" s="4">
+        <f t="shared" ref="AS28:AU28" si="64">SUM(AS25:AS27)</f>
         <v>15159</v>
       </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="74"/>
+      <c r="AT28" s="4">
+        <f t="shared" si="64"/>
         <v>19541</v>
       </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="74"/>
+      <c r="AU28" s="4">
+        <f t="shared" si="64"/>
         <v>25750</v>
       </c>
-      <c r="AQ28" s="4">
-        <f t="shared" ref="AQ28" si="75">SUM(AQ25:AQ27)</f>
+      <c r="AV28" s="4">
+        <f t="shared" ref="AV28" si="65">SUM(AV25:AV27)</f>
         <v>36363</v>
       </c>
-      <c r="AR28" s="4">
-        <f t="shared" ref="AR28:AS28" si="76">SUM(AR25:AR27)</f>
+      <c r="AW28" s="4">
+        <f t="shared" ref="AW28:AX28" si="66">SUM(AW25:AW27)</f>
         <v>46987</v>
       </c>
-      <c r="AS28" s="4">
-        <f t="shared" si="76"/>
+      <c r="AX28" s="4">
+        <f t="shared" si="66"/>
         <v>60014</v>
       </c>
-      <c r="AT28" s="4">
-        <f t="shared" ref="AT28:AU28" si="77">SUM(AT25:AT27)</f>
+      <c r="AY28" s="4">
+        <f t="shared" ref="AY28:AZ28" si="67">SUM(AY25:AY27)</f>
         <v>71416</v>
       </c>
-      <c r="AU28" s="4">
-        <f t="shared" si="77"/>
+      <c r="AZ28" s="4">
+        <f t="shared" si="67"/>
         <v>97426</v>
       </c>
-      <c r="AV28" s="4">
-        <f t="shared" ref="AV28:AW28" si="78">SUM(AV25:AV27)</f>
-        <v>117325.5</v>
-      </c>
-      <c r="AW28" s="4">
-        <f t="shared" si="78"/>
-        <v>126578.44</v>
-      </c>
-      <c r="AX28" s="4">
-        <f t="shared" ref="AX28:BD28" si="79">SUM(AX25:AX27)</f>
-        <v>130375.79320000001</v>
-      </c>
-      <c r="AY28" s="4">
-        <f t="shared" si="79"/>
-        <v>134287.06699600001</v>
-      </c>
-      <c r="AZ28" s="4">
-        <f t="shared" si="79"/>
-        <v>138315.67900588</v>
-      </c>
       <c r="BA28" s="4">
-        <f t="shared" si="79"/>
-        <v>142465.14937605642</v>
+        <f t="shared" ref="BA28:BB28" si="68">SUM(BA25:BA27)</f>
+        <v>122655.45</v>
       </c>
       <c r="BB28" s="4">
-        <f t="shared" si="79"/>
-        <v>146739.10385733811</v>
+        <f t="shared" si="68"/>
+        <v>132288.67000000001</v>
       </c>
       <c r="BC28" s="4">
-        <f t="shared" si="79"/>
-        <v>151141.27697305827</v>
+        <f t="shared" ref="BC28:BI28" si="69">SUM(BC25:BC27)</f>
+        <v>136257.33010000002</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="79"/>
-        <v>155675.51528224998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.2">
+        <f t="shared" si="69"/>
+        <v>140345.05000300001</v>
+      </c>
+      <c r="BE28" s="4">
+        <f t="shared" si="69"/>
+        <v>144555.40150309002</v>
+      </c>
+      <c r="BF28" s="4">
+        <f t="shared" si="69"/>
+        <v>148892.06354818272</v>
+      </c>
+      <c r="BG28" s="4">
+        <f t="shared" si="69"/>
+        <v>153358.82545462824</v>
+      </c>
+      <c r="BH28" s="4">
+        <f t="shared" si="69"/>
+        <v>157959.59021826708</v>
+      </c>
+      <c r="BI28" s="4">
+        <f t="shared" si="69"/>
+        <v>162698.37792481508</v>
+      </c>
+    </row>
+    <row r="29" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29" si="80">C24-C28</f>
+        <f t="shared" ref="C29" si="70">C24-C28</f>
         <v>3872</v>
       </c>
       <c r="D29" s="4">
@@ -3709,7 +3847,7 @@
         <v>4415</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29" si="81">E24-E28</f>
+        <f t="shared" ref="E29" si="71">E24-E28</f>
         <v>3170</v>
       </c>
       <c r="F29" s="4">
@@ -3717,15 +3855,15 @@
         <v>3212</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ref="G29" si="82">G24-G28</f>
+        <f t="shared" ref="G29" si="72">G24-G28</f>
         <v>3944</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29" si="83">H24-H28</f>
+        <f t="shared" ref="H29" si="73">H24-H28</f>
         <v>4059</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29" si="84">I24-I28</f>
+        <f t="shared" ref="I29" si="74">I24-I28</f>
         <v>6133</v>
       </c>
       <c r="J29" s="4">
@@ -3733,7 +3871,7 @@
         <v>6256</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" ref="K29" si="85">K24-K28</f>
+        <f t="shared" ref="K29" si="75">K24-K28</f>
         <v>6377</v>
       </c>
       <c r="L29" s="4">
@@ -3741,119 +3879,119 @@
         <v>8903</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" ref="M29:P29" si="86">M24-M28</f>
+        <f t="shared" ref="M29:P29" si="76">M24-M28</f>
         <v>7713</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="76"/>
         <v>4841</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="76"/>
         <v>3484</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="76"/>
         <v>3918</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" ref="Q29:W29" si="87">Q24-Q28</f>
+        <f t="shared" ref="Q29:W29" si="77">Q24-Q28</f>
         <v>3407</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="87"/>
-        <v>8254.3319999999985</v>
+        <f>R24-R28</f>
+        <v>2690</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="87"/>
-        <v>12851.565000000002</v>
+        <f t="shared" si="77"/>
+        <v>5635.4725000000035</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="87"/>
-        <v>12862.393000000011</v>
+        <f t="shared" si="77"/>
+        <v>9591.4243999999962</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="87"/>
-        <v>10063.388999999974</v>
+        <f t="shared" si="77"/>
+        <v>6579.8550999999788</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="87"/>
-        <v>14957.646499999995</v>
+        <f t="shared" si="77"/>
+        <v>7254.3454999999885</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="87"/>
-        <v>20744.960999999981</v>
-      </c>
-      <c r="AN29" s="4">
-        <f t="shared" ref="AN29:AP29" si="88">AN24-AN28</f>
+        <f t="shared" si="77"/>
+        <v>10850.999084999974</v>
+      </c>
+      <c r="AS29" s="4">
+        <f t="shared" ref="AS29:AU29" si="78">AS24-AS28</f>
         <v>311</v>
       </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="88"/>
+      <c r="AT29" s="4">
+        <f t="shared" si="78"/>
         <v>2404</v>
       </c>
-      <c r="AP29" s="4">
-        <f t="shared" si="88"/>
+      <c r="AU29" s="4">
+        <f t="shared" si="78"/>
         <v>4353</v>
       </c>
-      <c r="AQ29" s="4">
-        <f t="shared" ref="AQ29" si="89">AQ24-AQ28</f>
+      <c r="AV29" s="4">
+        <f t="shared" ref="AV29" si="79">AV24-AV28</f>
         <v>4320</v>
       </c>
-      <c r="AR29" s="4">
-        <f t="shared" ref="AR29:AS29" si="90">AR24-AR28</f>
+      <c r="AW29" s="4">
+        <f t="shared" ref="AW29:AX29" si="80">AW24-AW28</f>
         <v>12717</v>
       </c>
-      <c r="AS29" s="4">
-        <f t="shared" si="90"/>
+      <c r="AX29" s="4">
+        <f t="shared" si="80"/>
         <v>14741</v>
       </c>
-      <c r="AT29" s="4">
-        <f t="shared" ref="AT29:AU29" si="91">AT24-AT28</f>
+      <c r="AY29" s="4">
+        <f t="shared" ref="AY29:AZ29" si="81">AY24-AY28</f>
         <v>22825</v>
       </c>
-      <c r="AU29" s="4">
-        <f t="shared" si="91"/>
+      <c r="AZ29" s="4">
+        <f t="shared" si="81"/>
         <v>24941</v>
       </c>
-      <c r="AV29" s="4">
-        <f t="shared" ref="AV29:AW29" si="92">AV24-AV28</f>
-        <v>28430.897000000026</v>
-      </c>
-      <c r="AW29" s="4">
-        <f t="shared" si="92"/>
-        <v>58628.389499999874</v>
-      </c>
-      <c r="AX29" s="4">
-        <f t="shared" ref="AX29:BD29" si="93">AX24-AX28</f>
-        <v>62474.493050000077</v>
-      </c>
-      <c r="AY29" s="4">
-        <f t="shared" si="93"/>
-        <v>84782.883366500144</v>
-      </c>
-      <c r="AZ29" s="4">
-        <f t="shared" si="93"/>
-        <v>112280.22345474508</v>
-      </c>
       <c r="BA29" s="4">
-        <f t="shared" si="93"/>
-        <v>146329.11498559985</v>
+        <f t="shared" ref="BA29:BB29" si="82">BA24-BA28</f>
+        <v>17666.472499999931</v>
       </c>
       <c r="BB29" s="4">
-        <f t="shared" si="93"/>
-        <v>171901.92809420099</v>
+        <f t="shared" si="82"/>
+        <v>34276.624085000076</v>
       </c>
       <c r="BC29" s="4">
-        <f t="shared" si="93"/>
-        <v>201920.27182221794</v>
+        <f t="shared" ref="BC29:BI29" si="83">BC24-BC28</f>
+        <v>36378.548147499969</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="93"/>
-        <v>237225.26924818187</v>
-      </c>
-    </row>
-    <row r="30" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="83"/>
+        <v>55848.196252875205</v>
+      </c>
+      <c r="BE29" s="4">
+        <f t="shared" si="83"/>
+        <v>79991.185371178755</v>
+      </c>
+      <c r="BF29" s="4">
+        <f t="shared" si="83"/>
+        <v>110043.10964595934</v>
+      </c>
+      <c r="BG29" s="4">
+        <f t="shared" si="83"/>
+        <v>132532.58535802094</v>
+      </c>
+      <c r="BH29" s="4">
+        <f t="shared" si="83"/>
+        <v>159037.76588557471</v>
+      </c>
+      <c r="BI29" s="4">
+        <f t="shared" si="83"/>
+        <v>190322.49568489063</v>
+      </c>
+    </row>
+    <row r="30" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -3917,83 +4055,86 @@
         <f>159-584</f>
         <v>-425</v>
       </c>
-      <c r="R30" s="4"/>
+      <c r="R30" s="4">
+        <f>-165+277-617+759</f>
+        <v>254</v>
+      </c>
       <c r="S30" s="4"/>
-      <c r="AN30" s="2">
+      <c r="AS30" s="2">
         <f>-133+39-210-118</f>
         <v>-422</v>
       </c>
-      <c r="AO30" s="2">
+      <c r="AT30" s="2">
         <f>-171+50-459-256</f>
         <v>-836</v>
       </c>
-      <c r="AP30" s="2">
+      <c r="AU30" s="2">
         <f>-167+100-484+90</f>
         <v>-461</v>
       </c>
-      <c r="AQ30" s="2">
+      <c r="AV30" s="2">
         <f>-214+202-848+346</f>
         <v>-514</v>
       </c>
-      <c r="AR30" s="2">
+      <c r="AW30" s="2">
         <f>-296+440-1417-183</f>
         <v>-1456</v>
       </c>
-      <c r="AS30" s="2">
-        <f t="shared" ref="AS30" si="94">SUM(D30:G30)</f>
+      <c r="AX30" s="2">
+        <f t="shared" ref="AX30" si="84">SUM(D30:G30)</f>
         <v>-766</v>
       </c>
-      <c r="AT30" s="2">
-        <f t="shared" ref="AT30" si="95">SUM(H30:K30)</f>
+      <c r="AY30" s="2">
+        <f t="shared" ref="AY30" si="85">SUM(H30:K30)</f>
         <v>1353</v>
       </c>
-      <c r="AU30" s="2">
-        <f t="shared" ref="AU30" si="96">SUM(L30:O30)</f>
+      <c r="AZ30" s="2">
+        <f t="shared" ref="AZ30" si="86">SUM(L30:O30)</f>
         <v>13210</v>
       </c>
-      <c r="AV30" s="17">
+      <c r="BA30" s="2">
         <f>SUM(P30:S30)</f>
-        <v>-9608</v>
-      </c>
-      <c r="AW30" s="17">
+        <v>-9354</v>
+      </c>
+      <c r="BB30" s="2">
         <f>SUM(T30:W30)</f>
         <v>0</v>
       </c>
-      <c r="AX30" s="2">
-        <f>+AW45*$BG$44</f>
-        <v>895.85143524999967</v>
-      </c>
-      <c r="AY30" s="2">
-        <f t="shared" ref="AY30:BD30" si="97">+AX45*$BG$44</f>
-        <v>1434.4993633746251</v>
-      </c>
-      <c r="AZ30" s="2">
-        <f t="shared" si="97"/>
-        <v>2167.3471165785609</v>
-      </c>
-      <c r="BA30" s="2">
-        <f t="shared" si="97"/>
-        <v>3140.1514664348115</v>
-      </c>
-      <c r="BB30" s="2">
-        <f t="shared" si="97"/>
-        <v>4410.6402312771061</v>
-      </c>
       <c r="BC30" s="2">
-        <f t="shared" si="97"/>
-        <v>5909.2970620436699</v>
+        <f>+BB47*$BL$46</f>
+        <v>336.68282097249948</v>
       </c>
       <c r="BD30" s="2">
-        <f t="shared" si="97"/>
-        <v>7675.8483975598938</v>
-      </c>
-    </row>
-    <row r="31" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD30:BI30" si="87">+BC47*$BL$46</f>
+        <v>648.76228420451548</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="87"/>
+        <v>1128.9864317696931</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" si="87"/>
+        <v>1818.5078920947551</v>
+      </c>
+      <c r="BG30" s="2">
+        <f t="shared" si="87"/>
+        <v>2769.3316411682149</v>
+      </c>
+      <c r="BH30" s="2">
+        <f t="shared" si="87"/>
+        <v>3919.3979356613227</v>
+      </c>
+      <c r="BI30" s="2">
+        <f t="shared" si="87"/>
+        <v>5304.533828141829</v>
+      </c>
+    </row>
+    <row r="31" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31" si="98">C29+C30</f>
+        <f t="shared" ref="C31" si="88">C29+C30</f>
         <v>3350</v>
       </c>
       <c r="D31" s="4">
@@ -4001,7 +4142,7 @@
         <v>4401</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31" si="99">E29+E30</f>
+        <f t="shared" ref="E31" si="89">E29+E30</f>
         <v>2889</v>
       </c>
       <c r="F31" s="4">
@@ -4009,15 +4150,15 @@
         <v>2632</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31" si="100">G29+G30</f>
+        <f t="shared" ref="G31" si="90">G29+G30</f>
         <v>4053</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31" si="101">H29+H30</f>
+        <f t="shared" ref="H31" si="91">H29+H30</f>
         <v>3383</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31" si="102">I29+I30</f>
+        <f t="shared" ref="I31" si="92">I29+I30</f>
         <v>6221</v>
       </c>
       <c r="J31" s="4">
@@ -4025,7 +4166,7 @@
         <v>6809</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" ref="K31" si="103">K29+K30</f>
+        <f t="shared" ref="K31" si="93">K29+K30</f>
         <v>7765</v>
       </c>
       <c r="L31" s="4">
@@ -4033,119 +4174,119 @@
         <v>10268</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" ref="M31:W31" si="104">M29+M30</f>
+        <f t="shared" ref="M31:W31" si="94">M29+M30</f>
         <v>8634</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="94"/>
         <v>4315</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="94"/>
         <v>14934</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="94"/>
         <v>-5265</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="94"/>
         <v>2982</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="104"/>
-        <v>8254.3319999999985</v>
+        <f t="shared" si="94"/>
+        <v>2944</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="104"/>
-        <v>12851.565000000002</v>
+        <f t="shared" si="94"/>
+        <v>5635.4725000000035</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="104"/>
-        <v>12862.393000000011</v>
+        <f t="shared" si="94"/>
+        <v>9591.4243999999962</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="104"/>
-        <v>10063.388999999974</v>
+        <f t="shared" si="94"/>
+        <v>6579.8550999999788</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="104"/>
-        <v>14957.646499999995</v>
+        <f t="shared" si="94"/>
+        <v>7254.3454999999885</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="104"/>
-        <v>20744.960999999981</v>
-      </c>
-      <c r="AN31" s="4">
-        <f t="shared" ref="AN31:AP31" si="105">AN29+AN30</f>
+        <f t="shared" si="94"/>
+        <v>10850.999084999974</v>
+      </c>
+      <c r="AS31" s="4">
+        <f t="shared" ref="AS31:AU31" si="95">AS29+AS30</f>
         <v>-111</v>
       </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="105"/>
+      <c r="AT31" s="4">
+        <f t="shared" si="95"/>
         <v>1568</v>
       </c>
-      <c r="AP31" s="4">
-        <f t="shared" si="105"/>
+      <c r="AU31" s="4">
+        <f t="shared" si="95"/>
         <v>3892</v>
       </c>
-      <c r="AQ31" s="4">
-        <f t="shared" ref="AQ31" si="106">AQ29+AQ30</f>
+      <c r="AV31" s="4">
+        <f t="shared" ref="AV31" si="96">AV29+AV30</f>
         <v>3806</v>
       </c>
-      <c r="AR31" s="4">
-        <f t="shared" ref="AR31:AS31" si="107">AR29+AR30</f>
+      <c r="AW31" s="4">
+        <f t="shared" ref="AW31:AX31" si="97">AW29+AW30</f>
         <v>11261</v>
       </c>
-      <c r="AS31" s="4">
-        <f t="shared" si="107"/>
+      <c r="AX31" s="4">
+        <f t="shared" si="97"/>
         <v>13975</v>
       </c>
-      <c r="AT31" s="4">
-        <f t="shared" ref="AT31:BD31" si="108">AT29+AT30</f>
+      <c r="AY31" s="4">
+        <f t="shared" ref="AY31:BI31" si="98">AY29+AY30</f>
         <v>24178</v>
       </c>
-      <c r="AU31" s="4">
-        <f t="shared" si="108"/>
+      <c r="AZ31" s="4">
+        <f t="shared" si="98"/>
         <v>38151</v>
       </c>
-      <c r="AV31" s="4">
-        <f t="shared" si="108"/>
-        <v>18822.897000000026</v>
-      </c>
-      <c r="AW31" s="4">
-        <f t="shared" si="108"/>
-        <v>58628.389499999874</v>
-      </c>
-      <c r="AX31" s="4">
-        <f t="shared" si="108"/>
-        <v>63370.344485250076</v>
-      </c>
-      <c r="AY31" s="4">
-        <f t="shared" si="108"/>
-        <v>86217.382729874764</v>
-      </c>
-      <c r="AZ31" s="4">
-        <f t="shared" si="108"/>
-        <v>114447.57057132364</v>
-      </c>
       <c r="BA31" s="4">
-        <f t="shared" si="108"/>
-        <v>149469.26645203467</v>
+        <f t="shared" si="98"/>
+        <v>8312.4724999999307</v>
       </c>
       <c r="BB31" s="4">
-        <f t="shared" si="108"/>
-        <v>176312.56832547809</v>
+        <f t="shared" si="98"/>
+        <v>34276.624085000076</v>
       </c>
       <c r="BC31" s="4">
-        <f t="shared" si="108"/>
-        <v>207829.56888426162</v>
+        <f t="shared" si="98"/>
+        <v>36715.230968472468</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="108"/>
-        <v>244901.11764574176</v>
-      </c>
-    </row>
-    <row r="32" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="98"/>
+        <v>56496.958537079721</v>
+      </c>
+      <c r="BE31" s="4">
+        <f t="shared" si="98"/>
+        <v>81120.171802948447</v>
+      </c>
+      <c r="BF31" s="4">
+        <f t="shared" si="98"/>
+        <v>111861.6175380541</v>
+      </c>
+      <c r="BG31" s="4">
+        <f t="shared" si="98"/>
+        <v>135301.91699918915</v>
+      </c>
+      <c r="BH31" s="4">
+        <f t="shared" si="98"/>
+        <v>162957.16382123603</v>
+      </c>
+      <c r="BI31" s="4">
+        <f t="shared" si="98"/>
+        <v>195627.02951303247</v>
+      </c>
+    </row>
+    <row r="32" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -4209,104 +4350,104 @@
         <v>0</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" ref="R32:W32" si="109">+R31*0.15</f>
-        <v>1238.1497999999997</v>
+        <f>69+3</f>
+        <v>72</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="109"/>
-        <v>1927.7347500000003</v>
+        <f t="shared" ref="S32:W32" si="99">+S31*0.15</f>
+        <v>845.32087500000046</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="109"/>
-        <v>1929.3589500000016</v>
+        <f t="shared" si="99"/>
+        <v>1438.7136599999994</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="109"/>
-        <v>1509.508349999996</v>
+        <f t="shared" si="99"/>
+        <v>986.97826499999678</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="109"/>
-        <v>2243.6469749999992</v>
+        <f t="shared" si="99"/>
+        <v>1088.1518249999983</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="109"/>
-        <v>3111.7441499999973</v>
-      </c>
-      <c r="AN32" s="2">
+        <f t="shared" si="99"/>
+        <v>1627.6498627499961</v>
+      </c>
+      <c r="AS32" s="2">
         <f>167-37</f>
         <v>130</v>
       </c>
-      <c r="AO32" s="2">
+      <c r="AT32" s="2">
         <f>950+22</f>
         <v>972</v>
       </c>
-      <c r="AP32" s="2">
+      <c r="AU32" s="2">
         <f>1425+96</f>
         <v>1521</v>
       </c>
-      <c r="AQ32" s="2">
+      <c r="AV32" s="2">
         <f>769+4</f>
         <v>773</v>
       </c>
-      <c r="AR32" s="2">
+      <c r="AW32" s="2">
         <f>1197-9</f>
         <v>1188</v>
       </c>
-      <c r="AS32" s="2">
-        <f t="shared" ref="AS32" si="110">SUM(D32:G32)</f>
+      <c r="AX32" s="2">
+        <f t="shared" ref="AX32" si="100">SUM(D32:G32)</f>
         <v>2387</v>
       </c>
-      <c r="AT32" s="2">
-        <f t="shared" ref="AT32" si="111">SUM(H32:K32)</f>
+      <c r="AY32" s="2">
+        <f t="shared" ref="AY32" si="101">SUM(H32:K32)</f>
         <v>2847</v>
       </c>
-      <c r="AU32" s="2">
-        <f t="shared" ref="AU32" si="112">SUM(L32:O32)</f>
+      <c r="AZ32" s="2">
+        <f t="shared" ref="AZ32" si="102">SUM(L32:O32)</f>
         <v>4787</v>
       </c>
-      <c r="AV32" s="17">
+      <c r="BA32" s="2">
         <f>SUM(P32:S32)</f>
-        <v>1744.88455</v>
-      </c>
-      <c r="AW32" s="17">
+        <v>-503.67912499999954</v>
+      </c>
+      <c r="BB32" s="2">
         <f>SUM(T32:W32)</f>
-        <v>8794.2584249999945</v>
-      </c>
-      <c r="AX32" s="2">
-        <f>+AX31*0.15</f>
-        <v>9505.5516727875111</v>
-      </c>
-      <c r="AY32" s="2">
-        <f t="shared" ref="AY32:BD32" si="113">+AY31*0.15</f>
-        <v>12932.607409481214</v>
-      </c>
-      <c r="AZ32" s="2">
-        <f t="shared" si="113"/>
-        <v>17167.135585698546</v>
-      </c>
-      <c r="BA32" s="2">
-        <f t="shared" si="113"/>
-        <v>22420.3899678052</v>
-      </c>
-      <c r="BB32" s="2">
-        <f t="shared" si="113"/>
-        <v>26446.885248821713</v>
+        <v>5141.4936127499905</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" si="113"/>
-        <v>31174.435332639241</v>
+        <f>+BC31*0.15</f>
+        <v>5507.28464527087</v>
       </c>
       <c r="BD32" s="2">
-        <f t="shared" si="113"/>
-        <v>36735.167646861264</v>
-      </c>
-    </row>
-    <row r="33" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD32:BI32" si="103">+BD31*0.15</f>
+        <v>8474.5437805619586</v>
+      </c>
+      <c r="BE32" s="2">
+        <f t="shared" si="103"/>
+        <v>12168.025770442267</v>
+      </c>
+      <c r="BF32" s="2">
+        <f t="shared" si="103"/>
+        <v>16779.242630708115</v>
+      </c>
+      <c r="BG32" s="2">
+        <f t="shared" si="103"/>
+        <v>20295.287549878372</v>
+      </c>
+      <c r="BH32" s="2">
+        <f t="shared" si="103"/>
+        <v>24443.574573185404</v>
+      </c>
+      <c r="BI32" s="2">
+        <f t="shared" si="103"/>
+        <v>29344.05442695487</v>
+      </c>
+    </row>
+    <row r="33" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33" si="114">C31-C32</f>
+        <f t="shared" ref="C33" si="104">C31-C32</f>
         <v>3027</v>
       </c>
       <c r="D33" s="4">
@@ -4314,7 +4455,7 @@
         <v>3561</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" ref="E33" si="115">E31-E32</f>
+        <f t="shared" ref="E33" si="105">E31-E32</f>
         <v>2625</v>
       </c>
       <c r="F33" s="4">
@@ -4322,15 +4463,15 @@
         <v>2134</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33" si="116">G31-G32</f>
+        <f t="shared" ref="G33" si="106">G31-G32</f>
         <v>3268</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" ref="H33" si="117">H31-H32</f>
+        <f t="shared" ref="H33" si="107">H31-H32</f>
         <v>2535</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33" si="118">I31-I32</f>
+        <f t="shared" ref="I33" si="108">I31-I32</f>
         <v>5243</v>
       </c>
       <c r="J33" s="4">
@@ -4338,7 +4479,7 @@
         <v>6331</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="119">K31-K32</f>
+        <f t="shared" ref="K33" si="109">K31-K32</f>
         <v>7222</v>
       </c>
       <c r="L33" s="4">
@@ -4346,372 +4487,372 @@
         <v>8107</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" ref="M33:W33" si="120">M31-M32</f>
+        <f t="shared" ref="M33:W33" si="110">M31-M32</f>
         <v>7778</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="110"/>
         <v>3156</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="110"/>
         <v>14323</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="110"/>
         <v>-3844</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="110"/>
         <v>2982</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="120"/>
-        <v>7016.1821999999993</v>
+        <f t="shared" si="110"/>
+        <v>2872</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="120"/>
-        <v>10923.830250000003</v>
+        <f t="shared" si="110"/>
+        <v>4790.1516250000032</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="120"/>
-        <v>10933.034050000009</v>
+        <f t="shared" si="110"/>
+        <v>8152.7107399999968</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="120"/>
-        <v>8553.8806499999773</v>
+        <f t="shared" si="110"/>
+        <v>5592.8768349999818</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="120"/>
-        <v>12713.999524999996</v>
+        <f t="shared" si="110"/>
+        <v>6166.1936749999904</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="120"/>
-        <v>17633.216849999983</v>
-      </c>
-      <c r="AN33" s="4">
-        <f t="shared" ref="AN33:AP33" si="121">AN31-AN32</f>
+        <f t="shared" si="110"/>
+        <v>9223.3492222499772</v>
+      </c>
+      <c r="AS33" s="4">
+        <f t="shared" ref="AS33:AU33" si="111">AS31-AS32</f>
         <v>-241</v>
       </c>
-      <c r="AO33" s="4">
-        <f t="shared" si="121"/>
+      <c r="AT33" s="4">
+        <f t="shared" si="111"/>
         <v>596</v>
       </c>
-      <c r="AP33" s="4">
-        <f t="shared" si="121"/>
+      <c r="AU33" s="4">
+        <f t="shared" si="111"/>
         <v>2371</v>
       </c>
-      <c r="AQ33" s="4">
-        <f t="shared" ref="AQ33" si="122">AQ31-AQ32</f>
+      <c r="AV33" s="4">
+        <f t="shared" ref="AV33" si="112">AV31-AV32</f>
         <v>3033</v>
       </c>
-      <c r="AR33" s="4">
-        <f t="shared" ref="AR33:AS33" si="123">AR31-AR32</f>
+      <c r="AW33" s="4">
+        <f t="shared" ref="AW33:AX33" si="113">AW31-AW32</f>
         <v>10073</v>
       </c>
-      <c r="AS33" s="4">
-        <f t="shared" si="123"/>
+      <c r="AX33" s="4">
+        <f t="shared" si="113"/>
         <v>11588</v>
       </c>
-      <c r="AT33" s="4">
-        <f t="shared" ref="AT33:AW33" si="124">AT31-AT32</f>
+      <c r="AY33" s="4">
+        <f t="shared" ref="AY33:BB33" si="114">AY31-AY32</f>
         <v>21331</v>
       </c>
-      <c r="AU33" s="4">
-        <f t="shared" si="124"/>
+      <c r="AZ33" s="4">
+        <f t="shared" si="114"/>
         <v>33364</v>
       </c>
-      <c r="AV33" s="4">
-        <f t="shared" si="124"/>
-        <v>17078.012450000027</v>
-      </c>
-      <c r="AW33" s="4">
-        <f t="shared" si="124"/>
-        <v>49834.131074999881</v>
-      </c>
-      <c r="AX33" s="4">
-        <f t="shared" ref="AX33:BD33" si="125">AX31-AX32</f>
-        <v>53864.792812462561</v>
-      </c>
-      <c r="AY33" s="4">
-        <f t="shared" si="125"/>
-        <v>73284.775320393557</v>
-      </c>
-      <c r="AZ33" s="4">
-        <f t="shared" si="125"/>
-        <v>97280.434985625092</v>
-      </c>
       <c r="BA33" s="4">
-        <f t="shared" si="125"/>
-        <v>127048.87648422948</v>
+        <f t="shared" si="114"/>
+        <v>8816.1516249999295</v>
       </c>
       <c r="BB33" s="4">
-        <f t="shared" si="125"/>
-        <v>149865.68307665637</v>
+        <f t="shared" si="114"/>
+        <v>29135.130472250086</v>
       </c>
       <c r="BC33" s="4">
-        <f t="shared" si="125"/>
-        <v>176655.13355162239</v>
+        <f t="shared" ref="BC33:BI33" si="115">BC31-BC32</f>
+        <v>31207.946323201599</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="125"/>
-        <v>208165.9499988805</v>
-      </c>
-      <c r="BE33" s="2">
-        <f>+BD33*(1+$BG$45)</f>
-        <v>208165.9499988805</v>
-      </c>
-      <c r="BF33" s="2">
-        <f t="shared" ref="BF33:DN33" si="126">+BE33*(1+$BG$45)</f>
-        <v>208165.9499988805</v>
-      </c>
-      <c r="BG33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
-      </c>
-      <c r="BH33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
-      </c>
-      <c r="BI33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="115"/>
+        <v>48022.414756517763</v>
+      </c>
+      <c r="BE33" s="4">
+        <f t="shared" si="115"/>
+        <v>68952.146032506178</v>
+      </c>
+      <c r="BF33" s="4">
+        <f t="shared" si="115"/>
+        <v>95082.374907345977</v>
+      </c>
+      <c r="BG33" s="4">
+        <f t="shared" si="115"/>
+        <v>115006.62944931079</v>
+      </c>
+      <c r="BH33" s="4">
+        <f t="shared" si="115"/>
+        <v>138513.58924805062</v>
+      </c>
+      <c r="BI33" s="4">
+        <f t="shared" si="115"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BJ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f>+BI33*(1+$BL$47)</f>
+        <v>166282.97508607758</v>
       </c>
       <c r="BK33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" ref="BK33:DS33" si="116">+BJ33*(1+$BL$47)</f>
+        <v>166282.97508607758</v>
       </c>
       <c r="BL33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BM33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BN33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BO33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BP33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BQ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BR33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BS33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BT33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BU33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BV33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BW33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BX33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BY33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="BZ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CA33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CB33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CC33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CD33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CE33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CF33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CG33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CH33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CI33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CJ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CK33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CL33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CM33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CN33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CO33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CP33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CQ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CR33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CS33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CT33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CU33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CV33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CW33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CX33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CY33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="CZ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DA33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DB33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DC33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DD33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DE33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DF33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DG33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DH33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DI33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DJ33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DK33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DL33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DM33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
       </c>
       <c r="DN33" s="2">
-        <f t="shared" si="126"/>
-        <v>208165.9499988805</v>
-      </c>
-    </row>
-    <row r="34" spans="2:118" x14ac:dyDescent="0.2">
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
+      </c>
+      <c r="DO33" s="2">
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
+      </c>
+      <c r="DP33" s="2">
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
+      </c>
+      <c r="DQ33" s="2">
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
+      </c>
+      <c r="DR33" s="2">
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
+      </c>
+      <c r="DS33" s="2">
+        <f t="shared" si="116"/>
+        <v>166282.97508607758</v>
+      </c>
+    </row>
+    <row r="34" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" ref="C34" si="127">C33/C35</f>
+        <f t="shared" ref="C34" si="117">C33/C35</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="D34" s="7">
@@ -4719,7 +4860,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" ref="E34" si="128">E33/E35</f>
+        <f t="shared" ref="E34" si="118">E33/E35</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="F34" s="7">
@@ -4727,15 +4868,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34" si="129">G33/G35</f>
+        <f t="shared" ref="G34" si="119">G33/G35</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34" si="130">H33/H35</f>
+        <f t="shared" ref="H34" si="120">H33/H35</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" ref="I34" si="131">I33/I35</f>
+        <f t="shared" ref="I34" si="121">I33/I35</f>
         <v>10.300589390962672</v>
       </c>
       <c r="J34" s="7">
@@ -4743,7 +4884,7 @@
         <v>12.365234375</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" ref="K34" si="132">K33/K35</f>
+        <f t="shared" ref="K34" si="122">K33/K35</f>
         <v>14.077972709551657</v>
       </c>
       <c r="L34" s="7">
@@ -4767,103 +4908,103 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" ref="Q34:W34" si="133">Q33/Q35</f>
+        <f t="shared" ref="Q34:W34" si="123">Q33/Q35</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="133"/>
-        <v>0.68955107616707612</v>
+        <f t="shared" si="123"/>
+        <v>0.27799825767108705</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="133"/>
-        <v>1.0735951105651109</v>
+        <f t="shared" si="123"/>
+        <v>0.46366775965540635</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="133"/>
-        <v>1.0744996609336619</v>
+        <f t="shared" si="123"/>
+        <v>0.78915020230374566</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" si="133"/>
-        <v>0.84067623095822874</v>
+        <f t="shared" si="123"/>
+        <v>0.54136838979769453</v>
       </c>
       <c r="V34" s="7">
-        <f t="shared" si="133"/>
-        <v>1.2495331228501225</v>
+        <f t="shared" si="123"/>
+        <v>0.59686319572161362</v>
       </c>
       <c r="W34" s="7">
-        <f t="shared" si="133"/>
-        <v>1.7329942850122833</v>
-      </c>
-      <c r="AN34" s="7">
-        <f t="shared" ref="AN34" si="134">AN33/AN35</f>
+        <f t="shared" si="123"/>
+        <v>0.89278377913560902</v>
+      </c>
+      <c r="AS34" s="7">
+        <f t="shared" ref="AS34" si="124">AS33/AS35</f>
         <v>-0.52164502164502169</v>
       </c>
-      <c r="AO34" s="7">
-        <f t="shared" ref="AO34" si="135">AO33/AO35</f>
+      <c r="AT34" s="7">
+        <f t="shared" ref="AT34" si="125">AT33/AT35</f>
         <v>1.249475890985325</v>
       </c>
-      <c r="AP34" s="7">
-        <f t="shared" ref="AP34" si="136">AP33/AP35</f>
+      <c r="AU34" s="7">
+        <f t="shared" ref="AU34" si="126">AU33/AU35</f>
         <v>4.8987603305785123</v>
       </c>
-      <c r="AQ34" s="7">
-        <f t="shared" ref="AQ34" si="137">AQ33/AQ35</f>
+      <c r="AV34" s="7">
+        <f t="shared" ref="AV34" si="127">AV33/AV35</f>
         <v>6.1521298174442194</v>
       </c>
-      <c r="AR34" s="7">
-        <f t="shared" ref="AR34:AS34" si="138">AR33/AR35</f>
+      <c r="AW34" s="7">
+        <f t="shared" ref="AW34:AX34" si="128">AW33/AW35</f>
         <v>20.146000000000001</v>
       </c>
-      <c r="AS34" s="7">
-        <f t="shared" si="138"/>
+      <c r="AX34" s="7">
+        <f t="shared" si="128"/>
         <v>23.014895729890764</v>
       </c>
-      <c r="AT34" s="7">
-        <f>AT33/AT35</f>
+      <c r="AY34" s="7">
+        <f>AY33/AY35</f>
         <v>41.825490196078434</v>
       </c>
-      <c r="AU34" s="7">
-        <f>AU33/AU35</f>
+      <c r="AZ34" s="7">
+        <f>AZ33/AZ35</f>
         <v>11.281149619611158</v>
       </c>
-      <c r="AV34" s="7">
-        <f t="shared" ref="AV34:AW34" si="139">AV33/AV35</f>
-        <v>1.6784287420147448</v>
-      </c>
-      <c r="AW34" s="7">
-        <f t="shared" si="139"/>
-        <v>4.897703299754288</v>
-      </c>
-      <c r="AX34" s="7">
-        <f t="shared" ref="AX34" si="140">AX33/AX35</f>
-        <v>5.2938371314459518</v>
-      </c>
-      <c r="AY34" s="7">
-        <f t="shared" ref="AY34" si="141">AY33/AY35</f>
-        <v>7.2024349209232001</v>
-      </c>
-      <c r="AZ34" s="7">
-        <f t="shared" ref="AZ34" si="142">AZ33/AZ35</f>
-        <v>9.5607307111179445</v>
-      </c>
       <c r="BA34" s="7">
-        <f t="shared" ref="BA34" si="143">BA33/BA35</f>
-        <v>12.486376067246141</v>
+        <f t="shared" ref="BA34:BB34" si="129">BA33/BA35</f>
+        <v>0.8664522481572412</v>
       </c>
       <c r="BB34" s="7">
-        <f t="shared" ref="BB34" si="144">BB33/BB35</f>
-        <v>14.728814061587849</v>
+        <f t="shared" si="129"/>
+        <v>2.8201655669586763</v>
       </c>
       <c r="BC34" s="7">
-        <f t="shared" ref="BC34" si="145">BC33/BC35</f>
-        <v>17.361683887137335</v>
+        <f t="shared" ref="BC34" si="130">BC33/BC35</f>
+        <v>3.0208059552029423</v>
       </c>
       <c r="BD34" s="7">
-        <f t="shared" ref="BD34" si="146">BD33/BD35</f>
-        <v>20.458570024460002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:118" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD34" si="131">BD33/BD35</f>
+        <v>4.6483800945230627</v>
+      </c>
+      <c r="BE34" s="7">
+        <f t="shared" ref="BE34" si="132">BE33/BE35</f>
+        <v>6.6742954246932706</v>
+      </c>
+      <c r="BF34" s="7">
+        <f t="shared" ref="BF34" si="133">BF33/BF35</f>
+        <v>9.203598384217015</v>
+      </c>
+      <c r="BG34" s="7">
+        <f t="shared" ref="BG34" si="134">BG33/BG35</f>
+        <v>11.132187537441757</v>
+      </c>
+      <c r="BH34" s="7">
+        <f t="shared" ref="BH34" si="135">BH33/BH35</f>
+        <v>13.407568410420154</v>
+      </c>
+      <c r="BI34" s="7">
+        <f t="shared" ref="BI34" si="136">BI33/BI35</f>
+        <v>16.095535290492457</v>
+      </c>
+    </row>
+    <row r="35" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -4913,94 +5054,96 @@
         <v>10175</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" ref="R35:W35" si="147">+Q35</f>
-        <v>10175</v>
+        <v>10331</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="147"/>
-        <v>10175</v>
+        <f t="shared" ref="S35:W35" si="137">+R35</f>
+        <v>10331</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="147"/>
-        <v>10175</v>
+        <f t="shared" si="137"/>
+        <v>10331</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="147"/>
-        <v>10175</v>
+        <f t="shared" si="137"/>
+        <v>10331</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" si="147"/>
-        <v>10175</v>
+        <f t="shared" si="137"/>
+        <v>10331</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="147"/>
-        <v>10175</v>
-      </c>
-      <c r="AN35" s="2">
+        <f t="shared" si="137"/>
+        <v>10331</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>161.096869</v>
+      </c>
+      <c r="AS35" s="2">
         <v>462</v>
       </c>
-      <c r="AO35" s="2">
+      <c r="AT35" s="2">
         <v>477</v>
       </c>
-      <c r="AP35" s="2">
+      <c r="AU35" s="2">
         <v>484</v>
       </c>
-      <c r="AQ35" s="4">
+      <c r="AV35" s="4">
         <v>493</v>
       </c>
-      <c r="AR35" s="4">
+      <c r="AW35" s="4">
         <v>500</v>
       </c>
-      <c r="AS35" s="4">
+      <c r="AX35" s="4">
         <f>AVERAGE(D35:G35)</f>
         <v>503.5</v>
       </c>
-      <c r="AT35" s="4">
+      <c r="AY35" s="4">
         <f>AVERAGE(H35:K35)</f>
         <v>510</v>
       </c>
-      <c r="AU35" s="4">
+      <c r="AZ35" s="4">
         <f>AVERAGE(L35:O35)</f>
         <v>2957.5</v>
       </c>
-      <c r="AV35" s="2">
+      <c r="BA35" s="2">
         <f>Q35</f>
         <v>10175</v>
       </c>
-      <c r="AW35" s="2">
+      <c r="BB35" s="2">
         <f>AVERAGE(T35:W35)</f>
-        <v>10175</v>
-      </c>
-      <c r="AX35" s="2">
-        <f>+AW35</f>
-        <v>10175</v>
-      </c>
-      <c r="AY35" s="2">
-        <f t="shared" ref="AY35:BD35" si="148">+AX35</f>
-        <v>10175</v>
-      </c>
-      <c r="AZ35" s="2">
-        <f t="shared" si="148"/>
-        <v>10175</v>
-      </c>
-      <c r="BA35" s="2">
-        <f t="shared" si="148"/>
-        <v>10175</v>
-      </c>
-      <c r="BB35" s="2">
-        <f t="shared" si="148"/>
-        <v>10175</v>
+        <v>10331</v>
       </c>
       <c r="BC35" s="2">
-        <f t="shared" si="148"/>
-        <v>10175</v>
+        <f>+BB35</f>
+        <v>10331</v>
       </c>
       <c r="BD35" s="2">
-        <f t="shared" si="148"/>
-        <v>10175</v>
-      </c>
-    </row>
-    <row r="37" spans="2:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD35:BI35" si="138">+BC35</f>
+        <v>10331</v>
+      </c>
+      <c r="BE35" s="2">
+        <f t="shared" si="138"/>
+        <v>10331</v>
+      </c>
+      <c r="BF35" s="2">
+        <f t="shared" si="138"/>
+        <v>10331</v>
+      </c>
+      <c r="BG35" s="2">
+        <f t="shared" si="138"/>
+        <v>10331</v>
+      </c>
+      <c r="BH35" s="2">
+        <f t="shared" si="138"/>
+        <v>10331</v>
+      </c>
+      <c r="BI35" s="2">
+        <f t="shared" si="138"/>
+        <v>10331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
@@ -5017,31 +5160,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" ref="I37:K37" si="149">I21/E21-1</f>
+        <f t="shared" ref="I37:K37" si="139">I21/E21-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="139"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="139"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" ref="L37" si="150">L21/H21-1</f>
+        <f t="shared" ref="L37" si="140">L21/H21-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" ref="M37" si="151">M21/I21-1</f>
+        <f t="shared" ref="M37" si="141">M21/I21-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" ref="N37" si="152">N21/J21-1</f>
+        <f t="shared" ref="N37" si="142">N21/J21-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" ref="O37" si="153">O21/K21-1</f>
+        <f t="shared" ref="O37" si="143">O21/K21-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="P37" s="10">
@@ -5049,1066 +5192,1203 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" ref="Q37:W37" si="154">Q21/M21-1</f>
+        <f t="shared" ref="Q37:W37" si="144">Q21/M21-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" si="154"/>
-        <v>0.17543767822979461</v>
+        <f>R21/N21-1</f>
+        <v>0.14699671515720314</v>
       </c>
       <c r="S37" s="10">
-        <f t="shared" si="154"/>
-        <v>0.16993639565685692</v>
+        <f t="shared" si="144"/>
+        <v>7.166251855733119E-2</v>
       </c>
       <c r="T37" s="10">
-        <f t="shared" si="154"/>
-        <v>0.17874428910034013</v>
+        <f t="shared" si="144"/>
+        <v>7.9752670811720661E-2</v>
       </c>
       <c r="U37" s="10">
-        <f t="shared" si="154"/>
-        <v>0.18106224326509057</v>
+        <f t="shared" si="144"/>
+        <v>8.1178629757328702E-2</v>
       </c>
       <c r="V37" s="10">
-        <f t="shared" si="154"/>
-        <v>0.18516405814548054</v>
+        <f t="shared" si="144"/>
+        <v>0.10160337054783186</v>
       </c>
       <c r="W37" s="10">
-        <f t="shared" si="154"/>
-        <v>0.17904092538533334</v>
+        <f t="shared" si="144"/>
+        <v>7.933891776878732E-2</v>
+      </c>
+      <c r="AC37" s="15">
+        <f t="shared" ref="AC37:AD37" si="145">AC21/AB21-1</f>
+        <v>3.1263372285789677</v>
+      </c>
+      <c r="AD37" s="15">
+        <f t="shared" si="145"/>
+        <v>1.6890585567192891</v>
+      </c>
+      <c r="AE37" s="15">
+        <f t="shared" ref="AE37" si="146">AE21/AD21-1</f>
+        <v>0.68430132470321792</v>
+      </c>
+      <c r="AF37" s="15">
+        <f t="shared" ref="AF37" si="147">AF21/AE21-1</f>
+        <v>0.1305040617556299</v>
+      </c>
+      <c r="AG37" s="15">
+        <f t="shared" ref="AG37" si="148">AG21/AF21-1</f>
+        <v>0.25957418461821291</v>
+      </c>
+      <c r="AH37" s="15">
+        <f t="shared" ref="AH37" si="149">AH21/AG21-1</f>
+        <v>0.3383637567455966</v>
+      </c>
+      <c r="AI37" s="15">
+        <f t="shared" ref="AI37" si="150">AI21/AH21-1</f>
+        <v>0.31485481977597884</v>
+      </c>
+      <c r="AJ37" s="15">
+        <f t="shared" ref="AJ37" si="151">AJ21/AI21-1</f>
+        <v>0.22670134373645423</v>
+      </c>
+      <c r="AK37" s="15">
+        <f t="shared" ref="AK37" si="152">AK21/AJ21-1</f>
+        <v>0.26160188457008249</v>
+      </c>
+      <c r="AL37" s="15">
+        <f t="shared" ref="AL37" si="153">AL21/AK21-1</f>
+        <v>0.38502474092054895</v>
       </c>
       <c r="AM37" s="15">
-        <f t="shared" ref="AM37:AQ37" si="155">AM21/AL21-1</f>
+        <f t="shared" ref="AM37" si="154">AM21/AL21-1</f>
+        <v>0.29194472531176263</v>
+      </c>
+      <c r="AN37" s="15">
+        <f t="shared" ref="AN37" si="155">AN21/AM21-1</f>
+        <v>0.27877491391004905</v>
+      </c>
+      <c r="AO37" s="15">
+        <f t="shared" ref="AO37" si="156">AO21/AN21-1</f>
+        <v>0.39556897466236896</v>
+      </c>
+      <c r="AP37" s="15">
+        <f t="shared" ref="AP37" si="157">AP21/AO21-1</f>
+        <v>0.40559583674424049</v>
+      </c>
+      <c r="AQ37" s="15">
+        <f t="shared" ref="AQ37" si="158">AQ21/AP21-1</f>
+        <v>0.27073236682821311</v>
+      </c>
+      <c r="AR37" s="15">
+        <f t="shared" ref="AR37:AV37" si="159">AR21/AQ21-1</f>
         <v>0.21866662301736706</v>
       </c>
-      <c r="AN37" s="15">
-        <f t="shared" si="155"/>
+      <c r="AS37" s="15">
+        <f t="shared" si="159"/>
         <v>0.1952398861011122</v>
       </c>
-      <c r="AO37" s="15">
-        <f t="shared" si="155"/>
+      <c r="AT37" s="15">
+        <f t="shared" si="159"/>
         <v>0.20247673843664304</v>
       </c>
-      <c r="AP37" s="15">
-        <f t="shared" si="155"/>
+      <c r="AU37" s="15">
+        <f t="shared" si="159"/>
         <v>0.27083528026465808</v>
       </c>
-      <c r="AQ37" s="15">
-        <f t="shared" si="155"/>
+      <c r="AV37" s="15">
+        <f t="shared" si="159"/>
         <v>0.30796326119408479</v>
       </c>
-      <c r="AR37" s="15">
-        <f t="shared" ref="AR37" si="156">AR21/AQ21-1</f>
+      <c r="AW37" s="15">
+        <f t="shared" ref="AW37" si="160">AW21/AV21-1</f>
         <v>0.3093396152159491</v>
       </c>
-      <c r="AS37" s="15">
-        <f t="shared" ref="AS37" si="157">AS21/AR21-1</f>
+      <c r="AX37" s="15">
+        <f t="shared" ref="AX37" si="161">AX21/AW21-1</f>
         <v>0.20454125820676983</v>
       </c>
-      <c r="AT37" s="15">
-        <f t="shared" ref="AT37" si="158">AT21/AS21-1</f>
+      <c r="AY37" s="15">
+        <f t="shared" ref="AY37" si="162">AY21/AX21-1</f>
         <v>0.37623430604373276</v>
       </c>
-      <c r="AU37" s="15">
-        <f>AU21/AT21-1</f>
+      <c r="AZ37" s="15">
+        <f>AZ21/AY21-1</f>
         <v>0.21695366571345676</v>
       </c>
-      <c r="AV37" s="15">
-        <f t="shared" ref="AV37:BD37" si="159">AV21/AU21-1</f>
-        <v>0.12530681832694079</v>
-      </c>
-      <c r="AW37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.18094763340375208</v>
-      </c>
-      <c r="AX37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.10511858298502608</v>
-      </c>
-      <c r="AY37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.11355009102838709</v>
-      </c>
-      <c r="AZ37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.12291808616861499</v>
-      </c>
       <c r="BA37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.13317042984477179</v>
+        <f t="shared" ref="BA37:BI37" si="163">BA21/AZ21-1</f>
+        <v>9.4146910957766838E-2</v>
       </c>
       <c r="BB37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.10252928280077156</v>
+        <f>BB21/BA21-1</f>
+        <v>8.113853635965218E-2</v>
       </c>
       <c r="BC37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.10717321103780253</v>
+        <f t="shared" si="163"/>
+        <v>0.1060628842726743</v>
       </c>
       <c r="BD37" s="15">
-        <f t="shared" si="159"/>
-        <v>0.1119666846717271</v>
-      </c>
-    </row>
-    <row r="38" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="163"/>
+        <v>0.11462174259765412</v>
+      </c>
+      <c r="BE37" s="15">
+        <f t="shared" si="163"/>
+        <v>0.12411476994453396</v>
+      </c>
+      <c r="BF37" s="15">
+        <f t="shared" si="163"/>
+        <v>0.13448355594767492</v>
+      </c>
+      <c r="BG37" s="15">
+        <f t="shared" si="163"/>
+        <v>0.10344341530827039</v>
+      </c>
+      <c r="BH37" s="15">
+        <f t="shared" si="163"/>
+        <v>0.10811997015905717</v>
+      </c>
+      <c r="BI37" s="15">
+        <f t="shared" si="163"/>
+        <v>0.11293900125349898</v>
+      </c>
+    </row>
+    <row r="38" spans="2:123" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19">
+        <f t="shared" ref="H38:H39" si="164">+H19/D19-1</f>
+        <v>0.22045911968030807</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" ref="I38:I39" si="165">+I19/E19-1</f>
+        <v>0.40127175368139234</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" ref="J38:J39" si="166">+J19/F19-1</f>
+        <v>0.32844988168957356</v>
+      </c>
+      <c r="K38" s="19">
+        <f t="shared" ref="K38:K39" si="167">+K19/G19-1</f>
+        <v>0.40588025800324479</v>
+      </c>
+      <c r="L38" s="19">
+        <f t="shared" ref="L38:P38" si="168">+L19/H19-1</f>
+        <v>0.37403503740350375</v>
+      </c>
+      <c r="M38" s="19">
+        <f t="shared" si="168"/>
+        <v>0.15444630204601539</v>
+      </c>
+      <c r="N38" s="19">
+        <f t="shared" si="168"/>
+        <v>3.9830219426232549E-2</v>
+      </c>
+      <c r="O38" s="19">
+        <f t="shared" si="168"/>
+        <v>5.0664264805224679E-3</v>
+      </c>
+      <c r="P38" s="19">
+        <f t="shared" si="168"/>
+        <v>-1.8020211859247515E-2</v>
+      </c>
+      <c r="Q38" s="19">
+        <f>+Q19/M19-1</f>
+        <v>-2.4636231984001111E-2</v>
+      </c>
+      <c r="R38" s="19">
+        <f>+R19/N19-1</f>
+        <v>8.1347036956046281E-2</v>
+      </c>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+      <c r="AV38" s="20"/>
+      <c r="AW38" s="20"/>
+      <c r="AX38" s="20"/>
+      <c r="AY38" s="20"/>
+      <c r="AZ38" s="20"/>
+      <c r="BA38" s="20"/>
+      <c r="BB38" s="20"/>
+      <c r="BC38" s="20"/>
+      <c r="BD38" s="20"/>
+      <c r="BE38" s="20"/>
+      <c r="BF38" s="20"/>
+      <c r="BG38" s="20"/>
+      <c r="BH38" s="20"/>
+      <c r="BI38" s="20"/>
+    </row>
+    <row r="39" spans="2:123" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19">
+        <f t="shared" si="164"/>
+        <v>0.32238265727662596</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="165"/>
+        <v>0.40365906780891536</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="166"/>
+        <v>0.43351512146752613</v>
+      </c>
+      <c r="K39" s="19">
+        <f t="shared" si="167"/>
+        <v>0.47713782355332701</v>
+      </c>
+      <c r="L39" s="19">
+        <f t="shared" ref="L39" si="169">+L20/H20-1</f>
+        <v>0.5181636964089138</v>
+      </c>
+      <c r="M39" s="19">
+        <f t="shared" ref="M39" si="170">+M20/I20-1</f>
+        <v>0.42433019551049966</v>
+      </c>
+      <c r="N39" s="19">
+        <f t="shared" ref="N39" si="171">+N20/J20-1</f>
+        <v>0.28970971386410271</v>
+      </c>
+      <c r="O39" s="19">
+        <f t="shared" ref="O39" si="172">+O20/K20-1</f>
+        <v>0.21095799922934355</v>
+      </c>
+      <c r="P39" s="19">
+        <f t="shared" ref="P39:R39" si="173">+P20/L20-1</f>
+        <v>0.17563250827993016</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="173"/>
+        <v>0.17399593289273008</v>
+      </c>
+      <c r="R39" s="19">
+        <f t="shared" si="173"/>
+        <v>0.21140231693363853</v>
+      </c>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="20"/>
+      <c r="BD39" s="20"/>
+      <c r="BE39" s="20"/>
+      <c r="BF39" s="20"/>
+      <c r="BG39" s="20"/>
+      <c r="BH39" s="20"/>
+      <c r="BI39" s="20"/>
+    </row>
+    <row r="40" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19">
-        <f t="shared" ref="G38" si="160">+G12/C12-1</f>
+      <c r="G40" s="8">
+        <f t="shared" ref="G40" si="174">+G12/C12-1</f>
         <v>0.14652704535181549</v>
       </c>
-      <c r="H38" s="19">
-        <f t="shared" ref="H38" si="161">+H12/D12-1</f>
+      <c r="H40" s="8">
+        <f t="shared" ref="H40" si="175">+H12/D12-1</f>
         <v>0.24252491694352152</v>
       </c>
-      <c r="I38" s="19">
-        <f t="shared" ref="I38" si="162">+I12/E12-1</f>
+      <c r="I40" s="8">
+        <f t="shared" ref="I40" si="176">+I12/E12-1</f>
         <v>0.47798924419540789</v>
       </c>
-      <c r="J38" s="19">
-        <f t="shared" ref="J38" si="163">+J12/F12-1</f>
+      <c r="J40" s="8">
+        <f t="shared" ref="J40" si="177">+J12/F12-1</f>
         <v>0.37989097862381915</v>
       </c>
-      <c r="K38" s="19">
-        <f t="shared" ref="K38:O38" si="164">+K12/G12-1</f>
+      <c r="K40" s="8">
+        <f t="shared" ref="K40:O40" si="178">+K12/G12-1</f>
         <v>0.45543947258908823</v>
       </c>
-      <c r="L38" s="19">
-        <f t="shared" si="164"/>
+      <c r="L40" s="8">
+        <f t="shared" si="178"/>
         <v>0.44333187820582776</v>
       </c>
-      <c r="M38" s="19">
-        <f t="shared" si="164"/>
+      <c r="M40" s="8">
+        <f t="shared" si="178"/>
         <v>0.15820550810528156</v>
       </c>
-      <c r="N38" s="19">
-        <f t="shared" si="164"/>
+      <c r="N40" s="8">
+        <f t="shared" si="178"/>
         <v>3.2926577042399208E-2</v>
       </c>
-      <c r="O38" s="19">
-        <f t="shared" si="164"/>
+      <c r="O40" s="8">
+        <f t="shared" si="178"/>
         <v>-5.6583046154309313E-3</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P40" s="8">
         <f>+P12/L12-1</f>
         <v>-3.3496531256497986E-2</v>
       </c>
-      <c r="Q38" s="19">
-        <f t="shared" ref="Q38:W38" si="165">+Q12/M12-1</f>
+      <c r="Q40" s="8">
+        <f t="shared" ref="Q40:W40" si="179">+Q12/M12-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
-      <c r="R38" s="19">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S38" s="19">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="T38" s="19">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="U38" s="19">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="V38" s="19">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="W38" s="19">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20">
-        <f t="shared" ref="AS38" si="166">AS12/AR12-1</f>
+      <c r="R40" s="8">
+        <f t="shared" si="179"/>
+        <v>7.102238596772259E-2</v>
+      </c>
+      <c r="S40" s="8">
+        <f t="shared" si="179"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="T40" s="8">
+        <f t="shared" si="179"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" si="179"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V40" s="8">
+        <f t="shared" si="179"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="179"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13">
+        <f t="shared" ref="AX40" si="180">AX12/AW12-1</f>
         <v>0.14847097660728359</v>
       </c>
-      <c r="AT38" s="20">
-        <f t="shared" ref="AT38" si="167">AT12/AS12-1</f>
+      <c r="AY40" s="13">
+        <f t="shared" ref="AY40" si="181">AY12/AX12-1</f>
         <v>0.39719073679440986</v>
       </c>
-      <c r="AU38" s="20">
-        <f>AU12/AT12-1</f>
+      <c r="AZ40" s="13">
+        <f>AZ12/AY12-1</f>
         <v>0.12529072860769497</v>
       </c>
-      <c r="AV38" s="20">
-        <f t="shared" ref="AV38:BD38" si="168">AV12/AU12-1</f>
-        <v>3.389710683327718E-2</v>
-      </c>
-      <c r="AW38" s="20">
-        <f t="shared" si="168"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AX38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BA40" s="13">
+        <f t="shared" ref="BA40:BI40" si="182">BA12/AZ12-1</f>
+        <v>6.5529663402004168E-3</v>
+      </c>
+      <c r="BB40" s="13">
+        <f t="shared" si="182"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BC40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AY38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BD40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AZ38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BE40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BA38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BF40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BB38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BG40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BH40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD38" s="20">
-        <f t="shared" si="168"/>
+      <c r="BI40" s="13">
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+    <row r="41" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19">
-        <f t="shared" ref="G39:O39" si="169">+G14/C14-1</f>
+      <c r="G41" s="8">
+        <f t="shared" ref="G41:O41" si="183">+G14/C14-1</f>
         <v>0.30359411193304942</v>
       </c>
-      <c r="H39" s="19">
-        <f t="shared" si="169"/>
+      <c r="H41" s="8">
+        <f t="shared" si="183"/>
         <v>0.29961403823714217</v>
       </c>
-      <c r="I39" s="19">
-        <f t="shared" si="169"/>
+      <c r="I41" s="8">
+        <f t="shared" si="183"/>
         <v>0.52106671125229886</v>
       </c>
-      <c r="J39" s="19">
-        <f t="shared" si="169"/>
+      <c r="J41" s="8">
+        <f t="shared" si="183"/>
         <v>0.54677565849227983</v>
       </c>
-      <c r="K39" s="19">
-        <f t="shared" si="169"/>
+      <c r="K41" s="8">
+        <f t="shared" si="183"/>
         <v>0.56637624670411557</v>
       </c>
-      <c r="L39" s="19">
-        <f t="shared" si="169"/>
+      <c r="L41" s="8">
+        <f t="shared" si="183"/>
         <v>0.63747496374058987</v>
       </c>
-      <c r="M39" s="19">
-        <f t="shared" si="169"/>
+      <c r="M41" s="8">
+        <f t="shared" si="183"/>
         <v>0.37867546029128873</v>
       </c>
-      <c r="N39" s="19">
-        <f t="shared" si="169"/>
+      <c r="N41" s="8">
+        <f t="shared" si="183"/>
         <v>0.18672930123311793</v>
       </c>
-      <c r="O39" s="19">
-        <f t="shared" si="169"/>
+      <c r="O41" s="8">
+        <f t="shared" si="183"/>
         <v>0.10952537783144867</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P41" s="8">
         <f>+P14/L14-1</f>
         <v>6.8581551309629285E-2</v>
       </c>
-      <c r="Q39" s="19">
-        <f t="shared" ref="Q39:W39" si="170">+Q14/M14-1</f>
+      <c r="Q41" s="8">
+        <f t="shared" ref="Q41:W41" si="184">+Q14/M14-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
-      <c r="R39" s="19">
-        <f t="shared" si="170"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S39" s="19">
-        <f t="shared" si="170"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T39" s="19">
-        <f t="shared" si="170"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="U39" s="19">
-        <f t="shared" si="170"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="V39" s="19">
-        <f t="shared" si="170"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="W39" s="19">
-        <f t="shared" si="170"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20">
-        <f t="shared" ref="AS39" si="171">AS14/AR14-1</f>
+      <c r="R41" s="8">
+        <f t="shared" si="184"/>
+        <v>0.18200560778492503</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" si="184"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="184"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="184"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="184"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="184"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13">
+        <f t="shared" ref="AX41" si="185">AX14/AW14-1</f>
         <v>0.25771435255585451</v>
       </c>
-      <c r="AT39" s="20">
-        <f t="shared" ref="AT39" si="172">AT14/AS14-1</f>
+      <c r="AY41" s="13">
+        <f t="shared" ref="AY41" si="186">AY14/AX14-1</f>
         <v>0.4961961273041795</v>
       </c>
-      <c r="AU39" s="20">
-        <f>AU14/AT14-1</f>
+      <c r="AZ41" s="13">
+        <f>AZ14/AY14-1</f>
         <v>0.28505538495965776</v>
       </c>
-      <c r="AV39" s="20">
-        <f t="shared" ref="AV39:BD39" si="173">AV14/AU14-1</f>
-        <v>0.14348431786080518</v>
-      </c>
-      <c r="AW39" s="20">
-        <f t="shared" si="173"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AX39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BA41" s="13">
+        <f t="shared" ref="BA41:BI41" si="187">BA14/AZ14-1</f>
+        <v>8.939690033473302E-2</v>
+      </c>
+      <c r="BB41" s="13">
+        <f t="shared" si="187"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BC41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AY39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BD41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AZ39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BE41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BA39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BF41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BB39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BG41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BH41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD39" s="20">
-        <f t="shared" si="173"/>
+      <c r="BI41" s="13">
+        <f t="shared" si="187"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
+    <row r="42" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19">
-        <f t="shared" ref="G40:O41" si="174">+G15/C15-1</f>
+      <c r="G42" s="8">
+        <f>+G15/C15-1</f>
         <v>0.3223036120232381</v>
       </c>
-      <c r="H40" s="19">
-        <f t="shared" si="174"/>
+      <c r="H42" s="8">
+        <f>+H15/D15-1</f>
         <v>0.27959465684016571</v>
       </c>
-      <c r="I40" s="19">
-        <f t="shared" si="174"/>
+      <c r="I42" s="8">
+        <f>+I15/E15-1</f>
         <v>0.28699743370402042</v>
       </c>
-      <c r="J40" s="19">
-        <f t="shared" si="174"/>
+      <c r="J42" s="8">
+        <f>+J15/F15-1</f>
         <v>0.32580189630825096</v>
       </c>
-      <c r="K40" s="19">
-        <f t="shared" si="174"/>
+      <c r="K42" s="8">
+        <f>+K15/G15-1</f>
         <v>0.34880611270296091</v>
       </c>
-      <c r="L40" s="19">
-        <f t="shared" si="174"/>
+      <c r="L42" s="8">
+        <f>+L15/H15-1</f>
         <v>0.36429085673146155</v>
       </c>
-      <c r="M40" s="19">
-        <f t="shared" si="174"/>
+      <c r="M42" s="8">
+        <f>+M15/I15-1</f>
         <v>0.31555333998005985</v>
       </c>
-      <c r="N40" s="19">
-        <f t="shared" si="174"/>
+      <c r="N42" s="8">
+        <f>+N15/J15-1</f>
         <v>0.23980523432744971</v>
       </c>
-      <c r="O40" s="19">
-        <f t="shared" si="174"/>
+      <c r="O42" s="8">
+        <f>+O15/K15-1</f>
         <v>0.15040362554878905</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P42" s="8">
         <f>+P15/L15-1</f>
         <v>0.10949868073878632</v>
       </c>
-      <c r="Q40" s="19">
-        <f t="shared" ref="Q40:W41" si="175">+Q15/M15-1</f>
+      <c r="Q42" s="8">
+        <f>+Q15/M15-1</f>
         <v>0.10092206643930779</v>
       </c>
-      <c r="R40" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="V40" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="W40" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="20">
-        <f t="shared" ref="AS40" si="176">AS15/AR15-1</f>
+      <c r="R42" s="8">
+        <f>+R15/N15-1</f>
+        <v>9.2660775650466265E-2</v>
+      </c>
+      <c r="S42" s="8">
+        <f>+S15/O15-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="T42" s="8">
+        <f>+T15/P15-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="U42" s="8">
+        <f>+U15/Q15-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="V42" s="8">
+        <f>+V15/R15-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="W42" s="8">
+        <f>+W15/S15-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AW42" s="13"/>
+      <c r="AX42" s="13">
+        <f t="shared" ref="AX42" si="188">AX15/AW15-1</f>
         <v>0.35596809486835612</v>
       </c>
-      <c r="AT40" s="20">
-        <f t="shared" ref="AT40" si="177">AT15/AS15-1</f>
+      <c r="AY42" s="13">
+        <f t="shared" ref="AY42" si="189">AY15/AX15-1</f>
         <v>0.31218115564810001</v>
       </c>
-      <c r="AU40" s="20">
-        <f>AU15/AT15-1</f>
+      <c r="AZ42" s="13">
+        <f>AZ15/AY15-1</f>
         <v>0.26028484151227826</v>
       </c>
-      <c r="AV40" s="20">
-        <f t="shared" ref="AV40:BD41" si="178">AV15/AU15-1</f>
-        <v>0.1537144296147066</v>
-      </c>
-      <c r="AW40" s="20">
-        <f t="shared" si="178"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="AX40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BA42" s="13">
+        <f>BA15/AZ15-1</f>
+        <v>9.5499874087131564E-2</v>
+      </c>
+      <c r="BB42" s="13">
+        <f>BB15/BA15-1</f>
+        <v>8.0000000000000293E-2</v>
+      </c>
+      <c r="BC42" s="13">
+        <f>BC15/BB15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AY40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BD42" s="13">
+        <f>BD15/BC15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AZ40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BE42" s="13">
+        <f>BE15/BD15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BA40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BF42" s="13">
+        <f>BF15/BE15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BB40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BG42" s="13">
+        <f>BG15/BF15-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BH42" s="13">
+        <f>BH15/BG15-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD40" s="20">
-        <f t="shared" si="178"/>
+      <c r="BI42" s="13">
+        <f>BI15/BH15-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:118" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
+    <row r="43" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19">
-        <f t="shared" si="174"/>
+      <c r="G43" s="8">
+        <f>+G16/C16-1</f>
         <v>0.41145218417945695</v>
       </c>
-      <c r="H41" s="19">
-        <f t="shared" si="174"/>
+      <c r="H43" s="8">
+        <f>+H16/D16-1</f>
         <v>0.43814432989690721</v>
       </c>
-      <c r="I41" s="19">
-        <f t="shared" si="174"/>
+      <c r="I43" s="8">
+        <f>+I16/E16-1</f>
         <v>0.40606262491672229</v>
       </c>
-      <c r="J41" s="19">
-        <f t="shared" si="174"/>
+      <c r="J43" s="8">
+        <f>+J16/F16-1</f>
         <v>0.50529838259899607</v>
       </c>
-      <c r="K41" s="19">
-        <f t="shared" si="174"/>
+      <c r="K43" s="8">
+        <f>+K16/G16-1</f>
         <v>0.53701380175658731</v>
       </c>
-      <c r="L41" s="19">
-        <f t="shared" si="174"/>
+      <c r="L43" s="8">
+        <f>+L16/H16-1</f>
         <v>0.63364055299539168</v>
       </c>
-      <c r="M41" s="19">
-        <f t="shared" si="174"/>
+      <c r="M43" s="8">
+        <f>+M16/I16-1</f>
         <v>0.76522151149016815</v>
       </c>
-      <c r="N41" s="19">
-        <f t="shared" si="174"/>
+      <c r="N43" s="8">
+        <f>+N16/J16-1</f>
         <v>0.41015190811411628</v>
       </c>
-      <c r="O41" s="19">
-        <f t="shared" si="174"/>
+      <c r="O43" s="8">
+        <f>+O16/K16-1</f>
         <v>0.32190476190476192</v>
       </c>
-      <c r="P41" s="19">
-        <f t="shared" ref="P41" si="179">+P16/L16-1</f>
+      <c r="P43" s="8">
+        <f t="shared" ref="P43" si="190">+P16/L16-1</f>
         <v>0.23444601159692846</v>
       </c>
-      <c r="Q41" s="19">
-        <f t="shared" si="175"/>
+      <c r="Q43" s="8">
+        <f>+Q16/M16-1</f>
         <v>0.17527848610924712</v>
       </c>
-      <c r="R41" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S41" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T41" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="U41" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="V41" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="W41" s="19">
-        <f t="shared" si="175"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20">
-        <f t="shared" ref="AS41" si="180">AS16/AR16-1</f>
+      <c r="R43" s="8">
+        <f>+R16/N16-1</f>
+        <v>0.25433526011560703</v>
+      </c>
+      <c r="S43" s="8">
+        <f>+S16/O16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T43" s="8">
+        <f>+T16/P16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U43" s="8">
+        <f>+U16/Q16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V43" s="8">
+        <f>+V16/R16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="W43" s="8">
+        <f>+W16/S16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AW43" s="13"/>
+      <c r="AX43" s="13">
+        <f t="shared" ref="AX43" si="191">AX16/AW16-1</f>
         <v>0.39354966363276622</v>
       </c>
-      <c r="AT41" s="20">
-        <f t="shared" ref="AT41:AU41" si="181">AT16/AS16-1</f>
+      <c r="AY43" s="13">
+        <f t="shared" ref="AY43:AZ43" si="192">AY16/AX16-1</f>
         <v>0.4819679114013915</v>
       </c>
-      <c r="AU41" s="20">
-        <f t="shared" si="181"/>
+      <c r="AZ43" s="13">
+        <f t="shared" si="192"/>
         <v>0.49269461077844312</v>
       </c>
-      <c r="AV41" s="20">
-        <f t="shared" si="178"/>
-        <v>0.20114249037227205</v>
-      </c>
-      <c r="AW41" s="20">
-        <f t="shared" si="178"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AX41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BA43" s="13">
+        <f>BA16/AZ16-1</f>
+        <v>0.18323491655969182</v>
+      </c>
+      <c r="BB43" s="13">
+        <f>BB16/BA16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AY41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BC43" s="13">
+        <f>BC16/BB16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AZ41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BD43" s="13">
+        <f>BD16/BC16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BA41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BE43" s="13">
+        <f>BE16/BD16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BB41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BF43" s="13">
+        <f>BF16/BE16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BG43" s="13">
+        <f>BG16/BF16-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BH43" s="13">
+        <f>BH16/BG16-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD41" s="20">
-        <f t="shared" si="178"/>
+      <c r="BI43" s="13">
+        <f>BI16/BH16-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="8">
-        <f t="shared" ref="G42:H42" si="182">G10/C10-1</f>
+      <c r="G44" s="8">
+        <f t="shared" ref="G44:H44" si="193">G10/C10-1</f>
         <v>0.33970390309555865</v>
       </c>
-      <c r="H42" s="8">
-        <f t="shared" si="182"/>
+      <c r="H44" s="8">
+        <f t="shared" si="193"/>
         <v>0.32783264033264037</v>
       </c>
-      <c r="I42" s="8">
-        <f t="shared" ref="I42" si="183">I10/E10-1</f>
+      <c r="I44" s="8">
+        <f t="shared" ref="I44" si="194">I10/E10-1</f>
         <v>0.28958358191146649</v>
       </c>
-      <c r="J42" s="8">
-        <f t="shared" ref="J42" si="184">J10/F10-1</f>
+      <c r="J44" s="8">
+        <f t="shared" ref="J44" si="195">J10/F10-1</f>
         <v>0.28971650917176217</v>
       </c>
-      <c r="K42" s="8">
-        <f t="shared" ref="K42" si="185">K10/G10-1</f>
+      <c r="K44" s="8">
+        <f t="shared" ref="K44" si="196">K10/G10-1</f>
         <v>0.28008840667068524</v>
       </c>
-      <c r="L42" s="8">
-        <f t="shared" ref="L42" si="186">L10/H10-1</f>
+      <c r="L44" s="8">
+        <f t="shared" ref="L44" si="197">L10/H10-1</f>
         <v>0.32136216850963883</v>
       </c>
-      <c r="M42" s="8">
-        <f t="shared" ref="M42" si="187">M10/I10-1</f>
+      <c r="M44" s="8">
+        <f t="shared" ref="M44" si="198">M10/I10-1</f>
         <v>0.37018874907475952</v>
       </c>
-      <c r="N42" s="8">
-        <f t="shared" ref="N42" si="188">N10/J10-1</f>
+      <c r="N44" s="8">
+        <f t="shared" ref="N44" si="199">N10/J10-1</f>
         <v>0.3886733902249806</v>
       </c>
-      <c r="O42" s="8">
-        <f t="shared" ref="O42" si="189">O10/K10-1</f>
+      <c r="O44" s="8">
+        <f t="shared" ref="O44" si="200">O10/K10-1</f>
         <v>0.39538533982106427</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P44" s="8">
         <f>P10/L10-1</f>
         <v>0.36569651188624741</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q44" s="8">
         <f>Q10/M10-1</f>
         <v>0.33290566547369838</v>
       </c>
-      <c r="R42" s="8">
-        <f t="shared" ref="R42:W42" si="190">R10/N10-1</f>
+      <c r="R44" s="8">
+        <f>R10/N10-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="S42" s="8">
-        <f t="shared" si="190"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="T42" s="8">
-        <f t="shared" si="190"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="U42" s="8">
-        <f t="shared" si="190"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="V42" s="8">
-        <f t="shared" si="190"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="W42" s="8">
-        <f t="shared" si="190"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AO42" s="13">
-        <f t="shared" ref="AO42:AQ42" si="191">AO10/AN10-1</f>
+      <c r="S44" s="8">
+        <f t="shared" ref="S44:W44" si="201">S10/O10-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T44" s="8">
+        <f t="shared" si="201"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="U44" s="8">
+        <f t="shared" si="201"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V44" s="8">
+        <f t="shared" si="201"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="W44" s="8">
+        <f t="shared" si="201"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AT44" s="13">
+        <f t="shared" ref="AT44:AV44" si="202">AT10/AS10-1</f>
         <v>0.69681309216192933</v>
       </c>
-      <c r="AP42" s="13">
-        <f t="shared" si="191"/>
+      <c r="AU44" s="13">
+        <f t="shared" si="202"/>
         <v>0.55063451776649752</v>
       </c>
-      <c r="AQ42" s="13">
-        <f t="shared" si="191"/>
+      <c r="AV44" s="13">
+        <f t="shared" si="202"/>
         <v>0.42884033063262139</v>
       </c>
-      <c r="AR42" s="13">
-        <f t="shared" ref="AR42" si="192">AR10/AQ10-1</f>
+      <c r="AW44" s="13">
+        <f t="shared" ref="AW44" si="203">AW10/AV10-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="AS42" s="13">
-        <f t="shared" ref="AS42" si="193">AS10/AR10-1</f>
+      <c r="AX44" s="13">
+        <f t="shared" ref="AX44" si="204">AX10/AW10-1</f>
         <v>0.36526992788930035</v>
       </c>
-      <c r="AT42" s="13">
-        <f t="shared" ref="AT42" si="194">AT10/AS10-1</f>
+      <c r="AY44" s="13">
+        <f t="shared" ref="AY44" si="205">AY10/AX10-1</f>
         <v>0.29532347399074976</v>
       </c>
-      <c r="AU42" s="13">
-        <f>AU10/AT10-1</f>
+      <c r="AZ44" s="13">
+        <f>AZ10/AY10-1</f>
         <v>0.37099404893101173</v>
       </c>
-      <c r="AV42" s="13">
-        <f t="shared" ref="AV42:BD42" si="195">AV10/AU10-1</f>
-        <v>0.37657953120478438</v>
-      </c>
-      <c r="AW42" s="13">
-        <f t="shared" si="195"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AX42" s="13">
-        <f t="shared" si="195"/>
+      <c r="BA44" s="13">
+        <f t="shared" ref="BA44:BI44" si="206">BA10/AZ10-1</f>
+        <v>0.34799524131056869</v>
+      </c>
+      <c r="BB44" s="13">
+        <f t="shared" si="206"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="BC44" s="13">
+        <f t="shared" si="206"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AY42" s="13">
-        <f t="shared" si="195"/>
+      <c r="BD44" s="13">
+        <f t="shared" si="206"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AZ42" s="13">
-        <f t="shared" si="195"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="BA42" s="13">
-        <f t="shared" si="195"/>
+      <c r="BE44" s="13">
+        <f t="shared" si="206"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BB42" s="13">
-        <f t="shared" si="195"/>
+      <c r="BF44" s="13">
+        <f t="shared" si="206"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="BG44" s="13">
+        <f t="shared" si="206"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="BC42" s="13">
-        <f t="shared" si="195"/>
+      <c r="BH44" s="13">
+        <f t="shared" si="206"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="BD42" s="13">
-        <f t="shared" si="195"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+      <c r="BI44" s="13">
+        <f t="shared" si="206"/>
+        <v>0.19999999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="8">
-        <f t="shared" ref="C43:H43" si="196">C24/C21</f>
+      <c r="C45" s="21">
+        <f t="shared" ref="C45:H45" si="207">C24/C21</f>
         <v>0.24272273876462705</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" si="196"/>
+      <c r="D45" s="21">
+        <f t="shared" si="207"/>
         <v>0.28775544388609714</v>
       </c>
-      <c r="E43" s="8">
-        <f t="shared" si="196"/>
+      <c r="E45" s="21">
+        <f t="shared" si="207"/>
         <v>0.28067629802536115</v>
       </c>
-      <c r="F43" s="8">
-        <f t="shared" si="196"/>
+      <c r="F45" s="21">
+        <f t="shared" si="207"/>
         <v>0.26452894357039769</v>
       </c>
-      <c r="G43" s="8">
-        <f t="shared" si="196"/>
+      <c r="G45" s="21">
+        <f t="shared" si="207"/>
         <v>0.24323798849457323</v>
       </c>
-      <c r="H43" s="8">
-        <f t="shared" si="196"/>
+      <c r="H45" s="21">
+        <f t="shared" si="207"/>
         <v>0.26061602078142393</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I45" s="21">
         <f>I24/I21</f>
         <v>0.25245186251574592</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J45" s="21">
         <f>J24/J21</f>
         <v>0.25309688491341203</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K45" s="21">
         <f>K24/K21</f>
         <v>0.22139301501334077</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L45" s="21">
         <f>L24/L21</f>
         <v>0.2726275825208721</v>
       </c>
-      <c r="M43" s="8">
-        <f t="shared" ref="M43:P43" si="197">M24/M21</f>
+      <c r="M45" s="21">
+        <f t="shared" ref="M45:P45" si="208">M24/M21</f>
         <v>0.27649451715599577</v>
       </c>
-      <c r="N43" s="8">
-        <f t="shared" si="197"/>
+      <c r="N45" s="21">
+        <f t="shared" si="208"/>
         <v>0.26516983720174708</v>
       </c>
-      <c r="O43" s="8">
-        <f t="shared" si="197"/>
+      <c r="O45" s="21">
+        <f t="shared" si="208"/>
         <v>0.23383692836142403</v>
       </c>
-      <c r="P43" s="8">
-        <f t="shared" si="197"/>
+      <c r="P45" s="21">
+        <f t="shared" si="208"/>
         <v>0.25483494211809971</v>
       </c>
-      <c r="Q43" s="8">
-        <f t="shared" ref="Q43:W43" si="198">Q24/Q21</f>
+      <c r="Q45" s="21">
+        <f t="shared" ref="Q45:W45" si="209">Q24/Q21</f>
         <v>0.2843096821023805</v>
       </c>
-      <c r="R43" s="8">
-        <f t="shared" si="198"/>
-        <v>0.29110192042231786</v>
-      </c>
-      <c r="S43" s="8">
-        <f t="shared" si="198"/>
-        <v>0.27181337407231626</v>
-      </c>
-      <c r="T43" s="8">
-        <f t="shared" si="198"/>
-        <v>0.29614581185609268</v>
-      </c>
-      <c r="U43" s="8">
-        <f t="shared" si="198"/>
-        <v>0.30436895929668545</v>
-      </c>
-      <c r="V43" s="8">
-        <f t="shared" si="198"/>
-        <v>0.30447467686549323</v>
-      </c>
-      <c r="W43" s="8">
-        <f t="shared" si="198"/>
-        <v>0.28476139444614407</v>
-      </c>
-      <c r="AN43" s="14">
-        <f t="shared" ref="AN43:AP43" si="199">AN24/AN21</f>
+      <c r="R45" s="21">
+        <f>R24/R21</f>
+        <v>0.28520625329462396</v>
+      </c>
+      <c r="S45" s="8">
+        <f t="shared" si="209"/>
+        <v>0.2574637056853934</v>
+      </c>
+      <c r="T45" s="8">
+        <f t="shared" si="209"/>
+        <v>0.29728076320568275</v>
+      </c>
+      <c r="U45" s="8">
+        <f t="shared" si="209"/>
+        <v>0.30591126068381436</v>
+      </c>
+      <c r="V45" s="8">
+        <f t="shared" si="209"/>
+        <v>0.31044266434805606</v>
+      </c>
+      <c r="W45" s="8">
+        <f t="shared" si="209"/>
+        <v>0.28704604899058983</v>
+      </c>
+      <c r="AS45" s="14">
+        <f t="shared" ref="AS45:AU45" si="210">AS24/AS21</f>
         <v>0.17384366431428958</v>
       </c>
-      <c r="AO43" s="14">
-        <f t="shared" si="199"/>
+      <c r="AT45" s="14">
+        <f t="shared" si="210"/>
         <v>0.20508195802104554</v>
       </c>
-      <c r="AP43" s="14">
-        <f t="shared" si="199"/>
+      <c r="AU45" s="14">
+        <f t="shared" si="210"/>
         <v>0.22136674829211617</v>
       </c>
-      <c r="AQ43" s="14">
-        <f t="shared" ref="AQ43" si="200">AQ24/AQ21</f>
+      <c r="AV45" s="14">
+        <f t="shared" ref="AV45" si="211">AV24/AV21</f>
         <v>0.22872836854710848</v>
       </c>
-      <c r="AR43" s="14">
-        <f t="shared" ref="AR43:AS43" si="201">AR24/AR21</f>
+      <c r="AW45" s="14">
+        <f t="shared" ref="AW45:AX45" si="212">AW24/AW21</f>
         <v>0.25636467471348767</v>
       </c>
-      <c r="AS43" s="14">
-        <f t="shared" si="201"/>
+      <c r="AX45" s="14">
+        <f t="shared" si="212"/>
         <v>0.26648533804835273</v>
       </c>
-      <c r="AT43" s="14">
-        <f t="shared" ref="AT43" si="202">AT24/AT21</f>
+      <c r="AY45" s="14">
+        <f t="shared" ref="AY45" si="213">AY24/AY21</f>
         <v>0.24410719466202496</v>
       </c>
-      <c r="AU43" s="14">
-        <f>AU24/AU21</f>
+      <c r="AZ45" s="14">
+        <f>AZ24/AZ21</f>
         <v>0.26045395915900066</v>
       </c>
-      <c r="AV43" s="14">
-        <f t="shared" ref="AV43:BD43" si="203">AV24/AV21</f>
-        <v>0.27569146721760934</v>
-      </c>
-      <c r="AW43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.29663477138286637</v>
-      </c>
-      <c r="AX43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.27949655950064917</v>
-      </c>
-      <c r="AY43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.28512101638173654</v>
-      </c>
-      <c r="AZ43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.29045062098566982</v>
-      </c>
-      <c r="BA43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.29538720155996645</v>
-      </c>
-      <c r="BB43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.29560697530887214</v>
-      </c>
-      <c r="BC43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.29583382628869748</v>
-      </c>
-      <c r="BD43" s="14">
-        <f t="shared" si="203"/>
-        <v>0.2960659950903482</v>
-      </c>
-      <c r="BF43" t="s">
+      <c r="BA45" s="14">
+        <f t="shared" ref="BA45:BI45" si="214">BA24/BA21</f>
+        <v>0.27297101732192519</v>
+      </c>
+      <c r="BB45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.2997051324776514</v>
+      </c>
+      <c r="BC45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.280841254152292</v>
+      </c>
+      <c r="BD45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.28634287952916154</v>
+      </c>
+      <c r="BE45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.29153999288615529</v>
+      </c>
+      <c r="BF45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.29633607444567234</v>
+      </c>
+      <c r="BG45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.29651353048224111</v>
+      </c>
+      <c r="BH45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.2966963929066983</v>
+      </c>
+      <c r="BI45" s="14">
+        <f t="shared" si="214"/>
+        <v>0.29688321871723428</v>
+      </c>
+      <c r="BK45" t="s">
         <v>77</v>
       </c>
-      <c r="BG43" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="BF44" t="s">
+      <c r="BL45" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="BK46" t="s">
         <v>76</v>
       </c>
-      <c r="BG44" s="13">
+      <c r="BL46" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P45" s="4">
-        <f>+P46-P59</f>
+      <c r="P47" s="4">
+        <f>+P48-P61</f>
         <v>18829</v>
       </c>
-      <c r="Q45" s="4">
-        <f t="shared" ref="Q45:W45" si="204">+P45+Q33</f>
-        <v>21811</v>
-      </c>
-      <c r="R45" s="4">
-        <f t="shared" si="204"/>
-        <v>28827.182199999999</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="204"/>
-        <v>39751.012450000002</v>
-      </c>
-      <c r="T45" s="4">
-        <f t="shared" si="204"/>
-        <v>50684.046500000011</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="204"/>
-        <v>59237.927149999989</v>
-      </c>
-      <c r="V45" s="4">
-        <f t="shared" si="204"/>
-        <v>71951.926674999981</v>
-      </c>
-      <c r="W45" s="4">
-        <f t="shared" si="204"/>
-        <v>89585.143524999963</v>
-      </c>
-      <c r="X45" s="4"/>
-      <c r="AV45" s="2">
-        <f>+S45</f>
-        <v>39751.012450000002</v>
-      </c>
-      <c r="AW45" s="2">
-        <f>+W45</f>
-        <v>89585.143524999963</v>
-      </c>
-      <c r="AX45" s="2">
-        <f>+AW45+AX33</f>
-        <v>143449.93633746251</v>
-      </c>
-      <c r="AY45" s="2">
-        <f t="shared" ref="AY45:BD45" si="205">+AX45+AY33</f>
-        <v>216734.71165785607</v>
-      </c>
-      <c r="AZ45" s="2">
-        <f t="shared" si="205"/>
-        <v>314015.14664348116</v>
-      </c>
-      <c r="BA45" s="2">
-        <f t="shared" si="205"/>
-        <v>441064.02312771062</v>
-      </c>
-      <c r="BB45" s="2">
-        <f t="shared" si="205"/>
-        <v>590929.70620436699</v>
-      </c>
-      <c r="BC45" s="2">
-        <f t="shared" si="205"/>
-        <v>767584.83975598938</v>
-      </c>
-      <c r="BD45" s="2">
-        <f t="shared" si="205"/>
-        <v>975750.78975486988</v>
-      </c>
-      <c r="BF45" t="s">
+      <c r="Q47" s="4">
+        <f>+Q48-Q61</f>
+        <v>2657</v>
+      </c>
+      <c r="R47" s="4">
+        <f>+R48-R61</f>
+        <v>-257</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" ref="S47:W47" si="215">+R47+S33</f>
+        <v>4533.1516250000032</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="215"/>
+        <v>12685.862365000001</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="215"/>
+        <v>18278.739199999982</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="215"/>
+        <v>24444.932874999973</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="215"/>
+        <v>33668.282097249947</v>
+      </c>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="BA47" s="2">
+        <f>+S47</f>
+        <v>4533.1516250000032</v>
+      </c>
+      <c r="BB47" s="2">
+        <f>+W47</f>
+        <v>33668.282097249947</v>
+      </c>
+      <c r="BC47" s="2">
+        <f>+BB47+BC33</f>
+        <v>64876.228420451545</v>
+      </c>
+      <c r="BD47" s="2">
+        <f t="shared" ref="BD47:BI47" si="216">+BC47+BD33</f>
+        <v>112898.64317696932</v>
+      </c>
+      <c r="BE47" s="2">
+        <f t="shared" si="216"/>
+        <v>181850.78920947551</v>
+      </c>
+      <c r="BF47" s="2">
+        <f t="shared" si="216"/>
+        <v>276933.16411682148</v>
+      </c>
+      <c r="BG47" s="2">
+        <f t="shared" si="216"/>
+        <v>391939.79356613226</v>
+      </c>
+      <c r="BH47" s="2">
+        <f t="shared" si="216"/>
+        <v>530453.3828141829</v>
+      </c>
+      <c r="BI47" s="2">
+        <f t="shared" si="216"/>
+        <v>696736.35790026048</v>
+      </c>
+      <c r="BK47" t="s">
         <v>78</v>
       </c>
-      <c r="BG45" s="13">
+      <c r="BL47" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4">
-        <f>36393+29992</f>
-        <v>66385</v>
-      </c>
-      <c r="Q46" s="4">
-        <f>37478+23232</f>
-        <v>60710</v>
-      </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="BF46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG46" s="2">
-        <f>NPV(BG43,AW33:DN33)+Main!K5-Main!K6</f>
-        <v>2356617.7507874882</v>
-      </c>
-    </row>
-    <row r="47" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4">
-        <v>34987</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>38153</v>
-      </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="BG47" s="1">
-        <f>+BG46/Main!K3</f>
-        <v>231.32319706625486</v>
-      </c>
-    </row>
-    <row r="48" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -6124,17 +6404,29 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4">
-        <v>32504</v>
+        <f>36393+29992</f>
+        <v>66385</v>
       </c>
       <c r="Q48" s="4">
-        <v>34804</v>
-      </c>
-      <c r="R48" s="4"/>
+        <f>37478+23232</f>
+        <v>60710</v>
+      </c>
+      <c r="R48" s="4">
+        <f>34947+23715</f>
+        <v>58662</v>
+      </c>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BK48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL48" s="2">
+        <f>NPV(BL45,BB33:DS33)+Main!K5-Main!K6</f>
+        <v>1563584.2438406674</v>
+      </c>
+    </row>
+    <row r="49" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -6150,17 +6442,23 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4">
-        <v>168468</v>
+        <v>34987</v>
       </c>
       <c r="Q49" s="4">
-        <v>173706</v>
-      </c>
-      <c r="R49" s="4"/>
+        <v>38153</v>
+      </c>
+      <c r="R49" s="4">
+        <v>36647</v>
+      </c>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BL49" s="1">
+        <f>+BL48/Main!K3</f>
+        <v>151.34877977356186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -6176,17 +6474,19 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4">
-        <v>56161</v>
+        <v>32504</v>
       </c>
       <c r="Q50" s="4">
-        <v>58430</v>
-      </c>
-      <c r="R50" s="4"/>
+        <v>34804</v>
+      </c>
+      <c r="R50" s="4">
+        <v>36154</v>
+      </c>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -6202,17 +6502,19 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4">
-        <v>20229</v>
+        <v>168468</v>
       </c>
       <c r="Q51" s="4">
-        <v>20195</v>
-      </c>
-      <c r="R51" s="4"/>
+        <v>173706</v>
+      </c>
+      <c r="R51" s="4">
+        <v>177195</v>
+      </c>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -6228,17 +6530,19 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4">
-        <v>32033</v>
+        <v>56161</v>
       </c>
       <c r="Q52" s="4">
-        <v>33730</v>
-      </c>
-      <c r="R52" s="4"/>
+        <v>58430</v>
+      </c>
+      <c r="R52" s="4">
+        <v>62033</v>
+      </c>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -6254,19 +6558,47 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4">
-        <f>SUM(P46:P52)</f>
-        <v>410767</v>
+        <v>20229</v>
       </c>
       <c r="Q53" s="4">
-        <f>SUM(Q46:Q52)</f>
-        <v>419728</v>
-      </c>
-      <c r="R53" s="4"/>
+        <v>20195</v>
+      </c>
+      <c r="R53" s="4">
+        <v>20168</v>
+      </c>
       <c r="S53" s="4"/>
     </row>
-    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4">
+        <v>32033</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>33730</v>
+      </c>
+      <c r="R54" s="4">
+        <v>37503</v>
+      </c>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6282,43 +6614,22 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4">
-        <v>68547</v>
+        <f>SUM(P48:P54)</f>
+        <v>410767</v>
       </c>
       <c r="Q55" s="4">
-        <v>71219</v>
-      </c>
-      <c r="R55" s="4"/>
+        <f>SUM(Q48:Q54)</f>
+        <v>419728</v>
+      </c>
+      <c r="R55" s="4">
+        <f>SUM(R48:R54)</f>
+        <v>428362</v>
+      </c>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4">
-        <v>58141</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>56254</v>
-      </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -6334,17 +6645,19 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4">
-        <v>12820</v>
+        <v>68547</v>
       </c>
       <c r="Q57" s="4">
-        <v>12818</v>
-      </c>
-      <c r="R57" s="4"/>
+        <v>71219</v>
+      </c>
+      <c r="R57" s="4">
+        <v>67760</v>
+      </c>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -6360,17 +6673,19 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4">
-        <v>65731</v>
+        <v>58141</v>
       </c>
       <c r="Q58" s="4">
-        <v>66524</v>
-      </c>
-      <c r="R58" s="4"/>
+        <v>56254</v>
+      </c>
+      <c r="R58" s="4">
+        <v>59974</v>
+      </c>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -6386,17 +6701,19 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4">
-        <v>47556</v>
+        <v>12820</v>
       </c>
       <c r="Q59" s="4">
-        <v>58053</v>
-      </c>
-      <c r="R59" s="4"/>
+        <v>12818</v>
+      </c>
+      <c r="R59" s="4">
+        <v>12629</v>
+      </c>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -6412,17 +6729,19 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4">
-        <v>23971</v>
+        <v>65731</v>
       </c>
       <c r="Q60" s="4">
-        <v>23458</v>
-      </c>
-      <c r="R60" s="4"/>
+        <v>66524</v>
+      </c>
+      <c r="R60" s="4">
+        <v>69332</v>
+      </c>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -6438,17 +6757,19 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4">
-        <v>134001</v>
+        <v>47556</v>
       </c>
       <c r="Q61" s="4">
-        <v>131402</v>
-      </c>
-      <c r="R61" s="4"/>
+        <v>58053</v>
+      </c>
+      <c r="R61" s="4">
+        <v>58919</v>
+      </c>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -6464,19 +6785,47 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4">
-        <f>SUM(P55:P61)</f>
-        <v>410767</v>
+        <v>23971</v>
       </c>
       <c r="Q62" s="4">
-        <f>SUM(Q55:Q61)</f>
-        <v>419728</v>
-      </c>
-      <c r="R62" s="4"/>
+        <v>23458</v>
+      </c>
+      <c r="R62" s="4">
+        <v>22259</v>
+      </c>
       <c r="S62" s="4"/>
     </row>
-    <row r="64" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4">
+        <v>134001</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>131402</v>
+      </c>
+      <c r="R63" s="4">
+        <v>137489</v>
+      </c>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -6492,45 +6841,22 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4">
-        <f>+P33</f>
-        <v>-3844</v>
+        <f>SUM(P57:P63)</f>
+        <v>410767</v>
       </c>
       <c r="Q64" s="4">
-        <f>+Q33</f>
-        <v>2982</v>
-      </c>
-      <c r="R64" s="4"/>
+        <f>SUM(Q57:Q63)</f>
+        <v>419728</v>
+      </c>
+      <c r="R64" s="4">
+        <f>SUM(R57:R63)</f>
+        <v>428362</v>
+      </c>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4">
-        <v>-3844</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>-2028</v>
-      </c>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
     </row>
     <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -6546,17 +6872,22 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4">
-        <v>8978</v>
+        <f>+P33</f>
+        <v>-3844</v>
       </c>
       <c r="Q66" s="4">
-        <v>9594</v>
-      </c>
-      <c r="R66" s="4"/>
+        <f>+Q33</f>
+        <v>2982</v>
+      </c>
+      <c r="R66" s="4">
+        <f>+R33</f>
+        <v>2872</v>
+      </c>
       <c r="S66" s="4"/>
     </row>
     <row r="67" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6572,17 +6903,19 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4">
-        <v>3250</v>
+        <v>-3844</v>
       </c>
       <c r="Q67" s="4">
-        <v>5209</v>
-      </c>
-      <c r="R67" s="4"/>
+        <v>-2028</v>
+      </c>
+      <c r="R67" s="4">
+        <v>2872</v>
+      </c>
       <c r="S67" s="4"/>
     </row>
     <row r="68" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -6598,17 +6931,19 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4">
-        <v>215</v>
+        <v>8978</v>
       </c>
       <c r="Q68" s="4">
-        <v>122</v>
-      </c>
-      <c r="R68" s="4"/>
+        <v>9594</v>
+      </c>
+      <c r="R68" s="4">
+        <v>10204</v>
+      </c>
       <c r="S68" s="4"/>
     </row>
     <row r="69" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -6624,17 +6959,19 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4">
-        <v>8689</v>
+        <v>3250</v>
       </c>
       <c r="Q69" s="4">
-        <v>6104</v>
-      </c>
-      <c r="R69" s="4"/>
+        <v>5209</v>
+      </c>
+      <c r="R69" s="4">
+        <v>5556</v>
+      </c>
       <c r="S69" s="4"/>
     </row>
     <row r="70" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6650,17 +6987,19 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4">
-        <v>-2001</v>
+        <v>215</v>
       </c>
       <c r="Q70" s="4">
-        <v>-1955</v>
-      </c>
-      <c r="R70" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="R70" s="4">
+        <v>123</v>
+      </c>
       <c r="S70" s="4"/>
     </row>
     <row r="71" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6676,19 +7015,19 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4">
-        <f>-2614-1516-9380-5903+1336</f>
-        <v>-18077</v>
+        <v>8689</v>
       </c>
       <c r="Q71" s="4">
-        <f>-3890-6799+3699-1412+321</f>
-        <v>-8081</v>
-      </c>
-      <c r="R71" s="4"/>
+        <v>6104</v>
+      </c>
+      <c r="R71" s="4">
+        <v>-1272</v>
+      </c>
       <c r="S71" s="4"/>
     </row>
     <row r="72" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6704,17 +7043,20 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4">
-        <f>SUM(P65:P71)</f>
-        <v>-2790</v>
+        <v>-2001</v>
       </c>
       <c r="Q72" s="4">
-        <f>SUM(Q65:Q71)</f>
-        <v>8965</v>
-      </c>
-      <c r="R72" s="4"/>
+        <v>-1955</v>
+      </c>
+      <c r="R72" s="4">
+        <v>-825</v>
+      </c>
       <c r="S72" s="4"/>
     </row>
     <row r="73" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -6728,14 +7070,23 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
+      <c r="P73" s="4">
+        <f>-2614-1516-9380-5903+1336</f>
+        <v>-18077</v>
+      </c>
+      <c r="Q73" s="4">
+        <f>-3890-6799+3699-1412+321</f>
+        <v>-8081</v>
+      </c>
+      <c r="R73" s="4">
+        <f>732-4794-1226-20+54</f>
+        <v>-5254</v>
+      </c>
       <c r="S73" s="4"/>
     </row>
     <row r="74" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6751,18 +7102,20 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4">
-        <v>-14951</v>
+        <f>SUM(P67:P73)</f>
+        <v>-2790</v>
       </c>
       <c r="Q74" s="4">
-        <v>-15724</v>
-      </c>
-      <c r="R74" s="4"/>
+        <f>SUM(Q67:Q73)</f>
+        <v>8965</v>
+      </c>
+      <c r="R74" s="4">
+        <f>SUM(R67:R73)</f>
+        <v>11404</v>
+      </c>
       <c r="S74" s="4"/>
     </row>
     <row r="75" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -6776,18 +7129,14 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="4">
-        <v>1209</v>
-      </c>
-      <c r="Q75" s="4">
-        <v>1626</v>
-      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
     <row r="76" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6803,17 +7152,19 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4">
-        <v>-6341</v>
+        <v>-14951</v>
       </c>
       <c r="Q76" s="4">
-        <v>-259</v>
-      </c>
-      <c r="R76" s="4"/>
+        <v>-15724</v>
+      </c>
+      <c r="R76" s="4">
+        <v>-16378</v>
+      </c>
       <c r="S76" s="4"/>
     </row>
     <row r="77" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6829,19 +7180,19 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4">
-        <f>22753-1764</f>
-        <v>20989</v>
+        <v>1209</v>
       </c>
       <c r="Q77" s="4">
-        <f>2608-329</f>
-        <v>2279</v>
-      </c>
-      <c r="R77" s="4"/>
+        <v>1626</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1337</v>
+      </c>
       <c r="S77" s="4"/>
     </row>
     <row r="78" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6857,17 +7208,20 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4">
-        <f>SUM(P74:P77)</f>
-        <v>906</v>
+        <v>-6341</v>
       </c>
       <c r="Q78" s="4">
-        <f>SUM(Q74:Q77)</f>
-        <v>-12078</v>
-      </c>
-      <c r="R78" s="4"/>
+        <v>-259</v>
+      </c>
+      <c r="R78" s="4">
+        <v>-885</v>
+      </c>
       <c r="S78" s="4"/>
     </row>
     <row r="79" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6881,14 +7235,23 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
+      <c r="P79" s="4">
+        <f>22753-1764</f>
+        <v>20989</v>
+      </c>
+      <c r="Q79" s="4">
+        <f>2608-329</f>
+        <v>2279</v>
+      </c>
+      <c r="R79" s="4">
+        <f>557-239</f>
+        <v>318</v>
+      </c>
       <c r="S79" s="4"/>
     </row>
     <row r="80" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6904,18 +7267,20 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4">
-        <v>-2666</v>
+        <f>SUM(P76:P79)</f>
+        <v>906</v>
       </c>
       <c r="Q80" s="4">
-        <v>-3334</v>
-      </c>
-      <c r="R80" s="4"/>
+        <f>SUM(Q76:Q79)</f>
+        <v>-12078</v>
+      </c>
+      <c r="R80" s="4">
+        <f>SUM(R76:R79)</f>
+        <v>-15608</v>
+      </c>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="81" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -6929,20 +7294,14 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="4">
-        <f>13743-6231-2777-79</f>
-        <v>4656</v>
-      </c>
-      <c r="Q81" s="4">
-        <f>4865-7610+12824-1-2059-59</f>
-        <v>7960</v>
-      </c>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6958,19 +7317,19 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4">
-        <f>SUM(P80:P81)</f>
-        <v>1990</v>
+        <v>-2666</v>
       </c>
       <c r="Q82" s="4">
-        <f>SUM(Q80:Q81)</f>
-        <v>4626</v>
-      </c>
-      <c r="R82" s="4"/>
+        <v>-3334</v>
+      </c>
+      <c r="R82" s="4">
+        <v>0</v>
+      </c>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6986,17 +7345,22 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4">
-        <v>16</v>
+        <f>13743-6231-2777-79</f>
+        <v>4656</v>
       </c>
       <c r="Q83" s="4">
-        <v>-412</v>
-      </c>
-      <c r="R83" s="4"/>
+        <f>4865-7610+12824-1-2059-59</f>
+        <v>7960</v>
+      </c>
+      <c r="R83" s="4">
+        <f>12338-7916+107-1465-48</f>
+        <v>3016</v>
+      </c>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -7012,19 +7376,50 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4">
-        <f>+P83+P82+P78+P72</f>
-        <v>122</v>
+        <f>SUM(P82:P83)</f>
+        <v>1990</v>
       </c>
       <c r="Q84" s="4">
-        <f>+Q83+Q82+Q78+Q72</f>
-        <v>1101</v>
-      </c>
-      <c r="R84" s="4"/>
+        <f>SUM(Q82:Q83)</f>
+        <v>4626</v>
+      </c>
+      <c r="R84" s="4">
+        <f>SUM(R82:R83)</f>
+        <v>3016</v>
+      </c>
       <c r="S84" s="4"/>
     </row>
-    <row r="86" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>-412</v>
+      </c>
+      <c r="R85" s="4">
+        <v>-1334</v>
+      </c>
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -7034,33 +7429,28 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4">
-        <v>1298</v>
-      </c>
-      <c r="L86" s="4">
-        <v>1271</v>
-      </c>
-      <c r="M86" s="4">
-        <v>1335</v>
-      </c>
-      <c r="N86" s="4">
-        <v>1468</v>
-      </c>
-      <c r="O86" s="4">
-        <v>1608</v>
-      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
       <c r="P86" s="4">
-        <v>1622</v>
+        <f>+P85+P84+P80+P74</f>
+        <v>122</v>
       </c>
       <c r="Q86" s="4">
-        <v>1523</v>
-      </c>
-      <c r="R86" s="4"/>
+        <f>+Q85+Q84+Q80+Q74</f>
+        <v>1101</v>
+      </c>
+      <c r="R86" s="4">
+        <f>+R85+R84+R80+R74</f>
+        <v>-2522</v>
+      </c>
       <c r="S86" s="4"/>
     </row>
-    <row r="88" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -7070,49 +7460,38 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="K88" s="4">
+        <v>1298</v>
+      </c>
+      <c r="L88" s="4">
+        <v>1271</v>
+      </c>
       <c r="M88" s="4">
-        <v>3147</v>
-      </c>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+        <v>1335</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1468</v>
+      </c>
+      <c r="O88" s="4">
+        <v>1608</v>
+      </c>
+      <c r="P88" s="4">
+        <v>1622</v>
+      </c>
       <c r="Q88" s="4">
-        <v>-627</v>
-      </c>
-      <c r="R88" s="4"/>
+        <v>1523</v>
+      </c>
+      <c r="R88" s="4">
+        <v>1544</v>
+      </c>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4">
-        <v>362</v>
-      </c>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4">
-        <v>-1771</v>
-      </c>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC88" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -7125,16 +7504,112 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4">
-        <v>4193</v>
-      </c>
-      <c r="N90" s="4"/>
+        <v>3147</v>
+      </c>
+      <c r="N90" s="4">
+        <v>880</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4">
+        <v>-627</v>
+      </c>
+      <c r="R90" s="4">
+        <v>-412</v>
+      </c>
+      <c r="S90" s="4"/>
+    </row>
+    <row r="91" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4">
+        <v>362</v>
+      </c>
+      <c r="N91" s="4">
+        <v>-911</v>
+      </c>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4">
+        <v>-1771</v>
+      </c>
+      <c r="R91" s="4">
+        <v>-2466</v>
+      </c>
+      <c r="S91" s="4"/>
+    </row>
+    <row r="92" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4">
+        <v>4193</v>
+      </c>
+      <c r="N92" s="4">
+        <v>4883</v>
+      </c>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4">
         <v>5715</v>
       </c>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
+      <c r="R92" s="4">
+        <v>5403</v>
+      </c>
+      <c r="S92" s="4"/>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P94" s="4">
+        <f t="shared" ref="P94:R94" si="217">+P74+P76</f>
+        <v>-17741</v>
+      </c>
+      <c r="Q94" s="4">
+        <f t="shared" si="217"/>
+        <v>-6759</v>
+      </c>
+      <c r="R94" s="4">
+        <f>+R74+R76</f>
+        <v>-4974</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB101">
+        <v>7.25</v>
+      </c>
+      <c r="AC101">
+        <v>28.73</v>
+      </c>
+      <c r="AD101" s="1">
+        <f>11495/AD35</f>
+        <v>71.354583558045434</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED368ABB-B778-4387-A413-DE1F5FDD7A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9214A-2BA4-4E7C-8D00-70EAC56632DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27825" yWindow="1110" windowWidth="25905" windowHeight="18960" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="18975" yWindow="1875" windowWidth="32715" windowHeight="15915" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,10 @@
   <authors>
     <author>tc={89E45B5F-0C20-4B81-874E-AD8DF93707A2}</author>
     <author>tc={9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}</author>
+    <author>tc={1C7E52D4-5BCB-4AA9-9278-E6CDC311AA1D}</author>
     <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
     <author>tc={1123E429-DC3C-402F-A940-60A8A504E208}</author>
+    <author>tc={F0CECC32-58CA-41B9-9B42-426709AD1A9F}</author>
     <author>tc={7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}</author>
   </authors>
   <commentList>
@@ -61,7 +63,15 @@
     Q3 guidance: 140-148B</t>
       </text>
     </comment>
-    <comment ref="R29" authorId="2" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <comment ref="T21" authorId="2" shapeId="0" xr:uid="{1C7E52D4-5BCB-4AA9-9278-E6CDC311AA1D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q422 guidance: 121-126B</t>
+      </text>
+    </comment>
+    <comment ref="R29" authorId="3" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +79,7 @@
     Q222 guidance: 0.0-3.5B</t>
       </text>
     </comment>
-    <comment ref="S29" authorId="3" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
+    <comment ref="S29" authorId="4" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +87,15 @@
     Q3 guidance: 0-4B</t>
       </text>
     </comment>
-    <comment ref="R37" authorId="4" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+    <comment ref="T29" authorId="5" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q4 guidance 0-4B</t>
+      </text>
+    </comment>
+    <comment ref="R37" authorId="6" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -469,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -500,15 +518,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -534,16 +543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -558,8 +567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="0"/>
-          <a:ext cx="0" cy="17481096"/>
+          <a:off x="11925300" y="11906"/>
+          <a:ext cx="0" cy="17208103"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -944,11 +953,17 @@
   <threadedComment ref="S21" dT="2022-12-19T01:59:36.72" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}">
     <text>Q3 guidance: 140-148B</text>
   </threadedComment>
+  <threadedComment ref="T21" dT="2023-02-09T23:50:01.81" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{1C7E52D4-5BCB-4AA9-9278-E6CDC311AA1D}">
+    <text>Q422 guidance: 121-126B</text>
+  </threadedComment>
   <threadedComment ref="R29" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
     <text>Q222 guidance: 0.0-3.5B</text>
   </threadedComment>
   <threadedComment ref="S29" dT="2022-12-19T02:00:02.84" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{1123E429-DC3C-402F-A940-60A8A504E208}">
     <text>Q3 guidance: 0-4B</text>
+  </threadedComment>
+  <threadedComment ref="T29" dT="2023-02-09T23:51:52.21" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
+    <text>Q4 guidance 0-4B</text>
   </threadedComment>
   <threadedComment ref="R37" dT="2022-12-19T01:32:23.85" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
     <text>+19% net of FX</text>
@@ -961,7 +976,7 @@
   <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -971,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>87.86</v>
+        <v>98.24</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -994,7 +1009,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>907681.66</v>
+        <v>1014917.44</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1031,7 +1046,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>907938.66</v>
+        <v>1015174.44</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1049,11 +1064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:DS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BC21" sqref="BC21"/>
+      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1061,6 +1076,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="19" width="9.140625" style="3"/>
+    <col min="60" max="61" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.2">
@@ -1363,7 +1379,9 @@
       <c r="R4" s="4">
         <v>78843</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4">
+        <v>93363</v>
+      </c>
       <c r="AS4" s="2">
         <v>50834</v>
       </c>
@@ -1506,7 +1524,9 @@
       <c r="R7" s="4">
         <v>27720</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4">
+        <v>34463</v>
+      </c>
       <c r="AS7" s="2">
         <v>33510</v>
       </c>
@@ -1647,12 +1667,10 @@
         <v>19739</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" ref="R10" si="3">+N10*1.4</f>
-        <v>22554</v>
+        <v>20538</v>
       </c>
       <c r="S10" s="4">
-        <f>+O10*1.3</f>
-        <v>23114</v>
+        <v>21378</v>
       </c>
       <c r="T10" s="4">
         <f>+P10*1.3</f>
@@ -1664,11 +1682,11 @@
       </c>
       <c r="V10" s="4">
         <f>+R10*1.3</f>
-        <v>29320.2</v>
+        <v>26699.4</v>
       </c>
       <c r="W10" s="4">
         <f>+S10*1.3</f>
-        <v>30048.2</v>
+        <v>27791.4</v>
       </c>
       <c r="AS10" s="2">
         <v>4644</v>
@@ -1699,39 +1717,39 @@
       </c>
       <c r="BA10" s="2">
         <f>SUM(P10:S10)</f>
-        <v>83848</v>
+        <v>80096</v>
       </c>
       <c r="BB10" s="2">
         <f>SUM(T10:W10)</f>
-        <v>109002.4</v>
+        <v>104124.79999999999</v>
       </c>
       <c r="BC10" s="2">
         <f>+BB10*1.3</f>
-        <v>141703.12</v>
+        <v>135362.23999999999</v>
       </c>
       <c r="BD10" s="2">
-        <f t="shared" ref="BD10:BF10" si="4">+BC10*1.3</f>
-        <v>184214.05600000001</v>
+        <f t="shared" ref="BD10:BF10" si="3">+BC10*1.3</f>
+        <v>175970.91199999998</v>
       </c>
       <c r="BE10" s="2">
-        <f t="shared" si="4"/>
-        <v>239478.27280000004</v>
+        <f t="shared" si="3"/>
+        <v>228762.1856</v>
       </c>
       <c r="BF10" s="2">
-        <f t="shared" si="4"/>
-        <v>311321.75464000006</v>
+        <f t="shared" si="3"/>
+        <v>297390.84127999999</v>
       </c>
       <c r="BG10" s="2">
         <f>+BF10*1.2</f>
-        <v>373586.10556800006</v>
+        <v>356869.00953599997</v>
       </c>
       <c r="BH10" s="2">
-        <f t="shared" ref="BH10:BI10" si="5">+BG10*1.2</f>
-        <v>448303.32668160007</v>
+        <f t="shared" ref="BH10:BI10" si="4">+BG10*1.2</f>
+        <v>428242.81144319993</v>
       </c>
       <c r="BI10" s="2">
-        <f t="shared" si="5"/>
-        <v>537963.99201792001</v>
+        <f t="shared" si="4"/>
+        <v>513891.37373183988</v>
       </c>
     </row>
     <row r="12" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1811,19 +1829,19 @@
         <v>122987</v>
       </c>
       <c r="AX12" s="2">
-        <f t="shared" ref="AX12:AX27" si="6">SUM(D12:G12)</f>
+        <f t="shared" ref="AX12:AX27" si="5">SUM(D12:G12)</f>
         <v>141247</v>
       </c>
       <c r="AY12" s="2">
-        <f t="shared" ref="AY12:AY17" si="7">SUM(H12:K12)</f>
+        <f t="shared" ref="AY12:AY17" si="6">SUM(H12:K12)</f>
         <v>197349</v>
       </c>
       <c r="AZ12" s="2">
-        <f t="shared" ref="AZ12:AZ17" si="8">SUM(L12:O12)</f>
+        <f t="shared" ref="AZ12:AZ17" si="7">SUM(L12:O12)</f>
         <v>222075</v>
       </c>
       <c r="BA12" s="2">
-        <f>SUM(P12:S12)</f>
+        <f t="shared" ref="BA12:BA17" si="8">SUM(P12:S12)</f>
         <v>223530.25</v>
       </c>
       <c r="BB12" s="2">
@@ -1936,19 +1954,19 @@
         <v>17224</v>
       </c>
       <c r="AX13" s="2">
+        <f t="shared" si="5"/>
+        <v>17192</v>
+      </c>
+      <c r="AY13" s="2">
         <f t="shared" si="6"/>
-        <v>17192</v>
-      </c>
-      <c r="AY13" s="2">
+        <v>16224</v>
+      </c>
+      <c r="AZ13" s="2">
         <f t="shared" si="7"/>
-        <v>16224</v>
-      </c>
-      <c r="AZ13" s="2">
+        <v>17075</v>
+      </c>
+      <c r="BA13" s="2">
         <f t="shared" si="8"/>
-        <v>17075</v>
-      </c>
-      <c r="BA13" s="2">
-        <f>SUM(P13:S13)</f>
         <v>18694</v>
       </c>
       <c r="BB13" s="2">
@@ -2061,19 +2079,19 @@
         <v>42745</v>
       </c>
       <c r="AX14" s="2">
+        <f t="shared" si="5"/>
+        <v>53761</v>
+      </c>
+      <c r="AY14" s="2">
         <f t="shared" si="6"/>
-        <v>53761</v>
-      </c>
-      <c r="AY14" s="2">
+        <v>80437</v>
+      </c>
+      <c r="AZ14" s="2">
         <f t="shared" si="7"/>
-        <v>80437</v>
-      </c>
-      <c r="AZ14" s="2">
+        <v>103366</v>
+      </c>
+      <c r="BA14" s="2">
         <f t="shared" si="8"/>
-        <v>103366</v>
-      </c>
-      <c r="BA14" s="2">
-        <f>SUM(P14:S14)</f>
         <v>112606.6</v>
       </c>
       <c r="BB14" s="2">
@@ -2186,19 +2204,19 @@
         <v>14167</v>
       </c>
       <c r="AX15" s="2">
+        <f t="shared" si="5"/>
+        <v>19210</v>
+      </c>
+      <c r="AY15" s="2">
         <f t="shared" si="6"/>
-        <v>19210</v>
-      </c>
-      <c r="AY15" s="2">
+        <v>25207</v>
+      </c>
+      <c r="AZ15" s="2">
         <f t="shared" si="7"/>
-        <v>25207</v>
-      </c>
-      <c r="AZ15" s="2">
+        <v>31768</v>
+      </c>
+      <c r="BA15" s="2">
         <f t="shared" si="8"/>
-        <v>31768</v>
-      </c>
-      <c r="BA15" s="2">
-        <f>SUM(P15:S15)</f>
         <v>34801.839999999997</v>
       </c>
       <c r="BB15" s="2">
@@ -2311,19 +2329,19 @@
         <v>10108</v>
       </c>
       <c r="AX16" s="2">
+        <f t="shared" si="5"/>
+        <v>14086</v>
+      </c>
+      <c r="AY16" s="2">
         <f t="shared" si="6"/>
-        <v>14086</v>
-      </c>
-      <c r="AY16" s="2">
+        <v>20875</v>
+      </c>
+      <c r="AZ16" s="2">
         <f t="shared" si="7"/>
-        <v>20875</v>
-      </c>
-      <c r="AZ16" s="2">
+        <v>31160</v>
+      </c>
+      <c r="BA16" s="2">
         <f t="shared" si="8"/>
-        <v>31160</v>
-      </c>
-      <c r="BA16" s="2">
-        <f>SUM(P16:S16)</f>
         <v>36869.599999999999</v>
       </c>
       <c r="BB16" s="2">
@@ -2430,19 +2448,19 @@
         <v>710</v>
       </c>
       <c r="AX17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AY17" s="2">
+        <v>602</v>
+      </c>
+      <c r="AZ17" s="2">
         <f t="shared" si="7"/>
-        <v>602</v>
-      </c>
-      <c r="AZ17" s="2">
+        <v>2176</v>
+      </c>
+      <c r="BA17" s="2">
         <f t="shared" si="8"/>
-        <v>2176</v>
-      </c>
-      <c r="BA17" s="2">
-        <f>SUM(P17:S17)</f>
         <v>3704</v>
       </c>
       <c r="BB17" s="2">
@@ -2534,7 +2552,9 @@
       <c r="R19" s="4">
         <v>59340</v>
       </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="4">
+        <v>70531</v>
+      </c>
       <c r="AV19" s="2">
         <v>118573</v>
       </c>
@@ -2542,7 +2562,7 @@
         <v>141915</v>
       </c>
       <c r="AX19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>160407</v>
       </c>
       <c r="AY19" s="2">
@@ -2606,7 +2626,9 @@
       <c r="R20" s="4">
         <v>67761</v>
       </c>
-      <c r="S20" s="4"/>
+      <c r="S20" s="4">
+        <v>78673</v>
+      </c>
       <c r="AV20" s="2">
         <v>59293</v>
       </c>
@@ -2614,7 +2636,7 @@
         <v>90972</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>120115</v>
       </c>
       <c r="AY20" s="2">
@@ -2695,24 +2717,24 @@
         <v>127101</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" ref="S21:W21" si="29">SUM(S10:S17)</f>
-        <v>147259.29</v>
+        <f>+S20+S19</f>
+        <v>149204</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="29"/>
+        <f>SUM(T10:T17)</f>
         <v>125730.72</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="S21:W21" si="29">SUM(U10:U17)</f>
         <v>131075.60999999999</v>
       </c>
       <c r="V21" s="6">
         <f t="shared" si="29"/>
-        <v>140014.88999999998</v>
+        <v>137394.09</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="29"/>
-        <v>158942.6827</v>
+        <v>156685.88270000002</v>
       </c>
       <c r="Z21" s="5">
         <v>0.51100000000000001</v>
@@ -2805,39 +2827,39 @@
       </c>
       <c r="BA21" s="5">
         <f>SUM(BA10:BA17)</f>
-        <v>514054.28999999992</v>
+        <v>510302.28999999992</v>
       </c>
       <c r="BB21" s="5">
         <f>SUM(BB10:BB17)</f>
-        <v>555763.90270000009</v>
+        <v>550886.30270000012</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" ref="BC21:BI21" si="33">SUM(BC10:BC17)</f>
-        <v>614709.82519500004</v>
+        <v>608368.94519500004</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="33"/>
-        <v>685168.93655075028</v>
+        <v>676925.79255075019</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="33"/>
-        <v>770208.52148388757</v>
+        <v>759492.4342838875</v>
       </c>
       <c r="BF21" s="5">
         <f t="shared" si="33"/>
-        <v>873788.9022742419</v>
+        <v>859857.9889142419</v>
       </c>
       <c r="BG21" s="5">
         <f t="shared" si="33"/>
-        <v>964176.61058395403</v>
+        <v>947459.51455195411</v>
       </c>
       <c r="BH21" s="5">
         <f t="shared" si="33"/>
-        <v>1068423.356948352</v>
+        <v>1048362.8417099519</v>
       </c>
       <c r="BI21" s="5">
         <f t="shared" si="33"/>
-        <v>1189090.0237980094</v>
+        <v>1165017.4055119294</v>
       </c>
     </row>
     <row r="22" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2893,8 +2915,7 @@
         <v>70268</v>
       </c>
       <c r="S22" s="4">
-        <f>SUM(S12:S14)*0.69+S10*0.51</f>
-        <v>83530.786500000002</v>
+        <v>85640</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" ref="T22:W22" si="34">SUM(T12:T14)*0.68+T10*0.5</f>
@@ -2906,11 +2927,11 @@
       </c>
       <c r="V22" s="4">
         <f t="shared" si="34"/>
-        <v>75393.381999999998</v>
+        <v>74082.982000000004</v>
       </c>
       <c r="W22" s="4">
         <f t="shared" si="34"/>
-        <v>87752.449740000025</v>
+        <v>86624.049740000017</v>
       </c>
       <c r="AS22" s="2">
         <v>62752</v>
@@ -2928,7 +2949,7 @@
         <v>139156</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>165536</v>
       </c>
       <c r="AY22" s="2">
@@ -2941,39 +2962,39 @@
       </c>
       <c r="BA22" s="2">
         <f>SUM(P22:S22)</f>
-        <v>286721.78649999999</v>
+        <v>288831</v>
       </c>
       <c r="BB22" s="2">
         <f>SUM(T22:W22)</f>
-        <v>302643.36973999999</v>
+        <v>300204.56974000006</v>
       </c>
       <c r="BC22" s="4">
         <f t="shared" ref="BC22:BI22" si="35">SUM(BC12:BC14)*0.8+BC10*0.7</f>
-        <v>405720.74662000005</v>
+        <v>401282.13062000001</v>
       </c>
       <c r="BD22" s="4">
         <f t="shared" si="35"/>
-        <v>450804.82995100005</v>
+        <v>445034.62915100006</v>
       </c>
       <c r="BE22" s="4">
         <f t="shared" si="35"/>
-        <v>505582.53124855005</v>
+        <v>498081.27020855004</v>
       </c>
       <c r="BF22" s="4">
         <f t="shared" si="35"/>
-        <v>572770.35555097763</v>
+        <v>563018.71619897755</v>
       </c>
       <c r="BG22" s="4">
         <f t="shared" si="35"/>
-        <v>634097.65756572655</v>
+        <v>622395.69034332654</v>
       </c>
       <c r="BH22" s="4">
         <f t="shared" si="35"/>
-        <v>705029.08152865293</v>
+        <v>690986.72086177277</v>
       </c>
       <c r="BI22" s="4">
         <f t="shared" si="35"/>
-        <v>787352.38490665355</v>
+        <v>770501.55210639746</v>
       </c>
     </row>
     <row r="23" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3029,8 +3050,7 @@
         <v>20583</v>
       </c>
       <c r="S23" s="4">
-        <f>(S14+S12)*0.26</f>
-        <v>25814.581000000002</v>
+        <v>23103</v>
       </c>
       <c r="T23" s="4">
         <f t="shared" ref="T23:W23" si="36">(T14+T12)*0.25</f>
@@ -3064,7 +3084,7 @@
         <v>34027</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40231</v>
       </c>
       <c r="AY23" s="2">
@@ -3077,7 +3097,7 @@
       </c>
       <c r="BA23" s="2">
         <f>SUM(P23:S23)</f>
-        <v>87010.581000000006</v>
+        <v>84299</v>
       </c>
       <c r="BB23" s="2">
         <f>SUM(T23:W23)</f>
@@ -3182,7 +3202,7 @@
       </c>
       <c r="S24" s="4">
         <f>S21-S22-S23</f>
-        <v>37913.922500000001</v>
+        <v>40461</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="44"/>
@@ -3194,11 +3214,11 @@
       </c>
       <c r="V24" s="4">
         <f t="shared" si="44"/>
-        <v>43466.595499999989</v>
+        <v>42156.195499999994</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="44"/>
-        <v>45623.869084999977</v>
+        <v>44495.469084999997</v>
       </c>
       <c r="AS24" s="4">
         <f t="shared" ref="AS24:AV24" si="45">AS21-AS22-AS23</f>
@@ -3234,39 +3254,39 @@
       </c>
       <c r="BA24" s="4">
         <f t="shared" si="47"/>
-        <v>140321.92249999993</v>
+        <v>137172.28999999992</v>
       </c>
       <c r="BB24" s="4">
         <f t="shared" si="47"/>
-        <v>166565.29408500009</v>
+        <v>164126.49408500004</v>
       </c>
       <c r="BC24" s="4">
         <f t="shared" si="47"/>
-        <v>172635.87824749999</v>
+        <v>170733.61424750002</v>
       </c>
       <c r="BD24" s="4">
         <f t="shared" si="47"/>
-        <v>196193.24625587522</v>
+        <v>193720.30305587512</v>
       </c>
       <c r="BE24" s="4">
         <f t="shared" si="47"/>
-        <v>224546.58687426877</v>
+        <v>221331.76071426872</v>
       </c>
       <c r="BF24" s="4">
         <f t="shared" si="47"/>
-        <v>258935.17319414206</v>
+        <v>254755.89918614214</v>
       </c>
       <c r="BG24" s="4">
         <f t="shared" si="47"/>
-        <v>285891.41081264918</v>
+        <v>280876.28200304927</v>
       </c>
       <c r="BH24" s="4">
         <f t="shared" si="47"/>
-        <v>316997.3561038418</v>
+        <v>310979.20153232187</v>
       </c>
       <c r="BI24" s="4">
         <f t="shared" si="47"/>
-        <v>353020.87360970571</v>
+        <v>345799.08812388184</v>
       </c>
     </row>
     <row r="25" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3322,8 +3342,7 @@
         <v>19485</v>
       </c>
       <c r="S25" s="4">
-        <f>+O25*1.15</f>
-        <v>17609.949999999997</v>
+        <v>20814</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" ref="T25:W25" si="48">+P25*1.1</f>
@@ -3339,7 +3358,7 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="48"/>
-        <v>19370.945</v>
+        <v>22895.4</v>
       </c>
       <c r="AS25" s="2">
         <v>9275</v>
@@ -3357,7 +3376,7 @@
         <v>28837</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35932</v>
       </c>
       <c r="AY25" s="2">
@@ -3370,39 +3389,39 @@
       </c>
       <c r="BA25" s="2">
         <f>SUM(P25:S25)</f>
-        <v>70008.95</v>
+        <v>73213</v>
       </c>
       <c r="BB25" s="2">
         <f>SUM(T25:W25)</f>
-        <v>77009.845000000001</v>
+        <v>80534.3</v>
       </c>
       <c r="BC25" s="2">
         <f>+BB25*1.03</f>
-        <v>79320.140350000001</v>
+        <v>82950.328999999998</v>
       </c>
       <c r="BD25" s="2">
         <f t="shared" ref="BD25:BI25" si="49">+BC25*1.03</f>
-        <v>81699.74456050001</v>
+        <v>85438.838870000007</v>
       </c>
       <c r="BE25" s="2">
         <f t="shared" si="49"/>
-        <v>84150.736897315015</v>
+        <v>88002.004036100014</v>
       </c>
       <c r="BF25" s="2">
         <f t="shared" si="49"/>
-        <v>86675.259004234467</v>
+        <v>90642.06415718302</v>
       </c>
       <c r="BG25" s="2">
         <f t="shared" si="49"/>
-        <v>89275.516774361502</v>
+        <v>93361.326081898515</v>
       </c>
       <c r="BH25" s="2">
         <f t="shared" si="49"/>
-        <v>91953.782277592356</v>
+        <v>96162.165864355469</v>
       </c>
       <c r="BI25" s="2">
         <f t="shared" si="49"/>
-        <v>94712.395745920134</v>
+        <v>99047.030840286141</v>
       </c>
     </row>
     <row r="26" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3458,8 +3477,7 @@
         <v>11014</v>
       </c>
       <c r="S26" s="4">
-        <f>+O26*1.1</f>
-        <v>11891.000000000002</v>
+        <v>12818</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" ref="T26:T27" si="50">+P26*1.05</f>
@@ -3475,7 +3493,7 @@
       </c>
       <c r="W26" s="4">
         <f t="shared" ref="W26:W27" si="53">+S26*1.05</f>
-        <v>12485.550000000003</v>
+        <v>13458.900000000001</v>
       </c>
       <c r="AS26" s="2">
         <v>4332</v>
@@ -3493,7 +3511,7 @@
         <v>13814</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18879</v>
       </c>
       <c r="AY26" s="2">
@@ -3506,39 +3524,39 @@
       </c>
       <c r="BA26" s="2">
         <f>SUM(P26:S26)</f>
-        <v>41311</v>
+        <v>42238</v>
       </c>
       <c r="BB26" s="2">
         <f>SUM(T26:W26)</f>
-        <v>43376.55</v>
+        <v>44349.900000000009</v>
       </c>
       <c r="BC26" s="2">
         <f t="shared" ref="BC26:BI26" si="54">+BB26*1.03</f>
-        <v>44677.846500000007</v>
+        <v>45680.397000000012</v>
       </c>
       <c r="BD26" s="2">
         <f t="shared" si="54"/>
-        <v>46018.181895000009</v>
+        <v>47050.808910000014</v>
       </c>
       <c r="BE26" s="2">
         <f t="shared" si="54"/>
-        <v>47398.727351850008</v>
+        <v>48462.333177300017</v>
       </c>
       <c r="BF26" s="2">
         <f t="shared" si="54"/>
-        <v>48820.689172405509</v>
+        <v>49916.203172619018</v>
       </c>
       <c r="BG26" s="2">
         <f t="shared" si="54"/>
-        <v>50285.309847577679</v>
+        <v>51413.689267797592</v>
       </c>
       <c r="BH26" s="2">
         <f t="shared" si="54"/>
-        <v>51793.869143005009</v>
+        <v>52956.09994583152</v>
       </c>
       <c r="BI26" s="2">
         <f t="shared" si="54"/>
-        <v>53347.685217295162</v>
+        <v>54544.782944206469</v>
       </c>
     </row>
     <row r="27" spans="2:61" x14ac:dyDescent="0.2">
@@ -3594,8 +3612,7 @@
         <v>3061</v>
       </c>
       <c r="S27" s="4">
-        <f>+O27*1.1</f>
-        <v>2777.5</v>
+        <v>3333</v>
       </c>
       <c r="T27" s="4">
         <f t="shared" si="50"/>
@@ -3611,7 +3628,7 @@
       </c>
       <c r="W27" s="4">
         <f t="shared" si="53"/>
-        <v>2916.375</v>
+        <v>3499.65</v>
       </c>
       <c r="AS27" s="2">
         <v>1552</v>
@@ -3629,7 +3646,7 @@
         <v>4336</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5203</v>
       </c>
       <c r="AY27" s="2">
@@ -3642,39 +3659,39 @@
       </c>
       <c r="BA27" s="2">
         <f>SUM(P27:S27)</f>
-        <v>11335.5</v>
+        <v>11891</v>
       </c>
       <c r="BB27" s="2">
         <f>SUM(T27:W27)</f>
-        <v>11902.275000000001</v>
+        <v>12485.550000000001</v>
       </c>
       <c r="BC27" s="2">
         <f t="shared" ref="BC27:BI27" si="55">+BB27*1.03</f>
-        <v>12259.343250000002</v>
+        <v>12860.116500000002</v>
       </c>
       <c r="BD27" s="2">
         <f t="shared" si="55"/>
-        <v>12627.123547500001</v>
+        <v>13245.919995000002</v>
       </c>
       <c r="BE27" s="2">
         <f t="shared" si="55"/>
-        <v>13005.937253925002</v>
+        <v>13643.297594850002</v>
       </c>
       <c r="BF27" s="2">
         <f t="shared" si="55"/>
-        <v>13396.115371542752</v>
+        <v>14052.596522695503</v>
       </c>
       <c r="BG27" s="2">
         <f t="shared" si="55"/>
-        <v>13797.998832689034</v>
+        <v>14474.174418376369</v>
       </c>
       <c r="BH27" s="2">
         <f t="shared" si="55"/>
-        <v>14211.938797669705</v>
+        <v>14908.39965092766</v>
       </c>
       <c r="BI27" s="2">
         <f t="shared" si="55"/>
-        <v>14638.296961599797</v>
+        <v>15355.651640455491</v>
       </c>
     </row>
     <row r="28" spans="2:61" x14ac:dyDescent="0.2">
@@ -3747,7 +3764,7 @@
       </c>
       <c r="S28" s="4">
         <f t="shared" si="63"/>
-        <v>32278.449999999997</v>
+        <v>36965</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="63"/>
@@ -3763,7 +3780,7 @@
       </c>
       <c r="W28" s="4">
         <f t="shared" si="63"/>
-        <v>34772.870000000003</v>
+        <v>39853.950000000004</v>
       </c>
       <c r="AS28" s="4">
         <f t="shared" ref="AS28:AU28" si="64">SUM(AS25:AS27)</f>
@@ -3799,39 +3816,39 @@
       </c>
       <c r="BA28" s="4">
         <f t="shared" ref="BA28:BB28" si="68">SUM(BA25:BA27)</f>
-        <v>122655.45</v>
+        <v>127342</v>
       </c>
       <c r="BB28" s="4">
         <f t="shared" si="68"/>
-        <v>132288.67000000001</v>
+        <v>137369.75</v>
       </c>
       <c r="BC28" s="4">
         <f t="shared" ref="BC28:BI28" si="69">SUM(BC25:BC27)</f>
-        <v>136257.33010000002</v>
+        <v>141490.8425</v>
       </c>
       <c r="BD28" s="4">
         <f t="shared" si="69"/>
-        <v>140345.05000300001</v>
+        <v>145735.56777500003</v>
       </c>
       <c r="BE28" s="4">
         <f t="shared" si="69"/>
-        <v>144555.40150309002</v>
+        <v>150107.63480825003</v>
       </c>
       <c r="BF28" s="4">
         <f t="shared" si="69"/>
-        <v>148892.06354818272</v>
+        <v>154610.86385249754</v>
       </c>
       <c r="BG28" s="4">
         <f t="shared" si="69"/>
-        <v>153358.82545462824</v>
+        <v>159249.18976807248</v>
       </c>
       <c r="BH28" s="4">
         <f t="shared" si="69"/>
-        <v>157959.59021826708</v>
+        <v>164026.66546111464</v>
       </c>
       <c r="BI28" s="4">
         <f t="shared" si="69"/>
-        <v>162698.37792481508</v>
+        <v>168947.46542494811</v>
       </c>
     </row>
     <row r="29" spans="2:61" x14ac:dyDescent="0.2">
@@ -3904,7 +3921,7 @@
       </c>
       <c r="S29" s="4">
         <f t="shared" si="77"/>
-        <v>5635.4725000000035</v>
+        <v>3496</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="77"/>
@@ -3916,11 +3933,11 @@
       </c>
       <c r="V29" s="4">
         <f t="shared" si="77"/>
-        <v>7254.3454999999885</v>
+        <v>5943.9454999999944</v>
       </c>
       <c r="W29" s="4">
         <f t="shared" si="77"/>
-        <v>10850.999084999974</v>
+        <v>4641.5190849999926</v>
       </c>
       <c r="AS29" s="4">
         <f t="shared" ref="AS29:AU29" si="78">AS24-AS28</f>
@@ -3956,39 +3973,39 @@
       </c>
       <c r="BA29" s="4">
         <f t="shared" ref="BA29:BB29" si="82">BA24-BA28</f>
-        <v>17666.472499999931</v>
+        <v>9830.2899999999208</v>
       </c>
       <c r="BB29" s="4">
         <f t="shared" si="82"/>
-        <v>34276.624085000076</v>
+        <v>26756.744085000042</v>
       </c>
       <c r="BC29" s="4">
         <f t="shared" ref="BC29:BI29" si="83">BC24-BC28</f>
-        <v>36378.548147499969</v>
+        <v>29242.771747500025</v>
       </c>
       <c r="BD29" s="4">
         <f t="shared" si="83"/>
-        <v>55848.196252875205</v>
+        <v>47984.735280875087</v>
       </c>
       <c r="BE29" s="4">
         <f t="shared" si="83"/>
-        <v>79991.185371178755</v>
+        <v>71224.125906018686</v>
       </c>
       <c r="BF29" s="4">
         <f t="shared" si="83"/>
-        <v>110043.10964595934</v>
+        <v>100145.0353336446</v>
       </c>
       <c r="BG29" s="4">
         <f t="shared" si="83"/>
-        <v>132532.58535802094</v>
+        <v>121627.09223497679</v>
       </c>
       <c r="BH29" s="4">
         <f t="shared" si="83"/>
-        <v>159037.76588557471</v>
+        <v>146952.53607120723</v>
       </c>
       <c r="BI29" s="4">
         <f t="shared" si="83"/>
-        <v>190322.49568489063</v>
+        <v>176851.62269893373</v>
       </c>
     </row>
     <row r="30" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4059,7 +4076,10 @@
         <f>-165+277-617+759</f>
         <v>254</v>
       </c>
-      <c r="S30" s="4"/>
+      <c r="S30" s="4">
+        <f>445-694</f>
+        <v>-249</v>
+      </c>
       <c r="AS30" s="2">
         <f>-133+39-210-118</f>
         <v>-422</v>
@@ -4094,7 +4114,7 @@
       </c>
       <c r="BA30" s="2">
         <f>SUM(P30:S30)</f>
-        <v>-9354</v>
+        <v>-9603</v>
       </c>
       <c r="BB30" s="2">
         <f>SUM(T30:W30)</f>
@@ -4102,31 +4122,31 @@
       </c>
       <c r="BC30" s="2">
         <f>+BB47*$BL$46</f>
-        <v>336.68282097249948</v>
+        <v>257.33232472249972</v>
       </c>
       <c r="BD30" s="2">
         <f t="shared" ref="BD30:BI30" si="87">+BC47*$BL$46</f>
-        <v>648.76228420451548</v>
+        <v>508.08320933639118</v>
       </c>
       <c r="BE30" s="2">
         <f t="shared" si="87"/>
-        <v>1128.9864317696931</v>
+        <v>920.27216650318883</v>
       </c>
       <c r="BF30" s="2">
         <f t="shared" si="87"/>
-        <v>1818.5078920947551</v>
+        <v>1533.4995501196247</v>
       </c>
       <c r="BG30" s="2">
         <f t="shared" si="87"/>
-        <v>2769.3316411682149</v>
+        <v>2397.7670966316209</v>
       </c>
       <c r="BH30" s="2">
         <f t="shared" si="87"/>
-        <v>3919.3979356613227</v>
+        <v>3451.9784009502923</v>
       </c>
       <c r="BI30" s="2">
         <f t="shared" si="87"/>
-        <v>5304.533828141829</v>
+        <v>4730.4167739636314</v>
       </c>
     </row>
     <row r="31" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4199,7 +4219,7 @@
       </c>
       <c r="S31" s="4">
         <f t="shared" si="94"/>
-        <v>5635.4725000000035</v>
+        <v>3247</v>
       </c>
       <c r="T31" s="4">
         <f t="shared" si="94"/>
@@ -4211,11 +4231,11 @@
       </c>
       <c r="V31" s="4">
         <f t="shared" si="94"/>
-        <v>7254.3454999999885</v>
+        <v>5943.9454999999944</v>
       </c>
       <c r="W31" s="4">
         <f t="shared" si="94"/>
-        <v>10850.999084999974</v>
+        <v>4641.5190849999926</v>
       </c>
       <c r="AS31" s="4">
         <f t="shared" ref="AS31:AU31" si="95">AS29+AS30</f>
@@ -4251,39 +4271,39 @@
       </c>
       <c r="BA31" s="4">
         <f t="shared" si="98"/>
-        <v>8312.4724999999307</v>
+        <v>227.28999999992084</v>
       </c>
       <c r="BB31" s="4">
         <f t="shared" si="98"/>
-        <v>34276.624085000076</v>
+        <v>26756.744085000042</v>
       </c>
       <c r="BC31" s="4">
         <f t="shared" si="98"/>
-        <v>36715.230968472468</v>
+        <v>29500.104072222523</v>
       </c>
       <c r="BD31" s="4">
         <f t="shared" si="98"/>
-        <v>56496.958537079721</v>
+        <v>48492.818490211481</v>
       </c>
       <c r="BE31" s="4">
         <f t="shared" si="98"/>
-        <v>81120.171802948447</v>
+        <v>72144.398072521872</v>
       </c>
       <c r="BF31" s="4">
         <f t="shared" si="98"/>
-        <v>111861.6175380541</v>
+        <v>101678.53488376422</v>
       </c>
       <c r="BG31" s="4">
         <f t="shared" si="98"/>
-        <v>135301.91699918915</v>
+        <v>124024.85933160842</v>
       </c>
       <c r="BH31" s="4">
         <f t="shared" si="98"/>
-        <v>162957.16382123603</v>
+        <v>150404.51447215752</v>
       </c>
       <c r="BI31" s="4">
         <f t="shared" si="98"/>
-        <v>195627.02951303247</v>
+        <v>181582.03947289736</v>
       </c>
     </row>
     <row r="32" spans="2:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4354,11 +4374,10 @@
         <v>72</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" ref="S32:W32" si="99">+S31*0.15</f>
-        <v>845.32087500000046</v>
+        <v>0</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="S32:W32" si="99">+T31*0.15</f>
         <v>1438.7136599999994</v>
       </c>
       <c r="U32" s="4">
@@ -4367,11 +4386,11 @@
       </c>
       <c r="V32" s="4">
         <f t="shared" si="99"/>
-        <v>1088.1518249999983</v>
+        <v>891.59182499999918</v>
       </c>
       <c r="W32" s="4">
         <f t="shared" si="99"/>
-        <v>1627.6498627499961</v>
+        <v>696.22786274999885</v>
       </c>
       <c r="AS32" s="2">
         <f>167-37</f>
@@ -4407,39 +4426,39 @@
       </c>
       <c r="BA32" s="2">
         <f>SUM(P32:S32)</f>
-        <v>-503.67912499999954</v>
+        <v>-1349</v>
       </c>
       <c r="BB32" s="2">
         <f>SUM(T32:W32)</f>
-        <v>5141.4936127499905</v>
+        <v>4013.5116127499941</v>
       </c>
       <c r="BC32" s="2">
         <f>+BC31*0.15</f>
-        <v>5507.28464527087</v>
+        <v>4425.0156108333786</v>
       </c>
       <c r="BD32" s="2">
         <f t="shared" ref="BD32:BI32" si="103">+BD31*0.15</f>
-        <v>8474.5437805619586</v>
+        <v>7273.9227735317218</v>
       </c>
       <c r="BE32" s="2">
         <f t="shared" si="103"/>
-        <v>12168.025770442267</v>
+        <v>10821.659710878281</v>
       </c>
       <c r="BF32" s="2">
         <f t="shared" si="103"/>
-        <v>16779.242630708115</v>
+        <v>15251.780232564633</v>
       </c>
       <c r="BG32" s="2">
         <f t="shared" si="103"/>
-        <v>20295.287549878372</v>
+        <v>18603.728899741262</v>
       </c>
       <c r="BH32" s="2">
         <f t="shared" si="103"/>
-        <v>24443.574573185404</v>
+        <v>22560.677170823627</v>
       </c>
       <c r="BI32" s="2">
         <f t="shared" si="103"/>
-        <v>29344.05442695487</v>
+        <v>27237.305920934603</v>
       </c>
     </row>
     <row r="33" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4512,7 +4531,7 @@
       </c>
       <c r="S33" s="4">
         <f t="shared" si="110"/>
-        <v>4790.1516250000032</v>
+        <v>3247</v>
       </c>
       <c r="T33" s="4">
         <f t="shared" si="110"/>
@@ -4524,11 +4543,11 @@
       </c>
       <c r="V33" s="4">
         <f t="shared" si="110"/>
-        <v>6166.1936749999904</v>
+        <v>5052.3536749999948</v>
       </c>
       <c r="W33" s="4">
         <f t="shared" si="110"/>
-        <v>9223.3492222499772</v>
+        <v>3945.2912222499936</v>
       </c>
       <c r="AS33" s="4">
         <f t="shared" ref="AS33:AU33" si="111">AS31-AS32</f>
@@ -4564,287 +4583,287 @@
       </c>
       <c r="BA33" s="4">
         <f t="shared" si="114"/>
-        <v>8816.1516249999295</v>
+        <v>1576.2899999999208</v>
       </c>
       <c r="BB33" s="4">
         <f t="shared" si="114"/>
-        <v>29135.130472250086</v>
+        <v>22743.232472250049</v>
       </c>
       <c r="BC33" s="4">
         <f t="shared" ref="BC33:BI33" si="115">BC31-BC32</f>
-        <v>31207.946323201599</v>
+        <v>25075.088461389143</v>
       </c>
       <c r="BD33" s="4">
         <f t="shared" si="115"/>
-        <v>48022.414756517763</v>
+        <v>41218.895716679763</v>
       </c>
       <c r="BE33" s="4">
         <f t="shared" si="115"/>
-        <v>68952.146032506178</v>
+        <v>61322.738361643591</v>
       </c>
       <c r="BF33" s="4">
         <f t="shared" si="115"/>
-        <v>95082.374907345977</v>
+        <v>86426.75465119959</v>
       </c>
       <c r="BG33" s="4">
         <f t="shared" si="115"/>
-        <v>115006.62944931079</v>
+        <v>105421.13043186715</v>
       </c>
       <c r="BH33" s="4">
         <f t="shared" si="115"/>
-        <v>138513.58924805062</v>
+        <v>127843.8373013339</v>
       </c>
       <c r="BI33" s="4">
         <f t="shared" si="115"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BJ33" s="2">
         <f>+BI33*(1+$BL$47)</f>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" ref="BK33:DS33" si="116">+BJ33*(1+$BL$47)</f>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BL33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BM33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BN33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BO33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BP33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BQ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BR33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BS33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BT33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BU33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BV33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BW33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BX33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BY33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="BZ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CA33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CB33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CC33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CD33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CE33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CF33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CG33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CH33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CI33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CJ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CK33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CL33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CM33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CN33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CO33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CP33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CQ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CR33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CS33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CT33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CU33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CV33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CW33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CX33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CY33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="CZ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DA33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DB33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DC33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DD33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DE33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DF33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DG33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DH33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DI33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DJ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DK33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DL33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DM33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DN33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DO33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DP33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DQ33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DR33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
       <c r="DS33" s="2">
         <f t="shared" si="116"/>
-        <v>166282.97508607758</v>
+        <v>154344.73355196277</v>
       </c>
     </row>
     <row r="34" spans="2:123" x14ac:dyDescent="0.2">
@@ -4901,7 +4920,7 @@
       </c>
       <c r="O34" s="7">
         <f>O33/O35</f>
-        <v>27.757751937984494</v>
+        <v>1.3873498643936459</v>
       </c>
       <c r="P34" s="7">
         <f>P33/P35</f>
@@ -4917,23 +4936,23 @@
       </c>
       <c r="S34" s="7">
         <f t="shared" si="123"/>
-        <v>0.46366775965540635</v>
+        <v>0.31499805975941014</v>
       </c>
       <c r="T34" s="7">
         <f t="shared" si="123"/>
-        <v>0.78915020230374566</v>
+        <v>0.79091101474582814</v>
       </c>
       <c r="U34" s="7">
         <f t="shared" si="123"/>
-        <v>0.54136838979769453</v>
+        <v>0.5425763324602233</v>
       </c>
       <c r="V34" s="7">
         <f t="shared" si="123"/>
-        <v>0.59686319572161362</v>
+        <v>0.49013908372138093</v>
       </c>
       <c r="W34" s="7">
         <f t="shared" si="123"/>
-        <v>0.89278377913560902</v>
+        <v>0.38274070840609176</v>
       </c>
       <c r="AS34" s="7">
         <f t="shared" ref="AS34" si="124">AS33/AS35</f>
@@ -4965,43 +4984,43 @@
       </c>
       <c r="AZ34" s="7">
         <f>AZ33/AZ35</f>
-        <v>11.281149619611158</v>
+        <v>6.1676679914964412</v>
       </c>
       <c r="BA34" s="7">
         <f t="shared" ref="BA34:BB34" si="129">BA33/BA35</f>
-        <v>0.8664522481572412</v>
+        <v>0.15491793611792834</v>
       </c>
       <c r="BB34" s="7">
         <f t="shared" si="129"/>
-        <v>2.8201655669586763</v>
+        <v>2.206367139333532</v>
       </c>
       <c r="BC34" s="7">
         <f t="shared" ref="BC34" si="130">BC33/BC35</f>
-        <v>3.0208059552029423</v>
+        <v>2.4325852213221908</v>
       </c>
       <c r="BD34" s="7">
         <f t="shared" ref="BD34" si="131">BD33/BD35</f>
-        <v>4.6483800945230627</v>
+        <v>3.9987287268800702</v>
       </c>
       <c r="BE34" s="7">
         <f t="shared" ref="BE34" si="132">BE33/BE35</f>
-        <v>6.6742954246932706</v>
+        <v>5.9490433024489322</v>
       </c>
       <c r="BF34" s="7">
         <f t="shared" ref="BF34" si="133">BF33/BF35</f>
-        <v>9.203598384217015</v>
+        <v>8.3844348710903756</v>
       </c>
       <c r="BG34" s="7">
         <f t="shared" ref="BG34" si="134">BG33/BG35</f>
-        <v>11.132187537441757</v>
+        <v>10.227117814500112</v>
       </c>
       <c r="BH34" s="7">
         <f t="shared" ref="BH34" si="135">BH33/BH35</f>
-        <v>13.407568410420154</v>
+        <v>12.4023901146036</v>
       </c>
       <c r="BI34" s="7">
         <f t="shared" ref="BI34" si="136">BI33/BI35</f>
-        <v>16.095535290492457</v>
+        <v>14.973295843224948</v>
       </c>
     </row>
     <row r="35" spans="2:123" x14ac:dyDescent="0.2">
@@ -5045,7 +5064,7 @@
         <v>515</v>
       </c>
       <c r="O35" s="3">
-        <v>516</v>
+        <v>10324</v>
       </c>
       <c r="P35" s="3">
         <v>509</v>
@@ -5057,24 +5076,23 @@
         <v>10331</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" ref="S35:W35" si="137">+R35</f>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="137"/>
-        <v>10331</v>
+        <f t="shared" ref="S35:W35" si="137">+S35</f>
+        <v>10308</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="137"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="V35" s="4">
         <f t="shared" si="137"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="W35" s="4">
         <f t="shared" si="137"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="AD35" s="2">
         <v>161.096869</v>
@@ -5104,7 +5122,7 @@
       </c>
       <c r="AZ35" s="4">
         <f>AVERAGE(L35:O35)</f>
-        <v>2957.5</v>
+        <v>5409.5</v>
       </c>
       <c r="BA35" s="2">
         <f>Q35</f>
@@ -5112,35 +5130,35 @@
       </c>
       <c r="BB35" s="2">
         <f>AVERAGE(T35:W35)</f>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BC35" s="2">
         <f>+BB35</f>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BD35" s="2">
         <f t="shared" ref="BD35:BI35" si="138">+BC35</f>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BE35" s="2">
         <f t="shared" si="138"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BF35" s="2">
         <f t="shared" si="138"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BG35" s="2">
         <f t="shared" si="138"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BH35" s="2">
         <f t="shared" si="138"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
       <c r="BI35" s="2">
         <f t="shared" si="138"/>
-        <v>10331</v>
+        <v>10308</v>
       </c>
     </row>
     <row r="37" spans="2:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -5201,7 +5219,7 @@
       </c>
       <c r="S37" s="10">
         <f t="shared" si="144"/>
-        <v>7.166251855733119E-2</v>
+        <v>8.5814921549791867E-2</v>
       </c>
       <c r="T37" s="10">
         <f t="shared" si="144"/>
@@ -5213,11 +5231,11 @@
       </c>
       <c r="V37" s="10">
         <f t="shared" si="144"/>
-        <v>0.10160337054783186</v>
+        <v>8.0983548516533999E-2</v>
       </c>
       <c r="W37" s="10">
         <f t="shared" si="144"/>
-        <v>7.933891776878732E-2</v>
+        <v>5.0145322511460977E-2</v>
       </c>
       <c r="AC37" s="15">
         <f t="shared" ref="AC37:AD37" si="145">AC21/AB21-1</f>
@@ -5317,194 +5335,198 @@
       </c>
       <c r="BA37" s="15">
         <f t="shared" ref="BA37:BI37" si="163">BA21/AZ21-1</f>
-        <v>9.4146910957766838E-2</v>
+        <v>8.6160907748040527E-2</v>
       </c>
       <c r="BB37" s="15">
         <f>BB21/BA21-1</f>
-        <v>8.113853635965218E-2</v>
+        <v>7.9529356413431396E-2</v>
       </c>
       <c r="BC37" s="15">
         <f t="shared" si="163"/>
-        <v>0.1060628842726743</v>
+        <v>0.10434574650570605</v>
       </c>
       <c r="BD37" s="15">
         <f t="shared" si="163"/>
-        <v>0.11462174259765412</v>
+        <v>0.11268959058022876</v>
       </c>
       <c r="BE37" s="15">
         <f t="shared" si="163"/>
-        <v>0.12411476994453396</v>
+        <v>0.12197295869317482</v>
       </c>
       <c r="BF37" s="15">
         <f t="shared" si="163"/>
-        <v>0.13448355594767492</v>
+        <v>0.13214819542605105</v>
       </c>
       <c r="BG37" s="15">
         <f t="shared" si="163"/>
-        <v>0.10344341530827039</v>
+        <v>0.10187906231856747</v>
       </c>
       <c r="BH37" s="15">
         <f t="shared" si="163"/>
-        <v>0.10811997015905717</v>
+        <v>0.10649882724088133</v>
       </c>
       <c r="BI37" s="15">
         <f t="shared" si="163"/>
-        <v>0.11293900125349898</v>
-      </c>
-    </row>
-    <row r="38" spans="2:123" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
+        <v>0.11127308138058956</v>
+      </c>
+    </row>
+    <row r="38" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
         <f t="shared" ref="H38:H39" si="164">+H19/D19-1</f>
         <v>0.22045911968030807</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="8">
         <f t="shared" ref="I38:I39" si="165">+I19/E19-1</f>
         <v>0.40127175368139234</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="8">
         <f t="shared" ref="J38:J39" si="166">+J19/F19-1</f>
         <v>0.32844988168957356</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="8">
         <f t="shared" ref="K38:K39" si="167">+K19/G19-1</f>
         <v>0.40588025800324479</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="8">
         <f t="shared" ref="L38:P38" si="168">+L19/H19-1</f>
         <v>0.37403503740350375</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="8">
         <f t="shared" si="168"/>
         <v>0.15444630204601539</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="8">
         <f t="shared" si="168"/>
         <v>3.9830219426232549E-2</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="8">
         <f t="shared" si="168"/>
         <v>5.0664264805224679E-3</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="8">
         <f t="shared" si="168"/>
         <v>-1.8020211859247515E-2</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q38" s="8">
         <f>+Q19/M19-1</f>
         <v>-2.4636231984001111E-2</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R38" s="8">
         <f>+R19/N19-1</f>
         <v>8.1347036956046281E-2</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="20"/>
-      <c r="AU38" s="20"/>
-      <c r="AV38" s="20"/>
-      <c r="AW38" s="20"/>
-      <c r="AX38" s="20"/>
-      <c r="AY38" s="20"/>
-      <c r="AZ38" s="20"/>
-      <c r="BA38" s="20"/>
-      <c r="BB38" s="20"/>
-      <c r="BC38" s="20"/>
-      <c r="BD38" s="20"/>
-      <c r="BE38" s="20"/>
-      <c r="BF38" s="20"/>
-      <c r="BG38" s="20"/>
-      <c r="BH38" s="20"/>
-      <c r="BI38" s="20"/>
-    </row>
-    <row r="39" spans="2:123" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+      <c r="S38" s="8">
+        <f>+S19/O19-1</f>
+        <v>-1.2392181023860194E-2</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="13"/>
+      <c r="AT38" s="13"/>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="13"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="13"/>
+      <c r="BB38" s="13"/>
+      <c r="BC38" s="13"/>
+      <c r="BD38" s="13"/>
+      <c r="BE38" s="13"/>
+      <c r="BF38" s="13"/>
+      <c r="BG38" s="13"/>
+      <c r="BH38" s="13"/>
+      <c r="BI38" s="13"/>
+    </row>
+    <row r="39" spans="2:123" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
         <f t="shared" si="164"/>
         <v>0.32238265727662596</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="8">
         <f t="shared" si="165"/>
         <v>0.40365906780891536</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="8">
         <f t="shared" si="166"/>
         <v>0.43351512146752613</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="8">
         <f t="shared" si="167"/>
         <v>0.47713782355332701</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="8">
         <f t="shared" ref="L39" si="169">+L20/H20-1</f>
         <v>0.5181636964089138</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="8">
         <f t="shared" ref="M39" si="170">+M20/I20-1</f>
         <v>0.42433019551049966</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="8">
         <f t="shared" ref="N39" si="171">+N20/J20-1</f>
         <v>0.28970971386410271</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="8">
         <f t="shared" ref="O39" si="172">+O20/K20-1</f>
         <v>0.21095799922934355</v>
       </c>
-      <c r="P39" s="19">
-        <f t="shared" ref="P39:R39" si="173">+P20/L20-1</f>
+      <c r="P39" s="8">
+        <f t="shared" ref="P39:S39" si="173">+P20/L20-1</f>
         <v>0.17563250827993016</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="8">
         <f t="shared" si="173"/>
         <v>0.17399593289273008</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="8">
         <f t="shared" si="173"/>
         <v>0.21140231693363853</v>
       </c>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
-      <c r="AT39" s="20"/>
-      <c r="AU39" s="20"/>
-      <c r="AV39" s="20"/>
-      <c r="AW39" s="20"/>
-      <c r="AX39" s="20"/>
-      <c r="AY39" s="20"/>
-      <c r="AZ39" s="20"/>
-      <c r="BA39" s="20"/>
-      <c r="BB39" s="20"/>
-      <c r="BC39" s="20"/>
-      <c r="BD39" s="20"/>
-      <c r="BE39" s="20"/>
-      <c r="BF39" s="20"/>
-      <c r="BG39" s="20"/>
-      <c r="BH39" s="20"/>
-      <c r="BI39" s="20"/>
+      <c r="S39" s="8">
+        <f t="shared" si="173"/>
+        <v>0.19208739923631746</v>
+      </c>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="13"/>
+      <c r="BD39" s="13"/>
+      <c r="BE39" s="13"/>
+      <c r="BF39" s="13"/>
+      <c r="BG39" s="13"/>
+      <c r="BH39" s="13"/>
+      <c r="BI39" s="13"/>
     </row>
     <row r="40" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
@@ -5755,39 +5777,39 @@
         <v>58</v>
       </c>
       <c r="G42" s="8">
-        <f>+G15/C15-1</f>
+        <f t="shared" ref="G42:O43" si="188">+G15/C15-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="H42" s="8">
-        <f>+H15/D15-1</f>
+        <f t="shared" si="188"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="I42" s="8">
-        <f>+I15/E15-1</f>
+        <f t="shared" si="188"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="J42" s="8">
-        <f>+J15/F15-1</f>
+        <f t="shared" si="188"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="K42" s="8">
-        <f>+K15/G15-1</f>
+        <f t="shared" si="188"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="L42" s="8">
-        <f>+L15/H15-1</f>
+        <f t="shared" si="188"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="M42" s="8">
-        <f>+M15/I15-1</f>
+        <f t="shared" si="188"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="N42" s="8">
-        <f>+N15/J15-1</f>
+        <f t="shared" si="188"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="O42" s="8">
-        <f>+O15/K15-1</f>
+        <f t="shared" si="188"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="P42" s="8">
@@ -5795,40 +5817,40 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="Q42" s="8">
-        <f>+Q15/M15-1</f>
+        <f t="shared" ref="Q42:W43" si="189">+Q15/M15-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="R42" s="8">
-        <f>+R15/N15-1</f>
+        <f t="shared" si="189"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="S42" s="8">
-        <f>+S15/O15-1</f>
+        <f t="shared" si="189"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="T42" s="8">
-        <f>+T15/P15-1</f>
+        <f t="shared" si="189"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="U42" s="8">
-        <f>+U15/Q15-1</f>
+        <f t="shared" si="189"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="V42" s="8">
-        <f>+V15/R15-1</f>
+        <f t="shared" si="189"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="W42" s="8">
-        <f>+W15/S15-1</f>
+        <f t="shared" si="189"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AW42" s="13"/>
       <c r="AX42" s="13">
-        <f t="shared" ref="AX42" si="188">AX15/AW15-1</f>
+        <f t="shared" ref="AX42" si="190">AX15/AW15-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="AY42" s="13">
-        <f t="shared" ref="AY42" si="189">AY15/AX15-1</f>
+        <f t="shared" ref="AY42" si="191">AY15/AX15-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="AZ42" s="13">
@@ -5836,39 +5858,39 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BA42" s="13">
-        <f>BA15/AZ15-1</f>
+        <f t="shared" ref="BA42:BI42" si="192">BA15/AZ15-1</f>
         <v>9.5499874087131564E-2</v>
       </c>
       <c r="BB42" s="13">
-        <f>BB15/BA15-1</f>
+        <f t="shared" si="192"/>
         <v>8.0000000000000293E-2</v>
       </c>
       <c r="BC42" s="13">
-        <f>BC15/BB15-1</f>
+        <f t="shared" si="192"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BD42" s="13">
-        <f>BD15/BC15-1</f>
+        <f t="shared" si="192"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BE42" s="13">
-        <f>BE15/BD15-1</f>
+        <f t="shared" si="192"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BF42" s="13">
-        <f>BF15/BE15-1</f>
+        <f t="shared" si="192"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BG42" s="13">
-        <f>BG15/BF15-1</f>
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BH42" s="13">
-        <f>BH15/BG15-1</f>
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BI42" s="13">
-        <f>BI15/BH15-1</f>
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -5877,120 +5899,120 @@
         <v>59</v>
       </c>
       <c r="G43" s="8">
-        <f>+G16/C16-1</f>
+        <f t="shared" si="188"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="H43" s="8">
-        <f>+H16/D16-1</f>
+        <f t="shared" si="188"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="I43" s="8">
-        <f>+I16/E16-1</f>
+        <f t="shared" si="188"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="J43" s="8">
-        <f>+J16/F16-1</f>
+        <f t="shared" si="188"/>
         <v>0.50529838259899607</v>
       </c>
       <c r="K43" s="8">
-        <f>+K16/G16-1</f>
+        <f t="shared" si="188"/>
         <v>0.53701380175658731</v>
       </c>
       <c r="L43" s="8">
-        <f>+L16/H16-1</f>
+        <f t="shared" si="188"/>
         <v>0.63364055299539168</v>
       </c>
       <c r="M43" s="8">
-        <f>+M16/I16-1</f>
+        <f t="shared" si="188"/>
         <v>0.76522151149016815</v>
       </c>
       <c r="N43" s="8">
-        <f>+N16/J16-1</f>
+        <f t="shared" si="188"/>
         <v>0.41015190811411628</v>
       </c>
       <c r="O43" s="8">
-        <f>+O16/K16-1</f>
+        <f t="shared" si="188"/>
         <v>0.32190476190476192</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" ref="P43" si="190">+P16/L16-1</f>
+        <f t="shared" ref="P43" si="193">+P16/L16-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="Q43" s="8">
-        <f>+Q16/M16-1</f>
+        <f t="shared" si="189"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="R43" s="8">
-        <f>+R16/N16-1</f>
+        <f t="shared" si="189"/>
         <v>0.25433526011560703</v>
       </c>
       <c r="S43" s="8">
-        <f>+S16/O16-1</f>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T43" s="8">
-        <f>+T16/P16-1</f>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U43" s="8">
-        <f>+U16/Q16-1</f>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="V43" s="8">
-        <f>+V16/R16-1</f>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="W43" s="8">
-        <f>+W16/S16-1</f>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AW43" s="13"/>
       <c r="AX43" s="13">
-        <f t="shared" ref="AX43" si="191">AX16/AW16-1</f>
+        <f t="shared" ref="AX43" si="194">AX16/AW16-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="AY43" s="13">
-        <f t="shared" ref="AY43:AZ43" si="192">AY16/AX16-1</f>
+        <f t="shared" ref="AY43:AZ43" si="195">AY16/AX16-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="AZ43" s="13">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.49269461077844312</v>
       </c>
       <c r="BA43" s="13">
-        <f>BA16/AZ16-1</f>
+        <f t="shared" ref="BA43:BI43" si="196">BA16/AZ16-1</f>
         <v>0.18323491655969182</v>
       </c>
       <c r="BB43" s="13">
-        <f>BB16/BA16-1</f>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BC43" s="13">
-        <f>BC16/BB16-1</f>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BD43" s="13">
-        <f>BD16/BC16-1</f>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BE43" s="13">
-        <f>BE16/BD16-1</f>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BF43" s="13">
-        <f>BF16/BE16-1</f>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BG43" s="13">
-        <f>BG16/BF16-1</f>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BH43" s="13">
-        <f>BH16/BG16-1</f>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BI43" s="13">
-        <f>BI16/BH16-1</f>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -5999,39 +6021,39 @@
         <v>39</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" ref="G44:H44" si="193">G10/C10-1</f>
+        <f t="shared" ref="G44:H44" si="197">G10/C10-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" ref="I44" si="194">I10/E10-1</f>
+        <f t="shared" ref="I44" si="198">I10/E10-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" ref="J44" si="195">J10/F10-1</f>
+        <f t="shared" ref="J44" si="199">J10/F10-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="K44" s="8">
-        <f t="shared" ref="K44" si="196">K10/G10-1</f>
+        <f t="shared" ref="K44" si="200">K10/G10-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" ref="L44" si="197">L10/H10-1</f>
+        <f t="shared" ref="L44" si="201">L10/H10-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="M44" s="8">
-        <f t="shared" ref="M44" si="198">M10/I10-1</f>
+        <f t="shared" ref="M44" si="202">M10/I10-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44" si="199">N10/J10-1</f>
+        <f t="shared" ref="N44" si="203">N10/J10-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" ref="O44" si="200">O10/K10-1</f>
+        <f>O10/K10-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="P44" s="8">
@@ -6044,50 +6066,50 @@
       </c>
       <c r="R44" s="8">
         <f>R10/N10-1</f>
-        <v>0.39999999999999991</v>
+        <v>0.27486033519553077</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44:W44" si="201">S10/O10-1</f>
+        <f>S10/O10-1</f>
+        <v>0.20236220472440936</v>
+      </c>
+      <c r="T44" s="8">
+        <f t="shared" ref="S44:W44" si="204">T10/P10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="T44" s="8">
-        <f t="shared" si="201"/>
+      <c r="U44" s="8">
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="U44" s="8">
-        <f t="shared" si="201"/>
+      <c r="V44" s="8">
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="V44" s="8">
-        <f t="shared" si="201"/>
+      <c r="W44" s="8">
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="W44" s="8">
-        <f t="shared" si="201"/>
-        <v>0.30000000000000004</v>
-      </c>
       <c r="AT44" s="13">
-        <f t="shared" ref="AT44:AV44" si="202">AT10/AS10-1</f>
+        <f t="shared" ref="AT44:AV44" si="205">AT10/AS10-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="AU44" s="13">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="AV44" s="13">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="AW44" s="13">
-        <f t="shared" ref="AW44" si="203">AW10/AV10-1</f>
+        <f t="shared" ref="AW44" si="206">AW10/AV10-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="AX44" s="13">
-        <f t="shared" ref="AX44" si="204">AX10/AW10-1</f>
+        <f t="shared" ref="AX44" si="207">AX10/AW10-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="AY44" s="13">
-        <f t="shared" ref="AY44" si="205">AY10/AX10-1</f>
+        <f t="shared" ref="AY44" si="208">AY10/AX10-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="AZ44" s="13">
@@ -6095,156 +6117,156 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BA44" s="13">
-        <f t="shared" ref="BA44:BI44" si="206">BA10/AZ10-1</f>
-        <v>0.34799524131056869</v>
+        <f t="shared" ref="BA44:BI44" si="209">BA10/AZ10-1</f>
+        <v>0.28767563743931057</v>
       </c>
       <c r="BB44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="BC44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BD44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BE44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BF44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BG44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BH44" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BI44" s="13">
-        <f t="shared" si="206"/>
-        <v>0.19999999999999973</v>
+        <f t="shared" si="209"/>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="45" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="21">
-        <f t="shared" ref="C45:H45" si="207">C24/C21</f>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:H45" si="210">C24/C21</f>
         <v>0.24272273876462705</v>
       </c>
-      <c r="D45" s="21">
-        <f t="shared" si="207"/>
+      <c r="D45" s="16">
+        <f t="shared" si="210"/>
         <v>0.28775544388609714</v>
       </c>
-      <c r="E45" s="21">
-        <f t="shared" si="207"/>
+      <c r="E45" s="16">
+        <f t="shared" si="210"/>
         <v>0.28067629802536115</v>
       </c>
-      <c r="F45" s="21">
-        <f t="shared" si="207"/>
+      <c r="F45" s="16">
+        <f t="shared" si="210"/>
         <v>0.26452894357039769</v>
       </c>
-      <c r="G45" s="21">
-        <f t="shared" si="207"/>
+      <c r="G45" s="16">
+        <f t="shared" si="210"/>
         <v>0.24323798849457323</v>
       </c>
-      <c r="H45" s="21">
-        <f t="shared" si="207"/>
+      <c r="H45" s="16">
+        <f t="shared" si="210"/>
         <v>0.26061602078142393</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="16">
         <f>I24/I21</f>
         <v>0.25245186251574592</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="16">
         <f>J24/J21</f>
         <v>0.25309688491341203</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="16">
         <f>K24/K21</f>
         <v>0.22139301501334077</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="16">
         <f>L24/L21</f>
         <v>0.2726275825208721</v>
       </c>
-      <c r="M45" s="21">
-        <f t="shared" ref="M45:P45" si="208">M24/M21</f>
+      <c r="M45" s="16">
+        <f t="shared" ref="M45:P45" si="211">M24/M21</f>
         <v>0.27649451715599577</v>
       </c>
-      <c r="N45" s="21">
-        <f t="shared" si="208"/>
+      <c r="N45" s="16">
+        <f t="shared" si="211"/>
         <v>0.26516983720174708</v>
       </c>
-      <c r="O45" s="21">
-        <f t="shared" si="208"/>
+      <c r="O45" s="16">
+        <f t="shared" si="211"/>
         <v>0.23383692836142403</v>
       </c>
-      <c r="P45" s="21">
-        <f t="shared" si="208"/>
+      <c r="P45" s="16">
+        <f t="shared" si="211"/>
         <v>0.25483494211809971</v>
       </c>
-      <c r="Q45" s="21">
-        <f t="shared" ref="Q45:W45" si="209">Q24/Q21</f>
+      <c r="Q45" s="16">
+        <f t="shared" ref="Q45:W45" si="212">Q24/Q21</f>
         <v>0.2843096821023805</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="16">
         <f>R24/R21</f>
         <v>0.28520625329462396</v>
       </c>
-      <c r="S45" s="8">
-        <f t="shared" si="209"/>
-        <v>0.2574637056853934</v>
-      </c>
-      <c r="T45" s="8">
-        <f t="shared" si="209"/>
+      <c r="S45" s="16">
+        <f>S24/S21</f>
+        <v>0.27117905686174631</v>
+      </c>
+      <c r="T45" s="16">
+        <f t="shared" si="212"/>
         <v>0.29728076320568275</v>
       </c>
-      <c r="U45" s="8">
-        <f t="shared" si="209"/>
+      <c r="U45" s="16">
+        <f t="shared" si="212"/>
         <v>0.30591126068381436</v>
       </c>
-      <c r="V45" s="8">
-        <f t="shared" si="209"/>
-        <v>0.31044266434805606</v>
-      </c>
-      <c r="W45" s="8">
-        <f t="shared" si="209"/>
-        <v>0.28704604899058983</v>
+      <c r="V45" s="16">
+        <f t="shared" si="212"/>
+        <v>0.30682684750122802</v>
+      </c>
+      <c r="W45" s="16">
+        <f t="shared" si="212"/>
+        <v>0.28397880088657146</v>
       </c>
       <c r="AS45" s="14">
-        <f t="shared" ref="AS45:AU45" si="210">AS24/AS21</f>
+        <f t="shared" ref="AS45:AU45" si="213">AS24/AS21</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="AT45" s="14">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="AU45" s="14">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="AV45" s="14">
-        <f t="shared" ref="AV45" si="211">AV24/AV21</f>
+        <f t="shared" ref="AV45" si="214">AV24/AV21</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="AW45" s="14">
-        <f t="shared" ref="AW45:AX45" si="212">AW24/AW21</f>
+        <f t="shared" ref="AW45:AX45" si="215">AW24/AW21</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="AX45" s="14">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="AY45" s="14">
-        <f t="shared" ref="AY45" si="213">AY24/AY21</f>
+        <f t="shared" ref="AY45" si="216">AY24/AY21</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="AZ45" s="14">
@@ -6252,40 +6274,40 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BA45" s="14">
-        <f t="shared" ref="BA45:BI45" si="214">BA24/BA21</f>
-        <v>0.27297101732192519</v>
+        <f t="shared" ref="BA45:BI45" si="217">BA24/BA21</f>
+        <v>0.26880594637347199</v>
       </c>
       <c r="BB45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.2997051324776514</v>
+        <f t="shared" si="217"/>
+        <v>0.29793170256836016</v>
       </c>
       <c r="BC45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.280841254152292</v>
+        <f t="shared" si="217"/>
+        <v>0.28064156725286971</v>
       </c>
       <c r="BD45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.28634287952916154</v>
+        <f t="shared" si="217"/>
+        <v>0.28617657236240057</v>
       </c>
       <c r="BE45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.29153999288615529</v>
+        <f t="shared" si="217"/>
+        <v>0.29142062609610941</v>
       </c>
       <c r="BF45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.29633607444567234</v>
+        <f t="shared" si="217"/>
+        <v>0.296276713678996</v>
       </c>
       <c r="BG45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.29651353048224111</v>
+        <f t="shared" si="217"/>
+        <v>0.29645201477117827</v>
       </c>
       <c r="BH45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.2966963929066983</v>
+        <f t="shared" si="217"/>
+        <v>0.29663317809423062</v>
       </c>
       <c r="BI45" s="14">
-        <f t="shared" si="214"/>
-        <v>0.29688321871723428</v>
+        <f t="shared" si="217"/>
+        <v>0.29681881703040441</v>
       </c>
       <c r="BK45" t="s">
         <v>77</v>
@@ -6319,24 +6341,24 @@
         <v>-257</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" ref="S47:W47" si="215">+R47+S33</f>
-        <v>4533.1516250000032</v>
+        <f t="shared" ref="S47:W47" si="218">+R47+S33</f>
+        <v>2990</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="215"/>
-        <v>12685.862365000001</v>
+        <f t="shared" si="218"/>
+        <v>11142.710739999997</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="215"/>
-        <v>18278.739199999982</v>
+        <f t="shared" si="218"/>
+        <v>16735.58757499998</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="215"/>
-        <v>24444.932874999973</v>
+        <f t="shared" si="218"/>
+        <v>21787.941249999974</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="215"/>
-        <v>33668.282097249947</v>
+        <f t="shared" si="218"/>
+        <v>25733.232472249969</v>
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
@@ -6345,39 +6367,39 @@
       <c r="AB47" s="4"/>
       <c r="BA47" s="2">
         <f>+S47</f>
-        <v>4533.1516250000032</v>
+        <v>2990</v>
       </c>
       <c r="BB47" s="2">
         <f>+W47</f>
-        <v>33668.282097249947</v>
+        <v>25733.232472249969</v>
       </c>
       <c r="BC47" s="2">
         <f>+BB47+BC33</f>
-        <v>64876.228420451545</v>
+        <v>50808.320933639116</v>
       </c>
       <c r="BD47" s="2">
-        <f t="shared" ref="BD47:BI47" si="216">+BC47+BD33</f>
-        <v>112898.64317696932</v>
+        <f t="shared" ref="BD47:BI47" si="219">+BC47+BD33</f>
+        <v>92027.216650318878</v>
       </c>
       <c r="BE47" s="2">
-        <f t="shared" si="216"/>
-        <v>181850.78920947551</v>
+        <f t="shared" si="219"/>
+        <v>153349.95501196248</v>
       </c>
       <c r="BF47" s="2">
-        <f t="shared" si="216"/>
-        <v>276933.16411682148</v>
+        <f t="shared" si="219"/>
+        <v>239776.70966316207</v>
       </c>
       <c r="BG47" s="2">
-        <f t="shared" si="216"/>
-        <v>391939.79356613226</v>
+        <f t="shared" si="219"/>
+        <v>345197.84009502921</v>
       </c>
       <c r="BH47" s="2">
-        <f t="shared" si="216"/>
-        <v>530453.3828141829</v>
+        <f t="shared" si="219"/>
+        <v>473041.67739636311</v>
       </c>
       <c r="BI47" s="2">
-        <f t="shared" si="216"/>
-        <v>696736.35790026048</v>
+        <f t="shared" si="219"/>
+        <v>627386.41094832588</v>
       </c>
       <c r="BK47" t="s">
         <v>78</v>
@@ -6415,13 +6437,16 @@
         <f>34947+23715</f>
         <v>58662</v>
       </c>
-      <c r="S48" s="4"/>
+      <c r="S48" s="4">
+        <f>53888+16138</f>
+        <v>70026</v>
+      </c>
       <c r="BK48" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BL48" s="2">
         <f>NPV(BL45,BB33:DS33)+Main!K5-Main!K6</f>
-        <v>1563584.2438406674</v>
+        <v>1436851.647090713</v>
       </c>
     </row>
     <row r="49" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6450,10 +6475,12 @@
       <c r="R49" s="4">
         <v>36647</v>
       </c>
-      <c r="S49" s="4"/>
+      <c r="S49" s="4">
+        <v>34405</v>
+      </c>
       <c r="BL49" s="1">
         <f>+BL48/Main!K3</f>
-        <v>151.34877977356186</v>
+        <v>139.08156491053268</v>
       </c>
     </row>
     <row r="50" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6482,7 +6509,9 @@
       <c r="R50" s="4">
         <v>36154</v>
       </c>
-      <c r="S50" s="4"/>
+      <c r="S50" s="4">
+        <v>42360</v>
+      </c>
     </row>
     <row r="51" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
@@ -6510,7 +6539,9 @@
       <c r="R51" s="4">
         <v>177195</v>
       </c>
-      <c r="S51" s="4"/>
+      <c r="S51" s="4">
+        <v>186715</v>
+      </c>
     </row>
     <row r="52" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
@@ -6538,7 +6569,9 @@
       <c r="R52" s="4">
         <v>62033</v>
       </c>
-      <c r="S52" s="4"/>
+      <c r="S52" s="4">
+        <v>66123</v>
+      </c>
     </row>
     <row r="53" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
@@ -6566,7 +6599,9 @@
       <c r="R53" s="4">
         <v>20168</v>
       </c>
-      <c r="S53" s="4"/>
+      <c r="S53" s="4">
+        <v>20288</v>
+      </c>
     </row>
     <row r="54" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
@@ -6594,7 +6629,9 @@
       <c r="R54" s="4">
         <v>37503</v>
       </c>
-      <c r="S54" s="4"/>
+      <c r="S54" s="4">
+        <v>42758</v>
+      </c>
     </row>
     <row r="55" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
@@ -6625,7 +6662,10 @@
         <f>SUM(R48:R54)</f>
         <v>428362</v>
       </c>
-      <c r="S55" s="4"/>
+      <c r="S55" s="4">
+        <f>SUM(S48:S54)</f>
+        <v>462675</v>
+      </c>
     </row>
     <row r="57" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
@@ -6653,7 +6693,9 @@
       <c r="R57" s="4">
         <v>67760</v>
       </c>
-      <c r="S57" s="4"/>
+      <c r="S57" s="4">
+        <v>79600</v>
+      </c>
     </row>
     <row r="58" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
@@ -6681,7 +6723,9 @@
       <c r="R58" s="4">
         <v>59974</v>
       </c>
-      <c r="S58" s="4"/>
+      <c r="S58" s="4">
+        <v>62566</v>
+      </c>
     </row>
     <row r="59" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
@@ -6709,7 +6753,9 @@
       <c r="R59" s="4">
         <v>12629</v>
       </c>
-      <c r="S59" s="4"/>
+      <c r="S59" s="4">
+        <v>13227</v>
+      </c>
     </row>
     <row r="60" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
@@ -6737,7 +6783,9 @@
       <c r="R60" s="4">
         <v>69332</v>
       </c>
-      <c r="S60" s="4"/>
+      <c r="S60" s="4">
+        <v>72968</v>
+      </c>
     </row>
     <row r="61" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
@@ -6765,7 +6813,9 @@
       <c r="R61" s="4">
         <v>58919</v>
       </c>
-      <c r="S61" s="4"/>
+      <c r="S61" s="4">
+        <v>67150</v>
+      </c>
     </row>
     <row r="62" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
@@ -6793,7 +6843,9 @@
       <c r="R62" s="4">
         <v>22259</v>
       </c>
-      <c r="S62" s="4"/>
+      <c r="S62" s="4">
+        <v>21121</v>
+      </c>
     </row>
     <row r="63" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
@@ -6821,7 +6873,9 @@
       <c r="R63" s="4">
         <v>137489</v>
       </c>
-      <c r="S63" s="4"/>
+      <c r="S63" s="4">
+        <v>146043</v>
+      </c>
     </row>
     <row r="64" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
@@ -6852,7 +6906,10 @@
         <f>SUM(R57:R63)</f>
         <v>428362</v>
       </c>
-      <c r="S64" s="4"/>
+      <c r="S64" s="4">
+        <f>SUM(S57:S63)</f>
+        <v>462675</v>
+      </c>
     </row>
     <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
@@ -7584,11 +7641,11 @@
         <v>102</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" ref="P94:R94" si="217">+P74+P76</f>
+        <f t="shared" ref="P94:Q94" si="220">+P74+P76</f>
         <v>-17741</v>
       </c>
       <c r="Q94" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>-6759</v>
       </c>
       <c r="R94" s="4">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9214A-2BA4-4E7C-8D00-70EAC56632DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8768B91-9F6B-463B-A22F-CE35B404C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="1875" windowWidth="32715" windowHeight="15915" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -457,12 +457,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -975,9 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1049,6 +1041,9 @@
         <v>1015174.44</v>
       </c>
       <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
@@ -1064,11 +1059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:DS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2725,7 +2720,7 @@
         <v>125730.72</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" ref="S21:W21" si="29">SUM(U10:U17)</f>
+        <f t="shared" ref="U21:W21" si="29">SUM(U10:U17)</f>
         <v>131075.60999999999</v>
       </c>
       <c r="V21" s="6">
@@ -4377,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" ref="S32:W32" si="99">+T31*0.15</f>
+        <f t="shared" ref="T32:W32" si="99">+T31*0.15</f>
         <v>1438.7136599999994</v>
       </c>
       <c r="U32" s="4">
@@ -5079,7 +5074,7 @@
         <v>10308</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="S35:W35" si="137">+S35</f>
+        <f t="shared" ref="T35:W35" si="137">+S35</f>
         <v>10308</v>
       </c>
       <c r="U35" s="4">
@@ -6073,7 +6068,7 @@
         <v>0.20236220472440936</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="S44:W44" si="204">T10/P10-1</f>
+        <f t="shared" ref="T44:W44" si="204">T10/P10-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="U44" s="8">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8768B91-9F6B-463B-A22F-CE35B404C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC99A0-27A8-45CA-BACF-32280C6AD37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1059,11 +1059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:DS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2928,6 +2928,15 @@
         <f t="shared" si="34"/>
         <v>86624.049740000017</v>
       </c>
+      <c r="AF22" s="2">
+        <v>2323.875</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>2940.3180000000002</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>4006.5309999999999</v>
+      </c>
       <c r="AS22" s="2">
         <v>62752</v>
       </c>
@@ -3063,6 +3072,15 @@
         <f t="shared" si="36"/>
         <v>25566.363875000003</v>
       </c>
+      <c r="AF23" s="2">
+        <v>798.55799999999999</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>392.46699999999998</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>477.03199999999998</v>
+      </c>
       <c r="AS23" s="2">
         <v>10766</v>
       </c>
@@ -3215,6 +3233,18 @@
         <f t="shared" si="44"/>
         <v>44495.469084999997</v>
       </c>
+      <c r="AF24" s="2">
+        <f>AF21-AF22-AF23</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
+        <f>AG21-AG22-AG23</f>
+        <v>600.15099999999995</v>
+      </c>
+      <c r="AH24" s="2">
+        <f>AH21-AH22-AH23</f>
+        <v>780.13599999999974</v>
+      </c>
       <c r="AS24" s="4">
         <f t="shared" ref="AS24:AV24" si="45">AS21-AS22-AS23</f>
         <v>15470</v>
@@ -3355,6 +3385,15 @@
         <f t="shared" si="48"/>
         <v>22895.4</v>
       </c>
+      <c r="AF25" s="2">
+        <v>241.16499999999999</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>215.61699999999999</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>207.809</v>
+      </c>
       <c r="AS25" s="2">
         <v>9275</v>
       </c>
@@ -3490,6 +3529,15 @@
         <f t="shared" ref="W26:W27" si="53">+S26*1.05</f>
         <v>13458.900000000001</v>
       </c>
+      <c r="AF26" s="2">
+        <v>138.28299999999999</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>125.383</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>122.78700000000001</v>
+      </c>
       <c r="AS26" s="2">
         <v>4332</v>
       </c>
@@ -3625,6 +3673,15 @@
         <f t="shared" si="53"/>
         <v>3499.65</v>
       </c>
+      <c r="AF27" s="2">
+        <v>89.861999999999995</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>79.049000000000007</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>88.302000000000007</v>
+      </c>
       <c r="AS27" s="2">
         <v>1552</v>
       </c>
@@ -3777,6 +3834,18 @@
         <f t="shared" si="63"/>
         <v>39853.950000000004</v>
       </c>
+      <c r="AF28" s="2">
+        <f>AF27+AF26+AF25</f>
+        <v>469.30999999999995</v>
+      </c>
+      <c r="AG28" s="2">
+        <f>AG27+AG26+AG25</f>
+        <v>420.04899999999998</v>
+      </c>
+      <c r="AH28" s="2">
+        <f>AH27+AH26+AH25</f>
+        <v>418.89800000000002</v>
+      </c>
       <c r="AS28" s="4">
         <f t="shared" ref="AS28:AU28" si="64">SUM(AS25:AS27)</f>
         <v>15159</v>
@@ -3934,6 +4003,18 @@
         <f t="shared" si="77"/>
         <v>4641.5190849999926</v>
       </c>
+      <c r="AF29" s="2">
+        <f>AF24-AF28</f>
+        <v>-469.30999999999995</v>
+      </c>
+      <c r="AG29" s="2">
+        <f>AG24-AG28</f>
+        <v>180.10199999999998</v>
+      </c>
+      <c r="AH29" s="2">
+        <f>AH24-AH28</f>
+        <v>361.23799999999972</v>
+      </c>
       <c r="AS29" s="4">
         <f t="shared" ref="AS29:AU29" si="78">AS24-AS28</f>
         <v>311</v>
@@ -4075,6 +4156,18 @@
         <f>445-694</f>
         <v>-249</v>
       </c>
+      <c r="AF30" s="2">
+        <f>29.103-139.232</f>
+        <v>-110.12899999999999</v>
+      </c>
+      <c r="AG30" s="2">
+        <f>23.687-142.925</f>
+        <v>-119.23800000000001</v>
+      </c>
+      <c r="AH30" s="2">
+        <f>21.955-129.979</f>
+        <v>-108.02400000000002</v>
+      </c>
       <c r="AS30" s="2">
         <f>-133+39-210-118</f>
         <v>-422</v>
@@ -4232,6 +4325,18 @@
         <f t="shared" si="94"/>
         <v>4641.5190849999926</v>
       </c>
+      <c r="AF31" s="2">
+        <f>AF29+AF30</f>
+        <v>-579.43899999999996</v>
+      </c>
+      <c r="AG31" s="2">
+        <f>AG29+AG30</f>
+        <v>60.863999999999962</v>
+      </c>
+      <c r="AH31" s="2">
+        <f>AH29+AH30</f>
+        <v>253.21399999999971</v>
+      </c>
       <c r="AS31" s="4">
         <f t="shared" ref="AS31:AU31" si="95">AS29+AS30</f>
         <v>-111</v>
@@ -4387,6 +4492,15 @@
         <f t="shared" si="99"/>
         <v>696.22786274999885</v>
       </c>
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0</v>
+      </c>
       <c r="AS32" s="2">
         <f>167-37</f>
         <v>130</v>
@@ -4544,6 +4658,18 @@
         <f t="shared" si="110"/>
         <v>3945.2912222499936</v>
       </c>
+      <c r="AF33" s="2">
+        <f>AF31-AF32</f>
+        <v>-579.43899999999996</v>
+      </c>
+      <c r="AG33" s="2">
+        <f>AG31-AG32</f>
+        <v>60.863999999999962</v>
+      </c>
+      <c r="AH33" s="2">
+        <f>AH31-AH32</f>
+        <v>253.21399999999971</v>
+      </c>
       <c r="AS33" s="4">
         <f t="shared" ref="AS33:AU33" si="111">AS31-AS32</f>
         <v>-241</v>
@@ -4949,6 +5075,18 @@
         <f t="shared" si="123"/>
         <v>0.38274070840609176</v>
       </c>
+      <c r="AF34" s="1">
+        <f>AF33/AF35</f>
+        <v>-1.5909431620681416</v>
+      </c>
+      <c r="AG34" s="1">
+        <f>AG33/AG35</f>
+        <v>0.16086139500955421</v>
+      </c>
+      <c r="AH34" s="1">
+        <f>AH33/AH35</f>
+        <v>0.60382208741105259</v>
+      </c>
       <c r="AS34" s="7">
         <f t="shared" ref="AS34" si="124">AS33/AS35</f>
         <v>-0.52164502164502169</v>
@@ -5091,6 +5229,15 @@
       </c>
       <c r="AD35" s="2">
         <v>161.096869</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>364.21100000000001</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>378.363</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>419.35199999999998</v>
       </c>
       <c r="AS35" s="2">
         <v>462</v>
@@ -6906,7 +7053,7 @@
         <v>462675</v>
       </c>
     </row>
-    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -6937,7 +7084,7 @@
       </c>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -6965,7 +7112,7 @@
       </c>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -6993,7 +7140,7 @@
       </c>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -7021,7 +7168,7 @@
       </c>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -7049,7 +7196,7 @@
       </c>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -7077,7 +7224,7 @@
       </c>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -7105,7 +7252,7 @@
       </c>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -7136,7 +7283,7 @@
       </c>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -7166,8 +7313,17 @@
         <v>11404</v>
       </c>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF74" s="2">
+        <v>-119.782</v>
+      </c>
+      <c r="AG74" s="2">
+        <v>174.291</v>
+      </c>
+      <c r="AH74" s="2">
+        <v>392.02199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -7186,7 +7342,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -7214,7 +7370,7 @@
       </c>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -7242,7 +7398,7 @@
       </c>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -7270,7 +7426,7 @@
       </c>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -7301,7 +7457,7 @@
       </c>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C97B7-F523-4137-B5BA-D0EECAA9A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3FEEF-7BAA-48DF-AE6C-8A9FF03EED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23955" yWindow="300" windowWidth="27420" windowHeight="20610" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Main</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>July 1995 - store opened</t>
+  </si>
+  <si>
+    <t>FCF TTM</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -466,12 +469,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1078,10 +1075,10 @@
   <dimension ref="A1:DS100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S65" sqref="S65"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1695,16 +1692,16 @@
         <v>21354</v>
       </c>
       <c r="U9" s="4">
-        <f>+Q9*1.3</f>
-        <v>25660.7</v>
+        <f>+Q9*1.2</f>
+        <v>23686.799999999999</v>
       </c>
       <c r="V9" s="4">
-        <f>+R9*1.3</f>
-        <v>26699.4</v>
+        <f>+R9*1.2</f>
+        <v>24645.599999999999</v>
       </c>
       <c r="W9" s="4">
-        <f>+S9*1.3</f>
-        <v>27791.4</v>
+        <f>+S9*1.2</f>
+        <v>25653.599999999999</v>
       </c>
       <c r="AS9" s="2">
         <v>4644</v>
@@ -1739,35 +1736,35 @@
       </c>
       <c r="BB9" s="2">
         <f>SUM(T9:W9)</f>
-        <v>101505.5</v>
+        <v>95340</v>
       </c>
       <c r="BC9" s="2">
         <f>+BB9*1.3</f>
-        <v>131957.15</v>
+        <v>123942</v>
       </c>
       <c r="BD9" s="2">
         <f t="shared" ref="BD9:BF9" si="3">+BC9*1.3</f>
-        <v>171544.29500000001</v>
+        <v>161124.6</v>
       </c>
       <c r="BE9" s="2">
         <f t="shared" si="3"/>
-        <v>223007.58350000004</v>
+        <v>209461.98</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" si="3"/>
-        <v>289909.85855000006</v>
+        <v>272300.57400000002</v>
       </c>
       <c r="BG9" s="2">
         <f>+BF9*1.2</f>
-        <v>347891.83026000008</v>
+        <v>326760.6888</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" ref="BH9:BI9" si="4">+BG9*1.2</f>
-        <v>417470.1963120001</v>
+        <v>392112.82656000002</v>
       </c>
       <c r="BI9" s="2">
         <f t="shared" si="4"/>
-        <v>500964.23557440011</v>
+        <v>470535.39187200001</v>
       </c>
     </row>
     <row r="11" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1952,7 +1949,7 @@
         <v>4895</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" ref="T12:W12" si="11">+Q12</f>
+        <f t="shared" ref="U12:W12" si="11">+Q12</f>
         <v>4721</v>
       </c>
       <c r="V12" s="4">
@@ -2442,7 +2439,7 @@
         <v>1027</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" ref="T16:W16" si="18">+Q16</f>
+        <f t="shared" ref="U16:W16" si="18">+Q16</f>
         <v>1070</v>
       </c>
       <c r="V16" s="4">
@@ -2737,16 +2734,16 @@
         <v>127358</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" ref="U20:W20" si="29">SUM(U9:U16)</f>
-        <v>131075.60999999999</v>
+        <f>SUM(U9:U16)</f>
+        <v>129101.70999999999</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="29"/>
-        <v>137394.09</v>
+        <f t="shared" ref="V20:W20" si="29">SUM(V9:V16)</f>
+        <v>135340.28999999998</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="29"/>
-        <v>160534.32</v>
+        <v>158396.52000000002</v>
       </c>
       <c r="Z20" s="5">
         <v>0.51100000000000001</v>
@@ -2843,35 +2840,35 @@
       </c>
       <c r="BB20" s="5">
         <f>SUM(BB9:BB16)</f>
-        <v>556362.02</v>
+        <v>550196.52</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" ref="BC20:BI20" si="33">SUM(BC9:BC16)</f>
-        <v>613604.83800000011</v>
+        <v>605589.68800000008</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="33"/>
-        <v>681727.54359999998</v>
+        <v>671307.84860000014</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="33"/>
-        <v>763598.48835000012</v>
+        <v>750052.88485000003</v>
       </c>
       <c r="BF20" s="5">
         <f t="shared" si="33"/>
-        <v>862918.65184449998</v>
+        <v>845309.3672945</v>
       </c>
       <c r="BG20" s="5">
         <f t="shared" si="33"/>
-        <v>949551.06321922515</v>
+        <v>928419.92175922508</v>
       </c>
       <c r="BH20" s="5">
         <f t="shared" si="33"/>
-        <v>1049212.3909191866</v>
+        <v>1023855.0211671864</v>
       </c>
       <c r="BI20" s="5">
         <f t="shared" si="33"/>
-        <v>1164293.5399119458</v>
+        <v>1133864.6962095457</v>
       </c>
     </row>
     <row r="21" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2933,16 +2930,16 @@
         <v>67791</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" ref="T21:W21" si="34">SUM(U11:U13)*0.68+U9*0.5</f>
-        <v>70833.622400000007</v>
+        <f t="shared" ref="U21:W21" si="34">SUM(U11:U13)*0.68+U9*0.5</f>
+        <v>69846.67240000001</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="34"/>
-        <v>74082.982000000004</v>
+        <v>73056.081999999995</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="34"/>
-        <v>87915.808000000005</v>
+        <v>86846.90800000001</v>
       </c>
       <c r="AF21" s="2">
         <v>2323.875</v>
@@ -2986,35 +2983,35 @@
       </c>
       <c r="BB21" s="2">
         <f>SUM(T21:W21)</f>
-        <v>300623.41240000003</v>
+        <v>297540.66240000003</v>
       </c>
       <c r="BC21" s="4">
         <f t="shared" ref="BC21:BI21" si="35">SUM(BC11:BC13)*0.8+BC9*0.7</f>
-        <v>402562.41620000004</v>
+        <v>396951.8112</v>
       </c>
       <c r="BD21" s="4">
         <f t="shared" si="35"/>
-        <v>445783.03826000012</v>
+        <v>438489.25176000013</v>
       </c>
       <c r="BE21" s="4">
         <f t="shared" si="35"/>
-        <v>498092.44179800007</v>
+        <v>488610.51934800006</v>
       </c>
       <c r="BF21" s="4">
         <f t="shared" si="35"/>
-        <v>562023.39100040018</v>
+        <v>549696.8918154001</v>
       </c>
       <c r="BG21" s="4">
         <f t="shared" si="35"/>
-        <v>620565.09569817013</v>
+        <v>605773.29667617008</v>
       </c>
       <c r="BH21" s="4">
         <f t="shared" si="35"/>
-        <v>688121.99266037869</v>
+        <v>670371.83383397863</v>
       </c>
       <c r="BI21" s="4">
         <f t="shared" si="35"/>
-        <v>766362.4629061576</v>
+        <v>745062.27231447748</v>
       </c>
     </row>
     <row r="22" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3073,7 @@
         <v>20905</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" ref="T22:W22" si="36">(U13+U11)*0.25</f>
+        <f t="shared" ref="U22:W22" si="36">(U13+U11)*0.25</f>
         <v>20144.482500000002</v>
       </c>
       <c r="V22" s="4">
@@ -3238,15 +3235,15 @@
       </c>
       <c r="U23" s="4">
         <f t="shared" si="44"/>
-        <v>40097.50509999998</v>
+        <v>39110.555099999983</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" si="44"/>
-        <v>42156.195499999994</v>
+        <v>41129.295499999986</v>
       </c>
       <c r="W23" s="4">
         <f t="shared" si="44"/>
-        <v>46644.487000000001</v>
+        <v>45575.587000000007</v>
       </c>
       <c r="AF23" s="2">
         <f>AF20-AF21-AF22</f>
@@ -3298,35 +3295,35 @@
       </c>
       <c r="BB23" s="4">
         <f t="shared" si="47"/>
-        <v>167560.1876</v>
+        <v>164477.4376</v>
       </c>
       <c r="BC23" s="4">
         <f t="shared" si="47"/>
-        <v>174291.40540000008</v>
+        <v>171886.86040000009</v>
       </c>
       <c r="BD23" s="4">
         <f t="shared" si="47"/>
-        <v>197355.93811999986</v>
+        <v>194230.02962000002</v>
       </c>
       <c r="BE23" s="4">
         <f t="shared" si="47"/>
-        <v>224988.05097100005</v>
+        <v>220924.36992099998</v>
       </c>
       <c r="BF23" s="4">
         <f t="shared" si="47"/>
-        <v>258351.36548404978</v>
+        <v>253068.58011904988</v>
       </c>
       <c r="BG23" s="4">
         <f t="shared" si="47"/>
-        <v>284314.87739300251</v>
+        <v>277975.53495500248</v>
       </c>
       <c r="BH23" s="4">
         <f t="shared" si="47"/>
-        <v>314185.7536243528</v>
+        <v>306578.54269875266</v>
       </c>
       <c r="BI23" s="4">
         <f t="shared" si="47"/>
-        <v>348681.20013961033</v>
+        <v>339552.54702889035</v>
       </c>
     </row>
     <row r="24" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3385,7 @@
         <v>20450</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" ref="T24:W24" si="48">+Q24*1.1</f>
+        <f t="shared" ref="U24:W24" si="48">+Q24*1.1</f>
         <v>19879.2</v>
       </c>
       <c r="V24" s="4">
@@ -4005,15 +4002,15 @@
       </c>
       <c r="U28" s="4">
         <f t="shared" si="76"/>
-        <v>6579.8550999999788</v>
+        <v>5592.9050999999818</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="76"/>
-        <v>5943.9454999999944</v>
+        <v>4917.0454999999856</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="76"/>
-        <v>6790.5369999999966</v>
+        <v>5721.6370000000024</v>
       </c>
       <c r="AF28" s="2">
         <f>AF23-AF27</f>
@@ -4065,35 +4062,35 @@
       </c>
       <c r="BB28" s="4">
         <f t="shared" si="81"/>
-        <v>24311.337599999999</v>
+        <v>21228.587599999999</v>
       </c>
       <c r="BC28" s="4">
         <f t="shared" ref="BC28:BI28" si="82">BC23-BC27</f>
-        <v>26745.089900000079</v>
+        <v>24340.544900000095</v>
       </c>
       <c r="BD28" s="4">
         <f t="shared" si="82"/>
-        <v>45383.233154999849</v>
+        <v>42257.324655000004</v>
       </c>
       <c r="BE28" s="4">
         <f t="shared" si="82"/>
-        <v>68456.164857049996</v>
+        <v>64392.483807049925</v>
       </c>
       <c r="BF28" s="4">
         <f t="shared" si="82"/>
-        <v>97123.52278668122</v>
+        <v>91840.737421681319</v>
       </c>
       <c r="BG28" s="4">
         <f t="shared" si="82"/>
-        <v>118250.1994147129</v>
+        <v>111910.85697671288</v>
       </c>
       <c r="BH28" s="4">
         <f t="shared" si="82"/>
-        <v>143139.13530671451</v>
+        <v>135531.92438111437</v>
       </c>
       <c r="BI28" s="4">
         <f t="shared" si="82"/>
-        <v>172503.18327244287</v>
+        <v>163374.53016172288</v>
       </c>
     </row>
     <row r="29" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4226,31 +4223,31 @@
       </c>
       <c r="BC29" s="2">
         <f>+BB46*$BL$45</f>
-        <v>225.79186959999973</v>
+        <v>111.17849459999974</v>
       </c>
       <c r="BD29" s="2">
         <f t="shared" ref="BD29:BI29" si="86">+BC46*$BL$45</f>
-        <v>455.0443646416004</v>
+        <v>319.0181434541006</v>
       </c>
       <c r="BE29" s="2">
         <f t="shared" si="86"/>
-        <v>844.66972355855285</v>
+        <v>680.91705724096039</v>
       </c>
       <c r="BF29" s="2">
         <f t="shared" si="86"/>
-        <v>1433.7268174937258</v>
+        <v>1234.0409645874331</v>
       </c>
       <c r="BG29" s="2">
         <f t="shared" si="86"/>
-        <v>2271.4634391292125</v>
+        <v>2025.1765808707173</v>
       </c>
       <c r="BH29" s="2">
         <f t="shared" si="86"/>
-        <v>3295.897573386871</v>
+        <v>2993.6328661101779</v>
       </c>
       <c r="BI29" s="2">
         <f t="shared" si="86"/>
-        <v>4540.5953528677328</v>
+        <v>4171.1001027115863</v>
       </c>
     </row>
     <row r="30" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4331,15 +4328,15 @@
       </c>
       <c r="U30" s="4">
         <f t="shared" si="93"/>
-        <v>6579.8550999999788</v>
+        <v>5592.9050999999818</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="93"/>
-        <v>5943.9454999999944</v>
+        <v>4917.0454999999856</v>
       </c>
       <c r="W30" s="4">
         <f t="shared" si="93"/>
-        <v>6790.5369999999966</v>
+        <v>5721.6370000000024</v>
       </c>
       <c r="AF30" s="2">
         <f>AF28+AF29</f>
@@ -4391,35 +4388,35 @@
       </c>
       <c r="BB30" s="4">
         <f t="shared" si="97"/>
-        <v>23433.337599999999</v>
+        <v>20350.587599999999</v>
       </c>
       <c r="BC30" s="4">
         <f t="shared" si="97"/>
-        <v>26970.881769600081</v>
+        <v>24451.723394600096</v>
       </c>
       <c r="BD30" s="4">
         <f t="shared" si="97"/>
-        <v>45838.277519641451</v>
+        <v>42576.342798454105</v>
       </c>
       <c r="BE30" s="4">
         <f t="shared" si="97"/>
-        <v>69300.834580608556</v>
+        <v>65073.400864290888</v>
       </c>
       <c r="BF30" s="4">
         <f t="shared" si="97"/>
-        <v>98557.24960417494</v>
+        <v>93074.77838626875</v>
       </c>
       <c r="BG30" s="4">
         <f t="shared" si="97"/>
-        <v>120521.66285384211</v>
+        <v>113936.03355758359</v>
       </c>
       <c r="BH30" s="4">
         <f t="shared" si="97"/>
-        <v>146435.03288010138</v>
+        <v>138525.55724722455</v>
       </c>
       <c r="BI30" s="4">
         <f t="shared" si="97"/>
-        <v>177043.7786253106</v>
+        <v>167545.63026443447</v>
       </c>
     </row>
     <row r="31" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4497,16 +4494,16 @@
         <v>947</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" ref="T31:W31" si="98">+U30*0.15</f>
-        <v>986.97826499999678</v>
+        <f t="shared" ref="U31:W31" si="98">+U30*0.15</f>
+        <v>838.93576499999722</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" si="98"/>
-        <v>891.59182499999918</v>
+        <v>737.55682499999784</v>
       </c>
       <c r="W31" s="4">
         <f t="shared" si="98"/>
-        <v>1018.5805499999994</v>
+        <v>858.24555000000032</v>
       </c>
       <c r="AF31" s="2">
         <v>0</v>
@@ -4555,35 +4552,35 @@
       </c>
       <c r="BB31" s="2">
         <f>SUM(T31:W31)</f>
-        <v>3844.1506399999953</v>
+        <v>3381.7381399999958</v>
       </c>
       <c r="BC31" s="2">
         <f>+BC30*0.15</f>
-        <v>4045.6322654400119</v>
+        <v>3667.7585091900141</v>
       </c>
       <c r="BD31" s="2">
         <f t="shared" ref="BD31:BI31" si="102">+BD30*0.15</f>
-        <v>6875.7416279462177</v>
+        <v>6386.4514197681156</v>
       </c>
       <c r="BE31" s="2">
         <f t="shared" si="102"/>
-        <v>10395.125187091284</v>
+        <v>9761.0101296436333</v>
       </c>
       <c r="BF31" s="2">
         <f t="shared" si="102"/>
-        <v>14783.587440626241</v>
+        <v>13961.216757940312</v>
       </c>
       <c r="BG31" s="2">
         <f t="shared" si="102"/>
-        <v>18078.249428076317</v>
+        <v>17090.405033637537</v>
       </c>
       <c r="BH31" s="2">
         <f t="shared" si="102"/>
-        <v>21965.254932015207</v>
+        <v>20778.833587083682</v>
       </c>
       <c r="BI31" s="2">
         <f t="shared" si="102"/>
-        <v>26556.566793796588</v>
+        <v>25131.84453966517</v>
       </c>
     </row>
     <row r="32" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4664,15 +4661,15 @@
       </c>
       <c r="U32" s="4">
         <f t="shared" si="109"/>
-        <v>5592.8768349999818</v>
+        <v>4753.9693349999843</v>
       </c>
       <c r="V32" s="4">
         <f t="shared" si="109"/>
-        <v>5052.3536749999948</v>
+        <v>4179.4886749999878</v>
       </c>
       <c r="W32" s="4">
         <f t="shared" si="109"/>
-        <v>5771.9564499999969</v>
+        <v>4863.3914500000019</v>
       </c>
       <c r="AF32" s="2">
         <f>AF30-AF31</f>
@@ -4724,283 +4721,283 @@
       </c>
       <c r="BB32" s="4">
         <f t="shared" si="113"/>
-        <v>19589.186960000003</v>
+        <v>16968.849460000005</v>
       </c>
       <c r="BC32" s="4">
         <f t="shared" ref="BC32:BI32" si="114">BC30-BC31</f>
-        <v>22925.249504160071</v>
+        <v>20783.964885410081</v>
       </c>
       <c r="BD32" s="4">
         <f t="shared" si="114"/>
-        <v>38962.535891695232</v>
+        <v>36189.891378685992</v>
       </c>
       <c r="BE32" s="4">
         <f t="shared" si="114"/>
-        <v>58905.709393517274</v>
+        <v>55312.390734647255</v>
       </c>
       <c r="BF32" s="4">
         <f t="shared" si="114"/>
-        <v>83773.662163548695</v>
+        <v>79113.561628328433</v>
       </c>
       <c r="BG32" s="4">
         <f t="shared" si="114"/>
-        <v>102443.41342576579</v>
+        <v>96845.628523946056</v>
       </c>
       <c r="BH32" s="4">
         <f t="shared" si="114"/>
-        <v>124469.77794808618</v>
+        <v>117746.72366014088</v>
       </c>
       <c r="BI32" s="4">
         <f t="shared" si="114"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BJ32" s="2">
         <f>+BI32*(1+$BL$46)</f>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BK32" s="2">
         <f t="shared" ref="BK32:DS32" si="115">+BJ32*(1+$BL$46)</f>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BL32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BM32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BN32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BO32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BP32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BQ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BR32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BS32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BT32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BU32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BV32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BW32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BX32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BY32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="BZ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CA32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CB32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CC32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CD32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CE32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CF32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CG32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CH32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CI32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CJ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CK32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CL32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CM32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CN32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CO32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CP32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CQ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CR32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CS32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CT32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CU32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CV32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CW32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CX32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CY32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="CZ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DA32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DB32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DC32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DD32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DE32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DF32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DG32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DH32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DI32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DJ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DK32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DL32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DM32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DN32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DO32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DP32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DQ32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DR32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
       <c r="DS32" s="2">
         <f t="shared" si="115"/>
-        <v>150487.21183151403</v>
+        <v>142413.78572476929</v>
       </c>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.2">
@@ -5081,15 +5078,15 @@
       </c>
       <c r="U33" s="7">
         <f t="shared" si="122"/>
-        <v>0.54053124915434247</v>
+        <v>0.45945388373441426</v>
       </c>
       <c r="V33" s="7">
         <f t="shared" si="122"/>
-        <v>0.488291647337392</v>
+        <v>0.40393241277664904</v>
       </c>
       <c r="W33" s="7">
         <f t="shared" si="122"/>
-        <v>0.55783864405141559</v>
+        <v>0.47002913404851665</v>
       </c>
       <c r="AF33" s="1">
         <f>AF32/AF34</f>
@@ -5141,35 +5138,35 @@
       </c>
       <c r="BB33" s="7">
         <f t="shared" si="128"/>
-        <v>1.8932238291292165</v>
+        <v>1.6399777191456466</v>
       </c>
       <c r="BC33" s="7">
         <f t="shared" ref="BC33" si="129">BC32/BC34</f>
-        <v>2.2156421672136921</v>
+        <v>2.0086947796859072</v>
       </c>
       <c r="BD33" s="7">
         <f t="shared" ref="BD33" si="130">BD32/BD34</f>
-        <v>3.7655876961143551</v>
+        <v>3.4976216660564408</v>
       </c>
       <c r="BE33" s="7">
         <f t="shared" ref="BE33" si="131">BE32/BE34</f>
-        <v>5.6930230398682973</v>
+        <v>5.3457418318978691</v>
       </c>
       <c r="BF33" s="7">
         <f t="shared" ref="BF33" si="132">BF32/BF34</f>
-        <v>8.0964204275199272</v>
+        <v>7.6460386226276631</v>
       </c>
       <c r="BG33" s="7">
         <f t="shared" ref="BG33" si="133">BG32/BG34</f>
-        <v>9.9007841331560638</v>
+        <v>9.3597785371553162</v>
       </c>
       <c r="BH33" s="7">
         <f t="shared" ref="BH33" si="134">BH32/BH34</f>
-        <v>12.029552328992576</v>
+        <v>11.379793530505546</v>
       </c>
       <c r="BI33" s="7">
         <f t="shared" ref="BI33" si="135">BI32/BI34</f>
-        <v>14.544042894705134</v>
+        <v>13.763775560526653</v>
       </c>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.2">
@@ -5231,7 +5228,7 @@
         <v>10347</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="T34:W34" si="136">+T34</f>
+        <f t="shared" ref="U34:W34" si="136">+T34</f>
         <v>10347</v>
       </c>
       <c r="V34" s="4">
@@ -5384,15 +5381,15 @@
       </c>
       <c r="U36" s="10">
         <f t="shared" si="143"/>
-        <v>8.1178629757328702E-2</v>
+        <v>6.4896893610703277E-2</v>
       </c>
       <c r="V36" s="10">
         <f t="shared" si="143"/>
-        <v>8.0983548516533999E-2</v>
+        <v>6.4824745674699535E-2</v>
       </c>
       <c r="W36" s="10">
         <f t="shared" si="143"/>
-        <v>7.5938446690437367E-2</v>
+        <v>6.1610412589474972E-2</v>
       </c>
       <c r="AC36" s="15">
         <f t="shared" ref="AC36:AD36" si="144">AC20/AB20-1</f>
@@ -5496,35 +5493,35 @@
       </c>
       <c r="BB36" s="15">
         <f>BB20/BA20-1</f>
-        <v>8.24521822706199E-2</v>
+        <v>7.0456649344433631E-2</v>
       </c>
       <c r="BC36" s="15">
         <f t="shared" si="162"/>
-        <v>0.10288771688621035</v>
+        <v>0.10067887743092241</v>
       </c>
       <c r="BD36" s="15">
         <f t="shared" si="162"/>
-        <v>0.11102048318595537</v>
+        <v>0.10851928608137085</v>
       </c>
       <c r="BE36" s="15">
         <f t="shared" si="162"/>
-        <v>0.12009335036936331</v>
+        <v>0.1173009319259728</v>
       </c>
       <c r="BF36" s="15">
         <f t="shared" si="162"/>
-        <v>0.13006857007943129</v>
+        <v>0.12699968811339213</v>
       </c>
       <c r="BG36" s="15">
         <f t="shared" si="162"/>
-        <v>0.10039464460473457</v>
+        <v>9.8319689430071078E-2</v>
       </c>
       <c r="BH36" s="15">
         <f t="shared" si="162"/>
-        <v>0.10495625939492248</v>
+        <v>0.10279303273364193</v>
       </c>
       <c r="BI36" s="15">
         <f t="shared" si="162"/>
-        <v>0.10968336819958791</v>
+        <v>0.10744653565985263</v>
       </c>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.2">
@@ -6216,63 +6213,63 @@
         <v>0.3886733902249806</v>
       </c>
       <c r="O43" s="8">
-        <f>O9/K9-1</f>
+        <f t="shared" ref="O43:T43" si="203">O9/K9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="P43" s="8">
-        <f>P9/L9-1</f>
+        <f t="shared" si="203"/>
         <v>0.36569651188624741</v>
       </c>
       <c r="Q43" s="8">
-        <f>Q9/M9-1</f>
+        <f t="shared" si="203"/>
         <v>0.33290566547369838</v>
       </c>
       <c r="R43" s="8">
-        <f>R9/N9-1</f>
+        <f t="shared" si="203"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="S43" s="8">
-        <f>S9/O9-1</f>
+        <f t="shared" si="203"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="T43" s="8">
-        <f>T9/P9-1</f>
+        <f t="shared" si="203"/>
         <v>0.157963234097934</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" ref="T43:W43" si="203">U9/Q9-1</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" ref="U43:W43" si="204">U9/Q9-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="203"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="204"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="203"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="204"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AT43" s="13">
-        <f t="shared" ref="AT43:AV43" si="204">AT9/AS9-1</f>
+        <f t="shared" ref="AT43:AV43" si="205">AT9/AS9-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="AU43" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="AV43" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="AW43" s="13">
-        <f t="shared" ref="AW43" si="205">AW9/AV9-1</f>
+        <f t="shared" ref="AW43" si="206">AW9/AV9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="AX43" s="13">
-        <f t="shared" ref="AX43" si="206">AX9/AW9-1</f>
+        <f t="shared" ref="AX43" si="207">AX9/AW9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="AY43" s="13">
-        <f t="shared" ref="AY43" si="207">AY9/AX9-1</f>
+        <f t="shared" ref="AY43" si="208">AY9/AX9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="AZ43" s="13">
@@ -6280,39 +6277,39 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BA43" s="13">
-        <f t="shared" ref="BA43:BI43" si="208">BA9/AZ9-1</f>
+        <f t="shared" ref="BA43:BI43" si="209">BA9/AZ9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BB43" s="13">
-        <f t="shared" si="208"/>
-        <v>0.26729799240910901</v>
+        <f t="shared" si="209"/>
+        <v>0.19032161406312431</v>
       </c>
       <c r="BC43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BD43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BE43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BF43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BG43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BH43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BI43" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6321,27 +6318,27 @@
         <v>29</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" ref="C44:H44" si="209">C23/C20</f>
+        <f t="shared" ref="C44:H44" si="210">C23/C20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="D44" s="16">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="I44" s="16">
@@ -6361,11 +6358,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44:P44" si="210">M23/M20</f>
+        <f t="shared" ref="M44:P44" si="211">M23/M20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="O44" s="16">
@@ -6373,11 +6370,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44:W44" si="211">Q23/Q20</f>
+        <f t="shared" ref="Q44:W44" si="212">Q23/Q20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="R44" s="16">
@@ -6393,43 +6390,43 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="211"/>
-        <v>0.30591126068381436</v>
+        <f t="shared" si="212"/>
+        <v>0.30294374179861744</v>
       </c>
       <c r="V44" s="16">
-        <f t="shared" si="211"/>
-        <v>0.30682684750122802</v>
+        <f t="shared" si="212"/>
+        <v>0.3038954290699391</v>
       </c>
       <c r="W44" s="16">
-        <f t="shared" si="211"/>
-        <v>0.29055772622327736</v>
+        <f t="shared" si="212"/>
+        <v>0.28773098676662845</v>
       </c>
       <c r="AS44" s="14">
-        <f t="shared" ref="AS44:AU44" si="212">AS23/AS20</f>
+        <f t="shared" ref="AS44:AU44" si="213">AS23/AS20</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="AT44" s="14">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="AU44" s="14">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="AV44" s="14">
-        <f t="shared" ref="AV44" si="213">AV23/AV20</f>
+        <f t="shared" ref="AV44" si="214">AV23/AV20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="AW44" s="14">
-        <f t="shared" ref="AW44:AX44" si="214">AW23/AW20</f>
+        <f t="shared" ref="AW44:AX44" si="215">AW23/AW20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="AX44" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="AY44" s="14">
-        <f t="shared" ref="AY44" si="215">AY23/AY20</f>
+        <f t="shared" ref="AY44" si="216">AY23/AY20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="AZ44" s="14">
@@ -6437,40 +6434,40 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BA44" s="14">
-        <f t="shared" ref="BA44:BI44" si="216">BA23/BA20</f>
+        <f t="shared" ref="BA44:BI44" si="217">BA23/BA20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BB44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.30117114680114215</v>
+        <f t="shared" si="217"/>
+        <v>0.29894307146835464</v>
       </c>
       <c r="BC44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.28404503127467201</v>
+        <f t="shared" si="217"/>
+        <v>0.2838338627721152</v>
       </c>
       <c r="BD44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.2894938600805565</v>
+        <f t="shared" si="217"/>
+        <v>0.28933078918273203</v>
       </c>
       <c r="BE44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.29464182342366735</v>
+        <f t="shared" si="217"/>
+        <v>0.29454505726643759</v>
       </c>
       <c r="BF44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.29939249190154871</v>
+        <f t="shared" si="217"/>
+        <v>0.29937983643671434</v>
       </c>
       <c r="BG44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.2994203138787514</v>
+        <f t="shared" si="217"/>
+        <v>0.29940712003279502</v>
       </c>
       <c r="BH44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.2994491452289304</v>
+        <f t="shared" si="217"/>
+        <v>0.29943550244961009</v>
       </c>
       <c r="BI44" s="14">
-        <f t="shared" si="216"/>
-        <v>0.29947877248033233</v>
+        <f t="shared" si="217"/>
+        <v>0.29946478461142489</v>
       </c>
       <c r="BK44" t="s">
         <v>77</v>
@@ -6491,37 +6488,57 @@
       <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="K46" s="4">
+        <f t="shared" ref="K46:T46" si="218">+K47-K60</f>
+        <v>52580</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="218"/>
+        <v>41402</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="218"/>
+        <v>39615</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="218"/>
+        <v>28933</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="218"/>
+        <v>47305</v>
+      </c>
       <c r="P46" s="4">
-        <f>+P47-P60</f>
+        <f t="shared" si="218"/>
         <v>18829</v>
       </c>
       <c r="Q46" s="4">
-        <f>+Q47-Q60</f>
+        <f t="shared" si="218"/>
         <v>2657</v>
       </c>
       <c r="R46" s="4">
-        <f>+R47-R60</f>
+        <f t="shared" si="218"/>
         <v>-257</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" ref="S46:W46" si="217">+R46+S32</f>
-        <v>2990</v>
+        <f t="shared" si="218"/>
+        <v>2876</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="217"/>
-        <v>6162</v>
+        <f t="shared" si="218"/>
+        <v>-2679</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="217"/>
-        <v>11754.876834999981</v>
+        <f t="shared" ref="U46:W46" si="219">+T46+U32</f>
+        <v>2074.9693349999843</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="217"/>
-        <v>16807.230509999976</v>
+        <f t="shared" si="219"/>
+        <v>6254.4580099999721</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="217"/>
-        <v>22579.186959999974</v>
+        <f t="shared" si="219"/>
+        <v>11117.849459999974</v>
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
@@ -6530,39 +6547,39 @@
       <c r="AB46" s="4"/>
       <c r="BA46" s="2">
         <f>+S46</f>
-        <v>2990</v>
+        <v>2876</v>
       </c>
       <c r="BB46" s="2">
         <f>+W46</f>
-        <v>22579.186959999974</v>
+        <v>11117.849459999974</v>
       </c>
       <c r="BC46" s="2">
         <f>+BB46+BC32</f>
-        <v>45504.43646416004</v>
+        <v>31901.814345410057</v>
       </c>
       <c r="BD46" s="2">
-        <f t="shared" ref="BD46:BI46" si="218">+BC46+BD32</f>
-        <v>84466.97235585528</v>
+        <f t="shared" ref="BD46:BI46" si="220">+BC46+BD32</f>
+        <v>68091.705724096042</v>
       </c>
       <c r="BE46" s="2">
-        <f t="shared" si="218"/>
-        <v>143372.68174937257</v>
+        <f t="shared" si="220"/>
+        <v>123404.0964587433</v>
       </c>
       <c r="BF46" s="2">
-        <f t="shared" si="218"/>
-        <v>227146.34391292126</v>
+        <f t="shared" si="220"/>
+        <v>202517.65808707173</v>
       </c>
       <c r="BG46" s="2">
-        <f t="shared" si="218"/>
-        <v>329589.75733868708</v>
+        <f t="shared" si="220"/>
+        <v>299363.28661101777</v>
       </c>
       <c r="BH46" s="2">
-        <f t="shared" si="218"/>
-        <v>454059.53528677323</v>
+        <f t="shared" si="220"/>
+        <v>417110.01027115865</v>
       </c>
       <c r="BI46" s="2">
-        <f t="shared" si="218"/>
-        <v>604546.74711828725</v>
+        <f t="shared" si="220"/>
+        <v>559523.79599592788</v>
       </c>
       <c r="BK46" t="s">
         <v>78</v>
@@ -6583,11 +6600,26 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
+      <c r="K47" s="4">
+        <f>42122+42274</f>
+        <v>84396</v>
+      </c>
+      <c r="L47" s="4">
+        <f>33834+39436</f>
+        <v>73270</v>
+      </c>
+      <c r="M47" s="4">
+        <f>40380+49514</f>
+        <v>89894</v>
+      </c>
+      <c r="N47" s="4">
+        <f>29944+49044</f>
+        <v>78988</v>
+      </c>
+      <c r="O47" s="4">
+        <f>36220+59829</f>
+        <v>96049</v>
+      </c>
       <c r="P47" s="4">
         <f>36393+29992</f>
         <v>66385</v>
@@ -6613,7 +6645,7 @@
       </c>
       <c r="BL47" s="2">
         <f>NPV(BL44,BB32:DS32)+Main!K5-Main!K6</f>
-        <v>1394954.7250402023</v>
+        <v>1316805.5506389481</v>
       </c>
     </row>
     <row r="48" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6628,11 +6660,21 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
+      <c r="K48" s="4">
+        <v>23795</v>
+      </c>
+      <c r="L48" s="4">
+        <v>23849</v>
+      </c>
+      <c r="M48" s="4">
+        <v>24119</v>
+      </c>
+      <c r="N48" s="4">
+        <v>30933</v>
+      </c>
+      <c r="O48" s="4">
+        <v>32640</v>
+      </c>
       <c r="P48" s="4">
         <v>34987</v>
       </c>
@@ -6650,7 +6692,7 @@
       </c>
       <c r="BL48" s="1">
         <f>+BL47/Main!K3</f>
-        <v>135.02610831867219</v>
+        <v>127.46157686951391</v>
       </c>
     </row>
     <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6665,11 +6707,21 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
+      <c r="K49" s="4">
+        <v>24542</v>
+      </c>
+      <c r="L49" s="4">
+        <v>24289</v>
+      </c>
+      <c r="M49" s="4">
+        <v>26835</v>
+      </c>
+      <c r="N49" s="4">
+        <v>28610</v>
+      </c>
+      <c r="O49" s="4">
+        <v>32891</v>
+      </c>
       <c r="P49" s="4">
         <v>32504</v>
       </c>
@@ -6698,11 +6750,21 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
+      <c r="K50" s="4">
+        <v>113114</v>
+      </c>
+      <c r="L50" s="4">
+        <v>121461</v>
+      </c>
+      <c r="M50" s="4">
+        <v>133502</v>
+      </c>
+      <c r="N50" s="4">
+        <v>147152</v>
+      </c>
+      <c r="O50" s="4">
+        <v>160281</v>
+      </c>
       <c r="P50" s="4">
         <v>168468</v>
       </c>
@@ -6731,11 +6793,21 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
+      <c r="K51" s="4">
+        <v>37553</v>
+      </c>
+      <c r="L51" s="4">
+        <v>39328</v>
+      </c>
+      <c r="M51" s="4">
+        <v>43346</v>
+      </c>
+      <c r="N51" s="4">
+        <v>52151</v>
+      </c>
+      <c r="O51" s="4">
+        <v>56082</v>
+      </c>
       <c r="P51" s="4">
         <v>56161</v>
       </c>
@@ -6764,11 +6836,21 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
+      <c r="K52" s="4">
+        <v>15017</v>
+      </c>
+      <c r="L52" s="4">
+        <v>15220</v>
+      </c>
+      <c r="M52" s="4">
+        <v>15350</v>
+      </c>
+      <c r="N52" s="4">
+        <v>15345</v>
+      </c>
+      <c r="O52" s="4">
+        <v>15371</v>
+      </c>
       <c r="P52" s="4">
         <v>20229</v>
       </c>
@@ -6798,11 +6880,21 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
+      <c r="K53" s="4">
+        <v>22778</v>
+      </c>
+      <c r="L53" s="4">
+        <v>25660</v>
+      </c>
+      <c r="M53" s="4">
+        <v>27273</v>
+      </c>
+      <c r="N53" s="4">
+        <v>29227</v>
+      </c>
+      <c r="O53" s="4">
+        <v>27235</v>
+      </c>
       <c r="P53" s="4">
         <v>32033</v>
       </c>
@@ -6831,29 +6923,44 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
+      <c r="K54" s="4">
+        <f t="shared" ref="K54:T54" si="221">SUM(K47:K53)</f>
+        <v>321195</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="221"/>
+        <v>323077</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="221"/>
+        <v>360319</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="221"/>
+        <v>382406</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="221"/>
+        <v>420549</v>
+      </c>
       <c r="P54" s="4">
-        <f>SUM(P47:P53)</f>
+        <f t="shared" si="221"/>
         <v>410767</v>
       </c>
       <c r="Q54" s="4">
-        <f>SUM(Q47:Q53)</f>
+        <f t="shared" si="221"/>
         <v>419728</v>
       </c>
       <c r="R54" s="4">
-        <f>SUM(R47:R53)</f>
+        <f t="shared" si="221"/>
         <v>428362</v>
       </c>
       <c r="S54" s="4">
-        <f>SUM(S47:S53)</f>
+        <f t="shared" si="221"/>
         <v>462675</v>
       </c>
       <c r="T54" s="4">
-        <f>SUM(T47:T53)</f>
+        <f t="shared" si="221"/>
         <v>464378</v>
       </c>
     </row>
@@ -6869,11 +6976,21 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
+      <c r="K56" s="4">
+        <v>72539</v>
+      </c>
+      <c r="L56" s="4">
+        <v>63926</v>
+      </c>
+      <c r="M56" s="4">
+        <v>66090</v>
+      </c>
+      <c r="N56" s="4">
+        <v>71474</v>
+      </c>
+      <c r="O56" s="4">
+        <v>78664</v>
+      </c>
       <c r="P56" s="4">
         <v>68547</v>
       </c>
@@ -6902,11 +7019,21 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
+      <c r="K57" s="4">
+        <v>44138</v>
+      </c>
+      <c r="L57" s="4">
+        <v>40939</v>
+      </c>
+      <c r="M57" s="4">
+        <v>41007</v>
+      </c>
+      <c r="N57" s="4">
+        <v>41546</v>
+      </c>
+      <c r="O57" s="4">
+        <v>51775</v>
+      </c>
       <c r="P57" s="4">
         <v>58141</v>
       </c>
@@ -6935,11 +7062,21 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
+      <c r="K58" s="4">
+        <v>9708</v>
+      </c>
+      <c r="L58" s="4">
+        <v>10539</v>
+      </c>
+      <c r="M58" s="4">
+        <v>10695</v>
+      </c>
+      <c r="N58" s="4">
+        <v>10974</v>
+      </c>
+      <c r="O58" s="4">
+        <v>11827</v>
+      </c>
       <c r="P58" s="4">
         <v>12820</v>
       </c>
@@ -6968,11 +7105,21 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
+      <c r="K59" s="4">
+        <v>52573</v>
+      </c>
+      <c r="L59" s="4">
+        <v>53067</v>
+      </c>
+      <c r="M59" s="4">
+        <v>56297</v>
+      </c>
+      <c r="N59" s="4">
+        <v>63848</v>
+      </c>
+      <c r="O59" s="4">
+        <v>67651</v>
+      </c>
       <c r="P59" s="4">
         <v>65731</v>
       </c>
@@ -7001,11 +7148,21 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
+      <c r="K60" s="4">
+        <v>31816</v>
+      </c>
+      <c r="L60" s="4">
+        <v>31868</v>
+      </c>
+      <c r="M60" s="4">
+        <v>50279</v>
+      </c>
+      <c r="N60" s="4">
+        <v>50055</v>
+      </c>
+      <c r="O60" s="4">
+        <v>48744</v>
+      </c>
       <c r="P60" s="4">
         <v>47556</v>
       </c>
@@ -7034,11 +7191,21 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
+      <c r="K61" s="4">
+        <v>17017</v>
+      </c>
+      <c r="L61" s="4">
+        <v>19418</v>
+      </c>
+      <c r="M61" s="4">
+        <v>21148</v>
+      </c>
+      <c r="N61" s="4">
+        <v>23945</v>
+      </c>
+      <c r="O61" s="4">
+        <v>23643</v>
+      </c>
       <c r="P61" s="4">
         <v>23971</v>
       </c>
@@ -7067,11 +7234,21 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="K62" s="4">
+        <v>93404</v>
+      </c>
+      <c r="L62" s="4">
+        <v>103320</v>
+      </c>
+      <c r="M62" s="4">
+        <v>114803</v>
+      </c>
+      <c r="N62" s="4">
+        <v>120564</v>
+      </c>
+      <c r="O62" s="4">
+        <v>138245</v>
+      </c>
       <c r="P62" s="4">
         <v>134001</v>
       </c>
@@ -7100,29 +7277,44 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
+      <c r="K63" s="4">
+        <f t="shared" ref="K63:T63" si="222">SUM(K56:K62)</f>
+        <v>321195</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="222"/>
+        <v>323077</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="222"/>
+        <v>360319</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="222"/>
+        <v>382406</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="222"/>
+        <v>420549</v>
+      </c>
       <c r="P63" s="4">
-        <f>SUM(P56:P62)</f>
+        <f t="shared" si="222"/>
         <v>410767</v>
       </c>
       <c r="Q63" s="4">
-        <f>SUM(Q56:Q62)</f>
+        <f t="shared" si="222"/>
         <v>419728</v>
       </c>
       <c r="R63" s="4">
-        <f>SUM(R56:R62)</f>
+        <f t="shared" si="222"/>
         <v>428362</v>
       </c>
       <c r="S63" s="4">
-        <f>SUM(S56:S62)</f>
+        <f t="shared" si="222"/>
         <v>462675</v>
       </c>
       <c r="T63" s="4">
-        <f>SUM(T56:T62)</f>
+        <f t="shared" si="222"/>
         <v>464378</v>
       </c>
     </row>
@@ -7138,11 +7330,26 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+      <c r="K65" s="4">
+        <f t="shared" ref="K65:O65" si="223">+K32</f>
+        <v>7222</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="223"/>
+        <v>8107</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="223"/>
+        <v>7778</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="223"/>
+        <v>3156</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="223"/>
+        <v>14323</v>
+      </c>
       <c r="P65" s="4">
         <f>+P32</f>
         <v>-3844</v>
@@ -7176,11 +7383,21 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+      <c r="K66" s="4">
+        <v>7222</v>
+      </c>
+      <c r="L66" s="4">
+        <v>8107</v>
+      </c>
+      <c r="M66" s="4">
+        <v>7778</v>
+      </c>
+      <c r="N66" s="4">
+        <v>3156</v>
+      </c>
+      <c r="O66" s="4">
+        <v>14323</v>
+      </c>
       <c r="P66" s="4">
         <v>-3844</v>
       </c>
@@ -7190,7 +7407,12 @@
       <c r="R66" s="4">
         <v>2872</v>
       </c>
-      <c r="S66" s="4"/>
+      <c r="S66" s="4">
+        <v>278</v>
+      </c>
+      <c r="T66" s="4">
+        <v>3172</v>
+      </c>
     </row>
     <row r="67" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
@@ -7204,11 +7426,21 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="K67" s="4">
+        <v>7618</v>
+      </c>
+      <c r="L67" s="4">
+        <v>7508</v>
+      </c>
+      <c r="M67" s="4">
+        <v>8038</v>
+      </c>
+      <c r="N67" s="4">
+        <v>8948</v>
+      </c>
+      <c r="O67" s="4">
+        <v>9802</v>
+      </c>
       <c r="P67" s="4">
         <v>8978</v>
       </c>
@@ -7218,7 +7450,12 @@
       <c r="R67" s="4">
         <v>10204</v>
       </c>
-      <c r="S67" s="4"/>
+      <c r="S67" s="4">
+        <v>12685</v>
+      </c>
+      <c r="T67" s="2">
+        <v>11123</v>
+      </c>
     </row>
     <row r="68" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
@@ -7232,11 +7469,21 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
+      <c r="K68" s="4">
+        <v>2562</v>
+      </c>
+      <c r="L68" s="4">
+        <v>2306</v>
+      </c>
+      <c r="M68" s="4">
+        <v>3591</v>
+      </c>
+      <c r="N68" s="4">
+        <v>3180</v>
+      </c>
+      <c r="O68" s="4">
+        <v>3680</v>
+      </c>
       <c r="P68" s="4">
         <v>3250</v>
       </c>
@@ -7246,7 +7493,12 @@
       <c r="R68" s="4">
         <v>5556</v>
       </c>
-      <c r="S68" s="4"/>
+      <c r="S68" s="4">
+        <v>5606</v>
+      </c>
+      <c r="T68" s="2">
+        <v>4748</v>
+      </c>
     </row>
     <row r="69" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
@@ -7260,11 +7512,21 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="K69" s="4">
+        <v>-487</v>
+      </c>
+      <c r="L69" s="4">
+        <v>30</v>
+      </c>
+      <c r="M69" s="4">
+        <v>18</v>
+      </c>
+      <c r="N69" s="4">
+        <v>24</v>
+      </c>
+      <c r="O69" s="4">
+        <v>65</v>
+      </c>
       <c r="P69" s="4">
         <v>215</v>
       </c>
@@ -7274,7 +7536,12 @@
       <c r="R69" s="4">
         <v>123</v>
       </c>
-      <c r="S69" s="4"/>
+      <c r="S69" s="4">
+        <v>3445</v>
+      </c>
+      <c r="T69" s="2">
+        <v>534</v>
+      </c>
     </row>
     <row r="70" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
@@ -7288,11 +7555,21 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
+      <c r="K70" s="4">
+        <v>-1327</v>
+      </c>
+      <c r="L70" s="4">
+        <v>-1456</v>
+      </c>
+      <c r="M70" s="4">
+        <v>-1258</v>
+      </c>
+      <c r="N70" s="4">
+        <v>340</v>
+      </c>
+      <c r="O70" s="4">
+        <v>-11932</v>
+      </c>
       <c r="P70" s="4">
         <v>8689</v>
       </c>
@@ -7302,7 +7579,12 @@
       <c r="R70" s="4">
         <v>-1272</v>
       </c>
-      <c r="S70" s="4"/>
+      <c r="S70" s="4">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
@@ -7316,11 +7598,21 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
+      <c r="K71" s="4">
+        <v>-1636</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1703</v>
+      </c>
+      <c r="M71" s="4">
+        <v>701</v>
+      </c>
+      <c r="N71" s="4">
+        <v>909</v>
+      </c>
+      <c r="O71" s="4">
+        <v>-3623</v>
+      </c>
       <c r="P71" s="4">
         <v>-2001</v>
       </c>
@@ -7330,7 +7622,12 @@
       <c r="R71" s="4">
         <v>-825</v>
       </c>
-      <c r="S71" s="4"/>
+      <c r="S71" s="4">
+        <v>-3367</v>
+      </c>
+      <c r="T71" s="2">
+        <v>-472</v>
+      </c>
     </row>
     <row r="72" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
@@ -7344,11 +7641,26 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
+      <c r="K72" s="4">
+        <f>329-4560+13249+7127+333</f>
+        <v>16478</v>
+      </c>
+      <c r="L72" s="4">
+        <f>-304-2255-8266-4060+900</f>
+        <v>-13985</v>
+      </c>
+      <c r="M72" s="4">
+        <f>-209-4462+47-1685+156</f>
+        <v>-6153</v>
+      </c>
+      <c r="N72" s="4">
+        <f>-7059-4890+3832-1465+338</f>
+        <v>-9244</v>
+      </c>
+      <c r="O72" s="4">
+        <f>-1915-6556+7989+9333+920</f>
+        <v>9771</v>
+      </c>
       <c r="P72" s="4">
         <f>-2614-1516-9380-5903+1336</f>
         <v>-18077</v>
@@ -7361,7 +7673,14 @@
         <f>732-4794-1226-20+54</f>
         <v>-5254</v>
       </c>
-      <c r="S72" s="4"/>
+      <c r="S72" s="4">
+        <f>3180-8788+9852+5777+505</f>
+        <v>10526</v>
+      </c>
+      <c r="T72" s="2">
+        <f>371+1521-11264-5763+818</f>
+        <v>-14317</v>
+      </c>
     </row>
     <row r="73" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
@@ -7375,24 +7694,46 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
+      <c r="K73" s="4">
+        <f t="shared" ref="K73:T73" si="224">SUM(K66:K72)</f>
+        <v>30430</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="224"/>
+        <v>4213</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="224"/>
+        <v>12715</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" si="224"/>
+        <v>7313</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="224"/>
+        <v>22086</v>
+      </c>
       <c r="P73" s="4">
-        <f>SUM(P66:P72)</f>
+        <f t="shared" si="224"/>
         <v>-2790</v>
       </c>
       <c r="Q73" s="4">
-        <f>SUM(Q66:Q72)</f>
+        <f t="shared" si="224"/>
         <v>8965</v>
       </c>
       <c r="R73" s="4">
-        <f>SUM(R66:R72)</f>
+        <f t="shared" si="224"/>
         <v>11404</v>
       </c>
-      <c r="S73" s="4"/>
+      <c r="S73" s="4">
+        <f t="shared" si="224"/>
+        <v>29173</v>
+      </c>
+      <c r="T73" s="4">
+        <f t="shared" si="224"/>
+        <v>4788</v>
+      </c>
       <c r="AF73" s="2">
         <v>-119.782</v>
       </c>
@@ -7434,11 +7775,21 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
+      <c r="K75" s="4">
+        <v>-14824</v>
+      </c>
+      <c r="L75" s="4">
+        <v>-12082</v>
+      </c>
+      <c r="M75" s="4">
+        <v>-14288</v>
+      </c>
+      <c r="N75" s="4">
+        <v>-15748</v>
+      </c>
+      <c r="O75" s="4">
+        <v>-18935</v>
+      </c>
       <c r="P75" s="4">
         <v>-14951</v>
       </c>
@@ -7448,7 +7799,12 @@
       <c r="R75" s="4">
         <v>-16378</v>
       </c>
-      <c r="S75" s="4"/>
+      <c r="S75" s="4">
+        <v>-16592</v>
+      </c>
+      <c r="T75" s="2">
+        <v>-14207</v>
+      </c>
     </row>
     <row r="76" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
@@ -7462,11 +7818,21 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
+      <c r="K76" s="4">
+        <v>1629</v>
+      </c>
+      <c r="L76" s="4">
+        <v>895</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1300</v>
+      </c>
+      <c r="N76" s="4">
+        <v>997</v>
+      </c>
+      <c r="O76" s="4">
+        <v>2465</v>
+      </c>
       <c r="P76" s="4">
         <v>1209</v>
       </c>
@@ -7476,7 +7842,12 @@
       <c r="R76" s="4">
         <v>1337</v>
       </c>
-      <c r="S76" s="4"/>
+      <c r="S76" s="4">
+        <v>1152</v>
+      </c>
+      <c r="T76" s="2">
+        <v>1137</v>
+      </c>
     </row>
     <row r="77" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
@@ -7490,11 +7861,21 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
+      <c r="K77" s="4">
+        <v>-380</v>
+      </c>
+      <c r="L77" s="4">
+        <v>-630</v>
+      </c>
+      <c r="M77" s="4">
+        <v>-320</v>
+      </c>
+      <c r="N77" s="4">
+        <v>-654</v>
+      </c>
+      <c r="O77" s="4">
+        <v>-381</v>
+      </c>
       <c r="P77" s="4">
         <v>-6341</v>
       </c>
@@ -7504,7 +7885,12 @@
       <c r="R77" s="4">
         <v>-885</v>
       </c>
-      <c r="S77" s="4"/>
+      <c r="S77" s="4">
+        <v>-831</v>
+      </c>
+      <c r="T77" s="2">
+        <v>-3513</v>
+      </c>
     </row>
     <row r="78" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
@@ -7518,11 +7904,26 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
+      <c r="K78" s="4">
+        <f>17338-20801</f>
+        <v>-3463</v>
+      </c>
+      <c r="L78" s="4">
+        <f>17826-14675</f>
+        <v>3151</v>
+      </c>
+      <c r="M78" s="4">
+        <f>13213-21985</f>
+        <v>-8772</v>
+      </c>
+      <c r="N78" s="4">
+        <f>15808-15231</f>
+        <v>577</v>
+      </c>
+      <c r="O78" s="4">
+        <f>12537-8266</f>
+        <v>4271</v>
+      </c>
       <c r="P78" s="4">
         <f>22753-1764</f>
         <v>20989</v>
@@ -7535,7 +7936,14 @@
         <f>557-239</f>
         <v>318</v>
       </c>
-      <c r="S78" s="4"/>
+      <c r="S78" s="4">
+        <f>5683-233</f>
+        <v>5450</v>
+      </c>
+      <c r="T78" s="2">
+        <f>1115-338</f>
+        <v>777</v>
+      </c>
     </row>
     <row r="79" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
@@ -7549,24 +7957,46 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
+      <c r="K79" s="4">
+        <f t="shared" ref="K79:T79" si="225">SUM(K75:K78)</f>
+        <v>-17038</v>
+      </c>
+      <c r="L79" s="4">
+        <f t="shared" si="225"/>
+        <v>-8666</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" si="225"/>
+        <v>-22080</v>
+      </c>
+      <c r="N79" s="4">
+        <f t="shared" si="225"/>
+        <v>-14828</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="225"/>
+        <v>-12580</v>
+      </c>
       <c r="P79" s="4">
-        <f>SUM(P75:P78)</f>
+        <f t="shared" si="225"/>
         <v>906</v>
       </c>
       <c r="Q79" s="4">
-        <f>SUM(Q75:Q78)</f>
+        <f t="shared" si="225"/>
         <v>-12078</v>
       </c>
       <c r="R79" s="4">
-        <f>SUM(R75:R78)</f>
+        <f t="shared" si="225"/>
         <v>-15608</v>
       </c>
-      <c r="S79" s="4"/>
+      <c r="S79" s="4">
+        <f t="shared" si="225"/>
+        <v>-10821</v>
+      </c>
+      <c r="T79" s="4">
+        <f t="shared" si="225"/>
+        <v>-15806</v>
+      </c>
     </row>
     <row r="80" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
@@ -7599,11 +8029,21 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
       <c r="P81" s="4">
         <v>-2666</v>
       </c>
@@ -7613,7 +8053,12 @@
       <c r="R81" s="4">
         <v>0</v>
       </c>
-      <c r="S81" s="4"/>
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
@@ -7627,11 +8072,26 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
+      <c r="K82" s="4">
+        <f>2434-2291+531-113-2368-9</f>
+        <v>-1816</v>
+      </c>
+      <c r="L82" s="4">
+        <f>1926-2001+111-39-3406-67</f>
+        <v>-3476</v>
+      </c>
+      <c r="M82" s="4">
+        <f>18516-41-2804-28</f>
+        <v>15643</v>
+      </c>
+      <c r="N82" s="4">
+        <f>2187-1917+176-509-2693-20</f>
+        <v>-2776</v>
+      </c>
+      <c r="O82" s="4">
+        <f>2667-2659+200-1001-2260-47</f>
+        <v>-3100</v>
+      </c>
       <c r="P82" s="4">
         <f>13743-6231-2777-79</f>
         <v>4656</v>
@@ -7644,7 +8104,14 @@
         <f>12338-7916+107-1465-48</f>
         <v>3016</v>
       </c>
-      <c r="S82" s="4"/>
+      <c r="S82" s="4">
+        <f>10607-15797+8235-1257-1640-62</f>
+        <v>86</v>
+      </c>
+      <c r="T82" s="2">
+        <f>12780-3603-1386-1380-57</f>
+        <v>6354</v>
+      </c>
     </row>
     <row r="83" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
@@ -7658,24 +8125,46 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
+      <c r="K83" s="4">
+        <f t="shared" ref="K83:T83" si="226">SUM(K81:K82)</f>
+        <v>-1816</v>
+      </c>
+      <c r="L83" s="4">
+        <f t="shared" si="226"/>
+        <v>-3476</v>
+      </c>
+      <c r="M83" s="4">
+        <f t="shared" si="226"/>
+        <v>15643</v>
+      </c>
+      <c r="N83" s="4">
+        <f t="shared" si="226"/>
+        <v>-2776</v>
+      </c>
+      <c r="O83" s="4">
+        <f t="shared" si="226"/>
+        <v>-3100</v>
+      </c>
       <c r="P83" s="4">
-        <f>SUM(P81:P82)</f>
+        <f t="shared" si="226"/>
         <v>1990</v>
       </c>
       <c r="Q83" s="4">
-        <f>SUM(Q81:Q82)</f>
+        <f t="shared" si="226"/>
         <v>4626</v>
       </c>
       <c r="R83" s="4">
-        <f>SUM(R81:R82)</f>
+        <f t="shared" si="226"/>
         <v>3016</v>
       </c>
-      <c r="S83" s="4"/>
+      <c r="S83" s="4">
+        <f t="shared" si="226"/>
+        <v>86</v>
+      </c>
+      <c r="T83" s="4">
+        <f t="shared" si="226"/>
+        <v>6354</v>
+      </c>
     </row>
     <row r="84" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
@@ -7689,11 +8178,21 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="K84" s="4">
+        <v>599</v>
+      </c>
+      <c r="L84" s="4">
+        <v>-293</v>
+      </c>
+      <c r="M84" s="4">
+        <v>234</v>
+      </c>
+      <c r="N84" s="4">
+        <v>-199</v>
+      </c>
+      <c r="O84" s="4">
+        <v>-106</v>
+      </c>
       <c r="P84" s="4">
         <v>16</v>
       </c>
@@ -7703,7 +8202,12 @@
       <c r="R84" s="4">
         <v>-1334</v>
       </c>
-      <c r="S84" s="4"/>
+      <c r="S84" s="4">
+        <v>637</v>
+      </c>
+      <c r="T84" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="85" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
@@ -7717,24 +8221,46 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
+      <c r="K85" s="4">
+        <f t="shared" ref="K85:T85" si="227">+K84+K83+K79+K73</f>
+        <v>12175</v>
+      </c>
+      <c r="L85" s="4">
+        <f t="shared" si="227"/>
+        <v>-8222</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" si="227"/>
+        <v>6512</v>
+      </c>
+      <c r="N85" s="4">
+        <f t="shared" si="227"/>
+        <v>-10490</v>
+      </c>
+      <c r="O85" s="4">
+        <f t="shared" si="227"/>
+        <v>6300</v>
+      </c>
       <c r="P85" s="4">
-        <f>+P84+P83+P79+P73</f>
+        <f t="shared" si="227"/>
         <v>122</v>
       </c>
       <c r="Q85" s="4">
-        <f>+Q84+Q83+Q79+Q73</f>
+        <f t="shared" si="227"/>
         <v>1101</v>
       </c>
       <c r="R85" s="4">
-        <f>+R84+R83+R79+R73</f>
+        <f t="shared" si="227"/>
         <v>-2522</v>
       </c>
-      <c r="S85" s="4"/>
+      <c r="S85" s="4">
+        <f t="shared" si="227"/>
+        <v>19075</v>
+      </c>
+      <c r="T85" s="4">
+        <f t="shared" si="227"/>
+        <v>-4519</v>
+      </c>
     </row>
     <row r="87" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
@@ -7790,20 +8316,36 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="G89" s="4">
+        <v>1900</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1312</v>
+      </c>
+      <c r="I89" s="4">
+        <v>2141</v>
+      </c>
+      <c r="J89" s="4">
+        <v>2252</v>
+      </c>
+      <c r="K89" s="4">
+        <v>2946</v>
+      </c>
+      <c r="L89" s="4">
+        <v>3450</v>
+      </c>
       <c r="M89" s="4">
         <v>3147</v>
       </c>
       <c r="N89" s="4">
         <v>880</v>
       </c>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+      <c r="O89" s="4">
+        <v>-206</v>
+      </c>
+      <c r="P89" s="4">
+        <v>-1568</v>
+      </c>
       <c r="Q89" s="4">
         <v>-627</v>
       </c>
@@ -7825,20 +8367,36 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="G90" s="4">
+        <v>-617</v>
+      </c>
+      <c r="H90" s="4">
+        <v>-398</v>
+      </c>
+      <c r="I90" s="4">
+        <v>345</v>
+      </c>
+      <c r="J90" s="4">
+        <v>407</v>
+      </c>
+      <c r="K90" s="4">
+        <v>363</v>
+      </c>
+      <c r="L90" s="4">
+        <v>1252</v>
+      </c>
       <c r="M90" s="4">
         <v>362</v>
       </c>
       <c r="N90" s="4">
         <v>-911</v>
       </c>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
+      <c r="O90" s="4">
+        <v>-1627</v>
+      </c>
+      <c r="P90" s="4">
+        <v>-1281</v>
+      </c>
       <c r="Q90" s="4">
         <v>-1771</v>
       </c>
@@ -7860,20 +8418,36 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="G91" s="4">
+        <v>2596</v>
+      </c>
+      <c r="H91" s="4">
+        <v>3075</v>
+      </c>
+      <c r="I91" s="4">
+        <v>3357</v>
+      </c>
+      <c r="J91" s="4">
+        <v>3535</v>
+      </c>
+      <c r="K91" s="4">
+        <v>3564</v>
+      </c>
+      <c r="L91" s="4">
+        <v>4163</v>
+      </c>
       <c r="M91" s="4">
         <v>4193</v>
       </c>
       <c r="N91" s="4">
         <v>4883</v>
       </c>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="O91" s="4">
+        <v>5293</v>
+      </c>
+      <c r="P91" s="4">
+        <v>6518</v>
+      </c>
       <c r="Q91" s="4">
         <v>5715</v>
       </c>
@@ -7891,25 +8465,74 @@
       <c r="B93" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="K93" s="4">
+        <f>+K73+K75+K76</f>
+        <v>17235</v>
+      </c>
+      <c r="L93" s="4">
+        <f>+L73+L75+L76</f>
+        <v>-6974</v>
+      </c>
+      <c r="M93" s="4">
+        <f t="shared" ref="M93:S93" si="228">+M73+M75+M76</f>
+        <v>-273</v>
+      </c>
+      <c r="N93" s="4">
+        <f t="shared" si="228"/>
+        <v>-7438</v>
+      </c>
+      <c r="O93" s="4">
+        <f t="shared" si="228"/>
+        <v>5616</v>
+      </c>
       <c r="P93" s="4">
-        <f t="shared" ref="P93:Q93" si="219">+P73+P75</f>
-        <v>-17741</v>
+        <f t="shared" si="228"/>
+        <v>-16532</v>
       </c>
       <c r="Q93" s="4">
-        <f t="shared" si="219"/>
-        <v>-6759</v>
+        <f t="shared" si="228"/>
+        <v>-5133</v>
       </c>
       <c r="R93" s="4">
-        <f>+R73+R75</f>
-        <v>-4974</v>
+        <f t="shared" si="228"/>
+        <v>-3637</v>
       </c>
       <c r="S93" s="4">
-        <f t="shared" ref="S93:T93" si="220">+S73+S75</f>
-        <v>0</v>
+        <f t="shared" si="228"/>
+        <v>13733</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" si="220"/>
-        <v>0</v>
+        <f>+T73+T75+T76</f>
+        <v>-8282</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O94" s="2">
+        <f>SUM(L93:O93)</f>
+        <v>-9069</v>
+      </c>
+      <c r="P94" s="2">
+        <f>SUM(M93:P93)</f>
+        <v>-18627</v>
+      </c>
+      <c r="Q94" s="2">
+        <f>SUM(N93:Q93)</f>
+        <v>-23487</v>
+      </c>
+      <c r="R94" s="2">
+        <f t="shared" ref="R94" si="229">SUM(O93:R93)</f>
+        <v>-19686</v>
+      </c>
+      <c r="S94" s="2">
+        <f>SUM(P93:S93)</f>
+        <v>-11569</v>
+      </c>
+      <c r="T94" s="2">
+        <f>SUM(Q93:T93)</f>
+        <v>-3319</v>
       </c>
     </row>
     <row r="100" spans="2:30" x14ac:dyDescent="0.2">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3FEEF-7BAA-48DF-AE6C-8A9FF03EED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93765436-BF10-48DF-960E-30475572B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -533,7 +533,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F3E69504-B68D-43F1-AC49-C448E066EA1C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,11 +1076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:DS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="Q89" sqref="Q89:T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93765436-BF10-48DF-960E-30475572B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6834718-ED16-4A6A-966F-8F48972AA228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-27930" yWindow="75" windowWidth="27825" windowHeight="19425" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,17 +38,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={25D31764-16FB-4D93-B4DD-0EA3D148D991}</author>
     <author>tc={89E45B5F-0C20-4B81-874E-AD8DF93707A2}</author>
     <author>tc={9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}</author>
     <author>tc={1C7E52D4-5BCB-4AA9-9278-E6CDC311AA1D}</author>
     <author>tc={D82076A3-F6B1-40A8-A09D-2B367ECEDED9}</author>
+    <author>tc={4F53D287-EDAA-4481-ACF6-A09E2F7614C4}</author>
     <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
     <author>tc={1123E429-DC3C-402F-A940-60A8A504E208}</author>
     <author>tc={F0CECC32-58CA-41B9-9B42-426709AD1A9F}</author>
+    <author>tc={EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}</author>
     <author>tc={7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}</author>
   </authors>
   <commentList>
-    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
+    <comment ref="U9" authorId="0" shapeId="0" xr:uid="{25D31764-16FB-4D93-B4DD-0EA3D148D991}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I estimated 23.7B prior to results</t>
+      </text>
+    </comment>
+    <comment ref="R20" authorId="1" shapeId="0" xr:uid="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +67,7 @@
     Q222 guidance: 125-130B</t>
       </text>
     </comment>
-    <comment ref="S20" authorId="1" shapeId="0" xr:uid="{9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}">
+    <comment ref="S20" authorId="2" shapeId="0" xr:uid="{9EC27BD9-44A2-48E9-9E13-C02A116B6B0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +75,7 @@
     Q3 guidance: 140-148B</t>
       </text>
     </comment>
-    <comment ref="T20" authorId="2" shapeId="0" xr:uid="{1C7E52D4-5BCB-4AA9-9278-E6CDC311AA1D}">
+    <comment ref="T20" authorId="3" shapeId="0" xr:uid="{1C7E52D4-5BCB-4AA9-9278-E6CDC311AA1D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +83,7 @@
     Q422 guidance: 121-126B</t>
       </text>
     </comment>
-    <comment ref="U20" authorId="3" shapeId="0" xr:uid="{D82076A3-F6B1-40A8-A09D-2B367ECEDED9}">
+    <comment ref="U20" authorId="4" shapeId="0" xr:uid="{D82076A3-F6B1-40A8-A09D-2B367ECEDED9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +91,16 @@
     Q123 guidance: 127-133B</t>
       </text>
     </comment>
-    <comment ref="R28" authorId="4" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <comment ref="V20" authorId="5" shapeId="0" xr:uid="{4F53D287-EDAA-4481-ACF6-A09E2F7614C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q223 guidance: 138B-143B
+I estimated 135B prior to guidance</t>
+      </text>
+    </comment>
+    <comment ref="R28" authorId="6" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +108,7 @@
     Q222 guidance: 0.0-3.5B</t>
       </text>
     </comment>
-    <comment ref="S28" authorId="5" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
+    <comment ref="S28" authorId="7" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +116,7 @@
     Q3 guidance: 0-4B</t>
       </text>
     </comment>
-    <comment ref="T28" authorId="6" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
+    <comment ref="T28" authorId="8" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +124,16 @@
     Q4 guidance 0-4B</t>
       </text>
     </comment>
-    <comment ref="R36" authorId="7" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+    <comment ref="U28" authorId="9" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q223 guidance: 5.5-8.5B
+I estimated 5.6B prior to guidance</t>
+      </text>
+    </comment>
+    <comment ref="R36" authorId="10" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -450,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -469,6 +498,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -551,16 +586,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15648</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>35355</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>39120</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15648</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>35355</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>48645</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -575,8 +610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12550548" y="39120"/>
-          <a:ext cx="0" cy="17317811"/>
+          <a:off x="13206131" y="0"/>
+          <a:ext cx="0" cy="17417284"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -955,6 +990,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U9" dT="2023-08-16T02:08:15.29" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{25D31764-16FB-4D93-B4DD-0EA3D148D991}">
+    <text>I estimated 23.7B prior to results</text>
+  </threadedComment>
   <threadedComment ref="R20" dT="2022-07-29T15:08:40.16" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{89E45B5F-0C20-4B81-874E-AD8DF93707A2}">
     <text>Q222 guidance: 125-130B</text>
   </threadedComment>
@@ -967,6 +1005,10 @@
   <threadedComment ref="U20" dT="2023-04-30T02:01:08.68" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{D82076A3-F6B1-40A8-A09D-2B367ECEDED9}">
     <text>Q123 guidance: 127-133B</text>
   </threadedComment>
+  <threadedComment ref="V20" dT="2023-08-16T02:05:55.59" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{4F53D287-EDAA-4481-ACF6-A09E2F7614C4}">
+    <text>Q223 guidance: 138B-143B
+I estimated 135B prior to guidance</text>
+  </threadedComment>
   <threadedComment ref="R28" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
     <text>Q222 guidance: 0.0-3.5B</text>
   </threadedComment>
@@ -975,6 +1017,10 @@
   </threadedComment>
   <threadedComment ref="T28" dT="2023-02-09T23:51:52.21" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
     <text>Q4 guidance 0-4B</text>
+  </threadedComment>
+  <threadedComment ref="U28" dT="2023-08-16T02:06:13.82" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
+    <text>Q223 guidance: 5.5-8.5B
+I estimated 5.6B prior to guidance</text>
   </threadedComment>
   <threadedComment ref="R36" dT="2022-12-19T01:32:23.85" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
     <text>+19% net of FX</text>
@@ -1076,11 +1122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:DS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q89" sqref="Q89:T91"/>
+      <selection pane="bottomRight" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,6 +1442,9 @@
       </c>
       <c r="T3" s="2">
         <v>76881</v>
+      </c>
+      <c r="U3" s="2">
+        <v>82546</v>
       </c>
       <c r="AS3" s="2">
         <v>50834</v>
@@ -1545,6 +1594,9 @@
       <c r="T6" s="2">
         <v>29123</v>
       </c>
+      <c r="U6" s="2">
+        <v>29697</v>
+      </c>
       <c r="AS6" s="2">
         <v>33510</v>
       </c>
@@ -1694,8 +1746,7 @@
         <v>21354</v>
       </c>
       <c r="U9" s="4">
-        <f>+Q9*1.2</f>
-        <v>23686.799999999999</v>
+        <v>22140</v>
       </c>
       <c r="V9" s="4">
         <f>+R9*1.2</f>
@@ -1738,35 +1789,35 @@
       </c>
       <c r="BB9" s="2">
         <f>SUM(T9:W9)</f>
-        <v>95340</v>
+        <v>93793.200000000012</v>
       </c>
       <c r="BC9" s="2">
         <f>+BB9*1.3</f>
-        <v>123942</v>
+        <v>121931.16000000002</v>
       </c>
       <c r="BD9" s="2">
         <f t="shared" ref="BD9:BF9" si="3">+BC9*1.3</f>
-        <v>161124.6</v>
+        <v>158510.50800000003</v>
       </c>
       <c r="BE9" s="2">
         <f t="shared" si="3"/>
-        <v>209461.98</v>
+        <v>206063.66040000005</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" si="3"/>
-        <v>272300.57400000002</v>
+        <v>267882.75852000009</v>
       </c>
       <c r="BG9" s="2">
         <f>+BF9*1.2</f>
-        <v>326760.6888</v>
+        <v>321459.31022400007</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" ref="BH9:BI9" si="4">+BG9*1.2</f>
-        <v>392112.82656000002</v>
+        <v>385751.17226880009</v>
       </c>
       <c r="BI9" s="2">
         <f t="shared" si="4"/>
-        <v>470535.39187200001</v>
+        <v>462901.40672256012</v>
       </c>
     </row>
     <row r="11" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2563,6 +2614,9 @@
       <c r="T18" s="2">
         <v>56981</v>
       </c>
+      <c r="U18" s="2">
+        <v>59032</v>
+      </c>
       <c r="AV18" s="2">
         <v>118573</v>
       </c>
@@ -2640,6 +2694,9 @@
       <c r="T19" s="2">
         <v>70377</v>
       </c>
+      <c r="U19" s="2">
+        <v>75351</v>
+      </c>
       <c r="AV19" s="2">
         <v>59293</v>
       </c>
@@ -2736,8 +2793,8 @@
         <v>127358</v>
       </c>
       <c r="U20" s="6">
-        <f>SUM(U9:U16)</f>
-        <v>129101.70999999999</v>
+        <f>+U18+U19</f>
+        <v>134383</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" ref="V20:W20" si="29">SUM(V9:V16)</f>
@@ -2842,35 +2899,35 @@
       </c>
       <c r="BB20" s="5">
         <f>SUM(BB9:BB16)</f>
-        <v>550196.52</v>
+        <v>548649.72</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" ref="BC20:BI20" si="33">SUM(BC9:BC16)</f>
-        <v>605589.68800000008</v>
+        <v>603578.84800000011</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="33"/>
-        <v>671307.84860000014</v>
+        <v>668693.75659999996</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="33"/>
-        <v>750052.88485000003</v>
+        <v>746654.5652500001</v>
       </c>
       <c r="BF20" s="5">
         <f t="shared" si="33"/>
-        <v>845309.3672945</v>
+        <v>840891.55181450013</v>
       </c>
       <c r="BG20" s="5">
         <f t="shared" si="33"/>
-        <v>928419.92175922508</v>
+        <v>923118.54318322521</v>
       </c>
       <c r="BH20" s="5">
         <f t="shared" si="33"/>
-        <v>1023855.0211671864</v>
+        <v>1017493.3668759866</v>
       </c>
       <c r="BI20" s="5">
         <f t="shared" si="33"/>
-        <v>1133864.6962095457</v>
+        <v>1126230.7110601058</v>
       </c>
     </row>
     <row r="21" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2932,11 +2989,10 @@
         <v>67791</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" ref="U21:W21" si="34">SUM(U11:U13)*0.68+U9*0.5</f>
-        <v>69846.67240000001</v>
+        <v>69373</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="U21:W21" si="34">SUM(V11:V13)*0.68+V9*0.5</f>
         <v>73056.081999999995</v>
       </c>
       <c r="W21" s="4">
@@ -2985,35 +3041,35 @@
       </c>
       <c r="BB21" s="2">
         <f>SUM(T21:W21)</f>
-        <v>297540.66240000003</v>
+        <v>297066.99</v>
       </c>
       <c r="BC21" s="4">
         <f t="shared" ref="BC21:BI21" si="35">SUM(BC11:BC13)*0.8+BC9*0.7</f>
-        <v>396951.8112</v>
+        <v>395544.22320000001</v>
       </c>
       <c r="BD21" s="4">
         <f t="shared" si="35"/>
-        <v>438489.25176000013</v>
+        <v>436659.38736000011</v>
       </c>
       <c r="BE21" s="4">
         <f t="shared" si="35"/>
-        <v>488610.51934800006</v>
+        <v>486231.69562800007</v>
       </c>
       <c r="BF21" s="4">
         <f t="shared" si="35"/>
-        <v>549696.8918154001</v>
+        <v>546604.42097940017</v>
       </c>
       <c r="BG21" s="4">
         <f t="shared" si="35"/>
-        <v>605773.29667617008</v>
+        <v>602062.33167297021</v>
       </c>
       <c r="BH21" s="4">
         <f t="shared" si="35"/>
-        <v>670371.83383397863</v>
+        <v>665918.67583013873</v>
       </c>
       <c r="BI21" s="4">
         <f t="shared" si="35"/>
-        <v>745062.27231447748</v>
+        <v>739718.48270986951</v>
       </c>
     </row>
     <row r="22" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3075,11 +3131,10 @@
         <v>20905</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" ref="U22:W22" si="36">(U13+U11)*0.25</f>
-        <v>20144.482500000002</v>
+        <v>21305</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="U22:W22" si="36">(V13+V11)*0.25</f>
         <v>21154.912499999999</v>
       </c>
       <c r="W22" s="4">
@@ -3128,7 +3183,7 @@
       </c>
       <c r="BB22" s="2">
         <f>SUM(T22:W22)</f>
-        <v>88178.42</v>
+        <v>89338.9375</v>
       </c>
       <c r="BC22" s="4">
         <f t="shared" ref="BC22:BI22" si="37">(BC13+BC11)*0.1</f>
@@ -3237,7 +3292,7 @@
       </c>
       <c r="U23" s="4">
         <f t="shared" si="44"/>
-        <v>39110.555099999983</v>
+        <v>43705</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" si="44"/>
@@ -3297,35 +3352,35 @@
       </c>
       <c r="BB23" s="4">
         <f t="shared" si="47"/>
-        <v>164477.4376</v>
+        <v>162243.79249999998</v>
       </c>
       <c r="BC23" s="4">
         <f t="shared" si="47"/>
-        <v>171886.86040000009</v>
+        <v>171283.60840000011</v>
       </c>
       <c r="BD23" s="4">
         <f t="shared" si="47"/>
-        <v>194230.02962000002</v>
+        <v>193445.80201999986</v>
       </c>
       <c r="BE23" s="4">
         <f t="shared" si="47"/>
-        <v>220924.36992099998</v>
+        <v>219904.87404100003</v>
       </c>
       <c r="BF23" s="4">
         <f t="shared" si="47"/>
-        <v>253068.58011904988</v>
+        <v>251743.23547504994</v>
       </c>
       <c r="BG23" s="4">
         <f t="shared" si="47"/>
-        <v>277975.53495500248</v>
+        <v>276385.12138220249</v>
       </c>
       <c r="BH23" s="4">
         <f t="shared" si="47"/>
-        <v>306578.54269875266</v>
+        <v>304670.04641139269</v>
       </c>
       <c r="BI23" s="4">
         <f t="shared" si="47"/>
-        <v>339552.54702889035</v>
+        <v>337262.35148405842</v>
       </c>
     </row>
     <row r="24" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3387,11 +3442,10 @@
         <v>20450</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" ref="U24:W24" si="48">+Q24*1.1</f>
-        <v>19879.2</v>
+        <v>21931</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="U24:W24" si="48">+R24*1.1</f>
         <v>21433.5</v>
       </c>
       <c r="W24" s="4">
@@ -3440,35 +3494,35 @@
       </c>
       <c r="BB24" s="2">
         <f>SUM(T24:W24)</f>
-        <v>84658.1</v>
+        <v>86709.9</v>
       </c>
       <c r="BC24" s="2">
         <f>+BB24*1.03</f>
-        <v>87197.843000000008</v>
+        <v>89311.197</v>
       </c>
       <c r="BD24" s="2">
         <f t="shared" ref="BD24:BI24" si="49">+BC24*1.03</f>
-        <v>89813.778290000017</v>
+        <v>91990.532910000009</v>
       </c>
       <c r="BE24" s="2">
         <f t="shared" si="49"/>
-        <v>92508.191638700024</v>
+        <v>94750.248897300015</v>
       </c>
       <c r="BF24" s="2">
         <f t="shared" si="49"/>
-        <v>95283.43738786102</v>
+        <v>97592.756364219022</v>
       </c>
       <c r="BG24" s="2">
         <f t="shared" si="49"/>
-        <v>98141.940509496853</v>
+        <v>100520.53905514559</v>
       </c>
       <c r="BH24" s="2">
         <f t="shared" si="49"/>
-        <v>101086.19872478176</v>
+        <v>103536.15522679997</v>
       </c>
       <c r="BI24" s="2">
         <f t="shared" si="49"/>
-        <v>104118.78468652522</v>
+        <v>106642.23988360396</v>
       </c>
     </row>
     <row r="25" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3530,15 +3584,14 @@
         <v>10172</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" ref="U25:U26" si="50">+Q25*1.05</f>
-        <v>10590.300000000001</v>
+        <v>10745</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" ref="V25:V26" si="51">+R25*1.05</f>
+        <f t="shared" ref="V25:V26" si="50">+R25*1.05</f>
         <v>11564.7</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" ref="W25:W26" si="52">+S25*1.05</f>
+        <f t="shared" ref="W25:W26" si="51">+S25*1.05</f>
         <v>13458.900000000001</v>
       </c>
       <c r="AF25" s="2">
@@ -3583,35 +3636,35 @@
       </c>
       <c r="BB25" s="2">
         <f>SUM(T25:W25)</f>
-        <v>45785.900000000009</v>
+        <v>45940.600000000006</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" ref="BC25:BI25" si="53">+BB25*1.03</f>
-        <v>47159.477000000014</v>
+        <f t="shared" ref="BC25:BI25" si="52">+BB25*1.03</f>
+        <v>47318.818000000007</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="53"/>
-        <v>48574.261310000016</v>
+        <f t="shared" si="52"/>
+        <v>48738.382540000006</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" si="53"/>
-        <v>50031.489149300018</v>
+        <f t="shared" si="52"/>
+        <v>50200.534016200007</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" si="53"/>
-        <v>51532.433823779022</v>
+        <f t="shared" si="52"/>
+        <v>51706.550036686007</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" si="53"/>
-        <v>53078.406838492396</v>
+        <f t="shared" si="52"/>
+        <v>53257.746537786588</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" si="53"/>
-        <v>54670.759043647166</v>
+        <f t="shared" si="52"/>
+        <v>54855.478933920189</v>
       </c>
       <c r="BI25" s="2">
-        <f t="shared" si="53"/>
-        <v>56310.881814956585</v>
+        <f t="shared" si="52"/>
+        <v>56501.143301937795</v>
       </c>
     </row>
     <row r="26" spans="2:123" x14ac:dyDescent="0.2">
@@ -3673,15 +3726,14 @@
         <v>3043</v>
       </c>
       <c r="U26" s="4">
+        <v>3202</v>
+      </c>
+      <c r="V26" s="4">
         <f t="shared" si="50"/>
-        <v>3048.15</v>
-      </c>
-      <c r="V26" s="4">
+        <v>3214.05</v>
+      </c>
+      <c r="W26" s="4">
         <f t="shared" si="51"/>
-        <v>3214.05</v>
-      </c>
-      <c r="W26" s="4">
-        <f t="shared" si="52"/>
         <v>3499.65</v>
       </c>
       <c r="AF26" s="2">
@@ -3726,35 +3778,35 @@
       </c>
       <c r="BB26" s="2">
         <f>SUM(T26:W26)</f>
-        <v>12804.85</v>
+        <v>12958.699999999999</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" ref="BC26:BI26" si="54">+BB26*1.03</f>
-        <v>13188.995500000001</v>
+        <f t="shared" ref="BC26:BI26" si="53">+BB26*1.03</f>
+        <v>13347.460999999999</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="54"/>
-        <v>13584.665365000001</v>
+        <f t="shared" si="53"/>
+        <v>13747.884829999999</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="54"/>
-        <v>13992.205325950001</v>
+        <f t="shared" si="53"/>
+        <v>14160.321374899999</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="54"/>
-        <v>14411.971485728502</v>
+        <f t="shared" si="53"/>
+        <v>14585.131016146999</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="54"/>
-        <v>14844.330630300357</v>
+        <f t="shared" si="53"/>
+        <v>15022.684946631409</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="54"/>
-        <v>15289.660549209368</v>
+        <f t="shared" si="53"/>
+        <v>15473.365495030352</v>
       </c>
       <c r="BI26" s="2">
-        <f t="shared" si="54"/>
-        <v>15748.350365685648</v>
+        <f t="shared" si="53"/>
+        <v>15937.566459881262</v>
       </c>
     </row>
     <row r="27" spans="2:123" x14ac:dyDescent="0.2">
@@ -3762,7 +3814,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27" si="55">SUM(C24:C26)</f>
+        <f t="shared" ref="C27" si="54">SUM(C24:C26)</f>
         <v>13697</v>
       </c>
       <c r="D27" s="4">
@@ -3770,7 +3822,7 @@
         <v>12764</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27" si="56">SUM(E24:E26)</f>
+        <f t="shared" ref="E27" si="55">SUM(E24:E26)</f>
         <v>14626</v>
       </c>
       <c r="F27" s="4">
@@ -3778,15 +3830,15 @@
         <v>15300</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27" si="57">SUM(G24:G26)</f>
+        <f t="shared" ref="G27" si="56">SUM(G24:G26)</f>
         <v>17324</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" ref="H27" si="58">SUM(H24:H26)</f>
+        <f t="shared" ref="H27" si="57">SUM(H24:H26)</f>
         <v>15605</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27" si="59">SUM(I24:I26)</f>
+        <f t="shared" ref="I27" si="58">SUM(I24:I26)</f>
         <v>16313</v>
       </c>
       <c r="J27" s="4">
@@ -3794,7 +3846,7 @@
         <v>18078</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" ref="K27" si="60">SUM(K24:K26)</f>
+        <f t="shared" ref="K27" si="59">SUM(K24:K26)</f>
         <v>21420</v>
       </c>
       <c r="L27" s="4">
@@ -3802,23 +3854,23 @@
         <v>20682</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" ref="M27:P27" si="61">SUM(M24:M26)</f>
+        <f t="shared" ref="M27:P27" si="60">SUM(M24:M26)</f>
         <v>23553</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>24543</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>28648</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>25756</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" ref="Q27:W27" si="62">SUM(Q24:Q26)</f>
+        <f t="shared" ref="Q27:W27" si="61">SUM(Q24:Q26)</f>
         <v>31061</v>
       </c>
       <c r="R27" s="4">
@@ -3826,23 +3878,23 @@
         <v>33560</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>36965</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>33665</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="62"/>
-        <v>33517.65</v>
+        <f t="shared" si="61"/>
+        <v>35878</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>36212.25</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>39853.950000000004</v>
       </c>
       <c r="AF27" s="2">
@@ -3858,72 +3910,72 @@
         <v>418.89800000000002</v>
       </c>
       <c r="AS27" s="4">
-        <f t="shared" ref="AS27:AU27" si="63">SUM(AS24:AS26)</f>
+        <f t="shared" ref="AS27:AU27" si="62">SUM(AS24:AS26)</f>
         <v>15159</v>
       </c>
       <c r="AT27" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>19541</v>
       </c>
       <c r="AU27" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>25750</v>
       </c>
       <c r="AV27" s="4">
-        <f t="shared" ref="AV27" si="64">SUM(AV24:AV26)</f>
+        <f t="shared" ref="AV27" si="63">SUM(AV24:AV26)</f>
         <v>36363</v>
       </c>
       <c r="AW27" s="4">
-        <f t="shared" ref="AW27:AX27" si="65">SUM(AW24:AW26)</f>
+        <f t="shared" ref="AW27:AX27" si="64">SUM(AW24:AW26)</f>
         <v>46987</v>
       </c>
       <c r="AX27" s="4">
+        <f t="shared" si="64"/>
+        <v>60014</v>
+      </c>
+      <c r="AY27" s="4">
+        <f t="shared" ref="AY27:AZ27" si="65">SUM(AY24:AY26)</f>
+        <v>71416</v>
+      </c>
+      <c r="AZ27" s="4">
         <f t="shared" si="65"/>
-        <v>60014</v>
-      </c>
-      <c r="AY27" s="4">
-        <f t="shared" ref="AY27:AZ27" si="66">SUM(AY24:AY26)</f>
-        <v>71416</v>
-      </c>
-      <c r="AZ27" s="4">
+        <v>97426</v>
+      </c>
+      <c r="BA27" s="4">
+        <f t="shared" ref="BA27:BB27" si="66">SUM(BA24:BA26)</f>
+        <v>127342</v>
+      </c>
+      <c r="BB27" s="4">
         <f t="shared" si="66"/>
-        <v>97426</v>
-      </c>
-      <c r="BA27" s="4">
-        <f t="shared" ref="BA27:BB27" si="67">SUM(BA24:BA26)</f>
-        <v>127342</v>
-      </c>
-      <c r="BB27" s="4">
+        <v>145609.20000000001</v>
+      </c>
+      <c r="BC27" s="4">
+        <f t="shared" ref="BC27:BI27" si="67">SUM(BC24:BC26)</f>
+        <v>149977.47600000002</v>
+      </c>
+      <c r="BD27" s="4">
         <f t="shared" si="67"/>
-        <v>143248.85</v>
-      </c>
-      <c r="BC27" s="4">
-        <f t="shared" ref="BC27:BI27" si="68">SUM(BC24:BC26)</f>
-        <v>147546.3155</v>
-      </c>
-      <c r="BD27" s="4">
-        <f t="shared" si="68"/>
-        <v>151972.70496500001</v>
+        <v>154476.80028000002</v>
       </c>
       <c r="BE27" s="4">
-        <f t="shared" si="68"/>
-        <v>156531.88611395005</v>
+        <f t="shared" si="67"/>
+        <v>159111.10428840003</v>
       </c>
       <c r="BF27" s="4">
-        <f t="shared" si="68"/>
-        <v>161227.84269736856</v>
+        <f t="shared" si="67"/>
+        <v>163884.43741705202</v>
       </c>
       <c r="BG27" s="4">
-        <f t="shared" si="68"/>
-        <v>166064.6779782896</v>
+        <f t="shared" si="67"/>
+        <v>168800.9705395636</v>
       </c>
       <c r="BH27" s="4">
-        <f t="shared" si="68"/>
-        <v>171046.61831763829</v>
+        <f t="shared" si="67"/>
+        <v>173864.99965575052</v>
       </c>
       <c r="BI27" s="4">
-        <f t="shared" si="68"/>
-        <v>176178.01686716746</v>
+        <f t="shared" si="67"/>
+        <v>179080.94964542301</v>
       </c>
     </row>
     <row r="28" spans="2:123" x14ac:dyDescent="0.2">
@@ -3931,7 +3983,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28" si="69">C23-C27</f>
+        <f t="shared" ref="C28" si="68">C23-C27</f>
         <v>3872</v>
       </c>
       <c r="D28" s="4">
@@ -3939,7 +3991,7 @@
         <v>4415</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ref="E28" si="70">E23-E27</f>
+        <f t="shared" ref="E28" si="69">E23-E27</f>
         <v>3170</v>
       </c>
       <c r="F28" s="4">
@@ -3947,15 +3999,15 @@
         <v>3212</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28" si="71">G23-G27</f>
+        <f t="shared" ref="G28" si="70">G23-G27</f>
         <v>3944</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" ref="H28" si="72">H23-H27</f>
+        <f t="shared" ref="H28" si="71">H23-H27</f>
         <v>4059</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28" si="73">I23-I27</f>
+        <f t="shared" ref="I28" si="72">I23-I27</f>
         <v>6133</v>
       </c>
       <c r="J28" s="4">
@@ -3963,7 +4015,7 @@
         <v>6256</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28" si="74">K23-K27</f>
+        <f t="shared" ref="K28" si="73">K23-K27</f>
         <v>6377</v>
       </c>
       <c r="L28" s="4">
@@ -3971,23 +4023,23 @@
         <v>8903</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28:P28" si="75">M23-M27</f>
+        <f t="shared" ref="M28:P28" si="74">M23-M27</f>
         <v>7713</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>4841</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>3484</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>3918</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" ref="Q28:W28" si="76">Q23-Q27</f>
+        <f t="shared" ref="Q28:W28" si="75">Q23-Q27</f>
         <v>3407</v>
       </c>
       <c r="R28" s="4">
@@ -3995,7 +4047,7 @@
         <v>2690</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>3496</v>
       </c>
       <c r="T28" s="4">
@@ -4003,15 +4055,15 @@
         <v>4997</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="76"/>
-        <v>5592.9050999999818</v>
+        <f t="shared" si="75"/>
+        <v>7827</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>4917.0454999999856</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>5721.6370000000024</v>
       </c>
       <c r="AF28" s="2">
@@ -4027,72 +4079,72 @@
         <v>361.23799999999972</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" ref="AS28:AU28" si="77">AS23-AS27</f>
+        <f t="shared" ref="AS28:AU28" si="76">AS23-AS27</f>
         <v>311</v>
       </c>
       <c r="AT28" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2404</v>
       </c>
       <c r="AU28" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4353</v>
       </c>
       <c r="AV28" s="4">
-        <f t="shared" ref="AV28" si="78">AV23-AV27</f>
+        <f t="shared" ref="AV28" si="77">AV23-AV27</f>
         <v>4320</v>
       </c>
       <c r="AW28" s="4">
-        <f t="shared" ref="AW28:AX28" si="79">AW23-AW27</f>
+        <f t="shared" ref="AW28:AX28" si="78">AW23-AW27</f>
         <v>12717</v>
       </c>
       <c r="AX28" s="4">
+        <f t="shared" si="78"/>
+        <v>14741</v>
+      </c>
+      <c r="AY28" s="4">
+        <f t="shared" ref="AY28:AZ28" si="79">AY23-AY27</f>
+        <v>22825</v>
+      </c>
+      <c r="AZ28" s="4">
         <f t="shared" si="79"/>
-        <v>14741</v>
-      </c>
-      <c r="AY28" s="4">
-        <f t="shared" ref="AY28:AZ28" si="80">AY23-AY27</f>
-        <v>22825</v>
-      </c>
-      <c r="AZ28" s="4">
+        <v>24941</v>
+      </c>
+      <c r="BA28" s="4">
+        <f t="shared" ref="BA28:BB28" si="80">BA23-BA27</f>
+        <v>13511</v>
+      </c>
+      <c r="BB28" s="4">
         <f t="shared" si="80"/>
-        <v>24941</v>
-      </c>
-      <c r="BA28" s="4">
-        <f t="shared" ref="BA28:BB28" si="81">BA23-BA27</f>
-        <v>13511</v>
-      </c>
-      <c r="BB28" s="4">
+        <v>16634.59249999997</v>
+      </c>
+      <c r="BC28" s="4">
+        <f t="shared" ref="BC28:BI28" si="81">BC23-BC27</f>
+        <v>21306.13240000009</v>
+      </c>
+      <c r="BD28" s="4">
         <f t="shared" si="81"/>
-        <v>21228.587599999999</v>
-      </c>
-      <c r="BC28" s="4">
-        <f t="shared" ref="BC28:BI28" si="82">BC23-BC27</f>
-        <v>24340.544900000095</v>
-      </c>
-      <c r="BD28" s="4">
-        <f t="shared" si="82"/>
-        <v>42257.324655000004</v>
+        <v>38969.001739999832</v>
       </c>
       <c r="BE28" s="4">
-        <f t="shared" si="82"/>
-        <v>64392.483807049925</v>
+        <f t="shared" si="81"/>
+        <v>60793.769752599997</v>
       </c>
       <c r="BF28" s="4">
-        <f t="shared" si="82"/>
-        <v>91840.737421681319</v>
+        <f t="shared" si="81"/>
+        <v>87858.798057997919</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" si="82"/>
-        <v>111910.85697671288</v>
+        <f t="shared" si="81"/>
+        <v>107584.15084263889</v>
       </c>
       <c r="BH28" s="4">
-        <f t="shared" si="82"/>
-        <v>135531.92438111437</v>
+        <f t="shared" si="81"/>
+        <v>130805.04675564216</v>
       </c>
       <c r="BI28" s="4">
-        <f t="shared" si="82"/>
-        <v>163374.53016172288</v>
+        <f t="shared" si="81"/>
+        <v>158181.40183863541</v>
       </c>
     </row>
     <row r="29" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4171,6 +4223,10 @@
         <f>-223+611-823-443</f>
         <v>-878</v>
       </c>
+      <c r="U29" s="2">
+        <f>-146+661-840+61</f>
+        <v>-264</v>
+      </c>
       <c r="AF29" s="2">
         <f>29.103-139.232</f>
         <v>-110.12899999999999</v>
@@ -4204,15 +4260,15 @@
         <v>-1456</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" ref="AX29" si="83">SUM(D29:G29)</f>
+        <f t="shared" ref="AX29" si="82">SUM(D29:G29)</f>
         <v>-766</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" ref="AY29" si="84">SUM(H29:K29)</f>
+        <f t="shared" ref="AY29" si="83">SUM(H29:K29)</f>
         <v>1353</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" ref="AZ29" si="85">SUM(L29:O29)</f>
+        <f t="shared" ref="AZ29" si="84">SUM(L29:O29)</f>
         <v>13210</v>
       </c>
       <c r="BA29" s="2">
@@ -4221,35 +4277,35 @@
       </c>
       <c r="BB29" s="2">
         <f>SUM(T29:W29)</f>
-        <v>-878</v>
+        <v>-1142</v>
       </c>
       <c r="BC29" s="2">
         <f>+BB46*$BL$45</f>
-        <v>111.17849459999974</v>
+        <v>99.208801249999894</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" ref="BD29:BI29" si="86">+BC46*$BL$45</f>
-        <v>319.0181434541006</v>
+        <f t="shared" ref="BD29:BI29" si="85">+BC46*$BL$45</f>
+        <v>281.15420146062564</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="86"/>
-        <v>680.91705724096039</v>
+        <f t="shared" si="85"/>
+        <v>614.78052696303951</v>
       </c>
       <c r="BF29" s="2">
-        <f t="shared" si="86"/>
-        <v>1234.0409645874331</v>
+        <f t="shared" si="85"/>
+        <v>1136.7532043393253</v>
       </c>
       <c r="BG29" s="2">
-        <f t="shared" si="86"/>
-        <v>2025.1765808707173</v>
+        <f t="shared" si="85"/>
+        <v>1893.2153900691919</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" si="86"/>
-        <v>2993.6328661101779</v>
+        <f t="shared" si="85"/>
+        <v>2823.7730030472108</v>
       </c>
       <c r="BI29" s="2">
-        <f t="shared" si="86"/>
-        <v>4171.1001027115863</v>
+        <f t="shared" si="85"/>
+        <v>3959.6179709960702</v>
       </c>
     </row>
     <row r="30" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4257,7 +4313,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30" si="87">C28+C29</f>
+        <f t="shared" ref="C30" si="86">C28+C29</f>
         <v>3350</v>
       </c>
       <c r="D30" s="4">
@@ -4265,7 +4321,7 @@
         <v>4401</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" ref="E30" si="88">E28+E29</f>
+        <f t="shared" ref="E30" si="87">E28+E29</f>
         <v>2889</v>
       </c>
       <c r="F30" s="4">
@@ -4273,15 +4329,15 @@
         <v>2632</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" ref="G30" si="89">G28+G29</f>
+        <f t="shared" ref="G30" si="88">G28+G29</f>
         <v>4053</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30" si="90">H28+H29</f>
+        <f t="shared" ref="H30" si="89">H28+H29</f>
         <v>3383</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ref="I30" si="91">I28+I29</f>
+        <f t="shared" ref="I30" si="90">I28+I29</f>
         <v>6221</v>
       </c>
       <c r="J30" s="4">
@@ -4289,7 +4345,7 @@
         <v>6809</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" ref="K30" si="92">K28+K29</f>
+        <f t="shared" ref="K30" si="91">K28+K29</f>
         <v>7765</v>
       </c>
       <c r="L30" s="4">
@@ -4297,47 +4353,47 @@
         <v>10268</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ref="M30:W30" si="93">M28+M29</f>
+        <f t="shared" ref="M30:W30" si="92">M28+M29</f>
         <v>8634</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>4315</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>14934</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>-5265</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2982</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2944</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>3247</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>4119</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="93"/>
-        <v>5592.9050999999818</v>
+        <f t="shared" si="92"/>
+        <v>7563</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>4917.0454999999856</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5721.6370000000024</v>
       </c>
       <c r="AF30" s="2">
@@ -4353,72 +4409,72 @@
         <v>253.21399999999971</v>
       </c>
       <c r="AS30" s="4">
-        <f t="shared" ref="AS30:AU30" si="94">AS28+AS29</f>
+        <f t="shared" ref="AS30:AU30" si="93">AS28+AS29</f>
         <v>-111</v>
       </c>
       <c r="AT30" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>1568</v>
       </c>
       <c r="AU30" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>3892</v>
       </c>
       <c r="AV30" s="4">
-        <f t="shared" ref="AV30" si="95">AV28+AV29</f>
+        <f t="shared" ref="AV30" si="94">AV28+AV29</f>
         <v>3806</v>
       </c>
       <c r="AW30" s="4">
-        <f t="shared" ref="AW30:AX30" si="96">AW28+AW29</f>
+        <f t="shared" ref="AW30:AX30" si="95">AW28+AW29</f>
         <v>11261</v>
       </c>
       <c r="AX30" s="4">
+        <f t="shared" si="95"/>
+        <v>13975</v>
+      </c>
+      <c r="AY30" s="4">
+        <f t="shared" ref="AY30:BI30" si="96">AY28+AY29</f>
+        <v>24178</v>
+      </c>
+      <c r="AZ30" s="4">
         <f t="shared" si="96"/>
-        <v>13975</v>
-      </c>
-      <c r="AY30" s="4">
-        <f t="shared" ref="AY30:BI30" si="97">AY28+AY29</f>
-        <v>24178</v>
-      </c>
-      <c r="AZ30" s="4">
-        <f t="shared" si="97"/>
         <v>38151</v>
       </c>
       <c r="BA30" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>3908</v>
       </c>
       <c r="BB30" s="4">
-        <f t="shared" si="97"/>
-        <v>20350.587599999999</v>
+        <f t="shared" si="96"/>
+        <v>15492.59249999997</v>
       </c>
       <c r="BC30" s="4">
-        <f t="shared" si="97"/>
-        <v>24451.723394600096</v>
+        <f t="shared" si="96"/>
+        <v>21405.341201250088</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="97"/>
-        <v>42576.342798454105</v>
+        <f t="shared" si="96"/>
+        <v>39250.155941460456</v>
       </c>
       <c r="BE30" s="4">
-        <f t="shared" si="97"/>
-        <v>65073.400864290888</v>
+        <f t="shared" si="96"/>
+        <v>61408.550279563038</v>
       </c>
       <c r="BF30" s="4">
-        <f t="shared" si="97"/>
-        <v>93074.77838626875</v>
+        <f t="shared" si="96"/>
+        <v>88995.551262337249</v>
       </c>
       <c r="BG30" s="4">
-        <f t="shared" si="97"/>
-        <v>113936.03355758359</v>
+        <f t="shared" si="96"/>
+        <v>109477.36623270808</v>
       </c>
       <c r="BH30" s="4">
-        <f t="shared" si="97"/>
-        <v>138525.55724722455</v>
+        <f t="shared" si="96"/>
+        <v>133628.81975868938</v>
       </c>
       <c r="BI30" s="4">
-        <f t="shared" si="97"/>
-        <v>167545.63026443447</v>
+        <f t="shared" si="96"/>
+        <v>162141.01980963149</v>
       </c>
     </row>
     <row r="31" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4496,15 +4552,15 @@
         <v>947</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" ref="U31:W31" si="98">+U30*0.15</f>
-        <v>838.93576499999722</v>
+        <f>804+9</f>
+        <v>813</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="U31:W31" si="97">+V30*0.15</f>
         <v>737.55682499999784</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>858.24555000000032</v>
       </c>
       <c r="AF31" s="2">
@@ -4537,15 +4593,15 @@
         <v>1188</v>
       </c>
       <c r="AX31" s="2">
-        <f t="shared" ref="AX31" si="99">SUM(D31:G31)</f>
+        <f t="shared" ref="AX31" si="98">SUM(D31:G31)</f>
         <v>2387</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" ref="AY31" si="100">SUM(H31:K31)</f>
+        <f t="shared" ref="AY31" si="99">SUM(H31:K31)</f>
         <v>2847</v>
       </c>
       <c r="AZ31" s="2">
-        <f t="shared" ref="AZ31" si="101">SUM(L31:O31)</f>
+        <f t="shared" ref="AZ31" si="100">SUM(L31:O31)</f>
         <v>4787</v>
       </c>
       <c r="BA31" s="2">
@@ -4554,35 +4610,35 @@
       </c>
       <c r="BB31" s="2">
         <f>SUM(T31:W31)</f>
-        <v>3381.7381399999958</v>
+        <v>3355.8023749999984</v>
       </c>
       <c r="BC31" s="2">
         <f>+BC30*0.15</f>
-        <v>3667.7585091900141</v>
+        <v>3210.8011801875132</v>
       </c>
       <c r="BD31" s="2">
-        <f t="shared" ref="BD31:BI31" si="102">+BD30*0.15</f>
-        <v>6386.4514197681156</v>
+        <f t="shared" ref="BD31:BI31" si="101">+BD30*0.15</f>
+        <v>5887.5233912190679</v>
       </c>
       <c r="BE31" s="2">
-        <f t="shared" si="102"/>
-        <v>9761.0101296436333</v>
+        <f t="shared" si="101"/>
+        <v>9211.2825419344554</v>
       </c>
       <c r="BF31" s="2">
-        <f t="shared" si="102"/>
-        <v>13961.216757940312</v>
+        <f t="shared" si="101"/>
+        <v>13349.332689350587</v>
       </c>
       <c r="BG31" s="2">
-        <f t="shared" si="102"/>
-        <v>17090.405033637537</v>
+        <f t="shared" si="101"/>
+        <v>16421.604934906212</v>
       </c>
       <c r="BH31" s="2">
-        <f t="shared" si="102"/>
-        <v>20778.833587083682</v>
+        <f t="shared" si="101"/>
+        <v>20044.322963803406</v>
       </c>
       <c r="BI31" s="2">
-        <f t="shared" si="102"/>
-        <v>25131.84453966517</v>
+        <f t="shared" si="101"/>
+        <v>24321.152971444721</v>
       </c>
     </row>
     <row r="32" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4590,7 +4646,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32" si="103">C30-C31</f>
+        <f t="shared" ref="C32" si="102">C30-C31</f>
         <v>3027</v>
       </c>
       <c r="D32" s="4">
@@ -4598,7 +4654,7 @@
         <v>3561</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" ref="E32" si="104">E30-E31</f>
+        <f t="shared" ref="E32" si="103">E30-E31</f>
         <v>2625</v>
       </c>
       <c r="F32" s="4">
@@ -4606,15 +4662,15 @@
         <v>2134</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" ref="G32" si="105">G30-G31</f>
+        <f t="shared" ref="G32" si="104">G30-G31</f>
         <v>3268</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32" si="106">H30-H31</f>
+        <f t="shared" ref="H32" si="105">H30-H31</f>
         <v>2535</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ref="I32" si="107">I30-I31</f>
+        <f t="shared" ref="I32" si="106">I30-I31</f>
         <v>5243</v>
       </c>
       <c r="J32" s="4">
@@ -4622,7 +4678,7 @@
         <v>6331</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" ref="K32" si="108">K30-K31</f>
+        <f t="shared" ref="K32" si="107">K30-K31</f>
         <v>7222</v>
       </c>
       <c r="L32" s="4">
@@ -4630,47 +4686,47 @@
         <v>8107</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:W32" si="109">M30-M31</f>
+        <f t="shared" ref="M32:W32" si="108">M30-M31</f>
         <v>7778</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>3156</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>14323</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>-3844</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2982</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2872</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>3247</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>3172</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="109"/>
-        <v>4753.9693349999843</v>
+        <f t="shared" si="108"/>
+        <v>6750</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>4179.4886749999878</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>4863.3914500000019</v>
       </c>
       <c r="AF32" s="2">
@@ -4686,320 +4742,320 @@
         <v>253.21399999999971</v>
       </c>
       <c r="AS32" s="4">
-        <f t="shared" ref="AS32:AU32" si="110">AS30-AS31</f>
+        <f t="shared" ref="AS32:AU32" si="109">AS30-AS31</f>
         <v>-241</v>
       </c>
       <c r="AT32" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>596</v>
       </c>
       <c r="AU32" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>2371</v>
       </c>
       <c r="AV32" s="4">
-        <f t="shared" ref="AV32" si="111">AV30-AV31</f>
+        <f t="shared" ref="AV32" si="110">AV30-AV31</f>
         <v>3033</v>
       </c>
       <c r="AW32" s="4">
-        <f t="shared" ref="AW32:AX32" si="112">AW30-AW31</f>
+        <f t="shared" ref="AW32:AX32" si="111">AW30-AW31</f>
         <v>10073</v>
       </c>
       <c r="AX32" s="4">
+        <f t="shared" si="111"/>
+        <v>11588</v>
+      </c>
+      <c r="AY32" s="4">
+        <f t="shared" ref="AY32:BB32" si="112">AY30-AY31</f>
+        <v>21331</v>
+      </c>
+      <c r="AZ32" s="4">
         <f t="shared" si="112"/>
-        <v>11588</v>
-      </c>
-      <c r="AY32" s="4">
-        <f t="shared" ref="AY32:BB32" si="113">AY30-AY31</f>
-        <v>21331</v>
-      </c>
-      <c r="AZ32" s="4">
+        <v>33364</v>
+      </c>
+      <c r="BA32" s="4">
+        <f t="shared" si="112"/>
+        <v>5257</v>
+      </c>
+      <c r="BB32" s="4">
+        <f t="shared" si="112"/>
+        <v>12136.79012499997</v>
+      </c>
+      <c r="BC32" s="4">
+        <f t="shared" ref="BC32:BI32" si="113">BC30-BC31</f>
+        <v>18194.540021062574</v>
+      </c>
+      <c r="BD32" s="4">
         <f t="shared" si="113"/>
-        <v>33364</v>
-      </c>
-      <c r="BA32" s="4">
+        <v>33362.632550241389</v>
+      </c>
+      <c r="BE32" s="4">
         <f t="shared" si="113"/>
-        <v>5257</v>
-      </c>
-      <c r="BB32" s="4">
+        <v>52197.267737628586</v>
+      </c>
+      <c r="BF32" s="4">
         <f t="shared" si="113"/>
-        <v>16968.849460000005</v>
-      </c>
-      <c r="BC32" s="4">
-        <f t="shared" ref="BC32:BI32" si="114">BC30-BC31</f>
-        <v>20783.964885410081</v>
-      </c>
-      <c r="BD32" s="4">
-        <f t="shared" si="114"/>
-        <v>36189.891378685992</v>
-      </c>
-      <c r="BE32" s="4">
-        <f t="shared" si="114"/>
-        <v>55312.390734647255</v>
-      </c>
-      <c r="BF32" s="4">
-        <f t="shared" si="114"/>
-        <v>79113.561628328433</v>
+        <v>75646.218572986661</v>
       </c>
       <c r="BG32" s="4">
-        <f t="shared" si="114"/>
-        <v>96845.628523946056</v>
+        <f t="shared" si="113"/>
+        <v>93055.761297801873</v>
       </c>
       <c r="BH32" s="4">
-        <f t="shared" si="114"/>
-        <v>117746.72366014088</v>
+        <f t="shared" si="113"/>
+        <v>113584.49679488597</v>
       </c>
       <c r="BI32" s="4">
-        <f t="shared" si="114"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="113"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BJ32" s="2">
         <f>+BI32*(1+$BL$46)</f>
-        <v>142413.78572476929</v>
+        <v>137819.86683818678</v>
       </c>
       <c r="BK32" s="2">
-        <f t="shared" ref="BK32:DS32" si="115">+BJ32*(1+$BL$46)</f>
-        <v>142413.78572476929</v>
+        <f t="shared" ref="BK32:DS32" si="114">+BJ32*(1+$BL$46)</f>
+        <v>137819.86683818678</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="115"/>
-        <v>142413.78572476929</v>
+        <f t="shared" si="114"/>
+        <v>137819.86683818678</v>
       </c>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.2">
@@ -5007,7 +5063,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" ref="C33" si="116">C32/C34</f>
+        <f t="shared" ref="C33" si="115">C32/C34</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="D33" s="7">
@@ -5015,7 +5071,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" ref="E33" si="117">E32/E34</f>
+        <f t="shared" ref="E33" si="116">E32/E34</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="F33" s="7">
@@ -5023,15 +5079,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ref="G33" si="118">G32/G34</f>
+        <f t="shared" ref="G33" si="117">G32/G34</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" ref="H33" si="119">H32/H34</f>
+        <f t="shared" ref="H33" si="118">H32/H34</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" ref="I33" si="120">I32/I34</f>
+        <f t="shared" ref="I33" si="119">I32/I34</f>
         <v>10.300589390962672</v>
       </c>
       <c r="J33" s="7">
@@ -5039,7 +5095,7 @@
         <v>12.365234375</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" ref="K33" si="121">K32/K34</f>
+        <f t="shared" ref="K33" si="120">K32/K34</f>
         <v>14.077972709551657</v>
       </c>
       <c r="L33" s="7">
@@ -5063,32 +5119,32 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="Q33" s="7">
-        <f t="shared" ref="Q33:W33" si="122">Q32/Q34</f>
+        <f t="shared" ref="Q33:W33" si="121">Q32/Q34</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0.27799825767108705</v>
       </c>
       <c r="S33" s="7">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0.31499805975941014</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0.3065622885860636</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" si="122"/>
-        <v>0.45945388373441426</v>
+        <f t="shared" si="121"/>
+        <v>0.64599483204134367</v>
       </c>
       <c r="V33" s="7">
-        <f t="shared" si="122"/>
-        <v>0.40393241277664904</v>
+        <f t="shared" si="121"/>
+        <v>0.39998934587041707</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="122"/>
-        <v>0.47002913404851665</v>
+        <f t="shared" si="121"/>
+        <v>0.46544085079911973</v>
       </c>
       <c r="AF33" s="1">
         <f>AF32/AF34</f>
@@ -5103,27 +5159,27 @@
         <v>0.60382208741105259</v>
       </c>
       <c r="AS33" s="7">
-        <f t="shared" ref="AS33" si="123">AS32/AS34</f>
+        <f t="shared" ref="AS33" si="122">AS32/AS34</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="AT33" s="7">
-        <f t="shared" ref="AT33" si="124">AT32/AT34</f>
+        <f t="shared" ref="AT33" si="123">AT32/AT34</f>
         <v>1.249475890985325</v>
       </c>
       <c r="AU33" s="7">
-        <f t="shared" ref="AU33" si="125">AU32/AU34</f>
+        <f t="shared" ref="AU33" si="124">AU32/AU34</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="AV33" s="7">
-        <f t="shared" ref="AV33" si="126">AV32/AV34</f>
+        <f t="shared" ref="AV33" si="125">AV32/AV34</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="AW33" s="7">
-        <f t="shared" ref="AW33:AX33" si="127">AW32/AW34</f>
+        <f t="shared" ref="AW33:AX33" si="126">AW32/AW34</f>
         <v>20.146000000000001</v>
       </c>
       <c r="AX33" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>23.014895729890764</v>
       </c>
       <c r="AY33" s="7">
@@ -5135,40 +5191,40 @@
         <v>6.1676679914964412</v>
       </c>
       <c r="BA33" s="7">
-        <f t="shared" ref="BA33:BB33" si="128">BA32/BA34</f>
+        <f t="shared" ref="BA33:BB33" si="127">BA32/BA34</f>
         <v>0.51665847665847664</v>
       </c>
       <c r="BB33" s="7">
-        <f t="shared" si="128"/>
-        <v>1.6399777191456466</v>
+        <f t="shared" si="127"/>
+        <v>1.1643680265745642</v>
       </c>
       <c r="BC33" s="7">
-        <f t="shared" ref="BC33" si="129">BC32/BC34</f>
-        <v>2.0086947796859072</v>
+        <f t="shared" ref="BC33" si="128">BC32/BC34</f>
+        <v>1.7455307738343717</v>
       </c>
       <c r="BD33" s="7">
-        <f t="shared" ref="BD33" si="130">BD32/BD34</f>
-        <v>3.4976216660564408</v>
+        <f t="shared" ref="BD33" si="129">BD32/BD34</f>
+        <v>3.2007130570577433</v>
       </c>
       <c r="BE33" s="7">
-        <f t="shared" ref="BE33" si="131">BE32/BE34</f>
-        <v>5.3457418318978691</v>
+        <f t="shared" ref="BE33" si="130">BE32/BE34</f>
+        <v>5.0076526826525241</v>
       </c>
       <c r="BF33" s="7">
-        <f t="shared" ref="BF33" si="132">BF32/BF34</f>
-        <v>7.6460386226276631</v>
+        <f t="shared" ref="BF33" si="131">BF32/BF34</f>
+        <v>7.2572762098130825</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="133">BG32/BG34</f>
-        <v>9.3597785371553162</v>
+        <f t="shared" ref="BG33" si="132">BG32/BG34</f>
+        <v>8.9274966467886863</v>
       </c>
       <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="134">BH32/BH34</f>
-        <v>11.379793530505546</v>
+        <f t="shared" ref="BH33" si="133">BH32/BH34</f>
+        <v>10.89696328439449</v>
       </c>
       <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="135">BI32/BI34</f>
-        <v>13.763775560526653</v>
+        <f t="shared" ref="BI33" si="134">BI32/BI34</f>
+        <v>13.222033562448964</v>
       </c>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.2">
@@ -5230,16 +5286,15 @@
         <v>10347</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:W34" si="136">+T34</f>
-        <v>10347</v>
+        <v>10449</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="136"/>
-        <v>10347</v>
+        <f t="shared" ref="U34:W34" si="135">+U34</f>
+        <v>10449</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" si="136"/>
-        <v>10347</v>
+        <f t="shared" si="135"/>
+        <v>10449</v>
       </c>
       <c r="AD34" s="2">
         <v>161.096869</v>
@@ -5286,35 +5341,35 @@
       </c>
       <c r="BB34" s="2">
         <f>AVERAGE(T34:W34)</f>
-        <v>10347</v>
+        <v>10423.5</v>
       </c>
       <c r="BC34" s="2">
         <f>+BB34</f>
-        <v>10347</v>
+        <v>10423.5</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" ref="BD34:BI34" si="137">+BC34</f>
-        <v>10347</v>
+        <f t="shared" ref="BD34:BI34" si="136">+BC34</f>
+        <v>10423.5</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" si="137"/>
-        <v>10347</v>
+        <f t="shared" si="136"/>
+        <v>10423.5</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" si="137"/>
-        <v>10347</v>
+        <f t="shared" si="136"/>
+        <v>10423.5</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" si="137"/>
-        <v>10347</v>
+        <f t="shared" si="136"/>
+        <v>10423.5</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" si="137"/>
-        <v>10347</v>
+        <f t="shared" si="136"/>
+        <v>10423.5</v>
       </c>
       <c r="BI34" s="2">
-        <f t="shared" si="137"/>
-        <v>10347</v>
+        <f t="shared" si="136"/>
+        <v>10423.5</v>
       </c>
     </row>
     <row r="36" spans="2:64" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -5334,31 +5389,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" ref="I36:K36" si="138">I20/E20-1</f>
+        <f t="shared" ref="I36:K36" si="137">I20/E20-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" ref="L36" si="139">L20/H20-1</f>
+        <f t="shared" ref="L36" si="138">L20/H20-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" ref="M36" si="140">M20/I20-1</f>
+        <f t="shared" ref="M36" si="139">M20/I20-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="N36" s="10">
-        <f t="shared" ref="N36" si="141">N20/J20-1</f>
+        <f t="shared" ref="N36" si="140">N20/J20-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" ref="O36" si="142">O20/K20-1</f>
+        <f t="shared" ref="O36" si="141">O20/K20-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="P36" s="10">
@@ -5366,7 +5421,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" ref="Q36:W36" si="143">Q20/M20-1</f>
+        <f t="shared" ref="Q36:W36" si="142">Q20/M20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="R36" s="10">
@@ -5374,7 +5429,7 @@
         <v>0.14699671515720314</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="T36" s="10">
@@ -5382,107 +5437,107 @@
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="U36" s="10">
+        <f t="shared" si="142"/>
+        <v>0.10845967302901816</v>
+      </c>
+      <c r="V36" s="10">
+        <f t="shared" si="142"/>
+        <v>6.4824745674699535E-2</v>
+      </c>
+      <c r="W36" s="10">
+        <f t="shared" si="142"/>
+        <v>6.1610412589474972E-2</v>
+      </c>
+      <c r="AC36" s="15">
+        <f t="shared" ref="AC36:AD36" si="143">AC20/AB20-1</f>
+        <v>3.1263372285789677</v>
+      </c>
+      <c r="AD36" s="15">
         <f t="shared" si="143"/>
-        <v>6.4896893610703277E-2</v>
-      </c>
-      <c r="V36" s="10">
-        <f t="shared" si="143"/>
-        <v>6.4824745674699535E-2</v>
-      </c>
-      <c r="W36" s="10">
-        <f t="shared" si="143"/>
-        <v>6.1610412589474972E-2</v>
-      </c>
-      <c r="AC36" s="15">
-        <f t="shared" ref="AC36:AD36" si="144">AC20/AB20-1</f>
-        <v>3.1263372285789677</v>
-      </c>
-      <c r="AD36" s="15">
-        <f t="shared" si="144"/>
         <v>1.6890585567192891</v>
       </c>
       <c r="AE36" s="15">
-        <f t="shared" ref="AE36" si="145">AE20/AD20-1</f>
+        <f t="shared" ref="AE36" si="144">AE20/AD20-1</f>
         <v>0.68430132470321792</v>
       </c>
       <c r="AF36" s="15">
-        <f t="shared" ref="AF36" si="146">AF20/AE20-1</f>
+        <f t="shared" ref="AF36" si="145">AF20/AE20-1</f>
         <v>0.1305040617556299</v>
       </c>
       <c r="AG36" s="15">
-        <f t="shared" ref="AG36" si="147">AG20/AF20-1</f>
+        <f t="shared" ref="AG36" si="146">AG20/AF20-1</f>
         <v>0.25957418461821291</v>
       </c>
       <c r="AH36" s="15">
-        <f t="shared" ref="AH36" si="148">AH20/AG20-1</f>
+        <f t="shared" ref="AH36" si="147">AH20/AG20-1</f>
         <v>0.3383637567455966</v>
       </c>
       <c r="AI36" s="15">
-        <f t="shared" ref="AI36" si="149">AI20/AH20-1</f>
+        <f t="shared" ref="AI36" si="148">AI20/AH20-1</f>
         <v>0.31485481977597884</v>
       </c>
       <c r="AJ36" s="15">
-        <f t="shared" ref="AJ36" si="150">AJ20/AI20-1</f>
+        <f t="shared" ref="AJ36" si="149">AJ20/AI20-1</f>
         <v>0.22670134373645423</v>
       </c>
       <c r="AK36" s="15">
-        <f t="shared" ref="AK36" si="151">AK20/AJ20-1</f>
+        <f t="shared" ref="AK36" si="150">AK20/AJ20-1</f>
         <v>0.26160188457008249</v>
       </c>
       <c r="AL36" s="15">
-        <f t="shared" ref="AL36" si="152">AL20/AK20-1</f>
+        <f t="shared" ref="AL36" si="151">AL20/AK20-1</f>
         <v>0.38502474092054895</v>
       </c>
       <c r="AM36" s="15">
-        <f t="shared" ref="AM36" si="153">AM20/AL20-1</f>
+        <f t="shared" ref="AM36" si="152">AM20/AL20-1</f>
         <v>0.29194472531176263</v>
       </c>
       <c r="AN36" s="15">
-        <f t="shared" ref="AN36" si="154">AN20/AM20-1</f>
+        <f t="shared" ref="AN36" si="153">AN20/AM20-1</f>
         <v>0.27877491391004905</v>
       </c>
       <c r="AO36" s="15">
-        <f t="shared" ref="AO36" si="155">AO20/AN20-1</f>
+        <f t="shared" ref="AO36" si="154">AO20/AN20-1</f>
         <v>0.39556897466236896</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" ref="AP36" si="156">AP20/AO20-1</f>
+        <f t="shared" ref="AP36" si="155">AP20/AO20-1</f>
         <v>0.40559583674424049</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36" si="157">AQ20/AP20-1</f>
+        <f t="shared" ref="AQ36" si="156">AQ20/AP20-1</f>
         <v>0.27073236682821311</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" ref="AR36:AV36" si="158">AR20/AQ20-1</f>
+        <f t="shared" ref="AR36:AV36" si="157">AR20/AQ20-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="159">AW20/AV20-1</f>
+        <f t="shared" ref="AW36" si="158">AW20/AV20-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="160">AX20/AW20-1</f>
+        <f t="shared" ref="AX36" si="159">AX20/AW20-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="161">AY20/AX20-1</f>
+        <f t="shared" ref="AY36" si="160">AY20/AX20-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="AZ36" s="15">
@@ -5490,40 +5545,40 @@
         <v>0.21695366571345676</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" ref="BA36:BI36" si="162">BA20/AZ20-1</f>
+        <f t="shared" ref="BA36:BI36" si="161">BA20/AZ20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="BB36" s="15">
         <f>BB20/BA20-1</f>
-        <v>7.0456649344433631E-2</v>
+        <v>6.744721128908937E-2</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" si="162"/>
-        <v>0.10067887743092241</v>
+        <f t="shared" si="161"/>
+        <v>0.10011693435294222</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" si="162"/>
-        <v>0.10851928608137085</v>
+        <f t="shared" si="161"/>
+        <v>0.10788136266829529</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" si="162"/>
-        <v>0.1173009319259728</v>
+        <f t="shared" si="161"/>
+        <v>0.11658671533946263</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" si="162"/>
-        <v>0.12699968811339213</v>
+        <f t="shared" si="161"/>
+        <v>0.12621229541795809</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" si="162"/>
-        <v>9.8319689430071078E-2</v>
+        <f t="shared" si="161"/>
+        <v>9.7785488736678694E-2</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" si="162"/>
-        <v>0.10279303273364193</v>
+        <f t="shared" si="161"/>
+        <v>0.10223478272608966</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" si="162"/>
-        <v>0.10744653565985263</v>
+        <f t="shared" si="161"/>
+        <v>0.10686786540729587</v>
       </c>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.2">
@@ -5535,39 +5590,39 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8">
-        <f t="shared" ref="H37:H38" si="163">+H18/D18-1</f>
+        <f t="shared" ref="H37:H38" si="162">+H18/D18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" ref="I37:I38" si="164">+I18/E18-1</f>
+        <f t="shared" ref="I37:I38" si="163">+I18/E18-1</f>
         <v>0.40127175368139234</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:J38" si="165">+J18/F18-1</f>
+        <f t="shared" ref="J37:J38" si="164">+J18/F18-1</f>
         <v>0.32844988168957356</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" ref="K37:K38" si="166">+K18/G18-1</f>
+        <f t="shared" ref="K37:K38" si="165">+K18/G18-1</f>
         <v>0.40588025800324479</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" ref="L37:P37" si="167">+L18/H18-1</f>
+        <f t="shared" ref="L37:P37" si="166">+L18/H18-1</f>
         <v>0.37403503740350375</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.15444630204601539</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>3.9830219426232549E-2</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>5.0664264805224679E-3</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>-1.8020211859247515E-2</v>
       </c>
       <c r="Q37" s="8">
@@ -5586,7 +5641,10 @@
         <f>+T18/P18-1</f>
         <v>9.317155256398868E-3</v>
       </c>
-      <c r="U37" s="8"/>
+      <c r="U37" s="8">
+        <f t="shared" ref="U37:U38" si="167">+U18/Q18-1</f>
+        <v>4.342907644719407E-2</v>
+      </c>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="AR37" s="13"/>
@@ -5617,19 +5675,19 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8">
+        <f t="shared" si="162"/>
+        <v>0.32238265727662596</v>
+      </c>
+      <c r="I38" s="8">
         <f t="shared" si="163"/>
-        <v>0.32238265727662596</v>
-      </c>
-      <c r="I38" s="8">
+        <v>0.40365906780891536</v>
+      </c>
+      <c r="J38" s="8">
         <f t="shared" si="164"/>
-        <v>0.40365906780891536</v>
-      </c>
-      <c r="J38" s="8">
+        <v>0.43351512146752613</v>
+      </c>
+      <c r="K38" s="8">
         <f t="shared" si="165"/>
-        <v>0.43351512146752613</v>
-      </c>
-      <c r="K38" s="8">
-        <f t="shared" si="166"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="L38" s="8">
@@ -5668,7 +5726,10 @@
         <f t="shared" si="172"/>
         <v>0.17316508026471511</v>
       </c>
-      <c r="U38" s="8"/>
+      <c r="U38" s="8">
+        <f t="shared" si="167"/>
+        <v>0.16535981069920669</v>
+      </c>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="AR38" s="13"/>
@@ -6240,7 +6301,7 @@
       </c>
       <c r="U43" s="8">
         <f t="shared" ref="U43:W43" si="204">U9/Q9-1</f>
-        <v>0.19999999999999996</v>
+        <v>0.12163736764780375</v>
       </c>
       <c r="V43" s="8">
         <f t="shared" si="204"/>
@@ -6284,7 +6345,7 @@
       </c>
       <c r="BB43" s="13">
         <f t="shared" si="209"/>
-        <v>0.19032161406312431</v>
+        <v>0.1710097882540953</v>
       </c>
       <c r="BC43" s="13">
         <f t="shared" si="209"/>
@@ -6393,7 +6454,7 @@
       </c>
       <c r="U44" s="16">
         <f t="shared" si="212"/>
-        <v>0.30294374179861744</v>
+        <v>0.32522714926739243</v>
       </c>
       <c r="V44" s="16">
         <f t="shared" si="212"/>
@@ -6441,35 +6502,35 @@
       </c>
       <c r="BB44" s="14">
         <f t="shared" si="217"/>
-        <v>0.29894307146835464</v>
+        <v>0.29571470937777933</v>
       </c>
       <c r="BC44" s="14">
         <f t="shared" si="217"/>
-        <v>0.2838338627721152</v>
+        <v>0.28378000482879756</v>
       </c>
       <c r="BD44" s="14">
         <f t="shared" si="217"/>
-        <v>0.28933078918273203</v>
+        <v>0.28928908055547392</v>
       </c>
       <c r="BE44" s="14">
         <f t="shared" si="217"/>
-        <v>0.29454505726643759</v>
+        <v>0.29452022966921787</v>
       </c>
       <c r="BF44" s="14">
         <f t="shared" si="217"/>
-        <v>0.29937983643671434</v>
+        <v>0.29937657826604525</v>
       </c>
       <c r="BG44" s="14">
         <f t="shared" si="217"/>
-        <v>0.29940712003279502</v>
+        <v>0.29940371518172848</v>
       </c>
       <c r="BH44" s="14">
         <f t="shared" si="217"/>
-        <v>0.29943550244961009</v>
+        <v>0.29943197305238678</v>
       </c>
       <c r="BI44" s="14">
         <f t="shared" si="217"/>
-        <v>0.29946478461142489</v>
+        <v>0.29946115673457163</v>
       </c>
       <c r="BK44" t="s">
         <v>77</v>
@@ -6491,7 +6552,7 @@
         <v>75</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" ref="K46:T46" si="218">+K47-K60</f>
+        <f t="shared" ref="K46:U46" si="218">+K47-K60</f>
         <v>52580</v>
       </c>
       <c r="L46" s="4">
@@ -6531,16 +6592,16 @@
         <v>-2679</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" ref="U46:W46" si="219">+T46+U32</f>
-        <v>2074.9693349999843</v>
+        <f t="shared" si="218"/>
+        <v>878</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="219"/>
-        <v>6254.4580099999721</v>
+        <f t="shared" ref="U46:W46" si="219">+U46+V32</f>
+        <v>5057.4886749999878</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="219"/>
-        <v>11117.849459999974</v>
+        <v>9920.8801249999888</v>
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
@@ -6553,35 +6614,35 @@
       </c>
       <c r="BB46" s="2">
         <f>+W46</f>
-        <v>11117.849459999974</v>
+        <v>9920.8801249999888</v>
       </c>
       <c r="BC46" s="2">
         <f>+BB46+BC32</f>
-        <v>31901.814345410057</v>
+        <v>28115.420146062563</v>
       </c>
       <c r="BD46" s="2">
         <f t="shared" ref="BD46:BI46" si="220">+BC46+BD32</f>
-        <v>68091.705724096042</v>
+        <v>61478.052696303952</v>
       </c>
       <c r="BE46" s="2">
         <f t="shared" si="220"/>
-        <v>123404.0964587433</v>
+        <v>113675.32043393253</v>
       </c>
       <c r="BF46" s="2">
         <f t="shared" si="220"/>
-        <v>202517.65808707173</v>
+        <v>189321.53900691919</v>
       </c>
       <c r="BG46" s="2">
         <f t="shared" si="220"/>
-        <v>299363.28661101777</v>
+        <v>282377.30030472105</v>
       </c>
       <c r="BH46" s="2">
         <f t="shared" si="220"/>
-        <v>417110.01027115865</v>
+        <v>395961.79709960701</v>
       </c>
       <c r="BI46" s="2">
         <f t="shared" si="220"/>
-        <v>559523.79599592788</v>
+        <v>533781.66393779381</v>
       </c>
       <c r="BK46" t="s">
         <v>78</v>
@@ -6642,12 +6703,16 @@
         <f>49343+15062</f>
         <v>64405</v>
       </c>
+      <c r="U47" s="2">
+        <f>49529+14441</f>
+        <v>63970</v>
+      </c>
       <c r="BK47" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BL47" s="2">
         <f>NPV(BL44,BB32:DS32)+Main!K5-Main!K6</f>
-        <v>1316805.5506389481</v>
+        <v>1265156.9732669257</v>
       </c>
     </row>
     <row r="48" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6692,12 +6757,15 @@
       <c r="T48" s="2">
         <v>34170</v>
       </c>
+      <c r="U48" s="2">
+        <v>36587</v>
+      </c>
       <c r="BL48" s="1">
         <f>+BL47/Main!K3</f>
-        <v>127.46157686951391</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>122.46219855453738</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>64</v>
       </c>
@@ -6739,8 +6807,11 @@
       <c r="T49" s="2">
         <v>37646</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="2">
+        <v>39925</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
@@ -6782,8 +6853,11 @@
       <c r="T50" s="2">
         <v>190754</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="2">
+        <v>193784</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>66</v>
       </c>
@@ -6825,8 +6899,11 @@
       <c r="T51" s="2">
         <v>68262</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U51" s="2">
+        <v>70332</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>67</v>
       </c>
@@ -6869,8 +6946,11 @@
         <f>22749</f>
         <v>22749</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U52" s="2">
+        <v>22785</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>68</v>
       </c>
@@ -6912,8 +6992,11 @@
       <c r="T53" s="2">
         <v>46392</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="2">
+        <v>50224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
@@ -6926,7 +7009,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4">
-        <f t="shared" ref="K54:T54" si="221">SUM(K47:K53)</f>
+        <f t="shared" ref="K54:U54" si="221">SUM(K47:K53)</f>
         <v>321195</v>
       </c>
       <c r="L54" s="4">
@@ -6965,8 +7048,12 @@
         <f t="shared" si="221"/>
         <v>464378</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="4">
+        <f t="shared" si="221"/>
+        <v>477607</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
@@ -7008,8 +7095,11 @@
       <c r="T56" s="2">
         <v>66907</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="2">
+        <v>69481</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>72</v>
       </c>
@@ -7051,8 +7141,11 @@
       <c r="T57" s="2">
         <v>66382</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U57" s="2">
+        <v>64235</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>73</v>
       </c>
@@ -7094,8 +7187,11 @@
       <c r="T58" s="2">
         <v>14281</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U58" s="2">
+        <v>14522</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
@@ -7137,8 +7233,11 @@
       <c r="T59" s="2">
         <v>74267</v>
       </c>
-    </row>
-    <row r="60" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U59" s="2">
+        <v>75822</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -7180,8 +7279,11 @@
       <c r="T60" s="2">
         <v>67084</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U60" s="2">
+        <v>63092</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>74</v>
       </c>
@@ -7223,8 +7325,11 @@
       <c r="T61" s="2">
         <v>20931</v>
       </c>
-    </row>
-    <row r="62" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="2">
+        <v>21853</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
@@ -7266,8 +7371,11 @@
       <c r="T62" s="2">
         <v>154526</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U62" s="2">
+        <v>168602</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
@@ -7280,7 +7388,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4">
-        <f t="shared" ref="K63:T63" si="222">SUM(K56:K62)</f>
+        <f t="shared" ref="K63:U63" si="222">SUM(K56:K62)</f>
         <v>321195</v>
       </c>
       <c r="L63" s="4">
@@ -7318,6 +7426,10 @@
       <c r="T63" s="4">
         <f t="shared" si="222"/>
         <v>464378</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="222"/>
+        <v>477607</v>
       </c>
     </row>
     <row r="65" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7372,6 +7484,10 @@
         <f>+T32</f>
         <v>3172</v>
       </c>
+      <c r="U65" s="4">
+        <f>+U32</f>
+        <v>6750</v>
+      </c>
     </row>
     <row r="66" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
@@ -7415,6 +7531,9 @@
       <c r="T66" s="4">
         <v>3172</v>
       </c>
+      <c r="U66" s="2">
+        <v>6750</v>
+      </c>
     </row>
     <row r="67" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
@@ -7458,6 +7577,9 @@
       <c r="T67" s="2">
         <v>11123</v>
       </c>
+      <c r="U67" s="2">
+        <v>11589</v>
+      </c>
     </row>
     <row r="68" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
@@ -7501,6 +7623,9 @@
       <c r="T68" s="2">
         <v>4748</v>
       </c>
+      <c r="U68" s="2">
+        <v>7127</v>
+      </c>
     </row>
     <row r="69" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
@@ -7544,6 +7669,9 @@
       <c r="T69" s="2">
         <v>534</v>
       </c>
+      <c r="U69" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="70" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
@@ -7587,6 +7715,9 @@
       <c r="T70" s="2">
         <v>0</v>
       </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
@@ -7629,6 +7760,9 @@
       </c>
       <c r="T71" s="2">
         <v>-472</v>
+      </c>
+      <c r="U71" s="2">
+        <v>-2744</v>
       </c>
     </row>
     <row r="72" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7683,6 +7817,10 @@
         <f>371+1521-11264-5763+818</f>
         <v>-14317</v>
       </c>
+      <c r="U72" s="2">
+        <f>-2373-5167+3029-1938+156</f>
+        <v>-6293</v>
+      </c>
     </row>
     <row r="73" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
@@ -7697,7 +7835,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4">
-        <f t="shared" ref="K73:T73" si="224">SUM(K66:K72)</f>
+        <f t="shared" ref="K73:U73" si="224">SUM(K66:K72)</f>
         <v>30430</v>
       </c>
       <c r="L73" s="4">
@@ -7735,6 +7873,10 @@
       <c r="T73" s="4">
         <f t="shared" si="224"/>
         <v>4788</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" si="224"/>
+        <v>16476</v>
       </c>
       <c r="AF73" s="2">
         <v>-119.782</v>
@@ -7807,6 +7949,9 @@
       <c r="T75" s="2">
         <v>-14207</v>
       </c>
+      <c r="U75" s="2">
+        <v>-11455</v>
+      </c>
     </row>
     <row r="76" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43DEA59-831F-40D1-86E5-299765DBD16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7594E-DF0F-458D-94FA-C8ECD9497E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="120" windowWidth="26340" windowHeight="20910" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-50820" yWindow="780" windowWidth="46890" windowHeight="19995" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -567,12 +567,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1122,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:EC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5939,7 +5933,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36:AF36" si="132">X20/T20-1</f>
+        <f t="shared" ref="X36:AE36" si="132">X20/T20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Y36" s="10">
@@ -6170,7 +6164,7 @@
         <v>9.317155256398868E-3</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ref="AB37:AF38" si="157">+AB18/X18-1</f>
+        <f t="shared" ref="AB37:AE38" si="157">+AB18/X18-1</f>
         <v>4.342907644719407E-2</v>
       </c>
       <c r="AC37" s="8">
@@ -6355,7 +6349,7 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" ref="X39:AF39" si="168">+X11/T11-1</f>
+        <f t="shared" ref="X39:AD39" si="168">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y39" s="8">
@@ -6486,7 +6480,7 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AF40" si="173">+X13/T13-1</f>
+        <f t="shared" ref="X40:AD40" si="173">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y40" s="8">
@@ -6514,21 +6508,21 @@
         <v>0.19868460882247718</v>
       </c>
       <c r="AE40" s="8">
-        <f>+AE13/AA13-1</f>
+        <f t="shared" ref="AE40:AF42" si="174">+AE13/AA13-1</f>
         <v>0.16016096579476868</v>
       </c>
       <c r="AF40" s="8">
-        <f>+AF13/AB13-1</f>
+        <f t="shared" si="174"/>
         <v>-1</v>
       </c>
       <c r="AG40" s="8"/>
       <c r="BG40" s="13"/>
       <c r="BH40" s="13">
-        <f t="shared" ref="BH40" si="174">BH13/BG13-1</f>
+        <f t="shared" ref="BH40" si="175">BH13/BG13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BI40" s="13">
-        <f t="shared" ref="BI40" si="175">BI13/BH13-1</f>
+        <f t="shared" ref="BI40" si="176">BI13/BH13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BJ40" s="13">
@@ -6536,39 +6530,39 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BK40" s="13">
-        <f t="shared" ref="BK40:BS40" si="176">BK13/BJ13-1</f>
+        <f t="shared" ref="BK40:BS40" si="177">BK13/BJ13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BL40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BN40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS40" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6577,39 +6571,39 @@
         <v>58</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V42" si="177">+N14/J14-1</f>
+        <f t="shared" ref="N41:V42" si="178">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W41" s="8">
@@ -6617,49 +6611,49 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AF42" si="178">+X14/T14-1</f>
+        <f t="shared" ref="X41:AD42" si="179">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE41" s="8">
-        <f>+AE14/AA14-1</f>
+        <f t="shared" si="174"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF41" s="8">
-        <f>+AF14/AB14-1</f>
+        <f t="shared" si="174"/>
         <v>-1</v>
       </c>
       <c r="AG41" s="8"/>
       <c r="BG41" s="13"/>
       <c r="BH41" s="13">
-        <f t="shared" ref="BH41" si="179">BH14/BG14-1</f>
+        <f t="shared" ref="BH41" si="180">BH14/BG14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BI41" s="13">
-        <f t="shared" ref="BI41" si="180">BI14/BH14-1</f>
+        <f t="shared" ref="BI41" si="181">BI14/BH14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BJ41" s="13">
@@ -6667,39 +6661,39 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BK41" s="13">
-        <f t="shared" ref="BK41:BS41" si="181">BK14/BJ14-1</f>
+        <f t="shared" ref="BK41:BS41" si="182">BK14/BJ14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BL41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BN41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6708,129 +6702,129 @@
         <v>59</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.50529838259899607</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.53701380175658731</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.63364055299539168</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.76522151149016815</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.41015190811411628</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.32190476190476192</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" ref="W42" si="182">+W15/S15-1</f>
+        <f t="shared" ref="W42" si="183">+W15/S15-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.25433526011560703</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.18948126801152743</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.21993833504624871</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.26309174696271476</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE42" s="8">
-        <f>+AE15/AA15-1</f>
+        <f t="shared" si="174"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF42" s="8">
-        <f>+AF15/AB15-1</f>
+        <f t="shared" si="174"/>
         <v>-1</v>
       </c>
       <c r="AG42" s="8"/>
       <c r="BG42" s="13"/>
       <c r="BH42" s="13">
-        <f t="shared" ref="BH42" si="183">BH15/BG15-1</f>
+        <f t="shared" ref="BH42" si="184">BH15/BG15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BI42" s="13">
-        <f t="shared" ref="BI42:BJ42" si="184">BI15/BH15-1</f>
+        <f t="shared" ref="BI42:BJ42" si="185">BI15/BH15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BJ42" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.49269461077844312</v>
       </c>
       <c r="BK42" s="13">
-        <f t="shared" ref="BK42:BS42" si="185">BK15/BJ15-1</f>
+        <f t="shared" ref="BK42:BS42" si="186">BK15/BJ15-1</f>
         <v>0.21113607188703476</v>
       </c>
       <c r="BL42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BN42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6839,71 +6833,71 @@
         <v>39</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" ref="N43:O43" si="186">N9/J9-1</f>
+        <f t="shared" ref="N43:O43" si="187">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" ref="P43" si="187">P9/L9-1</f>
+        <f t="shared" ref="P43" si="188">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43" si="188">Q9/M9-1</f>
+        <f t="shared" ref="Q43" si="189">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43" si="189">R9/N9-1</f>
+        <f t="shared" ref="R43" si="190">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43" si="190">S9/O9-1</f>
+        <f t="shared" ref="S43" si="191">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" ref="T43" si="191">T9/P9-1</f>
+        <f t="shared" ref="T43" si="192">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" ref="U43" si="192">U9/Q9-1</f>
+        <f t="shared" ref="U43" si="193">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" ref="V43:AA43" si="193">V9/R9-1</f>
+        <f t="shared" ref="V43:AA43" si="194">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.36569651188624741</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.33290566547369838</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.157963234097934</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" ref="AB43:AF43" si="194">AB9/X9-1</f>
+        <f t="shared" ref="AB43:AD43" si="195">AB9/X9-1</f>
         <v>0.12163736764780375</v>
       </c>
       <c r="AC43" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.1227480767358069</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE43" s="8">
@@ -6916,27 +6910,27 @@
       </c>
       <c r="AG43" s="8"/>
       <c r="BD43" s="13">
-        <f t="shared" ref="BD43:BF43" si="195">BD9/BC9-1</f>
+        <f t="shared" ref="BD43:BF43" si="196">BD9/BC9-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="BE43" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="BF43" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BG43" s="13">
-        <f t="shared" ref="BG43" si="196">BG9/BF9-1</f>
+        <f t="shared" ref="BG43" si="197">BG9/BF9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BH43" s="13">
-        <f t="shared" ref="BH43" si="197">BH9/BG9-1</f>
+        <f t="shared" ref="BH43" si="198">BH9/BG9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BI43" s="13">
-        <f t="shared" ref="BI43" si="198">BI9/BH9-1</f>
+        <f t="shared" ref="BI43" si="199">BI9/BH9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BJ43" s="13">
@@ -6944,39 +6938,39 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BK43" s="13">
-        <f t="shared" ref="BK43:BS43" si="199">BK9/BJ9-1</f>
+        <f t="shared" ref="BK43:BS43" si="200">BK9/BJ9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BL43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BN43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BO43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BP43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BR43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BS43" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6992,27 +6986,27 @@
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16">
-        <f t="shared" ref="J44:O44" si="200">J23/J20</f>
+        <f t="shared" ref="J44:O44" si="201">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O44" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P44" s="16">
@@ -7032,11 +7026,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T44" s="16">
-        <f t="shared" ref="T44:W44" si="201">T23/T20</f>
+        <f t="shared" ref="T44:W44" si="202">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V44" s="16">
@@ -7044,11 +7038,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W44" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X44" s="16">
-        <f t="shared" ref="X44:AD44" si="202">X23/X20</f>
+        <f t="shared" ref="X44:AD44" si="203">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y44" s="16">
@@ -7064,15 +7058,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB44" s="16">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD44" s="16">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE44" s="17">
@@ -7085,31 +7079,31 @@
       </c>
       <c r="AG44" s="16"/>
       <c r="BC44" s="14">
-        <f t="shared" ref="BC44:BE44" si="203">BC23/BC20</f>
+        <f t="shared" ref="BC44:BE44" si="204">BC23/BC20</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="BD44" s="14">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="BE44" s="14">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="BF44" s="14">
-        <f t="shared" ref="BF44" si="204">BF23/BF20</f>
+        <f t="shared" ref="BF44" si="205">BF23/BF20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="BG44" s="14">
-        <f t="shared" ref="BG44:BH44" si="205">BG23/BG20</f>
+        <f t="shared" ref="BG44:BH44" si="206">BG23/BG20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="BH44" s="14">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BI44" s="14">
-        <f t="shared" ref="BI44" si="206">BI23/BI20</f>
+        <f t="shared" ref="BI44" si="207">BI23/BI20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BJ44" s="14">
@@ -7117,39 +7111,39 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BK44" s="14">
-        <f t="shared" ref="BK44:BS44" si="207">BK23/BK20</f>
+        <f t="shared" ref="BK44:BS44" si="208">BK23/BK20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BL44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BM44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.28495847997662427</v>
       </c>
       <c r="BN44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.29051526396001626</v>
       </c>
       <c r="BO44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.29581068980258746</v>
       </c>
       <c r="BP44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.30074780240646226</v>
       </c>
       <c r="BQ44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.30071724610417139</v>
       </c>
       <c r="BR44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.30068524592936513</v>
       </c>
       <c r="BS44" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.30065200107669582</v>
       </c>
       <c r="BU44" t="s">
@@ -7172,71 +7166,71 @@
         <v>75</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" ref="O46:P46" si="208">+O47-O60</f>
+        <f t="shared" ref="O46:P46" si="209">+O47-O60</f>
         <v>25855</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>38263</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" ref="Q46" si="209">+Q47-Q60</f>
+        <f t="shared" ref="Q46" si="210">+Q47-Q60</f>
         <v>35473</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" ref="R46:AB46" si="210">+R47-R60</f>
+        <f t="shared" ref="R46:AB46" si="211">+R47-R60</f>
         <v>52580</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>41402</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>39615</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>28933</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>47305</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>18829</v>
       </c>
       <c r="X46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>2657</v>
       </c>
       <c r="Y46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>-257</v>
       </c>
       <c r="Z46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>2876</v>
       </c>
       <c r="AA46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>-2679</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>878</v>
       </c>
       <c r="AC46" s="4">
-        <f t="shared" ref="AC46:AD46" si="211">+AC47-AC60</f>
+        <f t="shared" ref="AC46:AD46" si="212">+AC47-AC60</f>
         <v>3071</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>28466</v>
       </c>
       <c r="AE46" s="4">
-        <f t="shared" ref="AE46" si="212">+AE47-AE60</f>
+        <f t="shared" ref="AE46" si="213">+AE47-AE60</f>
         <v>27440</v>
       </c>
       <c r="AF46" s="4"/>
@@ -7259,27 +7253,27 @@
         <v>57288.203749999979</v>
       </c>
       <c r="BN46" s="2">
-        <f t="shared" ref="BN46:BS46" si="213">+BM46+BN32</f>
+        <f t="shared" ref="BN46:BS46" si="214">+BM46+BN32</f>
         <v>101861.57907437488</v>
       </c>
       <c r="BO46" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>165833.52035353211</v>
       </c>
       <c r="BP46" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>253777.99507973535</v>
       </c>
       <c r="BQ46" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>359424.87027738051</v>
       </c>
       <c r="BR46" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>485836.72377839067</v>
       </c>
       <c r="BS46" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>636646.80560538301</v>
       </c>
       <c r="BU46" t="s">
@@ -7811,71 +7805,71 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4">
-        <f t="shared" ref="O54:P54" si="214">SUM(O47:O53)</f>
+        <f t="shared" ref="O54:P54" si="215">SUM(O47:O53)</f>
         <v>221238</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>258314</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" ref="Q54" si="215">SUM(Q47:Q53)</f>
+        <f t="shared" ref="Q54" si="216">SUM(Q47:Q53)</f>
         <v>282179</v>
       </c>
       <c r="R54" s="4">
-        <f t="shared" ref="R54:AB54" si="216">SUM(R47:R53)</f>
+        <f t="shared" ref="R54:AB54" si="217">SUM(R47:R53)</f>
         <v>321195</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>323077</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>360319</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>382406</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>420549</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>410767</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>419728</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>428362</v>
       </c>
       <c r="Z54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>462675</v>
       </c>
       <c r="AA54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>464378</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>477607</v>
       </c>
       <c r="AC54" s="4">
-        <f t="shared" ref="AC54:AD54" si="217">SUM(AC47:AC53)</f>
+        <f t="shared" ref="AC54:AD54" si="218">SUM(AC47:AC53)</f>
         <v>486883</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>527854</v>
       </c>
       <c r="AE54" s="4">
-        <f t="shared" ref="AE54" si="218">SUM(AE47:AE53)</f>
+        <f t="shared" ref="AE54" si="219">SUM(AE47:AE53)</f>
         <v>530969</v>
       </c>
     </row>
@@ -8372,71 +8366,71 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4">
-        <f t="shared" ref="O63:P63" si="219">SUM(O56:O62)</f>
+        <f t="shared" ref="O63:P63" si="220">SUM(O56:O62)</f>
         <v>221238</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>258314</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" ref="Q63" si="220">SUM(Q56:Q62)</f>
+        <f t="shared" ref="Q63" si="221">SUM(Q56:Q62)</f>
         <v>282179</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" ref="R63:AB63" si="221">SUM(R56:R62)</f>
+        <f t="shared" ref="R63:AB63" si="222">SUM(R56:R62)</f>
         <v>321195</v>
       </c>
       <c r="S63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>323077</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>360319</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>382406</v>
       </c>
       <c r="V63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>420549</v>
       </c>
       <c r="W63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>410767</v>
       </c>
       <c r="X63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>419728</v>
       </c>
       <c r="Y63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>428362</v>
       </c>
       <c r="Z63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>462675</v>
       </c>
       <c r="AA63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>464378</v>
       </c>
       <c r="AB63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>477607</v>
       </c>
       <c r="AC63" s="4">
-        <f t="shared" ref="AC63:AD63" si="222">SUM(AC56:AC62)</f>
+        <f t="shared" ref="AC63:AD63" si="223">SUM(AC56:AC62)</f>
         <v>486883</v>
       </c>
       <c r="AD63" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>527854</v>
       </c>
       <c r="AE63" s="4">
-        <f t="shared" ref="AE63" si="223">SUM(AE56:AE62)</f>
+        <f t="shared" ref="AE63" si="224">SUM(AE56:AE62)</f>
         <v>530969</v>
       </c>
     </row>
@@ -8457,71 +8451,71 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4">
-        <f t="shared" ref="O65:Q65" si="224">+O32</f>
+        <f t="shared" ref="O65:Q65" si="225">+O32</f>
         <v>2535</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>5243</v>
       </c>
       <c r="Q65" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>6331</v>
       </c>
       <c r="R65" s="4">
-        <f t="shared" ref="R65:V65" si="225">+R32</f>
+        <f t="shared" ref="R65:V65" si="226">+R32</f>
         <v>7222</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>8107</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>7778</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>3156</v>
       </c>
       <c r="V65" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>14323</v>
       </c>
       <c r="W65" s="4">
-        <f t="shared" ref="W65:AE65" si="226">+W32</f>
+        <f t="shared" ref="W65:AE65" si="227">+W32</f>
         <v>-3844</v>
       </c>
       <c r="X65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>2982</v>
       </c>
       <c r="Y65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>2872</v>
       </c>
       <c r="Z65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3247</v>
       </c>
       <c r="AA65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3172</v>
       </c>
       <c r="AB65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>6750</v>
       </c>
       <c r="AC65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>9879</v>
       </c>
       <c r="AD65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>10624</v>
       </c>
       <c r="AE65" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>10431</v>
       </c>
     </row>
@@ -9032,71 +9026,71 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4">
-        <f t="shared" ref="O73:Q73" si="227">SUM(O66:O72)</f>
+        <f t="shared" ref="O73:Q73" si="228">SUM(O66:O72)</f>
         <v>3064</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>20606</v>
       </c>
       <c r="Q73" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>11964</v>
       </c>
       <c r="R73" s="4">
-        <f t="shared" ref="R73:AE73" si="228">SUM(R66:R72)</f>
+        <f t="shared" ref="R73:AE73" si="229">SUM(R66:R72)</f>
         <v>30430</v>
       </c>
       <c r="S73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>4213</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>12715</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>7313</v>
       </c>
       <c r="V73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>22086</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-2790</v>
       </c>
       <c r="X73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>8965</v>
       </c>
       <c r="Y73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>11404</v>
       </c>
       <c r="Z73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>29173</v>
       </c>
       <c r="AA73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>4788</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>16476</v>
       </c>
       <c r="AC73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>21217</v>
       </c>
       <c r="AD73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>42465</v>
       </c>
       <c r="AE73" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>18989</v>
       </c>
       <c r="AP73" s="2">
@@ -9441,71 +9435,71 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4">
-        <f t="shared" ref="O79:Q79" si="229">SUM(O75:O78)</f>
+        <f t="shared" ref="O79:Q79" si="230">SUM(O75:O78)</f>
         <v>-8894</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>-17804</v>
       </c>
       <c r="Q79" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>-15876</v>
       </c>
       <c r="R79" s="4">
-        <f t="shared" ref="R79:AE79" si="230">SUM(R75:R78)</f>
+        <f t="shared" ref="R79:AE79" si="231">SUM(R75:R78)</f>
         <v>-17038</v>
       </c>
       <c r="S79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-8666</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-22080</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-14828</v>
       </c>
       <c r="V79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-12580</v>
       </c>
       <c r="W79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>906</v>
       </c>
       <c r="X79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-12078</v>
       </c>
       <c r="Y79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-15608</v>
       </c>
       <c r="Z79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-10821</v>
       </c>
       <c r="AA79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-15806</v>
       </c>
       <c r="AB79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-9673</v>
       </c>
       <c r="AC79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-11753</v>
       </c>
       <c r="AD79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-12601</v>
       </c>
       <c r="AE79" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-17862</v>
       </c>
     </row>
@@ -9705,71 +9699,71 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4">
-        <f t="shared" ref="O83:Q83" si="231">SUM(O81:O82)</f>
+        <f t="shared" ref="O83:Q83" si="232">SUM(O81:O82)</f>
         <v>-2591</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>7408</v>
       </c>
       <c r="Q83" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>-4105</v>
       </c>
       <c r="R83" s="4">
-        <f t="shared" ref="R83:AE83" si="232">SUM(R81:R82)</f>
+        <f t="shared" ref="R83:AE83" si="233">SUM(R81:R82)</f>
         <v>-1816</v>
       </c>
       <c r="S83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-3476</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>15643</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-2776</v>
       </c>
       <c r="V83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-3100</v>
       </c>
       <c r="W83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>1990</v>
       </c>
       <c r="X83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>4626</v>
       </c>
       <c r="Y83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>3016</v>
       </c>
       <c r="Z83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>86</v>
       </c>
       <c r="AA83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>6354</v>
       </c>
       <c r="AB83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-6539</v>
       </c>
       <c r="AC83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-8948</v>
       </c>
       <c r="AD83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-6746</v>
       </c>
       <c r="AE83" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>-1256</v>
       </c>
     </row>
@@ -9858,7 +9852,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4">
-        <f t="shared" ref="O85" si="233">+O84+O83+O79+O73</f>
+        <f t="shared" ref="O85" si="234">+O84+O83+O79+O73</f>
         <v>-8905</v>
       </c>
       <c r="P85" s="4">
@@ -9870,59 +9864,59 @@
         <v>-7640</v>
       </c>
       <c r="R85" s="4">
-        <f t="shared" ref="R85:AE85" si="234">+R84+R83+R79+R73</f>
+        <f t="shared" ref="R85:AE85" si="235">+R84+R83+R79+R73</f>
         <v>12175</v>
       </c>
       <c r="S85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-8222</v>
       </c>
       <c r="T85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>6512</v>
       </c>
       <c r="U85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-10490</v>
       </c>
       <c r="V85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>6300</v>
       </c>
       <c r="W85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>122</v>
       </c>
       <c r="X85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>1101</v>
       </c>
       <c r="Y85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-2522</v>
       </c>
       <c r="Z85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>19075</v>
       </c>
       <c r="AA85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-4519</v>
       </c>
       <c r="AB85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>333</v>
       </c>
       <c r="AC85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>14</v>
       </c>
       <c r="AD85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>23809</v>
       </c>
       <c r="AE85" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-558</v>
       </c>
     </row>
@@ -10222,51 +10216,51 @@
         <v>102</v>
       </c>
       <c r="O93" s="4">
-        <f>+O73+O75+O76</f>
+        <f t="shared" ref="O93:W93" si="236">+O73+O75+O76</f>
         <v>-2364</v>
       </c>
       <c r="P93" s="4">
-        <f>+P73+P75+P76</f>
+        <f t="shared" si="236"/>
         <v>13991</v>
       </c>
       <c r="Q93" s="4">
-        <f>+Q73+Q75+Q76</f>
+        <f t="shared" si="236"/>
         <v>2156</v>
       </c>
       <c r="R93" s="4">
-        <f>+R73+R75+R76</f>
+        <f t="shared" si="236"/>
         <v>17235</v>
       </c>
       <c r="S93" s="4">
-        <f>+S73+S75+S76</f>
+        <f t="shared" si="236"/>
         <v>-6974</v>
       </c>
       <c r="T93" s="4">
-        <f>+T73+T75+T76</f>
+        <f t="shared" si="236"/>
         <v>-273</v>
       </c>
       <c r="U93" s="4">
-        <f>+U73+U75+U76</f>
+        <f t="shared" si="236"/>
         <v>-7438</v>
       </c>
       <c r="V93" s="4">
-        <f>+V73+V75+V76</f>
+        <f t="shared" si="236"/>
         <v>5616</v>
       </c>
       <c r="W93" s="4">
-        <f>+W73+W75+W76</f>
+        <f t="shared" si="236"/>
         <v>-16532</v>
       </c>
       <c r="X93" s="4">
-        <f t="shared" ref="X93:Z93" si="235">+X73+X75+X76</f>
+        <f t="shared" ref="X93:Z93" si="237">+X73+X75+X76</f>
         <v>-5133</v>
       </c>
       <c r="Y93" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>-3637</v>
       </c>
       <c r="Z93" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>13733</v>
       </c>
       <c r="AA93" s="4">
@@ -10274,19 +10268,19 @@
         <v>-8282</v>
       </c>
       <c r="AB93" s="4">
-        <f t="shared" ref="AB93:AE93" si="236">+AB73+AB75+AB76</f>
+        <f t="shared" ref="AB93:AE93" si="238">+AB73+AB75+AB76</f>
         <v>6064</v>
       </c>
       <c r="AC93" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>9919</v>
       </c>
       <c r="AD93" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>29112</v>
       </c>
       <c r="AE93" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>5054</v>
       </c>
     </row>
@@ -10295,15 +10289,15 @@
         <v>107</v>
       </c>
       <c r="R94" s="2">
-        <f t="shared" ref="R94:T94" si="237">SUM(O93:R93)</f>
+        <f t="shared" ref="R94:T94" si="239">SUM(O93:R93)</f>
         <v>31018</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>26408</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>12144</v>
       </c>
       <c r="U94" s="2">
@@ -10323,7 +10317,7 @@
         <v>-23487</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" ref="Y94" si="238">SUM(V93:Y93)</f>
+        <f t="shared" ref="Y94" si="240">SUM(V93:Y93)</f>
         <v>-19686</v>
       </c>
       <c r="Z94" s="2">
@@ -10335,19 +10329,19 @@
         <v>-3319</v>
       </c>
       <c r="AB94" s="2">
-        <f t="shared" ref="AB94:AE94" si="239">SUM(Y93:AB93)</f>
+        <f t="shared" ref="AB94:AE94" si="241">SUM(Y93:AB93)</f>
         <v>7878</v>
       </c>
       <c r="AC94" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>21434</v>
       </c>
       <c r="AD94" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>36813</v>
       </c>
       <c r="AE94" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>50149</v>
       </c>
     </row>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F4742-3A20-4BF3-BD5B-24AAB8CD9F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0EB20-0A9C-4982-AEA9-9E87622BA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26175" yWindow="1080" windowWidth="25425" windowHeight="18870" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-39705" yWindow="1980" windowWidth="28230" windowHeight="17955" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:EG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA27" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AC46" sqref="AC46"/>
@@ -6289,99 +6289,99 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f>+O18/K18-1</f>
+        <f t="shared" ref="O38:R39" si="156">+O18/K18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="P38" s="8">
-        <f>+P18/L18-1</f>
+        <f t="shared" si="156"/>
         <v>0.40127175368139234</v>
       </c>
       <c r="Q38" s="8">
-        <f>+Q18/M18-1</f>
+        <f t="shared" si="156"/>
         <v>0.32844988168957356</v>
       </c>
       <c r="R38" s="8">
-        <f>+R18/N18-1</f>
+        <f t="shared" si="156"/>
         <v>0.40588025800324479</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" ref="S38:W38" si="156">+S18/O18-1</f>
+        <f t="shared" ref="S38:W38" si="157">+S18/O18-1</f>
         <v>0.37403503740350375</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15444630204601539</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.9830219426232549E-2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.0664264805224679E-3</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-1.8020211859247515E-2</v>
       </c>
       <c r="X38" s="8">
-        <f>+X18/T18-1</f>
+        <f t="shared" ref="X38:AF38" si="158">+X18/T18-1</f>
         <v>-2.4636231984001111E-2</v>
       </c>
       <c r="Y38" s="8">
-        <f>+Y18/U18-1</f>
+        <f t="shared" si="158"/>
         <v>8.1347036956046281E-2</v>
       </c>
       <c r="Z38" s="8">
-        <f>+Z18/V18-1</f>
+        <f t="shared" si="158"/>
         <v>-1.2392181023860194E-2</v>
       </c>
       <c r="AA38" s="8">
-        <f>+AA18/W18-1</f>
+        <f t="shared" si="158"/>
         <v>9.317155256398868E-3</v>
       </c>
       <c r="AB38" s="8">
-        <f>+AB18/X18-1</f>
+        <f t="shared" si="158"/>
         <v>4.342907644719407E-2</v>
       </c>
       <c r="AC38" s="8">
-        <f>+AC18/Y18-1</f>
+        <f t="shared" si="158"/>
         <v>6.4560161779575242E-2</v>
       </c>
       <c r="AD38" s="8">
-        <f>+AD18/Z18-1</f>
+        <f t="shared" si="158"/>
         <v>8.7507620762501626E-2</v>
       </c>
       <c r="AE38" s="8">
-        <f>+AE18/AA18-1</f>
+        <f t="shared" si="158"/>
         <v>6.9040557378775347E-2</v>
       </c>
       <c r="AF38" s="8">
-        <f>+AF18/AB18-1</f>
+        <f t="shared" si="158"/>
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" ref="AG38:AL38" si="157">+AG18/AC18-1</f>
+        <f t="shared" ref="AG38:AL38" si="159">+AG18/AC18-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AH38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AI38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>-1</v>
       </c>
       <c r="AJ38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>-1</v>
       </c>
       <c r="AK38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>-1</v>
       </c>
       <c r="AL38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>-1</v>
       </c>
       <c r="BF38" s="13"/>
@@ -6413,55 +6413,55 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f>+O19/K19-1</f>
+        <f t="shared" si="156"/>
         <v>0.32238265727662596</v>
       </c>
       <c r="P39" s="8">
-        <f>+P19/L19-1</f>
+        <f t="shared" si="156"/>
         <v>0.40365906780891536</v>
       </c>
       <c r="Q39" s="8">
-        <f>+Q19/M19-1</f>
+        <f t="shared" si="156"/>
         <v>0.43351512146752613</v>
       </c>
       <c r="R39" s="8">
-        <f>+R19/N19-1</f>
+        <f t="shared" si="156"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="158">+S19/O19-1</f>
+        <f t="shared" ref="S39" si="160">+S19/O19-1</f>
         <v>0.5181636964089138</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="159">+T19/P19-1</f>
+        <f t="shared" ref="T39" si="161">+T19/P19-1</f>
         <v>0.42433019551049966</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="160">+U19/Q19-1</f>
+        <f t="shared" ref="U39" si="162">+U19/Q19-1</f>
         <v>0.28970971386410271</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="161">+V19/R19-1</f>
+        <f t="shared" ref="V39" si="163">+V19/R19-1</f>
         <v>0.21095799922934355</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39:AA39" si="162">+W19/S19-1</f>
+        <f t="shared" ref="W39:AA39" si="164">+W19/S19-1</f>
         <v>0.17563250827993016</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.17399593289273008</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.21140231693363853</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.19208739923631746</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.17316508026471511</v>
       </c>
       <c r="AB39" s="8">
@@ -6485,27 +6485,27 @@
         <v>0.14675319504717921</v>
       </c>
       <c r="AG39" s="8">
-        <f t="shared" ref="AG39:AL39" si="163">+AG19/AC19-1</f>
+        <f t="shared" ref="AG39:AL39" si="165">+AG19/AC19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AH39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AI39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>-1</v>
       </c>
       <c r="AJ39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>-1</v>
       </c>
       <c r="AK39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>-1</v>
       </c>
       <c r="AL39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>-1</v>
       </c>
       <c r="BF39" s="13"/>
@@ -6532,39 +6532,39 @@
         <v>56</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40" si="164">+N11/J11-1</f>
+        <f t="shared" ref="N40" si="166">+N11/J11-1</f>
         <v>0.14652704535181549</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" ref="O40" si="165">+O11/K11-1</f>
+        <f t="shared" ref="O40" si="167">+O11/K11-1</f>
         <v>0.24252491694352152</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="166">+P11/L11-1</f>
+        <f t="shared" ref="P40" si="168">+P11/L11-1</f>
         <v>0.47798924419540789</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="167">+Q11/M11-1</f>
+        <f t="shared" ref="Q40" si="169">+Q11/M11-1</f>
         <v>0.37989097862381915</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:V40" si="168">+R11/N11-1</f>
+        <f t="shared" ref="R40:V40" si="170">+R11/N11-1</f>
         <v>0.45543947258908823</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0.44333187820582776</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0.15820550810528156</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>3.2926577042399208E-2</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-5.6583046154309313E-3</v>
       </c>
       <c r="W40" s="8">
@@ -6572,31 +6572,31 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AD40" si="169">+X11/T11-1</f>
+        <f t="shared" ref="X40:AD40" si="171">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>7.0631344762474457E-2</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>9.3164525576854507E-2</v>
       </c>
       <c r="AE40" s="8">
@@ -6608,36 +6608,36 @@
         <v>-1</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40:AL40" si="170">+AG11/AC11-1</f>
+        <f t="shared" ref="AG40:AL40" si="172">+AG11/AC11-1</f>
         <v>-1</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-1</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-1</v>
       </c>
       <c r="AJ40" s="8" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK40" s="8" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL40" s="8" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="171">BL11/BK11-1</f>
+        <f t="shared" ref="BL40" si="173">BL11/BK11-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="172">BM11/BL11-1</f>
+        <f t="shared" ref="BM40" si="174">BM11/BL11-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="BN40" s="13">
@@ -6645,39 +6645,39 @@
         <v>0.12529072860769497</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="173">BO11/BN11-1</f>
+        <f t="shared" ref="BO40:BW40" si="175">BO11/BN11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.3944473736841081E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6686,39 +6686,39 @@
         <v>57</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V41" si="174">+N13/J13-1</f>
+        <f t="shared" ref="N41:V41" si="176">+N13/J13-1</f>
         <v>0.30359411193304942</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.54677565849227983</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.56637624670411557</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.63747496374058987</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.37867546029128873</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.18672930123311793</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.10952537783144867</v>
       </c>
       <c r="W41" s="8">
@@ -6726,72 +6726,72 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AD41" si="175">+X13/T13-1</f>
+        <f t="shared" ref="X41:AD41" si="177">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.177027827116637</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.18103448275862077</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.19800460475825021</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.19868460882247718</v>
       </c>
       <c r="AE41" s="8">
-        <f>+AE13/AA13-1</f>
+        <f t="shared" ref="AE41:AL43" si="178">+AE13/AA13-1</f>
         <v>0.16016096579476868</v>
       </c>
       <c r="AF41" s="8">
-        <f>+AF13/AB13-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AG41" s="8">
-        <f>+AG13/AC13-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AH41" s="8">
-        <f>+AH13/AD13-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AI41" s="8">
-        <f>+AI13/AE13-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AJ41" s="8" t="e">
-        <f>+AJ13/AF13-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK41" s="8" t="e">
-        <f>+AK13/AG13-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL41" s="8" t="e">
-        <f>+AL13/AH13-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="176">BL13/BK13-1</f>
+        <f t="shared" ref="BL41" si="179">BL13/BK13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="177">BM13/BL13-1</f>
+        <f t="shared" ref="BM41" si="180">BM13/BL13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BN41" s="13">
@@ -6799,39 +6799,39 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="178">BO13/BN13-1</f>
+        <f t="shared" ref="BO41:BW41" si="181">BO13/BN13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW41" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6840,39 +6840,39 @@
         <v>58</v>
       </c>
       <c r="N42" s="8">
-        <f>+N14/J14-1</f>
+        <f t="shared" ref="N42:V43" si="182">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O42" s="8">
-        <f>+O14/K14-1</f>
+        <f t="shared" si="182"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P42" s="8">
-        <f>+P14/L14-1</f>
+        <f t="shared" si="182"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q42" s="8">
-        <f>+Q14/M14-1</f>
+        <f t="shared" si="182"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R42" s="8">
-        <f>+R14/N14-1</f>
+        <f t="shared" si="182"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S42" s="8">
-        <f>+S14/O14-1</f>
+        <f t="shared" si="182"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T42" s="8">
-        <f>+T14/P14-1</f>
+        <f t="shared" si="182"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U42" s="8">
-        <f>+U14/Q14-1</f>
+        <f t="shared" si="182"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V42" s="8">
-        <f>+V14/R14-1</f>
+        <f t="shared" si="182"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W42" s="8">
@@ -6880,72 +6880,72 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X42" s="8">
-        <f>+X14/T14-1</f>
+        <f t="shared" ref="X42:AD43" si="183">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y42" s="8">
-        <f>+Y14/U14-1</f>
+        <f t="shared" si="183"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f>+Z14/V14-1</f>
+        <f t="shared" si="183"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA42" s="8">
-        <f>+AA14/W14-1</f>
+        <f t="shared" si="183"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB42" s="8">
-        <f>+AB14/X14-1</f>
+        <f t="shared" si="183"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC42" s="8">
-        <f>+AC14/Y14-1</f>
+        <f t="shared" si="183"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD42" s="8">
-        <f>+AD14/Z14-1</f>
+        <f t="shared" si="183"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE42" s="8">
-        <f>+AE14/AA14-1</f>
+        <f t="shared" si="178"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF42" s="8">
-        <f>+AF14/AB14-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AG42" s="8">
-        <f>+AG14/AC14-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AH42" s="8">
-        <f>+AH14/AD14-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AI42" s="8">
-        <f>+AI14/AE14-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AJ42" s="8" t="e">
-        <f>+AJ14/AF14-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK42" s="8" t="e">
-        <f>+AK14/AG14-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL42" s="8" t="e">
-        <f>+AL14/AH14-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="179">BL14/BK14-1</f>
+        <f t="shared" ref="BL42" si="184">BL14/BK14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="180">BM14/BL14-1</f>
+        <f t="shared" ref="BM42" si="185">BM14/BL14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BN42" s="13">
@@ -6953,39 +6953,39 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="181">BO14/BN14-1</f>
+        <f t="shared" ref="BO42:BW42" si="186">BO14/BN14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6994,152 +6994,152 @@
         <v>59</v>
       </c>
       <c r="N43" s="8">
-        <f>+N15/J15-1</f>
+        <f t="shared" si="182"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="O43" s="8">
-        <f>+O15/K15-1</f>
+        <f t="shared" si="182"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="P43" s="8">
-        <f>+P15/L15-1</f>
+        <f t="shared" si="182"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="Q43" s="8">
-        <f>+Q15/M15-1</f>
+        <f t="shared" si="182"/>
         <v>0.50529838259899607</v>
       </c>
       <c r="R43" s="8">
-        <f>+R15/N15-1</f>
+        <f t="shared" si="182"/>
         <v>0.53701380175658731</v>
       </c>
       <c r="S43" s="8">
-        <f>+S15/O15-1</f>
+        <f t="shared" si="182"/>
         <v>0.63364055299539168</v>
       </c>
       <c r="T43" s="8">
-        <f>+T15/P15-1</f>
+        <f t="shared" si="182"/>
         <v>0.76522151149016815</v>
       </c>
       <c r="U43" s="8">
-        <f>+U15/Q15-1</f>
+        <f t="shared" si="182"/>
         <v>0.41015190811411628</v>
       </c>
       <c r="V43" s="8">
-        <f>+V15/R15-1</f>
+        <f t="shared" si="182"/>
         <v>0.32190476190476192</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W43" si="182">+W15/S15-1</f>
+        <f t="shared" ref="W43" si="187">+W15/S15-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="X43" s="8">
-        <f>+X15/T15-1</f>
+        <f t="shared" si="183"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="Y43" s="8">
-        <f>+Y15/U15-1</f>
+        <f t="shared" si="183"/>
         <v>0.25433526011560703</v>
       </c>
       <c r="Z43" s="8">
-        <f>+Z15/V15-1</f>
+        <f t="shared" si="183"/>
         <v>0.18948126801152743</v>
       </c>
       <c r="AA43" s="8">
-        <f>+AA15/W15-1</f>
+        <f t="shared" si="183"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="AB43" s="8">
-        <f>+AB15/X15-1</f>
+        <f t="shared" si="183"/>
         <v>0.21993833504624871</v>
       </c>
       <c r="AC43" s="8">
-        <f>+AC15/Y15-1</f>
+        <f t="shared" si="183"/>
         <v>0.26309174696271476</v>
       </c>
       <c r="AD43" s="8">
-        <f>+AD15/Z15-1</f>
+        <f t="shared" si="183"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE43" s="8">
-        <f>+AE15/AA15-1</f>
+        <f t="shared" si="178"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF43" s="8">
-        <f>+AF15/AB15-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AG43" s="8">
-        <f>+AG15/AC15-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AH43" s="8">
-        <f>+AH15/AD15-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AI43" s="8">
-        <f>+AI15/AE15-1</f>
+        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
       <c r="AJ43" s="8" t="e">
-        <f>+AJ15/AF15-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK43" s="8" t="e">
-        <f>+AK15/AG15-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL43" s="8" t="e">
-        <f>+AL15/AH15-1</f>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="183">BL15/BK15-1</f>
+        <f t="shared" ref="BL43" si="188">BL15/BK15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="184">BM15/BL15-1</f>
+        <f t="shared" ref="BM43:BN43" si="189">BM15/BL15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BN43" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>0.49269461077844312</v>
       </c>
       <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="185">BO15/BN15-1</f>
+        <f t="shared" ref="BO43:BW43" si="190">BO15/BN15-1</f>
         <v>0.21113607188703476</v>
       </c>
       <c r="BP43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW43" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7148,71 +7148,71 @@
         <v>39</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44:O44" si="186">N9/J9-1</f>
+        <f t="shared" ref="N44:O44" si="191">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="187">P9/L9-1</f>
+        <f t="shared" ref="P44" si="192">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="188">Q9/M9-1</f>
+        <f t="shared" ref="Q44" si="193">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="189">R9/N9-1</f>
+        <f t="shared" ref="R44" si="194">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44" si="190">S9/O9-1</f>
+        <f t="shared" ref="S44" si="195">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44" si="191">T9/P9-1</f>
+        <f t="shared" ref="T44" si="196">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44" si="192">U9/Q9-1</f>
+        <f t="shared" ref="U44" si="197">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" ref="V44:AA44" si="193">V9/R9-1</f>
+        <f t="shared" ref="V44:AA44" si="198">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.36569651188624741</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.33290566547369838</v>
       </c>
       <c r="Y44" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="Z44" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="AA44" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.157963234097934</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AD44" si="194">AB9/X9-1</f>
+        <f t="shared" ref="AB44:AD44" si="199">AB9/X9-1</f>
         <v>0.12163736764780375</v>
       </c>
       <c r="AC44" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.1227480767358069</v>
       </c>
       <c r="AD44" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE44" s="8">
@@ -7224,51 +7224,51 @@
         <v>0.18703703703703711</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" ref="AG44:AL44" si="195">AG9/AC9-1</f>
+        <f t="shared" ref="AG44:AL44" si="200">AG9/AC9-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="AH44" s="8">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AI44" s="8">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>-1</v>
       </c>
       <c r="AJ44" s="8">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>-1</v>
       </c>
       <c r="AK44" s="8">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>-1</v>
       </c>
       <c r="AL44" s="8">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>-1</v>
       </c>
       <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="196">BH9/BG9-1</f>
+        <f t="shared" ref="BH44:BJ44" si="201">BH9/BG9-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="BI44" s="13">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="BJ44" s="13">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="197">BK9/BJ9-1</f>
+        <f t="shared" ref="BK44" si="202">BK9/BJ9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="198">BL9/BK9-1</f>
+        <f t="shared" ref="BL44" si="203">BL9/BK9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="199">BM9/BL9-1</f>
+        <f t="shared" ref="BM44" si="204">BM9/BL9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BN44" s="13">
@@ -7276,39 +7276,39 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="200">BO9/BN9-1</f>
+        <f t="shared" ref="BO44:BW44" si="205">BO9/BN9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BP44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BQ44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BR44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BS44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BT44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BU44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BV44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BW44" s="13">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -7324,27 +7324,27 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
-        <f t="shared" ref="J45:O45" si="201">J23/J20</f>
+        <f t="shared" ref="J45:O45" si="206">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P45" s="16">
@@ -7364,11 +7364,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" ref="T45:W45" si="202">T23/T20</f>
+        <f t="shared" ref="T45:W45" si="207">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V45" s="16">
@@ -7376,11 +7376,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" ref="X45:AD45" si="203">X23/X20</f>
+        <f t="shared" ref="X45:AD45" si="208">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y45" s="16">
@@ -7396,15 +7396,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE45" s="17">
@@ -7416,55 +7416,55 @@
         <v>0.3421251807701145</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AL45" si="204">AG23/AG20</f>
+        <f t="shared" ref="AG45:AL45" si="209">AG23/AG20</f>
         <v>0</v>
       </c>
       <c r="AH45" s="16">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="AI45" s="16" t="e">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ45" s="16" t="e">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK45" s="16" t="e">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL45" s="16" t="e">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="205">BG23/BG20</f>
+        <f t="shared" ref="BG45:BI45" si="210">BG23/BG20</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="BH45" s="14">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="BI45" s="14">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="206">BJ23/BJ20</f>
+        <f t="shared" ref="BJ45" si="211">BJ23/BJ20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="207">BK23/BK20</f>
+        <f t="shared" ref="BK45:BL45" si="212">BK23/BK20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="BL45" s="14">
-        <f t="shared" si="207"/>
+        <f t="shared" si="212"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="208">BM23/BM20</f>
+        <f t="shared" ref="BM45" si="213">BM23/BM20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BN45" s="14">
@@ -7472,39 +7472,39 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="209">BO23/BO20</f>
+        <f t="shared" ref="BO45:BW45" si="214">BO23/BO20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.28495847997662427</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.29051526396001626</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.29581068980258746</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.30074780240646226</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.30071724610417139</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.30068524592936513</v>
       </c>
       <c r="BW45" s="14">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.30065200107669582</v>
       </c>
       <c r="BY45" t="s">
@@ -7527,75 +7527,75 @@
         <v>75</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:P47" si="210">+O48-O61</f>
+        <f t="shared" ref="O47:P47" si="215">+O48-O61</f>
         <v>25855</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>38263</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="211">+Q48-Q61</f>
+        <f t="shared" ref="Q47" si="216">+Q48-Q61</f>
         <v>35473</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" ref="R47:AB47" si="212">+R48-R61</f>
+        <f t="shared" ref="R47:AB47" si="217">+R48-R61</f>
         <v>52580</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>41402</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>39615</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>28933</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>47305</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>18829</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>2657</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>-257</v>
       </c>
       <c r="Z47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>2876</v>
       </c>
       <c r="AA47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>-2679</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>878</v>
       </c>
       <c r="AC47" s="4">
-        <f t="shared" ref="AC47:AD47" si="213">+AC48-AC61</f>
+        <f t="shared" ref="AC47:AD47" si="218">+AC48-AC61</f>
         <v>3071</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>28466</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" ref="AE47:AF47" si="214">+AE48-AE61</f>
+        <f t="shared" ref="AE47:AF47" si="219">+AE48-AE61</f>
         <v>27440</v>
       </c>
       <c r="AF47" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
         <v>34203</v>
       </c>
       <c r="AG47" s="4"/>
@@ -7621,27 +7621,27 @@
         <v>57288.203749999979</v>
       </c>
       <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="215">+BQ47+BR32</f>
+        <f t="shared" ref="BR47:BW47" si="220">+BQ47+BR32</f>
         <v>101861.57907437488</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>165833.52035353211</v>
       </c>
       <c r="BT47" s="2">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>253777.99507973535</v>
       </c>
       <c r="BU47" s="2">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>359424.87027738051</v>
       </c>
       <c r="BV47" s="2">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>485836.72377839067</v>
       </c>
       <c r="BW47" s="2">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>636646.80560538301</v>
       </c>
       <c r="BY47" t="s">
@@ -8195,75 +8195,75 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:P55" si="216">SUM(O48:O54)</f>
+        <f t="shared" ref="O55:P55" si="221">SUM(O48:O54)</f>
         <v>221238</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="221"/>
         <v>258314</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" ref="Q55" si="217">SUM(Q48:Q54)</f>
+        <f t="shared" ref="Q55" si="222">SUM(Q48:Q54)</f>
         <v>282179</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55:AB55" si="218">SUM(R48:R54)</f>
+        <f t="shared" ref="R55:AB55" si="223">SUM(R48:R54)</f>
         <v>321195</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>323077</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>360319</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>382406</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>420549</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>410767</v>
       </c>
       <c r="X55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>419728</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>428362</v>
       </c>
       <c r="Z55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>462675</v>
       </c>
       <c r="AA55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>464378</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>477607</v>
       </c>
       <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AD55" si="219">SUM(AC48:AC54)</f>
+        <f t="shared" ref="AC55:AD55" si="224">SUM(AC48:AC54)</f>
         <v>486883</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>527854</v>
       </c>
       <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AF55" si="220">SUM(AE48:AE54)</f>
+        <f t="shared" ref="AE55:AF55" si="225">SUM(AE48:AE54)</f>
         <v>530969</v>
       </c>
       <c r="AF55" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>554818</v>
       </c>
     </row>
@@ -8781,71 +8781,71 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:P64" si="221">SUM(O57:O63)</f>
+        <f t="shared" ref="O64:P64" si="226">SUM(O57:O63)</f>
         <v>221238</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>258314</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" ref="Q64" si="222">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64" si="227">SUM(Q57:Q63)</f>
         <v>282179</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" ref="R64:AB64" si="223">SUM(R57:R63)</f>
+        <f t="shared" ref="R64:AB64" si="228">SUM(R57:R63)</f>
         <v>321195</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>323077</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>360319</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>382406</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>420549</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>410767</v>
       </c>
       <c r="X64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>419728</v>
       </c>
       <c r="Y64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>428362</v>
       </c>
       <c r="Z64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>462675</v>
       </c>
       <c r="AA64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>464378</v>
       </c>
       <c r="AB64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>477607</v>
       </c>
       <c r="AC64" s="4">
-        <f t="shared" ref="AC64:AD64" si="224">SUM(AC57:AC63)</f>
+        <f t="shared" ref="AC64:AD64" si="229">SUM(AC57:AC63)</f>
         <v>486883</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="229"/>
         <v>527854</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" ref="AE64" si="225">SUM(AE57:AE63)</f>
+        <f t="shared" ref="AE64" si="230">SUM(AE57:AE63)</f>
         <v>530969</v>
       </c>
       <c r="AF64" s="4">
@@ -8870,75 +8870,75 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:Q66" si="226">+O32</f>
+        <f t="shared" ref="O66:Q66" si="231">+O32</f>
         <v>2535</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="231"/>
         <v>5243</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="231"/>
         <v>6331</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" ref="R66:V66" si="227">+R32</f>
+        <f t="shared" ref="R66:V66" si="232">+R32</f>
         <v>7222</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>8107</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>7778</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>3156</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>14323</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" ref="W66:AF66" si="228">+W32</f>
+        <f t="shared" ref="W66:AF66" si="233">+W32</f>
         <v>-3844</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>2982</v>
       </c>
       <c r="Y66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>2872</v>
       </c>
       <c r="Z66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>3247</v>
       </c>
       <c r="AA66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>3172</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>6750</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>9879</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>10624</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="233"/>
         <v>13486</v>
       </c>
     </row>
@@ -9468,75 +9468,75 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4">
-        <f t="shared" ref="O74:Q74" si="229">SUM(O67:O73)</f>
+        <f t="shared" ref="O74:Q74" si="234">SUM(O67:O73)</f>
         <v>3064</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="234"/>
         <v>20606</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="234"/>
         <v>11964</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" ref="R74:AF74" si="230">SUM(R67:R73)</f>
+        <f t="shared" ref="R74:AF74" si="235">SUM(R67:R73)</f>
         <v>30430</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>4213</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>12715</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>7313</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>22086</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>-2790</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>8965</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>11404</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>29173</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>4788</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>16476</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>21217</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>42465</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>18989</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="235"/>
         <v>25281</v>
       </c>
       <c r="AT74" s="2">
@@ -9894,75 +9894,75 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4">
-        <f t="shared" ref="O80:Q80" si="231">SUM(O76:O79)</f>
+        <f t="shared" ref="O80:Q80" si="236">SUM(O76:O79)</f>
         <v>-8894</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="236"/>
         <v>-17804</v>
       </c>
       <c r="Q80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="236"/>
         <v>-15876</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" ref="R80:AF80" si="232">SUM(R76:R79)</f>
+        <f t="shared" ref="R80:AF80" si="237">SUM(R76:R79)</f>
         <v>-17038</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-8666</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-22080</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-14828</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-12580</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>906</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-12078</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-15608</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-10821</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-15806</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-9673</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-11753</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-12601</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-17862</v>
       </c>
       <c r="AF80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-22138</v>
       </c>
     </row>
@@ -10169,75 +10169,75 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:Q84" si="233">SUM(O82:O83)</f>
+        <f t="shared" ref="O84:Q84" si="238">SUM(O82:O83)</f>
         <v>-2591</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="238"/>
         <v>7408</v>
       </c>
       <c r="Q84" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="238"/>
         <v>-4105</v>
       </c>
       <c r="R84" s="4">
-        <f t="shared" ref="R84:AF84" si="234">SUM(R82:R83)</f>
+        <f t="shared" ref="R84:AF84" si="239">SUM(R82:R83)</f>
         <v>-1816</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-3476</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>15643</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-2776</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-3100</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>1990</v>
       </c>
       <c r="X84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>4626</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>3016</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>86</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>6354</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-6539</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-8948</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-6746</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-1256</v>
       </c>
       <c r="AF84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>-4490</v>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4">
-        <f t="shared" ref="O86" si="235">+O85+O84+O80+O74</f>
+        <f t="shared" ref="O86" si="240">+O85+O84+O80+O74</f>
         <v>-8905</v>
       </c>
       <c r="P86" s="4">
@@ -10341,63 +10341,63 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AF86" si="236">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AF86" si="241">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>-8222</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>6512</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>-10490</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>6300</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>122</v>
       </c>
       <c r="X86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>1101</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>-2522</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>19075</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>-4519</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>333</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>14</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>23809</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>-558</v>
       </c>
       <c r="AF86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>-1659</v>
       </c>
     </row>
@@ -10709,51 +10709,51 @@
         <v>102</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="237">+O74+O76+O77</f>
+        <f t="shared" ref="O94:W94" si="242">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>13991</v>
       </c>
       <c r="Q94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>2156</v>
       </c>
       <c r="R94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>17235</v>
       </c>
       <c r="S94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>-6974</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>-273</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>-7438</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>5616</v>
       </c>
       <c r="W94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>-16532</v>
       </c>
       <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="238">+X74+X76+X77</f>
+        <f t="shared" ref="X94:Z94" si="243">+X74+X76+X77</f>
         <v>-5133</v>
       </c>
       <c r="Y94" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="243"/>
         <v>-3637</v>
       </c>
       <c r="Z94" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="243"/>
         <v>13733</v>
       </c>
       <c r="AA94" s="4">
@@ -10761,23 +10761,23 @@
         <v>-8282</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="239">+AB74+AB76+AB77</f>
+        <f t="shared" ref="AB94:AE94" si="244">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
       <c r="AC94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>9919</v>
       </c>
       <c r="AD94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>29112</v>
       </c>
       <c r="AE94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>5054</v>
       </c>
       <c r="AF94" s="4">
-        <f t="shared" ref="AF94" si="240">+AF74+AF76+AF77</f>
+        <f t="shared" ref="AF94" si="245">+AF74+AF76+AF77</f>
         <v>8888</v>
       </c>
     </row>
@@ -10786,15 +10786,15 @@
         <v>107</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="241">SUM(O94:R94)</f>
+        <f t="shared" ref="R95:T95" si="246">SUM(O94:R94)</f>
         <v>31018</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="246"/>
         <v>26408</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="246"/>
         <v>12144</v>
       </c>
       <c r="U95" s="2">
@@ -10814,7 +10814,7 @@
         <v>-23487</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" ref="Y95" si="242">SUM(V94:Y94)</f>
+        <f t="shared" ref="Y95" si="247">SUM(V94:Y94)</f>
         <v>-19686</v>
       </c>
       <c r="Z95" s="2">
@@ -10826,23 +10826,23 @@
         <v>-3319</v>
       </c>
       <c r="AB95" s="2">
-        <f t="shared" ref="AB95:AE95" si="243">SUM(Y94:AB94)</f>
+        <f t="shared" ref="AB95:AE95" si="248">SUM(Y94:AB94)</f>
         <v>7878</v>
       </c>
       <c r="AC95" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>21434</v>
       </c>
       <c r="AD95" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>36813</v>
       </c>
       <c r="AE95" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>50149</v>
       </c>
       <c r="AF95" s="2">
-        <f t="shared" ref="AF95" si="244">SUM(AC94:AF94)</f>
+        <f t="shared" ref="AF95" si="249">SUM(AC94:AF94)</f>
         <v>52973</v>
       </c>
     </row>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0EB20-0A9C-4982-AEA9-9E87622BA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBFBE7-C41D-4E66-B1AD-C622F4035187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39705" yWindow="1980" windowWidth="28230" windowHeight="17955" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="20580" yWindow="1840" windowWidth="17170" windowHeight="17900" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="151">
   <si>
     <t>Main</t>
   </si>
@@ -554,6 +554,87 @@
   </si>
   <si>
     <t>Revenue CC</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>Dynamo</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>SageMaker</t>
+  </si>
+  <si>
+    <t>Very weak in GPUs</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>EKS</t>
+  </si>
+  <si>
+    <t>Azure, GCP, Digital Ocean</t>
+  </si>
+  <si>
+    <t>Tranium</t>
+  </si>
+  <si>
+    <t>Inferentia</t>
+  </si>
+  <si>
+    <t>HyperPods</t>
+  </si>
+  <si>
+    <t>Bedrock</t>
+  </si>
+  <si>
+    <t>AI models</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Whole Foods</t>
+  </si>
+  <si>
+    <t>3PS</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Audible</t>
   </si>
 </sst>
 </file>
@@ -1132,32 +1213,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>167.9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10406.627415000001</v>
+        <v>10708</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>103</v>
       </c>
@@ -1166,10 +1252,10 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1747272.7429785002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1991688</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -1177,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>85074</v>
+        <v>89092</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -1191,28 +1277,160 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>57634</v>
+        <v>54889</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1719832.7429785002</v>
+        <v>1957485</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1225,26 +1443,26 @@
   <dimension ref="A1:EG101"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC46" sqref="AC46"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="3"/>
-    <col min="74" max="75" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="26" width="9.1796875" style="3"/>
+    <col min="74" max="75" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1532,7 +1750,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1640,7 +1858,7 @@
         <v>279833</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1678,7 +1896,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1716,7 +1934,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +2042,7 @@
         <v>127787</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
@@ -1862,7 +2080,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -1900,7 +2118,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2056,7 +2274,7 @@
         <v>447916.72498560004</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2351,9 @@
       <c r="AE11" s="4">
         <v>54670</v>
       </c>
-      <c r="AF11" s="4"/>
+      <c r="AF11" s="4">
+        <v>55392</v>
+      </c>
       <c r="AG11" s="4"/>
       <c r="BK11" s="2">
         <f>26939+27165+29061+39822</f>
@@ -2188,7 +2408,7 @@
         <v>326267.1892021501</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2265,7 +2485,9 @@
       <c r="AE12" s="4">
         <v>5202</v>
       </c>
-      <c r="AF12" s="4"/>
+      <c r="AF12" s="4">
+        <v>5206</v>
+      </c>
       <c r="AG12" s="4"/>
       <c r="BK12" s="2">
         <f>4263+4312+4248+4401</f>
@@ -2320,7 +2542,7 @@
         <v>28184.221465804694</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2397,7 +2619,9 @@
       <c r="AE13" s="4">
         <v>34596</v>
       </c>
-      <c r="AF13" s="4"/>
+      <c r="AF13" s="4">
+        <v>36201</v>
+      </c>
       <c r="AG13" s="4"/>
       <c r="BK13" s="2">
         <f>9265+9702+10395+13383</f>
@@ -2452,7 +2676,7 @@
         <v>197068.63549427583</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2529,7 +2753,9 @@
       <c r="AE14" s="4">
         <v>11824</v>
       </c>
-      <c r="AF14" s="4"/>
+      <c r="AF14" s="4">
+        <v>10866</v>
+      </c>
       <c r="AG14" s="4"/>
       <c r="BK14" s="2">
         <f>3102+3408+3698+3959</f>
@@ -2584,7 +2810,7 @@
         <v>68149.380161362526</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2661,7 +2887,9 @@
       <c r="AE15" s="4">
         <v>10722</v>
       </c>
-      <c r="AF15" s="4"/>
+      <c r="AF15" s="4">
+        <v>12771</v>
+      </c>
       <c r="AG15" s="4"/>
       <c r="BK15" s="2">
         <f>2031+2194+2495+3388</f>
@@ -2716,7 +2944,7 @@
         <v>79499.983233825042</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -2791,7 +3019,9 @@
       <c r="AE16" s="4">
         <v>1262</v>
       </c>
-      <c r="AF16" s="4"/>
+      <c r="AF16" s="4">
+        <v>1260</v>
+      </c>
       <c r="AG16" s="4"/>
       <c r="BL16" s="2">
         <f t="shared" si="5"/>
@@ -2842,11 +3072,11 @@
         <v>6976.4038955296901</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +3183,7 @@
         <v>241787</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3060,7 +3290,7 @@
         <v>228035</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:137" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3313,7 +3543,7 @@
         <v>1154062.5384385479</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3467,7 +3697,7 @@
         <v>754757.74441970466</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3621,7 +3851,7 @@
         <v>52333.582469642599</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3806,7 +4036,7 @@
         <v>346971.21154920058</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3960,7 +4190,7 @@
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4344,7 @@
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4269,7 +4499,7 @@
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4454,7 +4684,7 @@
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4639,7 +4869,7 @@
         <v>172565.2584410306</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -4823,7 +5053,7 @@
         <v>4858.3672377839066</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5008,7 +5238,7 @@
         <v>177423.62567881451</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -5187,7 +5417,7 @@
         <v>26613.543851822174</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -5620,7 +5850,7 @@
         <v>150810.08182699233</v>
       </c>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -5805,7 +6035,7 @@
         <v>14.375186524353477</v>
       </c>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
@@ -5955,7 +6185,7 @@
         <v>10491</v>
       </c>
     </row>
-    <row r="36" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6203,7 +6433,7 @@
         <v>0.10353840131598058</v>
       </c>
     </row>
-    <row r="37" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>123</v>
       </c>
@@ -6279,7 +6509,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -6403,7 +6633,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -6527,7 +6757,7 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
@@ -6605,7 +6835,7 @@
       </c>
       <c r="AF40" s="8">
         <f>+AF11/AB11-1</f>
-        <v>-1</v>
+        <v>4.5802967941698469E-2</v>
       </c>
       <c r="AG40" s="8">
         <f t="shared" ref="AG40:AL40" si="172">+AG11/AC11-1</f>
@@ -6619,9 +6849,9 @@
         <f t="shared" si="172"/>
         <v>-1</v>
       </c>
-      <c r="AJ40" s="8" t="e">
+      <c r="AJ40" s="8">
         <f t="shared" si="172"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AK40" s="8" t="e">
         <f t="shared" si="172"/>
@@ -6681,7 +6911,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
@@ -6759,7 +6989,7 @@
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="178"/>
-        <v>-1</v>
+        <v>0.11966472844240994</v>
       </c>
       <c r="AG41" s="8">
         <f t="shared" si="178"/>
@@ -6773,9 +7003,9 @@
         <f t="shared" si="178"/>
         <v>-1</v>
       </c>
-      <c r="AJ41" s="8" t="e">
+      <c r="AJ41" s="8">
         <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AK41" s="8" t="e">
         <f t="shared" si="178"/>
@@ -6835,7 +7065,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
@@ -6913,7 +7143,7 @@
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="178"/>
-        <v>-1</v>
+        <v>9.824135839902981E-2</v>
       </c>
       <c r="AG42" s="8">
         <f t="shared" si="178"/>
@@ -6927,9 +7157,9 @@
         <f t="shared" si="178"/>
         <v>-1</v>
       </c>
-      <c r="AJ42" s="8" t="e">
+      <c r="AJ42" s="8">
         <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AK42" s="8" t="e">
         <f t="shared" si="178"/>
@@ -6989,7 +7219,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
@@ -7067,7 +7297,7 @@
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="178"/>
-        <v>-1</v>
+        <v>0.19545071609098574</v>
       </c>
       <c r="AG43" s="8">
         <f t="shared" si="178"/>
@@ -7081,9 +7311,9 @@
         <f t="shared" si="178"/>
         <v>-1</v>
       </c>
-      <c r="AJ43" s="8" t="e">
+      <c r="AJ43" s="8">
         <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AK43" s="8" t="e">
         <f t="shared" si="178"/>
@@ -7143,7 +7373,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
@@ -7312,7 +7542,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:78" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
@@ -7514,7 +7744,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BY46" t="s">
         <v>76</v>
       </c>
@@ -7522,7 +7752,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
@@ -7651,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -7744,10 +7974,10 @@
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BP32:EG32)+Main!K5-Main!K6</f>
-        <v>1454245.3940996223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1461008.3940996223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
@@ -7819,10 +8049,10 @@
       </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>139.74223695214539</v>
-      </c>
-    </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>136.44082873548956</v>
+      </c>
+    </row>
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -7893,7 +8123,7 @@
         <v>50106</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -7964,7 +8194,7 @@
         <v>220717</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8035,7 +8265,7 @@
         <v>74575</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -8107,7 +8337,7 @@
         <v>22879</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
@@ -8178,7 +8408,7 @@
         <v>63340</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -8267,7 +8497,7 @@
         <v>554818</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -8338,7 +8568,7 @@
         <v>81817</v>
       </c>
     </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -8409,7 +8639,7 @@
         <v>60351</v>
       </c>
     </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -8480,7 +8710,7 @@
         <v>16004</v>
       </c>
     </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -8551,7 +8781,7 @@
         <v>78084</v>
       </c>
     </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -8622,7 +8852,7 @@
         <v>54889</v>
       </c>
     </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
@@ -8693,7 +8923,7 @@
         <v>27226</v>
       </c>
     </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
@@ -8764,7 +8994,7 @@
         <v>236447</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -8853,7 +9083,7 @@
         <v>554818</v>
       </c>
     </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -8938,11 +9168,11 @@
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
-        <f t="shared" si="233"/>
+        <f>+AF32</f>
         <v>13486</v>
       </c>
     </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -9013,7 +9243,7 @@
         <v>13485</v>
       </c>
     </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -9084,7 +9314,7 @@
         <v>12038</v>
       </c>
     </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -9155,7 +9385,7 @@
         <v>6722</v>
       </c>
     </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -9226,7 +9456,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -9291,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -9362,7 +9592,7 @@
         <v>-785</v>
       </c>
     </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -9451,7 +9681,7 @@
         <v>-6084</v>
       </c>
     </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -9549,7 +9779,7 @@
         <v>392.02199999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -9575,7 +9805,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -9646,7 +9876,7 @@
         <v>-17620</v>
       </c>
     </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -9717,7 +9947,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -9788,7 +10018,7 @@
         <v>-571</v>
       </c>
     </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -9877,7 +10107,7 @@
         <v>-5174</v>
       </c>
     </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -9966,7 +10196,7 @@
         <v>-22138</v>
       </c>
     </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -9992,7 +10222,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -10063,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -10152,7 +10382,7 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -10241,7 +10471,7 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -10312,7 +10542,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -10401,7 +10631,7 @@
         <v>-1659</v>
       </c>
     </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -10485,7 +10715,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -10558,7 +10788,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -10631,7 +10861,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -10704,7 +10934,7 @@
         <v>9334</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>102</v>
       </c>
@@ -10781,7 +11011,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
@@ -10846,7 +11076,7 @@
         <v>52973</v>
       </c>
     </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>105</v>
       </c>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBFBE7-C41D-4E66-B1AD-C622F4035187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D183C-1260-4D04-9DEC-5FEE6ACED470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="1840" windowWidth="17170" windowHeight="17900" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-32100" yWindow="1725" windowWidth="30735" windowHeight="17835" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <author>tc={4F53D287-EDAA-4481-ACF6-A09E2F7614C4}</author>
     <author>tc={D59D67FB-5872-4BE5-9EBC-DF8085F0DD3F}</author>
     <author>tc={E6C3522C-40A3-4C89-A5ED-958660D0694F}</author>
+    <author>tc={A64624BB-B1AF-4371-B81E-B4367444230E}</author>
     <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
     <author>tc={1123E429-DC3C-402F-A940-60A8A504E208}</author>
     <author>tc={F0CECC32-58CA-41B9-9B42-426709AD1A9F}</author>
@@ -120,7 +121,15 @@
     144-149B</t>
       </text>
     </comment>
-    <comment ref="Y28" authorId="8" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <comment ref="AH20" authorId="8" shapeId="0" xr:uid="{A64624BB-B1AF-4371-B81E-B4367444230E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3: 181.5-188.5B</t>
+      </text>
+    </comment>
+    <comment ref="Y28" authorId="9" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +137,7 @@
     Q222 guidance: 0.0-3.5B</t>
       </text>
     </comment>
-    <comment ref="Z28" authorId="9" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
+    <comment ref="Z28" authorId="10" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +145,7 @@
     Q3 guidance: 0-4B</t>
       </text>
     </comment>
-    <comment ref="AA28" authorId="10" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
+    <comment ref="AA28" authorId="11" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +153,7 @@
     Q4 guidance 0-4B</t>
       </text>
     </comment>
-    <comment ref="AB28" authorId="11" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
+    <comment ref="AB28" authorId="12" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -153,7 +162,7 @@
 I estimated 5.6B prior to guidance</t>
       </text>
     </comment>
-    <comment ref="AF28" authorId="12" shapeId="0" xr:uid="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
+    <comment ref="AF28" authorId="13" shapeId="0" xr:uid="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +170,7 @@
     10-14B</t>
       </text>
     </comment>
-    <comment ref="Y36" authorId="13" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+    <comment ref="Y36" authorId="14" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -169,7 +178,7 @@
     +19% net of FX</t>
       </text>
     </comment>
-    <comment ref="AE45" authorId="14" shapeId="0" xr:uid="{9ABE8371-ABDF-42F1-936F-09DADC3E4649}">
+    <comment ref="AE45" authorId="15" shapeId="0" xr:uid="{9ABE8371-ABDF-42F1-936F-09DADC3E4649}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -758,15 +767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>22218</xdr:colOff>
+      <xdr:colOff>606856</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>39414</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>22218</xdr:colOff>
+      <xdr:colOff>606856</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>48939</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -781,8 +790,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19913046" y="39414"/>
-          <a:ext cx="0" cy="17417284"/>
+          <a:off x="20497684" y="0"/>
+          <a:ext cx="0" cy="17581508"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1186,6 +1195,9 @@
   <threadedComment ref="AF20" dT="2024-06-23T16:05:07.31" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{E6C3522C-40A3-4C89-A5ED-958660D0694F}">
     <text>144-149B</text>
   </threadedComment>
+  <threadedComment ref="AH20" dT="2025-02-02T02:38:51.41" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{A64624BB-B1AF-4371-B81E-B4367444230E}">
+    <text>Q3: 181.5-188.5B</text>
+  </threadedComment>
   <threadedComment ref="Y28" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
     <text>Q222 guidance: 0.0-3.5B</text>
   </threadedComment>
@@ -1216,34 +1228,34 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>236.13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10708</v>
+        <v>10515.011007999999</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>103</v>
       </c>
@@ -1252,10 +1264,10 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1991688</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>2482909.54931904</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -1263,13 +1275,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>89092</v>
+        <v>88051</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -1277,36 +1289,36 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>54889</v>
+        <v>54890</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1957485</v>
+        <v>2449748.54931904</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>124</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>125</v>
       </c>
@@ -1322,12 +1334,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>135</v>
       </c>
@@ -1335,27 +1347,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>143</v>
       </c>
@@ -1363,72 +1375,72 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>149</v>
       </c>
@@ -1443,26 +1455,26 @@
   <dimension ref="A1:EG101"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AA36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="AG48" sqref="AG48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="26" width="9.1796875" style="3"/>
-    <col min="74" max="75" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="26" width="9.140625" style="3"/>
+    <col min="74" max="75" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1830,6 +1842,9 @@
       <c r="AF3" s="2">
         <v>90033</v>
       </c>
+      <c r="AG3" s="2">
+        <v>95537</v>
+      </c>
       <c r="BG3" s="2">
         <v>50834</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>279833</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1896,7 +1911,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2014,6 +2029,9 @@
       <c r="AF6" s="2">
         <v>31663</v>
       </c>
+      <c r="AG6" s="2">
+        <v>35888</v>
+      </c>
       <c r="BG6" s="2">
         <v>33510</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>127787</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2080,7 +2098,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2118,7 +2136,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2199,8 +2217,7 @@
         <v>26281</v>
       </c>
       <c r="AG9" s="4">
-        <f>+AC9*1.15</f>
-        <v>26517.85</v>
+        <v>27452</v>
       </c>
       <c r="AH9" s="4">
         <f>+AD9*1.15</f>
@@ -2274,7 +2291,7 @@
         <v>447916.72498560004</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2354,7 +2371,9 @@
       <c r="AF11" s="4">
         <v>55392</v>
       </c>
-      <c r="AG11" s="4"/>
+      <c r="AG11" s="4">
+        <v>61411</v>
+      </c>
       <c r="BK11" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
@@ -2408,7 +2427,7 @@
         <v>326267.1892021501</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2488,7 +2507,9 @@
       <c r="AF12" s="4">
         <v>5206</v>
       </c>
-      <c r="AG12" s="4"/>
+      <c r="AG12" s="4">
+        <v>5228</v>
+      </c>
       <c r="BK12" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
@@ -2542,7 +2563,7 @@
         <v>28184.221465804694</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2622,7 +2643,9 @@
       <c r="AF13" s="4">
         <v>36201</v>
       </c>
-      <c r="AG13" s="4"/>
+      <c r="AG13" s="4">
+        <v>37864</v>
+      </c>
       <c r="BK13" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
@@ -2676,7 +2699,7 @@
         <v>197068.63549427583</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2756,7 +2779,9 @@
       <c r="AF14" s="4">
         <v>10866</v>
       </c>
-      <c r="AG14" s="4"/>
+      <c r="AG14" s="4">
+        <v>11278</v>
+      </c>
       <c r="BK14" s="2">
         <f>3102+3408+3698+3959</f>
         <v>14167</v>
@@ -2810,7 +2835,7 @@
         <v>68149.380161362526</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2890,7 +2915,9 @@
       <c r="AF15" s="4">
         <v>12771</v>
       </c>
-      <c r="AG15" s="4"/>
+      <c r="AG15" s="4">
+        <v>14331</v>
+      </c>
       <c r="BK15" s="2">
         <f>2031+2194+2495+3388</f>
         <v>10108</v>
@@ -2944,7 +2971,7 @@
         <v>79499.983233825042</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3022,7 +3049,9 @@
       <c r="AF16" s="4">
         <v>1260</v>
       </c>
-      <c r="AG16" s="4"/>
+      <c r="AG16" s="4">
+        <v>1313</v>
+      </c>
       <c r="BL16" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3072,11 +3101,11 @@
         <v>6976.4038955296901</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3157,8 +3186,7 @@
         <v>61569</v>
       </c>
       <c r="AG18" s="2">
-        <f>AC18*1.1</f>
-        <v>69488.100000000006</v>
+        <v>67601</v>
       </c>
       <c r="AH18" s="2">
         <f t="shared" ref="AH18:AH19" si="18">AD18*1.1</f>
@@ -3183,7 +3211,7 @@
         <v>241787</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3264,8 +3292,7 @@
         <v>86409</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" ref="AG19" si="20">AC19*1.1</f>
-        <v>87903.200000000012</v>
+        <v>91276</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" si="18"/>
@@ -3282,7 +3309,7 @@
         <v>120115</v>
       </c>
       <c r="BM19" s="2">
-        <f t="shared" ref="BM19:BM26" si="21">SUM(O19:R19)</f>
+        <f t="shared" ref="BM19:BM26" si="20">SUM(O19:R19)</f>
         <v>170149</v>
       </c>
       <c r="BN19" s="2">
@@ -3290,7 +3317,7 @@
         <v>228035</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3302,55 +3329,55 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6">
-        <f t="shared" ref="J20" si="22">J18+J19</f>
+        <f t="shared" ref="J20" si="21">J18+J19</f>
         <v>72383</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ref="K20:M20" si="23">K18+K19</f>
+        <f t="shared" ref="K20:M20" si="22">K18+K19</f>
         <v>59700</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20" si="24">L18+L19</f>
+        <f t="shared" ref="L20" si="23">L18+L19</f>
         <v>63404</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>69981</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="25">N18+N19</f>
+        <f t="shared" ref="N20" si="24">N18+N19</f>
         <v>87437</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="26">O18+O19</f>
+        <f t="shared" ref="O20" si="25">O18+O19</f>
         <v>75452</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20" si="27">P18+P19</f>
+        <f t="shared" ref="P20" si="26">P18+P19</f>
         <v>88912</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ref="Q20:V20" si="28">Q18+Q19</f>
+        <f t="shared" ref="Q20:V20" si="27">Q18+Q19</f>
         <v>96145</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>125555</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>108518</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>113080</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>110812</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>137412</v>
       </c>
       <c r="W20" s="6">
@@ -3395,26 +3422,26 @@
       </c>
       <c r="AG20" s="6">
         <f>+AG19+AG18</f>
-        <v>157391.30000000002</v>
+        <v>158877</v>
       </c>
       <c r="AH20" s="6">
         <f>+AH19+AH18</f>
         <v>186957.1</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" ref="AI20:AL20" si="29">+AI19+AI18</f>
+        <f t="shared" ref="AI20:AL20" si="28">+AI19+AI18</f>
         <v>0</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN20" s="5">
@@ -3479,19 +3506,19 @@
         <v>88988</v>
       </c>
       <c r="BH20" s="5">
-        <f t="shared" ref="BH20:BI20" si="30">+BH3+BH6+BH9</f>
+        <f t="shared" ref="BH20:BI20" si="29">+BH3+BH6+BH9</f>
         <v>107006</v>
       </c>
       <c r="BI20" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>135987</v>
       </c>
       <c r="BJ20" s="6">
-        <f t="shared" ref="BJ20" si="31">BJ18+BJ19</f>
+        <f t="shared" ref="BJ20" si="30">BJ18+BJ19</f>
         <v>177866</v>
       </c>
       <c r="BK20" s="6">
-        <f t="shared" ref="BK20" si="32">BK18+BK19</f>
+        <f t="shared" ref="BK20" si="31">BK18+BK19</f>
         <v>232887</v>
       </c>
       <c r="BL20" s="6">
@@ -3515,35 +3542,35 @@
         <v>574785</v>
       </c>
       <c r="BQ20" s="5">
-        <f t="shared" ref="BQ20:BW20" si="33">SUM(BQ9:BQ16)</f>
+        <f t="shared" ref="BQ20:BW20" si="32">SUM(BQ9:BQ16)</f>
         <v>630569.25</v>
       </c>
       <c r="BR20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>696385.0625</v>
       </c>
       <c r="BS20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>774819.60562500008</v>
       </c>
       <c r="BT20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>869206.37140625017</v>
       </c>
       <c r="BU20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>951548.35013156268</v>
       </c>
       <c r="BV20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1045783.7598241409</v>
       </c>
       <c r="BW20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1154062.5384385479</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3623,7 +3650,9 @@
       <c r="AF21" s="4">
         <v>73785</v>
       </c>
-      <c r="AG21" s="4"/>
+      <c r="AG21" s="4">
+        <v>80977</v>
+      </c>
       <c r="AT21" s="2">
         <v>2323.875</v>
       </c>
@@ -3653,7 +3682,7 @@
         <v>165536</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>233307</v>
       </c>
       <c r="BN21" s="2">
@@ -3669,35 +3698,35 @@
         <v>304739</v>
       </c>
       <c r="BQ21" s="4">
-        <f t="shared" ref="BQ21:BW21" si="34">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
+        <f t="shared" ref="BQ21:BW21" si="33">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
         <v>411831.07</v>
       </c>
       <c r="BR21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>453069.84100000007</v>
       </c>
       <c r="BS21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>502564.71580000001</v>
       </c>
       <c r="BT21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>562586.74916500016</v>
       </c>
       <c r="BU21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>617933.24873175006</v>
       </c>
       <c r="BV21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>681490.50569853769</v>
       </c>
       <c r="BW21" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>754757.74441970466</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3777,7 +3806,9 @@
       <c r="AF22" s="4">
         <v>23566</v>
       </c>
-      <c r="AG22" s="4"/>
+      <c r="AG22" s="4">
+        <v>24660</v>
+      </c>
       <c r="AT22" s="2">
         <v>798.55799999999999</v>
       </c>
@@ -3807,7 +3838,7 @@
         <v>40231</v>
       </c>
       <c r="BM22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>58516</v>
       </c>
       <c r="BN22" s="2">
@@ -3823,35 +3854,35 @@
         <v>90619</v>
       </c>
       <c r="BQ22" s="4">
-        <f t="shared" ref="BQ22:BW22" si="35">(BQ13+BQ11)*0.1</f>
+        <f t="shared" ref="BQ22:BW22" si="34">(BQ13+BQ11)*0.1</f>
         <v>39052.125</v>
       </c>
       <c r="BR22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>41004.731250000004</v>
       </c>
       <c r="BS22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>43054.967812500006</v>
       </c>
       <c r="BT22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>45207.716203125012</v>
       </c>
       <c r="BU22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>47468.102013281255</v>
       </c>
       <c r="BV22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>49841.507113945321</v>
       </c>
       <c r="BW22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>52333.582469642599</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3863,7 +3894,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
-        <f t="shared" ref="J23" si="36">J20-J21-J22</f>
+        <f t="shared" ref="J23" si="35">J20-J21-J22</f>
         <v>17569</v>
       </c>
       <c r="K23" s="4">
@@ -3871,7 +3902,7 @@
         <v>17179</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="37">L20-L21-L22</f>
+        <f t="shared" ref="L23" si="36">L20-L21-L22</f>
         <v>17796</v>
       </c>
       <c r="M23" s="4">
@@ -3879,15 +3910,15 @@
         <v>18512</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="38">N20-N21-N22</f>
+        <f t="shared" ref="N23" si="37">N20-N21-N22</f>
         <v>21268</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23" si="39">O20-O21-O22</f>
+        <f t="shared" ref="O23" si="38">O20-O21-O22</f>
         <v>19664</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23" si="40">P20-P21-P22</f>
+        <f t="shared" ref="P23" si="39">P20-P21-P22</f>
         <v>22446</v>
       </c>
       <c r="Q23" s="4">
@@ -3895,7 +3926,7 @@
         <v>24334</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23" si="41">R20-R21-R22</f>
+        <f t="shared" ref="R23" si="40">R20-R21-R22</f>
         <v>27797</v>
       </c>
       <c r="S23" s="4">
@@ -3903,23 +3934,23 @@
         <v>29585</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:AE23" si="42">T20-T21-T22</f>
+        <f t="shared" ref="T23:AE23" si="41">T20-T21-T22</f>
         <v>31266</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>29384</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>32132</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>29674</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>34468</v>
       </c>
       <c r="Y23" s="4">
@@ -3935,7 +3966,7 @@
         <v>38662</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>43705</v>
       </c>
       <c r="AC23" s="4">
@@ -3943,18 +3974,21 @@
         <v>45747</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>51313</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>48363</v>
       </c>
       <c r="AF23" s="4">
         <f>AF20-AF21-AF22</f>
         <v>50627</v>
       </c>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="4">
+        <f>AG20-AG21-AG22</f>
+        <v>53240</v>
+      </c>
       <c r="AT23" s="2">
         <f>AT20-AT21-AT22</f>
         <v>0</v>
@@ -3968,75 +4002,75 @@
         <v>780.13599999999974</v>
       </c>
       <c r="BG23" s="4">
-        <f t="shared" ref="BG23:BJ23" si="43">BG20-BG21-BG22</f>
+        <f t="shared" ref="BG23:BJ23" si="42">BG20-BG21-BG22</f>
         <v>15470</v>
       </c>
       <c r="BH23" s="4">
+        <f t="shared" si="42"/>
+        <v>21945</v>
+      </c>
+      <c r="BI23" s="4">
+        <f t="shared" si="42"/>
+        <v>30103</v>
+      </c>
+      <c r="BJ23" s="4">
+        <f t="shared" si="42"/>
+        <v>40683</v>
+      </c>
+      <c r="BK23" s="4">
+        <f t="shared" ref="BK23:BL23" si="43">BK20-BK21-BK22</f>
+        <v>59704</v>
+      </c>
+      <c r="BL23" s="4">
         <f t="shared" si="43"/>
-        <v>21945</v>
-      </c>
-      <c r="BI23" s="4">
-        <f t="shared" si="43"/>
-        <v>30103</v>
-      </c>
-      <c r="BJ23" s="4">
-        <f t="shared" si="43"/>
-        <v>40683</v>
-      </c>
-      <c r="BK23" s="4">
-        <f t="shared" ref="BK23:BL23" si="44">BK20-BK21-BK22</f>
-        <v>59704</v>
-      </c>
-      <c r="BL23" s="4">
+        <v>74755</v>
+      </c>
+      <c r="BM23" s="4">
+        <f t="shared" ref="BM23:BW23" si="44">BM20-BM21-BM22</f>
+        <v>94241</v>
+      </c>
+      <c r="BN23" s="4">
         <f t="shared" si="44"/>
-        <v>74755</v>
-      </c>
-      <c r="BM23" s="4">
-        <f t="shared" ref="BM23:BW23" si="45">BM20-BM21-BM22</f>
-        <v>94241</v>
-      </c>
-      <c r="BN23" s="4">
-        <f t="shared" si="45"/>
         <v>122367</v>
       </c>
       <c r="BO23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>140853</v>
       </c>
       <c r="BP23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>179427</v>
       </c>
       <c r="BQ23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>179686.05499999999</v>
       </c>
       <c r="BR23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>202310.49024999992</v>
       </c>
       <c r="BS23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>229199.92201250006</v>
       </c>
       <c r="BT23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>261411.90603812499</v>
       </c>
       <c r="BU23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>286146.99938653136</v>
       </c>
       <c r="BV23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>314451.74701165792</v>
       </c>
       <c r="BW23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>346971.21154920058</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4116,7 +4150,9 @@
       <c r="AF24" s="4">
         <v>22304</v>
       </c>
-      <c r="AG24" s="4"/>
+      <c r="AG24" s="4">
+        <v>24660</v>
+      </c>
       <c r="AT24" s="2">
         <v>241.16499999999999</v>
       </c>
@@ -4146,7 +4182,7 @@
         <v>35932</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42738</v>
       </c>
       <c r="BN24" s="2">
@@ -4166,31 +4202,31 @@
         <v>88190.66</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" ref="BR24:BW24" si="46">+BQ24*1.03</f>
+        <f t="shared" ref="BR24:BW24" si="45">+BQ24*1.03</f>
         <v>90836.37980000001</v>
       </c>
       <c r="BS24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>93561.471194000012</v>
       </c>
       <c r="BT24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>96368.31532982002</v>
       </c>
       <c r="BU24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>99259.364789714629</v>
       </c>
       <c r="BV24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>102237.14573340607</v>
       </c>
       <c r="BW24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4270,7 +4306,9 @@
       <c r="AF25" s="4">
         <v>10512</v>
       </c>
-      <c r="AG25" s="4"/>
+      <c r="AG25" s="4">
+        <v>10609</v>
+      </c>
       <c r="AT25" s="2">
         <v>138.28299999999999</v>
       </c>
@@ -4300,7 +4338,7 @@
         <v>18879</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>22010</v>
       </c>
       <c r="BN25" s="2">
@@ -4316,35 +4354,35 @@
         <v>44370</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" ref="BQ25:BW25" si="47">+BP25*1.03</f>
+        <f t="shared" ref="BQ25:BW25" si="46">+BP25*1.03</f>
         <v>45701.1</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>47072.133000000002</v>
       </c>
       <c r="BS25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>48484.296990000003</v>
       </c>
       <c r="BT25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>49938.825899700001</v>
       </c>
       <c r="BU25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>51436.990676690999</v>
       </c>
       <c r="BV25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>52980.100396991729</v>
       </c>
       <c r="BW25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4425,7 +4463,9 @@
         <f>3041+97</f>
         <v>3138</v>
       </c>
-      <c r="AG26" s="4"/>
+      <c r="AG26" s="4">
+        <v>2713</v>
+      </c>
       <c r="AT26" s="2">
         <v>89.861999999999995</v>
       </c>
@@ -4455,7 +4495,7 @@
         <v>5203</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6668</v>
       </c>
       <c r="BN26" s="2">
@@ -4471,35 +4511,35 @@
         <v>11816</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" ref="BQ26:BW26" si="48">+BP26*1.03</f>
+        <f t="shared" ref="BQ26:BW26" si="47">+BP26*1.03</f>
         <v>12170.48</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>12535.5944</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>12911.662232000001</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>13299.012098960002</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>13697.982461928803</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>14108.921935786668</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4511,7 +4551,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
-        <f t="shared" ref="J27" si="49">SUM(J24:J26)</f>
+        <f t="shared" ref="J27" si="48">SUM(J24:J26)</f>
         <v>13697</v>
       </c>
       <c r="K27" s="4">
@@ -4519,7 +4559,7 @@
         <v>12764</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" ref="L27" si="50">SUM(L24:L26)</f>
+        <f t="shared" ref="L27" si="49">SUM(L24:L26)</f>
         <v>14626</v>
       </c>
       <c r="M27" s="4">
@@ -4527,15 +4567,15 @@
         <v>15300</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" ref="N27" si="51">SUM(N24:N26)</f>
+        <f t="shared" ref="N27" si="50">SUM(N24:N26)</f>
         <v>17324</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="O27" si="52">SUM(O24:O26)</f>
+        <f t="shared" ref="O27" si="51">SUM(O24:O26)</f>
         <v>15605</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27" si="53">SUM(P24:P26)</f>
+        <f t="shared" ref="P27" si="52">SUM(P24:P26)</f>
         <v>16313</v>
       </c>
       <c r="Q27" s="4">
@@ -4543,7 +4583,7 @@
         <v>18078</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" ref="R27" si="54">SUM(R24:R26)</f>
+        <f t="shared" ref="R27" si="53">SUM(R24:R26)</f>
         <v>21420</v>
       </c>
       <c r="S27" s="4">
@@ -4551,23 +4591,23 @@
         <v>20682</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" ref="T27:W27" si="55">SUM(T24:T26)</f>
+        <f t="shared" ref="T27:W27" si="54">SUM(T24:T26)</f>
         <v>23553</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>24543</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>28648</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>25756</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" ref="X27:AF27" si="56">SUM(X24:X26)</f>
+        <f t="shared" ref="X27:AG27" si="55">SUM(X24:X26)</f>
         <v>31061</v>
       </c>
       <c r="Y27" s="4">
@@ -4575,34 +4615,37 @@
         <v>33560</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>36965</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>33665</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>35878</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>34315</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>37950</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>32828</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>35954</v>
       </c>
-      <c r="AG27" s="4"/>
+      <c r="AG27" s="4">
+        <f t="shared" si="55"/>
+        <v>37982</v>
+      </c>
       <c r="AT27" s="2">
         <f>AT26+AT25+AT24</f>
         <v>469.30999999999995</v>
@@ -4616,75 +4659,75 @@
         <v>418.89800000000002</v>
       </c>
       <c r="BG27" s="4">
-        <f t="shared" ref="BG27:BI27" si="57">SUM(BG24:BG26)</f>
+        <f t="shared" ref="BG27:BI27" si="56">SUM(BG24:BG26)</f>
         <v>15159</v>
       </c>
       <c r="BH27" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>19541</v>
       </c>
       <c r="BI27" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>25750</v>
       </c>
       <c r="BJ27" s="4">
-        <f t="shared" ref="BJ27" si="58">SUM(BJ24:BJ26)</f>
+        <f t="shared" ref="BJ27" si="57">SUM(BJ24:BJ26)</f>
         <v>36363</v>
       </c>
       <c r="BK27" s="4">
-        <f t="shared" ref="BK27:BL27" si="59">SUM(BK24:BK26)</f>
+        <f t="shared" ref="BK27:BL27" si="58">SUM(BK24:BK26)</f>
         <v>46987</v>
       </c>
       <c r="BL27" s="4">
+        <f t="shared" si="58"/>
+        <v>60014</v>
+      </c>
+      <c r="BM27" s="4">
+        <f t="shared" ref="BM27:BN27" si="59">SUM(BM24:BM26)</f>
+        <v>71416</v>
+      </c>
+      <c r="BN27" s="4">
         <f t="shared" si="59"/>
-        <v>60014</v>
-      </c>
-      <c r="BM27" s="4">
-        <f t="shared" ref="BM27:BN27" si="60">SUM(BM24:BM26)</f>
-        <v>71416</v>
-      </c>
-      <c r="BN27" s="4">
+        <v>97426</v>
+      </c>
+      <c r="BO27" s="4">
+        <f t="shared" ref="BO27:BP27" si="60">SUM(BO24:BO26)</f>
+        <v>127342</v>
+      </c>
+      <c r="BP27" s="4">
         <f t="shared" si="60"/>
-        <v>97426</v>
-      </c>
-      <c r="BO27" s="4">
-        <f t="shared" ref="BO27:BP27" si="61">SUM(BO24:BO26)</f>
-        <v>127342</v>
-      </c>
-      <c r="BP27" s="4">
+        <v>141808</v>
+      </c>
+      <c r="BQ27" s="4">
+        <f t="shared" ref="BQ27:BW27" si="61">SUM(BQ24:BQ26)</f>
+        <v>146062.24000000002</v>
+      </c>
+      <c r="BR27" s="4">
         <f t="shared" si="61"/>
-        <v>141808</v>
-      </c>
-      <c r="BQ27" s="4">
-        <f t="shared" ref="BQ27:BW27" si="62">SUM(BQ24:BQ26)</f>
-        <v>146062.24000000002</v>
-      </c>
-      <c r="BR27" s="4">
-        <f t="shared" si="62"/>
         <v>150444.10720000003</v>
       </c>
       <c r="BS27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>154957.43041600002</v>
       </c>
       <c r="BT27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>159606.15332848002</v>
       </c>
       <c r="BU27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>164394.33792833443</v>
       </c>
       <c r="BV27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>169326.16806618447</v>
       </c>
       <c r="BW27" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4696,7 +4739,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4">
-        <f t="shared" ref="J28" si="63">J23-J27</f>
+        <f t="shared" ref="J28" si="62">J23-J27</f>
         <v>3872</v>
       </c>
       <c r="K28" s="4">
@@ -4704,7 +4747,7 @@
         <v>4415</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28" si="64">L23-L27</f>
+        <f t="shared" ref="L28" si="63">L23-L27</f>
         <v>3170</v>
       </c>
       <c r="M28" s="4">
@@ -4712,15 +4755,15 @@
         <v>3212</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28" si="65">N23-N27</f>
+        <f t="shared" ref="N28" si="64">N23-N27</f>
         <v>3944</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28" si="66">O23-O27</f>
+        <f t="shared" ref="O28" si="65">O23-O27</f>
         <v>4059</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28" si="67">P23-P27</f>
+        <f t="shared" ref="P28" si="66">P23-P27</f>
         <v>6133</v>
       </c>
       <c r="Q28" s="4">
@@ -4728,7 +4771,7 @@
         <v>6256</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="68">R23-R27</f>
+        <f t="shared" ref="R28" si="67">R23-R27</f>
         <v>6377</v>
       </c>
       <c r="S28" s="4">
@@ -4736,23 +4779,23 @@
         <v>8903</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:W28" si="69">T23-T27</f>
+        <f t="shared" ref="T28:W28" si="68">T23-T27</f>
         <v>7713</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>4841</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3484</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3918</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" ref="X28:AE28" si="70">X23-X27</f>
+        <f t="shared" ref="X28:AE28" si="69">X23-X27</f>
         <v>3407</v>
       </c>
       <c r="Y28" s="4">
@@ -4760,7 +4803,7 @@
         <v>2690</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>3496</v>
       </c>
       <c r="AA28" s="4">
@@ -4768,7 +4811,7 @@
         <v>4997</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>7827</v>
       </c>
       <c r="AC28" s="4">
@@ -4776,18 +4819,21 @@
         <v>11432</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>13363</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>15535</v>
       </c>
       <c r="AF28" s="4">
         <f>AF23-AF27</f>
         <v>14673</v>
       </c>
-      <c r="AG28" s="4"/>
+      <c r="AG28" s="4">
+        <f>AG23-AG27</f>
+        <v>15258</v>
+      </c>
       <c r="AT28" s="2">
         <f>AT23-AT27</f>
         <v>-469.30999999999995</v>
@@ -4801,75 +4847,75 @@
         <v>361.23799999999972</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" ref="BG28:BI28" si="71">BG23-BG27</f>
+        <f t="shared" ref="BG28:BI28" si="70">BG23-BG27</f>
         <v>311</v>
       </c>
       <c r="BH28" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>2404</v>
       </c>
       <c r="BI28" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>4353</v>
       </c>
       <c r="BJ28" s="4">
-        <f t="shared" ref="BJ28" si="72">BJ23-BJ27</f>
+        <f t="shared" ref="BJ28" si="71">BJ23-BJ27</f>
         <v>4320</v>
       </c>
       <c r="BK28" s="4">
-        <f t="shared" ref="BK28:BL28" si="73">BK23-BK27</f>
+        <f t="shared" ref="BK28:BL28" si="72">BK23-BK27</f>
         <v>12717</v>
       </c>
       <c r="BL28" s="4">
+        <f t="shared" si="72"/>
+        <v>14741</v>
+      </c>
+      <c r="BM28" s="4">
+        <f t="shared" ref="BM28:BN28" si="73">BM23-BM27</f>
+        <v>22825</v>
+      </c>
+      <c r="BN28" s="4">
         <f t="shared" si="73"/>
-        <v>14741</v>
-      </c>
-      <c r="BM28" s="4">
-        <f t="shared" ref="BM28:BN28" si="74">BM23-BM27</f>
-        <v>22825</v>
-      </c>
-      <c r="BN28" s="4">
+        <v>24941</v>
+      </c>
+      <c r="BO28" s="4">
+        <f t="shared" ref="BO28:BP28" si="74">BO23-BO27</f>
+        <v>13511</v>
+      </c>
+      <c r="BP28" s="4">
         <f t="shared" si="74"/>
-        <v>24941</v>
-      </c>
-      <c r="BO28" s="4">
-        <f t="shared" ref="BO28:BP28" si="75">BO23-BO27</f>
-        <v>13511</v>
-      </c>
-      <c r="BP28" s="4">
+        <v>37619</v>
+      </c>
+      <c r="BQ28" s="4">
+        <f t="shared" ref="BQ28:BW28" si="75">BQ23-BQ27</f>
+        <v>33623.814999999973</v>
+      </c>
+      <c r="BR28" s="4">
         <f t="shared" si="75"/>
-        <v>37619</v>
-      </c>
-      <c r="BQ28" s="4">
-        <f t="shared" ref="BQ28:BW28" si="76">BQ23-BQ27</f>
-        <v>33623.814999999973</v>
-      </c>
-      <c r="BR28" s="4">
-        <f t="shared" si="76"/>
         <v>51866.383049999888</v>
       </c>
       <c r="BS28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>74242.49159650004</v>
       </c>
       <c r="BT28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>101805.75270964496</v>
       </c>
       <c r="BU28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>121752.66145819693</v>
       </c>
       <c r="BV28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>145125.57894547345</v>
       </c>
       <c r="BW28" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>172565.2584410306</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -4972,6 +5018,10 @@
         <f>1180-589-18</f>
         <v>573</v>
       </c>
+      <c r="AG29" s="2">
+        <f>-262+1256-603</f>
+        <v>391</v>
+      </c>
       <c r="AT29" s="2">
         <f>29.103-139.232</f>
         <v>-110.12899999999999</v>
@@ -5005,15 +5055,15 @@
         <v>-1456</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29" si="77">SUM(K29:N29)</f>
+        <f t="shared" ref="BL29" si="76">SUM(K29:N29)</f>
         <v>-766</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" ref="BM29" si="78">SUM(O29:R29)</f>
+        <f t="shared" ref="BM29" si="77">SUM(O29:R29)</f>
         <v>1353</v>
       </c>
       <c r="BN29" s="2">
-        <f t="shared" ref="BN29" si="79">SUM(S29:V29)</f>
+        <f t="shared" ref="BN29" si="78">SUM(S29:V29)</f>
         <v>13210</v>
       </c>
       <c r="BO29" s="2">
@@ -5029,31 +5079,31 @@
         <v>284.66000000000003</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" ref="BR29:BW29" si="80">+BQ47*$BZ$46</f>
+        <f t="shared" ref="BR29:BW29" si="79">+BQ47*$BZ$46</f>
         <v>572.8820374999998</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1018.6157907437488</v>
       </c>
       <c r="BT29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1658.3352035353212</v>
       </c>
       <c r="BU29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2537.7799507973536</v>
       </c>
       <c r="BV29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>3594.2487027738052</v>
       </c>
       <c r="BW29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>4858.3672377839066</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5065,7 +5115,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <f t="shared" ref="J30" si="81">J28+J29</f>
+        <f t="shared" ref="J30" si="80">J28+J29</f>
         <v>3350</v>
       </c>
       <c r="K30" s="4">
@@ -5073,7 +5123,7 @@
         <v>4401</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="82">L28+L29</f>
+        <f t="shared" ref="L30" si="81">L28+L29</f>
         <v>2889</v>
       </c>
       <c r="M30" s="4">
@@ -5081,15 +5131,15 @@
         <v>2632</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="83">N28+N29</f>
+        <f t="shared" ref="N30" si="82">N28+N29</f>
         <v>4053</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" ref="O30" si="84">O28+O29</f>
+        <f t="shared" ref="O30" si="83">O28+O29</f>
         <v>3383</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" ref="P30" si="85">P28+P29</f>
+        <f t="shared" ref="P30" si="84">P28+P29</f>
         <v>6221</v>
       </c>
       <c r="Q30" s="4">
@@ -5097,7 +5147,7 @@
         <v>6809</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="86">R28+R29</f>
+        <f t="shared" ref="R30" si="85">R28+R29</f>
         <v>7765</v>
       </c>
       <c r="S30" s="4">
@@ -5105,39 +5155,39 @@
         <v>10268</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:AF30" si="87">T28+T29</f>
+        <f t="shared" ref="T30:AG30" si="86">T28+T29</f>
         <v>8634</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>4315</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>14934</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>-5265</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2982</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2944</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>3247</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>4119</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>7563</v>
       </c>
       <c r="AC30" s="4">
@@ -5145,18 +5195,21 @@
         <v>12189</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>13686</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>12983</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>15246</v>
       </c>
-      <c r="AG30" s="4"/>
+      <c r="AG30" s="4">
+        <f t="shared" si="86"/>
+        <v>15649</v>
+      </c>
       <c r="AT30" s="2">
         <f>AT28+AT29</f>
         <v>-579.43899999999996</v>
@@ -5170,75 +5223,75 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG30" s="4">
-        <f t="shared" ref="BG30:BI30" si="88">BG28+BG29</f>
+        <f t="shared" ref="BG30:BI30" si="87">BG28+BG29</f>
         <v>-111</v>
       </c>
       <c r="BH30" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>1568</v>
       </c>
       <c r="BI30" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>3892</v>
       </c>
       <c r="BJ30" s="4">
-        <f t="shared" ref="BJ30" si="89">BJ28+BJ29</f>
+        <f t="shared" ref="BJ30" si="88">BJ28+BJ29</f>
         <v>3806</v>
       </c>
       <c r="BK30" s="4">
-        <f t="shared" ref="BK30:BL30" si="90">BK28+BK29</f>
+        <f t="shared" ref="BK30:BL30" si="89">BK28+BK29</f>
         <v>11261</v>
       </c>
       <c r="BL30" s="4">
+        <f t="shared" si="89"/>
+        <v>13975</v>
+      </c>
+      <c r="BM30" s="4">
+        <f t="shared" ref="BM30:BW30" si="90">BM28+BM29</f>
+        <v>24178</v>
+      </c>
+      <c r="BN30" s="4">
         <f t="shared" si="90"/>
-        <v>13975</v>
-      </c>
-      <c r="BM30" s="4">
-        <f t="shared" ref="BM30:BW30" si="91">BM28+BM29</f>
-        <v>24178</v>
-      </c>
-      <c r="BN30" s="4">
-        <f t="shared" si="91"/>
         <v>38151</v>
       </c>
       <c r="BO30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3908</v>
       </c>
       <c r="BP30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>37557</v>
       </c>
       <c r="BQ30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>33908.474999999977</v>
       </c>
       <c r="BR30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>52439.265087499887</v>
       </c>
       <c r="BS30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>75261.107387243785</v>
       </c>
       <c r="BT30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>103464.08791318028</v>
       </c>
       <c r="BU30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>124290.44140899429</v>
       </c>
       <c r="BV30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>148719.82764824724</v>
       </c>
       <c r="BW30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>177423.62567881451</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -5338,7 +5391,10 @@
         <f>1767-7</f>
         <v>1760</v>
       </c>
-      <c r="AG31" s="4"/>
+      <c r="AG31" s="4">
+        <f>2706+3</f>
+        <v>2709</v>
+      </c>
       <c r="AT31" s="2">
         <v>0</v>
       </c>
@@ -5369,15 +5425,15 @@
         <v>1188</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" ref="BL31" si="92">SUM(K31:N31)</f>
+        <f t="shared" ref="BL31" si="91">SUM(K31:N31)</f>
         <v>2387</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" ref="BM31" si="93">SUM(O31:R31)</f>
+        <f t="shared" ref="BM31" si="92">SUM(O31:R31)</f>
         <v>2847</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" ref="BN31" si="94">SUM(S31:V31)</f>
+        <f t="shared" ref="BN31" si="93">SUM(S31:V31)</f>
         <v>4787</v>
       </c>
       <c r="BO31" s="2">
@@ -5393,31 +5449,31 @@
         <v>5086.2712499999961</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" ref="BR31:BW31" si="95">+BR30*0.15</f>
+        <f t="shared" ref="BR31:BW31" si="94">+BR30*0.15</f>
         <v>7865.8897631249829</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>11289.166108086567</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>15519.613186977042</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>18643.566211349142</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>22307.974147237084</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>26613.543851822174</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -5429,7 +5485,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <f t="shared" ref="J32" si="96">J30-J31</f>
+        <f t="shared" ref="J32" si="95">J30-J31</f>
         <v>3027</v>
       </c>
       <c r="K32" s="4">
@@ -5437,7 +5493,7 @@
         <v>3561</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="97">L30-L31</f>
+        <f t="shared" ref="L32" si="96">L30-L31</f>
         <v>2625</v>
       </c>
       <c r="M32" s="4">
@@ -5445,15 +5501,15 @@
         <v>2134</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32" si="98">N30-N31</f>
+        <f t="shared" ref="N32" si="97">N30-N31</f>
         <v>3268</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" ref="O32" si="99">O30-O31</f>
+        <f t="shared" ref="O32" si="98">O30-O31</f>
         <v>2535</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32" si="100">P30-P31</f>
+        <f t="shared" ref="P32" si="99">P30-P31</f>
         <v>5243</v>
       </c>
       <c r="Q32" s="4">
@@ -5461,7 +5517,7 @@
         <v>6331</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" ref="R32" si="101">R30-R31</f>
+        <f t="shared" ref="R32" si="100">R30-R31</f>
         <v>7222</v>
       </c>
       <c r="S32" s="4">
@@ -5469,58 +5525,61 @@
         <v>8107</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" ref="T32:AF32" si="102">T30-T31</f>
+        <f t="shared" ref="T32:AG32" si="101">T30-T31</f>
         <v>7778</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3156</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>14323</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>-3844</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>2982</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>2872</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3247</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3172</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>6750</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>9879</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>10624</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>10431</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>13486</v>
       </c>
-      <c r="AG32" s="4"/>
+      <c r="AG32" s="4">
+        <f t="shared" si="101"/>
+        <v>12940</v>
+      </c>
       <c r="AT32" s="2">
         <f>AT30-AT31</f>
         <v>-579.43899999999996</v>
@@ -5534,71 +5593,71 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG32" s="4">
-        <f t="shared" ref="BG32:BI32" si="103">BG30-BG31</f>
+        <f t="shared" ref="BG32:BI32" si="102">BG30-BG31</f>
         <v>-241</v>
       </c>
       <c r="BH32" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>596</v>
       </c>
       <c r="BI32" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>2371</v>
       </c>
       <c r="BJ32" s="4">
-        <f t="shared" ref="BJ32" si="104">BJ30-BJ31</f>
+        <f t="shared" ref="BJ32" si="103">BJ30-BJ31</f>
         <v>3033</v>
       </c>
       <c r="BK32" s="4">
-        <f t="shared" ref="BK32:BL32" si="105">BK30-BK31</f>
+        <f t="shared" ref="BK32:BL32" si="104">BK30-BK31</f>
         <v>10073</v>
       </c>
       <c r="BL32" s="4">
+        <f t="shared" si="104"/>
+        <v>11588</v>
+      </c>
+      <c r="BM32" s="4">
+        <f t="shared" ref="BM32:BP32" si="105">BM30-BM31</f>
+        <v>21331</v>
+      </c>
+      <c r="BN32" s="4">
         <f t="shared" si="105"/>
-        <v>11588</v>
-      </c>
-      <c r="BM32" s="4">
-        <f t="shared" ref="BM32:BP32" si="106">BM30-BM31</f>
-        <v>21331</v>
-      </c>
-      <c r="BN32" s="4">
+        <v>33364</v>
+      </c>
+      <c r="BO32" s="4">
+        <f t="shared" si="105"/>
+        <v>5257</v>
+      </c>
+      <c r="BP32" s="4">
+        <f t="shared" si="105"/>
+        <v>30425</v>
+      </c>
+      <c r="BQ32" s="4">
+        <f t="shared" ref="BQ32:BW32" si="106">BQ30-BQ31</f>
+        <v>28822.203749999979</v>
+      </c>
+      <c r="BR32" s="4">
         <f t="shared" si="106"/>
-        <v>33364</v>
-      </c>
-      <c r="BO32" s="4">
+        <v>44573.375324374902</v>
+      </c>
+      <c r="BS32" s="4">
         <f t="shared" si="106"/>
-        <v>5257</v>
-      </c>
-      <c r="BP32" s="4">
+        <v>63971.941279157218</v>
+      </c>
+      <c r="BT32" s="4">
         <f t="shared" si="106"/>
-        <v>30425</v>
-      </c>
-      <c r="BQ32" s="4">
-        <f t="shared" ref="BQ32:BW32" si="107">BQ30-BQ31</f>
-        <v>28822.203749999979</v>
-      </c>
-      <c r="BR32" s="4">
-        <f t="shared" si="107"/>
-        <v>44573.375324374902</v>
-      </c>
-      <c r="BS32" s="4">
-        <f t="shared" si="107"/>
-        <v>63971.941279157218</v>
-      </c>
-      <c r="BT32" s="4">
-        <f t="shared" si="107"/>
         <v>87944.474726203232</v>
       </c>
       <c r="BU32" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>105646.87519764515</v>
       </c>
       <c r="BV32" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>126411.85350101016</v>
       </c>
       <c r="BW32" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="BX32" s="2">
@@ -5606,251 +5665,251 @@
         <v>150810.08182699233</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" ref="BY32:EG32" si="108">+BX32*(1+$BZ$47)</f>
+        <f t="shared" ref="BY32:EG32" si="107">+BX32*(1+$BZ$47)</f>
         <v>150810.08182699233</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EE32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EF32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EG32" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>150810.08182699233</v>
       </c>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -5862,7 +5921,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7">
-        <f t="shared" ref="J33" si="109">J32/J34</f>
+        <f t="shared" ref="J33" si="108">J32/J34</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="K33" s="7">
@@ -5870,7 +5929,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33" si="110">L32/L34</f>
+        <f t="shared" ref="L33" si="109">L32/L34</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="M33" s="7">
@@ -5878,15 +5937,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33" si="111">N32/N34</f>
+        <f t="shared" ref="N33" si="110">N32/N34</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33" si="112">O32/O34</f>
+        <f t="shared" ref="O33" si="111">O32/O34</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33" si="113">P32/P34</f>
+        <f t="shared" ref="P33" si="112">P32/P34</f>
         <v>10.300589390962672</v>
       </c>
       <c r="Q33" s="7">
@@ -5894,7 +5953,7 @@
         <v>12.365234375</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" ref="R33" si="114">R32/R34</f>
+        <f t="shared" ref="R33" si="113">R32/R34</f>
         <v>14.077972709551657</v>
       </c>
       <c r="S33" s="7">
@@ -5918,42 +5977,45 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" ref="X33:AF33" si="115">X32/X34</f>
+        <f t="shared" ref="X33:AG33" si="114">X32/X34</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.27799825767108705</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.31499805975941014</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.3065622885860636</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.64599483204134367</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.93568857738207989</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>1.0013195098963241</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.97760074976569822</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>1.2594322002241314</v>
       </c>
-      <c r="AG33" s="7"/>
+      <c r="AG33" s="7">
+        <f t="shared" si="114"/>
+        <v>1.2054028877503493</v>
+      </c>
       <c r="AT33" s="1">
         <f>AT32/AT34</f>
         <v>-1.5909431620681416</v>
@@ -5967,27 +6029,27 @@
         <v>0.60382208741105259</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="116">BG32/BG34</f>
+        <f t="shared" ref="BG33" si="115">BG32/BG34</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="117">BH32/BH34</f>
+        <f t="shared" ref="BH33" si="116">BH32/BH34</f>
         <v>1.249475890985325</v>
       </c>
       <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="118">BI32/BI34</f>
+        <f t="shared" ref="BI33" si="117">BI32/BI34</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="BJ33" s="7">
-        <f t="shared" ref="BJ33" si="119">BJ32/BJ34</f>
+        <f t="shared" ref="BJ33" si="118">BJ32/BJ34</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="BK33" s="7">
-        <f t="shared" ref="BK33:BL33" si="120">BK32/BK34</f>
+        <f t="shared" ref="BK33:BL33" si="119">BK32/BK34</f>
         <v>20.146000000000001</v>
       </c>
       <c r="BL33" s="7">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>23.014895729890764</v>
       </c>
       <c r="BM33" s="7">
@@ -5999,43 +6061,43 @@
         <v>6.1676679914964412</v>
       </c>
       <c r="BO33" s="7">
-        <f t="shared" ref="BO33:BP33" si="121">BO32/BO34</f>
+        <f t="shared" ref="BO33:BP33" si="120">BO32/BO34</f>
         <v>0.51665847665847664</v>
       </c>
       <c r="BP33" s="7">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>2.9001048517777144</v>
       </c>
       <c r="BQ33" s="7">
-        <f t="shared" ref="BQ33" si="122">BQ32/BQ34</f>
+        <f t="shared" ref="BQ33" si="121">BQ32/BQ34</f>
         <v>2.7473266371175273</v>
       </c>
       <c r="BR33" s="7">
-        <f t="shared" ref="BR33" si="123">BR32/BR34</f>
+        <f t="shared" ref="BR33" si="122">BR32/BR34</f>
         <v>4.2487251286221426</v>
       </c>
       <c r="BS33" s="7">
-        <f t="shared" ref="BS33" si="124">BS32/BS34</f>
+        <f t="shared" ref="BS33" si="123">BS32/BS34</f>
         <v>6.0977925154091333</v>
       </c>
       <c r="BT33" s="7">
-        <f t="shared" ref="BT33" si="125">BT32/BT34</f>
+        <f t="shared" ref="BT33" si="124">BT32/BT34</f>
         <v>8.3828495592606274</v>
       </c>
       <c r="BU33" s="7">
-        <f t="shared" ref="BU33" si="126">BU32/BU34</f>
+        <f t="shared" ref="BU33" si="125">BU32/BU34</f>
         <v>10.070238794933291</v>
       </c>
       <c r="BV33" s="7">
-        <f t="shared" ref="BV33" si="127">BV32/BV34</f>
+        <f t="shared" ref="BV33" si="126">BV32/BV34</f>
         <v>12.049552330665348</v>
       </c>
       <c r="BW33" s="7">
-        <f t="shared" ref="BW33" si="128">BW32/BW34</f>
+        <f t="shared" ref="BW33" si="127">BW32/BW34</f>
         <v>14.375186524353477</v>
       </c>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
@@ -6108,7 +6170,9 @@
       <c r="AF34" s="4">
         <v>10708</v>
       </c>
-      <c r="AG34" s="4"/>
+      <c r="AG34" s="4">
+        <v>10735</v>
+      </c>
       <c r="AR34" s="2">
         <v>161.096869</v>
       </c>
@@ -6161,31 +6225,31 @@
         <v>10491</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" ref="BR34:BW34" si="129">+BQ34</f>
+        <f t="shared" ref="BR34:BW34" si="128">+BQ34</f>
         <v>10491</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>10491</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>10491</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>10491</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>10491</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>10491</v>
       </c>
     </row>
-    <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6209,31 +6273,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" ref="P36:R36" si="130">P20/L20-1</f>
+        <f t="shared" ref="P36:R36" si="129">P20/L20-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36" si="131">S20/O20-1</f>
+        <f t="shared" ref="S36" si="130">S20/O20-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="132">T20/P20-1</f>
+        <f t="shared" ref="T36" si="131">T20/P20-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36" si="133">U20/Q20-1</f>
+        <f t="shared" ref="U36" si="132">U20/Q20-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36" si="134">V20/R20-1</f>
+        <f t="shared" ref="V36" si="133">V20/R20-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="W36" s="10">
@@ -6241,7 +6305,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36:AE36" si="135">X20/T20-1</f>
+        <f t="shared" ref="X36:AE36" si="134">X20/T20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Y36" s="10">
@@ -6249,7 +6313,7 @@
         <v>0.14699671515720314</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="AA36" s="10">
@@ -6257,19 +6321,19 @@
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="AB36" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.10845967302901816</v>
       </c>
       <c r="AC36" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.125742519728405</v>
       </c>
       <c r="AD36" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.13911825420230017</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.12527677884388888</v>
       </c>
       <c r="AF36" s="10">
@@ -6277,119 +6341,119 @@
         <v>0.10116607011303502</v>
       </c>
       <c r="AG36" s="10">
-        <f t="shared" ref="AG36:AL36" si="136">AG20/AC20-1</f>
+        <f t="shared" ref="AG36:AL36" si="135">AG20/AC20-1</f>
+        <v>0.11038348371225104</v>
+      </c>
+      <c r="AH36" s="10">
+        <f t="shared" si="135"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AH36" s="10">
+      <c r="AI36" s="10">
+        <f t="shared" si="135"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ36" s="10">
+        <f t="shared" si="135"/>
+        <v>-1</v>
+      </c>
+      <c r="AK36" s="10">
+        <f t="shared" si="135"/>
+        <v>-1</v>
+      </c>
+      <c r="AL36" s="10">
+        <f t="shared" si="135"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ36" s="15">
+        <f t="shared" ref="AQ36:AR36" si="136">AQ20/AP20-1</f>
+        <v>3.1263372285789677</v>
+      </c>
+      <c r="AR36" s="15">
         <f t="shared" si="136"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AI36" s="10">
-        <f t="shared" si="136"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ36" s="10">
-        <f t="shared" si="136"/>
-        <v>-1</v>
-      </c>
-      <c r="AK36" s="10">
-        <f t="shared" si="136"/>
-        <v>-1</v>
-      </c>
-      <c r="AL36" s="10">
-        <f t="shared" si="136"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36:AR36" si="137">AQ20/AP20-1</f>
-        <v>3.1263372285789677</v>
-      </c>
-      <c r="AR36" s="15">
-        <f t="shared" si="137"/>
         <v>1.6890585567192891</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" ref="AS36" si="138">AS20/AR20-1</f>
+        <f t="shared" ref="AS36" si="137">AS20/AR20-1</f>
         <v>0.68430132470321792</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" ref="AT36" si="139">AT20/AS20-1</f>
+        <f t="shared" ref="AT36" si="138">AT20/AS20-1</f>
         <v>0.1305040617556299</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" ref="AU36" si="140">AU20/AT20-1</f>
+        <f t="shared" ref="AU36" si="139">AU20/AT20-1</f>
         <v>0.25957418461821291</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" ref="AV36" si="141">AV20/AU20-1</f>
+        <f t="shared" ref="AV36" si="140">AV20/AU20-1</f>
         <v>0.3383637567455966</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="142">AW20/AV20-1</f>
+        <f t="shared" ref="AW36" si="141">AW20/AV20-1</f>
         <v>0.31485481977597884</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="143">AX20/AW20-1</f>
+        <f t="shared" ref="AX36" si="142">AX20/AW20-1</f>
         <v>0.22670134373645423</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="144">AY20/AX20-1</f>
+        <f t="shared" ref="AY36" si="143">AY20/AX20-1</f>
         <v>0.26160188457008249</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" ref="AZ36" si="145">AZ20/AY20-1</f>
+        <f t="shared" ref="AZ36" si="144">AZ20/AY20-1</f>
         <v>0.38502474092054895</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" ref="BA36" si="146">BA20/AZ20-1</f>
+        <f t="shared" ref="BA36" si="145">BA20/AZ20-1</f>
         <v>0.29194472531176263</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" ref="BB36" si="147">BB20/BA20-1</f>
+        <f t="shared" ref="BB36" si="146">BB20/BA20-1</f>
         <v>0.27877491391004905</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" ref="BC36" si="148">BC20/BB20-1</f>
+        <f t="shared" ref="BC36" si="147">BC20/BB20-1</f>
         <v>0.39556897466236896</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" ref="BD36" si="149">BD20/BC20-1</f>
+        <f t="shared" ref="BD36" si="148">BD20/BC20-1</f>
         <v>0.40559583674424049</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" ref="BE36" si="150">BE20/BD20-1</f>
+        <f t="shared" ref="BE36" si="149">BE20/BD20-1</f>
         <v>0.27073236682821311</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" ref="BF36:BJ36" si="151">BF20/BE20-1</f>
+        <f t="shared" ref="BF36:BJ36" si="150">BF20/BE20-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="BJ36" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="BK36" s="15">
-        <f t="shared" ref="BK36" si="152">BK20/BJ20-1</f>
+        <f t="shared" ref="BK36" si="151">BK20/BJ20-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="BL36" s="15">
-        <f t="shared" ref="BL36" si="153">BL20/BK20-1</f>
+        <f t="shared" ref="BL36" si="152">BL20/BK20-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="BM36" s="15">
-        <f t="shared" ref="BM36" si="154">BM20/BL20-1</f>
+        <f t="shared" ref="BM36" si="153">BM20/BL20-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="BN36" s="15">
@@ -6397,7 +6461,7 @@
         <v>0.21695366571345676</v>
       </c>
       <c r="BO36" s="15">
-        <f t="shared" ref="BO36:BW36" si="155">BO20/BN20-1</f>
+        <f t="shared" ref="BO36:BW36" si="154">BO20/BN20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="BP36" s="15">
@@ -6405,35 +6469,35 @@
         <v>0.1182957412988368</v>
       </c>
       <c r="BQ36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>9.7052376105848381E-2</v>
       </c>
       <c r="BR36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.10437523317224873</v>
       </c>
       <c r="BS36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.11263099590824455</v>
       </c>
       <c r="BT36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.12181773034139209</v>
       </c>
       <c r="BU36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>9.4732369013925899E-2</v>
       </c>
       <c r="BV36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>9.9033758693974017E-2</v>
       </c>
       <c r="BW36" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.10353840131598058</v>
       </c>
     </row>
-    <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>123</v>
       </c>
@@ -6462,14 +6526,24 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
+      <c r="AB37" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0.13</v>
+      </c>
       <c r="AF37" s="10">
         <v>0.11</v>
       </c>
-      <c r="AG37" s="10"/>
+      <c r="AG37" s="10">
+        <v>0.11</v>
+      </c>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
       <c r="AJ37" s="10"/>
@@ -6509,7 +6583,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -6519,99 +6593,99 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f t="shared" ref="O38:R39" si="156">+O18/K18-1</f>
+        <f t="shared" ref="O38:R39" si="155">+O18/K18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="P38" s="8">
+        <f t="shared" si="155"/>
+        <v>0.40127175368139234</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="155"/>
+        <v>0.32844988168957356</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" si="155"/>
+        <v>0.40588025800324479</v>
+      </c>
+      <c r="S38" s="8">
+        <f t="shared" ref="S38:W38" si="156">+S18/O18-1</f>
+        <v>0.37403503740350375</v>
+      </c>
+      <c r="T38" s="8">
         <f t="shared" si="156"/>
-        <v>0.40127175368139234</v>
-      </c>
-      <c r="Q38" s="8">
+        <v>0.15444630204601539</v>
+      </c>
+      <c r="U38" s="8">
         <f t="shared" si="156"/>
-        <v>0.32844988168957356</v>
-      </c>
-      <c r="R38" s="8">
+        <v>3.9830219426232549E-2</v>
+      </c>
+      <c r="V38" s="8">
         <f t="shared" si="156"/>
-        <v>0.40588025800324479</v>
-      </c>
-      <c r="S38" s="8">
-        <f t="shared" ref="S38:W38" si="157">+S18/O18-1</f>
-        <v>0.37403503740350375</v>
-      </c>
-      <c r="T38" s="8">
+        <v>5.0664264805224679E-3</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="156"/>
+        <v>-1.8020211859247515E-2</v>
+      </c>
+      <c r="X38" s="8">
+        <f t="shared" ref="X38:AF38" si="157">+X18/T18-1</f>
+        <v>-2.4636231984001111E-2</v>
+      </c>
+      <c r="Y38" s="8">
         <f t="shared" si="157"/>
-        <v>0.15444630204601539</v>
-      </c>
-      <c r="U38" s="8">
+        <v>8.1347036956046281E-2</v>
+      </c>
+      <c r="Z38" s="8">
         <f t="shared" si="157"/>
-        <v>3.9830219426232549E-2</v>
-      </c>
-      <c r="V38" s="8">
+        <v>-1.2392181023860194E-2</v>
+      </c>
+      <c r="AA38" s="8">
         <f t="shared" si="157"/>
-        <v>5.0664264805224679E-3</v>
-      </c>
-      <c r="W38" s="8">
+        <v>9.317155256398868E-3</v>
+      </c>
+      <c r="AB38" s="8">
         <f t="shared" si="157"/>
-        <v>-1.8020211859247515E-2</v>
-      </c>
-      <c r="X38" s="8">
-        <f t="shared" ref="X38:AF38" si="158">+X18/T18-1</f>
-        <v>-2.4636231984001111E-2</v>
-      </c>
-      <c r="Y38" s="8">
+        <v>4.342907644719407E-2</v>
+      </c>
+      <c r="AC38" s="8">
+        <f t="shared" si="157"/>
+        <v>6.4560161779575242E-2</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="157"/>
+        <v>8.7507620762501626E-2</v>
+      </c>
+      <c r="AE38" s="8">
+        <f t="shared" si="157"/>
+        <v>6.9040557378775347E-2</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="157"/>
+        <v>4.2976690608483636E-2</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" ref="AG38:AL38" si="158">+AG18/AC18-1</f>
+        <v>7.0127115290243847E-2</v>
+      </c>
+      <c r="AH38" s="8">
         <f t="shared" si="158"/>
-        <v>8.1347036956046281E-2</v>
-      </c>
-      <c r="Z38" s="8">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AI38" s="8">
         <f t="shared" si="158"/>
-        <v>-1.2392181023860194E-2</v>
-      </c>
-      <c r="AA38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AJ38" s="8">
         <f t="shared" si="158"/>
-        <v>9.317155256398868E-3</v>
-      </c>
-      <c r="AB38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK38" s="8">
         <f t="shared" si="158"/>
-        <v>4.342907644719407E-2</v>
-      </c>
-      <c r="AC38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AL38" s="8">
         <f t="shared" si="158"/>
-        <v>6.4560161779575242E-2</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="158"/>
-        <v>8.7507620762501626E-2</v>
-      </c>
-      <c r="AE38" s="8">
-        <f t="shared" si="158"/>
-        <v>6.9040557378775347E-2</v>
-      </c>
-      <c r="AF38" s="8">
-        <f t="shared" si="158"/>
-        <v>4.2976690608483636E-2</v>
-      </c>
-      <c r="AG38" s="8">
-        <f t="shared" ref="AG38:AL38" si="159">+AG18/AC18-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AH38" s="8">
-        <f t="shared" si="159"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AI38" s="8">
-        <f t="shared" si="159"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ38" s="8">
-        <f t="shared" si="159"/>
-        <v>-1</v>
-      </c>
-      <c r="AK38" s="8">
-        <f t="shared" si="159"/>
-        <v>-1</v>
-      </c>
-      <c r="AL38" s="8">
-        <f t="shared" si="159"/>
         <v>-1</v>
       </c>
       <c r="BF38" s="13"/>
@@ -6633,7 +6707,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -6643,55 +6717,55 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>0.32238265727662596</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>0.40365906780891536</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>0.43351512146752613</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="160">+S19/O19-1</f>
+        <f t="shared" ref="S39" si="159">+S19/O19-1</f>
         <v>0.5181636964089138</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="161">+T19/P19-1</f>
+        <f t="shared" ref="T39" si="160">+T19/P19-1</f>
         <v>0.42433019551049966</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="162">+U19/Q19-1</f>
+        <f t="shared" ref="U39" si="161">+U19/Q19-1</f>
         <v>0.28970971386410271</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="163">+V19/R19-1</f>
+        <f t="shared" ref="V39" si="162">+V19/R19-1</f>
         <v>0.21095799922934355</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39:AA39" si="164">+W19/S19-1</f>
+        <f t="shared" ref="W39:AA39" si="163">+W19/S19-1</f>
         <v>0.17563250827993016</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>0.17399593289273008</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>0.21140231693363853</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>0.19208739923631746</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>0.17316508026471511</v>
       </c>
       <c r="AB39" s="8">
@@ -6715,27 +6789,27 @@
         <v>0.14675319504717921</v>
       </c>
       <c r="AG39" s="8">
-        <f t="shared" ref="AG39:AL39" si="165">+AG19/AC19-1</f>
+        <f t="shared" ref="AG39:AL39" si="164">+AG19/AC19-1</f>
+        <v>0.14220642706977671</v>
+      </c>
+      <c r="AH39" s="8">
+        <f t="shared" si="164"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AH39" s="8">
-        <f t="shared" si="165"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="AI39" s="8">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="AJ39" s="8">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="AK39" s="8">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="AL39" s="8">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="BF39" s="13"/>
@@ -6757,44 +6831,44 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40" si="166">+N11/J11-1</f>
+        <f t="shared" ref="N40" si="165">+N11/J11-1</f>
         <v>0.14652704535181549</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" ref="O40" si="167">+O11/K11-1</f>
+        <f t="shared" ref="O40" si="166">+O11/K11-1</f>
         <v>0.24252491694352152</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="168">+P11/L11-1</f>
+        <f t="shared" ref="P40" si="167">+P11/L11-1</f>
         <v>0.47798924419540789</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="169">+Q11/M11-1</f>
+        <f t="shared" ref="Q40" si="168">+Q11/M11-1</f>
         <v>0.37989097862381915</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:V40" si="170">+R11/N11-1</f>
+        <f t="shared" ref="R40:V40" si="169">+R11/N11-1</f>
         <v>0.45543947258908823</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>0.44333187820582776</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>0.15820550810528156</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>3.2926577042399208E-2</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>-5.6583046154309313E-3</v>
       </c>
       <c r="W40" s="8">
@@ -6802,31 +6876,31 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AD40" si="171">+X11/T11-1</f>
+        <f t="shared" ref="X40:AD40" si="170">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>7.0631344762474457E-2</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>9.3164525576854507E-2</v>
       </c>
       <c r="AE40" s="8">
@@ -6838,36 +6912,36 @@
         <v>4.5802967941698469E-2</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40:AL40" si="172">+AG11/AC11-1</f>
+        <f t="shared" ref="AG40:AL40" si="171">+AG11/AC11-1</f>
+        <v>7.2362791834738927E-2</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" si="171"/>
         <v>-1</v>
       </c>
-      <c r="AH40" s="8">
-        <f t="shared" si="172"/>
+      <c r="AI40" s="8">
+        <f t="shared" si="171"/>
         <v>-1</v>
       </c>
-      <c r="AI40" s="8">
-        <f t="shared" si="172"/>
+      <c r="AJ40" s="8">
+        <f t="shared" si="171"/>
         <v>-1</v>
       </c>
-      <c r="AJ40" s="8">
-        <f t="shared" si="172"/>
+      <c r="AK40" s="8">
+        <f t="shared" si="171"/>
         <v>-1</v>
       </c>
-      <c r="AK40" s="8" t="e">
-        <f t="shared" si="172"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AL40" s="8" t="e">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="173">BL11/BK11-1</f>
+        <f t="shared" ref="BL40" si="172">BL11/BK11-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="174">BM11/BL11-1</f>
+        <f t="shared" ref="BM40" si="173">BM11/BL11-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="BN40" s="13">
@@ -6875,80 +6949,80 @@
         <v>0.12529072860769497</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="175">BO11/BN11-1</f>
+        <f t="shared" ref="BO40:BW40" si="174">BO11/BN11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.3944473736841081E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW40" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V41" si="176">+N13/J13-1</f>
+        <f t="shared" ref="N41:V41" si="175">+N13/J13-1</f>
         <v>0.30359411193304942</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.54677565849227983</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.56637624670411557</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.63747496374058987</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.37867546029128873</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.18672930123311793</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.10952537783144867</v>
       </c>
       <c r="W41" s="8">
@@ -6956,72 +7030,72 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AD41" si="177">+X13/T13-1</f>
+        <f t="shared" ref="X41:AD41" si="176">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y41" s="8">
+        <f t="shared" si="176"/>
+        <v>0.18200560778492503</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="176"/>
+        <v>0.19851583113456472</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="176"/>
+        <v>0.177027827116637</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="176"/>
+        <v>0.18103448275862077</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="176"/>
+        <v>0.19800460475825021</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="176"/>
+        <v>0.19868460882247718</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" ref="AE41:AL43" si="177">+AE13/AA13-1</f>
+        <v>0.16016096579476868</v>
+      </c>
+      <c r="AF41" s="8">
         <f t="shared" si="177"/>
-        <v>0.18200560778492503</v>
-      </c>
-      <c r="Z41" s="8">
+        <v>0.11966472844240994</v>
+      </c>
+      <c r="AG41" s="8">
         <f t="shared" si="177"/>
-        <v>0.19851583113456472</v>
-      </c>
-      <c r="AA41" s="8">
+        <v>0.10255663618892319</v>
+      </c>
+      <c r="AH41" s="8">
         <f t="shared" si="177"/>
-        <v>0.177027827116637</v>
-      </c>
-      <c r="AB41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AI41" s="8">
         <f t="shared" si="177"/>
-        <v>0.18103448275862077</v>
-      </c>
-      <c r="AC41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AJ41" s="8">
         <f t="shared" si="177"/>
-        <v>0.19800460475825021</v>
-      </c>
-      <c r="AD41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK41" s="8">
         <f t="shared" si="177"/>
-        <v>0.19868460882247718</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" ref="AE41:AL43" si="178">+AE13/AA13-1</f>
-        <v>0.16016096579476868</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="178"/>
-        <v>0.11966472844240994</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="178"/>
         <v>-1</v>
       </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="178"/>
-        <v>-1</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" si="178"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="178"/>
-        <v>-1</v>
-      </c>
-      <c r="AK41" s="8" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AL41" s="8" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="179">BL13/BK13-1</f>
+        <f t="shared" ref="BL41" si="178">BL13/BK13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="180">BM13/BL13-1</f>
+        <f t="shared" ref="BM41" si="179">BM13/BL13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BN41" s="13">
@@ -7029,80 +7103,80 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="181">BO13/BN13-1</f>
+        <f t="shared" ref="BO41:BW41" si="180">BO13/BN13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW41" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:V43" si="182">+N14/J14-1</f>
+        <f t="shared" ref="N42:V43" si="181">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W42" s="8">
@@ -7110,72 +7184,72 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42:AD43" si="183">+X14/T14-1</f>
+        <f t="shared" ref="X42:AD43" si="182">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>9.824135839902981E-2</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
+        <v>0.10894788593903648</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AH42" s="8">
-        <f t="shared" si="178"/>
+      <c r="AI42" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AI42" s="8">
-        <f t="shared" si="178"/>
+      <c r="AJ42" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AJ42" s="8">
-        <f t="shared" si="178"/>
+      <c r="AK42" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AK42" s="8" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AL42" s="8" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="184">BL14/BK14-1</f>
+        <f t="shared" ref="BL42" si="183">BL14/BK14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="185">BM14/BL14-1</f>
+        <f t="shared" ref="BM42" si="184">BM14/BL14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BN42" s="13">
@@ -7183,266 +7257,266 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="186">BO14/BN14-1</f>
+        <f t="shared" ref="BO42:BW42" si="185">BO14/BN14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.41145218417945695</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.43814432989690721</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.40606262491672229</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.50529838259899607</v>
+      </c>
+      <c r="R43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.53701380175658731</v>
+      </c>
+      <c r="S43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.63364055299539168</v>
+      </c>
+      <c r="T43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.76522151149016815</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.41015190811411628</v>
+      </c>
+      <c r="V43" s="8">
+        <f t="shared" si="181"/>
+        <v>0.32190476190476192</v>
+      </c>
+      <c r="W43" s="8">
+        <f t="shared" ref="W43" si="186">+W15/S15-1</f>
+        <v>0.23444601159692846</v>
+      </c>
+      <c r="X43" s="8">
         <f t="shared" si="182"/>
-        <v>0.41145218417945695</v>
-      </c>
-      <c r="O43" s="8">
+        <v>0.17527848610924712</v>
+      </c>
+      <c r="Y43" s="8">
         <f t="shared" si="182"/>
-        <v>0.43814432989690721</v>
-      </c>
-      <c r="P43" s="8">
+        <v>0.25433526011560703</v>
+      </c>
+      <c r="Z43" s="8">
         <f t="shared" si="182"/>
-        <v>0.40606262491672229</v>
-      </c>
-      <c r="Q43" s="8">
+        <v>0.18948126801152743</v>
+      </c>
+      <c r="AA43" s="8">
         <f t="shared" si="182"/>
-        <v>0.50529838259899607</v>
-      </c>
-      <c r="R43" s="8">
+        <v>0.20718547670432907</v>
+      </c>
+      <c r="AB43" s="8">
         <f t="shared" si="182"/>
-        <v>0.53701380175658731</v>
-      </c>
-      <c r="S43" s="8">
+        <v>0.21993833504624871</v>
+      </c>
+      <c r="AC43" s="8">
         <f t="shared" si="182"/>
-        <v>0.63364055299539168</v>
-      </c>
-      <c r="T43" s="8">
+        <v>0.26309174696271476</v>
+      </c>
+      <c r="AD43" s="8">
         <f t="shared" si="182"/>
-        <v>0.76522151149016815</v>
-      </c>
-      <c r="U43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.41015190811411628</v>
-      </c>
-      <c r="V43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.32190476190476192</v>
-      </c>
-      <c r="W43" s="8">
-        <f t="shared" ref="W43" si="187">+W15/S15-1</f>
-        <v>0.23444601159692846</v>
-      </c>
-      <c r="X43" s="8">
-        <f t="shared" si="183"/>
-        <v>0.17527848610924712</v>
-      </c>
-      <c r="Y43" s="8">
-        <f t="shared" si="183"/>
-        <v>0.25433526011560703</v>
-      </c>
-      <c r="Z43" s="8">
-        <f t="shared" si="183"/>
-        <v>0.18948126801152743</v>
-      </c>
-      <c r="AA43" s="8">
-        <f t="shared" si="183"/>
-        <v>0.20718547670432907</v>
-      </c>
-      <c r="AB43" s="8">
-        <f t="shared" si="183"/>
-        <v>0.21993833504624871</v>
-      </c>
-      <c r="AC43" s="8">
-        <f t="shared" si="183"/>
-        <v>0.26309174696271476</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="183"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.19545071609098574</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
+        <v>0.18830845771144289</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AH43" s="8">
-        <f t="shared" si="178"/>
+      <c r="AI43" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AI43" s="8">
-        <f t="shared" si="178"/>
+      <c r="AJ43" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AJ43" s="8">
-        <f t="shared" si="178"/>
+      <c r="AK43" s="8">
+        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AK43" s="8" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AL43" s="8" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="188">BL15/BK15-1</f>
+        <f t="shared" ref="BL43" si="187">BL15/BK15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="189">BM15/BL15-1</f>
+        <f t="shared" ref="BM43:BN43" si="188">BM15/BL15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BN43" s="13">
+        <f t="shared" si="188"/>
+        <v>0.49269461077844312</v>
+      </c>
+      <c r="BO43" s="13">
+        <f t="shared" ref="BO43:BW43" si="189">BO15/BN15-1</f>
+        <v>0.21113607188703476</v>
+      </c>
+      <c r="BP43" s="13">
         <f t="shared" si="189"/>
-        <v>0.49269461077844312</v>
-      </c>
-      <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="190">BO15/BN15-1</f>
-        <v>0.21113607188703476</v>
-      </c>
-      <c r="BP43" s="13">
-        <f t="shared" si="190"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW43" s="13">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44:O44" si="191">N9/J9-1</f>
+        <f t="shared" ref="N44:O44" si="190">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="192">P9/L9-1</f>
+        <f t="shared" ref="P44" si="191">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="193">Q9/M9-1</f>
+        <f t="shared" ref="Q44" si="192">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="194">R9/N9-1</f>
+        <f t="shared" ref="R44" si="193">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44" si="195">S9/O9-1</f>
+        <f t="shared" ref="S44" si="194">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44" si="196">T9/P9-1</f>
+        <f t="shared" ref="T44" si="195">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44" si="197">U9/Q9-1</f>
+        <f t="shared" ref="U44" si="196">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" ref="V44:AA44" si="198">V9/R9-1</f>
+        <f t="shared" ref="V44:AA44" si="197">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W44" s="8">
+        <f t="shared" si="197"/>
+        <v>0.36569651188624741</v>
+      </c>
+      <c r="X44" s="8">
+        <f t="shared" si="197"/>
+        <v>0.33290566547369838</v>
+      </c>
+      <c r="Y44" s="8">
+        <f t="shared" si="197"/>
+        <v>0.27486033519553077</v>
+      </c>
+      <c r="Z44" s="8">
+        <f t="shared" si="197"/>
+        <v>0.20236220472440936</v>
+      </c>
+      <c r="AA44" s="8">
+        <f t="shared" si="197"/>
+        <v>0.157963234097934</v>
+      </c>
+      <c r="AB44" s="8">
+        <f t="shared" ref="AB44:AD44" si="198">AB9/X9-1</f>
+        <v>0.12163736764780375</v>
+      </c>
+      <c r="AC44" s="8">
         <f t="shared" si="198"/>
-        <v>0.36569651188624741</v>
-      </c>
-      <c r="X44" s="8">
+        <v>0.1227480767358069</v>
+      </c>
+      <c r="AD44" s="8">
         <f t="shared" si="198"/>
-        <v>0.33290566547369838</v>
-      </c>
-      <c r="Y44" s="8">
-        <f t="shared" si="198"/>
-        <v>0.27486033519553077</v>
-      </c>
-      <c r="Z44" s="8">
-        <f t="shared" si="198"/>
-        <v>0.20236220472440936</v>
-      </c>
-      <c r="AA44" s="8">
-        <f t="shared" si="198"/>
-        <v>0.157963234097934</v>
-      </c>
-      <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AD44" si="199">AB9/X9-1</f>
-        <v>0.12163736764780375</v>
-      </c>
-      <c r="AC44" s="8">
-        <f t="shared" si="199"/>
-        <v>0.1227480767358069</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="199"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE44" s="8">
@@ -7454,51 +7528,51 @@
         <v>0.18703703703703711</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" ref="AG44:AL44" si="200">AG9/AC9-1</f>
+        <f t="shared" ref="AG44:AL44" si="199">AG9/AC9-1</f>
+        <v>0.1905112971074201</v>
+      </c>
+      <c r="AH44" s="8">
+        <f t="shared" si="199"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AH44" s="8">
+      <c r="AI44" s="8">
+        <f t="shared" si="199"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ44" s="8">
+        <f t="shared" si="199"/>
+        <v>-1</v>
+      </c>
+      <c r="AK44" s="8">
+        <f t="shared" si="199"/>
+        <v>-1</v>
+      </c>
+      <c r="AL44" s="8">
+        <f t="shared" si="199"/>
+        <v>-1</v>
+      </c>
+      <c r="BH44" s="13">
+        <f t="shared" ref="BH44:BJ44" si="200">BH9/BG9-1</f>
+        <v>0.69681309216192933</v>
+      </c>
+      <c r="BI44" s="13">
         <f t="shared" si="200"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI44" s="8">
+        <v>0.55063451776649752</v>
+      </c>
+      <c r="BJ44" s="13">
         <f t="shared" si="200"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ44" s="8">
-        <f t="shared" si="200"/>
-        <v>-1</v>
-      </c>
-      <c r="AK44" s="8">
-        <f t="shared" si="200"/>
-        <v>-1</v>
-      </c>
-      <c r="AL44" s="8">
-        <f t="shared" si="200"/>
-        <v>-1</v>
-      </c>
-      <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="201">BH9/BG9-1</f>
-        <v>0.69681309216192933</v>
-      </c>
-      <c r="BI44" s="13">
-        <f t="shared" si="201"/>
-        <v>0.55063451776649752</v>
-      </c>
-      <c r="BJ44" s="13">
-        <f t="shared" si="201"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="202">BK9/BJ9-1</f>
+        <f t="shared" ref="BK44" si="201">BK9/BJ9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="203">BL9/BK9-1</f>
+        <f t="shared" ref="BL44" si="202">BL9/BK9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="204">BM9/BL9-1</f>
+        <f t="shared" ref="BM44" si="203">BM9/BL9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BN44" s="13">
@@ -7506,43 +7580,43 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="205">BO9/BN9-1</f>
+        <f t="shared" ref="BO44:BW44" si="204">BO9/BN9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BP44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BQ44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BR44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BS44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BT44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BU44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BV44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BW44" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:78" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
@@ -7554,27 +7628,27 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
-        <f t="shared" ref="J45:O45" si="206">J23/J20</f>
+        <f t="shared" ref="J45:O45" si="205">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P45" s="16">
@@ -7594,11 +7668,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" ref="T45:W45" si="207">T23/T20</f>
+        <f t="shared" ref="T45:W45" si="206">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V45" s="16">
@@ -7606,11 +7680,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" ref="X45:AD45" si="208">X23/X20</f>
+        <f t="shared" ref="X45:AD45" si="207">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y45" s="16">
@@ -7626,15 +7700,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE45" s="17">
@@ -7646,55 +7720,55 @@
         <v>0.3421251807701145</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AL45" si="209">AG23/AG20</f>
+        <f t="shared" ref="AG45:AL45" si="208">AG23/AG20</f>
+        <v>0.33510199714244354</v>
+      </c>
+      <c r="AH45" s="16">
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
-      <c r="AH45" s="16">
+      <c r="AI45" s="16" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ45" s="16" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK45" s="16" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL45" s="16" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG45" s="14">
+        <f t="shared" ref="BG45:BI45" si="209">BG23/BG20</f>
+        <v>0.17384366431428958</v>
+      </c>
+      <c r="BH45" s="14">
         <f t="shared" si="209"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="16" t="e">
+        <v>0.20508195802104554</v>
+      </c>
+      <c r="BI45" s="14">
         <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ45" s="16" t="e">
-        <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK45" s="16" t="e">
-        <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL45" s="16" t="e">
-        <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="210">BG23/BG20</f>
-        <v>0.17384366431428958</v>
-      </c>
-      <c r="BH45" s="14">
-        <f t="shared" si="210"/>
-        <v>0.20508195802104554</v>
-      </c>
-      <c r="BI45" s="14">
-        <f t="shared" si="210"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="211">BJ23/BJ20</f>
+        <f t="shared" ref="BJ45" si="210">BJ23/BJ20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="212">BK23/BK20</f>
+        <f t="shared" ref="BK45:BL45" si="211">BK23/BK20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="BL45" s="14">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="213">BM23/BM20</f>
+        <f t="shared" ref="BM45" si="212">BM23/BM20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BN45" s="14">
@@ -7702,39 +7776,39 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="214">BO23/BO20</f>
+        <f t="shared" ref="BO45:BW45" si="213">BO23/BO20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.28495847997662427</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.29051526396001626</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.29581068980258746</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.30074780240646226</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.30071724610417139</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.30068524592936513</v>
       </c>
       <c r="BW45" s="14">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.30065200107669582</v>
       </c>
       <c r="BY45" t="s">
@@ -7744,7 +7818,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.2">
       <c r="BY46" t="s">
         <v>76</v>
       </c>
@@ -7752,83 +7826,86 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:P47" si="215">+O48-O61</f>
+        <f t="shared" ref="O47:P47" si="214">+O48-O61</f>
         <v>25855</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>38263</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="216">+Q48-Q61</f>
+        <f t="shared" ref="Q47" si="215">+Q48-Q61</f>
         <v>35473</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" ref="R47:AB47" si="217">+R48-R61</f>
+        <f t="shared" ref="R47:AB47" si="216">+R48-R61</f>
         <v>52580</v>
       </c>
       <c r="S47" s="4">
+        <f t="shared" si="216"/>
+        <v>41402</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="216"/>
+        <v>39615</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="216"/>
+        <v>28933</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="216"/>
+        <v>47305</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="216"/>
+        <v>18829</v>
+      </c>
+      <c r="X47" s="4">
+        <f t="shared" si="216"/>
+        <v>2657</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" si="216"/>
+        <v>-257</v>
+      </c>
+      <c r="Z47" s="4">
+        <f t="shared" si="216"/>
+        <v>2876</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" si="216"/>
+        <v>-2679</v>
+      </c>
+      <c r="AB47" s="4">
+        <f t="shared" si="216"/>
+        <v>878</v>
+      </c>
+      <c r="AC47" s="4">
+        <f t="shared" ref="AC47:AD47" si="217">+AC48-AC61</f>
+        <v>3071</v>
+      </c>
+      <c r="AD47" s="4">
         <f t="shared" si="217"/>
-        <v>41402</v>
-      </c>
-      <c r="T47" s="4">
-        <f t="shared" si="217"/>
-        <v>39615</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="217"/>
-        <v>28933</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="217"/>
-        <v>47305</v>
-      </c>
-      <c r="W47" s="4">
-        <f t="shared" si="217"/>
-        <v>18829</v>
-      </c>
-      <c r="X47" s="4">
-        <f t="shared" si="217"/>
-        <v>2657</v>
-      </c>
-      <c r="Y47" s="4">
-        <f t="shared" si="217"/>
-        <v>-257</v>
-      </c>
-      <c r="Z47" s="4">
-        <f t="shared" si="217"/>
-        <v>2876</v>
-      </c>
-      <c r="AA47" s="4">
-        <f t="shared" si="217"/>
-        <v>-2679</v>
-      </c>
-      <c r="AB47" s="4">
-        <f t="shared" si="217"/>
-        <v>878</v>
-      </c>
-      <c r="AC47" s="4">
-        <f t="shared" ref="AC47:AD47" si="218">+AC48-AC61</f>
-        <v>3071</v>
-      </c>
-      <c r="AD47" s="4">
+        <v>28466</v>
+      </c>
+      <c r="AE47" s="4">
+        <f t="shared" ref="AE47:AF47" si="218">+AE48-AE61</f>
+        <v>27440</v>
+      </c>
+      <c r="AF47" s="4">
         <f t="shared" si="218"/>
-        <v>28466</v>
-      </c>
-      <c r="AE47" s="4">
-        <f t="shared" ref="AE47:AF47" si="219">+AE48-AE61</f>
-        <v>27440</v>
-      </c>
-      <c r="AF47" s="4">
-        <f t="shared" si="219"/>
         <v>34203</v>
       </c>
-      <c r="AG47" s="4"/>
+      <c r="AG47" s="4">
+        <f>+AG48-AG61</f>
+        <v>33161</v>
+      </c>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
@@ -7851,27 +7928,27 @@
         <v>57288.203749999979</v>
       </c>
       <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="220">+BQ47+BR32</f>
+        <f t="shared" ref="BR47:BW47" si="219">+BQ47+BR32</f>
         <v>101861.57907437488</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>165833.52035353211</v>
       </c>
       <c r="BT47" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>253777.99507973535</v>
       </c>
       <c r="BU47" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>359424.87027738051</v>
       </c>
       <c r="BV47" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>485836.72377839067</v>
       </c>
       <c r="BW47" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>636646.80560538301</v>
       </c>
       <c r="BY47" t="s">
@@ -7881,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -7969,15 +8046,19 @@
         <f>71178+17914</f>
         <v>89092</v>
       </c>
+      <c r="AG48" s="2">
+        <f>75091+12960</f>
+        <v>88051</v>
+      </c>
       <c r="BY48" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BP32:EG32)+Main!K5-Main!K6</f>
-        <v>1461008.3940996223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1459966.3940996223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
@@ -8047,12 +8128,15 @@
       <c r="AF49" s="2">
         <v>34109</v>
       </c>
+      <c r="AG49" s="2">
+        <v>36103</v>
+      </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>136.44082873548956</v>
-      </c>
-    </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138.84592160567925</v>
+      </c>
+    </row>
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -8122,8 +8206,11 @@
       <c r="AF50" s="2">
         <v>50106</v>
       </c>
-    </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG50" s="2">
+        <v>51638</v>
+      </c>
+    </row>
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -8193,8 +8280,11 @@
       <c r="AF51" s="2">
         <v>220717</v>
       </c>
-    </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG51" s="2">
+        <v>237917</v>
+      </c>
+    </row>
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8264,8 +8354,11 @@
       <c r="AF52" s="2">
         <v>74575</v>
       </c>
-    </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG52" s="2">
+        <v>76527</v>
+      </c>
+    </row>
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -8336,8 +8429,11 @@
       <c r="AF53" s="2">
         <v>22879</v>
       </c>
-    </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG53" s="2">
+        <v>23081</v>
+      </c>
+    </row>
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
@@ -8407,8 +8503,11 @@
       <c r="AF54" s="2">
         <v>63340</v>
       </c>
-    </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG54" s="2">
+        <v>71309</v>
+      </c>
+    </row>
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -8425,79 +8524,83 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:P55" si="221">SUM(O48:O54)</f>
+        <f t="shared" ref="O55:P55" si="220">SUM(O48:O54)</f>
         <v>221238</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>258314</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" ref="Q55" si="222">SUM(Q48:Q54)</f>
+        <f t="shared" ref="Q55" si="221">SUM(Q48:Q54)</f>
         <v>282179</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55:AB55" si="223">SUM(R48:R54)</f>
+        <f t="shared" ref="R55:AB55" si="222">SUM(R48:R54)</f>
         <v>321195</v>
       </c>
       <c r="S55" s="4">
+        <f t="shared" si="222"/>
+        <v>323077</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="222"/>
+        <v>360319</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="222"/>
+        <v>382406</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" si="222"/>
+        <v>420549</v>
+      </c>
+      <c r="W55" s="4">
+        <f t="shared" si="222"/>
+        <v>410767</v>
+      </c>
+      <c r="X55" s="4">
+        <f t="shared" si="222"/>
+        <v>419728</v>
+      </c>
+      <c r="Y55" s="4">
+        <f t="shared" si="222"/>
+        <v>428362</v>
+      </c>
+      <c r="Z55" s="4">
+        <f t="shared" si="222"/>
+        <v>462675</v>
+      </c>
+      <c r="AA55" s="4">
+        <f t="shared" si="222"/>
+        <v>464378</v>
+      </c>
+      <c r="AB55" s="4">
+        <f t="shared" si="222"/>
+        <v>477607</v>
+      </c>
+      <c r="AC55" s="4">
+        <f t="shared" ref="AC55:AD55" si="223">SUM(AC48:AC54)</f>
+        <v>486883</v>
+      </c>
+      <c r="AD55" s="4">
         <f t="shared" si="223"/>
-        <v>323077</v>
-      </c>
-      <c r="T55" s="4">
-        <f t="shared" si="223"/>
-        <v>360319</v>
-      </c>
-      <c r="U55" s="4">
-        <f t="shared" si="223"/>
-        <v>382406</v>
-      </c>
-      <c r="V55" s="4">
-        <f t="shared" si="223"/>
-        <v>420549</v>
-      </c>
-      <c r="W55" s="4">
-        <f t="shared" si="223"/>
-        <v>410767</v>
-      </c>
-      <c r="X55" s="4">
-        <f t="shared" si="223"/>
-        <v>419728</v>
-      </c>
-      <c r="Y55" s="4">
-        <f t="shared" si="223"/>
-        <v>428362</v>
-      </c>
-      <c r="Z55" s="4">
-        <f t="shared" si="223"/>
-        <v>462675</v>
-      </c>
-      <c r="AA55" s="4">
-        <f t="shared" si="223"/>
-        <v>464378</v>
-      </c>
-      <c r="AB55" s="4">
-        <f t="shared" si="223"/>
-        <v>477607</v>
-      </c>
-      <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AD55" si="224">SUM(AC48:AC54)</f>
-        <v>486883</v>
-      </c>
-      <c r="AD55" s="4">
+        <v>527854</v>
+      </c>
+      <c r="AE55" s="4">
+        <f t="shared" ref="AE55:AG55" si="224">SUM(AE48:AE54)</f>
+        <v>530969</v>
+      </c>
+      <c r="AF55" s="4">
         <f t="shared" si="224"/>
-        <v>527854</v>
-      </c>
-      <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AF55" si="225">SUM(AE48:AE54)</f>
-        <v>530969</v>
-      </c>
-      <c r="AF55" s="4">
-        <f t="shared" si="225"/>
         <v>554818</v>
       </c>
-    </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG55" s="4">
+        <f t="shared" si="224"/>
+        <v>584626</v>
+      </c>
+    </row>
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -8567,8 +8670,11 @@
       <c r="AF57" s="2">
         <v>81817</v>
       </c>
-    </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG57" s="2">
+        <v>84570</v>
+      </c>
+    </row>
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -8638,8 +8744,11 @@
       <c r="AF58" s="2">
         <v>60351</v>
       </c>
-    </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG58" s="2">
+        <v>60602</v>
+      </c>
+    </row>
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -8709,8 +8818,11 @@
       <c r="AF59" s="2">
         <v>16004</v>
       </c>
-    </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG59" s="2">
+        <v>16305</v>
+      </c>
+    </row>
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -8780,8 +8892,11 @@
       <c r="AF60" s="2">
         <v>78084</v>
       </c>
-    </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG60" s="2">
+        <v>79802</v>
+      </c>
+    </row>
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -8851,8 +8966,11 @@
       <c r="AF61" s="2">
         <v>54889</v>
       </c>
-    </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG61" s="2">
+        <v>54890</v>
+      </c>
+    </row>
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
@@ -8922,8 +9040,11 @@
       <c r="AF62" s="2">
         <v>27226</v>
       </c>
-    </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG62" s="2">
+        <v>29306</v>
+      </c>
+    </row>
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
@@ -8993,8 +9114,11 @@
       <c r="AF63" s="2">
         <v>236447</v>
       </c>
-    </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG63" s="2">
+        <v>259151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -9011,79 +9135,83 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:P64" si="226">SUM(O57:O63)</f>
+        <f t="shared" ref="O64:P64" si="225">SUM(O57:O63)</f>
         <v>221238</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>258314</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" ref="Q64" si="227">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64" si="226">SUM(Q57:Q63)</f>
         <v>282179</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" ref="R64:AB64" si="228">SUM(R57:R63)</f>
+        <f t="shared" ref="R64:AB64" si="227">SUM(R57:R63)</f>
         <v>321195</v>
       </c>
       <c r="S64" s="4">
+        <f t="shared" si="227"/>
+        <v>323077</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" si="227"/>
+        <v>360319</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="227"/>
+        <v>382406</v>
+      </c>
+      <c r="V64" s="4">
+        <f t="shared" si="227"/>
+        <v>420549</v>
+      </c>
+      <c r="W64" s="4">
+        <f t="shared" si="227"/>
+        <v>410767</v>
+      </c>
+      <c r="X64" s="4">
+        <f t="shared" si="227"/>
+        <v>419728</v>
+      </c>
+      <c r="Y64" s="4">
+        <f t="shared" si="227"/>
+        <v>428362</v>
+      </c>
+      <c r="Z64" s="4">
+        <f t="shared" si="227"/>
+        <v>462675</v>
+      </c>
+      <c r="AA64" s="4">
+        <f t="shared" si="227"/>
+        <v>464378</v>
+      </c>
+      <c r="AB64" s="4">
+        <f t="shared" si="227"/>
+        <v>477607</v>
+      </c>
+      <c r="AC64" s="4">
+        <f t="shared" ref="AC64:AD64" si="228">SUM(AC57:AC63)</f>
+        <v>486883</v>
+      </c>
+      <c r="AD64" s="4">
         <f t="shared" si="228"/>
-        <v>323077</v>
-      </c>
-      <c r="T64" s="4">
-        <f t="shared" si="228"/>
-        <v>360319</v>
-      </c>
-      <c r="U64" s="4">
-        <f t="shared" si="228"/>
-        <v>382406</v>
-      </c>
-      <c r="V64" s="4">
-        <f t="shared" si="228"/>
-        <v>420549</v>
-      </c>
-      <c r="W64" s="4">
-        <f t="shared" si="228"/>
-        <v>410767</v>
-      </c>
-      <c r="X64" s="4">
-        <f t="shared" si="228"/>
-        <v>419728</v>
-      </c>
-      <c r="Y64" s="4">
-        <f t="shared" si="228"/>
-        <v>428362</v>
-      </c>
-      <c r="Z64" s="4">
-        <f t="shared" si="228"/>
-        <v>462675</v>
-      </c>
-      <c r="AA64" s="4">
-        <f t="shared" si="228"/>
-        <v>464378</v>
-      </c>
-      <c r="AB64" s="4">
-        <f t="shared" si="228"/>
-        <v>477607</v>
-      </c>
-      <c r="AC64" s="4">
-        <f t="shared" ref="AC64:AD64" si="229">SUM(AC57:AC63)</f>
-        <v>486883</v>
-      </c>
-      <c r="AD64" s="4">
-        <f t="shared" si="229"/>
         <v>527854</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" ref="AE64" si="230">SUM(AE57:AE63)</f>
+        <f t="shared" ref="AE64" si="229">SUM(AE57:AE63)</f>
         <v>530969</v>
       </c>
       <c r="AF64" s="4">
         <f>SUM(AF57:AF63)</f>
         <v>554818</v>
       </c>
-    </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG64" s="4">
+        <f>SUM(AG57:AG63)</f>
+        <v>584626</v>
+      </c>
+    </row>
+    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -9100,79 +9228,83 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:Q66" si="231">+O32</f>
+        <f t="shared" ref="O66:Q66" si="230">+O32</f>
         <v>2535</v>
       </c>
       <c r="P66" s="4">
+        <f t="shared" si="230"/>
+        <v>5243</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="230"/>
+        <v>6331</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" ref="R66:V66" si="231">+R32</f>
+        <v>7222</v>
+      </c>
+      <c r="S66" s="4">
         <f t="shared" si="231"/>
-        <v>5243</v>
-      </c>
-      <c r="Q66" s="4">
+        <v>8107</v>
+      </c>
+      <c r="T66" s="4">
         <f t="shared" si="231"/>
-        <v>6331</v>
-      </c>
-      <c r="R66" s="4">
-        <f t="shared" ref="R66:V66" si="232">+R32</f>
-        <v>7222</v>
-      </c>
-      <c r="S66" s="4">
+        <v>7778</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="231"/>
+        <v>3156</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="231"/>
+        <v>14323</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" ref="W66:AE66" si="232">+W32</f>
+        <v>-3844</v>
+      </c>
+      <c r="X66" s="4">
         <f t="shared" si="232"/>
-        <v>8107</v>
-      </c>
-      <c r="T66" s="4">
+        <v>2982</v>
+      </c>
+      <c r="Y66" s="4">
         <f t="shared" si="232"/>
-        <v>7778</v>
-      </c>
-      <c r="U66" s="4">
+        <v>2872</v>
+      </c>
+      <c r="Z66" s="4">
         <f t="shared" si="232"/>
-        <v>3156</v>
-      </c>
-      <c r="V66" s="4">
+        <v>3247</v>
+      </c>
+      <c r="AA66" s="4">
         <f t="shared" si="232"/>
-        <v>14323</v>
-      </c>
-      <c r="W66" s="4">
-        <f t="shared" ref="W66:AF66" si="233">+W32</f>
-        <v>-3844</v>
-      </c>
-      <c r="X66" s="4">
-        <f t="shared" si="233"/>
-        <v>2982</v>
-      </c>
-      <c r="Y66" s="4">
-        <f t="shared" si="233"/>
-        <v>2872</v>
-      </c>
-      <c r="Z66" s="4">
-        <f t="shared" si="233"/>
-        <v>3247</v>
-      </c>
-      <c r="AA66" s="4">
-        <f t="shared" si="233"/>
         <v>3172</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>6750</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>9879</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>10624</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
         <f>+AF32</f>
         <v>13486</v>
       </c>
-    </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG66" s="4">
+        <f>+AG32</f>
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -9242,8 +9374,11 @@
       <c r="AF67" s="2">
         <v>13485</v>
       </c>
-    </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG67" s="2">
+        <v>15328</v>
+      </c>
+    </row>
+    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -9313,8 +9448,11 @@
       <c r="AF68" s="2">
         <v>12038</v>
       </c>
-    </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG68" s="2">
+        <v>13442</v>
+      </c>
+    </row>
+    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -9384,8 +9522,11 @@
       <c r="AF69" s="2">
         <v>6722</v>
       </c>
-    </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG69" s="2">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -9455,8 +9596,11 @@
       <c r="AF70" s="2">
         <v>-95</v>
       </c>
-    </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG70" s="2">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -9521,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -9591,8 +9735,11 @@
       <c r="AF72" s="2">
         <v>-785</v>
       </c>
-    </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG72" s="2">
+        <v>-1317</v>
+      </c>
+    </row>
+    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -9680,8 +9827,12 @@
         <f>-3085-2209-3055+6005-4147+407</f>
         <v>-6084</v>
       </c>
-    </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG73" s="2">
+        <f>-1509-701-4537-477+129+421</f>
+        <v>-6674</v>
+      </c>
+    </row>
+    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -9698,76 +9849,80 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4">
-        <f t="shared" ref="O74:Q74" si="234">SUM(O67:O73)</f>
+        <f t="shared" ref="O74:Q74" si="233">SUM(O67:O73)</f>
         <v>3064</v>
       </c>
       <c r="P74" s="4">
+        <f t="shared" si="233"/>
+        <v>20606</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="233"/>
+        <v>11964</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" ref="R74:AG74" si="234">SUM(R67:R73)</f>
+        <v>30430</v>
+      </c>
+      <c r="S74" s="4">
         <f t="shared" si="234"/>
-        <v>20606</v>
-      </c>
-      <c r="Q74" s="4">
+        <v>4213</v>
+      </c>
+      <c r="T74" s="4">
         <f t="shared" si="234"/>
-        <v>11964</v>
-      </c>
-      <c r="R74" s="4">
-        <f t="shared" ref="R74:AF74" si="235">SUM(R67:R73)</f>
-        <v>30430</v>
-      </c>
-      <c r="S74" s="4">
-        <f t="shared" si="235"/>
-        <v>4213</v>
-      </c>
-      <c r="T74" s="4">
-        <f t="shared" si="235"/>
         <v>12715</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>7313</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>22086</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>-2790</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>8965</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>11404</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>29173</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>4788</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>16476</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>21217</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>42465</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>18989</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>25281</v>
+      </c>
+      <c r="AG74" s="4">
+        <f t="shared" si="234"/>
+        <v>25971</v>
       </c>
       <c r="AT74" s="2">
         <v>-119.782</v>
@@ -9779,7 +9934,7 @@
         <v>392.02199999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -9805,7 +9960,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -9875,8 +10030,11 @@
       <c r="AF76" s="2">
         <v>-17620</v>
       </c>
-    </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG76" s="2">
+        <v>-22620</v>
+      </c>
+    </row>
+    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -9946,8 +10104,11 @@
       <c r="AF77" s="2">
         <v>1227</v>
       </c>
-    </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG77" s="2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -10017,8 +10178,11 @@
       <c r="AF78" s="2">
         <v>-571</v>
       </c>
-    </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG78" s="2">
+        <v>-622</v>
+      </c>
+    </row>
+    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -10106,8 +10270,12 @@
         <f>3265-8439</f>
         <v>-5174</v>
       </c>
-    </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG79" s="2">
+        <f>8069-3068</f>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -10124,79 +10292,83 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4">
-        <f t="shared" ref="O80:Q80" si="236">SUM(O76:O79)</f>
+        <f t="shared" ref="O80:Q80" si="235">SUM(O76:O79)</f>
         <v>-8894</v>
       </c>
       <c r="P80" s="4">
+        <f t="shared" si="235"/>
+        <v>-17804</v>
+      </c>
+      <c r="Q80" s="4">
+        <f t="shared" si="235"/>
+        <v>-15876</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" ref="R80:AG80" si="236">SUM(R76:R79)</f>
+        <v>-17038</v>
+      </c>
+      <c r="S80" s="4">
         <f t="shared" si="236"/>
-        <v>-17804</v>
-      </c>
-      <c r="Q80" s="4">
+        <v>-8666</v>
+      </c>
+      <c r="T80" s="4">
         <f t="shared" si="236"/>
-        <v>-15876</v>
-      </c>
-      <c r="R80" s="4">
-        <f t="shared" ref="R80:AF80" si="237">SUM(R76:R79)</f>
-        <v>-17038</v>
-      </c>
-      <c r="S80" s="4">
-        <f t="shared" si="237"/>
-        <v>-8666</v>
-      </c>
-      <c r="T80" s="4">
-        <f t="shared" si="237"/>
         <v>-22080</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-14828</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-12580</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>906</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-12078</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-15608</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-10821</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-15806</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-9673</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-11753</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-12601</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-17862</v>
       </c>
       <c r="AF80" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-22138</v>
       </c>
-    </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG80" s="4">
+        <f t="shared" si="236"/>
+        <v>-16899</v>
+      </c>
+    </row>
+    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10222,7 +10394,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -10292,8 +10464,11 @@
       <c r="AF82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -10381,8 +10556,12 @@
         <f>525-229-4169-538-79</f>
         <v>-4490</v>
       </c>
-    </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG83" s="2">
+        <f>1725-1820-2183-402-78</f>
+        <v>-2758</v>
+      </c>
+    </row>
+    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -10399,79 +10578,83 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:Q84" si="238">SUM(O82:O83)</f>
+        <f t="shared" ref="O84:Q84" si="237">SUM(O82:O83)</f>
         <v>-2591</v>
       </c>
       <c r="P84" s="4">
+        <f t="shared" si="237"/>
+        <v>7408</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" si="237"/>
+        <v>-4105</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" ref="R84:AG84" si="238">SUM(R82:R83)</f>
+        <v>-1816</v>
+      </c>
+      <c r="S84" s="4">
         <f t="shared" si="238"/>
-        <v>7408</v>
-      </c>
-      <c r="Q84" s="4">
+        <v>-3476</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="238"/>
-        <v>-4105</v>
-      </c>
-      <c r="R84" s="4">
-        <f t="shared" ref="R84:AF84" si="239">SUM(R82:R83)</f>
-        <v>-1816</v>
-      </c>
-      <c r="S84" s="4">
-        <f t="shared" si="239"/>
-        <v>-3476</v>
-      </c>
-      <c r="T84" s="4">
-        <f t="shared" si="239"/>
         <v>15643</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-2776</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-3100</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>1990</v>
       </c>
       <c r="X84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>4626</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>3016</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>86</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>6354</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-6539</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-8948</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-6746</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-1256</v>
       </c>
       <c r="AF84" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-4490</v>
       </c>
-    </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG84" s="4">
+        <f t="shared" si="238"/>
+        <v>-2758</v>
+      </c>
+    </row>
+    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -10541,8 +10724,11 @@
       <c r="AF85" s="2">
         <v>-312</v>
       </c>
-    </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG85" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -10559,7 +10745,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4">
-        <f t="shared" ref="O86" si="240">+O85+O84+O80+O74</f>
+        <f t="shared" ref="O86" si="239">+O85+O84+O80+O74</f>
         <v>-8905</v>
       </c>
       <c r="P86" s="4">
@@ -10571,67 +10757,71 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AF86" si="241">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AG86" si="240">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>-8222</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>6512</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>-10490</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>6300</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>122</v>
       </c>
       <c r="X86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>1101</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>-2522</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>19075</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>-4519</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>333</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>14</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>23809</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>-558</v>
       </c>
       <c r="AF86" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>-1659</v>
       </c>
-    </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG86" s="4">
+        <f t="shared" si="240"/>
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -10711,11 +10901,14 @@
       <c r="AF88" s="2">
         <v>1532</v>
       </c>
+      <c r="AG88" s="2">
+        <v>1551</v>
+      </c>
       <c r="AQ88" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -10787,8 +10980,11 @@
       <c r="AF90" s="2">
         <v>5065</v>
       </c>
-    </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG90" s="2">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -10860,8 +11056,11 @@
       <c r="AF91" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG91" s="2">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -10933,57 +11132,60 @@
       <c r="AF92" s="2">
         <v>9334</v>
       </c>
-    </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AG92" s="2">
+        <v>10447</v>
+      </c>
+    </row>
+    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="242">+O74+O76+O77</f>
+        <f t="shared" ref="O94:W94" si="241">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
       <c r="P94" s="4">
+        <f t="shared" si="241"/>
+        <v>13991</v>
+      </c>
+      <c r="Q94" s="4">
+        <f t="shared" si="241"/>
+        <v>2156</v>
+      </c>
+      <c r="R94" s="4">
+        <f t="shared" si="241"/>
+        <v>17235</v>
+      </c>
+      <c r="S94" s="4">
+        <f t="shared" si="241"/>
+        <v>-6974</v>
+      </c>
+      <c r="T94" s="4">
+        <f t="shared" si="241"/>
+        <v>-273</v>
+      </c>
+      <c r="U94" s="4">
+        <f t="shared" si="241"/>
+        <v>-7438</v>
+      </c>
+      <c r="V94" s="4">
+        <f t="shared" si="241"/>
+        <v>5616</v>
+      </c>
+      <c r="W94" s="4">
+        <f t="shared" si="241"/>
+        <v>-16532</v>
+      </c>
+      <c r="X94" s="4">
+        <f t="shared" ref="X94:Z94" si="242">+X74+X76+X77</f>
+        <v>-5133</v>
+      </c>
+      <c r="Y94" s="4">
         <f t="shared" si="242"/>
-        <v>13991</v>
-      </c>
-      <c r="Q94" s="4">
+        <v>-3637</v>
+      </c>
+      <c r="Z94" s="4">
         <f t="shared" si="242"/>
-        <v>2156</v>
-      </c>
-      <c r="R94" s="4">
-        <f t="shared" si="242"/>
-        <v>17235</v>
-      </c>
-      <c r="S94" s="4">
-        <f t="shared" si="242"/>
-        <v>-6974</v>
-      </c>
-      <c r="T94" s="4">
-        <f t="shared" si="242"/>
-        <v>-273</v>
-      </c>
-      <c r="U94" s="4">
-        <f t="shared" si="242"/>
-        <v>-7438</v>
-      </c>
-      <c r="V94" s="4">
-        <f t="shared" si="242"/>
-        <v>5616</v>
-      </c>
-      <c r="W94" s="4">
-        <f t="shared" si="242"/>
-        <v>-16532</v>
-      </c>
-      <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="243">+X74+X76+X77</f>
-        <v>-5133</v>
-      </c>
-      <c r="Y94" s="4">
-        <f t="shared" si="243"/>
-        <v>-3637</v>
-      </c>
-      <c r="Z94" s="4">
-        <f t="shared" si="243"/>
         <v>13733</v>
       </c>
       <c r="AA94" s="4">
@@ -10991,40 +11193,44 @@
         <v>-8282</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="244">+AB74+AB76+AB77</f>
+        <f t="shared" ref="AB94:AE94" si="243">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
       <c r="AC94" s="4">
+        <f t="shared" si="243"/>
+        <v>9919</v>
+      </c>
+      <c r="AD94" s="4">
+        <f t="shared" si="243"/>
+        <v>29112</v>
+      </c>
+      <c r="AE94" s="4">
+        <f t="shared" si="243"/>
+        <v>5054</v>
+      </c>
+      <c r="AF94" s="4">
+        <f t="shared" ref="AF94:AG94" si="244">+AF74+AF76+AF77</f>
+        <v>8888</v>
+      </c>
+      <c r="AG94" s="4">
         <f t="shared" si="244"/>
-        <v>9919</v>
-      </c>
-      <c r="AD94" s="4">
-        <f t="shared" si="244"/>
-        <v>29112</v>
-      </c>
-      <c r="AE94" s="4">
-        <f t="shared" si="244"/>
-        <v>5054</v>
-      </c>
-      <c r="AF94" s="4">
-        <f t="shared" ref="AF94" si="245">+AF74+AF76+AF77</f>
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="246">SUM(O94:R94)</f>
+        <f t="shared" ref="R95:T95" si="245">SUM(O94:R94)</f>
         <v>31018</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="245"/>
         <v>26408</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="245"/>
         <v>12144</v>
       </c>
       <c r="U95" s="2">
@@ -11044,7 +11250,7 @@
         <v>-23487</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" ref="Y95" si="247">SUM(V94:Y94)</f>
+        <f t="shared" ref="Y95" si="246">SUM(V94:Y94)</f>
         <v>-19686</v>
       </c>
       <c r="Z95" s="2">
@@ -11056,27 +11262,31 @@
         <v>-3319</v>
       </c>
       <c r="AB95" s="2">
-        <f t="shared" ref="AB95:AE95" si="248">SUM(Y94:AB94)</f>
+        <f t="shared" ref="AB95:AE95" si="247">SUM(Y94:AB94)</f>
         <v>7878</v>
       </c>
       <c r="AC95" s="2">
+        <f t="shared" si="247"/>
+        <v>21434</v>
+      </c>
+      <c r="AD95" s="2">
+        <f t="shared" si="247"/>
+        <v>36813</v>
+      </c>
+      <c r="AE95" s="2">
+        <f t="shared" si="247"/>
+        <v>50149</v>
+      </c>
+      <c r="AF95" s="2">
+        <f t="shared" ref="AF95:AG95" si="248">SUM(AC94:AF94)</f>
+        <v>52973</v>
+      </c>
+      <c r="AG95" s="2">
         <f t="shared" si="248"/>
-        <v>21434</v>
-      </c>
-      <c r="AD95" s="2">
-        <f t="shared" si="248"/>
-        <v>36813</v>
-      </c>
-      <c r="AE95" s="2">
-        <f t="shared" si="248"/>
-        <v>50149</v>
-      </c>
-      <c r="AF95" s="2">
-        <f t="shared" ref="AF95" si="249">SUM(AC94:AF94)</f>
-        <v>52973</v>
-      </c>
-    </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.25">
+        <v>47747</v>
+      </c>
+    </row>
+    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>105</v>
       </c>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D183C-1260-4D04-9DEC-5FEE6ACED470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEA922-7441-4798-80BF-D67F47BA4D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="1725" windowWidth="30735" windowHeight="17835" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1227,16 +1227,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>236.13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>103</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2482909.54931904</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>6</v>
       </c>
@@ -1305,20 +1305,20 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>124</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>125</v>
       </c>
@@ -1334,12 +1334,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>135</v>
       </c>
@@ -1347,27 +1347,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>143</v>
       </c>
@@ -1375,72 +1375,72 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>149</v>
       </c>
@@ -1454,27 +1454,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:EG101"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG48" sqref="AG48"/>
+      <selection pane="bottomRight" activeCell="AD76" sqref="AD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="3"/>
-    <col min="74" max="75" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="26" width="9.1796875" style="3"/>
+    <col min="74" max="75" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>279833</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>127787</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>447916.72498560004</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>326267.1892021501</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>28184.221465804694</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>197068.63549427583</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>68149.380161362526</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>79499.983233825042</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3101,11 +3101,11 @@
         <v>6976.4038955296901</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>241787</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>228035</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:137" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>1154062.5384385479</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>754757.74441970466</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>52333.582469642599</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>346971.21154920058</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>172565.2584410306</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>4858.3672377839066</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>177423.62567881451</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>26613.543851822174</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>150810.08182699233</v>
       </c>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>14.375186524353477</v>
       </c>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>10491</v>
       </c>
     </row>
-    <row r="36" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0.10353840131598058</v>
       </c>
     </row>
-    <row r="37" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>123</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -6831,7 +6831,7 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:78" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BY46" t="s">
         <v>76</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>1459966.3940996223</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>138.84592160567925</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>51638</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>237917</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>76527</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>71309</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>584626</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>84570</v>
       </c>
     </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>60602</v>
       </c>
     </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>16305</v>
       </c>
     </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>79802</v>
       </c>
     </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>54890</v>
       </c>
     </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>29306</v>
       </c>
     </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>259151</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>584626</v>
       </c>
     </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>12940</v>
       </c>
     </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>15328</v>
       </c>
     </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>13442</v>
       </c>
     </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>-1317</v>
       </c>
     </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>-6674</v>
       </c>
     </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>392.02199999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -9960,7 +9960,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -10033,8 +10033,11 @@
       <c r="AG76" s="2">
         <v>-22620</v>
       </c>
-    </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH76" s="2">
+        <v>-27834</v>
+      </c>
+    </row>
+    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>-622</v>
       </c>
     </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>-16899</v>
       </c>
     </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10394,7 +10397,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -10561,7 +10564,7 @@
         <v>-2758</v>
       </c>
     </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -10654,7 +10657,7 @@
         <v>-2758</v>
       </c>
     </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -10821,7 +10824,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>10447</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>102</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>47747</v>
       </c>
     </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>105</v>
       </c>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEA922-7441-4798-80BF-D67F47BA4D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3385D1B-86E6-4FBE-92B9-73E6713B6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-51615" yWindow="2310" windowWidth="26670" windowHeight="16515" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,13 @@
     <author>tc={D59D67FB-5872-4BE5-9EBC-DF8085F0DD3F}</author>
     <author>tc={E6C3522C-40A3-4C89-A5ED-958660D0694F}</author>
     <author>tc={A64624BB-B1AF-4371-B81E-B4367444230E}</author>
+    <author>tc={C3C93262-255F-49A7-9F98-C9410B7BFA17}</author>
     <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
     <author>tc={1123E429-DC3C-402F-A940-60A8A504E208}</author>
     <author>tc={F0CECC32-58CA-41B9-9B42-426709AD1A9F}</author>
     <author>tc={EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}</author>
     <author>tc={4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}</author>
+    <author>tc={D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}</author>
     <author>tc={7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}</author>
     <author>tc={9ABE8371-ABDF-42F1-936F-09DADC3E4649}</author>
   </authors>
@@ -129,7 +131,15 @@
     Q3: 181.5-188.5B</t>
       </text>
     </comment>
-    <comment ref="Y28" authorId="9" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <comment ref="AI20" authorId="9" shapeId="0" xr:uid="{C3C93262-255F-49A7-9F98-C9410B7BFA17}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 151-155B</t>
+      </text>
+    </comment>
+    <comment ref="Y28" authorId="10" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -137,7 +147,7 @@
     Q222 guidance: 0.0-3.5B</t>
       </text>
     </comment>
-    <comment ref="Z28" authorId="10" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
+    <comment ref="Z28" authorId="11" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -145,7 +155,7 @@
     Q3 guidance: 0-4B</t>
       </text>
     </comment>
-    <comment ref="AA28" authorId="11" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
+    <comment ref="AA28" authorId="12" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -153,7 +163,7 @@
     Q4 guidance 0-4B</t>
       </text>
     </comment>
-    <comment ref="AB28" authorId="12" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
+    <comment ref="AB28" authorId="13" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +172,7 @@
 I estimated 5.6B prior to guidance</t>
       </text>
     </comment>
-    <comment ref="AF28" authorId="13" shapeId="0" xr:uid="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
+    <comment ref="AF28" authorId="14" shapeId="0" xr:uid="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -170,7 +180,15 @@
     10-14B</t>
       </text>
     </comment>
-    <comment ref="Y36" authorId="14" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+    <comment ref="AI28" authorId="15" shapeId="0" xr:uid="{D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424: 14-18B</t>
+      </text>
+    </comment>
+    <comment ref="Y36" authorId="16" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -178,7 +196,7 @@
     +19% net of FX</t>
       </text>
     </comment>
-    <comment ref="AE45" authorId="15" shapeId="0" xr:uid="{9ABE8371-ABDF-42F1-936F-09DADC3E4649}">
+    <comment ref="AE45" authorId="17" shapeId="0" xr:uid="{9ABE8371-ABDF-42F1-936F-09DADC3E4649}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -653,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -672,6 +690,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -766,14 +790,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>606856</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>48494</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>606856</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>48494</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -790,7 +814,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20497684" y="0"/>
+          <a:off x="21161149" y="0"/>
           <a:ext cx="0" cy="17581508"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1198,6 +1222,9 @@
   <threadedComment ref="AH20" dT="2025-02-02T02:38:51.41" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{A64624BB-B1AF-4371-B81E-B4367444230E}">
     <text>Q3: 181.5-188.5B</text>
   </threadedComment>
+  <threadedComment ref="AI20" dT="2025-04-04T16:55:52.25" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{C3C93262-255F-49A7-9F98-C9410B7BFA17}">
+    <text>Q424 guidance: 151-155B</text>
+  </threadedComment>
   <threadedComment ref="Y28" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
     <text>Q222 guidance: 0.0-3.5B</text>
   </threadedComment>
@@ -1214,6 +1241,9 @@
   <threadedComment ref="AF28" dT="2024-06-23T16:05:23.51" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
     <text>10-14B</text>
   </threadedComment>
+  <threadedComment ref="AI28" dT="2025-04-04T16:56:29.09" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}">
+    <text>Q424: 14-18B</text>
+  </threadedComment>
   <threadedComment ref="Y36" dT="2022-12-19T01:32:23.85" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
     <text>+19% net of FX</text>
   </threadedComment>
@@ -1227,24 +1257,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>236.13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>103</v>
       </c>
@@ -1264,10 +1292,10 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>2482909.54931904</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1819096.904384</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -1281,7 +1309,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -1295,30 +1323,30 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>2449748.54931904</v>
+        <v>1785935.904384</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>124</v>
       </c>
@@ -1326,7 +1354,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>125</v>
       </c>
@@ -1334,12 +1362,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>135</v>
       </c>
@@ -1347,27 +1375,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>143</v>
       </c>
@@ -1375,72 +1403,72 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>149</v>
       </c>
@@ -1454,27 +1482,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:EG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA71" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AE33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD76" sqref="AD76"/>
+      <selection pane="bottomRight" activeCell="AI51" sqref="AI51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="26" width="9.1796875" style="3"/>
-    <col min="74" max="75" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="26" width="9.140625" style="3"/>
+    <col min="74" max="75" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1762,7 +1790,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1901,7 @@
         <v>279833</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1911,7 +1939,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1977,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2088,7 @@
         <v>127787</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2098,7 +2126,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2136,7 +2164,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +2319,7 @@
         <v>447916.72498560004</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>326267.1892021501</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2563,7 +2591,7 @@
         <v>28184.221465804694</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2699,7 +2727,7 @@
         <v>197068.63549427583</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2835,7 +2863,7 @@
         <v>68149.380161362526</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2971,7 +2999,7 @@
         <v>79499.983233825042</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3101,11 +3129,11 @@
         <v>6976.4038955296901</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3189,8 +3217,7 @@
         <v>67601</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" ref="AH18:AH19" si="18">AD18*1.1</f>
-        <v>84373.3</v>
+        <v>82226</v>
       </c>
       <c r="BJ18" s="2">
         <v>118573</v>
@@ -3207,11 +3234,11 @@
         <v>215915</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" ref="BN18:BN26" si="19">SUM(S18:V18)</f>
+        <f t="shared" ref="BN18:BN26" si="18">SUM(S18:V18)</f>
         <v>241787</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3295,8 +3322,7 @@
         <v>91276</v>
       </c>
       <c r="AH19" s="2">
-        <f t="shared" si="18"/>
-        <v>102583.8</v>
+        <v>105566</v>
       </c>
       <c r="BJ19" s="2">
         <v>59293</v>
@@ -3309,15 +3335,15 @@
         <v>120115</v>
       </c>
       <c r="BM19" s="2">
-        <f t="shared" ref="BM19:BM26" si="20">SUM(O19:R19)</f>
+        <f t="shared" ref="BM19:BM26" si="19">SUM(O19:R19)</f>
         <v>170149</v>
       </c>
       <c r="BN19" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>228035</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3329,55 +3355,55 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6">
-        <f t="shared" ref="J20" si="21">J18+J19</f>
+        <f t="shared" ref="J20" si="20">J18+J19</f>
         <v>72383</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ref="K20:M20" si="22">K18+K19</f>
+        <f t="shared" ref="K20:M20" si="21">K18+K19</f>
         <v>59700</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20" si="23">L18+L19</f>
+        <f t="shared" ref="L20" si="22">L18+L19</f>
         <v>63404</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>69981</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="24">N18+N19</f>
+        <f t="shared" ref="N20" si="23">N18+N19</f>
         <v>87437</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="25">O18+O19</f>
+        <f t="shared" ref="O20" si="24">O18+O19</f>
         <v>75452</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20" si="26">P18+P19</f>
+        <f t="shared" ref="P20" si="25">P18+P19</f>
         <v>88912</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ref="Q20:V20" si="27">Q18+Q19</f>
+        <f t="shared" ref="Q20:V20" si="26">Q18+Q19</f>
         <v>96145</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>125555</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>108518</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>113080</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>110812</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>137412</v>
       </c>
       <c r="W20" s="6">
@@ -3426,23 +3452,23 @@
       </c>
       <c r="AH20" s="6">
         <f>+AH19+AH18</f>
-        <v>186957.1</v>
+        <v>187792</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" ref="AI20:AL20" si="28">+AI19+AI18</f>
-        <v>0</v>
+        <f>+AE20*1.09</f>
+        <v>156211.17000000001</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f>+AF20*1.1</f>
+        <v>162775.80000000002</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f>+AG20*1.1</f>
+        <v>174764.7</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f>+AH20*1.1</f>
+        <v>206571.2</v>
       </c>
       <c r="AN20" s="5">
         <v>0.51100000000000001</v>
@@ -3506,19 +3532,19 @@
         <v>88988</v>
       </c>
       <c r="BH20" s="5">
-        <f t="shared" ref="BH20:BI20" si="29">+BH3+BH6+BH9</f>
+        <f t="shared" ref="BH20:BI20" si="27">+BH3+BH6+BH9</f>
         <v>107006</v>
       </c>
       <c r="BI20" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>135987</v>
       </c>
       <c r="BJ20" s="6">
-        <f t="shared" ref="BJ20" si="30">BJ18+BJ19</f>
+        <f t="shared" ref="BJ20" si="28">BJ18+BJ19</f>
         <v>177866</v>
       </c>
       <c r="BK20" s="6">
-        <f t="shared" ref="BK20" si="31">BK18+BK19</f>
+        <f t="shared" ref="BK20" si="29">BK18+BK19</f>
         <v>232887</v>
       </c>
       <c r="BL20" s="6">
@@ -3542,35 +3568,35 @@
         <v>574785</v>
       </c>
       <c r="BQ20" s="5">
-        <f t="shared" ref="BQ20:BW20" si="32">SUM(BQ9:BQ16)</f>
+        <f t="shared" ref="BQ20:BW20" si="30">SUM(BQ9:BQ16)</f>
         <v>630569.25</v>
       </c>
       <c r="BR20" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>696385.0625</v>
       </c>
       <c r="BS20" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>774819.60562500008</v>
       </c>
       <c r="BT20" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>869206.37140625017</v>
       </c>
       <c r="BU20" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>951548.35013156268</v>
       </c>
       <c r="BV20" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1045783.7598241409</v>
       </c>
       <c r="BW20" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1154062.5384385479</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3653,6 +3679,9 @@
       <c r="AG21" s="4">
         <v>80977</v>
       </c>
+      <c r="AH21" s="2">
+        <v>98893</v>
+      </c>
       <c r="AT21" s="2">
         <v>2323.875</v>
       </c>
@@ -3682,11 +3711,11 @@
         <v>165536</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>233307</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>272344</v>
       </c>
       <c r="BO21" s="2">
@@ -3698,35 +3727,35 @@
         <v>304739</v>
       </c>
       <c r="BQ21" s="4">
-        <f t="shared" ref="BQ21:BW21" si="33">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
+        <f t="shared" ref="BQ21:BW21" si="31">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
         <v>411831.07</v>
       </c>
       <c r="BR21" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>453069.84100000007</v>
       </c>
       <c r="BS21" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>502564.71580000001</v>
       </c>
       <c r="BT21" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>562586.74916500016</v>
       </c>
       <c r="BU21" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>617933.24873175006</v>
       </c>
       <c r="BV21" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>681490.50569853769</v>
       </c>
       <c r="BW21" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>754757.74441970466</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3809,6 +3838,9 @@
       <c r="AG22" s="4">
         <v>24660</v>
       </c>
+      <c r="AH22" s="2">
+        <v>27962</v>
+      </c>
       <c r="AT22" s="2">
         <v>798.55799999999999</v>
       </c>
@@ -3838,11 +3870,11 @@
         <v>40231</v>
       </c>
       <c r="BM22" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>58516</v>
       </c>
       <c r="BN22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>75111</v>
       </c>
       <c r="BO22" s="2">
@@ -3854,35 +3886,35 @@
         <v>90619</v>
       </c>
       <c r="BQ22" s="4">
-        <f t="shared" ref="BQ22:BW22" si="34">(BQ13+BQ11)*0.1</f>
+        <f t="shared" ref="BQ22:BW22" si="32">(BQ13+BQ11)*0.1</f>
         <v>39052.125</v>
       </c>
       <c r="BR22" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>41004.731250000004</v>
       </c>
       <c r="BS22" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>43054.967812500006</v>
       </c>
       <c r="BT22" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>45207.716203125012</v>
       </c>
       <c r="BU22" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>47468.102013281255</v>
       </c>
       <c r="BV22" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>49841.507113945321</v>
       </c>
       <c r="BW22" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>52333.582469642599</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3894,7 +3926,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
-        <f t="shared" ref="J23" si="35">J20-J21-J22</f>
+        <f t="shared" ref="J23" si="33">J20-J21-J22</f>
         <v>17569</v>
       </c>
       <c r="K23" s="4">
@@ -3902,7 +3934,7 @@
         <v>17179</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="36">L20-L21-L22</f>
+        <f t="shared" ref="L23" si="34">L20-L21-L22</f>
         <v>17796</v>
       </c>
       <c r="M23" s="4">
@@ -3910,15 +3942,15 @@
         <v>18512</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="37">N20-N21-N22</f>
+        <f t="shared" ref="N23" si="35">N20-N21-N22</f>
         <v>21268</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23" si="38">O20-O21-O22</f>
+        <f t="shared" ref="O23" si="36">O20-O21-O22</f>
         <v>19664</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23" si="39">P20-P21-P22</f>
+        <f t="shared" ref="P23" si="37">P20-P21-P22</f>
         <v>22446</v>
       </c>
       <c r="Q23" s="4">
@@ -3926,7 +3958,7 @@
         <v>24334</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23" si="40">R20-R21-R22</f>
+        <f t="shared" ref="R23" si="38">R20-R21-R22</f>
         <v>27797</v>
       </c>
       <c r="S23" s="4">
@@ -3934,23 +3966,23 @@
         <v>29585</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:AE23" si="41">T20-T21-T22</f>
+        <f t="shared" ref="T23:AE23" si="39">T20-T21-T22</f>
         <v>31266</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>29384</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>32132</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>29674</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>34468</v>
       </c>
       <c r="Y23" s="4">
@@ -3966,7 +3998,7 @@
         <v>38662</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>43705</v>
       </c>
       <c r="AC23" s="4">
@@ -3974,11 +4006,11 @@
         <v>45747</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>51313</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>48363</v>
       </c>
       <c r="AF23" s="4">
@@ -3989,6 +4021,26 @@
         <f>AG20-AG21-AG22</f>
         <v>53240</v>
       </c>
+      <c r="AH23" s="4">
+        <f>AH20-AH21-AH22</f>
+        <v>60937</v>
+      </c>
+      <c r="AI23" s="2">
+        <f>+AI20*0.34</f>
+        <v>53111.797800000008</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" ref="AJ23:AL23" si="40">+AJ20*0.34</f>
+        <v>55343.772000000012</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="40"/>
+        <v>59419.998000000007</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="40"/>
+        <v>70234.208000000013</v>
+      </c>
       <c r="AT23" s="2">
         <f>AT20-AT21-AT22</f>
         <v>0</v>
@@ -4002,75 +4054,75 @@
         <v>780.13599999999974</v>
       </c>
       <c r="BG23" s="4">
-        <f t="shared" ref="BG23:BJ23" si="42">BG20-BG21-BG22</f>
+        <f t="shared" ref="BG23:BJ23" si="41">BG20-BG21-BG22</f>
         <v>15470</v>
       </c>
       <c r="BH23" s="4">
+        <f t="shared" si="41"/>
+        <v>21945</v>
+      </c>
+      <c r="BI23" s="4">
+        <f t="shared" si="41"/>
+        <v>30103</v>
+      </c>
+      <c r="BJ23" s="4">
+        <f t="shared" si="41"/>
+        <v>40683</v>
+      </c>
+      <c r="BK23" s="4">
+        <f t="shared" ref="BK23:BL23" si="42">BK20-BK21-BK22</f>
+        <v>59704</v>
+      </c>
+      <c r="BL23" s="4">
         <f t="shared" si="42"/>
-        <v>21945</v>
-      </c>
-      <c r="BI23" s="4">
-        <f t="shared" si="42"/>
-        <v>30103</v>
-      </c>
-      <c r="BJ23" s="4">
-        <f t="shared" si="42"/>
-        <v>40683</v>
-      </c>
-      <c r="BK23" s="4">
-        <f t="shared" ref="BK23:BL23" si="43">BK20-BK21-BK22</f>
-        <v>59704</v>
-      </c>
-      <c r="BL23" s="4">
+        <v>74755</v>
+      </c>
+      <c r="BM23" s="4">
+        <f t="shared" ref="BM23:BW23" si="43">BM20-BM21-BM22</f>
+        <v>94241</v>
+      </c>
+      <c r="BN23" s="4">
         <f t="shared" si="43"/>
-        <v>74755</v>
-      </c>
-      <c r="BM23" s="4">
-        <f t="shared" ref="BM23:BW23" si="44">BM20-BM21-BM22</f>
-        <v>94241</v>
-      </c>
-      <c r="BN23" s="4">
-        <f t="shared" si="44"/>
         <v>122367</v>
       </c>
       <c r="BO23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>140853</v>
       </c>
       <c r="BP23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>179427</v>
       </c>
       <c r="BQ23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>179686.05499999999</v>
       </c>
       <c r="BR23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>202310.49024999992</v>
       </c>
       <c r="BS23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>229199.92201250006</v>
       </c>
       <c r="BT23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>261411.90603812499</v>
       </c>
       <c r="BU23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>286146.99938653136</v>
       </c>
       <c r="BV23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>314451.74701165792</v>
       </c>
       <c r="BW23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>346971.21154920058</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4153,6 +4205,13 @@
       <c r="AG24" s="4">
         <v>24660</v>
       </c>
+      <c r="AH24" s="2">
+        <v>23571</v>
+      </c>
+      <c r="AI24" s="2">
+        <f>+AE24*1.07</f>
+        <v>21853.68</v>
+      </c>
       <c r="AT24" s="2">
         <v>241.16499999999999</v>
       </c>
@@ -4182,11 +4241,11 @@
         <v>35932</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42738</v>
       </c>
       <c r="BN24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>56052</v>
       </c>
       <c r="BO24" s="2">
@@ -4202,31 +4261,31 @@
         <v>88190.66</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" ref="BR24:BW24" si="45">+BQ24*1.03</f>
+        <f t="shared" ref="BR24:BW24" si="44">+BQ24*1.03</f>
         <v>90836.37980000001</v>
       </c>
       <c r="BS24" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>93561.471194000012</v>
       </c>
       <c r="BT24" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>96368.31532982002</v>
       </c>
       <c r="BU24" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>99259.364789714629</v>
       </c>
       <c r="BV24" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>102237.14573340607</v>
       </c>
       <c r="BW24" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4309,6 +4368,13 @@
       <c r="AG25" s="4">
         <v>10609</v>
       </c>
+      <c r="AH25" s="2">
+        <v>13124</v>
+      </c>
+      <c r="AI25" s="2">
+        <f>+AE25*1.07</f>
+        <v>10338.34</v>
+      </c>
       <c r="AT25" s="2">
         <v>138.28299999999999</v>
       </c>
@@ -4338,11 +4404,11 @@
         <v>18879</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>22010</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>32551</v>
       </c>
       <c r="BO25" s="2">
@@ -4354,35 +4420,35 @@
         <v>44370</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" ref="BQ25:BW25" si="46">+BP25*1.03</f>
+        <f t="shared" ref="BQ25:BW25" si="45">+BP25*1.03</f>
         <v>45701.1</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>47072.133000000002</v>
       </c>
       <c r="BS25" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>48484.296990000003</v>
       </c>
       <c r="BT25" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>49938.825899700001</v>
       </c>
       <c r="BU25" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>51436.990676690999</v>
       </c>
       <c r="BV25" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>52980.100396991729</v>
       </c>
       <c r="BW25" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4466,6 +4532,13 @@
       <c r="AG26" s="4">
         <v>2713</v>
       </c>
+      <c r="AH26" s="2">
+        <v>2863</v>
+      </c>
+      <c r="AI26" s="2">
+        <f>+AE26*1.07</f>
+        <v>2933.94</v>
+      </c>
       <c r="AT26" s="2">
         <v>89.861999999999995</v>
       </c>
@@ -4495,11 +4568,11 @@
         <v>5203</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6668</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8823</v>
       </c>
       <c r="BO26" s="2">
@@ -4511,35 +4584,35 @@
         <v>11816</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" ref="BQ26:BW26" si="47">+BP26*1.03</f>
+        <f t="shared" ref="BQ26:BW26" si="46">+BP26*1.03</f>
         <v>12170.48</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>12535.5944</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>12911.662232000001</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>13299.012098960002</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>13697.982461928803</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>14108.921935786668</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4551,7 +4624,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
-        <f t="shared" ref="J27" si="48">SUM(J24:J26)</f>
+        <f t="shared" ref="J27" si="47">SUM(J24:J26)</f>
         <v>13697</v>
       </c>
       <c r="K27" s="4">
@@ -4559,7 +4632,7 @@
         <v>12764</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" ref="L27" si="49">SUM(L24:L26)</f>
+        <f t="shared" ref="L27" si="48">SUM(L24:L26)</f>
         <v>14626</v>
       </c>
       <c r="M27" s="4">
@@ -4567,15 +4640,15 @@
         <v>15300</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" ref="N27" si="50">SUM(N24:N26)</f>
+        <f t="shared" ref="N27" si="49">SUM(N24:N26)</f>
         <v>17324</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="O27" si="51">SUM(O24:O26)</f>
+        <f t="shared" ref="O27" si="50">SUM(O24:O26)</f>
         <v>15605</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27" si="52">SUM(P24:P26)</f>
+        <f t="shared" ref="P27" si="51">SUM(P24:P26)</f>
         <v>16313</v>
       </c>
       <c r="Q27" s="4">
@@ -4583,7 +4656,7 @@
         <v>18078</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" ref="R27" si="53">SUM(R24:R26)</f>
+        <f t="shared" ref="R27" si="52">SUM(R24:R26)</f>
         <v>21420</v>
       </c>
       <c r="S27" s="4">
@@ -4591,23 +4664,23 @@
         <v>20682</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" ref="T27:W27" si="54">SUM(T24:T26)</f>
+        <f t="shared" ref="T27:W27" si="53">SUM(T24:T26)</f>
         <v>23553</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>24543</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>28648</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>25756</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" ref="X27:AG27" si="55">SUM(X24:X26)</f>
+        <f t="shared" ref="X27:AJ27" si="54">SUM(X24:X26)</f>
         <v>31061</v>
       </c>
       <c r="Y27" s="4">
@@ -4615,36 +4688,48 @@
         <v>33560</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>36965</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>33665</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>35878</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>34315</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>37950</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>32828</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>35954</v>
       </c>
       <c r="AG27" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>37982</v>
+      </c>
+      <c r="AH27" s="4">
+        <f t="shared" si="54"/>
+        <v>39558</v>
+      </c>
+      <c r="AI27" s="4">
+        <f t="shared" si="54"/>
+        <v>35125.96</v>
+      </c>
+      <c r="AJ27" s="4">
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="AT27" s="2">
         <f>AT26+AT25+AT24</f>
@@ -4659,75 +4744,75 @@
         <v>418.89800000000002</v>
       </c>
       <c r="BG27" s="4">
-        <f t="shared" ref="BG27:BI27" si="56">SUM(BG24:BG26)</f>
+        <f t="shared" ref="BG27:BI27" si="55">SUM(BG24:BG26)</f>
         <v>15159</v>
       </c>
       <c r="BH27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>19541</v>
       </c>
       <c r="BI27" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>25750</v>
       </c>
       <c r="BJ27" s="4">
-        <f t="shared" ref="BJ27" si="57">SUM(BJ24:BJ26)</f>
+        <f t="shared" ref="BJ27" si="56">SUM(BJ24:BJ26)</f>
         <v>36363</v>
       </c>
       <c r="BK27" s="4">
-        <f t="shared" ref="BK27:BL27" si="58">SUM(BK24:BK26)</f>
+        <f t="shared" ref="BK27:BL27" si="57">SUM(BK24:BK26)</f>
         <v>46987</v>
       </c>
       <c r="BL27" s="4">
+        <f t="shared" si="57"/>
+        <v>60014</v>
+      </c>
+      <c r="BM27" s="4">
+        <f t="shared" ref="BM27:BN27" si="58">SUM(BM24:BM26)</f>
+        <v>71416</v>
+      </c>
+      <c r="BN27" s="4">
         <f t="shared" si="58"/>
-        <v>60014</v>
-      </c>
-      <c r="BM27" s="4">
-        <f t="shared" ref="BM27:BN27" si="59">SUM(BM24:BM26)</f>
-        <v>71416</v>
-      </c>
-      <c r="BN27" s="4">
+        <v>97426</v>
+      </c>
+      <c r="BO27" s="4">
+        <f t="shared" ref="BO27:BP27" si="59">SUM(BO24:BO26)</f>
+        <v>127342</v>
+      </c>
+      <c r="BP27" s="4">
         <f t="shared" si="59"/>
-        <v>97426</v>
-      </c>
-      <c r="BO27" s="4">
-        <f t="shared" ref="BO27:BP27" si="60">SUM(BO24:BO26)</f>
-        <v>127342</v>
-      </c>
-      <c r="BP27" s="4">
+        <v>141808</v>
+      </c>
+      <c r="BQ27" s="4">
+        <f t="shared" ref="BQ27:BW27" si="60">SUM(BQ24:BQ26)</f>
+        <v>146062.24000000002</v>
+      </c>
+      <c r="BR27" s="4">
         <f t="shared" si="60"/>
-        <v>141808</v>
-      </c>
-      <c r="BQ27" s="4">
-        <f t="shared" ref="BQ27:BW27" si="61">SUM(BQ24:BQ26)</f>
-        <v>146062.24000000002</v>
-      </c>
-      <c r="BR27" s="4">
-        <f t="shared" si="61"/>
         <v>150444.10720000003</v>
       </c>
       <c r="BS27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>154957.43041600002</v>
       </c>
       <c r="BT27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>159606.15332848002</v>
       </c>
       <c r="BU27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>164394.33792833443</v>
       </c>
       <c r="BV27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>169326.16806618447</v>
       </c>
       <c r="BW27" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4739,7 +4824,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4">
-        <f t="shared" ref="J28" si="62">J23-J27</f>
+        <f t="shared" ref="J28" si="61">J23-J27</f>
         <v>3872</v>
       </c>
       <c r="K28" s="4">
@@ -4747,7 +4832,7 @@
         <v>4415</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28" si="63">L23-L27</f>
+        <f t="shared" ref="L28" si="62">L23-L27</f>
         <v>3170</v>
       </c>
       <c r="M28" s="4">
@@ -4755,15 +4840,15 @@
         <v>3212</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28" si="64">N23-N27</f>
+        <f t="shared" ref="N28" si="63">N23-N27</f>
         <v>3944</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28" si="65">O23-O27</f>
+        <f t="shared" ref="O28" si="64">O23-O27</f>
         <v>4059</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28" si="66">P23-P27</f>
+        <f t="shared" ref="P28" si="65">P23-P27</f>
         <v>6133</v>
       </c>
       <c r="Q28" s="4">
@@ -4771,7 +4856,7 @@
         <v>6256</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="67">R23-R27</f>
+        <f t="shared" ref="R28" si="66">R23-R27</f>
         <v>6377</v>
       </c>
       <c r="S28" s="4">
@@ -4779,23 +4864,23 @@
         <v>8903</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:W28" si="68">T23-T27</f>
+        <f t="shared" ref="T28:W28" si="67">T23-T27</f>
         <v>7713</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>4841</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>3484</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>3918</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" ref="X28:AE28" si="69">X23-X27</f>
+        <f t="shared" ref="X28:AE28" si="68">X23-X27</f>
         <v>3407</v>
       </c>
       <c r="Y28" s="4">
@@ -4803,7 +4888,7 @@
         <v>2690</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3496</v>
       </c>
       <c r="AA28" s="4">
@@ -4811,7 +4896,7 @@
         <v>4997</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>7827</v>
       </c>
       <c r="AC28" s="4">
@@ -4819,11 +4904,11 @@
         <v>11432</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>13363</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>15535</v>
       </c>
       <c r="AF28" s="4">
@@ -4834,6 +4919,18 @@
         <f>AG23-AG27</f>
         <v>15258</v>
       </c>
+      <c r="AH28" s="4">
+        <f>AH23-AH27</f>
+        <v>21379</v>
+      </c>
+      <c r="AI28" s="4">
+        <f>AI23-AI27</f>
+        <v>17985.837800000008</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f>AJ23-AJ27</f>
+        <v>55343.772000000012</v>
+      </c>
       <c r="AT28" s="2">
         <f>AT23-AT27</f>
         <v>-469.30999999999995</v>
@@ -4847,75 +4944,75 @@
         <v>361.23799999999972</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" ref="BG28:BI28" si="70">BG23-BG27</f>
+        <f t="shared" ref="BG28:BI28" si="69">BG23-BG27</f>
         <v>311</v>
       </c>
       <c r="BH28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2404</v>
       </c>
       <c r="BI28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>4353</v>
       </c>
       <c r="BJ28" s="4">
-        <f t="shared" ref="BJ28" si="71">BJ23-BJ27</f>
+        <f t="shared" ref="BJ28" si="70">BJ23-BJ27</f>
         <v>4320</v>
       </c>
       <c r="BK28" s="4">
-        <f t="shared" ref="BK28:BL28" si="72">BK23-BK27</f>
+        <f t="shared" ref="BK28:BL28" si="71">BK23-BK27</f>
         <v>12717</v>
       </c>
       <c r="BL28" s="4">
+        <f t="shared" si="71"/>
+        <v>14741</v>
+      </c>
+      <c r="BM28" s="4">
+        <f t="shared" ref="BM28:BN28" si="72">BM23-BM27</f>
+        <v>22825</v>
+      </c>
+      <c r="BN28" s="4">
         <f t="shared" si="72"/>
-        <v>14741</v>
-      </c>
-      <c r="BM28" s="4">
-        <f t="shared" ref="BM28:BN28" si="73">BM23-BM27</f>
-        <v>22825</v>
-      </c>
-      <c r="BN28" s="4">
+        <v>24941</v>
+      </c>
+      <c r="BO28" s="4">
+        <f t="shared" ref="BO28:BP28" si="73">BO23-BO27</f>
+        <v>13511</v>
+      </c>
+      <c r="BP28" s="4">
         <f t="shared" si="73"/>
-        <v>24941</v>
-      </c>
-      <c r="BO28" s="4">
-        <f t="shared" ref="BO28:BP28" si="74">BO23-BO27</f>
-        <v>13511</v>
-      </c>
-      <c r="BP28" s="4">
+        <v>37619</v>
+      </c>
+      <c r="BQ28" s="4">
+        <f t="shared" ref="BQ28:BW28" si="74">BQ23-BQ27</f>
+        <v>33623.814999999973</v>
+      </c>
+      <c r="BR28" s="4">
         <f t="shared" si="74"/>
-        <v>37619</v>
-      </c>
-      <c r="BQ28" s="4">
-        <f t="shared" ref="BQ28:BW28" si="75">BQ23-BQ27</f>
-        <v>33623.814999999973</v>
-      </c>
-      <c r="BR28" s="4">
-        <f t="shared" si="75"/>
         <v>51866.383049999888</v>
       </c>
       <c r="BS28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>74242.49159650004</v>
       </c>
       <c r="BT28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>101805.75270964496</v>
       </c>
       <c r="BU28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>121752.66145819693</v>
       </c>
       <c r="BV28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>145125.57894547345</v>
       </c>
       <c r="BW28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>172565.2584410306</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -5022,6 +5119,14 @@
         <f>-262+1256-603</f>
         <v>391</v>
       </c>
+      <c r="AH29" s="2">
+        <f>-176+1248-570+468</f>
+        <v>970</v>
+      </c>
+      <c r="AI29" s="2">
+        <f>+AH29</f>
+        <v>970</v>
+      </c>
       <c r="AT29" s="2">
         <f>29.103-139.232</f>
         <v>-110.12899999999999</v>
@@ -5055,15 +5160,15 @@
         <v>-1456</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29" si="76">SUM(K29:N29)</f>
+        <f t="shared" ref="BL29" si="75">SUM(K29:N29)</f>
         <v>-766</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" ref="BM29" si="77">SUM(O29:R29)</f>
+        <f t="shared" ref="BM29" si="76">SUM(O29:R29)</f>
         <v>1353</v>
       </c>
       <c r="BN29" s="2">
-        <f t="shared" ref="BN29" si="78">SUM(S29:V29)</f>
+        <f t="shared" ref="BN29" si="77">SUM(S29:V29)</f>
         <v>13210</v>
       </c>
       <c r="BO29" s="2">
@@ -5079,31 +5184,31 @@
         <v>284.66000000000003</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" ref="BR29:BW29" si="79">+BQ47*$BZ$46</f>
+        <f t="shared" ref="BR29:BW29" si="78">+BQ47*$BZ$46</f>
         <v>572.8820374999998</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1018.6157907437488</v>
       </c>
       <c r="BT29" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1658.3352035353212</v>
       </c>
       <c r="BU29" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2537.7799507973536</v>
       </c>
       <c r="BV29" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>3594.2487027738052</v>
       </c>
       <c r="BW29" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>4858.3672377839066</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5115,7 +5220,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <f t="shared" ref="J30" si="80">J28+J29</f>
+        <f t="shared" ref="J30" si="79">J28+J29</f>
         <v>3350</v>
       </c>
       <c r="K30" s="4">
@@ -5123,7 +5228,7 @@
         <v>4401</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="81">L28+L29</f>
+        <f t="shared" ref="L30" si="80">L28+L29</f>
         <v>2889</v>
       </c>
       <c r="M30" s="4">
@@ -5131,15 +5236,15 @@
         <v>2632</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="82">N28+N29</f>
+        <f t="shared" ref="N30" si="81">N28+N29</f>
         <v>4053</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" ref="O30" si="83">O28+O29</f>
+        <f t="shared" ref="O30" si="82">O28+O29</f>
         <v>3383</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" ref="P30" si="84">P28+P29</f>
+        <f t="shared" ref="P30" si="83">P28+P29</f>
         <v>6221</v>
       </c>
       <c r="Q30" s="4">
@@ -5147,7 +5252,7 @@
         <v>6809</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="85">R28+R29</f>
+        <f t="shared" ref="R30" si="84">R28+R29</f>
         <v>7765</v>
       </c>
       <c r="S30" s="4">
@@ -5155,39 +5260,39 @@
         <v>10268</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:AG30" si="86">T28+T29</f>
+        <f t="shared" ref="T30:AI30" si="85">T28+T29</f>
         <v>8634</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4315</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>14934</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>-5265</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>2982</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>2944</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3247</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4119</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>7563</v>
       </c>
       <c r="AC30" s="4">
@@ -5195,20 +5300,28 @@
         <v>12189</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>13686</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>12983</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>15246</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>15649</v>
+      </c>
+      <c r="AH30" s="4">
+        <f t="shared" si="85"/>
+        <v>22349</v>
+      </c>
+      <c r="AI30" s="4">
+        <f t="shared" si="85"/>
+        <v>18955.837800000008</v>
       </c>
       <c r="AT30" s="2">
         <f>AT28+AT29</f>
@@ -5223,75 +5336,75 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG30" s="4">
-        <f t="shared" ref="BG30:BI30" si="87">BG28+BG29</f>
+        <f t="shared" ref="BG30:BI30" si="86">BG28+BG29</f>
         <v>-111</v>
       </c>
       <c r="BH30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1568</v>
       </c>
       <c r="BI30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>3892</v>
       </c>
       <c r="BJ30" s="4">
-        <f t="shared" ref="BJ30" si="88">BJ28+BJ29</f>
+        <f t="shared" ref="BJ30" si="87">BJ28+BJ29</f>
         <v>3806</v>
       </c>
       <c r="BK30" s="4">
-        <f t="shared" ref="BK30:BL30" si="89">BK28+BK29</f>
+        <f t="shared" ref="BK30:BL30" si="88">BK28+BK29</f>
         <v>11261</v>
       </c>
       <c r="BL30" s="4">
+        <f t="shared" si="88"/>
+        <v>13975</v>
+      </c>
+      <c r="BM30" s="4">
+        <f t="shared" ref="BM30:BW30" si="89">BM28+BM29</f>
+        <v>24178</v>
+      </c>
+      <c r="BN30" s="4">
         <f t="shared" si="89"/>
-        <v>13975</v>
-      </c>
-      <c r="BM30" s="4">
-        <f t="shared" ref="BM30:BW30" si="90">BM28+BM29</f>
-        <v>24178</v>
-      </c>
-      <c r="BN30" s="4">
-        <f t="shared" si="90"/>
         <v>38151</v>
       </c>
       <c r="BO30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>3908</v>
       </c>
       <c r="BP30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>37557</v>
       </c>
       <c r="BQ30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>33908.474999999977</v>
       </c>
       <c r="BR30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>52439.265087499887</v>
       </c>
       <c r="BS30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>75261.107387243785</v>
       </c>
       <c r="BT30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>103464.08791318028</v>
       </c>
       <c r="BU30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>124290.44140899429</v>
       </c>
       <c r="BV30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>148719.82764824724</v>
       </c>
       <c r="BW30" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>177423.62567881451</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -5395,6 +5508,13 @@
         <f>2706+3</f>
         <v>2709</v>
       </c>
+      <c r="AH31" s="2">
+        <v>2325</v>
+      </c>
+      <c r="AI31" s="2">
+        <f>+AI30*0.1</f>
+        <v>1895.5837800000008</v>
+      </c>
       <c r="AT31" s="2">
         <v>0</v>
       </c>
@@ -5425,15 +5545,15 @@
         <v>1188</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" ref="BL31" si="91">SUM(K31:N31)</f>
+        <f t="shared" ref="BL31" si="90">SUM(K31:N31)</f>
         <v>2387</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" ref="BM31" si="92">SUM(O31:R31)</f>
+        <f t="shared" ref="BM31" si="91">SUM(O31:R31)</f>
         <v>2847</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" ref="BN31" si="93">SUM(S31:V31)</f>
+        <f t="shared" ref="BN31" si="92">SUM(S31:V31)</f>
         <v>4787</v>
       </c>
       <c r="BO31" s="2">
@@ -5449,31 +5569,31 @@
         <v>5086.2712499999961</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" ref="BR31:BW31" si="94">+BR30*0.15</f>
+        <f t="shared" ref="BR31:BW31" si="93">+BR30*0.15</f>
         <v>7865.8897631249829</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>11289.166108086567</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>15519.613186977042</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>18643.566211349142</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>22307.974147237084</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>26613.543851822174</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -5485,7 +5605,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <f t="shared" ref="J32" si="95">J30-J31</f>
+        <f t="shared" ref="J32" si="94">J30-J31</f>
         <v>3027</v>
       </c>
       <c r="K32" s="4">
@@ -5493,7 +5613,7 @@
         <v>3561</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="96">L30-L31</f>
+        <f t="shared" ref="L32" si="95">L30-L31</f>
         <v>2625</v>
       </c>
       <c r="M32" s="4">
@@ -5501,15 +5621,15 @@
         <v>2134</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32" si="97">N30-N31</f>
+        <f t="shared" ref="N32" si="96">N30-N31</f>
         <v>3268</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" ref="O32" si="98">O30-O31</f>
+        <f t="shared" ref="O32" si="97">O30-O31</f>
         <v>2535</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32" si="99">P30-P31</f>
+        <f t="shared" ref="P32" si="98">P30-P31</f>
         <v>5243</v>
       </c>
       <c r="Q32" s="4">
@@ -5517,7 +5637,7 @@
         <v>6331</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" ref="R32" si="100">R30-R31</f>
+        <f t="shared" ref="R32" si="99">R30-R31</f>
         <v>7222</v>
       </c>
       <c r="S32" s="4">
@@ -5525,60 +5645,68 @@
         <v>8107</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" ref="T32:AG32" si="101">T30-T31</f>
+        <f t="shared" ref="T32:AI32" si="100">T30-T31</f>
         <v>7778</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3156</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>14323</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>-3844</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2982</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2872</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3247</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3172</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>6750</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>9879</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>10624</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>10431</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>13486</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>12940</v>
+      </c>
+      <c r="AH32" s="4">
+        <f t="shared" si="100"/>
+        <v>20024</v>
+      </c>
+      <c r="AI32" s="4">
+        <f t="shared" si="100"/>
+        <v>17060.254020000008</v>
       </c>
       <c r="AT32" s="2">
         <f>AT30-AT31</f>
@@ -5593,71 +5721,71 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG32" s="4">
-        <f t="shared" ref="BG32:BI32" si="102">BG30-BG31</f>
+        <f t="shared" ref="BG32:BI32" si="101">BG30-BG31</f>
         <v>-241</v>
       </c>
       <c r="BH32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>596</v>
       </c>
       <c r="BI32" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>2371</v>
       </c>
       <c r="BJ32" s="4">
-        <f t="shared" ref="BJ32" si="103">BJ30-BJ31</f>
+        <f t="shared" ref="BJ32" si="102">BJ30-BJ31</f>
         <v>3033</v>
       </c>
       <c r="BK32" s="4">
-        <f t="shared" ref="BK32:BL32" si="104">BK30-BK31</f>
+        <f t="shared" ref="BK32:BL32" si="103">BK30-BK31</f>
         <v>10073</v>
       </c>
       <c r="BL32" s="4">
+        <f t="shared" si="103"/>
+        <v>11588</v>
+      </c>
+      <c r="BM32" s="4">
+        <f t="shared" ref="BM32:BP32" si="104">BM30-BM31</f>
+        <v>21331</v>
+      </c>
+      <c r="BN32" s="4">
         <f t="shared" si="104"/>
-        <v>11588</v>
-      </c>
-      <c r="BM32" s="4">
-        <f t="shared" ref="BM32:BP32" si="105">BM30-BM31</f>
-        <v>21331</v>
-      </c>
-      <c r="BN32" s="4">
+        <v>33364</v>
+      </c>
+      <c r="BO32" s="4">
+        <f t="shared" si="104"/>
+        <v>5257</v>
+      </c>
+      <c r="BP32" s="4">
+        <f t="shared" si="104"/>
+        <v>30425</v>
+      </c>
+      <c r="BQ32" s="4">
+        <f t="shared" ref="BQ32:BW32" si="105">BQ30-BQ31</f>
+        <v>28822.203749999979</v>
+      </c>
+      <c r="BR32" s="4">
         <f t="shared" si="105"/>
-        <v>33364</v>
-      </c>
-      <c r="BO32" s="4">
+        <v>44573.375324374902</v>
+      </c>
+      <c r="BS32" s="4">
         <f t="shared" si="105"/>
-        <v>5257</v>
-      </c>
-      <c r="BP32" s="4">
+        <v>63971.941279157218</v>
+      </c>
+      <c r="BT32" s="4">
         <f t="shared" si="105"/>
-        <v>30425</v>
-      </c>
-      <c r="BQ32" s="4">
-        <f t="shared" ref="BQ32:BW32" si="106">BQ30-BQ31</f>
-        <v>28822.203749999979</v>
-      </c>
-      <c r="BR32" s="4">
-        <f t="shared" si="106"/>
-        <v>44573.375324374902</v>
-      </c>
-      <c r="BS32" s="4">
-        <f t="shared" si="106"/>
-        <v>63971.941279157218</v>
-      </c>
-      <c r="BT32" s="4">
-        <f t="shared" si="106"/>
         <v>87944.474726203232</v>
       </c>
       <c r="BU32" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>105646.87519764515</v>
       </c>
       <c r="BV32" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>126411.85350101016</v>
       </c>
       <c r="BW32" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>150810.08182699233</v>
       </c>
       <c r="BX32" s="2">
@@ -5665,251 +5793,251 @@
         <v>150810.08182699233</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" ref="BY32:EG32" si="107">+BX32*(1+$BZ$47)</f>
+        <f t="shared" ref="BY32:EG32" si="106">+BX32*(1+$BZ$47)</f>
         <v>150810.08182699233</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EE32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EF32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
       <c r="EG32" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>150810.08182699233</v>
       </c>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -5921,7 +6049,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7">
-        <f t="shared" ref="J33" si="108">J32/J34</f>
+        <f t="shared" ref="J33" si="107">J32/J34</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="K33" s="7">
@@ -5929,7 +6057,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33" si="109">L32/L34</f>
+        <f t="shared" ref="L33" si="108">L32/L34</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="M33" s="7">
@@ -5937,15 +6065,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33" si="110">N32/N34</f>
+        <f t="shared" ref="N33" si="109">N32/N34</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33" si="111">O32/O34</f>
+        <f t="shared" ref="O33" si="110">O32/O34</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33" si="112">P32/P34</f>
+        <f t="shared" ref="P33" si="111">P32/P34</f>
         <v>10.300589390962672</v>
       </c>
       <c r="Q33" s="7">
@@ -5953,7 +6081,7 @@
         <v>12.365234375</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" ref="R33" si="113">R32/R34</f>
+        <f t="shared" ref="R33" si="112">R32/R34</f>
         <v>14.077972709551657</v>
       </c>
       <c r="S33" s="7">
@@ -5977,44 +6105,52 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" ref="X33:AG33" si="114">X32/X34</f>
+        <f t="shared" ref="X33:AI33" si="113">X32/X34</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.27799825767108705</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.31499805975941014</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.3065622885860636</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.64599483204134367</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.93568857738207989</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1.0013195098963241</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.97760074976569822</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1.2594322002241314</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1.2054028877503493</v>
+      </c>
+      <c r="AH33" s="7">
+        <f t="shared" si="113"/>
+        <v>1.8590660105839756</v>
+      </c>
+      <c r="AI33" s="7">
+        <f t="shared" si="113"/>
+        <v>1.5839062315476751</v>
       </c>
       <c r="AT33" s="1">
         <f>AT32/AT34</f>
@@ -6029,27 +6165,27 @@
         <v>0.60382208741105259</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="115">BG32/BG34</f>
+        <f t="shared" ref="BG33" si="114">BG32/BG34</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="116">BH32/BH34</f>
+        <f t="shared" ref="BH33" si="115">BH32/BH34</f>
         <v>1.249475890985325</v>
       </c>
       <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="117">BI32/BI34</f>
+        <f t="shared" ref="BI33" si="116">BI32/BI34</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="BJ33" s="7">
-        <f t="shared" ref="BJ33" si="118">BJ32/BJ34</f>
+        <f t="shared" ref="BJ33" si="117">BJ32/BJ34</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="BK33" s="7">
-        <f t="shared" ref="BK33:BL33" si="119">BK32/BK34</f>
+        <f t="shared" ref="BK33:BL33" si="118">BK32/BK34</f>
         <v>20.146000000000001</v>
       </c>
       <c r="BL33" s="7">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>23.014895729890764</v>
       </c>
       <c r="BM33" s="7">
@@ -6061,43 +6197,43 @@
         <v>6.1676679914964412</v>
       </c>
       <c r="BO33" s="7">
-        <f t="shared" ref="BO33:BP33" si="120">BO32/BO34</f>
+        <f t="shared" ref="BO33:BP33" si="119">BO32/BO34</f>
         <v>0.51665847665847664</v>
       </c>
       <c r="BP33" s="7">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>2.9001048517777144</v>
       </c>
       <c r="BQ33" s="7">
-        <f t="shared" ref="BQ33" si="121">BQ32/BQ34</f>
+        <f t="shared" ref="BQ33" si="120">BQ32/BQ34</f>
         <v>2.7473266371175273</v>
       </c>
       <c r="BR33" s="7">
-        <f t="shared" ref="BR33" si="122">BR32/BR34</f>
+        <f t="shared" ref="BR33" si="121">BR32/BR34</f>
         <v>4.2487251286221426</v>
       </c>
       <c r="BS33" s="7">
-        <f t="shared" ref="BS33" si="123">BS32/BS34</f>
+        <f t="shared" ref="BS33" si="122">BS32/BS34</f>
         <v>6.0977925154091333</v>
       </c>
       <c r="BT33" s="7">
-        <f t="shared" ref="BT33" si="124">BT32/BT34</f>
+        <f t="shared" ref="BT33" si="123">BT32/BT34</f>
         <v>8.3828495592606274</v>
       </c>
       <c r="BU33" s="7">
-        <f t="shared" ref="BU33" si="125">BU32/BU34</f>
+        <f t="shared" ref="BU33" si="124">BU32/BU34</f>
         <v>10.070238794933291</v>
       </c>
       <c r="BV33" s="7">
-        <f t="shared" ref="BV33" si="126">BV32/BV34</f>
+        <f t="shared" ref="BV33" si="125">BV32/BV34</f>
         <v>12.049552330665348</v>
       </c>
       <c r="BW33" s="7">
-        <f t="shared" ref="BW33" si="127">BW32/BW34</f>
+        <f t="shared" ref="BW33" si="126">BW32/BW34</f>
         <v>14.375186524353477</v>
       </c>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
@@ -6172,6 +6308,13 @@
       </c>
       <c r="AG34" s="4">
         <v>10735</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>10771</v>
+      </c>
+      <c r="AI34" s="2">
+        <f>+AH34</f>
+        <v>10771</v>
       </c>
       <c r="AR34" s="2">
         <v>161.096869</v>
@@ -6225,31 +6368,31 @@
         <v>10491</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" ref="BR34:BW34" si="128">+BQ34</f>
+        <f t="shared" ref="BR34:BW34" si="127">+BQ34</f>
         <v>10491</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>10491</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>10491</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>10491</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>10491</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>10491</v>
       </c>
     </row>
-    <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6273,31 +6416,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" ref="P36:R36" si="129">P20/L20-1</f>
+        <f t="shared" ref="P36:R36" si="128">P20/L20-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36" si="130">S20/O20-1</f>
+        <f t="shared" ref="S36" si="129">S20/O20-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="131">T20/P20-1</f>
+        <f t="shared" ref="T36" si="130">T20/P20-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36" si="132">U20/Q20-1</f>
+        <f t="shared" ref="U36" si="131">U20/Q20-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36" si="133">V20/R20-1</f>
+        <f t="shared" ref="V36" si="132">V20/R20-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="W36" s="10">
@@ -6305,7 +6448,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36:AE36" si="134">X20/T20-1</f>
+        <f t="shared" ref="X36:AE36" si="133">X20/T20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Y36" s="10">
@@ -6313,7 +6456,7 @@
         <v>0.14699671515720314</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="AA36" s="10">
@@ -6321,19 +6464,19 @@
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="AB36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>0.10845967302901816</v>
       </c>
       <c r="AC36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>0.125742519728405</v>
       </c>
       <c r="AD36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>0.13911825420230017</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>0.12527677884388888</v>
       </c>
       <c r="AF36" s="10">
@@ -6341,119 +6484,119 @@
         <v>0.10116607011303502</v>
       </c>
       <c r="AG36" s="10">
-        <f t="shared" ref="AG36:AL36" si="135">AG20/AC20-1</f>
+        <f t="shared" ref="AG36:AL36" si="134">AG20/AC20-1</f>
         <v>0.11038348371225104</v>
       </c>
       <c r="AH36" s="10">
+        <f t="shared" si="134"/>
+        <v>0.10491230341078239</v>
+      </c>
+      <c r="AI36" s="10">
+        <f t="shared" si="134"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="AJ36" s="10">
+        <f t="shared" si="134"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AK36" s="10">
+        <f t="shared" si="134"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AL36" s="10">
+        <f t="shared" si="134"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AQ36" s="15">
+        <f t="shared" ref="AQ36:AR36" si="135">AQ20/AP20-1</f>
+        <v>3.1263372285789677</v>
+      </c>
+      <c r="AR36" s="15">
         <f t="shared" si="135"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AI36" s="10">
-        <f t="shared" si="135"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ36" s="10">
-        <f t="shared" si="135"/>
-        <v>-1</v>
-      </c>
-      <c r="AK36" s="10">
-        <f t="shared" si="135"/>
-        <v>-1</v>
-      </c>
-      <c r="AL36" s="10">
-        <f t="shared" si="135"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36:AR36" si="136">AQ20/AP20-1</f>
-        <v>3.1263372285789677</v>
-      </c>
-      <c r="AR36" s="15">
-        <f t="shared" si="136"/>
         <v>1.6890585567192891</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" ref="AS36" si="137">AS20/AR20-1</f>
+        <f t="shared" ref="AS36" si="136">AS20/AR20-1</f>
         <v>0.68430132470321792</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" ref="AT36" si="138">AT20/AS20-1</f>
+        <f t="shared" ref="AT36" si="137">AT20/AS20-1</f>
         <v>0.1305040617556299</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" ref="AU36" si="139">AU20/AT20-1</f>
+        <f t="shared" ref="AU36" si="138">AU20/AT20-1</f>
         <v>0.25957418461821291</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" ref="AV36" si="140">AV20/AU20-1</f>
+        <f t="shared" ref="AV36" si="139">AV20/AU20-1</f>
         <v>0.3383637567455966</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="141">AW20/AV20-1</f>
+        <f t="shared" ref="AW36" si="140">AW20/AV20-1</f>
         <v>0.31485481977597884</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="142">AX20/AW20-1</f>
+        <f t="shared" ref="AX36" si="141">AX20/AW20-1</f>
         <v>0.22670134373645423</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="143">AY20/AX20-1</f>
+        <f t="shared" ref="AY36" si="142">AY20/AX20-1</f>
         <v>0.26160188457008249</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" ref="AZ36" si="144">AZ20/AY20-1</f>
+        <f t="shared" ref="AZ36" si="143">AZ20/AY20-1</f>
         <v>0.38502474092054895</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" ref="BA36" si="145">BA20/AZ20-1</f>
+        <f t="shared" ref="BA36" si="144">BA20/AZ20-1</f>
         <v>0.29194472531176263</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" ref="BB36" si="146">BB20/BA20-1</f>
+        <f t="shared" ref="BB36" si="145">BB20/BA20-1</f>
         <v>0.27877491391004905</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" ref="BC36" si="147">BC20/BB20-1</f>
+        <f t="shared" ref="BC36" si="146">BC20/BB20-1</f>
         <v>0.39556897466236896</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" ref="BD36" si="148">BD20/BC20-1</f>
+        <f t="shared" ref="BD36" si="147">BD20/BC20-1</f>
         <v>0.40559583674424049</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" ref="BE36" si="149">BE20/BD20-1</f>
+        <f t="shared" ref="BE36" si="148">BE20/BD20-1</f>
         <v>0.27073236682821311</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" ref="BF36:BJ36" si="150">BF20/BE20-1</f>
+        <f t="shared" ref="BF36:BJ36" si="149">BF20/BE20-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="BJ36" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="BK36" s="15">
-        <f t="shared" ref="BK36" si="151">BK20/BJ20-1</f>
+        <f t="shared" ref="BK36" si="150">BK20/BJ20-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="BL36" s="15">
-        <f t="shared" ref="BL36" si="152">BL20/BK20-1</f>
+        <f t="shared" ref="BL36" si="151">BL20/BK20-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="BM36" s="15">
-        <f t="shared" ref="BM36" si="153">BM20/BL20-1</f>
+        <f t="shared" ref="BM36" si="152">BM20/BL20-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="BN36" s="15">
@@ -6461,7 +6604,7 @@
         <v>0.21695366571345676</v>
       </c>
       <c r="BO36" s="15">
-        <f t="shared" ref="BO36:BW36" si="154">BO20/BN20-1</f>
+        <f t="shared" ref="BO36:BW36" si="153">BO20/BN20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="BP36" s="15">
@@ -6469,35 +6612,35 @@
         <v>0.1182957412988368</v>
       </c>
       <c r="BQ36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>9.7052376105848381E-2</v>
       </c>
       <c r="BR36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.10437523317224873</v>
       </c>
       <c r="BS36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.11263099590824455</v>
       </c>
       <c r="BT36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.12181773034139209</v>
       </c>
       <c r="BU36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>9.4732369013925899E-2</v>
       </c>
       <c r="BV36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>9.9033758693974017E-2</v>
       </c>
       <c r="BW36" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.10353840131598058</v>
       </c>
     </row>
-    <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>123</v>
       </c>
@@ -6544,7 +6687,9 @@
       <c r="AG37" s="10">
         <v>0.11</v>
       </c>
-      <c r="AH37" s="10"/>
+      <c r="AH37" s="10">
+        <v>0.11</v>
+      </c>
       <c r="AI37" s="10"/>
       <c r="AJ37" s="10"/>
       <c r="AK37" s="10"/>
@@ -6583,7 +6728,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -6593,99 +6738,99 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f t="shared" ref="O38:R39" si="155">+O18/K18-1</f>
+        <f t="shared" ref="O38:R39" si="154">+O18/K18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="P38" s="8">
+        <f t="shared" si="154"/>
+        <v>0.40127175368139234</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="154"/>
+        <v>0.32844988168957356</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" si="154"/>
+        <v>0.40588025800324479</v>
+      </c>
+      <c r="S38" s="8">
+        <f t="shared" ref="S38:W38" si="155">+S18/O18-1</f>
+        <v>0.37403503740350375</v>
+      </c>
+      <c r="T38" s="8">
         <f t="shared" si="155"/>
-        <v>0.40127175368139234</v>
-      </c>
-      <c r="Q38" s="8">
+        <v>0.15444630204601539</v>
+      </c>
+      <c r="U38" s="8">
         <f t="shared" si="155"/>
-        <v>0.32844988168957356</v>
-      </c>
-      <c r="R38" s="8">
+        <v>3.9830219426232549E-2</v>
+      </c>
+      <c r="V38" s="8">
         <f t="shared" si="155"/>
-        <v>0.40588025800324479</v>
-      </c>
-      <c r="S38" s="8">
-        <f t="shared" ref="S38:W38" si="156">+S18/O18-1</f>
-        <v>0.37403503740350375</v>
-      </c>
-      <c r="T38" s="8">
+        <v>5.0664264805224679E-3</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="155"/>
+        <v>-1.8020211859247515E-2</v>
+      </c>
+      <c r="X38" s="8">
+        <f t="shared" ref="X38:AF38" si="156">+X18/T18-1</f>
+        <v>-2.4636231984001111E-2</v>
+      </c>
+      <c r="Y38" s="8">
         <f t="shared" si="156"/>
-        <v>0.15444630204601539</v>
-      </c>
-      <c r="U38" s="8">
+        <v>8.1347036956046281E-2</v>
+      </c>
+      <c r="Z38" s="8">
         <f t="shared" si="156"/>
-        <v>3.9830219426232549E-2</v>
-      </c>
-      <c r="V38" s="8">
+        <v>-1.2392181023860194E-2</v>
+      </c>
+      <c r="AA38" s="8">
         <f t="shared" si="156"/>
-        <v>5.0664264805224679E-3</v>
-      </c>
-      <c r="W38" s="8">
+        <v>9.317155256398868E-3</v>
+      </c>
+      <c r="AB38" s="8">
         <f t="shared" si="156"/>
-        <v>-1.8020211859247515E-2</v>
-      </c>
-      <c r="X38" s="8">
-        <f t="shared" ref="X38:AF38" si="157">+X18/T18-1</f>
-        <v>-2.4636231984001111E-2</v>
-      </c>
-      <c r="Y38" s="8">
+        <v>4.342907644719407E-2</v>
+      </c>
+      <c r="AC38" s="8">
+        <f t="shared" si="156"/>
+        <v>6.4560161779575242E-2</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="156"/>
+        <v>8.7507620762501626E-2</v>
+      </c>
+      <c r="AE38" s="8">
+        <f t="shared" si="156"/>
+        <v>6.9040557378775347E-2</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="156"/>
+        <v>4.2976690608483636E-2</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" ref="AG38:AL38" si="157">+AG18/AC18-1</f>
+        <v>7.0127115290243847E-2</v>
+      </c>
+      <c r="AH38" s="8">
         <f t="shared" si="157"/>
-        <v>8.1347036956046281E-2</v>
-      </c>
-      <c r="Z38" s="8">
+        <v>7.200500632309037E-2</v>
+      </c>
+      <c r="AI38" s="8">
         <f t="shared" si="157"/>
-        <v>-1.2392181023860194E-2</v>
-      </c>
-      <c r="AA38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AJ38" s="8">
         <f t="shared" si="157"/>
-        <v>9.317155256398868E-3</v>
-      </c>
-      <c r="AB38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK38" s="8">
         <f t="shared" si="157"/>
-        <v>4.342907644719407E-2</v>
-      </c>
-      <c r="AC38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AL38" s="8">
         <f t="shared" si="157"/>
-        <v>6.4560161779575242E-2</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="157"/>
-        <v>8.7507620762501626E-2</v>
-      </c>
-      <c r="AE38" s="8">
-        <f t="shared" si="157"/>
-        <v>6.9040557378775347E-2</v>
-      </c>
-      <c r="AF38" s="8">
-        <f t="shared" si="157"/>
-        <v>4.2976690608483636E-2</v>
-      </c>
-      <c r="AG38" s="8">
-        <f t="shared" ref="AG38:AL38" si="158">+AG18/AC18-1</f>
-        <v>7.0127115290243847E-2</v>
-      </c>
-      <c r="AH38" s="8">
-        <f t="shared" si="158"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AI38" s="8">
-        <f t="shared" si="158"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ38" s="8">
-        <f t="shared" si="158"/>
-        <v>-1</v>
-      </c>
-      <c r="AK38" s="8">
-        <f t="shared" si="158"/>
-        <v>-1</v>
-      </c>
-      <c r="AL38" s="8">
-        <f t="shared" si="158"/>
         <v>-1</v>
       </c>
       <c r="BF38" s="13"/>
@@ -6707,7 +6852,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -6717,55 +6862,55 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.32238265727662596</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.40365906780891536</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.43351512146752613</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="159">+S19/O19-1</f>
+        <f t="shared" ref="S39" si="158">+S19/O19-1</f>
         <v>0.5181636964089138</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="160">+T19/P19-1</f>
+        <f t="shared" ref="T39" si="159">+T19/P19-1</f>
         <v>0.42433019551049966</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="161">+U19/Q19-1</f>
+        <f t="shared" ref="U39" si="160">+U19/Q19-1</f>
         <v>0.28970971386410271</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="162">+V19/R19-1</f>
+        <f t="shared" ref="V39" si="161">+V19/R19-1</f>
         <v>0.21095799922934355</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39:AA39" si="163">+W19/S19-1</f>
+        <f t="shared" ref="W39:AA39" si="162">+W19/S19-1</f>
         <v>0.17563250827993016</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.17399593289273008</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.21140231693363853</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.19208739923631746</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.17316508026471511</v>
       </c>
       <c r="AB39" s="8">
@@ -6789,27 +6934,27 @@
         <v>0.14675319504717921</v>
       </c>
       <c r="AG39" s="8">
-        <f t="shared" ref="AG39:AL39" si="164">+AG19/AC19-1</f>
+        <f t="shared" ref="AG39:AL39" si="163">+AG19/AC19-1</f>
         <v>0.14220642706977671</v>
       </c>
       <c r="AH39" s="8">
-        <f t="shared" si="164"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="163"/>
+        <v>0.13197795363400466</v>
       </c>
       <c r="AI39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="AJ39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="AK39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="AL39" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="BF39" s="13"/>
@@ -6831,44 +6976,44 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40" si="165">+N11/J11-1</f>
+        <f t="shared" ref="N40" si="164">+N11/J11-1</f>
         <v>0.14652704535181549</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" ref="O40" si="166">+O11/K11-1</f>
+        <f t="shared" ref="O40" si="165">+O11/K11-1</f>
         <v>0.24252491694352152</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="167">+P11/L11-1</f>
+        <f t="shared" ref="P40" si="166">+P11/L11-1</f>
         <v>0.47798924419540789</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="168">+Q11/M11-1</f>
+        <f t="shared" ref="Q40" si="167">+Q11/M11-1</f>
         <v>0.37989097862381915</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:V40" si="169">+R11/N11-1</f>
+        <f t="shared" ref="R40:V40" si="168">+R11/N11-1</f>
         <v>0.45543947258908823</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>0.44333187820582776</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>0.15820550810528156</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>3.2926577042399208E-2</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>-5.6583046154309313E-3</v>
       </c>
       <c r="W40" s="8">
@@ -6876,31 +7021,31 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AD40" si="170">+X11/T11-1</f>
+        <f t="shared" ref="X40:AD40" si="169">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>7.0631344762474457E-2</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>9.3164525576854507E-2</v>
       </c>
       <c r="AE40" s="8">
@@ -6912,36 +7057,36 @@
         <v>4.5802967941698469E-2</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40:AL40" si="171">+AG11/AC11-1</f>
+        <f t="shared" ref="AG40:AL40" si="170">+AG11/AC11-1</f>
         <v>7.2362791834738927E-2</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AJ40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AL40" s="8" t="e">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="172">BL11/BK11-1</f>
+        <f t="shared" ref="BL40" si="171">BL11/BK11-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="173">BM11/BL11-1</f>
+        <f t="shared" ref="BM40" si="172">BM11/BL11-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="BN40" s="13">
@@ -6949,80 +7094,80 @@
         <v>0.12529072860769497</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="174">BO11/BN11-1</f>
+        <f t="shared" ref="BO40:BW40" si="173">BO11/BN11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.3944473736841081E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW40" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V41" si="175">+N13/J13-1</f>
+        <f t="shared" ref="N41:V41" si="174">+N13/J13-1</f>
         <v>0.30359411193304942</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.54677565849227983</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.56637624670411557</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.63747496374058987</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.37867546029128873</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.18672930123311793</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.10952537783144867</v>
       </c>
       <c r="W41" s="8">
@@ -7030,72 +7175,72 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AD41" si="176">+X13/T13-1</f>
+        <f t="shared" ref="X41:AD41" si="175">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y41" s="8">
+        <f t="shared" si="175"/>
+        <v>0.18200560778492503</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="175"/>
+        <v>0.19851583113456472</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="175"/>
+        <v>0.177027827116637</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="175"/>
+        <v>0.18103448275862077</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="175"/>
+        <v>0.19800460475825021</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="175"/>
+        <v>0.19868460882247718</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" ref="AE41:AL43" si="176">+AE13/AA13-1</f>
+        <v>0.16016096579476868</v>
+      </c>
+      <c r="AF41" s="8">
         <f t="shared" si="176"/>
-        <v>0.18200560778492503</v>
-      </c>
-      <c r="Z41" s="8">
+        <v>0.11966472844240994</v>
+      </c>
+      <c r="AG41" s="8">
         <f t="shared" si="176"/>
-        <v>0.19851583113456472</v>
-      </c>
-      <c r="AA41" s="8">
+        <v>0.10255663618892319</v>
+      </c>
+      <c r="AH41" s="8">
         <f t="shared" si="176"/>
-        <v>0.177027827116637</v>
-      </c>
-      <c r="AB41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AI41" s="8">
         <f t="shared" si="176"/>
-        <v>0.18103448275862077</v>
-      </c>
-      <c r="AC41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AJ41" s="8">
         <f t="shared" si="176"/>
-        <v>0.19800460475825021</v>
-      </c>
-      <c r="AD41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK41" s="8">
         <f t="shared" si="176"/>
-        <v>0.19868460882247718</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" ref="AE41:AL43" si="177">+AE13/AA13-1</f>
-        <v>0.16016096579476868</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="177"/>
-        <v>0.11966472844240994</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="177"/>
-        <v>0.10255663618892319</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="177"/>
         <v>-1</v>
       </c>
-      <c r="AI41" s="8">
-        <f t="shared" si="177"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="177"/>
-        <v>-1</v>
-      </c>
-      <c r="AK41" s="8">
-        <f t="shared" si="177"/>
-        <v>-1</v>
-      </c>
       <c r="AL41" s="8" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="178">BL13/BK13-1</f>
+        <f t="shared" ref="BL41" si="177">BL13/BK13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="179">BM13/BL13-1</f>
+        <f t="shared" ref="BM41" si="178">BM13/BL13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BN41" s="13">
@@ -7103,80 +7248,80 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="180">BO13/BN13-1</f>
+        <f t="shared" ref="BO41:BW41" si="179">BO13/BN13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW41" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:V43" si="181">+N14/J14-1</f>
+        <f t="shared" ref="N42:V43" si="180">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W42" s="8">
@@ -7184,72 +7329,72 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42:AD43" si="182">+X14/T14-1</f>
+        <f t="shared" ref="X42:AD43" si="181">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>9.824135839902981E-2</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.10894788593903648</v>
       </c>
       <c r="AH42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AI42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AJ42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AK42" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AL42" s="8" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="183">BL14/BK14-1</f>
+        <f t="shared" ref="BL42" si="182">BL14/BK14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="184">BM14/BL14-1</f>
+        <f t="shared" ref="BM42" si="183">BM14/BL14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BN42" s="13">
@@ -7257,266 +7402,266 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="185">BO14/BN14-1</f>
+        <f t="shared" ref="BO42:BW42" si="184">BO14/BN14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.41145218417945695</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.43814432989690721</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.40606262491672229</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.50529838259899607</v>
+      </c>
+      <c r="R43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.53701380175658731</v>
+      </c>
+      <c r="S43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.63364055299539168</v>
+      </c>
+      <c r="T43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.76522151149016815</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.41015190811411628</v>
+      </c>
+      <c r="V43" s="8">
+        <f t="shared" si="180"/>
+        <v>0.32190476190476192</v>
+      </c>
+      <c r="W43" s="8">
+        <f t="shared" ref="W43" si="185">+W15/S15-1</f>
+        <v>0.23444601159692846</v>
+      </c>
+      <c r="X43" s="8">
         <f t="shared" si="181"/>
-        <v>0.41145218417945695</v>
-      </c>
-      <c r="O43" s="8">
+        <v>0.17527848610924712</v>
+      </c>
+      <c r="Y43" s="8">
         <f t="shared" si="181"/>
-        <v>0.43814432989690721</v>
-      </c>
-      <c r="P43" s="8">
+        <v>0.25433526011560703</v>
+      </c>
+      <c r="Z43" s="8">
         <f t="shared" si="181"/>
-        <v>0.40606262491672229</v>
-      </c>
-      <c r="Q43" s="8">
+        <v>0.18948126801152743</v>
+      </c>
+      <c r="AA43" s="8">
         <f t="shared" si="181"/>
-        <v>0.50529838259899607</v>
-      </c>
-      <c r="R43" s="8">
+        <v>0.20718547670432907</v>
+      </c>
+      <c r="AB43" s="8">
         <f t="shared" si="181"/>
-        <v>0.53701380175658731</v>
-      </c>
-      <c r="S43" s="8">
+        <v>0.21993833504624871</v>
+      </c>
+      <c r="AC43" s="8">
         <f t="shared" si="181"/>
-        <v>0.63364055299539168</v>
-      </c>
-      <c r="T43" s="8">
+        <v>0.26309174696271476</v>
+      </c>
+      <c r="AD43" s="8">
         <f t="shared" si="181"/>
-        <v>0.76522151149016815</v>
-      </c>
-      <c r="U43" s="8">
-        <f t="shared" si="181"/>
-        <v>0.41015190811411628</v>
-      </c>
-      <c r="V43" s="8">
-        <f t="shared" si="181"/>
-        <v>0.32190476190476192</v>
-      </c>
-      <c r="W43" s="8">
-        <f t="shared" ref="W43" si="186">+W15/S15-1</f>
-        <v>0.23444601159692846</v>
-      </c>
-      <c r="X43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.17527848610924712</v>
-      </c>
-      <c r="Y43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.25433526011560703</v>
-      </c>
-      <c r="Z43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.18948126801152743</v>
-      </c>
-      <c r="AA43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.20718547670432907</v>
-      </c>
-      <c r="AB43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.21993833504624871</v>
-      </c>
-      <c r="AC43" s="8">
-        <f t="shared" si="182"/>
-        <v>0.26309174696271476</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="182"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.19545071609098574</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.18830845771144289</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>-1</v>
       </c>
       <c r="AL43" s="8" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="187">BL15/BK15-1</f>
+        <f t="shared" ref="BL43" si="186">BL15/BK15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="188">BM15/BL15-1</f>
+        <f t="shared" ref="BM43:BN43" si="187">BM15/BL15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BN43" s="13">
+        <f t="shared" si="187"/>
+        <v>0.49269461077844312</v>
+      </c>
+      <c r="BO43" s="13">
+        <f t="shared" ref="BO43:BW43" si="188">BO15/BN15-1</f>
+        <v>0.21113607188703476</v>
+      </c>
+      <c r="BP43" s="13">
         <f t="shared" si="188"/>
-        <v>0.49269461077844312</v>
-      </c>
-      <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="189">BO15/BN15-1</f>
-        <v>0.21113607188703476</v>
-      </c>
-      <c r="BP43" s="13">
-        <f t="shared" si="189"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW43" s="13">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44:O44" si="190">N9/J9-1</f>
+        <f t="shared" ref="N44:O44" si="189">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="191">P9/L9-1</f>
+        <f t="shared" ref="P44" si="190">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="192">Q9/M9-1</f>
+        <f t="shared" ref="Q44" si="191">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="193">R9/N9-1</f>
+        <f t="shared" ref="R44" si="192">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44" si="194">S9/O9-1</f>
+        <f t="shared" ref="S44" si="193">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44" si="195">T9/P9-1</f>
+        <f t="shared" ref="T44" si="194">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44" si="196">U9/Q9-1</f>
+        <f t="shared" ref="U44" si="195">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" ref="V44:AA44" si="197">V9/R9-1</f>
+        <f t="shared" ref="V44:AA44" si="196">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W44" s="8">
+        <f t="shared" si="196"/>
+        <v>0.36569651188624741</v>
+      </c>
+      <c r="X44" s="8">
+        <f t="shared" si="196"/>
+        <v>0.33290566547369838</v>
+      </c>
+      <c r="Y44" s="8">
+        <f t="shared" si="196"/>
+        <v>0.27486033519553077</v>
+      </c>
+      <c r="Z44" s="8">
+        <f t="shared" si="196"/>
+        <v>0.20236220472440936</v>
+      </c>
+      <c r="AA44" s="8">
+        <f t="shared" si="196"/>
+        <v>0.157963234097934</v>
+      </c>
+      <c r="AB44" s="8">
+        <f t="shared" ref="AB44:AD44" si="197">AB9/X9-1</f>
+        <v>0.12163736764780375</v>
+      </c>
+      <c r="AC44" s="8">
         <f t="shared" si="197"/>
-        <v>0.36569651188624741</v>
-      </c>
-      <c r="X44" s="8">
+        <v>0.1227480767358069</v>
+      </c>
+      <c r="AD44" s="8">
         <f t="shared" si="197"/>
-        <v>0.33290566547369838</v>
-      </c>
-      <c r="Y44" s="8">
-        <f t="shared" si="197"/>
-        <v>0.27486033519553077</v>
-      </c>
-      <c r="Z44" s="8">
-        <f t="shared" si="197"/>
-        <v>0.20236220472440936</v>
-      </c>
-      <c r="AA44" s="8">
-        <f t="shared" si="197"/>
-        <v>0.157963234097934</v>
-      </c>
-      <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AD44" si="198">AB9/X9-1</f>
-        <v>0.12163736764780375</v>
-      </c>
-      <c r="AC44" s="8">
-        <f t="shared" si="198"/>
-        <v>0.1227480767358069</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="198"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE44" s="8">
@@ -7528,51 +7673,51 @@
         <v>0.18703703703703711</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" ref="AG44:AL44" si="199">AG9/AC9-1</f>
+        <f t="shared" ref="AG44:AL44" si="198">AG9/AC9-1</f>
         <v>0.1905112971074201</v>
       </c>
       <c r="AH44" s="8">
+        <f t="shared" si="198"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AI44" s="8">
+        <f t="shared" si="198"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ44" s="8">
+        <f t="shared" si="198"/>
+        <v>-1</v>
+      </c>
+      <c r="AK44" s="8">
+        <f t="shared" si="198"/>
+        <v>-1</v>
+      </c>
+      <c r="AL44" s="8">
+        <f t="shared" si="198"/>
+        <v>-1</v>
+      </c>
+      <c r="BH44" s="13">
+        <f t="shared" ref="BH44:BJ44" si="199">BH9/BG9-1</f>
+        <v>0.69681309216192933</v>
+      </c>
+      <c r="BI44" s="13">
         <f t="shared" si="199"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI44" s="8">
+        <v>0.55063451776649752</v>
+      </c>
+      <c r="BJ44" s="13">
         <f t="shared" si="199"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ44" s="8">
-        <f t="shared" si="199"/>
-        <v>-1</v>
-      </c>
-      <c r="AK44" s="8">
-        <f t="shared" si="199"/>
-        <v>-1</v>
-      </c>
-      <c r="AL44" s="8">
-        <f t="shared" si="199"/>
-        <v>-1</v>
-      </c>
-      <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="200">BH9/BG9-1</f>
-        <v>0.69681309216192933</v>
-      </c>
-      <c r="BI44" s="13">
-        <f t="shared" si="200"/>
-        <v>0.55063451776649752</v>
-      </c>
-      <c r="BJ44" s="13">
-        <f t="shared" si="200"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="201">BK9/BJ9-1</f>
+        <f t="shared" ref="BK44" si="200">BK9/BJ9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="202">BL9/BK9-1</f>
+        <f t="shared" ref="BL44" si="201">BL9/BK9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="203">BM9/BL9-1</f>
+        <f t="shared" ref="BM44" si="202">BM9/BL9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BN44" s="13">
@@ -7580,43 +7725,43 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="204">BO9/BN9-1</f>
+        <f t="shared" ref="BO44:BW44" si="203">BO9/BN9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BP44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BQ44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BR44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BS44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BT44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BU44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BV44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BW44" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:78" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
@@ -7628,27 +7773,27 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
-        <f t="shared" ref="J45:O45" si="205">J23/J20</f>
+        <f t="shared" ref="J45:O45" si="204">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P45" s="16">
@@ -7668,11 +7813,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" ref="T45:W45" si="206">T23/T20</f>
+        <f t="shared" ref="T45:W45" si="205">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V45" s="16">
@@ -7680,11 +7825,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" ref="X45:AD45" si="207">X23/X20</f>
+        <f t="shared" ref="X45:AD45" si="206">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y45" s="16">
@@ -7700,15 +7845,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE45" s="17">
@@ -7720,55 +7865,55 @@
         <v>0.3421251807701145</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AL45" si="208">AG23/AG20</f>
+        <f t="shared" ref="AG45:AL45" si="207">AG23/AG20</f>
         <v>0.33510199714244354</v>
       </c>
       <c r="AH45" s="16">
+        <f t="shared" si="207"/>
+        <v>0.32449199113913268</v>
+      </c>
+      <c r="AI45" s="16">
+        <f t="shared" si="207"/>
+        <v>0.34</v>
+      </c>
+      <c r="AJ45" s="16">
+        <f t="shared" si="207"/>
+        <v>0.34</v>
+      </c>
+      <c r="AK45" s="16">
+        <f t="shared" si="207"/>
+        <v>0.34</v>
+      </c>
+      <c r="AL45" s="16">
+        <f t="shared" si="207"/>
+        <v>0.34</v>
+      </c>
+      <c r="BG45" s="14">
+        <f t="shared" ref="BG45:BI45" si="208">BG23/BG20</f>
+        <v>0.17384366431428958</v>
+      </c>
+      <c r="BH45" s="14">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="16" t="e">
+        <v>0.20508195802104554</v>
+      </c>
+      <c r="BI45" s="14">
         <f t="shared" si="208"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ45" s="16" t="e">
-        <f t="shared" si="208"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK45" s="16" t="e">
-        <f t="shared" si="208"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL45" s="16" t="e">
-        <f t="shared" si="208"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="209">BG23/BG20</f>
-        <v>0.17384366431428958</v>
-      </c>
-      <c r="BH45" s="14">
-        <f t="shared" si="209"/>
-        <v>0.20508195802104554</v>
-      </c>
-      <c r="BI45" s="14">
-        <f t="shared" si="209"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="210">BJ23/BJ20</f>
+        <f t="shared" ref="BJ45" si="209">BJ23/BJ20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="211">BK23/BK20</f>
+        <f t="shared" ref="BK45:BL45" si="210">BK23/BK20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="BL45" s="14">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="212">BM23/BM20</f>
+        <f t="shared" ref="BM45" si="211">BM23/BM20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BN45" s="14">
@@ -7776,39 +7921,39 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="213">BO23/BO20</f>
+        <f t="shared" ref="BO45:BW45" si="212">BO23/BO20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.28495847997662427</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.29051526396001626</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.29581068980258746</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.30074780240646226</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.30071724610417139</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.30068524592936513</v>
       </c>
       <c r="BW45" s="14">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.30065200107669582</v>
       </c>
       <c r="BY45" t="s">
@@ -7818,7 +7963,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.2">
       <c r="BY46" t="s">
         <v>76</v>
       </c>
@@ -7826,87 +7971,90 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:P47" si="214">+O48-O61</f>
+        <f t="shared" ref="O47:P47" si="213">+O48-O61</f>
         <v>25855</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>38263</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="215">+Q48-Q61</f>
+        <f t="shared" ref="Q47" si="214">+Q48-Q61</f>
         <v>35473</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" ref="R47:AB47" si="216">+R48-R61</f>
+        <f t="shared" ref="R47:AB47" si="215">+R48-R61</f>
         <v>52580</v>
       </c>
       <c r="S47" s="4">
+        <f t="shared" si="215"/>
+        <v>41402</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="215"/>
+        <v>39615</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="215"/>
+        <v>28933</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="215"/>
+        <v>47305</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="215"/>
+        <v>18829</v>
+      </c>
+      <c r="X47" s="4">
+        <f t="shared" si="215"/>
+        <v>2657</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" si="215"/>
+        <v>-257</v>
+      </c>
+      <c r="Z47" s="4">
+        <f t="shared" si="215"/>
+        <v>2876</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" si="215"/>
+        <v>-2679</v>
+      </c>
+      <c r="AB47" s="4">
+        <f t="shared" si="215"/>
+        <v>878</v>
+      </c>
+      <c r="AC47" s="4">
+        <f t="shared" ref="AC47:AD47" si="216">+AC48-AC61</f>
+        <v>3071</v>
+      </c>
+      <c r="AD47" s="4">
         <f t="shared" si="216"/>
-        <v>41402</v>
-      </c>
-      <c r="T47" s="4">
-        <f t="shared" si="216"/>
-        <v>39615</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="216"/>
-        <v>28933</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="216"/>
-        <v>47305</v>
-      </c>
-      <c r="W47" s="4">
-        <f t="shared" si="216"/>
-        <v>18829</v>
-      </c>
-      <c r="X47" s="4">
-        <f t="shared" si="216"/>
-        <v>2657</v>
-      </c>
-      <c r="Y47" s="4">
-        <f t="shared" si="216"/>
-        <v>-257</v>
-      </c>
-      <c r="Z47" s="4">
-        <f t="shared" si="216"/>
-        <v>2876</v>
-      </c>
-      <c r="AA47" s="4">
-        <f t="shared" si="216"/>
-        <v>-2679</v>
-      </c>
-      <c r="AB47" s="4">
-        <f t="shared" si="216"/>
-        <v>878</v>
-      </c>
-      <c r="AC47" s="4">
-        <f t="shared" ref="AC47:AD47" si="217">+AC48-AC61</f>
-        <v>3071</v>
-      </c>
-      <c r="AD47" s="4">
+        <v>28466</v>
+      </c>
+      <c r="AE47" s="4">
+        <f t="shared" ref="AE47:AF47" si="217">+AE48-AE61</f>
+        <v>27440</v>
+      </c>
+      <c r="AF47" s="4">
         <f t="shared" si="217"/>
-        <v>28466</v>
-      </c>
-      <c r="AE47" s="4">
-        <f t="shared" ref="AE47:AF47" si="218">+AE48-AE61</f>
-        <v>27440</v>
-      </c>
-      <c r="AF47" s="4">
-        <f t="shared" si="218"/>
         <v>34203</v>
       </c>
       <c r="AG47" s="4">
         <f>+AG48-AG61</f>
         <v>33161</v>
       </c>
-      <c r="AH47" s="4"/>
+      <c r="AH47" s="4">
+        <f>+AH48-AH61</f>
+        <v>48579</v>
+      </c>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
@@ -7928,27 +8076,27 @@
         <v>57288.203749999979</v>
       </c>
       <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="219">+BQ47+BR32</f>
+        <f t="shared" ref="BR47:BW47" si="218">+BQ47+BR32</f>
         <v>101861.57907437488</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>165833.52035353211</v>
       </c>
       <c r="BT47" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>253777.99507973535</v>
       </c>
       <c r="BU47" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>359424.87027738051</v>
       </c>
       <c r="BV47" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>485836.72377839067</v>
       </c>
       <c r="BW47" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>636646.80560538301</v>
       </c>
       <c r="BY47" t="s">
@@ -7958,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -8050,6 +8198,10 @@
         <f>75091+12960</f>
         <v>88051</v>
       </c>
+      <c r="AH48" s="2">
+        <f>78779+22423</f>
+        <v>101202</v>
+      </c>
       <c r="BY48" s="2" t="s">
         <v>79</v>
       </c>
@@ -8058,7 +8210,7 @@
         <v>1459966.3940996223</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
@@ -8131,12 +8283,15 @@
       <c r="AG49" s="2">
         <v>36103</v>
       </c>
+      <c r="AH49" s="2">
+        <v>34214</v>
+      </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
         <v>138.84592160567925</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -8209,8 +8364,11 @@
       <c r="AG50" s="2">
         <v>51638</v>
       </c>
-    </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH50" s="2">
+        <v>55451</v>
+      </c>
+    </row>
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -8283,8 +8441,11 @@
       <c r="AG51" s="2">
         <v>237917</v>
       </c>
-    </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH51" s="2">
+        <v>252665</v>
+      </c>
+    </row>
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8357,8 +8518,11 @@
       <c r="AG52" s="2">
         <v>76527</v>
       </c>
-    </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH52" s="2">
+        <v>76141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -8432,8 +8596,11 @@
       <c r="AG53" s="2">
         <v>23081</v>
       </c>
-    </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH53" s="2">
+        <v>23074</v>
+      </c>
+    </row>
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
@@ -8506,8 +8673,11 @@
       <c r="AG54" s="2">
         <v>71309</v>
       </c>
-    </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH54" s="2">
+        <v>82147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -8524,83 +8694,87 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:P55" si="220">SUM(O48:O54)</f>
+        <f t="shared" ref="O55:P55" si="219">SUM(O48:O54)</f>
         <v>221238</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>258314</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" ref="Q55" si="221">SUM(Q48:Q54)</f>
+        <f t="shared" ref="Q55" si="220">SUM(Q48:Q54)</f>
         <v>282179</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55:AB55" si="222">SUM(R48:R54)</f>
+        <f t="shared" ref="R55:AB55" si="221">SUM(R48:R54)</f>
         <v>321195</v>
       </c>
       <c r="S55" s="4">
+        <f t="shared" si="221"/>
+        <v>323077</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="221"/>
+        <v>360319</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="221"/>
+        <v>382406</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" si="221"/>
+        <v>420549</v>
+      </c>
+      <c r="W55" s="4">
+        <f t="shared" si="221"/>
+        <v>410767</v>
+      </c>
+      <c r="X55" s="4">
+        <f t="shared" si="221"/>
+        <v>419728</v>
+      </c>
+      <c r="Y55" s="4">
+        <f t="shared" si="221"/>
+        <v>428362</v>
+      </c>
+      <c r="Z55" s="4">
+        <f t="shared" si="221"/>
+        <v>462675</v>
+      </c>
+      <c r="AA55" s="4">
+        <f t="shared" si="221"/>
+        <v>464378</v>
+      </c>
+      <c r="AB55" s="4">
+        <f t="shared" si="221"/>
+        <v>477607</v>
+      </c>
+      <c r="AC55" s="4">
+        <f t="shared" ref="AC55:AD55" si="222">SUM(AC48:AC54)</f>
+        <v>486883</v>
+      </c>
+      <c r="AD55" s="4">
         <f t="shared" si="222"/>
-        <v>323077</v>
-      </c>
-      <c r="T55" s="4">
-        <f t="shared" si="222"/>
-        <v>360319</v>
-      </c>
-      <c r="U55" s="4">
-        <f t="shared" si="222"/>
-        <v>382406</v>
-      </c>
-      <c r="V55" s="4">
-        <f t="shared" si="222"/>
-        <v>420549</v>
-      </c>
-      <c r="W55" s="4">
-        <f t="shared" si="222"/>
-        <v>410767</v>
-      </c>
-      <c r="X55" s="4">
-        <f t="shared" si="222"/>
-        <v>419728</v>
-      </c>
-      <c r="Y55" s="4">
-        <f t="shared" si="222"/>
-        <v>428362</v>
-      </c>
-      <c r="Z55" s="4">
-        <f t="shared" si="222"/>
-        <v>462675</v>
-      </c>
-      <c r="AA55" s="4">
-        <f t="shared" si="222"/>
-        <v>464378</v>
-      </c>
-      <c r="AB55" s="4">
-        <f t="shared" si="222"/>
-        <v>477607</v>
-      </c>
-      <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AD55" si="223">SUM(AC48:AC54)</f>
-        <v>486883</v>
-      </c>
-      <c r="AD55" s="4">
+        <v>527854</v>
+      </c>
+      <c r="AE55" s="4">
+        <f t="shared" ref="AE55:AH55" si="223">SUM(AE48:AE54)</f>
+        <v>530969</v>
+      </c>
+      <c r="AF55" s="4">
         <f t="shared" si="223"/>
-        <v>527854</v>
-      </c>
-      <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AG55" si="224">SUM(AE48:AE54)</f>
-        <v>530969</v>
-      </c>
-      <c r="AF55" s="4">
-        <f t="shared" si="224"/>
         <v>554818</v>
       </c>
       <c r="AG55" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>584626</v>
       </c>
-    </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH55" s="4">
+        <f t="shared" si="223"/>
+        <v>624894</v>
+      </c>
+    </row>
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -8673,8 +8847,11 @@
       <c r="AG57" s="2">
         <v>84570</v>
       </c>
-    </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH57" s="2">
+        <v>94363</v>
+      </c>
+    </row>
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -8747,8 +8924,11 @@
       <c r="AG58" s="2">
         <v>60602</v>
       </c>
-    </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH58" s="2">
+        <v>66965</v>
+      </c>
+    </row>
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -8821,8 +9001,11 @@
       <c r="AG59" s="2">
         <v>16305</v>
       </c>
-    </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH59" s="2">
+        <v>18103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -8895,8 +9078,11 @@
       <c r="AG60" s="2">
         <v>79802</v>
       </c>
-    </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH60" s="2">
+        <v>78277</v>
+      </c>
+    </row>
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -8969,8 +9155,11 @@
       <c r="AG61" s="2">
         <v>54890</v>
       </c>
-    </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH61" s="2">
+        <v>52623</v>
+      </c>
+    </row>
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
@@ -9043,8 +9232,11 @@
       <c r="AG62" s="2">
         <v>29306</v>
       </c>
-    </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH62" s="2">
+        <v>28593</v>
+      </c>
+    </row>
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
@@ -9117,8 +9309,11 @@
       <c r="AG63" s="2">
         <v>259151</v>
       </c>
-    </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH63" s="2">
+        <v>285970</v>
+      </c>
+    </row>
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -9135,71 +9330,71 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:P64" si="225">SUM(O57:O63)</f>
+        <f t="shared" ref="O64:P64" si="224">SUM(O57:O63)</f>
         <v>221238</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>258314</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" ref="Q64" si="226">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64" si="225">SUM(Q57:Q63)</f>
         <v>282179</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" ref="R64:AB64" si="227">SUM(R57:R63)</f>
+        <f t="shared" ref="R64:AB64" si="226">SUM(R57:R63)</f>
         <v>321195</v>
       </c>
       <c r="S64" s="4">
+        <f t="shared" si="226"/>
+        <v>323077</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" si="226"/>
+        <v>360319</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="226"/>
+        <v>382406</v>
+      </c>
+      <c r="V64" s="4">
+        <f t="shared" si="226"/>
+        <v>420549</v>
+      </c>
+      <c r="W64" s="4">
+        <f t="shared" si="226"/>
+        <v>410767</v>
+      </c>
+      <c r="X64" s="4">
+        <f t="shared" si="226"/>
+        <v>419728</v>
+      </c>
+      <c r="Y64" s="4">
+        <f t="shared" si="226"/>
+        <v>428362</v>
+      </c>
+      <c r="Z64" s="4">
+        <f t="shared" si="226"/>
+        <v>462675</v>
+      </c>
+      <c r="AA64" s="4">
+        <f t="shared" si="226"/>
+        <v>464378</v>
+      </c>
+      <c r="AB64" s="4">
+        <f t="shared" si="226"/>
+        <v>477607</v>
+      </c>
+      <c r="AC64" s="4">
+        <f t="shared" ref="AC64:AD64" si="227">SUM(AC57:AC63)</f>
+        <v>486883</v>
+      </c>
+      <c r="AD64" s="4">
         <f t="shared" si="227"/>
-        <v>323077</v>
-      </c>
-      <c r="T64" s="4">
-        <f t="shared" si="227"/>
-        <v>360319</v>
-      </c>
-      <c r="U64" s="4">
-        <f t="shared" si="227"/>
-        <v>382406</v>
-      </c>
-      <c r="V64" s="4">
-        <f t="shared" si="227"/>
-        <v>420549</v>
-      </c>
-      <c r="W64" s="4">
-        <f t="shared" si="227"/>
-        <v>410767</v>
-      </c>
-      <c r="X64" s="4">
-        <f t="shared" si="227"/>
-        <v>419728</v>
-      </c>
-      <c r="Y64" s="4">
-        <f t="shared" si="227"/>
-        <v>428362</v>
-      </c>
-      <c r="Z64" s="4">
-        <f t="shared" si="227"/>
-        <v>462675</v>
-      </c>
-      <c r="AA64" s="4">
-        <f t="shared" si="227"/>
-        <v>464378</v>
-      </c>
-      <c r="AB64" s="4">
-        <f t="shared" si="227"/>
-        <v>477607</v>
-      </c>
-      <c r="AC64" s="4">
-        <f t="shared" ref="AC64:AD64" si="228">SUM(AC57:AC63)</f>
-        <v>486883</v>
-      </c>
-      <c r="AD64" s="4">
-        <f t="shared" si="228"/>
         <v>527854</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" ref="AE64" si="229">SUM(AE57:AE63)</f>
+        <f t="shared" ref="AE64" si="228">SUM(AE57:AE63)</f>
         <v>530969</v>
       </c>
       <c r="AF64" s="4">
@@ -9210,8 +9405,12 @@
         <f>SUM(AG57:AG63)</f>
         <v>584626</v>
       </c>
-    </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH64" s="4">
+        <f>SUM(AH57:AH63)</f>
+        <v>624894</v>
+      </c>
+    </row>
+    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -9228,71 +9427,71 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:Q66" si="230">+O32</f>
+        <f t="shared" ref="O66:Q66" si="229">+O32</f>
         <v>2535</v>
       </c>
       <c r="P66" s="4">
+        <f t="shared" si="229"/>
+        <v>5243</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="229"/>
+        <v>6331</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" ref="R66:V66" si="230">+R32</f>
+        <v>7222</v>
+      </c>
+      <c r="S66" s="4">
         <f t="shared" si="230"/>
-        <v>5243</v>
-      </c>
-      <c r="Q66" s="4">
+        <v>8107</v>
+      </c>
+      <c r="T66" s="4">
         <f t="shared" si="230"/>
-        <v>6331</v>
-      </c>
-      <c r="R66" s="4">
-        <f t="shared" ref="R66:V66" si="231">+R32</f>
-        <v>7222</v>
-      </c>
-      <c r="S66" s="4">
+        <v>7778</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="230"/>
+        <v>3156</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="230"/>
+        <v>14323</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" ref="W66:AE66" si="231">+W32</f>
+        <v>-3844</v>
+      </c>
+      <c r="X66" s="4">
         <f t="shared" si="231"/>
-        <v>8107</v>
-      </c>
-      <c r="T66" s="4">
+        <v>2982</v>
+      </c>
+      <c r="Y66" s="4">
         <f t="shared" si="231"/>
-        <v>7778</v>
-      </c>
-      <c r="U66" s="4">
+        <v>2872</v>
+      </c>
+      <c r="Z66" s="4">
         <f t="shared" si="231"/>
-        <v>3156</v>
-      </c>
-      <c r="V66" s="4">
+        <v>3247</v>
+      </c>
+      <c r="AA66" s="4">
         <f t="shared" si="231"/>
-        <v>14323</v>
-      </c>
-      <c r="W66" s="4">
-        <f t="shared" ref="W66:AE66" si="232">+W32</f>
-        <v>-3844</v>
-      </c>
-      <c r="X66" s="4">
-        <f t="shared" si="232"/>
-        <v>2982</v>
-      </c>
-      <c r="Y66" s="4">
-        <f t="shared" si="232"/>
-        <v>2872</v>
-      </c>
-      <c r="Z66" s="4">
-        <f t="shared" si="232"/>
-        <v>3247</v>
-      </c>
-      <c r="AA66" s="4">
-        <f t="shared" si="232"/>
         <v>3172</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>6750</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>9879</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>10624</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
@@ -9303,8 +9502,12 @@
         <f>+AG32</f>
         <v>12940</v>
       </c>
-    </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH66" s="4">
+        <f>+AH32</f>
+        <v>20024</v>
+      </c>
+    </row>
+    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -9377,8 +9580,11 @@
       <c r="AG67" s="2">
         <v>15328</v>
       </c>
-    </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH67" s="2">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -9451,8 +9657,11 @@
       <c r="AG68" s="2">
         <v>13442</v>
       </c>
-    </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH68" s="2">
+        <v>15631</v>
+      </c>
+    </row>
+    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -9525,8 +9734,11 @@
       <c r="AG69" s="2">
         <v>5333</v>
       </c>
-    </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH69" s="2">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -9599,8 +9811,11 @@
       <c r="AG70" s="2">
         <v>-141</v>
       </c>
-    </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH70" s="2">
+        <v>-486</v>
+      </c>
+    </row>
+    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -9665,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -9738,8 +9953,11 @@
       <c r="AG72" s="2">
         <v>-1317</v>
       </c>
-    </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH72" s="2">
+        <v>-1608</v>
+      </c>
+    </row>
+    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -9831,8 +10049,12 @@
         <f>-1509-701-4537-477+129+421</f>
         <v>-6674</v>
       </c>
-    </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH73" s="2">
+        <f>934-4023-4190+8726+4042+1611</f>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -9849,80 +10071,84 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4">
-        <f t="shared" ref="O74:Q74" si="233">SUM(O67:O73)</f>
+        <f t="shared" ref="O74:Q74" si="232">SUM(O67:O73)</f>
         <v>3064</v>
       </c>
       <c r="P74" s="4">
+        <f t="shared" si="232"/>
+        <v>20606</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="232"/>
+        <v>11964</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" ref="R74:AH74" si="233">SUM(R67:R73)</f>
+        <v>30430</v>
+      </c>
+      <c r="S74" s="4">
         <f t="shared" si="233"/>
-        <v>20606</v>
-      </c>
-      <c r="Q74" s="4">
+        <v>4213</v>
+      </c>
+      <c r="T74" s="4">
         <f t="shared" si="233"/>
-        <v>11964</v>
-      </c>
-      <c r="R74" s="4">
-        <f t="shared" ref="R74:AG74" si="234">SUM(R67:R73)</f>
-        <v>30430</v>
-      </c>
-      <c r="S74" s="4">
-        <f t="shared" si="234"/>
-        <v>4213</v>
-      </c>
-      <c r="T74" s="4">
-        <f t="shared" si="234"/>
         <v>12715</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>7313</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>22086</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>-2790</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>8965</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>11404</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>29173</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>4788</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>16476</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>21217</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>42465</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>18989</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>25281</v>
       </c>
       <c r="AG74" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>25971</v>
+      </c>
+      <c r="AH74" s="4">
+        <f t="shared" si="233"/>
+        <v>45636</v>
       </c>
       <c r="AT74" s="2">
         <v>-119.782</v>
@@ -9934,7 +10160,7 @@
         <v>392.02199999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -9960,7 +10186,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -10037,7 +10263,7 @@
         <v>-27834</v>
       </c>
     </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -10110,8 +10336,11 @@
       <c r="AG77" s="2">
         <v>1342</v>
       </c>
-    </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH77" s="2">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -10184,8 +10413,11 @@
       <c r="AG78" s="2">
         <v>-622</v>
       </c>
-    </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH78" s="2">
+        <v>-2535</v>
+      </c>
+    </row>
+    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -10277,8 +10509,12 @@
         <f>8069-3068</f>
         <v>5001</v>
       </c>
-    </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH79" s="2">
+        <f>-12533+3677</f>
+        <v>-8856</v>
+      </c>
+    </row>
+    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -10295,83 +10531,87 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4">
-        <f t="shared" ref="O80:Q80" si="235">SUM(O76:O79)</f>
+        <f t="shared" ref="O80:Q80" si="234">SUM(O76:O79)</f>
         <v>-8894</v>
       </c>
       <c r="P80" s="4">
+        <f t="shared" si="234"/>
+        <v>-17804</v>
+      </c>
+      <c r="Q80" s="4">
+        <f t="shared" si="234"/>
+        <v>-15876</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" ref="R80:AH80" si="235">SUM(R76:R79)</f>
+        <v>-17038</v>
+      </c>
+      <c r="S80" s="4">
         <f t="shared" si="235"/>
-        <v>-17804</v>
-      </c>
-      <c r="Q80" s="4">
+        <v>-8666</v>
+      </c>
+      <c r="T80" s="4">
         <f t="shared" si="235"/>
-        <v>-15876</v>
-      </c>
-      <c r="R80" s="4">
-        <f t="shared" ref="R80:AG80" si="236">SUM(R76:R79)</f>
-        <v>-17038</v>
-      </c>
-      <c r="S80" s="4">
-        <f t="shared" si="236"/>
-        <v>-8666</v>
-      </c>
-      <c r="T80" s="4">
-        <f t="shared" si="236"/>
         <v>-22080</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-14828</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-12580</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>906</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-12078</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-15608</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-10821</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-15806</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-9673</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-11753</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-12601</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-17862</v>
       </c>
       <c r="AF80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-22138</v>
       </c>
       <c r="AG80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>-16899</v>
       </c>
-    </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH80" s="4">
+        <f t="shared" si="235"/>
+        <v>-37443</v>
+      </c>
+    </row>
+    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10397,7 +10637,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -10470,8 +10710,11 @@
       <c r="AG82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -10563,8 +10806,12 @@
         <f>1725-1820-2183-402-78</f>
         <v>-2758</v>
       </c>
-    </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH83" s="2">
+        <f>2554-2607-2500-333-422</f>
+        <v>-3308</v>
+      </c>
+    </row>
+    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -10581,83 +10828,87 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:Q84" si="237">SUM(O82:O83)</f>
+        <f t="shared" ref="O84:Q84" si="236">SUM(O82:O83)</f>
         <v>-2591</v>
       </c>
       <c r="P84" s="4">
+        <f t="shared" si="236"/>
+        <v>7408</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" si="236"/>
+        <v>-4105</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" ref="R84:AH84" si="237">SUM(R82:R83)</f>
+        <v>-1816</v>
+      </c>
+      <c r="S84" s="4">
         <f t="shared" si="237"/>
-        <v>7408</v>
-      </c>
-      <c r="Q84" s="4">
+        <v>-3476</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="237"/>
-        <v>-4105</v>
-      </c>
-      <c r="R84" s="4">
-        <f t="shared" ref="R84:AG84" si="238">SUM(R82:R83)</f>
-        <v>-1816</v>
-      </c>
-      <c r="S84" s="4">
-        <f t="shared" si="238"/>
-        <v>-3476</v>
-      </c>
-      <c r="T84" s="4">
-        <f t="shared" si="238"/>
         <v>15643</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-2776</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-3100</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>1990</v>
       </c>
       <c r="X84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>4626</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>3016</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>86</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>6354</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-6539</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-8948</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-6746</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-1256</v>
       </c>
       <c r="AF84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-4490</v>
       </c>
       <c r="AG84" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>-2758</v>
       </c>
-    </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH84" s="4">
+        <f t="shared" si="237"/>
+        <v>-3308</v>
+      </c>
+    </row>
+    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -10730,8 +10981,11 @@
       <c r="AG85" s="2">
         <v>690</v>
       </c>
-    </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH85" s="2">
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -10748,7 +11002,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4">
-        <f t="shared" ref="O86" si="239">+O85+O84+O80+O74</f>
+        <f t="shared" ref="O86" si="238">+O85+O84+O80+O74</f>
         <v>-8905</v>
       </c>
       <c r="P86" s="4">
@@ -10760,71 +11014,75 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AG86" si="240">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AH86" si="239">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>-8222</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>6512</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>-10490</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>6300</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>122</v>
       </c>
       <c r="X86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>1101</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>-2522</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>19075</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>-4519</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>333</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>14</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>23809</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>-558</v>
       </c>
       <c r="AF86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>-1659</v>
       </c>
       <c r="AG86" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>7004</v>
       </c>
-    </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH86" s="4">
+        <f t="shared" si="239"/>
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -10911,7 +11169,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -10987,7 +11245,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -11063,7 +11321,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -11139,56 +11397,56 @@
         <v>10447</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="241">+O74+O76+O77</f>
+        <f t="shared" ref="O94:W94" si="240">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
       <c r="P94" s="4">
+        <f t="shared" si="240"/>
+        <v>13991</v>
+      </c>
+      <c r="Q94" s="4">
+        <f t="shared" si="240"/>
+        <v>2156</v>
+      </c>
+      <c r="R94" s="4">
+        <f t="shared" si="240"/>
+        <v>17235</v>
+      </c>
+      <c r="S94" s="4">
+        <f t="shared" si="240"/>
+        <v>-6974</v>
+      </c>
+      <c r="T94" s="4">
+        <f t="shared" si="240"/>
+        <v>-273</v>
+      </c>
+      <c r="U94" s="4">
+        <f t="shared" si="240"/>
+        <v>-7438</v>
+      </c>
+      <c r="V94" s="4">
+        <f t="shared" si="240"/>
+        <v>5616</v>
+      </c>
+      <c r="W94" s="4">
+        <f t="shared" si="240"/>
+        <v>-16532</v>
+      </c>
+      <c r="X94" s="4">
+        <f t="shared" ref="X94:Z94" si="241">+X74+X76+X77</f>
+        <v>-5133</v>
+      </c>
+      <c r="Y94" s="4">
         <f t="shared" si="241"/>
-        <v>13991</v>
-      </c>
-      <c r="Q94" s="4">
+        <v>-3637</v>
+      </c>
+      <c r="Z94" s="4">
         <f t="shared" si="241"/>
-        <v>2156</v>
-      </c>
-      <c r="R94" s="4">
-        <f t="shared" si="241"/>
-        <v>17235</v>
-      </c>
-      <c r="S94" s="4">
-        <f t="shared" si="241"/>
-        <v>-6974</v>
-      </c>
-      <c r="T94" s="4">
-        <f t="shared" si="241"/>
-        <v>-273</v>
-      </c>
-      <c r="U94" s="4">
-        <f t="shared" si="241"/>
-        <v>-7438</v>
-      </c>
-      <c r="V94" s="4">
-        <f t="shared" si="241"/>
-        <v>5616</v>
-      </c>
-      <c r="W94" s="4">
-        <f t="shared" si="241"/>
-        <v>-16532</v>
-      </c>
-      <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="242">+X74+X76+X77</f>
-        <v>-5133</v>
-      </c>
-      <c r="Y94" s="4">
-        <f t="shared" si="242"/>
-        <v>-3637</v>
-      </c>
-      <c r="Z94" s="4">
-        <f t="shared" si="242"/>
         <v>13733</v>
       </c>
       <c r="AA94" s="4">
@@ -11196,44 +11454,48 @@
         <v>-8282</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="243">+AB74+AB76+AB77</f>
+        <f t="shared" ref="AB94:AE94" si="242">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
       <c r="AC94" s="4">
+        <f t="shared" si="242"/>
+        <v>9919</v>
+      </c>
+      <c r="AD94" s="4">
+        <f t="shared" si="242"/>
+        <v>29112</v>
+      </c>
+      <c r="AE94" s="4">
+        <f t="shared" si="242"/>
+        <v>5054</v>
+      </c>
+      <c r="AF94" s="4">
+        <f t="shared" ref="AF94:AH94" si="243">+AF74+AF76+AF77</f>
+        <v>8888</v>
+      </c>
+      <c r="AG94" s="4">
         <f t="shared" si="243"/>
-        <v>9919</v>
-      </c>
-      <c r="AD94" s="4">
+        <v>4693</v>
+      </c>
+      <c r="AH94" s="4">
         <f t="shared" si="243"/>
-        <v>29112</v>
-      </c>
-      <c r="AE94" s="4">
-        <f t="shared" si="243"/>
-        <v>5054</v>
-      </c>
-      <c r="AF94" s="4">
-        <f t="shared" ref="AF94:AG94" si="244">+AF74+AF76+AF77</f>
-        <v>8888</v>
-      </c>
-      <c r="AG94" s="4">
-        <f t="shared" si="244"/>
-        <v>4693</v>
-      </c>
-    </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
+        <v>19584</v>
+      </c>
+    </row>
+    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="245">SUM(O94:R94)</f>
+        <f t="shared" ref="R95:T95" si="244">SUM(O94:R94)</f>
         <v>31018</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>26408</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>12144</v>
       </c>
       <c r="U95" s="2">
@@ -11253,7 +11515,7 @@
         <v>-23487</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" ref="Y95" si="246">SUM(V94:Y94)</f>
+        <f t="shared" ref="Y95" si="245">SUM(V94:Y94)</f>
         <v>-19686</v>
       </c>
       <c r="Z95" s="2">
@@ -11265,31 +11527,35 @@
         <v>-3319</v>
       </c>
       <c r="AB95" s="2">
-        <f t="shared" ref="AB95:AE95" si="247">SUM(Y94:AB94)</f>
+        <f t="shared" ref="AB95:AE95" si="246">SUM(Y94:AB94)</f>
         <v>7878</v>
       </c>
       <c r="AC95" s="2">
+        <f t="shared" si="246"/>
+        <v>21434</v>
+      </c>
+      <c r="AD95" s="2">
+        <f t="shared" si="246"/>
+        <v>36813</v>
+      </c>
+      <c r="AE95" s="2">
+        <f t="shared" si="246"/>
+        <v>50149</v>
+      </c>
+      <c r="AF95" s="2">
+        <f t="shared" ref="AF95:AH95" si="247">SUM(AC94:AF94)</f>
+        <v>52973</v>
+      </c>
+      <c r="AG95" s="2">
         <f t="shared" si="247"/>
-        <v>21434</v>
-      </c>
-      <c r="AD95" s="2">
+        <v>47747</v>
+      </c>
+      <c r="AH95" s="2">
         <f t="shared" si="247"/>
-        <v>36813</v>
-      </c>
-      <c r="AE95" s="2">
-        <f t="shared" si="247"/>
-        <v>50149</v>
-      </c>
-      <c r="AF95" s="2">
-        <f t="shared" ref="AF95:AG95" si="248">SUM(AC94:AF94)</f>
-        <v>52973</v>
-      </c>
-      <c r="AG95" s="2">
-        <f t="shared" si="248"/>
-        <v>47747</v>
-      </c>
-    </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.25">
+        <v>38219</v>
+      </c>
+    </row>
+    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>105</v>
       </c>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3385D1B-86E6-4FBE-92B9-73E6713B6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F1F8D-C151-4EF4-8E17-AB1670DE5F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51615" yWindow="2310" windowWidth="26670" windowHeight="16515" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="7830" yWindow="2700" windowWidth="20760" windowHeight="10725" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -690,12 +690,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1257,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1482,11 +1476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:EG101"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI51" sqref="AI51"/>
+      <selection pane="bottomRight" activeCell="AH89" sqref="AH89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2248,8 +2242,7 @@
         <v>27452</v>
       </c>
       <c r="AH9" s="4">
-        <f>+AD9*1.15</f>
-        <v>27834.6</v>
+        <v>28786</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -2402,6 +2395,9 @@
       <c r="AG11" s="4">
         <v>61411</v>
       </c>
+      <c r="AH11" s="2">
+        <v>75556</v>
+      </c>
       <c r="BK11" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
@@ -2538,6 +2534,9 @@
       <c r="AG12" s="4">
         <v>5228</v>
       </c>
+      <c r="AH12" s="2">
+        <v>5579</v>
+      </c>
       <c r="BK12" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
@@ -2674,6 +2673,9 @@
       <c r="AG13" s="4">
         <v>37864</v>
       </c>
+      <c r="AH13" s="2">
+        <v>47485</v>
+      </c>
       <c r="BK13" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
@@ -2810,6 +2812,9 @@
       <c r="AG14" s="4">
         <v>11278</v>
       </c>
+      <c r="AH14" s="2">
+        <v>17288</v>
+      </c>
       <c r="BK14" s="2">
         <f>3102+3408+3698+3959</f>
         <v>14167</v>
@@ -2945,6 +2950,9 @@
       </c>
       <c r="AG15" s="4">
         <v>14331</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>11508</v>
       </c>
       <c r="BK15" s="2">
         <f>2031+2194+2495+3388</f>
@@ -3079,6 +3087,9 @@
       </c>
       <c r="AG16" s="4">
         <v>1313</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1590</v>
       </c>
       <c r="BL16" s="2">
         <f t="shared" si="5"/>
@@ -7062,7 +7073,7 @@
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="170"/>
-        <v>-1</v>
+        <v>7.1063039564520869E-2</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="170"/>
@@ -7076,9 +7087,9 @@
         <f t="shared" si="170"/>
         <v>-1</v>
       </c>
-      <c r="AL40" s="8" t="e">
+      <c r="AL40" s="8">
         <f t="shared" si="170"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
@@ -7216,7 +7227,7 @@
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="176"/>
-        <v>-1</v>
+        <v>9.0130627424872101E-2</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="176"/>
@@ -7230,9 +7241,9 @@
         <f t="shared" si="176"/>
         <v>-1</v>
       </c>
-      <c r="AL41" s="8" t="e">
+      <c r="AL41" s="8">
         <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
@@ -7370,7 +7381,7 @@
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="176"/>
-        <v>-1</v>
+        <v>0.64836003051106017</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="176"/>
@@ -7384,9 +7395,9 @@
         <f t="shared" si="176"/>
         <v>-1</v>
       </c>
-      <c r="AL42" s="8" t="e">
+      <c r="AL42" s="8">
         <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
@@ -7524,7 +7535,7 @@
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="176"/>
-        <v>-1</v>
+        <v>-0.21468541012692777</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="176"/>
@@ -7538,9 +7549,9 @@
         <f t="shared" si="176"/>
         <v>-1</v>
       </c>
-      <c r="AL43" s="8" t="e">
+      <c r="AL43" s="8">
         <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
@@ -7678,7 +7689,7 @@
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="198"/>
-        <v>0.14999999999999991</v>
+        <v>0.189307552470666</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="198"/>
@@ -11165,6 +11176,9 @@
       <c r="AG88" s="2">
         <v>1551</v>
       </c>
+      <c r="AH88" s="2">
+        <v>1556</v>
+      </c>
       <c r="AQ88" s="2">
         <v>2.1</v>
       </c>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F1F8D-C151-4EF4-8E17-AB1670DE5F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741E2D2-9EDF-4C99-B773-345E40331A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="2700" windowWidth="20760" windowHeight="10725" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-32430" yWindow="2310" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
   <si>
     <t>Main</t>
   </si>
@@ -662,6 +662,15 @@
   </si>
   <si>
     <t>Audible</t>
+  </si>
+  <si>
+    <t>Project Rainier: A collaboration with Anthropic using hundreds of thousands of Trainium2 chips to build the world’s largest AI compute cluster.</t>
+  </si>
+  <si>
+    <t>New leading foundation models in Amazon Bedrock from DeepSeek, Luma AI, and poolside.</t>
+  </si>
+  <si>
+    <t>Amazon Nova</t>
   </si>
 </sst>
 </file>
@@ -671,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -689,6 +698,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -720,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -760,6 +776,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -834,16 +851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>30041</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>30041</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -858,8 +875,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28832175" y="0"/>
-          <a:ext cx="0" cy="9772650"/>
+          <a:off x="42343022" y="95250"/>
+          <a:ext cx="0" cy="17504019"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1271,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10515.011007999999</v>
+        <v>10771</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1286,7 +1303,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1819096.904384</v>
+        <v>1863383</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1297,10 +1314,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>88051</v>
+        <v>101202</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1311,10 +1328,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>54890</v>
+        <v>52623</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1323,7 +1340,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1785935.904384</v>
+        <v>1814804</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1379,70 +1396,79 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>143</v>
       </c>
       <c r="D19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>145</v>
       </c>
@@ -1474,13 +1500,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:EG101"/>
+  <dimension ref="A1:EG102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH89" sqref="AH89"/>
+      <selection pane="bottomRight" activeCell="AG106" sqref="AG106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1867,6 +1893,9 @@
       <c r="AG3" s="2">
         <v>95537</v>
       </c>
+      <c r="AH3" s="2">
+        <v>115586</v>
+      </c>
       <c r="BG3" s="2">
         <v>50834</v>
       </c>
@@ -1887,12 +1916,24 @@
         <v>170773</v>
       </c>
       <c r="BM3" s="2">
-        <f t="shared" ref="BM3:BM6" si="1">SUM(O3:R3)</f>
+        <f>SUM(O3:R3)</f>
         <v>236282</v>
       </c>
       <c r="BN3" s="2">
         <f>SUM(S3:V3)</f>
         <v>279833</v>
+      </c>
+      <c r="BO3" s="2">
+        <f>SUM(W3:Z3)</f>
+        <v>315880</v>
+      </c>
+      <c r="BP3" s="2">
+        <f>SUM(AA3:AD3)</f>
+        <v>352828</v>
+      </c>
+      <c r="BQ3" s="2">
+        <f>SUM(AE3:AH3)</f>
+        <v>387497</v>
       </c>
     </row>
     <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2054,6 +2095,9 @@
       <c r="AG6" s="2">
         <v>35888</v>
       </c>
+      <c r="AH6" s="2">
+        <v>43420</v>
+      </c>
       <c r="BG6" s="2">
         <v>33510</v>
       </c>
@@ -2074,12 +2118,24 @@
         <v>74723</v>
       </c>
       <c r="BM6" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(O6:R6)</f>
         <v>104412</v>
       </c>
       <c r="BN6" s="2">
-        <f t="shared" ref="BN6" si="2">SUM(S6:V6)</f>
+        <f>SUM(S6:V6)</f>
         <v>127787</v>
+      </c>
+      <c r="BO6" s="2">
+        <f>SUM(W6:Z6)</f>
+        <v>118007</v>
+      </c>
+      <c r="BP6" s="2">
+        <f>SUM(AA6:AD6)</f>
+        <v>131200</v>
+      </c>
+      <c r="BQ6" s="2">
+        <f>SUM(AE6:AH6)</f>
+        <v>142906</v>
       </c>
     </row>
     <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2284,32 +2340,32 @@
         <v>90757</v>
       </c>
       <c r="BQ9" s="2">
-        <f>+BP9*1.3</f>
-        <v>117984.1</v>
+        <f>SUM(AE9:AH9)</f>
+        <v>107556</v>
       </c>
       <c r="BR9" s="2">
-        <f t="shared" ref="BR9:BT9" si="3">+BQ9*1.3</f>
-        <v>153379.33000000002</v>
+        <f t="shared" ref="BR9:BT9" si="1">+BQ9*1.3</f>
+        <v>139822.80000000002</v>
       </c>
       <c r="BS9" s="2">
-        <f t="shared" si="3"/>
-        <v>199393.12900000002</v>
+        <f t="shared" si="1"/>
+        <v>181769.64000000004</v>
       </c>
       <c r="BT9" s="2">
-        <f t="shared" si="3"/>
-        <v>259211.06770000004</v>
+        <f t="shared" si="1"/>
+        <v>236300.53200000006</v>
       </c>
       <c r="BU9" s="2">
         <f>+BT9*1.2</f>
-        <v>311053.28124000004</v>
+        <v>283560.63840000005</v>
       </c>
       <c r="BV9" s="2">
-        <f t="shared" ref="BV9:BW9" si="4">+BU9*1.2</f>
-        <v>373263.93748800003</v>
+        <f t="shared" ref="BV9:BW9" si="2">+BU9*1.2</f>
+        <v>340272.76608000003</v>
       </c>
       <c r="BW9" s="2">
-        <f t="shared" si="4"/>
-        <v>447916.72498560004</v>
+        <f t="shared" si="2"/>
+        <v>408327.319296</v>
       </c>
     </row>
     <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2403,52 +2459,52 @@
         <v>122987</v>
       </c>
       <c r="BL11" s="2">
-        <f t="shared" ref="BL11:BL26" si="5">SUM(K11:N11)</f>
+        <f t="shared" ref="BL11:BL16" si="3">SUM(K11:N11)</f>
         <v>141247</v>
       </c>
       <c r="BM11" s="2">
-        <f t="shared" ref="BM11:BM16" si="6">SUM(O11:R11)</f>
+        <f t="shared" ref="BM11:BM16" si="4">SUM(O11:R11)</f>
         <v>197349</v>
       </c>
       <c r="BN11" s="2">
-        <f t="shared" ref="BN11:BN16" si="7">SUM(S11:V11)</f>
+        <f t="shared" ref="BN11:BN16" si="5">SUM(S11:V11)</f>
         <v>222075</v>
       </c>
       <c r="BO11" s="2">
-        <f t="shared" ref="BO11:BO16" si="8">SUM(W11:Z11)</f>
+        <f t="shared" ref="BO11:BO16" si="6">SUM(W11:Z11)</f>
         <v>220004</v>
       </c>
       <c r="BP11" s="2">
-        <f t="shared" ref="BP11:BP16" si="9">SUM(AA11:AD11)</f>
+        <f t="shared" ref="BP11:BP16" si="7">SUM(AA11:AD11)</f>
         <v>231872</v>
       </c>
       <c r="BQ11" s="2">
-        <f>+BP11*1.05</f>
-        <v>243465.60000000001</v>
+        <f t="shared" ref="BQ11:BQ16" si="8">SUM(AE11:AH11)</f>
+        <v>247029</v>
       </c>
       <c r="BR11" s="2">
-        <f t="shared" ref="BR11:BW11" si="10">+BQ11*1.05</f>
-        <v>255638.88</v>
+        <f t="shared" ref="BR11:BW11" si="9">+BQ11*1.05</f>
+        <v>259380.45</v>
       </c>
       <c r="BS11" s="2">
-        <f t="shared" si="10"/>
-        <v>268420.82400000002</v>
+        <f t="shared" si="9"/>
+        <v>272349.47250000003</v>
       </c>
       <c r="BT11" s="2">
-        <f t="shared" si="10"/>
-        <v>281841.86520000006</v>
+        <f t="shared" si="9"/>
+        <v>285966.94612500007</v>
       </c>
       <c r="BU11" s="2">
-        <f t="shared" si="10"/>
-        <v>295933.95846000005</v>
+        <f t="shared" si="9"/>
+        <v>300265.29343125009</v>
       </c>
       <c r="BV11" s="2">
-        <f t="shared" si="10"/>
-        <v>310730.65638300008</v>
+        <f t="shared" si="9"/>
+        <v>315278.55810281262</v>
       </c>
       <c r="BW11" s="2">
-        <f t="shared" si="10"/>
-        <v>326267.1892021501</v>
+        <f t="shared" si="9"/>
+        <v>331042.48600795324</v>
       </c>
     </row>
     <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2542,52 +2598,52 @@
         <v>17224</v>
       </c>
       <c r="BL12" s="2">
+        <f t="shared" si="3"/>
+        <v>17192</v>
+      </c>
+      <c r="BM12" s="2">
+        <f t="shared" si="4"/>
+        <v>16224</v>
+      </c>
+      <c r="BN12" s="2">
         <f t="shared" si="5"/>
-        <v>17192</v>
-      </c>
-      <c r="BM12" s="2">
+        <v>17075</v>
+      </c>
+      <c r="BO12" s="2">
         <f t="shared" si="6"/>
-        <v>16224</v>
-      </c>
-      <c r="BN12" s="2">
+        <v>18963</v>
+      </c>
+      <c r="BP12" s="2">
         <f t="shared" si="7"/>
-        <v>17075</v>
-      </c>
-      <c r="BO12" s="2">
+        <v>20030</v>
+      </c>
+      <c r="BQ12" s="2">
         <f t="shared" si="8"/>
-        <v>18963</v>
-      </c>
-      <c r="BP12" s="2">
-        <f t="shared" si="9"/>
-        <v>20030</v>
-      </c>
-      <c r="BQ12" s="2">
-        <f t="shared" ref="BQ12:BW12" si="11">+BP12*1.05</f>
-        <v>21031.5</v>
+        <v>21215</v>
       </c>
       <c r="BR12" s="2">
-        <f t="shared" si="11"/>
-        <v>22083.075000000001</v>
+        <f t="shared" ref="BR12:BW12" si="10">+BQ12*1.05</f>
+        <v>22275.75</v>
       </c>
       <c r="BS12" s="2">
-        <f t="shared" si="11"/>
-        <v>23187.228750000002</v>
+        <f t="shared" si="10"/>
+        <v>23389.537500000002</v>
       </c>
       <c r="BT12" s="2">
-        <f t="shared" si="11"/>
-        <v>24346.590187500002</v>
+        <f t="shared" si="10"/>
+        <v>24559.014375000002</v>
       </c>
       <c r="BU12" s="2">
-        <f t="shared" si="11"/>
-        <v>25563.919696875004</v>
+        <f t="shared" si="10"/>
+        <v>25786.965093750005</v>
       </c>
       <c r="BV12" s="2">
-        <f t="shared" si="11"/>
-        <v>26842.115681718755</v>
+        <f t="shared" si="10"/>
+        <v>27076.313348437507</v>
       </c>
       <c r="BW12" s="2">
-        <f t="shared" si="11"/>
-        <v>28184.221465804694</v>
+        <f t="shared" si="10"/>
+        <v>28430.129015859384</v>
       </c>
     </row>
     <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2681,52 +2737,52 @@
         <v>42745</v>
       </c>
       <c r="BL13" s="2">
+        <f t="shared" si="3"/>
+        <v>53761</v>
+      </c>
+      <c r="BM13" s="2">
+        <f t="shared" si="4"/>
+        <v>80437</v>
+      </c>
+      <c r="BN13" s="2">
         <f t="shared" si="5"/>
-        <v>53761</v>
-      </c>
-      <c r="BM13" s="2">
+        <v>103366</v>
+      </c>
+      <c r="BO13" s="2">
         <f t="shared" si="6"/>
-        <v>80437</v>
-      </c>
-      <c r="BN13" s="2">
+        <v>117716</v>
+      </c>
+      <c r="BP13" s="2">
         <f t="shared" si="7"/>
-        <v>103366</v>
-      </c>
-      <c r="BO13" s="2">
+        <v>140053</v>
+      </c>
+      <c r="BQ13" s="2">
         <f t="shared" si="8"/>
-        <v>117716</v>
-      </c>
-      <c r="BP13" s="2">
-        <f t="shared" si="9"/>
-        <v>140053</v>
-      </c>
-      <c r="BQ13" s="2">
-        <f t="shared" ref="BQ13:BW13" si="12">+BP13*1.05</f>
-        <v>147055.65</v>
+        <v>156146</v>
       </c>
       <c r="BR13" s="2">
-        <f t="shared" si="12"/>
-        <v>154408.4325</v>
+        <f t="shared" ref="BR13:BW13" si="11">+BQ13*1.05</f>
+        <v>163953.30000000002</v>
       </c>
       <c r="BS13" s="2">
-        <f t="shared" si="12"/>
-        <v>162128.85412500001</v>
+        <f t="shared" si="11"/>
+        <v>172150.96500000003</v>
       </c>
       <c r="BT13" s="2">
-        <f t="shared" si="12"/>
-        <v>170235.29683125002</v>
+        <f t="shared" si="11"/>
+        <v>180758.51325000005</v>
       </c>
       <c r="BU13" s="2">
-        <f t="shared" si="12"/>
-        <v>178747.06167281253</v>
+        <f t="shared" si="11"/>
+        <v>189796.43891250005</v>
       </c>
       <c r="BV13" s="2">
-        <f t="shared" si="12"/>
-        <v>187684.41475645316</v>
+        <f t="shared" si="11"/>
+        <v>199286.26085812505</v>
       </c>
       <c r="BW13" s="2">
-        <f t="shared" si="12"/>
-        <v>197068.63549427583</v>
+        <f t="shared" si="11"/>
+        <v>209250.57390103131</v>
       </c>
     </row>
     <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2820,52 +2876,52 @@
         <v>14167</v>
       </c>
       <c r="BL14" s="2">
+        <f t="shared" si="3"/>
+        <v>19210</v>
+      </c>
+      <c r="BM14" s="2">
+        <f t="shared" si="4"/>
+        <v>25207</v>
+      </c>
+      <c r="BN14" s="2">
         <f t="shared" si="5"/>
-        <v>19210</v>
-      </c>
-      <c r="BM14" s="2">
+        <v>31768</v>
+      </c>
+      <c r="BO14" s="2">
         <f t="shared" si="6"/>
-        <v>25207</v>
-      </c>
-      <c r="BN14" s="2">
+        <v>35218</v>
+      </c>
+      <c r="BP14" s="2">
         <f t="shared" si="7"/>
-        <v>31768</v>
-      </c>
-      <c r="BO14" s="2">
+        <v>40209</v>
+      </c>
+      <c r="BQ14" s="2">
         <f t="shared" si="8"/>
-        <v>35218</v>
-      </c>
-      <c r="BP14" s="2">
-        <f t="shared" si="9"/>
-        <v>40209</v>
-      </c>
-      <c r="BQ14" s="2">
-        <f>+BP14*1.1</f>
-        <v>44229.9</v>
+        <v>51256</v>
       </c>
       <c r="BR14" s="2">
-        <f t="shared" ref="BR14:BT14" si="13">+BQ14*1.1</f>
-        <v>48652.890000000007</v>
+        <f t="shared" ref="BR14:BT14" si="12">+BQ14*1.1</f>
+        <v>56381.600000000006</v>
       </c>
       <c r="BS14" s="2">
+        <f t="shared" si="12"/>
+        <v>62019.760000000009</v>
+      </c>
+      <c r="BT14" s="2">
+        <f t="shared" si="12"/>
+        <v>68221.736000000019</v>
+      </c>
+      <c r="BU14" s="2">
+        <f t="shared" ref="BU14:BW14" si="13">+BT14*1.05</f>
+        <v>71632.822800000024</v>
+      </c>
+      <c r="BV14" s="2">
         <f t="shared" si="13"/>
-        <v>53518.179000000011</v>
-      </c>
-      <c r="BT14" s="2">
+        <v>75214.463940000031</v>
+      </c>
+      <c r="BW14" s="2">
         <f t="shared" si="13"/>
-        <v>58869.99690000002</v>
-      </c>
-      <c r="BU14" s="2">
-        <f t="shared" ref="BU14:BW14" si="14">+BT14*1.05</f>
-        <v>61813.496745000026</v>
-      </c>
-      <c r="BV14" s="2">
-        <f t="shared" si="14"/>
-        <v>64904.171582250026</v>
-      </c>
-      <c r="BW14" s="2">
-        <f t="shared" si="14"/>
-        <v>68149.380161362526</v>
+        <v>78975.18713700003</v>
       </c>
     </row>
     <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2959,52 +3015,52 @@
         <v>10108</v>
       </c>
       <c r="BL15" s="2">
+        <f t="shared" si="3"/>
+        <v>14086</v>
+      </c>
+      <c r="BM15" s="2">
+        <f t="shared" si="4"/>
+        <v>20875</v>
+      </c>
+      <c r="BN15" s="2">
         <f t="shared" si="5"/>
-        <v>14086</v>
-      </c>
-      <c r="BM15" s="2">
+        <v>31160</v>
+      </c>
+      <c r="BO15" s="2">
         <f t="shared" si="6"/>
-        <v>20875</v>
-      </c>
-      <c r="BN15" s="2">
+        <v>37739</v>
+      </c>
+      <c r="BP15" s="2">
         <f t="shared" si="7"/>
-        <v>31160</v>
-      </c>
-      <c r="BO15" s="2">
+        <v>46906</v>
+      </c>
+      <c r="BQ15" s="2">
         <f t="shared" si="8"/>
-        <v>37739</v>
-      </c>
-      <c r="BP15" s="2">
-        <f t="shared" si="9"/>
-        <v>46906</v>
-      </c>
-      <c r="BQ15" s="2">
-        <f t="shared" ref="BQ15:BT15" si="15">+BP15*1.1</f>
-        <v>51596.600000000006</v>
+        <v>49332</v>
       </c>
       <c r="BR15" s="2">
+        <f t="shared" ref="BR15:BT15" si="14">+BQ15*1.1</f>
+        <v>54265.200000000004</v>
+      </c>
+      <c r="BS15" s="2">
+        <f t="shared" si="14"/>
+        <v>59691.720000000008</v>
+      </c>
+      <c r="BT15" s="2">
+        <f t="shared" si="14"/>
+        <v>65660.892000000022</v>
+      </c>
+      <c r="BU15" s="2">
+        <f t="shared" ref="BU15:BW15" si="15">+BT15*1.05</f>
+        <v>68943.93660000003</v>
+      </c>
+      <c r="BV15" s="2">
         <f t="shared" si="15"/>
-        <v>56756.260000000009</v>
-      </c>
-      <c r="BS15" s="2">
+        <v>72391.133430000031</v>
+      </c>
+      <c r="BW15" s="2">
         <f t="shared" si="15"/>
-        <v>62431.886000000013</v>
-      </c>
-      <c r="BT15" s="2">
-        <f t="shared" si="15"/>
-        <v>68675.074600000022</v>
-      </c>
-      <c r="BU15" s="2">
-        <f t="shared" ref="BU15:BW15" si="16">+BT15*1.05</f>
-        <v>72108.828330000033</v>
-      </c>
-      <c r="BV15" s="2">
-        <f t="shared" si="16"/>
-        <v>75714.269746500038</v>
-      </c>
-      <c r="BW15" s="2">
-        <f t="shared" si="16"/>
-        <v>79499.983233825042</v>
+        <v>76010.690101500033</v>
       </c>
     </row>
     <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3092,52 +3148,52 @@
         <v>1590</v>
       </c>
       <c r="BL16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <f t="shared" si="4"/>
+        <v>602</v>
+      </c>
+      <c r="BN16" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM16" s="2">
+        <v>2176</v>
+      </c>
+      <c r="BO16" s="2">
         <f t="shared" si="6"/>
-        <v>602</v>
-      </c>
-      <c r="BN16" s="2">
+        <v>4247</v>
+      </c>
+      <c r="BP16" s="2">
         <f t="shared" si="7"/>
-        <v>2176</v>
-      </c>
-      <c r="BO16" s="2">
+        <v>4958</v>
+      </c>
+      <c r="BQ16" s="2">
         <f t="shared" si="8"/>
-        <v>4247</v>
-      </c>
-      <c r="BP16" s="2">
-        <f t="shared" si="9"/>
-        <v>4958</v>
-      </c>
-      <c r="BQ16" s="2">
-        <f t="shared" ref="BQ16:BW16" si="17">+BP16*1.05</f>
-        <v>5205.9000000000005</v>
+        <v>5425</v>
       </c>
       <c r="BR16" s="2">
-        <f t="shared" si="17"/>
-        <v>5466.1950000000006</v>
+        <f t="shared" ref="BR16:BW16" si="16">+BQ16*1.05</f>
+        <v>5696.25</v>
       </c>
       <c r="BS16" s="2">
-        <f t="shared" si="17"/>
-        <v>5739.504750000001</v>
+        <f t="shared" si="16"/>
+        <v>5981.0625</v>
       </c>
       <c r="BT16" s="2">
-        <f t="shared" si="17"/>
-        <v>6026.4799875000017</v>
+        <f t="shared" si="16"/>
+        <v>6280.1156250000004</v>
       </c>
       <c r="BU16" s="2">
-        <f t="shared" si="17"/>
-        <v>6327.803986875002</v>
+        <f t="shared" si="16"/>
+        <v>6594.1214062500003</v>
       </c>
       <c r="BV16" s="2">
-        <f t="shared" si="17"/>
-        <v>6644.1941862187523</v>
+        <f t="shared" si="16"/>
+        <v>6923.827476562501</v>
       </c>
       <c r="BW16" s="2">
-        <f t="shared" si="17"/>
-        <v>6976.4038955296901</v>
+        <f t="shared" si="16"/>
+        <v>7270.0188503906265</v>
       </c>
     </row>
     <row r="17" spans="2:137" x14ac:dyDescent="0.2">
@@ -3237,7 +3293,7 @@
         <v>141915</v>
       </c>
       <c r="BL18" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K18:N18)</f>
         <v>160407</v>
       </c>
       <c r="BM18" s="2">
@@ -3245,8 +3301,20 @@
         <v>215915</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" ref="BN18:BN26" si="18">SUM(S18:V18)</f>
+        <f>SUM(S18:V18)</f>
         <v>241787</v>
+      </c>
+      <c r="BO18" s="2">
+        <f t="shared" ref="BO18:BO19" si="17">SUM(W18:Z18)</f>
+        <v>242901</v>
+      </c>
+      <c r="BP18" s="2">
+        <f t="shared" ref="BP18:BP19" si="18">SUM(AA18:AD18)</f>
+        <v>255887</v>
+      </c>
+      <c r="BQ18" s="2">
+        <f t="shared" ref="BQ18:BQ19" si="19">SUM(AE18:AH18)</f>
+        <v>272311</v>
       </c>
     </row>
     <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3342,16 +3410,28 @@
         <v>90972</v>
       </c>
       <c r="BL19" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K19:N19)</f>
         <v>120115</v>
       </c>
       <c r="BM19" s="2">
-        <f t="shared" ref="BM19:BM26" si="19">SUM(O19:R19)</f>
+        <f>SUM(O19:R19)</f>
         <v>170149</v>
       </c>
       <c r="BN19" s="2">
+        <f>SUM(S19:V19)</f>
+        <v>228035</v>
+      </c>
+      <c r="BO19" s="2">
+        <f t="shared" si="17"/>
+        <v>271082</v>
+      </c>
+      <c r="BP19" s="2">
         <f t="shared" si="18"/>
-        <v>228035</v>
+        <v>318898</v>
+      </c>
+      <c r="BQ19" s="2">
+        <f t="shared" si="19"/>
+        <v>365649</v>
       </c>
     </row>
     <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3579,32 +3659,32 @@
         <v>574785</v>
       </c>
       <c r="BQ20" s="5">
-        <f t="shared" ref="BQ20:BW20" si="30">SUM(BQ9:BQ16)</f>
-        <v>630569.25</v>
+        <f>SUM(BQ9:BQ16)</f>
+        <v>637959</v>
       </c>
       <c r="BR20" s="5">
-        <f t="shared" si="30"/>
-        <v>696385.0625</v>
+        <f t="shared" ref="BR20:BW20" si="30">SUM(BR9:BR16)</f>
+        <v>701775.35</v>
       </c>
       <c r="BS20" s="5">
         <f t="shared" si="30"/>
-        <v>774819.60562500008</v>
+        <v>777352.15749999997</v>
       </c>
       <c r="BT20" s="5">
         <f t="shared" si="30"/>
-        <v>869206.37140625017</v>
+        <v>867747.74937500025</v>
       </c>
       <c r="BU20" s="5">
         <f t="shared" si="30"/>
-        <v>951548.35013156268</v>
+        <v>946580.21664375043</v>
       </c>
       <c r="BV20" s="5">
         <f t="shared" si="30"/>
-        <v>1045783.7598241409</v>
+        <v>1036443.3232359377</v>
       </c>
       <c r="BW20" s="5">
         <f t="shared" si="30"/>
-        <v>1154062.5384385479</v>
+        <v>1139306.4043097345</v>
       </c>
     </row>
     <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3718,15 +3798,15 @@
         <v>139156</v>
       </c>
       <c r="BL21" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K21:N21)</f>
         <v>165536</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" si="19"/>
+        <f>SUM(O21:R21)</f>
         <v>233307</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" si="18"/>
+        <f>SUM(S21:V21)</f>
         <v>272344</v>
       </c>
       <c r="BO21" s="2">
@@ -3739,31 +3819,31 @@
       </c>
       <c r="BQ21" s="4">
         <f t="shared" ref="BQ21:BW21" si="31">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
-        <v>411831.07</v>
+        <v>414801.2</v>
       </c>
       <c r="BR21" s="4">
         <f t="shared" si="31"/>
-        <v>453069.84100000007</v>
+        <v>454363.56000000006</v>
       </c>
       <c r="BS21" s="4">
         <f t="shared" si="31"/>
-        <v>502564.71580000001</v>
+        <v>501550.72800000006</v>
       </c>
       <c r="BT21" s="4">
         <f t="shared" si="31"/>
-        <v>562586.74916500016</v>
+        <v>558437.95140000014</v>
       </c>
       <c r="BU21" s="4">
         <f t="shared" si="31"/>
-        <v>617933.24873175006</v>
+        <v>611171.40483000013</v>
       </c>
       <c r="BV21" s="4">
         <f t="shared" si="31"/>
-        <v>681490.50569853769</v>
+        <v>671503.84210350015</v>
       </c>
       <c r="BW21" s="4">
         <f t="shared" si="31"/>
-        <v>754757.74441970466</v>
+        <v>740807.67464707512</v>
       </c>
     </row>
     <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3877,15 +3957,15 @@
         <v>34027</v>
       </c>
       <c r="BL22" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K22:N22)</f>
         <v>40231</v>
       </c>
       <c r="BM22" s="2">
-        <f t="shared" si="19"/>
+        <f>SUM(O22:R22)</f>
         <v>58516</v>
       </c>
       <c r="BN22" s="2">
-        <f t="shared" si="18"/>
+        <f>SUM(S22:V22)</f>
         <v>75111</v>
       </c>
       <c r="BO22" s="2">
@@ -3898,31 +3978,31 @@
       </c>
       <c r="BQ22" s="4">
         <f t="shared" ref="BQ22:BW22" si="32">(BQ13+BQ11)*0.1</f>
-        <v>39052.125</v>
+        <v>40317.5</v>
       </c>
       <c r="BR22" s="4">
         <f t="shared" si="32"/>
-        <v>41004.731250000004</v>
+        <v>42333.375</v>
       </c>
       <c r="BS22" s="4">
         <f t="shared" si="32"/>
-        <v>43054.967812500006</v>
+        <v>44450.043750000012</v>
       </c>
       <c r="BT22" s="4">
         <f t="shared" si="32"/>
-        <v>45207.716203125012</v>
+        <v>46672.545937500014</v>
       </c>
       <c r="BU22" s="4">
         <f t="shared" si="32"/>
-        <v>47468.102013281255</v>
+        <v>49006.173234375019</v>
       </c>
       <c r="BV22" s="4">
         <f t="shared" si="32"/>
-        <v>49841.507113945321</v>
+        <v>51456.48189609377</v>
       </c>
       <c r="BW22" s="4">
         <f t="shared" si="32"/>
-        <v>52333.582469642599</v>
+        <v>54029.305990898458</v>
       </c>
     </row>
     <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4106,31 +4186,31 @@
       </c>
       <c r="BQ23" s="4">
         <f t="shared" si="43"/>
-        <v>179686.05499999999</v>
+        <v>182840.3</v>
       </c>
       <c r="BR23" s="4">
         <f t="shared" si="43"/>
-        <v>202310.49024999992</v>
+        <v>205078.41499999992</v>
       </c>
       <c r="BS23" s="4">
         <f t="shared" si="43"/>
-        <v>229199.92201250006</v>
+        <v>231351.3857499999</v>
       </c>
       <c r="BT23" s="4">
         <f t="shared" si="43"/>
-        <v>261411.90603812499</v>
+        <v>262637.25203750009</v>
       </c>
       <c r="BU23" s="4">
         <f t="shared" si="43"/>
-        <v>286146.99938653136</v>
+        <v>286402.63857937529</v>
       </c>
       <c r="BV23" s="4">
         <f t="shared" si="43"/>
-        <v>314451.74701165792</v>
+        <v>313482.99923634384</v>
       </c>
       <c r="BW23" s="4">
         <f t="shared" si="43"/>
-        <v>346971.21154920058</v>
+        <v>344469.42367176089</v>
       </c>
     </row>
     <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4248,15 +4328,15 @@
         <v>28837</v>
       </c>
       <c r="BL24" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K24:N24)</f>
         <v>35932</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" si="19"/>
+        <f>SUM(O24:R24)</f>
         <v>42738</v>
       </c>
       <c r="BN24" s="2">
-        <f t="shared" si="18"/>
+        <f>SUM(S24:V24)</f>
         <v>56052</v>
       </c>
       <c r="BO24" s="2">
@@ -4411,15 +4491,15 @@
         <v>13814</v>
       </c>
       <c r="BL25" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K25:N25)</f>
         <v>18879</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" si="19"/>
+        <f>SUM(O25:R25)</f>
         <v>22010</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" si="18"/>
+        <f>SUM(S25:V25)</f>
         <v>32551</v>
       </c>
       <c r="BO25" s="2">
@@ -4575,15 +4655,15 @@
         <v>4336</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(K26:N26)</f>
         <v>5203</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="19"/>
+        <f>SUM(O26:R26)</f>
         <v>6668</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="18"/>
+        <f>SUM(S26:V26)</f>
         <v>8823</v>
       </c>
       <c r="BO26" s="2">
@@ -4996,31 +5076,31 @@
       </c>
       <c r="BQ28" s="4">
         <f t="shared" ref="BQ28:BW28" si="74">BQ23-BQ27</f>
-        <v>33623.814999999973</v>
+        <v>36778.059999999969</v>
       </c>
       <c r="BR28" s="4">
         <f t="shared" si="74"/>
-        <v>51866.383049999888</v>
+        <v>54634.307799999893</v>
       </c>
       <c r="BS28" s="4">
         <f t="shared" si="74"/>
-        <v>74242.49159650004</v>
+        <v>76393.955333999882</v>
       </c>
       <c r="BT28" s="4">
         <f t="shared" si="74"/>
-        <v>101805.75270964496</v>
+        <v>103031.09870902007</v>
       </c>
       <c r="BU28" s="4">
         <f t="shared" si="74"/>
-        <v>121752.66145819693</v>
+        <v>122008.30065104086</v>
       </c>
       <c r="BV28" s="4">
         <f t="shared" si="74"/>
-        <v>145125.57894547345</v>
+        <v>144156.83117015936</v>
       </c>
       <c r="BW28" s="4">
         <f t="shared" si="74"/>
-        <v>172565.2584410306</v>
+        <v>170063.4705635909</v>
       </c>
     </row>
     <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5171,15 +5251,15 @@
         <v>-1456</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29" si="75">SUM(K29:N29)</f>
+        <f>SUM(K29:N29)</f>
         <v>-766</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" ref="BM29" si="76">SUM(O29:R29)</f>
+        <f>SUM(O29:R29)</f>
         <v>1353</v>
       </c>
       <c r="BN29" s="2">
-        <f t="shared" ref="BN29" si="77">SUM(S29:V29)</f>
+        <f>SUM(S29:V29)</f>
         <v>13210</v>
       </c>
       <c r="BO29" s="2">
@@ -5195,28 +5275,28 @@
         <v>284.66000000000003</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" ref="BR29:BW29" si="78">+BQ47*$BZ$46</f>
-        <v>572.8820374999998</v>
+        <f t="shared" ref="BR29:BW29" si="75">+BQ47*$BZ$46</f>
+        <v>485.79</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="78"/>
-        <v>1018.6157907437488</v>
+        <f t="shared" si="75"/>
+        <v>954.31083129999911</v>
       </c>
       <c r="BT29" s="2">
-        <f t="shared" si="78"/>
-        <v>1658.3352035353212</v>
+        <f t="shared" si="75"/>
+        <v>1611.7710937050481</v>
       </c>
       <c r="BU29" s="2">
-        <f t="shared" si="78"/>
-        <v>2537.7799507973536</v>
+        <f t="shared" si="75"/>
+        <v>2501.2354870282115</v>
       </c>
       <c r="BV29" s="2">
-        <f t="shared" si="78"/>
-        <v>3594.2487027738052</v>
+        <f t="shared" si="75"/>
+        <v>3559.5665442017985</v>
       </c>
       <c r="BW29" s="2">
-        <f t="shared" si="78"/>
-        <v>4858.3672377839066</v>
+        <f t="shared" si="75"/>
+        <v>4815.1559247738687</v>
       </c>
     </row>
     <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5231,7 +5311,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <f t="shared" ref="J30" si="79">J28+J29</f>
+        <f t="shared" ref="J30" si="76">J28+J29</f>
         <v>3350</v>
       </c>
       <c r="K30" s="4">
@@ -5239,7 +5319,7 @@
         <v>4401</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="80">L28+L29</f>
+        <f t="shared" ref="L30" si="77">L28+L29</f>
         <v>2889</v>
       </c>
       <c r="M30" s="4">
@@ -5247,15 +5327,15 @@
         <v>2632</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="81">N28+N29</f>
+        <f t="shared" ref="N30" si="78">N28+N29</f>
         <v>4053</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" ref="O30" si="82">O28+O29</f>
+        <f t="shared" ref="O30" si="79">O28+O29</f>
         <v>3383</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" ref="P30" si="83">P28+P29</f>
+        <f t="shared" ref="P30" si="80">P28+P29</f>
         <v>6221</v>
       </c>
       <c r="Q30" s="4">
@@ -5263,7 +5343,7 @@
         <v>6809</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="84">R28+R29</f>
+        <f t="shared" ref="R30" si="81">R28+R29</f>
         <v>7765</v>
       </c>
       <c r="S30" s="4">
@@ -5271,39 +5351,39 @@
         <v>10268</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:AI30" si="85">T28+T29</f>
+        <f t="shared" ref="T30:AI30" si="82">T28+T29</f>
         <v>8634</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>4315</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>14934</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>-5265</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>2982</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>2944</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>3247</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>4119</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>7563</v>
       </c>
       <c r="AC30" s="4">
@@ -5311,27 +5391,27 @@
         <v>12189</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>13686</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>12983</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>15246</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>15649</v>
       </c>
       <c r="AH30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>22349</v>
       </c>
       <c r="AI30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>18955.837800000008</v>
       </c>
       <c r="AT30" s="2">
@@ -5347,72 +5427,72 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG30" s="4">
-        <f t="shared" ref="BG30:BI30" si="86">BG28+BG29</f>
+        <f t="shared" ref="BG30:BI30" si="83">BG28+BG29</f>
         <v>-111</v>
       </c>
       <c r="BH30" s="4">
+        <f t="shared" si="83"/>
+        <v>1568</v>
+      </c>
+      <c r="BI30" s="4">
+        <f t="shared" si="83"/>
+        <v>3892</v>
+      </c>
+      <c r="BJ30" s="4">
+        <f t="shared" ref="BJ30" si="84">BJ28+BJ29</f>
+        <v>3806</v>
+      </c>
+      <c r="BK30" s="4">
+        <f t="shared" ref="BK30:BL30" si="85">BK28+BK29</f>
+        <v>11261</v>
+      </c>
+      <c r="BL30" s="4">
+        <f t="shared" si="85"/>
+        <v>13975</v>
+      </c>
+      <c r="BM30" s="4">
+        <f t="shared" ref="BM30:BW30" si="86">BM28+BM29</f>
+        <v>24178</v>
+      </c>
+      <c r="BN30" s="4">
         <f t="shared" si="86"/>
-        <v>1568</v>
-      </c>
-      <c r="BI30" s="4">
+        <v>38151</v>
+      </c>
+      <c r="BO30" s="4">
         <f t="shared" si="86"/>
-        <v>3892</v>
-      </c>
-      <c r="BJ30" s="4">
-        <f t="shared" ref="BJ30" si="87">BJ28+BJ29</f>
-        <v>3806</v>
-      </c>
-      <c r="BK30" s="4">
-        <f t="shared" ref="BK30:BL30" si="88">BK28+BK29</f>
-        <v>11261</v>
-      </c>
-      <c r="BL30" s="4">
-        <f t="shared" si="88"/>
-        <v>13975</v>
-      </c>
-      <c r="BM30" s="4">
-        <f t="shared" ref="BM30:BW30" si="89">BM28+BM29</f>
-        <v>24178</v>
-      </c>
-      <c r="BN30" s="4">
-        <f t="shared" si="89"/>
-        <v>38151</v>
-      </c>
-      <c r="BO30" s="4">
-        <f t="shared" si="89"/>
         <v>3908</v>
       </c>
       <c r="BP30" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>37557</v>
       </c>
       <c r="BQ30" s="4">
-        <f t="shared" si="89"/>
-        <v>33908.474999999977</v>
+        <f t="shared" si="86"/>
+        <v>37062.719999999972</v>
       </c>
       <c r="BR30" s="4">
-        <f t="shared" si="89"/>
-        <v>52439.265087499887</v>
+        <f t="shared" si="86"/>
+        <v>55120.097799999894</v>
       </c>
       <c r="BS30" s="4">
-        <f t="shared" si="89"/>
-        <v>75261.107387243785</v>
+        <f t="shared" si="86"/>
+        <v>77348.26616529988</v>
       </c>
       <c r="BT30" s="4">
-        <f t="shared" si="89"/>
-        <v>103464.08791318028</v>
+        <f t="shared" si="86"/>
+        <v>104642.86980272511</v>
       </c>
       <c r="BU30" s="4">
-        <f t="shared" si="89"/>
-        <v>124290.44140899429</v>
+        <f t="shared" si="86"/>
+        <v>124509.53613806907</v>
       </c>
       <c r="BV30" s="4">
-        <f t="shared" si="89"/>
-        <v>148719.82764824724</v>
+        <f t="shared" si="86"/>
+        <v>147716.39771436117</v>
       </c>
       <c r="BW30" s="4">
-        <f t="shared" si="89"/>
-        <v>177423.62567881451</v>
+        <f t="shared" si="86"/>
+        <v>174878.62648836477</v>
       </c>
     </row>
     <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5556,15 +5636,15 @@
         <v>1188</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" ref="BL31" si="90">SUM(K31:N31)</f>
+        <f>SUM(K31:N31)</f>
         <v>2387</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" ref="BM31" si="91">SUM(O31:R31)</f>
+        <f>SUM(O31:R31)</f>
         <v>2847</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" ref="BN31" si="92">SUM(S31:V31)</f>
+        <f>SUM(S31:V31)</f>
         <v>4787</v>
       </c>
       <c r="BO31" s="2">
@@ -5577,31 +5657,31 @@
       </c>
       <c r="BQ31" s="2">
         <f>+BQ30*0.15</f>
-        <v>5086.2712499999961</v>
+        <v>5559.4079999999958</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" ref="BR31:BW31" si="93">+BR30*0.15</f>
-        <v>7865.8897631249829</v>
+        <f t="shared" ref="BR31:BW31" si="87">+BR30*0.15</f>
+        <v>8268.0146699999841</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="93"/>
-        <v>11289.166108086567</v>
+        <f t="shared" si="87"/>
+        <v>11602.239924794982</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="93"/>
-        <v>15519.613186977042</v>
+        <f t="shared" si="87"/>
+        <v>15696.430470408766</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="93"/>
-        <v>18643.566211349142</v>
+        <f t="shared" si="87"/>
+        <v>18676.43042071036</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="93"/>
-        <v>22307.974147237084</v>
+        <f t="shared" si="87"/>
+        <v>22157.459657154173</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="93"/>
-        <v>26613.543851822174</v>
+        <f t="shared" si="87"/>
+        <v>26231.793973254713</v>
       </c>
     </row>
     <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5616,7 +5696,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <f t="shared" ref="J32" si="94">J30-J31</f>
+        <f t="shared" ref="J32" si="88">J30-J31</f>
         <v>3027</v>
       </c>
       <c r="K32" s="4">
@@ -5624,7 +5704,7 @@
         <v>3561</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="95">L30-L31</f>
+        <f t="shared" ref="L32" si="89">L30-L31</f>
         <v>2625</v>
       </c>
       <c r="M32" s="4">
@@ -5632,15 +5712,15 @@
         <v>2134</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32" si="96">N30-N31</f>
+        <f t="shared" ref="N32" si="90">N30-N31</f>
         <v>3268</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" ref="O32" si="97">O30-O31</f>
+        <f t="shared" ref="O32" si="91">O30-O31</f>
         <v>2535</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32" si="98">P30-P31</f>
+        <f t="shared" ref="P32" si="92">P30-P31</f>
         <v>5243</v>
       </c>
       <c r="Q32" s="4">
@@ -5648,7 +5728,7 @@
         <v>6331</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" ref="R32" si="99">R30-R31</f>
+        <f t="shared" ref="R32" si="93">R30-R31</f>
         <v>7222</v>
       </c>
       <c r="S32" s="4">
@@ -5656,67 +5736,67 @@
         <v>8107</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" ref="T32:AI32" si="100">T30-T31</f>
+        <f t="shared" ref="T32:AI32" si="94">T30-T31</f>
         <v>7778</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>3156</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>14323</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>-3844</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>2982</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>2872</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>3247</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>3172</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>6750</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9879</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>10624</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>10431</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>13486</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>12940</v>
       </c>
       <c r="AH32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>20024</v>
       </c>
       <c r="AI32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>17060.254020000008</v>
       </c>
       <c r="AT32" s="2">
@@ -5732,320 +5812,320 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG32" s="4">
-        <f t="shared" ref="BG32:BI32" si="101">BG30-BG31</f>
+        <f t="shared" ref="BG32:BI32" si="95">BG30-BG31</f>
         <v>-241</v>
       </c>
       <c r="BH32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>596</v>
       </c>
       <c r="BI32" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>2371</v>
       </c>
       <c r="BJ32" s="4">
-        <f t="shared" ref="BJ32" si="102">BJ30-BJ31</f>
+        <f t="shared" ref="BJ32" si="96">BJ30-BJ31</f>
         <v>3033</v>
       </c>
       <c r="BK32" s="4">
-        <f t="shared" ref="BK32:BL32" si="103">BK30-BK31</f>
+        <f t="shared" ref="BK32:BL32" si="97">BK30-BK31</f>
         <v>10073</v>
       </c>
       <c r="BL32" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>11588</v>
       </c>
       <c r="BM32" s="4">
-        <f t="shared" ref="BM32:BP32" si="104">BM30-BM31</f>
+        <f t="shared" ref="BM32:BP32" si="98">BM30-BM31</f>
         <v>21331</v>
       </c>
       <c r="BN32" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>33364</v>
       </c>
       <c r="BO32" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>5257</v>
       </c>
       <c r="BP32" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>30425</v>
       </c>
       <c r="BQ32" s="4">
-        <f t="shared" ref="BQ32:BW32" si="105">BQ30-BQ31</f>
-        <v>28822.203749999979</v>
+        <f t="shared" ref="BQ32:BW32" si="99">BQ30-BQ31</f>
+        <v>31503.311999999976</v>
       </c>
       <c r="BR32" s="4">
-        <f t="shared" si="105"/>
-        <v>44573.375324374902</v>
+        <f t="shared" si="99"/>
+        <v>46852.083129999912</v>
       </c>
       <c r="BS32" s="4">
-        <f t="shared" si="105"/>
-        <v>63971.941279157218</v>
+        <f t="shared" si="99"/>
+        <v>65746.0262405049</v>
       </c>
       <c r="BT32" s="4">
-        <f t="shared" si="105"/>
-        <v>87944.474726203232</v>
+        <f t="shared" si="99"/>
+        <v>88946.439332316339</v>
       </c>
       <c r="BU32" s="4">
-        <f t="shared" si="105"/>
-        <v>105646.87519764515</v>
+        <f t="shared" si="99"/>
+        <v>105833.10571735872</v>
       </c>
       <c r="BV32" s="4">
-        <f t="shared" si="105"/>
-        <v>126411.85350101016</v>
+        <f t="shared" si="99"/>
+        <v>125558.93805720699</v>
       </c>
       <c r="BW32" s="4">
-        <f t="shared" si="105"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="99"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="BX32" s="2">
         <f>+BW32*(1+$BZ$47)</f>
-        <v>150810.08182699233</v>
+        <v>148646.83251511006</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" ref="BY32:EG32" si="106">+BX32*(1+$BZ$47)</f>
-        <v>150810.08182699233</v>
+        <f t="shared" ref="BY32:EG32" si="100">+BX32*(1+$BZ$47)</f>
+        <v>148646.83251511006</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="EE32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="EF32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
       <c r="EG32" s="2">
-        <f t="shared" si="106"/>
-        <v>150810.08182699233</v>
+        <f t="shared" si="100"/>
+        <v>148646.83251511006</v>
       </c>
     </row>
     <row r="33" spans="2:78" x14ac:dyDescent="0.2">
@@ -6060,7 +6140,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7">
-        <f t="shared" ref="J33" si="107">J32/J34</f>
+        <f t="shared" ref="J33" si="101">J32/J34</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="K33" s="7">
@@ -6068,7 +6148,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33" si="108">L32/L34</f>
+        <f t="shared" ref="L33" si="102">L32/L34</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="M33" s="7">
@@ -6076,15 +6156,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33" si="109">N32/N34</f>
+        <f t="shared" ref="N33" si="103">N32/N34</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33" si="110">O32/O34</f>
+        <f t="shared" ref="O33" si="104">O32/O34</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33" si="111">P32/P34</f>
+        <f t="shared" ref="P33" si="105">P32/P34</f>
         <v>10.300589390962672</v>
       </c>
       <c r="Q33" s="7">
@@ -6092,7 +6172,7 @@
         <v>12.365234375</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" ref="R33" si="112">R32/R34</f>
+        <f t="shared" ref="R33" si="106">R32/R34</f>
         <v>14.077972709551657</v>
       </c>
       <c r="S33" s="7">
@@ -6116,51 +6196,51 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" ref="X33:AI33" si="113">X32/X34</f>
+        <f t="shared" ref="X33:AI33" si="107">X32/X34</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>0.27799825767108705</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>0.31499805975941014</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>0.3065622885860636</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>0.64599483204134367</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>0.93568857738207989</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>1.0013195098963241</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>0.97760074976569822</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>1.2594322002241314</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>1.2054028877503493</v>
       </c>
       <c r="AH33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>1.8590660105839756</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>1.5839062315476751</v>
       </c>
       <c r="AT33" s="1">
@@ -6176,27 +6256,27 @@
         <v>0.60382208741105259</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="114">BG32/BG34</f>
+        <f t="shared" ref="BG33" si="108">BG32/BG34</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="115">BH32/BH34</f>
+        <f t="shared" ref="BH33" si="109">BH32/BH34</f>
         <v>1.249475890985325</v>
       </c>
       <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="116">BI32/BI34</f>
+        <f t="shared" ref="BI33" si="110">BI32/BI34</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="BJ33" s="7">
-        <f t="shared" ref="BJ33" si="117">BJ32/BJ34</f>
+        <f t="shared" ref="BJ33" si="111">BJ32/BJ34</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="BK33" s="7">
-        <f t="shared" ref="BK33:BL33" si="118">BK32/BK34</f>
+        <f t="shared" ref="BK33:BL33" si="112">BK32/BK34</f>
         <v>20.146000000000001</v>
       </c>
       <c r="BL33" s="7">
-        <f t="shared" si="118"/>
+        <f t="shared" si="112"/>
         <v>23.014895729890764</v>
       </c>
       <c r="BM33" s="7">
@@ -6208,86 +6288,86 @@
         <v>6.1676679914964412</v>
       </c>
       <c r="BO33" s="7">
-        <f t="shared" ref="BO33:BP33" si="119">BO32/BO34</f>
+        <f t="shared" ref="BO33:BP33" si="113">BO32/BO34</f>
         <v>0.51665847665847664</v>
       </c>
       <c r="BP33" s="7">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>2.9001048517777144</v>
       </c>
       <c r="BQ33" s="7">
-        <f t="shared" ref="BQ33" si="120">BQ32/BQ34</f>
-        <v>2.7473266371175273</v>
+        <f t="shared" ref="BQ33" si="114">BQ32/BQ34</f>
+        <v>3.0028893337146103</v>
       </c>
       <c r="BR33" s="7">
-        <f t="shared" ref="BR33" si="121">BR32/BR34</f>
-        <v>4.2487251286221426</v>
+        <f t="shared" ref="BR33" si="115">BR32/BR34</f>
+        <v>4.4659310961776679</v>
       </c>
       <c r="BS33" s="7">
-        <f t="shared" ref="BS33" si="122">BS32/BS34</f>
-        <v>6.0977925154091333</v>
+        <f t="shared" ref="BS33" si="116">BS32/BS34</f>
+        <v>6.2668979354213041</v>
       </c>
       <c r="BT33" s="7">
-        <f t="shared" ref="BT33" si="123">BT32/BT34</f>
-        <v>8.3828495592606274</v>
+        <f t="shared" ref="BT33" si="117">BT32/BT34</f>
+        <v>8.4783566230403533</v>
       </c>
       <c r="BU33" s="7">
-        <f t="shared" ref="BU33" si="124">BU32/BU34</f>
-        <v>10.070238794933291</v>
+        <f t="shared" ref="BU33" si="118">BU32/BU34</f>
+        <v>10.087990250439303</v>
       </c>
       <c r="BV33" s="7">
-        <f t="shared" ref="BV33" si="125">BV32/BV34</f>
-        <v>12.049552330665348</v>
+        <f t="shared" ref="BV33" si="119">BV32/BV34</f>
+        <v>11.968252602917453</v>
       </c>
       <c r="BW33" s="7">
-        <f t="shared" ref="BW33" si="126">BW32/BW34</f>
-        <v>14.375186524353477</v>
+        <f t="shared" ref="BW33" si="120">BW32/BW34</f>
+        <v>14.168986037089892</v>
       </c>
     </row>
     <row r="34" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <v>501</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <v>502</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="4">
         <v>503</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="4">
         <v>504</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="4">
         <v>505</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="4">
         <v>506</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="4">
         <v>509</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="4">
         <v>512</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="4">
         <v>513</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="4">
         <v>513</v>
       </c>
       <c r="T34" s="4">
         <v>10286</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="4">
         <v>515</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="4">
         <v>10324</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="4">
         <v>509</v>
       </c>
       <c r="X34" s="4">
@@ -6379,27 +6459,27 @@
         <v>10491</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" ref="BR34:BW34" si="127">+BQ34</f>
+        <f t="shared" ref="BR34:BW34" si="121">+BQ34</f>
         <v>10491</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>10491</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>10491</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>10491</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>10491</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>10491</v>
       </c>
     </row>
@@ -6427,31 +6507,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" ref="P36:R36" si="128">P20/L20-1</f>
+        <f t="shared" ref="P36:R36" si="122">P20/L20-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36" si="129">S20/O20-1</f>
+        <f t="shared" ref="S36" si="123">S20/O20-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="130">T20/P20-1</f>
+        <f t="shared" ref="T36" si="124">T20/P20-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36" si="131">U20/Q20-1</f>
+        <f t="shared" ref="U36" si="125">U20/Q20-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36" si="132">V20/R20-1</f>
+        <f t="shared" ref="V36" si="126">V20/R20-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="W36" s="10">
@@ -6459,7 +6539,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36:AE36" si="133">X20/T20-1</f>
+        <f t="shared" ref="X36:AE36" si="127">X20/T20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Y36" s="10">
@@ -6467,7 +6547,7 @@
         <v>0.14699671515720314</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="AA36" s="10">
@@ -6475,19 +6555,19 @@
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="AB36" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.10845967302901816</v>
       </c>
       <c r="AC36" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.125742519728405</v>
       </c>
       <c r="AD36" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.13911825420230017</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.12527677884388888</v>
       </c>
       <c r="AF36" s="10">
@@ -6495,119 +6575,119 @@
         <v>0.10116607011303502</v>
       </c>
       <c r="AG36" s="10">
-        <f t="shared" ref="AG36:AL36" si="134">AG20/AC20-1</f>
+        <f t="shared" ref="AG36:AL36" si="128">AG20/AC20-1</f>
         <v>0.11038348371225104</v>
       </c>
       <c r="AH36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>0.10491230341078239</v>
       </c>
       <c r="AI36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="AJ36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL36" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36:AR36" si="135">AQ20/AP20-1</f>
+        <f t="shared" ref="AQ36:AR36" si="129">AQ20/AP20-1</f>
         <v>3.1263372285789677</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>1.6890585567192891</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" ref="AS36" si="136">AS20/AR20-1</f>
+        <f t="shared" ref="AS36" si="130">AS20/AR20-1</f>
         <v>0.68430132470321792</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" ref="AT36" si="137">AT20/AS20-1</f>
+        <f t="shared" ref="AT36" si="131">AT20/AS20-1</f>
         <v>0.1305040617556299</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" ref="AU36" si="138">AU20/AT20-1</f>
+        <f t="shared" ref="AU36" si="132">AU20/AT20-1</f>
         <v>0.25957418461821291</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" ref="AV36" si="139">AV20/AU20-1</f>
+        <f t="shared" ref="AV36" si="133">AV20/AU20-1</f>
         <v>0.3383637567455966</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="140">AW20/AV20-1</f>
+        <f t="shared" ref="AW36" si="134">AW20/AV20-1</f>
         <v>0.31485481977597884</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="141">AX20/AW20-1</f>
+        <f t="shared" ref="AX36" si="135">AX20/AW20-1</f>
         <v>0.22670134373645423</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="142">AY20/AX20-1</f>
+        <f t="shared" ref="AY36" si="136">AY20/AX20-1</f>
         <v>0.26160188457008249</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" ref="AZ36" si="143">AZ20/AY20-1</f>
+        <f t="shared" ref="AZ36" si="137">AZ20/AY20-1</f>
         <v>0.38502474092054895</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" ref="BA36" si="144">BA20/AZ20-1</f>
+        <f t="shared" ref="BA36" si="138">BA20/AZ20-1</f>
         <v>0.29194472531176263</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" ref="BB36" si="145">BB20/BA20-1</f>
+        <f t="shared" ref="BB36" si="139">BB20/BA20-1</f>
         <v>0.27877491391004905</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" ref="BC36" si="146">BC20/BB20-1</f>
+        <f t="shared" ref="BC36" si="140">BC20/BB20-1</f>
         <v>0.39556897466236896</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" ref="BD36" si="147">BD20/BC20-1</f>
+        <f t="shared" ref="BD36" si="141">BD20/BC20-1</f>
         <v>0.40559583674424049</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" ref="BE36" si="148">BE20/BD20-1</f>
+        <f t="shared" ref="BE36" si="142">BE20/BD20-1</f>
         <v>0.27073236682821311</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" ref="BF36:BJ36" si="149">BF20/BE20-1</f>
+        <f t="shared" ref="BF36:BJ36" si="143">BF20/BE20-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="BJ36" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="BK36" s="15">
-        <f t="shared" ref="BK36" si="150">BK20/BJ20-1</f>
+        <f t="shared" ref="BK36" si="144">BK20/BJ20-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="BL36" s="15">
-        <f t="shared" ref="BL36" si="151">BL20/BK20-1</f>
+        <f t="shared" ref="BL36" si="145">BL20/BK20-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="BM36" s="15">
-        <f t="shared" ref="BM36" si="152">BM20/BL20-1</f>
+        <f t="shared" ref="BM36" si="146">BM20/BL20-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="BN36" s="15">
@@ -6615,7 +6695,7 @@
         <v>0.21695366571345676</v>
       </c>
       <c r="BO36" s="15">
-        <f t="shared" ref="BO36:BW36" si="153">BO20/BN20-1</f>
+        <f t="shared" ref="BO36:BW36" si="147">BO20/BN20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="BP36" s="15">
@@ -6623,32 +6703,32 @@
         <v>0.1182957412988368</v>
       </c>
       <c r="BQ36" s="15">
-        <f t="shared" si="153"/>
-        <v>9.7052376105848381E-2</v>
+        <f t="shared" si="147"/>
+        <v>0.1099089224666614</v>
       </c>
       <c r="BR36" s="15">
-        <f t="shared" si="153"/>
-        <v>0.10437523317224873</v>
+        <f t="shared" si="147"/>
+        <v>0.10003205535151949</v>
       </c>
       <c r="BS36" s="15">
-        <f t="shared" si="153"/>
-        <v>0.11263099590824455</v>
+        <f t="shared" si="147"/>
+        <v>0.10769373347182976</v>
       </c>
       <c r="BT36" s="15">
-        <f t="shared" si="153"/>
-        <v>0.12181773034139209</v>
+        <f t="shared" si="147"/>
+        <v>0.11628653886510931</v>
       </c>
       <c r="BU36" s="15">
-        <f t="shared" si="153"/>
-        <v>9.4732369013925899E-2</v>
+        <f t="shared" si="147"/>
+        <v>9.0847216055045532E-2</v>
       </c>
       <c r="BV36" s="15">
-        <f t="shared" si="153"/>
-        <v>9.9033758693974017E-2</v>
+        <f t="shared" si="147"/>
+        <v>9.4934486282431729E-2</v>
       </c>
       <c r="BW36" s="15">
-        <f t="shared" si="153"/>
-        <v>0.10353840131598058</v>
+        <f t="shared" si="147"/>
+        <v>9.9246219033610084E-2</v>
       </c>
     </row>
     <row r="37" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -6749,99 +6829,99 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f t="shared" ref="O38:R39" si="154">+O18/K18-1</f>
+        <f t="shared" ref="O38:R39" si="148">+O18/K18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.40127175368139234</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.32844988168957356</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.40588025800324479</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" ref="S38:W38" si="155">+S18/O18-1</f>
+        <f t="shared" ref="S38:W38" si="149">+S18/O18-1</f>
         <v>0.37403503740350375</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.15444630204601539</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>3.9830219426232549E-2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>5.0664264805224679E-3</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>-1.8020211859247515E-2</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" ref="X38:AF38" si="156">+X18/T18-1</f>
+        <f t="shared" ref="X38:AF38" si="150">+X18/T18-1</f>
         <v>-2.4636231984001111E-2</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>8.1347036956046281E-2</v>
       </c>
       <c r="Z38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>-1.2392181023860194E-2</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>9.317155256398868E-3</v>
       </c>
       <c r="AB38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>4.342907644719407E-2</v>
       </c>
       <c r="AC38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>6.4560161779575242E-2</v>
       </c>
       <c r="AD38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>8.7507620762501626E-2</v>
       </c>
       <c r="AE38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>6.9040557378775347E-2</v>
       </c>
       <c r="AF38" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" ref="AG38:AL38" si="157">+AG18/AC18-1</f>
+        <f t="shared" ref="AG38:AL38" si="151">+AG18/AC18-1</f>
         <v>7.0127115290243847E-2</v>
       </c>
       <c r="AH38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="151"/>
         <v>7.200500632309037E-2</v>
       </c>
       <c r="AI38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="AJ38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="AK38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="AL38" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="BF38" s="13"/>
@@ -6873,55 +6953,55 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.32238265727662596</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.40365906780891536</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.43351512146752613</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="158">+S19/O19-1</f>
+        <f t="shared" ref="S39" si="152">+S19/O19-1</f>
         <v>0.5181636964089138</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="159">+T19/P19-1</f>
+        <f t="shared" ref="T39" si="153">+T19/P19-1</f>
         <v>0.42433019551049966</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="160">+U19/Q19-1</f>
+        <f t="shared" ref="U39" si="154">+U19/Q19-1</f>
         <v>0.28970971386410271</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="161">+V19/R19-1</f>
+        <f t="shared" ref="V39" si="155">+V19/R19-1</f>
         <v>0.21095799922934355</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39:AA39" si="162">+W19/S19-1</f>
+        <f t="shared" ref="W39:AA39" si="156">+W19/S19-1</f>
         <v>0.17563250827993016</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.17399593289273008</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.21140231693363853</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.19208739923631746</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.17316508026471511</v>
       </c>
       <c r="AB39" s="8">
@@ -6945,27 +7025,27 @@
         <v>0.14675319504717921</v>
       </c>
       <c r="AG39" s="8">
-        <f t="shared" ref="AG39:AL39" si="163">+AG19/AC19-1</f>
+        <f t="shared" ref="AG39:AL39" si="157">+AG19/AC19-1</f>
         <v>0.14220642706977671</v>
       </c>
       <c r="AH39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="157"/>
         <v>0.13197795363400466</v>
       </c>
       <c r="AI39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="157"/>
         <v>-1</v>
       </c>
       <c r="AJ39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="157"/>
         <v>-1</v>
       </c>
       <c r="AK39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="157"/>
         <v>-1</v>
       </c>
       <c r="AL39" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="157"/>
         <v>-1</v>
       </c>
       <c r="BF39" s="13"/>
@@ -6992,39 +7072,39 @@
         <v>56</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40" si="164">+N11/J11-1</f>
+        <f t="shared" ref="N40" si="158">+N11/J11-1</f>
         <v>0.14652704535181549</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" ref="O40" si="165">+O11/K11-1</f>
+        <f t="shared" ref="O40" si="159">+O11/K11-1</f>
         <v>0.24252491694352152</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="166">+P11/L11-1</f>
+        <f t="shared" ref="P40" si="160">+P11/L11-1</f>
         <v>0.47798924419540789</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="167">+Q11/M11-1</f>
+        <f t="shared" ref="Q40" si="161">+Q11/M11-1</f>
         <v>0.37989097862381915</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:V40" si="168">+R11/N11-1</f>
+        <f t="shared" ref="R40:V40" si="162">+R11/N11-1</f>
         <v>0.45543947258908823</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="162"/>
         <v>0.44333187820582776</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="162"/>
         <v>0.15820550810528156</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="162"/>
         <v>3.2926577042399208E-2</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="162"/>
         <v>-5.6583046154309313E-3</v>
       </c>
       <c r="W40" s="8">
@@ -7032,31 +7112,31 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AD40" si="169">+X11/T11-1</f>
+        <f t="shared" ref="X40:AD40" si="163">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="163"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="163"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="163"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="163"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="163"/>
         <v>7.0631344762474457E-2</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="163"/>
         <v>9.3164525576854507E-2</v>
       </c>
       <c r="AE40" s="8">
@@ -7068,36 +7148,36 @@
         <v>4.5802967941698469E-2</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40:AL40" si="170">+AG11/AC11-1</f>
+        <f t="shared" ref="AG40:AL40" si="164">+AG11/AC11-1</f>
         <v>7.2362791834738927E-2</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="164"/>
         <v>7.1063039564520869E-2</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="AJ40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="AL40" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="164"/>
         <v>-1</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="171">BL11/BK11-1</f>
+        <f t="shared" ref="BL40" si="165">BL11/BK11-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="172">BM11/BL11-1</f>
+        <f t="shared" ref="BM40" si="166">BM11/BL11-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="BN40" s="13">
@@ -7105,39 +7185,39 @@
         <v>0.12529072860769497</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="173">BO11/BN11-1</f>
+        <f t="shared" ref="BO40:BW40" si="167">BO11/BN11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="167"/>
         <v>5.3944473736841081E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="167"/>
+        <v>6.5367961634005045E-2</v>
+      </c>
+      <c r="BR40" s="13">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BR40" s="13">
-        <f t="shared" si="173"/>
+      <c r="BS40" s="13">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BS40" s="13">
-        <f t="shared" si="173"/>
+      <c r="BT40" s="13">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BT40" s="13">
-        <f t="shared" si="173"/>
+      <c r="BU40" s="13">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BU40" s="13">
-        <f t="shared" si="173"/>
+      <c r="BV40" s="13">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BV40" s="13">
-        <f t="shared" si="173"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="BW40" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7146,39 +7226,39 @@
         <v>57</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V41" si="174">+N13/J13-1</f>
+        <f t="shared" ref="N41:V41" si="168">+N13/J13-1</f>
         <v>0.30359411193304942</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.54677565849227983</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.56637624670411557</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.63747496374058987</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.37867546029128873</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.18672930123311793</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="168"/>
         <v>0.10952537783144867</v>
       </c>
       <c r="W41" s="8">
@@ -7186,72 +7266,72 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AD41" si="175">+X13/T13-1</f>
+        <f t="shared" ref="X41:AD41" si="169">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="169"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="169"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="169"/>
         <v>0.177027827116637</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="169"/>
         <v>0.18103448275862077</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="169"/>
         <v>0.19800460475825021</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="169"/>
         <v>0.19868460882247718</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" ref="AE41:AL43" si="176">+AE13/AA13-1</f>
+        <f t="shared" ref="AE41:AL43" si="170">+AE13/AA13-1</f>
         <v>0.16016096579476868</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.11966472844240994</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.10255663618892319</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>9.0130627424872101E-2</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="177">BL13/BK13-1</f>
+        <f t="shared" ref="BL41" si="171">BL13/BK13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="178">BM13/BL13-1</f>
+        <f t="shared" ref="BM41" si="172">BM13/BL13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BN41" s="13">
@@ -7259,39 +7339,39 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="179">BO13/BN13-1</f>
+        <f t="shared" ref="BO41:BW41" si="173">BO13/BN13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="179"/>
+        <f t="shared" si="173"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="179"/>
+        <f t="shared" si="173"/>
+        <v>0.11490649968226307</v>
+      </c>
+      <c r="BR41" s="13">
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BR41" s="13">
-        <f t="shared" si="179"/>
+      <c r="BS41" s="13">
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BS41" s="13">
-        <f t="shared" si="179"/>
+      <c r="BT41" s="13">
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BT41" s="13">
-        <f t="shared" si="179"/>
+      <c r="BU41" s="13">
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BU41" s="13">
-        <f t="shared" si="179"/>
+      <c r="BV41" s="13">
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BV41" s="13">
-        <f t="shared" si="179"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="BW41" s="13">
-        <f t="shared" si="179"/>
+        <f t="shared" si="173"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7300,39 +7380,39 @@
         <v>58</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:V43" si="180">+N14/J14-1</f>
+        <f t="shared" ref="N42:V43" si="174">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W42" s="8">
@@ -7340,72 +7420,72 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42:AD43" si="181">+X14/T14-1</f>
+        <f t="shared" ref="X42:AD43" si="175">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>9.824135839902981E-2</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.10894788593903648</v>
       </c>
       <c r="AH42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.64836003051106017</v>
       </c>
       <c r="AI42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AJ42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AK42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AL42" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="182">BL14/BK14-1</f>
+        <f t="shared" ref="BL42" si="176">BL14/BK14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="183">BM14/BL14-1</f>
+        <f t="shared" ref="BM42" si="177">BM14/BL14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BN42" s="13">
@@ -7413,39 +7493,39 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="184">BO14/BN14-1</f>
+        <f t="shared" ref="BO42:BW42" si="178">BO14/BN14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="178"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="178"/>
+        <v>0.27473948618468502</v>
+      </c>
+      <c r="BR42" s="13">
+        <f t="shared" si="178"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BR42" s="13">
-        <f t="shared" si="184"/>
+      <c r="BS42" s="13">
+        <f t="shared" si="178"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BS42" s="13">
-        <f t="shared" si="184"/>
+      <c r="BT42" s="13">
+        <f t="shared" si="178"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BT42" s="13">
-        <f t="shared" si="184"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="BU42" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="184"/>
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7454,152 +7534,152 @@
         <v>59</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.50529838259899607</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.53701380175658731</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.63364055299539168</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.76522151149016815</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.41015190811411628</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="174"/>
         <v>0.32190476190476192</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W43" si="185">+W15/S15-1</f>
+        <f t="shared" ref="W43" si="179">+W15/S15-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.25433526011560703</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.18948126801152743</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.21993833504624871</v>
       </c>
       <c r="AC43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.26309174696271476</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="175"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.19545071609098574</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>0.18830845771144289</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-0.21468541012692777</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" si="176"/>
+        <f t="shared" si="170"/>
         <v>-1</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="186">BL15/BK15-1</f>
+        <f t="shared" ref="BL43" si="180">BL15/BK15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="187">BM15/BL15-1</f>
+        <f t="shared" ref="BM43:BN43" si="181">BM15/BL15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BN43" s="13">
-        <f t="shared" si="187"/>
+        <f t="shared" si="181"/>
         <v>0.49269461077844312</v>
       </c>
       <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="188">BO15/BN15-1</f>
+        <f t="shared" ref="BO43:BW43" si="182">BO15/BN15-1</f>
         <v>0.21113607188703476</v>
       </c>
       <c r="BP43" s="13">
-        <f t="shared" si="188"/>
+        <f t="shared" si="182"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="188"/>
+        <f t="shared" si="182"/>
+        <v>5.1720462200997686E-2</v>
+      </c>
+      <c r="BR43" s="13">
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BR43" s="13">
-        <f t="shared" si="188"/>
+      <c r="BS43" s="13">
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BS43" s="13">
-        <f t="shared" si="188"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="BT43" s="13">
-        <f t="shared" si="188"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="182"/>
+        <v>0.10000000000000031</v>
       </c>
       <c r="BU43" s="13">
-        <f t="shared" si="188"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV43" s="13">
-        <f t="shared" si="188"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW43" s="13">
-        <f t="shared" si="188"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7608,71 +7688,71 @@
         <v>39</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44:O44" si="189">N9/J9-1</f>
+        <f t="shared" ref="N44:O44" si="183">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="190">P9/L9-1</f>
+        <f t="shared" ref="P44" si="184">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="191">Q9/M9-1</f>
+        <f t="shared" ref="Q44" si="185">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="192">R9/N9-1</f>
+        <f t="shared" ref="R44" si="186">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44" si="193">S9/O9-1</f>
+        <f t="shared" ref="S44" si="187">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44" si="194">T9/P9-1</f>
+        <f t="shared" ref="T44" si="188">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44" si="195">U9/Q9-1</f>
+        <f t="shared" ref="U44" si="189">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" ref="V44:AA44" si="196">V9/R9-1</f>
+        <f t="shared" ref="V44:AA44" si="190">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="190"/>
         <v>0.36569651188624741</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="190"/>
         <v>0.33290566547369838</v>
       </c>
       <c r="Y44" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="190"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="Z44" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="190"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="AA44" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="190"/>
         <v>0.157963234097934</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AD44" si="197">AB9/X9-1</f>
+        <f t="shared" ref="AB44:AD44" si="191">AB9/X9-1</f>
         <v>0.12163736764780375</v>
       </c>
       <c r="AC44" s="8">
-        <f t="shared" si="197"/>
+        <f t="shared" si="191"/>
         <v>0.1227480767358069</v>
       </c>
       <c r="AD44" s="8">
-        <f t="shared" si="197"/>
+        <f t="shared" si="191"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE44" s="8">
@@ -7684,51 +7764,51 @@
         <v>0.18703703703703711</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" ref="AG44:AL44" si="198">AG9/AC9-1</f>
+        <f t="shared" ref="AG44:AL44" si="192">AG9/AC9-1</f>
         <v>0.1905112971074201</v>
       </c>
       <c r="AH44" s="8">
-        <f t="shared" si="198"/>
+        <f t="shared" si="192"/>
         <v>0.189307552470666</v>
       </c>
       <c r="AI44" s="8">
-        <f t="shared" si="198"/>
+        <f t="shared" si="192"/>
         <v>-1</v>
       </c>
       <c r="AJ44" s="8">
-        <f t="shared" si="198"/>
+        <f t="shared" si="192"/>
         <v>-1</v>
       </c>
       <c r="AK44" s="8">
-        <f t="shared" si="198"/>
+        <f t="shared" si="192"/>
         <v>-1</v>
       </c>
       <c r="AL44" s="8">
-        <f t="shared" si="198"/>
+        <f t="shared" si="192"/>
         <v>-1</v>
       </c>
       <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="199">BH9/BG9-1</f>
+        <f t="shared" ref="BH44:BJ44" si="193">BH9/BG9-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="BI44" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="193"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="BJ44" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="193"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="200">BK9/BJ9-1</f>
+        <f t="shared" ref="BK44" si="194">BK9/BJ9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="201">BL9/BK9-1</f>
+        <f t="shared" ref="BL44" si="195">BL9/BK9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="202">BM9/BL9-1</f>
+        <f t="shared" ref="BM44" si="196">BM9/BL9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BN44" s="13">
@@ -7736,39 +7816,39 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="203">BO9/BN9-1</f>
+        <f t="shared" ref="BO44:BW44" si="197">BO9/BN9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BP44" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="197"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BQ44" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="197"/>
+        <v>0.18509867007503544</v>
+      </c>
+      <c r="BR44" s="13">
+        <f t="shared" si="197"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="BS44" s="13">
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BR44" s="13">
-        <f t="shared" si="203"/>
+      <c r="BT44" s="13">
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BS44" s="13">
-        <f t="shared" si="203"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="BT44" s="13">
-        <f t="shared" si="203"/>
-        <v>0.30000000000000004</v>
-      </c>
       <c r="BU44" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="197"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BV44" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="197"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BW44" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="197"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -7784,27 +7864,27 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
-        <f t="shared" ref="J45:O45" si="204">J23/J20</f>
+        <f t="shared" ref="J45:O45" si="198">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="204"/>
+        <f t="shared" si="198"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="204"/>
+        <f t="shared" si="198"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="204"/>
+        <f t="shared" si="198"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="204"/>
+        <f t="shared" si="198"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="204"/>
+        <f t="shared" si="198"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P45" s="16">
@@ -7824,11 +7904,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" ref="T45:W45" si="205">T23/T20</f>
+        <f t="shared" ref="T45:W45" si="199">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="199"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V45" s="16">
@@ -7836,11 +7916,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="205"/>
+        <f t="shared" si="199"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" ref="X45:AD45" si="206">X23/X20</f>
+        <f t="shared" ref="X45:AD45" si="200">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y45" s="16">
@@ -7856,15 +7936,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="200"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="200"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="206"/>
+        <f t="shared" si="200"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE45" s="17">
@@ -7876,55 +7956,55 @@
         <v>0.3421251807701145</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AL45" si="207">AG23/AG20</f>
+        <f t="shared" ref="AG45:AL45" si="201">AG23/AG20</f>
         <v>0.33510199714244354</v>
       </c>
       <c r="AH45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="201"/>
         <v>0.32449199113913268</v>
       </c>
       <c r="AI45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="201"/>
         <v>0.34</v>
       </c>
       <c r="AJ45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="201"/>
         <v>0.34</v>
       </c>
       <c r="AK45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="201"/>
         <v>0.34</v>
       </c>
       <c r="AL45" s="16">
-        <f t="shared" si="207"/>
+        <f t="shared" si="201"/>
         <v>0.34</v>
       </c>
       <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="208">BG23/BG20</f>
+        <f t="shared" ref="BG45:BI45" si="202">BG23/BG20</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="BH45" s="14">
-        <f t="shared" si="208"/>
+        <f t="shared" si="202"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="BI45" s="14">
-        <f t="shared" si="208"/>
+        <f t="shared" si="202"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="209">BJ23/BJ20</f>
+        <f t="shared" ref="BJ45" si="203">BJ23/BJ20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="210">BK23/BK20</f>
+        <f t="shared" ref="BK45:BL45" si="204">BK23/BK20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="BL45" s="14">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="211">BM23/BM20</f>
+        <f t="shared" ref="BM45" si="205">BM23/BM20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BN45" s="14">
@@ -7932,40 +8012,40 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="212">BO23/BO20</f>
+        <f t="shared" ref="BO45:BW45" si="206">BO23/BO20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="212"/>
+        <f t="shared" si="206"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.28495847997662427</v>
+        <f t="shared" si="206"/>
+        <v>0.28660196031406404</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.29051526396001626</v>
+        <f t="shared" si="206"/>
+        <v>0.29222801142844351</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.29581068980258746</v>
+        <f t="shared" si="206"/>
+        <v>0.29761464417110067</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.30074780240646226</v>
+        <f t="shared" si="206"/>
+        <v>0.30266543730786499</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.30071724610417139</v>
+        <f t="shared" si="206"/>
+        <v>0.30256562892774269</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.30068524592936513</v>
+        <f t="shared" si="206"/>
+        <v>0.30246033932429706</v>
       </c>
       <c r="BW45" s="14">
-        <f t="shared" si="212"/>
-        <v>0.30065200107669582</v>
+        <f t="shared" si="206"/>
+        <v>0.30235011614848489</v>
       </c>
       <c r="BY45" t="s">
         <v>77</v>
@@ -7987,75 +8067,75 @@
         <v>75</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:P47" si="213">+O48-O61</f>
+        <f t="shared" ref="O47:P47" si="207">+O48-O61</f>
         <v>25855</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="207"/>
         <v>38263</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="214">+Q48-Q61</f>
+        <f t="shared" ref="Q47" si="208">+Q48-Q61</f>
         <v>35473</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" ref="R47:AB47" si="215">+R48-R61</f>
+        <f t="shared" ref="R47:AB47" si="209">+R48-R61</f>
         <v>52580</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>41402</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>39615</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>28933</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>47305</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>18829</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>2657</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>-257</v>
       </c>
       <c r="Z47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>2876</v>
       </c>
       <c r="AA47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>-2679</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="209"/>
         <v>878</v>
       </c>
       <c r="AC47" s="4">
-        <f t="shared" ref="AC47:AD47" si="216">+AC48-AC61</f>
+        <f t="shared" ref="AC47:AD47" si="210">+AC48-AC61</f>
         <v>3071</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="210"/>
         <v>28466</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" ref="AE47:AF47" si="217">+AE48-AE61</f>
+        <f t="shared" ref="AE47:AF47" si="211">+AE48-AE61</f>
         <v>27440</v>
       </c>
       <c r="AF47" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="211"/>
         <v>34203</v>
       </c>
       <c r="AG47" s="4">
@@ -8083,32 +8163,32 @@
         <v>28466</v>
       </c>
       <c r="BQ47" s="2">
-        <f>+BP47+BQ32</f>
-        <v>57288.203749999979</v>
+        <f>+BQ48-BQ61</f>
+        <v>48579</v>
       </c>
       <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="218">+BQ47+BR32</f>
-        <v>101861.57907437488</v>
+        <f t="shared" ref="BR47:BW47" si="212">+BQ47+BR32</f>
+        <v>95431.083129999912</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="218"/>
-        <v>165833.52035353211</v>
+        <f t="shared" si="212"/>
+        <v>161177.1093705048</v>
       </c>
       <c r="BT47" s="2">
-        <f t="shared" si="218"/>
-        <v>253777.99507973535</v>
+        <f t="shared" si="212"/>
+        <v>250123.54870282114</v>
       </c>
       <c r="BU47" s="2">
-        <f t="shared" si="218"/>
-        <v>359424.87027738051</v>
+        <f t="shared" si="212"/>
+        <v>355956.65442017984</v>
       </c>
       <c r="BV47" s="2">
-        <f t="shared" si="218"/>
-        <v>485836.72377839067</v>
+        <f t="shared" si="212"/>
+        <v>481515.59247738682</v>
       </c>
       <c r="BW47" s="2">
-        <f t="shared" si="218"/>
-        <v>636646.80560538301</v>
+        <f t="shared" si="212"/>
+        <v>630162.42499249685</v>
       </c>
       <c r="BY47" t="s">
         <v>78</v>
@@ -8213,12 +8293,16 @@
         <f>78779+22423</f>
         <v>101202</v>
       </c>
+      <c r="BQ48" s="2">
+        <f>+AH48</f>
+        <v>101202</v>
+      </c>
       <c r="BY48" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BZ48" s="2">
-        <f>NPV(BZ45,BP32:EG32)+Main!K5-Main!K6</f>
-        <v>1459966.3940996223</v>
+        <f>NPV(BZ45,BR32:EI32)+Main!K5-Main!K6</f>
+        <v>1636847.2005585462</v>
       </c>
     </row>
     <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8297,9 +8381,13 @@
       <c r="AH49" s="2">
         <v>34214</v>
       </c>
+      <c r="BQ49" s="2">
+        <f t="shared" ref="BQ49:BQ54" si="213">+AH49</f>
+        <v>34214</v>
+      </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>138.84592160567925</v>
+        <v>151.96798816809454</v>
       </c>
     </row>
     <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8378,6 +8466,10 @@
       <c r="AH50" s="2">
         <v>55451</v>
       </c>
+      <c r="BQ50" s="2">
+        <f t="shared" si="213"/>
+        <v>55451</v>
+      </c>
     </row>
     <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
@@ -8455,6 +8547,10 @@
       <c r="AH51" s="2">
         <v>252665</v>
       </c>
+      <c r="BQ51" s="2">
+        <f t="shared" si="213"/>
+        <v>252665</v>
+      </c>
     </row>
     <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
@@ -8532,6 +8628,10 @@
       <c r="AH52" s="2">
         <v>76141</v>
       </c>
+      <c r="BQ52" s="2">
+        <f t="shared" si="213"/>
+        <v>76141</v>
+      </c>
     </row>
     <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
@@ -8610,6 +8710,10 @@
       <c r="AH53" s="2">
         <v>23074</v>
       </c>
+      <c r="BQ53" s="2">
+        <f t="shared" si="213"/>
+        <v>23074</v>
+      </c>
     </row>
     <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
@@ -8687,6 +8791,10 @@
       <c r="AH54" s="2">
         <v>82147</v>
       </c>
+      <c r="BQ54" s="2">
+        <f t="shared" si="213"/>
+        <v>82147</v>
+      </c>
     </row>
     <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
@@ -8705,83 +8813,87 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:P55" si="219">SUM(O48:O54)</f>
+        <f t="shared" ref="O55:P55" si="214">SUM(O48:O54)</f>
         <v>221238</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="214"/>
         <v>258314</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" ref="Q55" si="220">SUM(Q48:Q54)</f>
+        <f t="shared" ref="Q55" si="215">SUM(Q48:Q54)</f>
         <v>282179</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55:AB55" si="221">SUM(R48:R54)</f>
+        <f t="shared" ref="R55:AB55" si="216">SUM(R48:R54)</f>
         <v>321195</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>323077</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>360319</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>382406</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>420549</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>410767</v>
       </c>
       <c r="X55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>419728</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>428362</v>
       </c>
       <c r="Z55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>462675</v>
       </c>
       <c r="AA55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>464378</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="216"/>
         <v>477607</v>
       </c>
       <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AD55" si="222">SUM(AC48:AC54)</f>
+        <f t="shared" ref="AC55:AD55" si="217">SUM(AC48:AC54)</f>
         <v>486883</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>527854</v>
       </c>
       <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AH55" si="223">SUM(AE48:AE54)</f>
+        <f t="shared" ref="AE55:AH55" si="218">SUM(AE48:AE54)</f>
         <v>530969</v>
       </c>
       <c r="AF55" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>554818</v>
       </c>
       <c r="AG55" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>584626</v>
       </c>
       <c r="AH55" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
+        <v>624894</v>
+      </c>
+      <c r="BQ55" s="2">
+        <f>SUM(BQ48:BQ54)</f>
         <v>624894</v>
       </c>
     </row>
@@ -8861,6 +8973,10 @@
       <c r="AH57" s="2">
         <v>94363</v>
       </c>
+      <c r="BQ57" s="2">
+        <f t="shared" ref="BQ57:BQ63" si="219">+AH57</f>
+        <v>94363</v>
+      </c>
     </row>
     <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
@@ -8938,6 +9054,10 @@
       <c r="AH58" s="2">
         <v>66965</v>
       </c>
+      <c r="BQ58" s="2">
+        <f t="shared" si="219"/>
+        <v>66965</v>
+      </c>
     </row>
     <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
@@ -9015,6 +9135,10 @@
       <c r="AH59" s="2">
         <v>18103</v>
       </c>
+      <c r="BQ59" s="2">
+        <f t="shared" si="219"/>
+        <v>18103</v>
+      </c>
     </row>
     <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
@@ -9092,6 +9216,10 @@
       <c r="AH60" s="2">
         <v>78277</v>
       </c>
+      <c r="BQ60" s="2">
+        <f t="shared" si="219"/>
+        <v>78277</v>
+      </c>
     </row>
     <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
@@ -9169,6 +9297,10 @@
       <c r="AH61" s="2">
         <v>52623</v>
       </c>
+      <c r="BQ61" s="2">
+        <f t="shared" si="219"/>
+        <v>52623</v>
+      </c>
     </row>
     <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
@@ -9246,6 +9378,10 @@
       <c r="AH62" s="2">
         <v>28593</v>
       </c>
+      <c r="BQ62" s="2">
+        <f t="shared" si="219"/>
+        <v>28593</v>
+      </c>
     </row>
     <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
@@ -9323,6 +9459,10 @@
       <c r="AH63" s="2">
         <v>285970</v>
       </c>
+      <c r="BQ63" s="2">
+        <f t="shared" si="219"/>
+        <v>285970</v>
+      </c>
     </row>
     <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
@@ -9341,71 +9481,71 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:P64" si="224">SUM(O57:O63)</f>
+        <f t="shared" ref="O64:P64" si="220">SUM(O57:O63)</f>
         <v>221238</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="220"/>
         <v>258314</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" ref="Q64" si="225">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64" si="221">SUM(Q57:Q63)</f>
         <v>282179</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" ref="R64:AB64" si="226">SUM(R57:R63)</f>
+        <f t="shared" ref="R64:AB64" si="222">SUM(R57:R63)</f>
         <v>321195</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>323077</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>360319</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>382406</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>420549</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>410767</v>
       </c>
       <c r="X64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>419728</v>
       </c>
       <c r="Y64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>428362</v>
       </c>
       <c r="Z64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>462675</v>
       </c>
       <c r="AA64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>464378</v>
       </c>
       <c r="AB64" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>477607</v>
       </c>
       <c r="AC64" s="4">
-        <f t="shared" ref="AC64:AD64" si="227">SUM(AC57:AC63)</f>
+        <f t="shared" ref="AC64:AD64" si="223">SUM(AC57:AC63)</f>
         <v>486883</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="223"/>
         <v>527854</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" ref="AE64" si="228">SUM(AE57:AE63)</f>
+        <f t="shared" ref="AE64" si="224">SUM(AE57:AE63)</f>
         <v>530969</v>
       </c>
       <c r="AF64" s="4">
@@ -9420,8 +9560,12 @@
         <f>SUM(AH57:AH63)</f>
         <v>624894</v>
       </c>
-    </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ64" s="2">
+        <f>SUM(BQ57:BQ63)</f>
+        <v>624894</v>
+      </c>
+    </row>
+    <row r="66" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -9438,71 +9582,71 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:Q66" si="229">+O32</f>
+        <f t="shared" ref="O66:Q66" si="225">+O32</f>
         <v>2535</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="225"/>
         <v>5243</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="225"/>
         <v>6331</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" ref="R66:V66" si="230">+R32</f>
+        <f t="shared" ref="R66:V66" si="226">+R32</f>
         <v>7222</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>8107</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>7778</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>3156</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>14323</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" ref="W66:AE66" si="231">+W32</f>
+        <f t="shared" ref="W66:AE66" si="227">+W32</f>
         <v>-3844</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>2982</v>
       </c>
       <c r="Y66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>2872</v>
       </c>
       <c r="Z66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>3247</v>
       </c>
       <c r="AA66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>3172</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>6750</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>9879</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>10624</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
@@ -9517,8 +9661,12 @@
         <f>+AH32</f>
         <v>20024</v>
       </c>
-    </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ66" s="2">
+        <f>+BQ32</f>
+        <v>31503.311999999976</v>
+      </c>
+    </row>
+    <row r="67" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -9594,8 +9742,12 @@
       <c r="AH67" s="2">
         <v>20004</v>
       </c>
-    </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ67" s="2">
+        <f>SUM(AE67:AH67)</f>
+        <v>59248</v>
+      </c>
+    </row>
+    <row r="68" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -9671,8 +9823,12 @@
       <c r="AH68" s="2">
         <v>15631</v>
       </c>
-    </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ68" s="2">
+        <f t="shared" ref="BQ68:BQ72" si="228">SUM(AE68:AH68)</f>
+        <v>52795</v>
+      </c>
+    </row>
+    <row r="69" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -9748,8 +9904,12 @@
       <c r="AH69" s="2">
         <v>4995</v>
       </c>
-    </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ69" s="2">
+        <f t="shared" si="228"/>
+        <v>22011</v>
+      </c>
+    </row>
+    <row r="70" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -9825,8 +9985,12 @@
       <c r="AH70" s="2">
         <v>-486</v>
       </c>
-    </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ70" s="2">
+        <f t="shared" si="228"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="71" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -9890,8 +10054,12 @@
       <c r="AD71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ71" s="2">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -9967,8 +10135,12 @@
       <c r="AH72" s="2">
         <v>-1608</v>
       </c>
-    </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ72" s="2">
+        <f t="shared" si="228"/>
+        <v>-4648</v>
+      </c>
+    </row>
+    <row r="73" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -10064,8 +10236,12 @@
         <f>934-4023-4190+8726+4042+1611</f>
         <v>7100</v>
       </c>
-    </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ73" s="2">
+        <f>SUM(AE73:AH73)</f>
+        <v>-15541</v>
+      </c>
+    </row>
+    <row r="74" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -10082,83 +10258,83 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4">
-        <f t="shared" ref="O74:Q74" si="232">SUM(O67:O73)</f>
+        <f t="shared" ref="O74:Q74" si="229">SUM(O67:O73)</f>
         <v>3064</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>20606</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>11964</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" ref="R74:AH74" si="233">SUM(R67:R73)</f>
+        <f t="shared" ref="R74:AH74" si="230">SUM(R67:R73)</f>
         <v>30430</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>4213</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>12715</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>7313</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>22086</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>-2790</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>8965</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>11404</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>29173</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>4788</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>16476</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>21217</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>42465</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>18989</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>25281</v>
       </c>
       <c r="AG74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>25971</v>
       </c>
       <c r="AH74" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>45636</v>
       </c>
       <c r="AT74" s="2">
@@ -10170,8 +10346,12 @@
       <c r="AV74" s="2">
         <v>392.02199999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ74" s="2">
+        <f>SUM(BQ67:BQ73)</f>
+        <v>115877</v>
+      </c>
+    </row>
+    <row r="75" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -10197,7 +10377,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -10273,8 +10453,12 @@
       <c r="AH76" s="2">
         <v>-27834</v>
       </c>
-    </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ76" s="2">
+        <f t="shared" ref="BQ76:BQ79" si="231">SUM(AE76:AH76)</f>
+        <v>-82999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -10350,8 +10534,12 @@
       <c r="AH77" s="2">
         <v>1782</v>
       </c>
-    </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ77" s="2">
+        <f t="shared" si="231"/>
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="78" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -10427,8 +10615,12 @@
       <c r="AH78" s="2">
         <v>-2535</v>
       </c>
-    </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ78" s="2">
+        <f t="shared" si="231"/>
+        <v>-7082</v>
+      </c>
+    </row>
+    <row r="79" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -10524,8 +10716,12 @@
         <f>-12533+3677</f>
         <v>-8856</v>
       </c>
-    </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ79" s="2">
+        <f t="shared" si="231"/>
+        <v>-9602</v>
+      </c>
+    </row>
+    <row r="80" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -10542,87 +10738,91 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4">
-        <f t="shared" ref="O80:Q80" si="234">SUM(O76:O79)</f>
+        <f t="shared" ref="O80:Q80" si="232">SUM(O76:O79)</f>
         <v>-8894</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="232"/>
         <v>-17804</v>
       </c>
       <c r="Q80" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="232"/>
         <v>-15876</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" ref="R80:AH80" si="235">SUM(R76:R79)</f>
+        <f t="shared" ref="R80:AH80" si="233">SUM(R76:R79)</f>
         <v>-17038</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-8666</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-22080</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-14828</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-12580</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>906</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-12078</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-15608</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-10821</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-15806</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-9673</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-11753</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-12601</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-17862</v>
       </c>
       <c r="AF80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-22138</v>
       </c>
       <c r="AG80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-16899</v>
       </c>
       <c r="AH80" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-37443</v>
       </c>
-    </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ80" s="2">
+        <f>SUM(BQ76:BQ79)</f>
+        <v>-94342</v>
+      </c>
+    </row>
+    <row r="81" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10648,7 +10848,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -10724,8 +10924,12 @@
       <c r="AH82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ82" s="2">
+        <f t="shared" ref="BQ82:BQ85" si="234">SUM(AE82:AH82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -10821,8 +11025,12 @@
         <f>2554-2607-2500-333-422</f>
         <v>-3308</v>
       </c>
-    </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ83" s="2">
+        <f t="shared" si="234"/>
+        <v>-11812</v>
+      </c>
+    </row>
+    <row r="84" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -10839,87 +11047,91 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:Q84" si="236">SUM(O82:O83)</f>
+        <f t="shared" ref="O84:Q84" si="235">SUM(O82:O83)</f>
         <v>-2591</v>
       </c>
       <c r="P84" s="4">
+        <f t="shared" si="235"/>
+        <v>7408</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" si="235"/>
+        <v>-4105</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" ref="R84:AH84" si="236">SUM(R82:R83)</f>
+        <v>-1816</v>
+      </c>
+      <c r="S84" s="4">
         <f t="shared" si="236"/>
-        <v>7408</v>
-      </c>
-      <c r="Q84" s="4">
+        <v>-3476</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="236"/>
-        <v>-4105</v>
-      </c>
-      <c r="R84" s="4">
-        <f t="shared" ref="R84:AH84" si="237">SUM(R82:R83)</f>
-        <v>-1816</v>
-      </c>
-      <c r="S84" s="4">
-        <f t="shared" si="237"/>
-        <v>-3476</v>
-      </c>
-      <c r="T84" s="4">
-        <f t="shared" si="237"/>
         <v>15643</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-2776</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-3100</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>1990</v>
       </c>
       <c r="X84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>4626</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>3016</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>86</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>6354</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-6539</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-8948</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-6746</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-1256</v>
       </c>
       <c r="AF84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-4490</v>
       </c>
       <c r="AG84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-2758</v>
       </c>
       <c r="AH84" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>-3308</v>
       </c>
-    </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ84" s="2">
+        <f>+BQ83+BQ82</f>
+        <v>-11812</v>
+      </c>
+    </row>
+    <row r="85" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -10995,8 +11207,12 @@
       <c r="AH85" s="2">
         <v>-1250</v>
       </c>
-    </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ85" s="2">
+        <f t="shared" si="234"/>
+        <v>-1301</v>
+      </c>
+    </row>
+    <row r="86" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -11013,7 +11229,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4">
-        <f t="shared" ref="O86" si="238">+O85+O84+O80+O74</f>
+        <f t="shared" ref="O86" si="237">+O85+O84+O80+O74</f>
         <v>-8905</v>
       </c>
       <c r="P86" s="4">
@@ -11025,75 +11241,79 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AH86" si="239">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AH86" si="238">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-8222</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>6512</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-10490</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>6300</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>122</v>
       </c>
       <c r="X86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>1101</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-2522</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>19075</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-4519</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>333</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>14</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>23809</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-558</v>
       </c>
       <c r="AF86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>-1659</v>
       </c>
       <c r="AG86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>7004</v>
       </c>
       <c r="AH86" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>3635</v>
       </c>
-    </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BQ86" s="2">
+        <f>+BQ85+BQ84+BQ80+BQ74</f>
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="88" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -11183,7 +11403,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -11258,8 +11478,11 @@
       <c r="AG90" s="2">
         <v>5663</v>
       </c>
-    </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH90" s="2">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="91" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -11334,8 +11557,11 @@
       <c r="AG91" s="2">
         <v>1301</v>
       </c>
-    </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH91" s="2">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="92" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -11410,57 +11636,60 @@
       <c r="AG92" s="2">
         <v>10447</v>
       </c>
-    </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="AH92" s="2">
+        <v>10632</v>
+      </c>
+    </row>
+    <row r="94" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="240">+O74+O76+O77</f>
+        <f t="shared" ref="O94:W94" si="239">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
       <c r="P94" s="4">
+        <f t="shared" si="239"/>
+        <v>13991</v>
+      </c>
+      <c r="Q94" s="4">
+        <f t="shared" si="239"/>
+        <v>2156</v>
+      </c>
+      <c r="R94" s="4">
+        <f t="shared" si="239"/>
+        <v>17235</v>
+      </c>
+      <c r="S94" s="4">
+        <f t="shared" si="239"/>
+        <v>-6974</v>
+      </c>
+      <c r="T94" s="4">
+        <f t="shared" si="239"/>
+        <v>-273</v>
+      </c>
+      <c r="U94" s="4">
+        <f t="shared" si="239"/>
+        <v>-7438</v>
+      </c>
+      <c r="V94" s="4">
+        <f t="shared" si="239"/>
+        <v>5616</v>
+      </c>
+      <c r="W94" s="4">
+        <f t="shared" si="239"/>
+        <v>-16532</v>
+      </c>
+      <c r="X94" s="4">
+        <f t="shared" ref="X94:Z94" si="240">+X74+X76+X77</f>
+        <v>-5133</v>
+      </c>
+      <c r="Y94" s="4">
         <f t="shared" si="240"/>
-        <v>13991</v>
-      </c>
-      <c r="Q94" s="4">
+        <v>-3637</v>
+      </c>
+      <c r="Z94" s="4">
         <f t="shared" si="240"/>
-        <v>2156</v>
-      </c>
-      <c r="R94" s="4">
-        <f t="shared" si="240"/>
-        <v>17235</v>
-      </c>
-      <c r="S94" s="4">
-        <f t="shared" si="240"/>
-        <v>-6974</v>
-      </c>
-      <c r="T94" s="4">
-        <f t="shared" si="240"/>
-        <v>-273</v>
-      </c>
-      <c r="U94" s="4">
-        <f t="shared" si="240"/>
-        <v>-7438</v>
-      </c>
-      <c r="V94" s="4">
-        <f t="shared" si="240"/>
-        <v>5616</v>
-      </c>
-      <c r="W94" s="4">
-        <f t="shared" si="240"/>
-        <v>-16532</v>
-      </c>
-      <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="241">+X74+X76+X77</f>
-        <v>-5133</v>
-      </c>
-      <c r="Y94" s="4">
-        <f t="shared" si="241"/>
-        <v>-3637</v>
-      </c>
-      <c r="Z94" s="4">
-        <f t="shared" si="241"/>
         <v>13733</v>
       </c>
       <c r="AA94" s="4">
@@ -11468,48 +11697,48 @@
         <v>-8282</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="242">+AB74+AB76+AB77</f>
+        <f t="shared" ref="AB94:AE94" si="241">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
       <c r="AC94" s="4">
+        <f t="shared" si="241"/>
+        <v>9919</v>
+      </c>
+      <c r="AD94" s="4">
+        <f t="shared" si="241"/>
+        <v>29112</v>
+      </c>
+      <c r="AE94" s="4">
+        <f t="shared" si="241"/>
+        <v>5054</v>
+      </c>
+      <c r="AF94" s="4">
+        <f t="shared" ref="AF94:AH94" si="242">+AF74+AF76+AF77</f>
+        <v>8888</v>
+      </c>
+      <c r="AG94" s="4">
         <f t="shared" si="242"/>
-        <v>9919</v>
-      </c>
-      <c r="AD94" s="4">
+        <v>4693</v>
+      </c>
+      <c r="AH94" s="4">
         <f t="shared" si="242"/>
-        <v>29112</v>
-      </c>
-      <c r="AE94" s="4">
-        <f t="shared" si="242"/>
-        <v>5054</v>
-      </c>
-      <c r="AF94" s="4">
-        <f t="shared" ref="AF94:AH94" si="243">+AF74+AF76+AF77</f>
-        <v>8888</v>
-      </c>
-      <c r="AG94" s="4">
-        <f t="shared" si="243"/>
-        <v>4693</v>
-      </c>
-      <c r="AH94" s="4">
-        <f t="shared" si="243"/>
         <v>19584</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="244">SUM(O94:R94)</f>
+        <f t="shared" ref="R95:T95" si="243">SUM(O94:R94)</f>
         <v>31018</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>26408</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>12144</v>
       </c>
       <c r="U95" s="2">
@@ -11529,49 +11758,85 @@
         <v>-23487</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" ref="Y95" si="245">SUM(V94:Y94)</f>
+        <f t="shared" ref="Y95" si="244">SUM(V94:Y94)</f>
         <v>-19686</v>
       </c>
       <c r="Z95" s="2">
         <f>SUM(W94:Z94)</f>
         <v>-11569</v>
       </c>
-      <c r="AA95" s="2">
+      <c r="AA95" s="5">
         <f>SUM(X94:AA94)</f>
         <v>-3319</v>
       </c>
-      <c r="AB95" s="2">
-        <f t="shared" ref="AB95:AE95" si="246">SUM(Y94:AB94)</f>
+      <c r="AB95" s="5">
+        <f t="shared" ref="AB95:AE95" si="245">SUM(Y94:AB94)</f>
         <v>7878</v>
       </c>
-      <c r="AC95" s="2">
+      <c r="AC95" s="5">
+        <f t="shared" si="245"/>
+        <v>21434</v>
+      </c>
+      <c r="AD95" s="5">
+        <f t="shared" si="245"/>
+        <v>36813</v>
+      </c>
+      <c r="AE95" s="5">
+        <f t="shared" si="245"/>
+        <v>50149</v>
+      </c>
+      <c r="AF95" s="5">
+        <f t="shared" ref="AF95:AH95" si="246">SUM(AC94:AF94)</f>
+        <v>52973</v>
+      </c>
+      <c r="AG95" s="5">
         <f t="shared" si="246"/>
-        <v>21434</v>
-      </c>
-      <c r="AD95" s="2">
+        <v>47747</v>
+      </c>
+      <c r="AH95" s="5">
         <f t="shared" si="246"/>
-        <v>36813</v>
-      </c>
-      <c r="AE95" s="2">
-        <f t="shared" si="246"/>
-        <v>50149</v>
-      </c>
-      <c r="AF95" s="2">
-        <f t="shared" ref="AF95:AH95" si="247">SUM(AC94:AF94)</f>
-        <v>52973</v>
-      </c>
-      <c r="AG95" s="2">
-        <f t="shared" si="247"/>
-        <v>47747</v>
-      </c>
-      <c r="AH95" s="2">
-        <f t="shared" si="247"/>
         <v>38219</v>
       </c>
     </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>105</v>
+      </c>
+      <c r="X101" s="7">
+        <v>106.21</v>
+      </c>
+      <c r="Y101" s="7">
+        <v>113</v>
+      </c>
+      <c r="Z101" s="7">
+        <v>84</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>103.29</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>130.36000000000001</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>127.12</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>151.94</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>180.38</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>193.25</v>
+      </c>
+      <c r="AG101" s="1">
+        <v>186.33</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>219.39</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>190.26</v>
       </c>
       <c r="AP101">
         <v>7.25</v>
@@ -11582,6 +11847,28 @@
       <c r="AR101" s="1">
         <f>11495/AR34</f>
         <v>71.354583558045434</v>
+      </c>
+      <c r="BO101" s="1">
+        <f>+Z101</f>
+        <v>84</v>
+      </c>
+      <c r="BP101" s="1">
+        <f>+AD101</f>
+        <v>151.94</v>
+      </c>
+      <c r="BQ101" s="1">
+        <f>+AH101</f>
+        <v>219.39</v>
+      </c>
+    </row>
+    <row r="102" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BP102" s="19">
+        <f>+BP101/BO101-1</f>
+        <v>0.80880952380952387</v>
+      </c>
+      <c r="BQ102" s="19">
+        <f>+BQ101/BP101-1</f>
+        <v>0.44392523364485981</v>
       </c>
     </row>
   </sheetData>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741E2D2-9EDF-4C99-B773-345E40331A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43F7430-3871-47BA-97CB-C3F8D27A43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32430" yWindow="2310" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="55600" yWindow="2970" windowWidth="24440" windowHeight="16540" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,14 @@
     <author>tc={E6C3522C-40A3-4C89-A5ED-958660D0694F}</author>
     <author>tc={A64624BB-B1AF-4371-B81E-B4367444230E}</author>
     <author>tc={C3C93262-255F-49A7-9F98-C9410B7BFA17}</author>
+    <author>tc={C73FBD69-CAB6-4173-B10B-D5EF91565E7C}</author>
     <author>tc={BC0611F9-311A-4928-9AD6-94F49AE6B822}</author>
     <author>tc={1123E429-DC3C-402F-A940-60A8A504E208}</author>
     <author>tc={F0CECC32-58CA-41B9-9B42-426709AD1A9F}</author>
     <author>tc={EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}</author>
     <author>tc={4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}</author>
     <author>tc={D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}</author>
+    <author>tc={93C7E41E-ABCA-41C7-84BA-68723DC06A79}</author>
     <author>tc={7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}</author>
     <author>tc={9ABE8371-ABDF-42F1-936F-09DADC3E4649}</author>
   </authors>
@@ -139,7 +141,15 @@
     Q424 guidance: 151-155B</t>
       </text>
     </comment>
-    <comment ref="Y28" authorId="10" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
+    <comment ref="AJ20" authorId="10" shapeId="0" xr:uid="{C73FBD69-CAB6-4173-B10B-D5EF91565E7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125 guidance: 159-164B</t>
+      </text>
+    </comment>
+    <comment ref="Y28" authorId="11" shapeId="0" xr:uid="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -147,7 +157,7 @@
     Q222 guidance: 0.0-3.5B</t>
       </text>
     </comment>
-    <comment ref="Z28" authorId="11" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
+    <comment ref="Z28" authorId="12" shapeId="0" xr:uid="{1123E429-DC3C-402F-A940-60A8A504E208}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -155,7 +165,7 @@
     Q3 guidance: 0-4B</t>
       </text>
     </comment>
-    <comment ref="AA28" authorId="12" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
+    <comment ref="AA28" authorId="13" shapeId="0" xr:uid="{F0CECC32-58CA-41B9-9B42-426709AD1A9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,7 +173,7 @@
     Q4 guidance 0-4B</t>
       </text>
     </comment>
-    <comment ref="AB28" authorId="13" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
+    <comment ref="AB28" authorId="14" shapeId="0" xr:uid="{EEC432E6-C1EF-4C03-8D2E-1AD7704A7DFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -172,7 +182,7 @@
 I estimated 5.6B prior to guidance</t>
       </text>
     </comment>
-    <comment ref="AF28" authorId="14" shapeId="0" xr:uid="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
+    <comment ref="AF28" authorId="15" shapeId="0" xr:uid="{4DD78E31-7CCE-477B-B706-40FDCE9AC3DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -180,7 +190,7 @@
     10-14B</t>
       </text>
     </comment>
-    <comment ref="AI28" authorId="15" shapeId="0" xr:uid="{D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}">
+    <comment ref="AI28" authorId="16" shapeId="0" xr:uid="{D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +198,15 @@
     Q424: 14-18B</t>
       </text>
     </comment>
-    <comment ref="Y36" authorId="16" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
+    <comment ref="AJ28" authorId="17" shapeId="0" xr:uid="{93C7E41E-ABCA-41C7-84BA-68723DC06A79}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125 guidance: 13.0-17.5B</t>
+      </text>
+    </comment>
+    <comment ref="Y36" authorId="18" shapeId="0" xr:uid="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -196,7 +214,7 @@
     +19% net of FX</t>
       </text>
     </comment>
-    <comment ref="AE45" authorId="17" shapeId="0" xr:uid="{9ABE8371-ABDF-42F1-936F-09DADC3E4649}">
+    <comment ref="AE45" authorId="19" shapeId="0" xr:uid="{9ABE8371-ABDF-42F1-936F-09DADC3E4649}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -680,7 +698,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -707,6 +725,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -801,14 +825,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>48494</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>4532</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>48494</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>4532</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -825,8 +849,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21161149" y="0"/>
-          <a:ext cx="0" cy="17581508"/>
+          <a:off x="22498186" y="0"/>
+          <a:ext cx="0" cy="17286410"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1236,6 +1260,9 @@
   <threadedComment ref="AI20" dT="2025-04-04T16:55:52.25" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{C3C93262-255F-49A7-9F98-C9410B7BFA17}">
     <text>Q424 guidance: 151-155B</text>
   </threadedComment>
+  <threadedComment ref="AJ20" dT="2025-05-23T17:58:48.43" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{C73FBD69-CAB6-4173-B10B-D5EF91565E7C}">
+    <text>Q125 guidance: 159-164B</text>
+  </threadedComment>
   <threadedComment ref="Y28" dT="2022-07-29T15:10:25.65" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{BC0611F9-311A-4928-9AD6-94F49AE6B822}">
     <text>Q222 guidance: 0.0-3.5B</text>
   </threadedComment>
@@ -1255,6 +1282,9 @@
   <threadedComment ref="AI28" dT="2025-04-04T16:56:29.09" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{D6FB59F6-3F25-4686-97A0-9B49BDAE85AA}">
     <text>Q424: 14-18B</text>
   </threadedComment>
+  <threadedComment ref="AJ28" dT="2025-05-23T17:59:02.76" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{93C7E41E-ABCA-41C7-84BA-68723DC06A79}">
+    <text>Q125 guidance: 13.0-17.5B</text>
+  </threadedComment>
   <threadedComment ref="Y36" dT="2022-12-19T01:32:23.85" personId="{9B8D1A3E-D1D5-4929-A5A0-67791399E886}" id="{7DD33F83-8D06-4AB5-AE42-CC8AE1143AEE}">
     <text>+19% net of FX</text>
   </threadedComment>
@@ -1268,22 +1298,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1294,7 +1326,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>103</v>
       </c>
@@ -1303,10 +1335,10 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1863383</v>
+        <v>2164971</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -1314,13 +1346,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>101202</v>
+        <v>94565</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -1334,30 +1366,30 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1814804</v>
+        <v>2123029</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>124</v>
       </c>
@@ -1365,7 +1397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>125</v>
       </c>
@@ -1373,12 +1405,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>135</v>
       </c>
@@ -1386,22 +1418,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -1409,7 +1441,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>143</v>
       </c>
@@ -1420,7 +1452,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>127</v>
       </c>
@@ -1428,67 +1460,67 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>149</v>
       </c>
@@ -1503,26 +1535,26 @@
   <dimension ref="A1:EG102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BO20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG106" sqref="AG106"/>
+      <selection pane="bottomRight" activeCell="BR47" sqref="BR47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="3"/>
-    <col min="74" max="75" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="26" width="9.1796875" style="3"/>
+    <col min="74" max="75" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1810,7 +1842,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1896,6 +1928,21 @@
       <c r="AH3" s="2">
         <v>115586</v>
       </c>
+      <c r="AI3" s="2">
+        <v>92887</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f>+AF3*1.07</f>
+        <v>96335.310000000012</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>+AG3*1.07</f>
+        <v>102224.59000000001</v>
+      </c>
+      <c r="AL3" s="2">
+        <f>+AH3*1.07</f>
+        <v>123677.02</v>
+      </c>
       <c r="BG3" s="2">
         <v>50834</v>
       </c>
@@ -1936,7 +1983,7 @@
         <v>387497</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1974,7 +2021,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
@@ -2012,7 +2059,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2098,6 +2145,21 @@
       <c r="AH6" s="2">
         <v>43420</v>
       </c>
+      <c r="AI6" s="2">
+        <v>33513</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f>+AF6*1.07</f>
+        <v>33879.410000000003</v>
+      </c>
+      <c r="AK6" s="2">
+        <f>+AG6*1.07</f>
+        <v>38400.160000000003</v>
+      </c>
+      <c r="AL6" s="2">
+        <f>+AH6*1.07</f>
+        <v>46459.4</v>
+      </c>
       <c r="BG6" s="2">
         <v>33510</v>
       </c>
@@ -2138,7 +2200,7 @@
         <v>142906</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2176,7 +2238,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2214,7 +2276,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2300,10 +2362,21 @@
       <c r="AH9" s="4">
         <v>28786</v>
       </c>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
+      <c r="AI9" s="4">
+        <v>29267</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>+AF9*1.1</f>
+        <v>28909.100000000002</v>
+      </c>
+      <c r="AK9" s="4">
+        <f>+AG9*1.1</f>
+        <v>30197.200000000001</v>
+      </c>
+      <c r="AL9" s="4">
+        <f>+AH9*1.1</f>
+        <v>31664.600000000002</v>
+      </c>
       <c r="BG9" s="2">
         <v>4644</v>
       </c>
@@ -2344,31 +2417,31 @@
         <v>107556</v>
       </c>
       <c r="BR9" s="2">
-        <f t="shared" ref="BR9:BT9" si="1">+BQ9*1.3</f>
-        <v>139822.80000000002</v>
+        <f>SUM(AI9:AL9)</f>
+        <v>120037.90000000001</v>
       </c>
       <c r="BS9" s="2">
-        <f t="shared" si="1"/>
-        <v>181769.64000000004</v>
+        <f>+BR9*1.2</f>
+        <v>144045.48000000001</v>
       </c>
       <c r="BT9" s="2">
-        <f t="shared" si="1"/>
-        <v>236300.53200000006</v>
+        <f>+BS9*1.2</f>
+        <v>172854.576</v>
       </c>
       <c r="BU9" s="2">
-        <f>+BT9*1.2</f>
-        <v>283560.63840000005</v>
+        <f>+BT9*1.15</f>
+        <v>198782.76239999998</v>
       </c>
       <c r="BV9" s="2">
-        <f t="shared" ref="BV9:BW9" si="2">+BU9*1.2</f>
-        <v>340272.76608000003</v>
+        <f>+BU9*1.1</f>
+        <v>218661.03863999998</v>
       </c>
       <c r="BW9" s="2">
-        <f t="shared" si="2"/>
-        <v>408327.319296</v>
+        <f>+BV9*1.1</f>
+        <v>240527.14250399999</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2454,60 +2527,63 @@
       <c r="AH11" s="2">
         <v>75556</v>
       </c>
+      <c r="AI11" s="2">
+        <v>57407</v>
+      </c>
       <c r="BK11" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
       </c>
       <c r="BL11" s="2">
-        <f t="shared" ref="BL11:BL16" si="3">SUM(K11:N11)</f>
+        <f t="shared" ref="BL11:BL16" si="1">SUM(K11:N11)</f>
         <v>141247</v>
       </c>
       <c r="BM11" s="2">
-        <f t="shared" ref="BM11:BM16" si="4">SUM(O11:R11)</f>
+        <f t="shared" ref="BM11:BM16" si="2">SUM(O11:R11)</f>
         <v>197349</v>
       </c>
       <c r="BN11" s="2">
-        <f t="shared" ref="BN11:BN16" si="5">SUM(S11:V11)</f>
+        <f t="shared" ref="BN11:BN16" si="3">SUM(S11:V11)</f>
         <v>222075</v>
       </c>
       <c r="BO11" s="2">
-        <f t="shared" ref="BO11:BO16" si="6">SUM(W11:Z11)</f>
+        <f t="shared" ref="BO11:BO16" si="4">SUM(W11:Z11)</f>
         <v>220004</v>
       </c>
       <c r="BP11" s="2">
-        <f t="shared" ref="BP11:BP16" si="7">SUM(AA11:AD11)</f>
+        <f t="shared" ref="BP11:BP16" si="5">SUM(AA11:AD11)</f>
         <v>231872</v>
       </c>
       <c r="BQ11" s="2">
-        <f t="shared" ref="BQ11:BQ16" si="8">SUM(AE11:AH11)</f>
+        <f t="shared" ref="BQ11:BQ16" si="6">SUM(AE11:AH11)</f>
         <v>247029</v>
       </c>
       <c r="BR11" s="2">
-        <f t="shared" ref="BR11:BW11" si="9">+BQ11*1.05</f>
+        <f t="shared" ref="BR11:BW11" si="7">+BQ11*1.05</f>
         <v>259380.45</v>
       </c>
       <c r="BS11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>272349.47250000003</v>
       </c>
       <c r="BT11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>285966.94612500007</v>
       </c>
       <c r="BU11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>300265.29343125009</v>
       </c>
       <c r="BV11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>315278.55810281262</v>
       </c>
       <c r="BW11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>331042.48600795324</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2593,60 +2669,63 @@
       <c r="AH12" s="2">
         <v>5579</v>
       </c>
+      <c r="AI12" s="2">
+        <v>5533</v>
+      </c>
       <c r="BK12" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
       </c>
       <c r="BL12" s="2">
+        <f t="shared" si="1"/>
+        <v>17192</v>
+      </c>
+      <c r="BM12" s="2">
+        <f t="shared" si="2"/>
+        <v>16224</v>
+      </c>
+      <c r="BN12" s="2">
         <f t="shared" si="3"/>
-        <v>17192</v>
-      </c>
-      <c r="BM12" s="2">
+        <v>17075</v>
+      </c>
+      <c r="BO12" s="2">
         <f t="shared" si="4"/>
-        <v>16224</v>
-      </c>
-      <c r="BN12" s="2">
+        <v>18963</v>
+      </c>
+      <c r="BP12" s="2">
         <f t="shared" si="5"/>
-        <v>17075</v>
-      </c>
-      <c r="BO12" s="2">
+        <v>20030</v>
+      </c>
+      <c r="BQ12" s="2">
         <f t="shared" si="6"/>
-        <v>18963</v>
-      </c>
-      <c r="BP12" s="2">
-        <f t="shared" si="7"/>
-        <v>20030</v>
-      </c>
-      <c r="BQ12" s="2">
+        <v>21215</v>
+      </c>
+      <c r="BR12" s="2">
+        <f t="shared" ref="BR12:BW12" si="8">+BQ12*1.05</f>
+        <v>22275.75</v>
+      </c>
+      <c r="BS12" s="2">
         <f t="shared" si="8"/>
-        <v>21215</v>
-      </c>
-      <c r="BR12" s="2">
-        <f t="shared" ref="BR12:BW12" si="10">+BQ12*1.05</f>
-        <v>22275.75</v>
-      </c>
-      <c r="BS12" s="2">
-        <f t="shared" si="10"/>
         <v>23389.537500000002</v>
       </c>
       <c r="BT12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>24559.014375000002</v>
       </c>
       <c r="BU12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25786.965093750005</v>
       </c>
       <c r="BV12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27076.313348437507</v>
       </c>
       <c r="BW12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>28430.129015859384</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2732,60 +2811,63 @@
       <c r="AH13" s="2">
         <v>47485</v>
       </c>
+      <c r="AI13" s="2">
+        <v>36512</v>
+      </c>
       <c r="BK13" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
       </c>
       <c r="BL13" s="2">
+        <f t="shared" si="1"/>
+        <v>53761</v>
+      </c>
+      <c r="BM13" s="2">
+        <f t="shared" si="2"/>
+        <v>80437</v>
+      </c>
+      <c r="BN13" s="2">
         <f t="shared" si="3"/>
-        <v>53761</v>
-      </c>
-      <c r="BM13" s="2">
+        <v>103366</v>
+      </c>
+      <c r="BO13" s="2">
         <f t="shared" si="4"/>
-        <v>80437</v>
-      </c>
-      <c r="BN13" s="2">
+        <v>117716</v>
+      </c>
+      <c r="BP13" s="2">
         <f t="shared" si="5"/>
-        <v>103366</v>
-      </c>
-      <c r="BO13" s="2">
+        <v>140053</v>
+      </c>
+      <c r="BQ13" s="2">
         <f t="shared" si="6"/>
-        <v>117716</v>
-      </c>
-      <c r="BP13" s="2">
-        <f t="shared" si="7"/>
-        <v>140053</v>
-      </c>
-      <c r="BQ13" s="2">
-        <f t="shared" si="8"/>
         <v>156146</v>
       </c>
       <c r="BR13" s="2">
-        <f t="shared" ref="BR13:BW13" si="11">+BQ13*1.05</f>
+        <f t="shared" ref="BR13:BW13" si="9">+BQ13*1.05</f>
         <v>163953.30000000002</v>
       </c>
       <c r="BS13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>172150.96500000003</v>
       </c>
       <c r="BT13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>180758.51325000005</v>
       </c>
       <c r="BU13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>189796.43891250005</v>
       </c>
       <c r="BV13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>199286.26085812505</v>
       </c>
       <c r="BW13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>209250.57390103131</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2871,60 +2953,63 @@
       <c r="AH14" s="2">
         <v>17288</v>
       </c>
+      <c r="AI14" s="2">
+        <v>13921</v>
+      </c>
       <c r="BK14" s="2">
         <f>3102+3408+3698+3959</f>
         <v>14167</v>
       </c>
       <c r="BL14" s="2">
+        <f t="shared" si="1"/>
+        <v>19210</v>
+      </c>
+      <c r="BM14" s="2">
+        <f t="shared" si="2"/>
+        <v>25207</v>
+      </c>
+      <c r="BN14" s="2">
         <f t="shared" si="3"/>
-        <v>19210</v>
-      </c>
-      <c r="BM14" s="2">
+        <v>31768</v>
+      </c>
+      <c r="BO14" s="2">
         <f t="shared" si="4"/>
-        <v>25207</v>
-      </c>
-      <c r="BN14" s="2">
+        <v>35218</v>
+      </c>
+      <c r="BP14" s="2">
         <f t="shared" si="5"/>
-        <v>31768</v>
-      </c>
-      <c r="BO14" s="2">
+        <v>40209</v>
+      </c>
+      <c r="BQ14" s="2">
         <f t="shared" si="6"/>
-        <v>35218</v>
-      </c>
-      <c r="BP14" s="2">
-        <f t="shared" si="7"/>
-        <v>40209</v>
-      </c>
-      <c r="BQ14" s="2">
-        <f t="shared" si="8"/>
         <v>51256</v>
       </c>
       <c r="BR14" s="2">
-        <f t="shared" ref="BR14:BT14" si="12">+BQ14*1.1</f>
+        <f t="shared" ref="BR14:BT14" si="10">+BQ14*1.1</f>
         <v>56381.600000000006</v>
       </c>
       <c r="BS14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>62019.760000000009</v>
       </c>
       <c r="BT14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>68221.736000000019</v>
       </c>
       <c r="BU14" s="2">
-        <f t="shared" ref="BU14:BW14" si="13">+BT14*1.05</f>
+        <f t="shared" ref="BU14:BW14" si="11">+BT14*1.05</f>
         <v>71632.822800000024</v>
       </c>
       <c r="BV14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>75214.463940000031</v>
       </c>
       <c r="BW14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>78975.18713700003</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3010,60 +3095,63 @@
       <c r="AH15" s="2">
         <v>11508</v>
       </c>
+      <c r="AI15" s="2">
+        <v>11715</v>
+      </c>
       <c r="BK15" s="2">
         <f>2031+2194+2495+3388</f>
         <v>10108</v>
       </c>
       <c r="BL15" s="2">
+        <f t="shared" si="1"/>
+        <v>14086</v>
+      </c>
+      <c r="BM15" s="2">
+        <f t="shared" si="2"/>
+        <v>20875</v>
+      </c>
+      <c r="BN15" s="2">
         <f t="shared" si="3"/>
-        <v>14086</v>
-      </c>
-      <c r="BM15" s="2">
+        <v>31160</v>
+      </c>
+      <c r="BO15" s="2">
         <f t="shared" si="4"/>
-        <v>20875</v>
-      </c>
-      <c r="BN15" s="2">
+        <v>37739</v>
+      </c>
+      <c r="BP15" s="2">
         <f t="shared" si="5"/>
-        <v>31160</v>
-      </c>
-      <c r="BO15" s="2">
+        <v>46906</v>
+      </c>
+      <c r="BQ15" s="2">
         <f t="shared" si="6"/>
-        <v>37739</v>
-      </c>
-      <c r="BP15" s="2">
-        <f t="shared" si="7"/>
-        <v>46906</v>
-      </c>
-      <c r="BQ15" s="2">
-        <f t="shared" si="8"/>
         <v>49332</v>
       </c>
       <c r="BR15" s="2">
-        <f t="shared" ref="BR15:BT15" si="14">+BQ15*1.1</f>
+        <f t="shared" ref="BR15:BT15" si="12">+BQ15*1.1</f>
         <v>54265.200000000004</v>
       </c>
       <c r="BS15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>59691.720000000008</v>
       </c>
       <c r="BT15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>65660.892000000022</v>
       </c>
       <c r="BU15" s="2">
-        <f t="shared" ref="BU15:BW15" si="15">+BT15*1.05</f>
+        <f t="shared" ref="BU15:BW15" si="13">+BT15*1.05</f>
         <v>68943.93660000003</v>
       </c>
       <c r="BV15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>72391.133430000031</v>
       </c>
       <c r="BW15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>76010.690101500033</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3147,60 +3235,63 @@
       <c r="AH16" s="2">
         <v>1590</v>
       </c>
+      <c r="AI16" s="2">
+        <v>1312</v>
+      </c>
       <c r="BL16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <f t="shared" si="2"/>
+        <v>602</v>
+      </c>
+      <c r="BN16" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BM16" s="2">
+        <v>2176</v>
+      </c>
+      <c r="BO16" s="2">
         <f t="shared" si="4"/>
-        <v>602</v>
-      </c>
-      <c r="BN16" s="2">
+        <v>4247</v>
+      </c>
+      <c r="BP16" s="2">
         <f t="shared" si="5"/>
-        <v>2176</v>
-      </c>
-      <c r="BO16" s="2">
+        <v>4958</v>
+      </c>
+      <c r="BQ16" s="2">
         <f t="shared" si="6"/>
-        <v>4247</v>
-      </c>
-      <c r="BP16" s="2">
-        <f t="shared" si="7"/>
-        <v>4958</v>
-      </c>
-      <c r="BQ16" s="2">
-        <f t="shared" si="8"/>
         <v>5425</v>
       </c>
       <c r="BR16" s="2">
-        <f t="shared" ref="BR16:BW16" si="16">+BQ16*1.05</f>
+        <f t="shared" ref="BR16:BW16" si="14">+BQ16*1.05</f>
         <v>5696.25</v>
       </c>
       <c r="BS16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5981.0625</v>
       </c>
       <c r="BT16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6280.1156250000004</v>
       </c>
       <c r="BU16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6594.1214062500003</v>
       </c>
       <c r="BV16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6923.827476562501</v>
       </c>
       <c r="BW16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7270.0188503906265</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3286,6 +3377,9 @@
       <c r="AH18" s="2">
         <v>82226</v>
       </c>
+      <c r="AI18" s="2">
+        <v>63970</v>
+      </c>
       <c r="BJ18" s="2">
         <v>118573</v>
       </c>
@@ -3305,19 +3399,19 @@
         <v>241787</v>
       </c>
       <c r="BO18" s="2">
-        <f t="shared" ref="BO18:BO19" si="17">SUM(W18:Z18)</f>
+        <f t="shared" ref="BO18:BO19" si="15">SUM(W18:Z18)</f>
         <v>242901</v>
       </c>
       <c r="BP18" s="2">
-        <f t="shared" ref="BP18:BP19" si="18">SUM(AA18:AD18)</f>
+        <f t="shared" ref="BP18:BP19" si="16">SUM(AA18:AD18)</f>
         <v>255887</v>
       </c>
       <c r="BQ18" s="2">
-        <f t="shared" ref="BQ18:BQ19" si="19">SUM(AE18:AH18)</f>
+        <f t="shared" ref="BQ18:BQ19" si="17">SUM(AE18:AH18)</f>
         <v>272311</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3403,6 +3497,9 @@
       <c r="AH19" s="2">
         <v>105566</v>
       </c>
+      <c r="AI19" s="2">
+        <v>91697</v>
+      </c>
       <c r="BJ19" s="2">
         <v>59293</v>
       </c>
@@ -3422,19 +3519,19 @@
         <v>228035</v>
       </c>
       <c r="BO19" s="2">
+        <f t="shared" si="15"/>
+        <v>271082</v>
+      </c>
+      <c r="BP19" s="2">
+        <f t="shared" si="16"/>
+        <v>318898</v>
+      </c>
+      <c r="BQ19" s="2">
         <f t="shared" si="17"/>
-        <v>271082</v>
-      </c>
-      <c r="BP19" s="2">
-        <f t="shared" si="18"/>
-        <v>318898</v>
-      </c>
-      <c r="BQ19" s="2">
-        <f t="shared" si="19"/>
         <v>365649</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:137" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3446,55 +3543,55 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6">
-        <f t="shared" ref="J20" si="20">J18+J19</f>
+        <f t="shared" ref="J20" si="18">J18+J19</f>
         <v>72383</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ref="K20:M20" si="21">K18+K19</f>
+        <f t="shared" ref="K20:M20" si="19">K18+K19</f>
         <v>59700</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20" si="22">L18+L19</f>
+        <f t="shared" ref="L20" si="20">L18+L19</f>
         <v>63404</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>69981</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="23">N18+N19</f>
+        <f t="shared" ref="N20" si="21">N18+N19</f>
         <v>87437</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="24">O18+O19</f>
+        <f t="shared" ref="O20" si="22">O18+O19</f>
         <v>75452</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20" si="25">P18+P19</f>
+        <f t="shared" ref="P20" si="23">P18+P19</f>
         <v>88912</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ref="Q20:V20" si="26">Q18+Q19</f>
+        <f t="shared" ref="Q20:V20" si="24">Q18+Q19</f>
         <v>96145</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>125555</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>108518</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>113080</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>110812</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>137412</v>
       </c>
       <c r="W20" s="6">
@@ -3546,8 +3643,8 @@
         <v>187792</v>
       </c>
       <c r="AI20" s="6">
-        <f>+AE20*1.09</f>
-        <v>156211.17000000001</v>
+        <f>+AI19+AI18</f>
+        <v>155667</v>
       </c>
       <c r="AJ20" s="6">
         <f>+AF20*1.1</f>
@@ -3623,19 +3720,19 @@
         <v>88988</v>
       </c>
       <c r="BH20" s="5">
-        <f t="shared" ref="BH20:BI20" si="27">+BH3+BH6+BH9</f>
+        <f t="shared" ref="BH20:BI20" si="25">+BH3+BH6+BH9</f>
         <v>107006</v>
       </c>
       <c r="BI20" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>135987</v>
       </c>
       <c r="BJ20" s="6">
-        <f t="shared" ref="BJ20" si="28">BJ18+BJ19</f>
+        <f t="shared" ref="BJ20" si="26">BJ18+BJ19</f>
         <v>177866</v>
       </c>
       <c r="BK20" s="6">
-        <f t="shared" ref="BK20" si="29">BK18+BK19</f>
+        <f t="shared" ref="BK20" si="27">BK18+BK19</f>
         <v>232887</v>
       </c>
       <c r="BL20" s="6">
@@ -3663,31 +3760,31 @@
         <v>637959</v>
       </c>
       <c r="BR20" s="5">
-        <f t="shared" ref="BR20:BW20" si="30">SUM(BR9:BR16)</f>
-        <v>701775.35</v>
+        <f t="shared" ref="BR20:BW20" si="28">SUM(BR9:BR16)</f>
+        <v>681990.45</v>
       </c>
       <c r="BS20" s="5">
-        <f t="shared" si="30"/>
-        <v>777352.15749999997</v>
+        <f t="shared" si="28"/>
+        <v>739627.99750000006</v>
       </c>
       <c r="BT20" s="5">
-        <f t="shared" si="30"/>
-        <v>867747.74937500025</v>
+        <f t="shared" si="28"/>
+        <v>804301.79337500012</v>
       </c>
       <c r="BU20" s="5">
-        <f t="shared" si="30"/>
-        <v>946580.21664375043</v>
+        <f t="shared" si="28"/>
+        <v>861802.34064375027</v>
       </c>
       <c r="BV20" s="5">
-        <f t="shared" si="30"/>
-        <v>1036443.3232359377</v>
+        <f t="shared" si="28"/>
+        <v>914831.5957959377</v>
       </c>
       <c r="BW20" s="5">
-        <f t="shared" si="30"/>
-        <v>1139306.4043097345</v>
+        <f t="shared" si="28"/>
+        <v>971506.22751773451</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3773,6 +3870,9 @@
       <c r="AH21" s="2">
         <v>98893</v>
       </c>
+      <c r="AI21" s="2">
+        <v>76976</v>
+      </c>
       <c r="AT21" s="2">
         <v>2323.875</v>
       </c>
@@ -3818,35 +3918,35 @@
         <v>304739</v>
       </c>
       <c r="BQ21" s="4">
-        <f t="shared" ref="BQ21:BW21" si="31">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
+        <f t="shared" ref="BQ21:BW21" si="29">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
         <v>414801.2</v>
       </c>
       <c r="BR21" s="4">
-        <f t="shared" si="31"/>
-        <v>454363.56000000006</v>
+        <f t="shared" si="29"/>
+        <v>440514.13</v>
       </c>
       <c r="BS21" s="4">
-        <f t="shared" si="31"/>
-        <v>501550.72800000006</v>
+        <f t="shared" si="29"/>
+        <v>475143.81600000005</v>
       </c>
       <c r="BT21" s="4">
-        <f t="shared" si="31"/>
-        <v>558437.95140000014</v>
+        <f t="shared" si="29"/>
+        <v>514025.78220000013</v>
       </c>
       <c r="BU21" s="4">
-        <f t="shared" si="31"/>
-        <v>611171.40483000013</v>
+        <f t="shared" si="29"/>
+        <v>551826.89163000009</v>
       </c>
       <c r="BV21" s="4">
-        <f t="shared" si="31"/>
-        <v>671503.84210350015</v>
+        <f t="shared" si="29"/>
+        <v>586375.63289550005</v>
       </c>
       <c r="BW21" s="4">
-        <f t="shared" si="31"/>
-        <v>740807.67464707512</v>
+        <f t="shared" si="29"/>
+        <v>623347.55089267506</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3932,6 +4032,9 @@
       <c r="AH22" s="2">
         <v>27962</v>
       </c>
+      <c r="AI22" s="2">
+        <v>24593</v>
+      </c>
       <c r="AT22" s="2">
         <v>798.55799999999999</v>
       </c>
@@ -3977,35 +4080,35 @@
         <v>90619</v>
       </c>
       <c r="BQ22" s="4">
-        <f t="shared" ref="BQ22:BW22" si="32">(BQ13+BQ11)*0.1</f>
+        <f t="shared" ref="BQ22:BW22" si="30">(BQ13+BQ11)*0.1</f>
         <v>40317.5</v>
       </c>
       <c r="BR22" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>42333.375</v>
       </c>
       <c r="BS22" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>44450.043750000012</v>
       </c>
       <c r="BT22" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>46672.545937500014</v>
       </c>
       <c r="BU22" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>49006.173234375019</v>
       </c>
       <c r="BV22" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>51456.48189609377</v>
       </c>
       <c r="BW22" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>54029.305990898458</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4120,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
-        <f t="shared" ref="J23" si="33">J20-J21-J22</f>
+        <f t="shared" ref="J23" si="31">J20-J21-J22</f>
         <v>17569</v>
       </c>
       <c r="K23" s="4">
@@ -4025,7 +4128,7 @@
         <v>17179</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="34">L20-L21-L22</f>
+        <f t="shared" ref="L23" si="32">L20-L21-L22</f>
         <v>17796</v>
       </c>
       <c r="M23" s="4">
@@ -4033,15 +4136,15 @@
         <v>18512</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="35">N20-N21-N22</f>
+        <f t="shared" ref="N23" si="33">N20-N21-N22</f>
         <v>21268</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23" si="36">O20-O21-O22</f>
+        <f t="shared" ref="O23" si="34">O20-O21-O22</f>
         <v>19664</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23" si="37">P20-P21-P22</f>
+        <f t="shared" ref="P23" si="35">P20-P21-P22</f>
         <v>22446</v>
       </c>
       <c r="Q23" s="4">
@@ -4049,7 +4152,7 @@
         <v>24334</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23" si="38">R20-R21-R22</f>
+        <f t="shared" ref="R23" si="36">R20-R21-R22</f>
         <v>27797</v>
       </c>
       <c r="S23" s="4">
@@ -4057,23 +4160,23 @@
         <v>29585</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:AE23" si="39">T20-T21-T22</f>
+        <f t="shared" ref="T23:AE23" si="37">T20-T21-T22</f>
         <v>31266</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>29384</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>32132</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>29674</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>34468</v>
       </c>
       <c r="Y23" s="4">
@@ -4089,7 +4192,7 @@
         <v>38662</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>43705</v>
       </c>
       <c r="AC23" s="4">
@@ -4097,11 +4200,11 @@
         <v>45747</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>51313</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>48363</v>
       </c>
       <c r="AF23" s="4">
@@ -4116,20 +4219,20 @@
         <f>AH20-AH21-AH22</f>
         <v>60937</v>
       </c>
-      <c r="AI23" s="2">
-        <f>+AI20*0.34</f>
-        <v>53111.797800000008</v>
+      <c r="AI23" s="4">
+        <f>AI20-AI21-AI22</f>
+        <v>54098</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" ref="AJ23:AL23" si="40">+AJ20*0.34</f>
+        <f t="shared" ref="AJ23:AL23" si="38">+AJ20*0.34</f>
         <v>55343.772000000012</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>59419.998000000007</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>70234.208000000013</v>
       </c>
       <c r="AT23" s="2">
@@ -4145,75 +4248,75 @@
         <v>780.13599999999974</v>
       </c>
       <c r="BG23" s="4">
-        <f t="shared" ref="BG23:BJ23" si="41">BG20-BG21-BG22</f>
+        <f t="shared" ref="BG23:BJ23" si="39">BG20-BG21-BG22</f>
         <v>15470</v>
       </c>
       <c r="BH23" s="4">
+        <f t="shared" si="39"/>
+        <v>21945</v>
+      </c>
+      <c r="BI23" s="4">
+        <f t="shared" si="39"/>
+        <v>30103</v>
+      </c>
+      <c r="BJ23" s="4">
+        <f t="shared" si="39"/>
+        <v>40683</v>
+      </c>
+      <c r="BK23" s="4">
+        <f t="shared" ref="BK23:BL23" si="40">BK20-BK21-BK22</f>
+        <v>59704</v>
+      </c>
+      <c r="BL23" s="4">
+        <f t="shared" si="40"/>
+        <v>74755</v>
+      </c>
+      <c r="BM23" s="4">
+        <f t="shared" ref="BM23:BW23" si="41">BM20-BM21-BM22</f>
+        <v>94241</v>
+      </c>
+      <c r="BN23" s="4">
         <f t="shared" si="41"/>
-        <v>21945</v>
-      </c>
-      <c r="BI23" s="4">
+        <v>122367</v>
+      </c>
+      <c r="BO23" s="4">
         <f t="shared" si="41"/>
-        <v>30103</v>
-      </c>
-      <c r="BJ23" s="4">
+        <v>140853</v>
+      </c>
+      <c r="BP23" s="4">
         <f t="shared" si="41"/>
-        <v>40683</v>
-      </c>
-      <c r="BK23" s="4">
-        <f t="shared" ref="BK23:BL23" si="42">BK20-BK21-BK22</f>
-        <v>59704</v>
-      </c>
-      <c r="BL23" s="4">
-        <f t="shared" si="42"/>
-        <v>74755</v>
-      </c>
-      <c r="BM23" s="4">
-        <f t="shared" ref="BM23:BW23" si="43">BM20-BM21-BM22</f>
-        <v>94241</v>
-      </c>
-      <c r="BN23" s="4">
-        <f t="shared" si="43"/>
-        <v>122367</v>
-      </c>
-      <c r="BO23" s="4">
-        <f t="shared" si="43"/>
-        <v>140853</v>
-      </c>
-      <c r="BP23" s="4">
-        <f t="shared" si="43"/>
         <v>179427</v>
       </c>
       <c r="BQ23" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>182840.3</v>
       </c>
       <c r="BR23" s="4">
-        <f t="shared" si="43"/>
-        <v>205078.41499999992</v>
+        <f t="shared" si="41"/>
+        <v>199142.94499999995</v>
       </c>
       <c r="BS23" s="4">
-        <f t="shared" si="43"/>
-        <v>231351.3857499999</v>
+        <f t="shared" si="41"/>
+        <v>220034.13774999999</v>
       </c>
       <c r="BT23" s="4">
-        <f t="shared" si="43"/>
-        <v>262637.25203750009</v>
+        <f t="shared" si="41"/>
+        <v>243603.46523749997</v>
       </c>
       <c r="BU23" s="4">
-        <f t="shared" si="43"/>
-        <v>286402.63857937529</v>
+        <f t="shared" si="41"/>
+        <v>260969.27577937517</v>
       </c>
       <c r="BV23" s="4">
-        <f t="shared" si="43"/>
-        <v>313482.99923634384</v>
+        <f t="shared" si="41"/>
+        <v>276999.48100434389</v>
       </c>
       <c r="BW23" s="4">
-        <f t="shared" si="43"/>
-        <v>344469.42367176089</v>
+        <f t="shared" si="41"/>
+        <v>294129.37063416099</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4352,31 +4455,31 @@
         <v>88190.66</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" ref="BR24:BW24" si="44">+BQ24*1.03</f>
+        <f t="shared" ref="BR24:BW24" si="42">+BQ24*1.03</f>
         <v>90836.37980000001</v>
       </c>
       <c r="BS24" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>93561.471194000012</v>
       </c>
       <c r="BT24" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>96368.31532982002</v>
       </c>
       <c r="BU24" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>99259.364789714629</v>
       </c>
       <c r="BV24" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>102237.14573340607</v>
       </c>
       <c r="BW24" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4511,35 +4614,35 @@
         <v>44370</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" ref="BQ25:BW25" si="45">+BP25*1.03</f>
+        <f t="shared" ref="BQ25:BW25" si="43">+BP25*1.03</f>
         <v>45701.1</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>47072.133000000002</v>
       </c>
       <c r="BS25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>48484.296990000003</v>
       </c>
       <c r="BT25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>49938.825899700001</v>
       </c>
       <c r="BU25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>51436.990676690999</v>
       </c>
       <c r="BV25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>52980.100396991729</v>
       </c>
       <c r="BW25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4675,35 +4778,35 @@
         <v>11816</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" ref="BQ26:BW26" si="46">+BP26*1.03</f>
+        <f t="shared" ref="BQ26:BW26" si="44">+BP26*1.03</f>
         <v>12170.48</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>12535.5944</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>12911.662232000001</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>13299.012098960002</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>13697.982461928803</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>14108.921935786668</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4715,7 +4818,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
-        <f t="shared" ref="J27" si="47">SUM(J24:J26)</f>
+        <f t="shared" ref="J27" si="45">SUM(J24:J26)</f>
         <v>13697</v>
       </c>
       <c r="K27" s="4">
@@ -4723,7 +4826,7 @@
         <v>12764</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" ref="L27" si="48">SUM(L24:L26)</f>
+        <f t="shared" ref="L27" si="46">SUM(L24:L26)</f>
         <v>14626</v>
       </c>
       <c r="M27" s="4">
@@ -4731,15 +4834,15 @@
         <v>15300</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" ref="N27" si="49">SUM(N24:N26)</f>
+        <f t="shared" ref="N27" si="47">SUM(N24:N26)</f>
         <v>17324</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="O27" si="50">SUM(O24:O26)</f>
+        <f t="shared" ref="O27" si="48">SUM(O24:O26)</f>
         <v>15605</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27" si="51">SUM(P24:P26)</f>
+        <f t="shared" ref="P27" si="49">SUM(P24:P26)</f>
         <v>16313</v>
       </c>
       <c r="Q27" s="4">
@@ -4747,7 +4850,7 @@
         <v>18078</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" ref="R27" si="52">SUM(R24:R26)</f>
+        <f t="shared" ref="R27" si="50">SUM(R24:R26)</f>
         <v>21420</v>
       </c>
       <c r="S27" s="4">
@@ -4755,23 +4858,23 @@
         <v>20682</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" ref="T27:W27" si="53">SUM(T24:T26)</f>
+        <f t="shared" ref="T27:W27" si="51">SUM(T24:T26)</f>
         <v>23553</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>24543</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>28648</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>25756</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" ref="X27:AJ27" si="54">SUM(X24:X26)</f>
+        <f t="shared" ref="X27:AL27" si="52">SUM(X24:X26)</f>
         <v>31061</v>
       </c>
       <c r="Y27" s="4">
@@ -4779,47 +4882,55 @@
         <v>33560</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>36965</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>33665</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>35878</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>34315</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>37950</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>32828</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>35954</v>
       </c>
       <c r="AG27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>37982</v>
       </c>
       <c r="AH27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>39558</v>
       </c>
       <c r="AI27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>35125.96</v>
       </c>
       <c r="AJ27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="4">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="4">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AT27" s="2">
@@ -4835,75 +4946,75 @@
         <v>418.89800000000002</v>
       </c>
       <c r="BG27" s="4">
-        <f t="shared" ref="BG27:BI27" si="55">SUM(BG24:BG26)</f>
+        <f t="shared" ref="BG27:BI27" si="53">SUM(BG24:BG26)</f>
         <v>15159</v>
       </c>
       <c r="BH27" s="4">
+        <f t="shared" si="53"/>
+        <v>19541</v>
+      </c>
+      <c r="BI27" s="4">
+        <f t="shared" si="53"/>
+        <v>25750</v>
+      </c>
+      <c r="BJ27" s="4">
+        <f t="shared" ref="BJ27" si="54">SUM(BJ24:BJ26)</f>
+        <v>36363</v>
+      </c>
+      <c r="BK27" s="4">
+        <f t="shared" ref="BK27:BL27" si="55">SUM(BK24:BK26)</f>
+        <v>46987</v>
+      </c>
+      <c r="BL27" s="4">
         <f t="shared" si="55"/>
-        <v>19541</v>
-      </c>
-      <c r="BI27" s="4">
-        <f t="shared" si="55"/>
-        <v>25750</v>
-      </c>
-      <c r="BJ27" s="4">
-        <f t="shared" ref="BJ27" si="56">SUM(BJ24:BJ26)</f>
-        <v>36363</v>
-      </c>
-      <c r="BK27" s="4">
-        <f t="shared" ref="BK27:BL27" si="57">SUM(BK24:BK26)</f>
-        <v>46987</v>
-      </c>
-      <c r="BL27" s="4">
+        <v>60014</v>
+      </c>
+      <c r="BM27" s="4">
+        <f t="shared" ref="BM27:BN27" si="56">SUM(BM24:BM26)</f>
+        <v>71416</v>
+      </c>
+      <c r="BN27" s="4">
+        <f t="shared" si="56"/>
+        <v>97426</v>
+      </c>
+      <c r="BO27" s="4">
+        <f t="shared" ref="BO27:BP27" si="57">SUM(BO24:BO26)</f>
+        <v>127342</v>
+      </c>
+      <c r="BP27" s="4">
         <f t="shared" si="57"/>
-        <v>60014</v>
-      </c>
-      <c r="BM27" s="4">
-        <f t="shared" ref="BM27:BN27" si="58">SUM(BM24:BM26)</f>
-        <v>71416</v>
-      </c>
-      <c r="BN27" s="4">
+        <v>141808</v>
+      </c>
+      <c r="BQ27" s="4">
+        <f t="shared" ref="BQ27:BW27" si="58">SUM(BQ24:BQ26)</f>
+        <v>146062.24000000002</v>
+      </c>
+      <c r="BR27" s="4">
         <f t="shared" si="58"/>
-        <v>97426</v>
-      </c>
-      <c r="BO27" s="4">
-        <f t="shared" ref="BO27:BP27" si="59">SUM(BO24:BO26)</f>
-        <v>127342</v>
-      </c>
-      <c r="BP27" s="4">
-        <f t="shared" si="59"/>
-        <v>141808</v>
-      </c>
-      <c r="BQ27" s="4">
-        <f t="shared" ref="BQ27:BW27" si="60">SUM(BQ24:BQ26)</f>
-        <v>146062.24000000002</v>
-      </c>
-      <c r="BR27" s="4">
-        <f t="shared" si="60"/>
         <v>150444.10720000003</v>
       </c>
       <c r="BS27" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>154957.43041600002</v>
       </c>
       <c r="BT27" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>159606.15332848002</v>
       </c>
       <c r="BU27" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>164394.33792833443</v>
       </c>
       <c r="BV27" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>169326.16806618447</v>
       </c>
       <c r="BW27" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4915,7 +5026,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4">
-        <f t="shared" ref="J28" si="61">J23-J27</f>
+        <f t="shared" ref="J28" si="59">J23-J27</f>
         <v>3872</v>
       </c>
       <c r="K28" s="4">
@@ -4923,7 +5034,7 @@
         <v>4415</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28" si="62">L23-L27</f>
+        <f t="shared" ref="L28" si="60">L23-L27</f>
         <v>3170</v>
       </c>
       <c r="M28" s="4">
@@ -4931,15 +5042,15 @@
         <v>3212</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28" si="63">N23-N27</f>
+        <f t="shared" ref="N28" si="61">N23-N27</f>
         <v>3944</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28" si="64">O23-O27</f>
+        <f t="shared" ref="O28" si="62">O23-O27</f>
         <v>4059</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28" si="65">P23-P27</f>
+        <f t="shared" ref="P28" si="63">P23-P27</f>
         <v>6133</v>
       </c>
       <c r="Q28" s="4">
@@ -4947,7 +5058,7 @@
         <v>6256</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="66">R23-R27</f>
+        <f t="shared" ref="R28" si="64">R23-R27</f>
         <v>6377</v>
       </c>
       <c r="S28" s="4">
@@ -4955,23 +5066,23 @@
         <v>8903</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:W28" si="67">T23-T27</f>
+        <f t="shared" ref="T28:W28" si="65">T23-T27</f>
         <v>7713</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>4841</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>3484</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>3918</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" ref="X28:AE28" si="68">X23-X27</f>
+        <f t="shared" ref="X28:AE28" si="66">X23-X27</f>
         <v>3407</v>
       </c>
       <c r="Y28" s="4">
@@ -4979,7 +5090,7 @@
         <v>2690</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>3496</v>
       </c>
       <c r="AA28" s="4">
@@ -4987,7 +5098,7 @@
         <v>4997</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>7827</v>
       </c>
       <c r="AC28" s="4">
@@ -4995,11 +5106,11 @@
         <v>11432</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>13363</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>15535</v>
       </c>
       <c r="AF28" s="4">
@@ -5016,12 +5127,20 @@
       </c>
       <c r="AI28" s="4">
         <f>AI23-AI27</f>
-        <v>17985.837800000008</v>
+        <v>18972.04</v>
       </c>
       <c r="AJ28" s="4">
         <f>AJ23-AJ27</f>
         <v>55343.772000000012</v>
       </c>
+      <c r="AK28" s="4">
+        <f>AK23-AK27</f>
+        <v>59419.998000000007</v>
+      </c>
+      <c r="AL28" s="4">
+        <f>AL23-AL27</f>
+        <v>70234.208000000013</v>
+      </c>
       <c r="AT28" s="2">
         <f>AT23-AT27</f>
         <v>-469.30999999999995</v>
@@ -5035,75 +5154,75 @@
         <v>361.23799999999972</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" ref="BG28:BI28" si="69">BG23-BG27</f>
+        <f t="shared" ref="BG28:BI28" si="67">BG23-BG27</f>
         <v>311</v>
       </c>
       <c r="BH28" s="4">
+        <f t="shared" si="67"/>
+        <v>2404</v>
+      </c>
+      <c r="BI28" s="4">
+        <f t="shared" si="67"/>
+        <v>4353</v>
+      </c>
+      <c r="BJ28" s="4">
+        <f t="shared" ref="BJ28" si="68">BJ23-BJ27</f>
+        <v>4320</v>
+      </c>
+      <c r="BK28" s="4">
+        <f t="shared" ref="BK28:BL28" si="69">BK23-BK27</f>
+        <v>12717</v>
+      </c>
+      <c r="BL28" s="4">
         <f t="shared" si="69"/>
-        <v>2404</v>
-      </c>
-      <c r="BI28" s="4">
-        <f t="shared" si="69"/>
-        <v>4353</v>
-      </c>
-      <c r="BJ28" s="4">
-        <f t="shared" ref="BJ28" si="70">BJ23-BJ27</f>
-        <v>4320</v>
-      </c>
-      <c r="BK28" s="4">
-        <f t="shared" ref="BK28:BL28" si="71">BK23-BK27</f>
-        <v>12717</v>
-      </c>
-      <c r="BL28" s="4">
+        <v>14741</v>
+      </c>
+      <c r="BM28" s="4">
+        <f t="shared" ref="BM28:BN28" si="70">BM23-BM27</f>
+        <v>22825</v>
+      </c>
+      <c r="BN28" s="4">
+        <f t="shared" si="70"/>
+        <v>24941</v>
+      </c>
+      <c r="BO28" s="4">
+        <f t="shared" ref="BO28:BP28" si="71">BO23-BO27</f>
+        <v>13511</v>
+      </c>
+      <c r="BP28" s="4">
         <f t="shared" si="71"/>
-        <v>14741</v>
-      </c>
-      <c r="BM28" s="4">
-        <f t="shared" ref="BM28:BN28" si="72">BM23-BM27</f>
-        <v>22825</v>
-      </c>
-      <c r="BN28" s="4">
+        <v>37619</v>
+      </c>
+      <c r="BQ28" s="4">
+        <f t="shared" ref="BQ28:BW28" si="72">BQ23-BQ27</f>
+        <v>36778.059999999969</v>
+      </c>
+      <c r="BR28" s="4">
         <f t="shared" si="72"/>
-        <v>24941</v>
-      </c>
-      <c r="BO28" s="4">
-        <f t="shared" ref="BO28:BP28" si="73">BO23-BO27</f>
-        <v>13511</v>
-      </c>
-      <c r="BP28" s="4">
-        <f t="shared" si="73"/>
-        <v>37619</v>
-      </c>
-      <c r="BQ28" s="4">
-        <f t="shared" ref="BQ28:BW28" si="74">BQ23-BQ27</f>
-        <v>36778.059999999969</v>
-      </c>
-      <c r="BR28" s="4">
-        <f t="shared" si="74"/>
-        <v>54634.307799999893</v>
+        <v>48698.837799999921</v>
       </c>
       <c r="BS28" s="4">
-        <f t="shared" si="74"/>
-        <v>76393.955333999882</v>
+        <f t="shared" si="72"/>
+        <v>65076.707333999977</v>
       </c>
       <c r="BT28" s="4">
-        <f t="shared" si="74"/>
-        <v>103031.09870902007</v>
+        <f t="shared" si="72"/>
+        <v>83997.311909019947</v>
       </c>
       <c r="BU28" s="4">
-        <f t="shared" si="74"/>
-        <v>122008.30065104086</v>
+        <f t="shared" si="72"/>
+        <v>96574.93785104074</v>
       </c>
       <c r="BV28" s="4">
-        <f t="shared" si="74"/>
-        <v>144156.83117015936</v>
+        <f t="shared" si="72"/>
+        <v>107673.31293815942</v>
       </c>
       <c r="BW28" s="4">
-        <f t="shared" si="74"/>
-        <v>170063.4705635909</v>
+        <f t="shared" si="72"/>
+        <v>119723.41752599101</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -5275,31 +5394,31 @@
         <v>284.66000000000003</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" ref="BR29:BW29" si="75">+BQ47*$BZ$46</f>
+        <f t="shared" ref="BR29:BW29" si="73">+BQ47*$BZ$46</f>
         <v>485.79</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="75"/>
-        <v>954.31083129999911</v>
+        <f t="shared" si="73"/>
+        <v>903.85933629999931</v>
       </c>
       <c r="BT29" s="2">
-        <f t="shared" si="75"/>
-        <v>1611.7710937050481</v>
+        <f t="shared" si="73"/>
+        <v>1464.6941529975491</v>
       </c>
       <c r="BU29" s="2">
-        <f t="shared" si="75"/>
-        <v>2501.2354870282115</v>
+        <f t="shared" si="73"/>
+        <v>2191.121204524698</v>
       </c>
       <c r="BV29" s="2">
-        <f t="shared" si="75"/>
-        <v>3559.5665442017985</v>
+        <f t="shared" si="73"/>
+        <v>3030.6327064970042</v>
       </c>
       <c r="BW29" s="2">
-        <f t="shared" si="75"/>
-        <v>4815.1559247738687</v>
+        <f t="shared" si="73"/>
+        <v>3971.6162444765841</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5311,7 +5430,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <f t="shared" ref="J30" si="76">J28+J29</f>
+        <f t="shared" ref="J30" si="74">J28+J29</f>
         <v>3350</v>
       </c>
       <c r="K30" s="4">
@@ -5319,7 +5438,7 @@
         <v>4401</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="77">L28+L29</f>
+        <f t="shared" ref="L30" si="75">L28+L29</f>
         <v>2889</v>
       </c>
       <c r="M30" s="4">
@@ -5327,15 +5446,15 @@
         <v>2632</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="78">N28+N29</f>
+        <f t="shared" ref="N30" si="76">N28+N29</f>
         <v>4053</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" ref="O30" si="79">O28+O29</f>
+        <f t="shared" ref="O30" si="77">O28+O29</f>
         <v>3383</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" ref="P30" si="80">P28+P29</f>
+        <f t="shared" ref="P30" si="78">P28+P29</f>
         <v>6221</v>
       </c>
       <c r="Q30" s="4">
@@ -5343,7 +5462,7 @@
         <v>6809</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="81">R28+R29</f>
+        <f t="shared" ref="R30" si="79">R28+R29</f>
         <v>7765</v>
       </c>
       <c r="S30" s="4">
@@ -5351,39 +5470,39 @@
         <v>10268</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:AI30" si="82">T28+T29</f>
+        <f t="shared" ref="T30:AL30" si="80">T28+T29</f>
         <v>8634</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>4315</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>14934</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>-5265</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>2982</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>2944</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>3247</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>4119</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>7563</v>
       </c>
       <c r="AC30" s="4">
@@ -5391,28 +5510,40 @@
         <v>12189</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>13686</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>12983</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>15246</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>15649</v>
       </c>
       <c r="AH30" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>22349</v>
       </c>
       <c r="AI30" s="4">
-        <f t="shared" si="82"/>
-        <v>18955.837800000008</v>
+        <f t="shared" si="80"/>
+        <v>19942.04</v>
+      </c>
+      <c r="AJ30" s="4">
+        <f t="shared" si="80"/>
+        <v>55343.772000000012</v>
+      </c>
+      <c r="AK30" s="4">
+        <f t="shared" si="80"/>
+        <v>59419.998000000007</v>
+      </c>
+      <c r="AL30" s="4">
+        <f t="shared" si="80"/>
+        <v>70234.208000000013</v>
       </c>
       <c r="AT30" s="2">
         <f>AT28+AT29</f>
@@ -5427,75 +5558,75 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG30" s="4">
-        <f t="shared" ref="BG30:BI30" si="83">BG28+BG29</f>
+        <f t="shared" ref="BG30:BI30" si="81">BG28+BG29</f>
         <v>-111</v>
       </c>
       <c r="BH30" s="4">
+        <f t="shared" si="81"/>
+        <v>1568</v>
+      </c>
+      <c r="BI30" s="4">
+        <f t="shared" si="81"/>
+        <v>3892</v>
+      </c>
+      <c r="BJ30" s="4">
+        <f t="shared" ref="BJ30" si="82">BJ28+BJ29</f>
+        <v>3806</v>
+      </c>
+      <c r="BK30" s="4">
+        <f t="shared" ref="BK30:BL30" si="83">BK28+BK29</f>
+        <v>11261</v>
+      </c>
+      <c r="BL30" s="4">
         <f t="shared" si="83"/>
-        <v>1568</v>
-      </c>
-      <c r="BI30" s="4">
-        <f t="shared" si="83"/>
-        <v>3892</v>
-      </c>
-      <c r="BJ30" s="4">
-        <f t="shared" ref="BJ30" si="84">BJ28+BJ29</f>
-        <v>3806</v>
-      </c>
-      <c r="BK30" s="4">
-        <f t="shared" ref="BK30:BL30" si="85">BK28+BK29</f>
-        <v>11261</v>
-      </c>
-      <c r="BL30" s="4">
-        <f t="shared" si="85"/>
         <v>13975</v>
       </c>
       <c r="BM30" s="4">
-        <f t="shared" ref="BM30:BW30" si="86">BM28+BM29</f>
+        <f t="shared" ref="BM30:BW30" si="84">BM28+BM29</f>
         <v>24178</v>
       </c>
       <c r="BN30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>38151</v>
       </c>
       <c r="BO30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>3908</v>
       </c>
       <c r="BP30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>37557</v>
       </c>
       <c r="BQ30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>37062.719999999972</v>
       </c>
       <c r="BR30" s="4">
-        <f t="shared" si="86"/>
-        <v>55120.097799999894</v>
+        <f t="shared" si="84"/>
+        <v>49184.627799999922</v>
       </c>
       <c r="BS30" s="4">
-        <f t="shared" si="86"/>
-        <v>77348.26616529988</v>
+        <f t="shared" si="84"/>
+        <v>65980.566670299973</v>
       </c>
       <c r="BT30" s="4">
-        <f t="shared" si="86"/>
-        <v>104642.86980272511</v>
+        <f t="shared" si="84"/>
+        <v>85462.006062017492</v>
       </c>
       <c r="BU30" s="4">
-        <f t="shared" si="86"/>
-        <v>124509.53613806907</v>
+        <f t="shared" si="84"/>
+        <v>98766.059055565434</v>
       </c>
       <c r="BV30" s="4">
-        <f t="shared" si="86"/>
-        <v>147716.39771436117</v>
+        <f t="shared" si="84"/>
+        <v>110703.94564465643</v>
       </c>
       <c r="BW30" s="4">
-        <f t="shared" si="86"/>
-        <v>174878.62648836477</v>
+        <f t="shared" si="84"/>
+        <v>123695.03377046759</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -5604,7 +5735,7 @@
       </c>
       <c r="AI31" s="2">
         <f>+AI30*0.1</f>
-        <v>1895.5837800000008</v>
+        <v>1994.2040000000002</v>
       </c>
       <c r="AT31" s="2">
         <v>0</v>
@@ -5660,31 +5791,31 @@
         <v>5559.4079999999958</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" ref="BR31:BW31" si="87">+BR30*0.15</f>
-        <v>8268.0146699999841</v>
+        <f t="shared" ref="BR31:BW31" si="85">+BR30*0.15</f>
+        <v>7377.6941699999879</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="87"/>
-        <v>11602.239924794982</v>
+        <f t="shared" si="85"/>
+        <v>9897.0850005449956</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="87"/>
-        <v>15696.430470408766</v>
+        <f t="shared" si="85"/>
+        <v>12819.300909302623</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="87"/>
-        <v>18676.43042071036</v>
+        <f t="shared" si="85"/>
+        <v>14814.908858334815</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="87"/>
-        <v>22157.459657154173</v>
+        <f t="shared" si="85"/>
+        <v>16605.591846698462</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="87"/>
-        <v>26231.793973254713</v>
+        <f t="shared" si="85"/>
+        <v>18554.255065570138</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -5696,7 +5827,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <f t="shared" ref="J32" si="88">J30-J31</f>
+        <f t="shared" ref="J32" si="86">J30-J31</f>
         <v>3027</v>
       </c>
       <c r="K32" s="4">
@@ -5704,7 +5835,7 @@
         <v>3561</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="89">L30-L31</f>
+        <f t="shared" ref="L32" si="87">L30-L31</f>
         <v>2625</v>
       </c>
       <c r="M32" s="4">
@@ -5712,15 +5843,15 @@
         <v>2134</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32" si="90">N30-N31</f>
+        <f t="shared" ref="N32" si="88">N30-N31</f>
         <v>3268</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" ref="O32" si="91">O30-O31</f>
+        <f t="shared" ref="O32" si="89">O30-O31</f>
         <v>2535</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32" si="92">P30-P31</f>
+        <f t="shared" ref="P32" si="90">P30-P31</f>
         <v>5243</v>
       </c>
       <c r="Q32" s="4">
@@ -5728,7 +5859,7 @@
         <v>6331</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" ref="R32" si="93">R30-R31</f>
+        <f t="shared" ref="R32" si="91">R30-R31</f>
         <v>7222</v>
       </c>
       <c r="S32" s="4">
@@ -5736,68 +5867,80 @@
         <v>8107</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" ref="T32:AI32" si="94">T30-T31</f>
+        <f t="shared" ref="T32:AL32" si="92">T30-T31</f>
         <v>7778</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>3156</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>14323</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>-3844</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>2982</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>2872</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>3247</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>3172</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>6750</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>9879</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>10624</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>10431</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>13486</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>12940</v>
       </c>
       <c r="AH32" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>20024</v>
       </c>
       <c r="AI32" s="4">
-        <f t="shared" si="94"/>
-        <v>17060.254020000008</v>
+        <f t="shared" si="92"/>
+        <v>17947.835999999999</v>
+      </c>
+      <c r="AJ32" s="4">
+        <f t="shared" si="92"/>
+        <v>55343.772000000012</v>
+      </c>
+      <c r="AK32" s="4">
+        <f t="shared" si="92"/>
+        <v>59419.998000000007</v>
+      </c>
+      <c r="AL32" s="4">
+        <f t="shared" si="92"/>
+        <v>70234.208000000013</v>
       </c>
       <c r="AT32" s="2">
         <f>AT30-AT31</f>
@@ -5812,323 +5955,323 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG32" s="4">
-        <f t="shared" ref="BG32:BI32" si="95">BG30-BG31</f>
+        <f t="shared" ref="BG32:BI32" si="93">BG30-BG31</f>
         <v>-241</v>
       </c>
       <c r="BH32" s="4">
+        <f t="shared" si="93"/>
+        <v>596</v>
+      </c>
+      <c r="BI32" s="4">
+        <f t="shared" si="93"/>
+        <v>2371</v>
+      </c>
+      <c r="BJ32" s="4">
+        <f t="shared" ref="BJ32" si="94">BJ30-BJ31</f>
+        <v>3033</v>
+      </c>
+      <c r="BK32" s="4">
+        <f t="shared" ref="BK32:BL32" si="95">BK30-BK31</f>
+        <v>10073</v>
+      </c>
+      <c r="BL32" s="4">
         <f t="shared" si="95"/>
-        <v>596</v>
-      </c>
-      <c r="BI32" s="4">
-        <f t="shared" si="95"/>
-        <v>2371</v>
-      </c>
-      <c r="BJ32" s="4">
-        <f t="shared" ref="BJ32" si="96">BJ30-BJ31</f>
-        <v>3033</v>
-      </c>
-      <c r="BK32" s="4">
-        <f t="shared" ref="BK32:BL32" si="97">BK30-BK31</f>
-        <v>10073</v>
-      </c>
-      <c r="BL32" s="4">
+        <v>11588</v>
+      </c>
+      <c r="BM32" s="4">
+        <f t="shared" ref="BM32:BP32" si="96">BM30-BM31</f>
+        <v>21331</v>
+      </c>
+      <c r="BN32" s="4">
+        <f t="shared" si="96"/>
+        <v>33364</v>
+      </c>
+      <c r="BO32" s="4">
+        <f t="shared" si="96"/>
+        <v>5257</v>
+      </c>
+      <c r="BP32" s="4">
+        <f t="shared" si="96"/>
+        <v>30425</v>
+      </c>
+      <c r="BQ32" s="4">
+        <f t="shared" ref="BQ32:BW32" si="97">BQ30-BQ31</f>
+        <v>31503.311999999976</v>
+      </c>
+      <c r="BR32" s="4">
         <f t="shared" si="97"/>
-        <v>11588</v>
-      </c>
-      <c r="BM32" s="4">
-        <f t="shared" ref="BM32:BP32" si="98">BM30-BM31</f>
-        <v>21331</v>
-      </c>
-      <c r="BN32" s="4">
-        <f t="shared" si="98"/>
-        <v>33364</v>
-      </c>
-      <c r="BO32" s="4">
-        <f t="shared" si="98"/>
-        <v>5257</v>
-      </c>
-      <c r="BP32" s="4">
-        <f t="shared" si="98"/>
-        <v>30425</v>
-      </c>
-      <c r="BQ32" s="4">
-        <f t="shared" ref="BQ32:BW32" si="99">BQ30-BQ31</f>
-        <v>31503.311999999976</v>
-      </c>
-      <c r="BR32" s="4">
-        <f t="shared" si="99"/>
-        <v>46852.083129999912</v>
+        <v>41806.933629999934</v>
       </c>
       <c r="BS32" s="4">
-        <f t="shared" si="99"/>
-        <v>65746.0262405049</v>
+        <f t="shared" si="97"/>
+        <v>56083.481669754976</v>
       </c>
       <c r="BT32" s="4">
-        <f t="shared" si="99"/>
-        <v>88946.439332316339</v>
+        <f t="shared" si="97"/>
+        <v>72642.705152714872</v>
       </c>
       <c r="BU32" s="4">
-        <f t="shared" si="99"/>
-        <v>105833.10571735872</v>
+        <f t="shared" si="97"/>
+        <v>83951.150197230614</v>
       </c>
       <c r="BV32" s="4">
-        <f t="shared" si="99"/>
-        <v>125558.93805720699</v>
+        <f t="shared" si="97"/>
+        <v>94098.353797957971</v>
       </c>
       <c r="BW32" s="4">
-        <f t="shared" si="99"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="97"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="BX32" s="2">
         <f>+BW32*(1+$BZ$47)</f>
-        <v>148646.83251511006</v>
+        <v>105140.77870489746</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" ref="BY32:EG32" si="100">+BX32*(1+$BZ$47)</f>
-        <v>148646.83251511006</v>
+        <f t="shared" ref="BY32:EG32" si="98">+BX32*(1+$BZ$47)</f>
+        <v>105140.77870489746</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="EE32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="EF32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
       <c r="EG32" s="2">
-        <f t="shared" si="100"/>
-        <v>148646.83251511006</v>
+        <f t="shared" si="98"/>
+        <v>105140.77870489746</v>
       </c>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -6140,7 +6283,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7">
-        <f t="shared" ref="J33" si="101">J32/J34</f>
+        <f t="shared" ref="J33" si="99">J32/J34</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="K33" s="7">
@@ -6148,7 +6291,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33" si="102">L32/L34</f>
+        <f t="shared" ref="L33" si="100">L32/L34</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="M33" s="7">
@@ -6156,15 +6299,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33" si="103">N32/N34</f>
+        <f t="shared" ref="N33" si="101">N32/N34</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33" si="104">O32/O34</f>
+        <f t="shared" ref="O33" si="102">O32/O34</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33" si="105">P32/P34</f>
+        <f t="shared" ref="P33" si="103">P32/P34</f>
         <v>10.300589390962672</v>
       </c>
       <c r="Q33" s="7">
@@ -6172,7 +6315,7 @@
         <v>12.365234375</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" ref="R33" si="106">R32/R34</f>
+        <f t="shared" ref="R33" si="104">R32/R34</f>
         <v>14.077972709551657</v>
       </c>
       <c r="S33" s="7">
@@ -6196,52 +6339,64 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" ref="X33:AI33" si="107">X32/X34</f>
+        <f t="shared" ref="X33:AL33" si="105">X32/X34</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>0.27799825767108705</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>0.31499805975941014</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>0.3065622885860636</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>0.64599483204134367</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>0.93568857738207989</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>1.0013195098963241</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>0.97760074976569822</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>1.2594322002241314</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>1.2054028877503493</v>
       </c>
       <c r="AH33" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>1.8590660105839756</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" si="107"/>
-        <v>1.5839062315476751</v>
+        <f t="shared" si="105"/>
+        <v>1.6629144816084498</v>
+      </c>
+      <c r="AJ33" s="7">
+        <f t="shared" si="105"/>
+        <v>5.1277468729732245</v>
+      </c>
+      <c r="AK33" s="7">
+        <f t="shared" si="105"/>
+        <v>5.5054199944408415</v>
+      </c>
+      <c r="AL33" s="7">
+        <f t="shared" si="105"/>
+        <v>6.5073851570462349</v>
       </c>
       <c r="AT33" s="1">
         <f>AT32/AT34</f>
@@ -6256,27 +6411,27 @@
         <v>0.60382208741105259</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="108">BG32/BG34</f>
+        <f t="shared" ref="BG33" si="106">BG32/BG34</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="109">BH32/BH34</f>
+        <f t="shared" ref="BH33" si="107">BH32/BH34</f>
         <v>1.249475890985325</v>
       </c>
       <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="110">BI32/BI34</f>
+        <f t="shared" ref="BI33" si="108">BI32/BI34</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="BJ33" s="7">
-        <f t="shared" ref="BJ33" si="111">BJ32/BJ34</f>
+        <f t="shared" ref="BJ33" si="109">BJ32/BJ34</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="BK33" s="7">
-        <f t="shared" ref="BK33:BL33" si="112">BK32/BK34</f>
+        <f t="shared" ref="BK33:BL33" si="110">BK32/BK34</f>
         <v>20.146000000000001</v>
       </c>
       <c r="BL33" s="7">
-        <f t="shared" si="112"/>
+        <f t="shared" si="110"/>
         <v>23.014895729890764</v>
       </c>
       <c r="BM33" s="7">
@@ -6288,43 +6443,43 @@
         <v>6.1676679914964412</v>
       </c>
       <c r="BO33" s="7">
-        <f t="shared" ref="BO33:BP33" si="113">BO32/BO34</f>
+        <f t="shared" ref="BO33:BP33" si="111">BO32/BO34</f>
         <v>0.51665847665847664</v>
       </c>
       <c r="BP33" s="7">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>2.9001048517777144</v>
       </c>
       <c r="BQ33" s="7">
-        <f t="shared" ref="BQ33" si="114">BQ32/BQ34</f>
-        <v>3.0028893337146103</v>
+        <f t="shared" ref="BQ33" si="112">BQ32/BQ34</f>
+        <v>2.9384676802537055</v>
       </c>
       <c r="BR33" s="7">
-        <f t="shared" ref="BR33" si="115">BR32/BR34</f>
-        <v>4.4659310961776679</v>
+        <f t="shared" ref="BR33" si="113">BR32/BR34</f>
+        <v>3.8735229899008554</v>
       </c>
       <c r="BS33" s="7">
-        <f t="shared" ref="BS33" si="116">BS32/BS34</f>
-        <v>6.2668979354213041</v>
+        <f t="shared" ref="BS33" si="114">BS32/BS34</f>
+        <v>5.196282930580467</v>
       </c>
       <c r="BT33" s="7">
-        <f t="shared" ref="BT33" si="117">BT32/BT34</f>
-        <v>8.4783566230403533</v>
+        <f t="shared" ref="BT33" si="115">BT32/BT34</f>
+        <v>6.730538789281467</v>
       </c>
       <c r="BU33" s="7">
-        <f t="shared" ref="BU33" si="118">BU32/BU34</f>
-        <v>10.087990250439303</v>
+        <f t="shared" ref="BU33" si="116">BU32/BU34</f>
+        <v>7.7782961361281027</v>
       </c>
       <c r="BV33" s="7">
-        <f t="shared" ref="BV33" si="119">BV32/BV34</f>
-        <v>11.968252602917453</v>
+        <f t="shared" ref="BV33" si="117">BV32/BV34</f>
+        <v>8.7184613914535323</v>
       </c>
       <c r="BW33" s="7">
-        <f t="shared" ref="BW33" si="120">BW32/BW34</f>
-        <v>14.168986037089892</v>
+        <f t="shared" ref="BW33" si="118">BW32/BW34</f>
+        <v>9.7415712688684764</v>
       </c>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
@@ -6404,8 +6559,19 @@
         <v>10771</v>
       </c>
       <c r="AI34" s="2">
-        <f>+AH34</f>
-        <v>10771</v>
+        <v>10793</v>
+      </c>
+      <c r="AJ34" s="2">
+        <f>+AI34</f>
+        <v>10793</v>
+      </c>
+      <c r="AK34" s="2">
+        <f>+AJ34</f>
+        <v>10793</v>
+      </c>
+      <c r="AL34" s="2">
+        <f>+AK34</f>
+        <v>10793</v>
       </c>
       <c r="AR34" s="2">
         <v>161.096869</v>
@@ -6455,35 +6621,35 @@
         <v>10491</v>
       </c>
       <c r="BQ34" s="2">
-        <f>+BP34</f>
-        <v>10491</v>
+        <f>AVERAGE(AE34:AH34)</f>
+        <v>10721</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" ref="BR34:BW34" si="121">+BQ34</f>
-        <v>10491</v>
+        <f>AVERAGE(AI34:AL34)</f>
+        <v>10793</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="121"/>
-        <v>10491</v>
+        <f t="shared" ref="BR34:BW34" si="119">+BR34</f>
+        <v>10793</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="121"/>
-        <v>10491</v>
+        <f t="shared" si="119"/>
+        <v>10793</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="121"/>
-        <v>10491</v>
+        <f t="shared" si="119"/>
+        <v>10793</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="121"/>
-        <v>10491</v>
+        <f t="shared" si="119"/>
+        <v>10793</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="121"/>
-        <v>10491</v>
+        <f t="shared" si="119"/>
+        <v>10793</v>
       </c>
     </row>
-    <row r="36" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6507,31 +6673,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" ref="P36:R36" si="122">P20/L20-1</f>
+        <f t="shared" ref="P36:R36" si="120">P20/L20-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36" si="123">S20/O20-1</f>
+        <f t="shared" ref="S36" si="121">S20/O20-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="124">T20/P20-1</f>
+        <f t="shared" ref="T36" si="122">T20/P20-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36" si="125">U20/Q20-1</f>
+        <f t="shared" ref="U36" si="123">U20/Q20-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36" si="126">V20/R20-1</f>
+        <f t="shared" ref="V36" si="124">V20/R20-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="W36" s="10">
@@ -6539,7 +6705,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36:AE36" si="127">X20/T20-1</f>
+        <f t="shared" ref="X36:AE36" si="125">X20/T20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Y36" s="10">
@@ -6547,7 +6713,7 @@
         <v>0.14699671515720314</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="AA36" s="10">
@@ -6555,19 +6721,19 @@
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="AB36" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>0.10845967302901816</v>
       </c>
       <c r="AC36" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>0.125742519728405</v>
       </c>
       <c r="AD36" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>0.13911825420230017</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>0.12527677884388888</v>
       </c>
       <c r="AF36" s="10">
@@ -6575,119 +6741,119 @@
         <v>0.10116607011303502</v>
       </c>
       <c r="AG36" s="10">
-        <f t="shared" ref="AG36:AL36" si="128">AG20/AC20-1</f>
+        <f t="shared" ref="AG36:AL36" si="126">AG20/AC20-1</f>
         <v>0.11038348371225104</v>
       </c>
       <c r="AH36" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.10491230341078239</v>
       </c>
       <c r="AI36" s="10">
-        <f t="shared" si="128"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="126"/>
+        <v>8.6202926461660834E-2</v>
       </c>
       <c r="AJ36" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK36" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL36" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36:AR36" si="129">AQ20/AP20-1</f>
+        <f t="shared" ref="AQ36:AR36" si="127">AQ20/AP20-1</f>
         <v>3.1263372285789677</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>1.6890585567192891</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" ref="AS36" si="130">AS20/AR20-1</f>
+        <f t="shared" ref="AS36" si="128">AS20/AR20-1</f>
         <v>0.68430132470321792</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" ref="AT36" si="131">AT20/AS20-1</f>
+        <f t="shared" ref="AT36" si="129">AT20/AS20-1</f>
         <v>0.1305040617556299</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" ref="AU36" si="132">AU20/AT20-1</f>
+        <f t="shared" ref="AU36" si="130">AU20/AT20-1</f>
         <v>0.25957418461821291</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" ref="AV36" si="133">AV20/AU20-1</f>
+        <f t="shared" ref="AV36" si="131">AV20/AU20-1</f>
         <v>0.3383637567455966</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="134">AW20/AV20-1</f>
+        <f t="shared" ref="AW36" si="132">AW20/AV20-1</f>
         <v>0.31485481977597884</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="135">AX20/AW20-1</f>
+        <f t="shared" ref="AX36" si="133">AX20/AW20-1</f>
         <v>0.22670134373645423</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="136">AY20/AX20-1</f>
+        <f t="shared" ref="AY36" si="134">AY20/AX20-1</f>
         <v>0.26160188457008249</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" ref="AZ36" si="137">AZ20/AY20-1</f>
+        <f t="shared" ref="AZ36" si="135">AZ20/AY20-1</f>
         <v>0.38502474092054895</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" ref="BA36" si="138">BA20/AZ20-1</f>
+        <f t="shared" ref="BA36" si="136">BA20/AZ20-1</f>
         <v>0.29194472531176263</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" ref="BB36" si="139">BB20/BA20-1</f>
+        <f t="shared" ref="BB36" si="137">BB20/BA20-1</f>
         <v>0.27877491391004905</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" ref="BC36" si="140">BC20/BB20-1</f>
+        <f t="shared" ref="BC36" si="138">BC20/BB20-1</f>
         <v>0.39556897466236896</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" ref="BD36" si="141">BD20/BC20-1</f>
+        <f t="shared" ref="BD36" si="139">BD20/BC20-1</f>
         <v>0.40559583674424049</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" ref="BE36" si="142">BE20/BD20-1</f>
+        <f t="shared" ref="BE36" si="140">BE20/BD20-1</f>
         <v>0.27073236682821311</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" ref="BF36:BJ36" si="143">BF20/BE20-1</f>
+        <f t="shared" ref="BF36:BJ36" si="141">BF20/BE20-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="BJ36" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="BK36" s="15">
-        <f t="shared" ref="BK36" si="144">BK20/BJ20-1</f>
+        <f t="shared" ref="BK36" si="142">BK20/BJ20-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="BL36" s="15">
-        <f t="shared" ref="BL36" si="145">BL20/BK20-1</f>
+        <f t="shared" ref="BL36" si="143">BL20/BK20-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="BM36" s="15">
-        <f t="shared" ref="BM36" si="146">BM20/BL20-1</f>
+        <f t="shared" ref="BM36" si="144">BM20/BL20-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="BN36" s="15">
@@ -6695,7 +6861,7 @@
         <v>0.21695366571345676</v>
       </c>
       <c r="BO36" s="15">
-        <f t="shared" ref="BO36:BW36" si="147">BO20/BN20-1</f>
+        <f t="shared" ref="BO36:BW36" si="145">BO20/BN20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="BP36" s="15">
@@ -6703,35 +6869,35 @@
         <v>0.1182957412988368</v>
       </c>
       <c r="BQ36" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="145"/>
         <v>0.1099089224666614</v>
       </c>
       <c r="BR36" s="15">
-        <f t="shared" si="147"/>
-        <v>0.10003205535151949</v>
+        <f t="shared" si="145"/>
+        <v>6.9019247318401256E-2</v>
       </c>
       <c r="BS36" s="15">
-        <f t="shared" si="147"/>
-        <v>0.10769373347182976</v>
+        <f t="shared" si="145"/>
+        <v>8.4513716431073416E-2</v>
       </c>
       <c r="BT36" s="15">
-        <f t="shared" si="147"/>
-        <v>0.11628653886510931</v>
+        <f t="shared" si="145"/>
+        <v>8.7440978564362837E-2</v>
       </c>
       <c r="BU36" s="15">
-        <f t="shared" si="147"/>
-        <v>9.0847216055045532E-2</v>
+        <f t="shared" si="145"/>
+        <v>7.1491258309231309E-2</v>
       </c>
       <c r="BV36" s="15">
-        <f t="shared" si="147"/>
-        <v>9.4934486282431729E-2</v>
+        <f t="shared" si="145"/>
+        <v>6.153296719126522E-2</v>
       </c>
       <c r="BW36" s="15">
-        <f t="shared" si="147"/>
-        <v>9.9246219033610084E-2</v>
+        <f t="shared" si="145"/>
+        <v>6.1950890177211004E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>123</v>
       </c>
@@ -6781,7 +6947,9 @@
       <c r="AH37" s="10">
         <v>0.11</v>
       </c>
-      <c r="AI37" s="10"/>
+      <c r="AI37" s="10">
+        <v>0.1</v>
+      </c>
       <c r="AJ37" s="10"/>
       <c r="AK37" s="10"/>
       <c r="AL37" s="10"/>
@@ -6819,7 +6987,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -6829,99 +6997,99 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f t="shared" ref="O38:R39" si="148">+O18/K18-1</f>
+        <f t="shared" ref="O38:R39" si="146">+O18/K18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="P38" s="8">
+        <f t="shared" si="146"/>
+        <v>0.40127175368139234</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="146"/>
+        <v>0.32844988168957356</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" si="146"/>
+        <v>0.40588025800324479</v>
+      </c>
+      <c r="S38" s="8">
+        <f t="shared" ref="S38:W38" si="147">+S18/O18-1</f>
+        <v>0.37403503740350375</v>
+      </c>
+      <c r="T38" s="8">
+        <f t="shared" si="147"/>
+        <v>0.15444630204601539</v>
+      </c>
+      <c r="U38" s="8">
+        <f t="shared" si="147"/>
+        <v>3.9830219426232549E-2</v>
+      </c>
+      <c r="V38" s="8">
+        <f t="shared" si="147"/>
+        <v>5.0664264805224679E-3</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="147"/>
+        <v>-1.8020211859247515E-2</v>
+      </c>
+      <c r="X38" s="8">
+        <f t="shared" ref="X38:AF38" si="148">+X18/T18-1</f>
+        <v>-2.4636231984001111E-2</v>
+      </c>
+      <c r="Y38" s="8">
         <f t="shared" si="148"/>
-        <v>0.40127175368139234</v>
-      </c>
-      <c r="Q38" s="8">
+        <v>8.1347036956046281E-2</v>
+      </c>
+      <c r="Z38" s="8">
         <f t="shared" si="148"/>
-        <v>0.32844988168957356</v>
-      </c>
-      <c r="R38" s="8">
+        <v>-1.2392181023860194E-2</v>
+      </c>
+      <c r="AA38" s="8">
         <f t="shared" si="148"/>
-        <v>0.40588025800324479</v>
-      </c>
-      <c r="S38" s="8">
-        <f t="shared" ref="S38:W38" si="149">+S18/O18-1</f>
-        <v>0.37403503740350375</v>
-      </c>
-      <c r="T38" s="8">
+        <v>9.317155256398868E-3</v>
+      </c>
+      <c r="AB38" s="8">
+        <f t="shared" si="148"/>
+        <v>4.342907644719407E-2</v>
+      </c>
+      <c r="AC38" s="8">
+        <f t="shared" si="148"/>
+        <v>6.4560161779575242E-2</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="148"/>
+        <v>8.7507620762501626E-2</v>
+      </c>
+      <c r="AE38" s="8">
+        <f t="shared" si="148"/>
+        <v>6.9040557378775347E-2</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="148"/>
+        <v>4.2976690608483636E-2</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" ref="AG38:AL38" si="149">+AG18/AC18-1</f>
+        <v>7.0127115290243847E-2</v>
+      </c>
+      <c r="AH38" s="8">
         <f t="shared" si="149"/>
-        <v>0.15444630204601539</v>
-      </c>
-      <c r="U38" s="8">
+        <v>7.200500632309037E-2</v>
+      </c>
+      <c r="AI38" s="8">
         <f t="shared" si="149"/>
-        <v>3.9830219426232549E-2</v>
-      </c>
-      <c r="V38" s="8">
+        <v>5.0151850939834208E-2</v>
+      </c>
+      <c r="AJ38" s="8">
         <f t="shared" si="149"/>
-        <v>5.0664264805224679E-3</v>
-      </c>
-      <c r="W38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK38" s="8">
         <f t="shared" si="149"/>
-        <v>-1.8020211859247515E-2</v>
-      </c>
-      <c r="X38" s="8">
-        <f t="shared" ref="X38:AF38" si="150">+X18/T18-1</f>
-        <v>-2.4636231984001111E-2</v>
-      </c>
-      <c r="Y38" s="8">
-        <f t="shared" si="150"/>
-        <v>8.1347036956046281E-2</v>
-      </c>
-      <c r="Z38" s="8">
-        <f t="shared" si="150"/>
-        <v>-1.2392181023860194E-2</v>
-      </c>
-      <c r="AA38" s="8">
-        <f t="shared" si="150"/>
-        <v>9.317155256398868E-3</v>
-      </c>
-      <c r="AB38" s="8">
-        <f t="shared" si="150"/>
-        <v>4.342907644719407E-2</v>
-      </c>
-      <c r="AC38" s="8">
-        <f t="shared" si="150"/>
-        <v>6.4560161779575242E-2</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="150"/>
-        <v>8.7507620762501626E-2</v>
-      </c>
-      <c r="AE38" s="8">
-        <f t="shared" si="150"/>
-        <v>6.9040557378775347E-2</v>
-      </c>
-      <c r="AF38" s="8">
-        <f t="shared" si="150"/>
-        <v>4.2976690608483636E-2</v>
-      </c>
-      <c r="AG38" s="8">
-        <f t="shared" ref="AG38:AL38" si="151">+AG18/AC18-1</f>
-        <v>7.0127115290243847E-2</v>
-      </c>
-      <c r="AH38" s="8">
-        <f t="shared" si="151"/>
-        <v>7.200500632309037E-2</v>
-      </c>
-      <c r="AI38" s="8">
-        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
-      <c r="AJ38" s="8">
-        <f t="shared" si="151"/>
-        <v>-1</v>
-      </c>
-      <c r="AK38" s="8">
-        <f t="shared" si="151"/>
-        <v>-1</v>
-      </c>
       <c r="AL38" s="8">
-        <f t="shared" si="151"/>
+        <f t="shared" si="149"/>
         <v>-1</v>
       </c>
       <c r="BF38" s="13"/>
@@ -6943,7 +7111,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -6953,55 +7121,55 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0.32238265727662596</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0.40365906780891536</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0.43351512146752613</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="152">+S19/O19-1</f>
+        <f t="shared" ref="S39" si="150">+S19/O19-1</f>
         <v>0.5181636964089138</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="153">+T19/P19-1</f>
+        <f t="shared" ref="T39" si="151">+T19/P19-1</f>
         <v>0.42433019551049966</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="154">+U19/Q19-1</f>
+        <f t="shared" ref="U39" si="152">+U19/Q19-1</f>
         <v>0.28970971386410271</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="155">+V19/R19-1</f>
+        <f t="shared" ref="V39" si="153">+V19/R19-1</f>
         <v>0.21095799922934355</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39:AA39" si="156">+W19/S19-1</f>
+        <f t="shared" ref="W39:AA39" si="154">+W19/S19-1</f>
         <v>0.17563250827993016</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>0.17399593289273008</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>0.21140231693363853</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>0.19208739923631746</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>0.17316508026471511</v>
       </c>
       <c r="AB39" s="8">
@@ -7025,27 +7193,27 @@
         <v>0.14675319504717921</v>
       </c>
       <c r="AG39" s="8">
-        <f t="shared" ref="AG39:AL39" si="157">+AG19/AC19-1</f>
+        <f t="shared" ref="AG39:AL39" si="155">+AG19/AC19-1</f>
         <v>0.14220642706977671</v>
       </c>
       <c r="AH39" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>0.13197795363400466</v>
       </c>
       <c r="AI39" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
+        <v>0.11285468093885775</v>
+      </c>
+      <c r="AJ39" s="8">
+        <f t="shared" si="155"/>
         <v>-1</v>
       </c>
-      <c r="AJ39" s="8">
-        <f t="shared" si="157"/>
+      <c r="AK39" s="8">
+        <f t="shared" si="155"/>
         <v>-1</v>
       </c>
-      <c r="AK39" s="8">
-        <f t="shared" si="157"/>
-        <v>-1</v>
-      </c>
       <c r="AL39" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-1</v>
       </c>
       <c r="BF39" s="13"/>
@@ -7067,44 +7235,44 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40" si="158">+N11/J11-1</f>
+        <f t="shared" ref="N40" si="156">+N11/J11-1</f>
         <v>0.14652704535181549</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" ref="O40" si="159">+O11/K11-1</f>
+        <f t="shared" ref="O40" si="157">+O11/K11-1</f>
         <v>0.24252491694352152</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="160">+P11/L11-1</f>
+        <f t="shared" ref="P40" si="158">+P11/L11-1</f>
         <v>0.47798924419540789</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="161">+Q11/M11-1</f>
+        <f t="shared" ref="Q40" si="159">+Q11/M11-1</f>
         <v>0.37989097862381915</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:V40" si="162">+R11/N11-1</f>
+        <f t="shared" ref="R40:V40" si="160">+R11/N11-1</f>
         <v>0.45543947258908823</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>0.44333187820582776</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>0.15820550810528156</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>3.2926577042399208E-2</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>-5.6583046154309313E-3</v>
       </c>
       <c r="W40" s="8">
@@ -7112,31 +7280,31 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AD40" si="163">+X11/T11-1</f>
+        <f t="shared" ref="X40:AD40" si="161">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>7.0631344762474457E-2</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>9.3164525576854507E-2</v>
       </c>
       <c r="AE40" s="8">
@@ -7148,36 +7316,36 @@
         <v>4.5802967941698469E-2</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40:AL40" si="164">+AG11/AC11-1</f>
+        <f t="shared" ref="AG40:AL40" si="162">+AG11/AC11-1</f>
         <v>7.2362791834738927E-2</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="162"/>
         <v>7.1063039564520869E-2</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="162"/>
+        <v>5.0064020486555671E-2</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" si="162"/>
         <v>-1</v>
       </c>
-      <c r="AJ40" s="8">
-        <f t="shared" si="164"/>
+      <c r="AK40" s="8">
+        <f t="shared" si="162"/>
         <v>-1</v>
       </c>
-      <c r="AK40" s="8">
-        <f t="shared" si="164"/>
-        <v>-1</v>
-      </c>
       <c r="AL40" s="8">
-        <f t="shared" si="164"/>
+        <f t="shared" si="162"/>
         <v>-1</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="165">BL11/BK11-1</f>
+        <f t="shared" ref="BL40" si="163">BL11/BK11-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="166">BM11/BL11-1</f>
+        <f t="shared" ref="BM40" si="164">BM11/BL11-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="BN40" s="13">
@@ -7185,80 +7353,80 @@
         <v>0.12529072860769497</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="167">BO11/BN11-1</f>
+        <f t="shared" ref="BO40:BW40" si="165">BO11/BN11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.3944473736841081E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>6.5367961634005045E-2</v>
       </c>
       <c r="BR40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW40" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V41" si="168">+N13/J13-1</f>
+        <f t="shared" ref="N41:V41" si="166">+N13/J13-1</f>
         <v>0.30359411193304942</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.54677565849227983</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.56637624670411557</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.63747496374058987</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.37867546029128873</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.18672930123311793</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="166"/>
         <v>0.10952537783144867</v>
       </c>
       <c r="W41" s="8">
@@ -7266,72 +7434,72 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AD41" si="169">+X13/T13-1</f>
+        <f t="shared" ref="X41:AD41" si="167">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>0.177027827116637</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>0.18103448275862077</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>0.19800460475825021</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>0.19868460882247718</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" ref="AE41:AL43" si="170">+AE13/AA13-1</f>
+        <f t="shared" ref="AE41:AL43" si="168">+AE13/AA13-1</f>
         <v>0.16016096579476868</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.11966472844240994</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.10255663618892319</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>9.0130627424872101E-2</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
+        <v>5.538212510116769E-2</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="170"/>
+      <c r="AK41" s="8">
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
-      <c r="AK41" s="8">
-        <f t="shared" si="170"/>
-        <v>-1</v>
-      </c>
       <c r="AL41" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="171">BL13/BK13-1</f>
+        <f t="shared" ref="BL41" si="169">BL13/BK13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="172">BM13/BL13-1</f>
+        <f t="shared" ref="BM41" si="170">BM13/BL13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BN41" s="13">
@@ -7339,80 +7507,80 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="173">BO13/BN13-1</f>
+        <f t="shared" ref="BO41:BW41" si="171">BO13/BN13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>0.11490649968226307</v>
       </c>
       <c r="BR41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW41" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="171"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:V43" si="174">+N14/J14-1</f>
+        <f t="shared" ref="N42:V43" si="172">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W42" s="8">
@@ -7420,72 +7588,72 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42:AD43" si="175">+X14/T14-1</f>
+        <f t="shared" ref="X42:AD43" si="173">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>9.824135839902981E-2</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.10894788593903648</v>
       </c>
       <c r="AH42" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.64836003051106017</v>
       </c>
       <c r="AI42" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
+        <v>0.17735115020297698</v>
+      </c>
+      <c r="AJ42" s="8">
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
-      <c r="AJ42" s="8">
-        <f t="shared" si="170"/>
+      <c r="AK42" s="8">
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
-      <c r="AK42" s="8">
-        <f t="shared" si="170"/>
-        <v>-1</v>
-      </c>
       <c r="AL42" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="176">BL14/BK14-1</f>
+        <f t="shared" ref="BL42" si="174">BL14/BK14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="177">BM14/BL14-1</f>
+        <f t="shared" ref="BM42" si="175">BM14/BL14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BN42" s="13">
@@ -7493,266 +7661,266 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="178">BO14/BN14-1</f>
+        <f t="shared" ref="BO42:BW42" si="176">BO14/BN14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.27473948618468502</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.50529838259899607</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.53701380175658731</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.63364055299539168</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.76522151149016815</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.41015190811411628</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0.32190476190476192</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W43" si="179">+W15/S15-1</f>
+        <f t="shared" ref="W43" si="177">+W15/S15-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.25433526011560703</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.18948126801152743</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.21993833504624871</v>
       </c>
       <c r="AC43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.26309174696271476</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.19545071609098574</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>0.18830845771144289</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>-0.21468541012692777</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
+        <v>9.2613318410744272E-2</v>
+      </c>
+      <c r="AJ43" s="8">
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
-      <c r="AJ43" s="8">
-        <f t="shared" si="170"/>
+      <c r="AK43" s="8">
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
-      <c r="AK43" s="8">
-        <f t="shared" si="170"/>
-        <v>-1</v>
-      </c>
       <c r="AL43" s="8">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>-1</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="180">BL15/BK15-1</f>
+        <f t="shared" ref="BL43" si="178">BL15/BK15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="181">BM15/BL15-1</f>
+        <f t="shared" ref="BM43:BN43" si="179">BM15/BL15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BN43" s="13">
-        <f t="shared" si="181"/>
+        <f t="shared" si="179"/>
         <v>0.49269461077844312</v>
       </c>
       <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="182">BO15/BN15-1</f>
+        <f t="shared" ref="BO43:BW43" si="180">BO15/BN15-1</f>
         <v>0.21113607188703476</v>
       </c>
       <c r="BP43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>5.1720462200997686E-2</v>
       </c>
       <c r="BR43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>0.10000000000000031</v>
       </c>
       <c r="BU43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW43" s="13">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44:O44" si="183">N9/J9-1</f>
+        <f t="shared" ref="N44:O44" si="181">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="181"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="184">P9/L9-1</f>
+        <f t="shared" ref="P44" si="182">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="185">Q9/M9-1</f>
+        <f t="shared" ref="Q44" si="183">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="186">R9/N9-1</f>
+        <f t="shared" ref="R44" si="184">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44" si="187">S9/O9-1</f>
+        <f t="shared" ref="S44" si="185">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44" si="188">T9/P9-1</f>
+        <f t="shared" ref="T44" si="186">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44" si="189">U9/Q9-1</f>
+        <f t="shared" ref="U44" si="187">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" ref="V44:AA44" si="190">V9/R9-1</f>
+        <f t="shared" ref="V44:AA44" si="188">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="188"/>
         <v>0.36569651188624741</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="188"/>
         <v>0.33290566547369838</v>
       </c>
       <c r="Y44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="188"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="Z44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="188"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="AA44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="188"/>
         <v>0.157963234097934</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AD44" si="191">AB9/X9-1</f>
+        <f t="shared" ref="AB44:AD44" si="189">AB9/X9-1</f>
         <v>0.12163736764780375</v>
       </c>
       <c r="AC44" s="8">
-        <f t="shared" si="191"/>
+        <f t="shared" si="189"/>
         <v>0.1227480767358069</v>
       </c>
       <c r="AD44" s="8">
-        <f t="shared" si="191"/>
+        <f t="shared" si="189"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE44" s="8">
@@ -7764,51 +7932,51 @@
         <v>0.18703703703703711</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" ref="AG44:AL44" si="192">AG9/AC9-1</f>
+        <f t="shared" ref="AG44:AL44" si="190">AG9/AC9-1</f>
         <v>0.1905112971074201</v>
       </c>
       <c r="AH44" s="8">
-        <f t="shared" si="192"/>
+        <f t="shared" si="190"/>
         <v>0.189307552470666</v>
       </c>
       <c r="AI44" s="8">
-        <f t="shared" si="192"/>
-        <v>-1</v>
+        <f t="shared" si="190"/>
+        <v>0.1689499540679793</v>
       </c>
       <c r="AJ44" s="8">
-        <f t="shared" si="192"/>
-        <v>-1</v>
+        <f t="shared" si="190"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="AK44" s="8">
-        <f t="shared" si="192"/>
-        <v>-1</v>
+        <f t="shared" si="190"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="AL44" s="8">
-        <f t="shared" si="192"/>
-        <v>-1</v>
+        <f t="shared" si="190"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="193">BH9/BG9-1</f>
+        <f t="shared" ref="BH44:BJ44" si="191">BH9/BG9-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="BI44" s="13">
-        <f t="shared" si="193"/>
+        <f t="shared" si="191"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="BJ44" s="13">
-        <f t="shared" si="193"/>
+        <f t="shared" si="191"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="194">BK9/BJ9-1</f>
+        <f t="shared" ref="BK44" si="192">BK9/BJ9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="195">BL9/BK9-1</f>
+        <f t="shared" ref="BL44" si="193">BL9/BK9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="196">BM9/BL9-1</f>
+        <f t="shared" ref="BM44" si="194">BM9/BL9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BN44" s="13">
@@ -7816,43 +7984,43 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="197">BO9/BN9-1</f>
+        <f t="shared" ref="BO44:BW44" si="195">BO9/BN9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BP44" s="13">
-        <f t="shared" si="197"/>
+        <f t="shared" si="195"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BQ44" s="13">
-        <f t="shared" si="197"/>
+        <f t="shared" si="195"/>
         <v>0.18509867007503544</v>
       </c>
       <c r="BR44" s="13">
-        <f t="shared" si="197"/>
-        <v>0.30000000000000027</v>
+        <f t="shared" si="195"/>
+        <v>0.11605024359403471</v>
       </c>
       <c r="BS44" s="13">
-        <f t="shared" si="197"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="195"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="BT44" s="13">
-        <f t="shared" si="197"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="195"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="BU44" s="13">
-        <f t="shared" si="197"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="195"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="BV44" s="13">
-        <f t="shared" si="197"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="195"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="BW44" s="13">
-        <f t="shared" si="197"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="195"/>
+        <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:78" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
@@ -7864,27 +8032,27 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
-        <f t="shared" ref="J45:O45" si="198">J23/J20</f>
+        <f t="shared" ref="J45:O45" si="196">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P45" s="16">
@@ -7904,11 +8072,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" ref="T45:W45" si="199">T23/T20</f>
+        <f t="shared" ref="T45:W45" si="197">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="197"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V45" s="16">
@@ -7916,11 +8084,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="197"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" ref="X45:AD45" si="200">X23/X20</f>
+        <f t="shared" ref="X45:AD45" si="198">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y45" s="16">
@@ -7936,15 +8104,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE45" s="17">
@@ -7956,55 +8124,55 @@
         <v>0.3421251807701145</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AL45" si="201">AG23/AG20</f>
+        <f t="shared" ref="AG45:AL45" si="199">AG23/AG20</f>
         <v>0.33510199714244354</v>
       </c>
       <c r="AH45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="199"/>
         <v>0.32449199113913268</v>
       </c>
       <c r="AI45" s="16">
-        <f t="shared" si="201"/>
+        <f t="shared" si="199"/>
+        <v>0.34752388110517962</v>
+      </c>
+      <c r="AJ45" s="16">
+        <f t="shared" si="199"/>
         <v>0.34</v>
       </c>
-      <c r="AJ45" s="16">
-        <f t="shared" si="201"/>
+      <c r="AK45" s="16">
+        <f t="shared" si="199"/>
         <v>0.34</v>
       </c>
-      <c r="AK45" s="16">
-        <f t="shared" si="201"/>
+      <c r="AL45" s="16">
+        <f t="shared" si="199"/>
         <v>0.34</v>
       </c>
-      <c r="AL45" s="16">
-        <f t="shared" si="201"/>
-        <v>0.34</v>
-      </c>
       <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="202">BG23/BG20</f>
+        <f t="shared" ref="BG45:BI45" si="200">BG23/BG20</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="BH45" s="14">
+        <f t="shared" si="200"/>
+        <v>0.20508195802104554</v>
+      </c>
+      <c r="BI45" s="14">
+        <f t="shared" si="200"/>
+        <v>0.22136674829211617</v>
+      </c>
+      <c r="BJ45" s="14">
+        <f t="shared" ref="BJ45" si="201">BJ23/BJ20</f>
+        <v>0.22872836854710848</v>
+      </c>
+      <c r="BK45" s="14">
+        <f t="shared" ref="BK45:BL45" si="202">BK23/BK20</f>
+        <v>0.25636467471348767</v>
+      </c>
+      <c r="BL45" s="14">
         <f t="shared" si="202"/>
-        <v>0.20508195802104554</v>
-      </c>
-      <c r="BI45" s="14">
-        <f t="shared" si="202"/>
-        <v>0.22136674829211617</v>
-      </c>
-      <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="203">BJ23/BJ20</f>
-        <v>0.22872836854710848</v>
-      </c>
-      <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="204">BK23/BK20</f>
-        <v>0.25636467471348767</v>
-      </c>
-      <c r="BL45" s="14">
-        <f t="shared" si="204"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="205">BM23/BM20</f>
+        <f t="shared" ref="BM45" si="203">BM23/BM20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BN45" s="14">
@@ -8012,40 +8180,40 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="206">BO23/BO20</f>
+        <f t="shared" ref="BO45:BW45" si="204">BO23/BO20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="206"/>
+        <f t="shared" si="204"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="206"/>
+        <f t="shared" si="204"/>
         <v>0.28660196031406404</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="206"/>
-        <v>0.29222801142844351</v>
+        <f t="shared" si="204"/>
+        <v>0.29200254197107889</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="206"/>
-        <v>0.29761464417110067</v>
+        <f t="shared" si="204"/>
+        <v>0.29749298092248055</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="206"/>
-        <v>0.30266543730786499</v>
+        <f t="shared" si="204"/>
+        <v>0.30287569572025252</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="206"/>
-        <v>0.30256562892774269</v>
+        <f t="shared" si="204"/>
+        <v>0.30281801693000276</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="206"/>
-        <v>0.30246033932429706</v>
+        <f t="shared" si="204"/>
+        <v>0.30278740073832278</v>
       </c>
       <c r="BW45" s="14">
-        <f t="shared" si="206"/>
-        <v>0.30235011614848489</v>
+        <f t="shared" si="204"/>
+        <v>0.302756032131345</v>
       </c>
       <c r="BY45" t="s">
         <v>77</v>
@@ -8054,7 +8222,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BY46" t="s">
         <v>76</v>
       </c>
@@ -8062,80 +8230,80 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:P47" si="207">+O48-O61</f>
+        <f t="shared" ref="O47:P47" si="205">+O48-O61</f>
         <v>25855</v>
       </c>
       <c r="P47" s="4">
+        <f t="shared" si="205"/>
+        <v>38263</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" ref="Q47" si="206">+Q48-Q61</f>
+        <v>35473</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" ref="R47:AB47" si="207">+R48-R61</f>
+        <v>52580</v>
+      </c>
+      <c r="S47" s="4">
         <f t="shared" si="207"/>
-        <v>38263</v>
-      </c>
-      <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="208">+Q48-Q61</f>
-        <v>35473</v>
-      </c>
-      <c r="R47" s="4">
-        <f t="shared" ref="R47:AB47" si="209">+R48-R61</f>
-        <v>52580</v>
-      </c>
-      <c r="S47" s="4">
+        <v>41402</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="207"/>
+        <v>39615</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="207"/>
+        <v>28933</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="207"/>
+        <v>47305</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="207"/>
+        <v>18829</v>
+      </c>
+      <c r="X47" s="4">
+        <f t="shared" si="207"/>
+        <v>2657</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" si="207"/>
+        <v>-257</v>
+      </c>
+      <c r="Z47" s="4">
+        <f t="shared" si="207"/>
+        <v>2876</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" si="207"/>
+        <v>-2679</v>
+      </c>
+      <c r="AB47" s="4">
+        <f t="shared" si="207"/>
+        <v>878</v>
+      </c>
+      <c r="AC47" s="4">
+        <f t="shared" ref="AC47:AD47" si="208">+AC48-AC61</f>
+        <v>3071</v>
+      </c>
+      <c r="AD47" s="4">
+        <f t="shared" si="208"/>
+        <v>28466</v>
+      </c>
+      <c r="AE47" s="4">
+        <f t="shared" ref="AE47:AF47" si="209">+AE48-AE61</f>
+        <v>27440</v>
+      </c>
+      <c r="AF47" s="4">
         <f t="shared" si="209"/>
-        <v>41402</v>
-      </c>
-      <c r="T47" s="4">
-        <f t="shared" si="209"/>
-        <v>39615</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="209"/>
-        <v>28933</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="209"/>
-        <v>47305</v>
-      </c>
-      <c r="W47" s="4">
-        <f t="shared" si="209"/>
-        <v>18829</v>
-      </c>
-      <c r="X47" s="4">
-        <f t="shared" si="209"/>
-        <v>2657</v>
-      </c>
-      <c r="Y47" s="4">
-        <f t="shared" si="209"/>
-        <v>-257</v>
-      </c>
-      <c r="Z47" s="4">
-        <f t="shared" si="209"/>
-        <v>2876</v>
-      </c>
-      <c r="AA47" s="4">
-        <f t="shared" si="209"/>
-        <v>-2679</v>
-      </c>
-      <c r="AB47" s="4">
-        <f t="shared" si="209"/>
-        <v>878</v>
-      </c>
-      <c r="AC47" s="4">
-        <f t="shared" ref="AC47:AD47" si="210">+AC48-AC61</f>
-        <v>3071</v>
-      </c>
-      <c r="AD47" s="4">
-        <f t="shared" si="210"/>
-        <v>28466</v>
-      </c>
-      <c r="AE47" s="4">
-        <f t="shared" ref="AE47:AF47" si="211">+AE48-AE61</f>
-        <v>27440</v>
-      </c>
-      <c r="AF47" s="4">
-        <f t="shared" si="211"/>
         <v>34203</v>
       </c>
       <c r="AG47" s="4">
@@ -8146,7 +8314,10 @@
         <f>+AH48-AH61</f>
         <v>48579</v>
       </c>
-      <c r="AI47" s="4"/>
+      <c r="AI47" s="4">
+        <f>+AI48-AI61</f>
+        <v>41191</v>
+      </c>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
@@ -8167,28 +8338,28 @@
         <v>48579</v>
       </c>
       <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="212">+BQ47+BR32</f>
-        <v>95431.083129999912</v>
+        <f t="shared" ref="BR47:BW47" si="210">+BQ47+BR32</f>
+        <v>90385.933629999927</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="212"/>
-        <v>161177.1093705048</v>
+        <f t="shared" si="210"/>
+        <v>146469.41529975491</v>
       </c>
       <c r="BT47" s="2">
-        <f t="shared" si="212"/>
-        <v>250123.54870282114</v>
+        <f t="shared" si="210"/>
+        <v>219112.1204524698</v>
       </c>
       <c r="BU47" s="2">
-        <f t="shared" si="212"/>
-        <v>355956.65442017984</v>
+        <f t="shared" si="210"/>
+        <v>303063.27064970043</v>
       </c>
       <c r="BV47" s="2">
-        <f t="shared" si="212"/>
-        <v>481515.59247738682</v>
+        <f t="shared" si="210"/>
+        <v>397161.62444765843</v>
       </c>
       <c r="BW47" s="2">
-        <f t="shared" si="212"/>
-        <v>630162.42499249685</v>
+        <f t="shared" si="210"/>
+        <v>502302.40315255587</v>
       </c>
       <c r="BY47" t="s">
         <v>78</v>
@@ -8197,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -8293,6 +8464,10 @@
         <f>78779+22423</f>
         <v>101202</v>
       </c>
+      <c r="AI48" s="2">
+        <f>66207+28358</f>
+        <v>94565</v>
+      </c>
       <c r="BQ48" s="2">
         <f>+AH48</f>
         <v>101202</v>
@@ -8302,10 +8477,10 @@
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BR32:EI32)+Main!K5-Main!K6</f>
-        <v>1636847.2005585462</v>
+        <v>1199599.8563311039</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
@@ -8381,16 +8556,19 @@
       <c r="AH49" s="2">
         <v>34214</v>
       </c>
+      <c r="AI49" s="2">
+        <v>35864</v>
+      </c>
       <c r="BQ49" s="2">
-        <f t="shared" ref="BQ49:BQ54" si="213">+AH49</f>
+        <f t="shared" ref="BQ49:BQ54" si="211">+AH49</f>
         <v>34214</v>
       </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>151.96798816809454</v>
+        <v>111.37311821846662</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -8466,12 +8644,15 @@
       <c r="AH50" s="2">
         <v>55451</v>
       </c>
+      <c r="AI50" s="2">
+        <v>54216</v>
+      </c>
       <c r="BQ50" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="211"/>
         <v>55451</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -8547,12 +8728,15 @@
       <c r="AH51" s="2">
         <v>252665</v>
       </c>
+      <c r="AI51" s="2">
+        <v>272781</v>
+      </c>
       <c r="BQ51" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="211"/>
         <v>252665</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8628,12 +8812,15 @@
       <c r="AH52" s="2">
         <v>76141</v>
       </c>
+      <c r="AI52" s="2">
+        <v>78495</v>
+      </c>
       <c r="BQ52" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="211"/>
         <v>76141</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -8710,12 +8897,15 @@
       <c r="AH53" s="2">
         <v>23074</v>
       </c>
+      <c r="AI53" s="2">
+        <v>23089</v>
+      </c>
       <c r="BQ53" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="211"/>
         <v>23074</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
@@ -8791,12 +8981,15 @@
       <c r="AH54" s="2">
         <v>82147</v>
       </c>
+      <c r="AI54" s="2">
+        <v>84246</v>
+      </c>
       <c r="BQ54" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="211"/>
         <v>82147</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -8813,91 +9006,95 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:P55" si="214">SUM(O48:O54)</f>
+        <f t="shared" ref="O55:P55" si="212">SUM(O48:O54)</f>
         <v>221238</v>
       </c>
       <c r="P55" s="4">
+        <f t="shared" si="212"/>
+        <v>258314</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" ref="Q55" si="213">SUM(Q48:Q54)</f>
+        <v>282179</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" ref="R55:AB55" si="214">SUM(R48:R54)</f>
+        <v>321195</v>
+      </c>
+      <c r="S55" s="4">
         <f t="shared" si="214"/>
-        <v>258314</v>
-      </c>
-      <c r="Q55" s="4">
-        <f t="shared" ref="Q55" si="215">SUM(Q48:Q54)</f>
-        <v>282179</v>
-      </c>
-      <c r="R55" s="4">
-        <f t="shared" ref="R55:AB55" si="216">SUM(R48:R54)</f>
-        <v>321195</v>
-      </c>
-      <c r="S55" s="4">
+        <v>323077</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="214"/>
+        <v>360319</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="214"/>
+        <v>382406</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" si="214"/>
+        <v>420549</v>
+      </c>
+      <c r="W55" s="4">
+        <f t="shared" si="214"/>
+        <v>410767</v>
+      </c>
+      <c r="X55" s="4">
+        <f t="shared" si="214"/>
+        <v>419728</v>
+      </c>
+      <c r="Y55" s="4">
+        <f t="shared" si="214"/>
+        <v>428362</v>
+      </c>
+      <c r="Z55" s="4">
+        <f t="shared" si="214"/>
+        <v>462675</v>
+      </c>
+      <c r="AA55" s="4">
+        <f t="shared" si="214"/>
+        <v>464378</v>
+      </c>
+      <c r="AB55" s="4">
+        <f t="shared" si="214"/>
+        <v>477607</v>
+      </c>
+      <c r="AC55" s="4">
+        <f t="shared" ref="AC55:AD55" si="215">SUM(AC48:AC54)</f>
+        <v>486883</v>
+      </c>
+      <c r="AD55" s="4">
+        <f t="shared" si="215"/>
+        <v>527854</v>
+      </c>
+      <c r="AE55" s="4">
+        <f t="shared" ref="AE55:AI55" si="216">SUM(AE48:AE54)</f>
+        <v>530969</v>
+      </c>
+      <c r="AF55" s="4">
         <f t="shared" si="216"/>
-        <v>323077</v>
-      </c>
-      <c r="T55" s="4">
+        <v>554818</v>
+      </c>
+      <c r="AG55" s="4">
         <f t="shared" si="216"/>
-        <v>360319</v>
-      </c>
-      <c r="U55" s="4">
+        <v>584626</v>
+      </c>
+      <c r="AH55" s="4">
         <f t="shared" si="216"/>
-        <v>382406</v>
-      </c>
-      <c r="V55" s="4">
+        <v>624894</v>
+      </c>
+      <c r="AI55" s="4">
         <f t="shared" si="216"/>
-        <v>420549</v>
-      </c>
-      <c r="W55" s="4">
-        <f t="shared" si="216"/>
-        <v>410767</v>
-      </c>
-      <c r="X55" s="4">
-        <f t="shared" si="216"/>
-        <v>419728</v>
-      </c>
-      <c r="Y55" s="4">
-        <f t="shared" si="216"/>
-        <v>428362</v>
-      </c>
-      <c r="Z55" s="4">
-        <f t="shared" si="216"/>
-        <v>462675</v>
-      </c>
-      <c r="AA55" s="4">
-        <f t="shared" si="216"/>
-        <v>464378</v>
-      </c>
-      <c r="AB55" s="4">
-        <f t="shared" si="216"/>
-        <v>477607</v>
-      </c>
-      <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AD55" si="217">SUM(AC48:AC54)</f>
-        <v>486883</v>
-      </c>
-      <c r="AD55" s="4">
-        <f t="shared" si="217"/>
-        <v>527854</v>
-      </c>
-      <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AH55" si="218">SUM(AE48:AE54)</f>
-        <v>530969</v>
-      </c>
-      <c r="AF55" s="4">
-        <f t="shared" si="218"/>
-        <v>554818</v>
-      </c>
-      <c r="AG55" s="4">
-        <f t="shared" si="218"/>
-        <v>584626</v>
-      </c>
-      <c r="AH55" s="4">
-        <f t="shared" si="218"/>
-        <v>624894</v>
+        <v>643256</v>
       </c>
       <c r="BQ55" s="2">
         <f>SUM(BQ48:BQ54)</f>
         <v>624894</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -8973,12 +9170,15 @@
       <c r="AH57" s="2">
         <v>94363</v>
       </c>
+      <c r="AI57" s="2">
+        <v>89241</v>
+      </c>
       <c r="BQ57" s="2">
-        <f t="shared" ref="BQ57:BQ63" si="219">+AH57</f>
+        <f t="shared" ref="BQ57:BQ63" si="217">+AH57</f>
         <v>94363</v>
       </c>
     </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -9054,12 +9254,15 @@
       <c r="AH58" s="2">
         <v>66965</v>
       </c>
+      <c r="AI58" s="2">
+        <v>66331</v>
+      </c>
       <c r="BQ58" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>66965</v>
       </c>
     </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -9135,12 +9338,15 @@
       <c r="AH59" s="2">
         <v>18103</v>
       </c>
+      <c r="AI59" s="2">
+        <v>20599</v>
+      </c>
       <c r="BQ59" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>18103</v>
       </c>
     </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -9216,12 +9422,15 @@
       <c r="AH60" s="2">
         <v>78277</v>
       </c>
+      <c r="AI60" s="2">
+        <v>79871</v>
+      </c>
       <c r="BQ60" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>78277</v>
       </c>
     </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -9297,12 +9506,15 @@
       <c r="AH61" s="2">
         <v>52623</v>
       </c>
+      <c r="AI61" s="2">
+        <v>53374</v>
+      </c>
       <c r="BQ61" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>52623</v>
       </c>
     </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
@@ -9378,12 +9590,15 @@
       <c r="AH62" s="2">
         <v>28593</v>
       </c>
+      <c r="AI62" s="2">
+        <v>27973</v>
+      </c>
       <c r="BQ62" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>28593</v>
       </c>
     </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
@@ -9459,12 +9674,15 @@
       <c r="AH63" s="2">
         <v>285970</v>
       </c>
+      <c r="AI63" s="2">
+        <v>305867</v>
+      </c>
       <c r="BQ63" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>285970</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -9481,71 +9699,71 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:P64" si="220">SUM(O57:O63)</f>
+        <f t="shared" ref="O64:P64" si="218">SUM(O57:O63)</f>
         <v>221238</v>
       </c>
       <c r="P64" s="4">
+        <f t="shared" si="218"/>
+        <v>258314</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" ref="Q64" si="219">SUM(Q57:Q63)</f>
+        <v>282179</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" ref="R64:AB64" si="220">SUM(R57:R63)</f>
+        <v>321195</v>
+      </c>
+      <c r="S64" s="4">
         <f t="shared" si="220"/>
-        <v>258314</v>
-      </c>
-      <c r="Q64" s="4">
-        <f t="shared" ref="Q64" si="221">SUM(Q57:Q63)</f>
-        <v>282179</v>
-      </c>
-      <c r="R64" s="4">
-        <f t="shared" ref="R64:AB64" si="222">SUM(R57:R63)</f>
-        <v>321195</v>
-      </c>
-      <c r="S64" s="4">
-        <f t="shared" si="222"/>
         <v>323077</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>360319</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>382406</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>420549</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>410767</v>
       </c>
       <c r="X64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>419728</v>
       </c>
       <c r="Y64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>428362</v>
       </c>
       <c r="Z64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>462675</v>
       </c>
       <c r="AA64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>464378</v>
       </c>
       <c r="AB64" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>477607</v>
       </c>
       <c r="AC64" s="4">
-        <f t="shared" ref="AC64:AD64" si="223">SUM(AC57:AC63)</f>
+        <f t="shared" ref="AC64:AD64" si="221">SUM(AC57:AC63)</f>
         <v>486883</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>527854</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" ref="AE64" si="224">SUM(AE57:AE63)</f>
+        <f t="shared" ref="AE64" si="222">SUM(AE57:AE63)</f>
         <v>530969</v>
       </c>
       <c r="AF64" s="4">
@@ -9560,12 +9778,16 @@
         <f>SUM(AH57:AH63)</f>
         <v>624894</v>
       </c>
+      <c r="AI64" s="4">
+        <f>SUM(AI57:AI63)</f>
+        <v>643256</v>
+      </c>
       <c r="BQ64" s="2">
         <f>SUM(BQ57:BQ63)</f>
         <v>624894</v>
       </c>
     </row>
-    <row r="66" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -9582,71 +9804,71 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:Q66" si="225">+O32</f>
+        <f t="shared" ref="O66:Q66" si="223">+O32</f>
         <v>2535</v>
       </c>
       <c r="P66" s="4">
+        <f t="shared" si="223"/>
+        <v>5243</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="223"/>
+        <v>6331</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" ref="R66:V66" si="224">+R32</f>
+        <v>7222</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="224"/>
+        <v>8107</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="224"/>
+        <v>7778</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="224"/>
+        <v>3156</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="224"/>
+        <v>14323</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" ref="W66:AE66" si="225">+W32</f>
+        <v>-3844</v>
+      </c>
+      <c r="X66" s="4">
         <f t="shared" si="225"/>
-        <v>5243</v>
-      </c>
-      <c r="Q66" s="4">
+        <v>2982</v>
+      </c>
+      <c r="Y66" s="4">
         <f t="shared" si="225"/>
-        <v>6331</v>
-      </c>
-      <c r="R66" s="4">
-        <f t="shared" ref="R66:V66" si="226">+R32</f>
-        <v>7222</v>
-      </c>
-      <c r="S66" s="4">
-        <f t="shared" si="226"/>
-        <v>8107</v>
-      </c>
-      <c r="T66" s="4">
-        <f t="shared" si="226"/>
-        <v>7778</v>
-      </c>
-      <c r="U66" s="4">
-        <f t="shared" si="226"/>
-        <v>3156</v>
-      </c>
-      <c r="V66" s="4">
-        <f t="shared" si="226"/>
-        <v>14323</v>
-      </c>
-      <c r="W66" s="4">
-        <f t="shared" ref="W66:AE66" si="227">+W32</f>
-        <v>-3844</v>
-      </c>
-      <c r="X66" s="4">
-        <f t="shared" si="227"/>
-        <v>2982</v>
-      </c>
-      <c r="Y66" s="4">
-        <f t="shared" si="227"/>
         <v>2872</v>
       </c>
       <c r="Z66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>3247</v>
       </c>
       <c r="AA66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>3172</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>6750</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>9879</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>10624</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
@@ -9661,12 +9883,16 @@
         <f>+AH32</f>
         <v>20024</v>
       </c>
+      <c r="AI66" s="4">
+        <f>+AI32</f>
+        <v>17947.835999999999</v>
+      </c>
       <c r="BQ66" s="2">
         <f>+BQ32</f>
         <v>31503.311999999976</v>
       </c>
     </row>
-    <row r="67" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -9742,12 +9968,15 @@
       <c r="AH67" s="2">
         <v>20004</v>
       </c>
+      <c r="AI67" s="2">
+        <v>17127</v>
+      </c>
       <c r="BQ67" s="2">
         <f>SUM(AE67:AH67)</f>
         <v>59248</v>
       </c>
     </row>
-    <row r="68" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -9823,12 +10052,15 @@
       <c r="AH68" s="2">
         <v>15631</v>
       </c>
+      <c r="AI68" s="2">
+        <v>14262</v>
+      </c>
       <c r="BQ68" s="2">
-        <f t="shared" ref="BQ68:BQ72" si="228">SUM(AE68:AH68)</f>
+        <f t="shared" ref="BQ68:BQ72" si="226">SUM(AE68:AH68)</f>
         <v>52795</v>
       </c>
     </row>
-    <row r="69" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -9904,12 +10136,15 @@
       <c r="AH69" s="2">
         <v>4995</v>
       </c>
+      <c r="AI69" s="2">
+        <v>3689</v>
+      </c>
       <c r="BQ69" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="226"/>
         <v>22011</v>
       </c>
     </row>
-    <row r="70" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -9985,12 +10220,15 @@
       <c r="AH70" s="2">
         <v>-486</v>
       </c>
+      <c r="AI70" s="2">
+        <v>-2817</v>
+      </c>
       <c r="BQ70" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="226"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="71" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -10055,11 +10293,11 @@
         <v>0</v>
       </c>
       <c r="BQ71" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -10135,12 +10373,15 @@
       <c r="AH72" s="2">
         <v>-1608</v>
       </c>
+      <c r="AI72" s="2">
+        <v>507</v>
+      </c>
       <c r="BQ72" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="226"/>
         <v>-4648</v>
       </c>
     </row>
-    <row r="73" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -10236,12 +10477,16 @@
         <f>934-4023-4190+8726+4042+1611</f>
         <v>7100</v>
       </c>
+      <c r="AI73" s="2">
+        <f>-1222+1247-3402-9043-4061+728</f>
+        <v>-15753</v>
+      </c>
       <c r="BQ73" s="2">
         <f>SUM(AE73:AH73)</f>
         <v>-15541</v>
       </c>
     </row>
-    <row r="74" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -10258,84 +10503,88 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4">
-        <f t="shared" ref="O74:Q74" si="229">SUM(O67:O73)</f>
+        <f t="shared" ref="O74:Q74" si="227">SUM(O67:O73)</f>
         <v>3064</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="227"/>
         <v>20606</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="229"/>
+        <f t="shared" si="227"/>
         <v>11964</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" ref="R74:AH74" si="230">SUM(R67:R73)</f>
+        <f t="shared" ref="R74:AI74" si="228">SUM(R67:R73)</f>
         <v>30430</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>4213</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>12715</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>7313</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>22086</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>-2790</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>8965</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>11404</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>29173</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>4788</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>16476</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>21217</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>42465</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>18989</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>25281</v>
       </c>
       <c r="AG74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>25971</v>
       </c>
       <c r="AH74" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>45636</v>
+      </c>
+      <c r="AI74" s="4">
+        <f t="shared" si="228"/>
+        <v>17015</v>
       </c>
       <c r="AT74" s="2">
         <v>-119.782</v>
@@ -10351,7 +10600,7 @@
         <v>115877</v>
       </c>
     </row>
-    <row r="75" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -10377,7 +10626,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -10453,12 +10702,15 @@
       <c r="AH76" s="2">
         <v>-27834</v>
       </c>
+      <c r="AI76" s="2">
+        <v>-25019</v>
+      </c>
       <c r="BQ76" s="2">
-        <f t="shared" ref="BQ76:BQ79" si="231">SUM(AE76:AH76)</f>
+        <f t="shared" ref="BQ76:BQ79" si="229">SUM(AE76:AH76)</f>
         <v>-82999</v>
       </c>
     </row>
-    <row r="77" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -10534,12 +10786,15 @@
       <c r="AH77" s="2">
         <v>1782</v>
       </c>
+      <c r="AI77" s="2">
+        <v>764</v>
+      </c>
       <c r="BQ77" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="229"/>
         <v>5341</v>
       </c>
     </row>
-    <row r="78" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -10615,12 +10870,15 @@
       <c r="AH78" s="2">
         <v>-2535</v>
       </c>
+      <c r="AI78" s="2">
+        <v>48</v>
+      </c>
       <c r="BQ78" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="229"/>
         <v>-7082</v>
       </c>
     </row>
-    <row r="79" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -10716,12 +10974,16 @@
         <f>-12533+3677</f>
         <v>-8856</v>
       </c>
+      <c r="AI79" s="2">
+        <f>7737-13333</f>
+        <v>-5596</v>
+      </c>
       <c r="BQ79" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="229"/>
         <v>-9602</v>
       </c>
     </row>
-    <row r="80" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -10738,91 +11000,95 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4">
-        <f t="shared" ref="O80:Q80" si="232">SUM(O76:O79)</f>
+        <f t="shared" ref="O80:Q80" si="230">SUM(O76:O79)</f>
         <v>-8894</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="230"/>
         <v>-17804</v>
       </c>
       <c r="Q80" s="4">
-        <f t="shared" si="232"/>
+        <f t="shared" si="230"/>
         <v>-15876</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" ref="R80:AH80" si="233">SUM(R76:R79)</f>
+        <f t="shared" ref="R80:AI80" si="231">SUM(R76:R79)</f>
         <v>-17038</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-8666</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-22080</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-14828</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-12580</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>906</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-12078</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-15608</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-10821</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-15806</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-9673</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-11753</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-12601</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-17862</v>
       </c>
       <c r="AF80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-22138</v>
       </c>
       <c r="AG80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-16899</v>
       </c>
       <c r="AH80" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>-37443</v>
+      </c>
+      <c r="AI80" s="4">
+        <f t="shared" si="231"/>
+        <v>-29803</v>
       </c>
       <c r="BQ80" s="2">
         <f>SUM(BQ76:BQ79)</f>
         <v>-94342</v>
       </c>
     </row>
-    <row r="81" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10848,7 +11114,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -10924,12 +11190,15 @@
       <c r="AH82" s="2">
         <v>0</v>
       </c>
+      <c r="AI82" s="2">
+        <v>0</v>
+      </c>
       <c r="BQ82" s="2">
-        <f t="shared" ref="BQ82:BQ85" si="234">SUM(AE82:AH82)</f>
+        <f t="shared" ref="BQ82:BQ85" si="232">SUM(AE82:AH82)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -11025,12 +11294,16 @@
         <f>2554-2607-2500-333-422</f>
         <v>-3308</v>
       </c>
+      <c r="AI83" s="2">
+        <f>1815-2082+746-410-116</f>
+        <v>-47</v>
+      </c>
       <c r="BQ83" s="2">
-        <f t="shared" si="234"/>
+        <f t="shared" si="232"/>
         <v>-11812</v>
       </c>
     </row>
-    <row r="84" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -11047,91 +11320,95 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:Q84" si="235">SUM(O82:O83)</f>
+        <f t="shared" ref="O84:Q84" si="233">SUM(O82:O83)</f>
         <v>-2591</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>7408</v>
       </c>
       <c r="Q84" s="4">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>-4105</v>
       </c>
       <c r="R84" s="4">
-        <f t="shared" ref="R84:AH84" si="236">SUM(R82:R83)</f>
+        <f t="shared" ref="R84:AI84" si="234">SUM(R82:R83)</f>
         <v>-1816</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-3476</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>15643</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-2776</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-3100</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>1990</v>
       </c>
       <c r="X84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>4626</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>3016</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>86</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>6354</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-6539</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-8948</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-6746</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-1256</v>
       </c>
       <c r="AF84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-4490</v>
       </c>
       <c r="AG84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-2758</v>
       </c>
       <c r="AH84" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>-3308</v>
+      </c>
+      <c r="AI84" s="4">
+        <f t="shared" si="234"/>
+        <v>-47</v>
       </c>
       <c r="BQ84" s="2">
         <f>+BQ83+BQ82</f>
         <v>-11812</v>
       </c>
     </row>
-    <row r="85" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -11207,12 +11484,15 @@
       <c r="AH85" s="2">
         <v>-1250</v>
       </c>
+      <c r="AI85" s="2">
+        <v>416</v>
+      </c>
       <c r="BQ85" s="2">
-        <f t="shared" si="234"/>
+        <f t="shared" si="232"/>
         <v>-1301</v>
       </c>
     </row>
-    <row r="86" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -11229,7 +11509,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4">
-        <f t="shared" ref="O86" si="237">+O85+O84+O80+O74</f>
+        <f t="shared" ref="O86" si="235">+O85+O84+O80+O74</f>
         <v>-8905</v>
       </c>
       <c r="P86" s="4">
@@ -11241,79 +11521,83 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AH86" si="238">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AI86" si="236">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>-8222</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>6512</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>-10490</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>6300</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>122</v>
       </c>
       <c r="X86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>1101</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>-2522</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>19075</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>-4519</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>333</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>14</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>23809</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>-558</v>
       </c>
       <c r="AF86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>-1659</v>
       </c>
       <c r="AG86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>7004</v>
       </c>
       <c r="AH86" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>3635</v>
+      </c>
+      <c r="AI86" s="4">
+        <f t="shared" si="236"/>
+        <v>-12419</v>
       </c>
       <c r="BQ86" s="2">
         <f>+BQ85+BQ84+BQ80+BQ74</f>
         <v>8422</v>
       </c>
     </row>
-    <row r="88" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -11399,11 +11683,14 @@
       <c r="AH88" s="2">
         <v>1556</v>
       </c>
+      <c r="AI88" s="2">
+        <v>1560</v>
+      </c>
       <c r="AQ88" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -11470,7 +11757,7 @@
         <v>6461</v>
       </c>
       <c r="AE90" s="2">
-        <v>898</v>
+        <v>4983</v>
       </c>
       <c r="AF90" s="2">
         <v>5065</v>
@@ -11481,8 +11768,11 @@
       <c r="AH90" s="2">
         <v>9256</v>
       </c>
+      <c r="AI90" s="2">
+        <v>5841</v>
+      </c>
     </row>
-    <row r="91" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -11549,7 +11839,7 @@
         <v>-419</v>
       </c>
       <c r="AE91" s="2">
-        <v>-1247</v>
+        <v>903</v>
       </c>
       <c r="AF91" s="2">
         <v>273</v>
@@ -11560,8 +11850,11 @@
       <c r="AH91" s="2">
         <v>1315</v>
       </c>
+      <c r="AI91" s="2">
+        <v>1017</v>
+      </c>
     </row>
-    <row r="92" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -11628,7 +11921,7 @@
         <v>7167</v>
       </c>
       <c r="AE92" s="2">
-        <v>5123</v>
+        <v>9421</v>
       </c>
       <c r="AF92" s="2">
         <v>9334</v>
@@ -11639,57 +11932,60 @@
       <c r="AH92" s="2">
         <v>10632</v>
       </c>
+      <c r="AI92" s="2">
+        <v>11547</v>
+      </c>
     </row>
-    <row r="94" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="239">+O74+O76+O77</f>
+        <f t="shared" ref="O94:W94" si="237">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>13991</v>
       </c>
       <c r="Q94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>2156</v>
       </c>
       <c r="R94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>17235</v>
       </c>
       <c r="S94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>-6974</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>-273</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>-7438</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>5616</v>
       </c>
       <c r="W94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>-16532</v>
       </c>
       <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="240">+X74+X76+X77</f>
+        <f t="shared" ref="X94:Z94" si="238">+X74+X76+X77</f>
         <v>-5133</v>
       </c>
       <c r="Y94" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="238"/>
         <v>-3637</v>
       </c>
       <c r="Z94" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="238"/>
         <v>13733</v>
       </c>
       <c r="AA94" s="4">
@@ -11697,48 +11993,52 @@
         <v>-8282</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="241">+AB74+AB76+AB77</f>
+        <f t="shared" ref="AB94:AE94" si="239">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
       <c r="AC94" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="239"/>
         <v>9919</v>
       </c>
       <c r="AD94" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="239"/>
         <v>29112</v>
       </c>
       <c r="AE94" s="4">
-        <f t="shared" si="241"/>
+        <f t="shared" si="239"/>
         <v>5054</v>
       </c>
       <c r="AF94" s="4">
-        <f t="shared" ref="AF94:AH94" si="242">+AF74+AF76+AF77</f>
+        <f t="shared" ref="AF94:AI94" si="240">+AF74+AF76+AF77</f>
         <v>8888</v>
       </c>
       <c r="AG94" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="240"/>
         <v>4693</v>
       </c>
       <c r="AH94" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="240"/>
         <v>19584</v>
       </c>
+      <c r="AI94" s="4">
+        <f>+AI74+AI76+AI77</f>
+        <v>-7240</v>
+      </c>
     </row>
-    <row r="95" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:69" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="243">SUM(O94:R94)</f>
+        <f t="shared" ref="R95:T95" si="241">SUM(O94:R94)</f>
         <v>31018</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="241"/>
         <v>26408</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="241"/>
         <v>12144</v>
       </c>
       <c r="U95" s="2">
@@ -11758,7 +12058,7 @@
         <v>-23487</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" ref="Y95" si="244">SUM(V94:Y94)</f>
+        <f t="shared" ref="Y95" si="242">SUM(V94:Y94)</f>
         <v>-19686</v>
       </c>
       <c r="Z95" s="2">
@@ -11770,35 +12070,39 @@
         <v>-3319</v>
       </c>
       <c r="AB95" s="5">
-        <f t="shared" ref="AB95:AE95" si="245">SUM(Y94:AB94)</f>
+        <f t="shared" ref="AB95:AE95" si="243">SUM(Y94:AB94)</f>
         <v>7878</v>
       </c>
       <c r="AC95" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>21434</v>
       </c>
       <c r="AD95" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>36813</v>
       </c>
       <c r="AE95" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>50149</v>
       </c>
       <c r="AF95" s="5">
-        <f t="shared" ref="AF95:AH95" si="246">SUM(AC94:AF94)</f>
+        <f t="shared" ref="AF95:AI95" si="244">SUM(AC94:AF94)</f>
         <v>52973</v>
       </c>
       <c r="AG95" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="244"/>
         <v>47747</v>
       </c>
       <c r="AH95" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="244"/>
         <v>38219</v>
       </c>
+      <c r="AI95" s="5">
+        <f>SUM(AF94:AI94)</f>
+        <v>25925</v>
+      </c>
     </row>
-    <row r="101" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>105</v>
       </c>
@@ -11861,7 +12165,7 @@
         <v>219.39</v>
       </c>
     </row>
-    <row r="102" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:69" ht="13" x14ac:dyDescent="0.3">
       <c r="BP102" s="19">
         <f>+BP101/BO101-1</f>
         <v>0.80880952380952387</v>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43F7430-3871-47BA-97CB-C3F8D27A43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181CF32-A1D0-42B1-B92C-8D4239712DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55600" yWindow="2970" windowWidth="24440" windowHeight="16540" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -698,7 +698,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -725,12 +725,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1299,7 +1293,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1320,10 +1314,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10771</v>
+        <v>10793</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1335,7 +1329,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>2164971</v>
+        <v>2406839</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1349,7 +1343,7 @@
         <v>94565</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1360,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>52623</v>
+        <v>53374</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1372,7 +1366,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>2123029</v>
+        <v>2365648</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1535,10 +1529,10 @@
   <dimension ref="A1:EG102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BO20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BR47" sqref="BR47"/>
+      <selection pane="bottomRight" activeCell="BT28" sqref="BT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5114,31 +5108,31 @@
         <v>15535</v>
       </c>
       <c r="AF28" s="4">
-        <f>AF23-AF27</f>
+        <f t="shared" ref="AF28:AL28" si="67">AF23-AF27</f>
         <v>14673</v>
       </c>
       <c r="AG28" s="4">
-        <f>AG23-AG27</f>
+        <f t="shared" si="67"/>
         <v>15258</v>
       </c>
       <c r="AH28" s="4">
-        <f>AH23-AH27</f>
+        <f t="shared" si="67"/>
         <v>21379</v>
       </c>
       <c r="AI28" s="4">
-        <f>AI23-AI27</f>
+        <f t="shared" si="67"/>
         <v>18972.04</v>
       </c>
       <c r="AJ28" s="4">
-        <f>AJ23-AJ27</f>
+        <f t="shared" si="67"/>
         <v>55343.772000000012</v>
       </c>
       <c r="AK28" s="4">
-        <f>AK23-AK27</f>
+        <f t="shared" si="67"/>
         <v>59419.998000000007</v>
       </c>
       <c r="AL28" s="4">
-        <f>AL23-AL27</f>
+        <f t="shared" si="67"/>
         <v>70234.208000000013</v>
       </c>
       <c r="AT28" s="2">
@@ -5154,71 +5148,71 @@
         <v>361.23799999999972</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" ref="BG28:BI28" si="67">BG23-BG27</f>
+        <f t="shared" ref="BG28:BI28" si="68">BG23-BG27</f>
         <v>311</v>
       </c>
       <c r="BH28" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2404</v>
       </c>
       <c r="BI28" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4353</v>
       </c>
       <c r="BJ28" s="4">
-        <f t="shared" ref="BJ28" si="68">BJ23-BJ27</f>
+        <f t="shared" ref="BJ28" si="69">BJ23-BJ27</f>
         <v>4320</v>
       </c>
       <c r="BK28" s="4">
-        <f t="shared" ref="BK28:BL28" si="69">BK23-BK27</f>
+        <f t="shared" ref="BK28:BL28" si="70">BK23-BK27</f>
         <v>12717</v>
       </c>
       <c r="BL28" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>14741</v>
       </c>
       <c r="BM28" s="4">
-        <f t="shared" ref="BM28:BN28" si="70">BM23-BM27</f>
+        <f t="shared" ref="BM28:BN28" si="71">BM23-BM27</f>
         <v>22825</v>
       </c>
       <c r="BN28" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>24941</v>
       </c>
       <c r="BO28" s="4">
-        <f t="shared" ref="BO28:BP28" si="71">BO23-BO27</f>
+        <f t="shared" ref="BO28:BP28" si="72">BO23-BO27</f>
         <v>13511</v>
       </c>
       <c r="BP28" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>37619</v>
       </c>
       <c r="BQ28" s="4">
-        <f t="shared" ref="BQ28:BW28" si="72">BQ23-BQ27</f>
+        <f t="shared" ref="BQ28:BW28" si="73">BQ23-BQ27</f>
         <v>36778.059999999969</v>
       </c>
       <c r="BR28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>48698.837799999921</v>
       </c>
       <c r="BS28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>65076.707333999977</v>
       </c>
       <c r="BT28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>83997.311909019947</v>
       </c>
       <c r="BU28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>96574.93785104074</v>
       </c>
       <c r="BV28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>107673.31293815942</v>
       </c>
       <c r="BW28" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>119723.41752599101</v>
       </c>
     </row>
@@ -5394,27 +5388,27 @@
         <v>284.66000000000003</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" ref="BR29:BW29" si="73">+BQ47*$BZ$46</f>
+        <f t="shared" ref="BR29:BW29" si="74">+BQ47*$BZ$46</f>
         <v>485.79</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>903.85933629999931</v>
       </c>
       <c r="BT29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1464.6941529975491</v>
       </c>
       <c r="BU29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2191.121204524698</v>
       </c>
       <c r="BV29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3030.6327064970042</v>
       </c>
       <c r="BW29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3971.6162444765841</v>
       </c>
     </row>
@@ -5430,7 +5424,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <f t="shared" ref="J30" si="74">J28+J29</f>
+        <f t="shared" ref="J30" si="75">J28+J29</f>
         <v>3350</v>
       </c>
       <c r="K30" s="4">
@@ -5438,7 +5432,7 @@
         <v>4401</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="75">L28+L29</f>
+        <f t="shared" ref="L30" si="76">L28+L29</f>
         <v>2889</v>
       </c>
       <c r="M30" s="4">
@@ -5446,15 +5440,15 @@
         <v>2632</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="76">N28+N29</f>
+        <f t="shared" ref="N30" si="77">N28+N29</f>
         <v>4053</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" ref="O30" si="77">O28+O29</f>
+        <f t="shared" ref="O30" si="78">O28+O29</f>
         <v>3383</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" ref="P30" si="78">P28+P29</f>
+        <f t="shared" ref="P30" si="79">P28+P29</f>
         <v>6221</v>
       </c>
       <c r="Q30" s="4">
@@ -5462,7 +5456,7 @@
         <v>6809</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="79">R28+R29</f>
+        <f t="shared" ref="R30" si="80">R28+R29</f>
         <v>7765</v>
       </c>
       <c r="S30" s="4">
@@ -5470,39 +5464,39 @@
         <v>10268</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:AL30" si="80">T28+T29</f>
+        <f t="shared" ref="T30:AL30" si="81">T28+T29</f>
         <v>8634</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4315</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>14934</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-5265</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2982</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2944</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3247</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4119</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7563</v>
       </c>
       <c r="AC30" s="4">
@@ -5510,39 +5504,39 @@
         <v>12189</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>13686</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>12983</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>15246</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>15649</v>
       </c>
       <c r="AH30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>22349</v>
       </c>
       <c r="AI30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>19942.04</v>
       </c>
       <c r="AJ30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>55343.772000000012</v>
       </c>
       <c r="AK30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>59419.998000000007</v>
       </c>
       <c r="AL30" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>70234.208000000013</v>
       </c>
       <c r="AT30" s="2">
@@ -5558,71 +5552,71 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG30" s="4">
-        <f t="shared" ref="BG30:BI30" si="81">BG28+BG29</f>
+        <f t="shared" ref="BG30:BI30" si="82">BG28+BG29</f>
         <v>-111</v>
       </c>
       <c r="BH30" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1568</v>
       </c>
       <c r="BI30" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>3892</v>
       </c>
       <c r="BJ30" s="4">
-        <f t="shared" ref="BJ30" si="82">BJ28+BJ29</f>
+        <f t="shared" ref="BJ30" si="83">BJ28+BJ29</f>
         <v>3806</v>
       </c>
       <c r="BK30" s="4">
-        <f t="shared" ref="BK30:BL30" si="83">BK28+BK29</f>
+        <f t="shared" ref="BK30:BL30" si="84">BK28+BK29</f>
         <v>11261</v>
       </c>
       <c r="BL30" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>13975</v>
       </c>
       <c r="BM30" s="4">
-        <f t="shared" ref="BM30:BW30" si="84">BM28+BM29</f>
+        <f t="shared" ref="BM30:BW30" si="85">BM28+BM29</f>
         <v>24178</v>
       </c>
       <c r="BN30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>38151</v>
       </c>
       <c r="BO30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3908</v>
       </c>
       <c r="BP30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>37557</v>
       </c>
       <c r="BQ30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>37062.719999999972</v>
       </c>
       <c r="BR30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>49184.627799999922</v>
       </c>
       <c r="BS30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>65980.566670299973</v>
       </c>
       <c r="BT30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>85462.006062017492</v>
       </c>
       <c r="BU30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>98766.059055565434</v>
       </c>
       <c r="BV30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>110703.94564465643</v>
       </c>
       <c r="BW30" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>123695.03377046759</v>
       </c>
     </row>
@@ -5791,27 +5785,27 @@
         <v>5559.4079999999958</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" ref="BR31:BW31" si="85">+BR30*0.15</f>
+        <f t="shared" ref="BR31:BW31" si="86">+BR30*0.15</f>
         <v>7377.6941699999879</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>9897.0850005449956</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12819.300909302623</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>14814.908858334815</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>16605.591846698462</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>18554.255065570138</v>
       </c>
     </row>
@@ -5827,7 +5821,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <f t="shared" ref="J32" si="86">J30-J31</f>
+        <f t="shared" ref="J32" si="87">J30-J31</f>
         <v>3027</v>
       </c>
       <c r="K32" s="4">
@@ -5835,7 +5829,7 @@
         <v>3561</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="87">L30-L31</f>
+        <f t="shared" ref="L32" si="88">L30-L31</f>
         <v>2625</v>
       </c>
       <c r="M32" s="4">
@@ -5843,15 +5837,15 @@
         <v>2134</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32" si="88">N30-N31</f>
+        <f t="shared" ref="N32" si="89">N30-N31</f>
         <v>3268</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" ref="O32" si="89">O30-O31</f>
+        <f t="shared" ref="O32" si="90">O30-O31</f>
         <v>2535</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32" si="90">P30-P31</f>
+        <f t="shared" ref="P32" si="91">P30-P31</f>
         <v>5243</v>
       </c>
       <c r="Q32" s="4">
@@ -5859,7 +5853,7 @@
         <v>6331</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" ref="R32" si="91">R30-R31</f>
+        <f t="shared" ref="R32" si="92">R30-R31</f>
         <v>7222</v>
       </c>
       <c r="S32" s="4">
@@ -5867,79 +5861,79 @@
         <v>8107</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" ref="T32:AL32" si="92">T30-T31</f>
+        <f t="shared" ref="T32:AL32" si="93">T30-T31</f>
         <v>7778</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3156</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>14323</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-3844</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2982</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2872</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3247</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3172</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6750</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>9879</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10624</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10431</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>13486</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>12940</v>
       </c>
       <c r="AH32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20024</v>
       </c>
       <c r="AI32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>17947.835999999999</v>
       </c>
       <c r="AJ32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>55343.772000000012</v>
       </c>
       <c r="AK32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>59419.998000000007</v>
       </c>
       <c r="AL32" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>70234.208000000013</v>
       </c>
       <c r="AT32" s="2">
@@ -5955,71 +5949,71 @@
         <v>253.21399999999971</v>
       </c>
       <c r="BG32" s="4">
-        <f t="shared" ref="BG32:BI32" si="93">BG30-BG31</f>
+        <f t="shared" ref="BG32:BI32" si="94">BG30-BG31</f>
         <v>-241</v>
       </c>
       <c r="BH32" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>596</v>
       </c>
       <c r="BI32" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2371</v>
       </c>
       <c r="BJ32" s="4">
-        <f t="shared" ref="BJ32" si="94">BJ30-BJ31</f>
+        <f t="shared" ref="BJ32" si="95">BJ30-BJ31</f>
         <v>3033</v>
       </c>
       <c r="BK32" s="4">
-        <f t="shared" ref="BK32:BL32" si="95">BK30-BK31</f>
+        <f t="shared" ref="BK32:BL32" si="96">BK30-BK31</f>
         <v>10073</v>
       </c>
       <c r="BL32" s="4">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>11588</v>
       </c>
       <c r="BM32" s="4">
-        <f t="shared" ref="BM32:BP32" si="96">BM30-BM31</f>
+        <f t="shared" ref="BM32:BP32" si="97">BM30-BM31</f>
         <v>21331</v>
       </c>
       <c r="BN32" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>33364</v>
       </c>
       <c r="BO32" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5257</v>
       </c>
       <c r="BP32" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>30425</v>
       </c>
       <c r="BQ32" s="4">
-        <f t="shared" ref="BQ32:BW32" si="97">BQ30-BQ31</f>
+        <f t="shared" ref="BQ32:BW32" si="98">BQ30-BQ31</f>
         <v>31503.311999999976</v>
       </c>
       <c r="BR32" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>41806.933629999934</v>
       </c>
       <c r="BS32" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>56083.481669754976</v>
       </c>
       <c r="BT32" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>72642.705152714872</v>
       </c>
       <c r="BU32" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>83951.150197230614</v>
       </c>
       <c r="BV32" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>94098.353797957971</v>
       </c>
       <c r="BW32" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>105140.77870489746</v>
       </c>
       <c r="BX32" s="2">
@@ -6027,247 +6021,247 @@
         <v>105140.77870489746</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" ref="BY32:EG32" si="98">+BX32*(1+$BZ$47)</f>
+        <f t="shared" ref="BY32:EG32" si="99">+BX32*(1+$BZ$47)</f>
         <v>105140.77870489746</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="EE32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="EF32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
       <c r="EG32" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105140.77870489746</v>
       </c>
     </row>
@@ -6283,7 +6277,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7">
-        <f t="shared" ref="J33" si="99">J32/J34</f>
+        <f t="shared" ref="J33" si="100">J32/J34</f>
         <v>6.0419161676646711</v>
       </c>
       <c r="K33" s="7">
@@ -6291,7 +6285,7 @@
         <v>7.0936254980079685</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33" si="100">L32/L34</f>
+        <f t="shared" ref="L33" si="101">L32/L34</f>
         <v>5.2186878727634198</v>
       </c>
       <c r="M33" s="7">
@@ -6299,15 +6293,15 @@
         <v>4.2341269841269842</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33" si="101">N32/N34</f>
+        <f t="shared" ref="N33" si="102">N32/N34</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33" si="102">O32/O34</f>
+        <f t="shared" ref="O33" si="103">O32/O34</f>
         <v>5.0098814229249014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33" si="103">P32/P34</f>
+        <f t="shared" ref="P33" si="104">P32/P34</f>
         <v>10.300589390962672</v>
       </c>
       <c r="Q33" s="7">
@@ -6315,7 +6309,7 @@
         <v>12.365234375</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" ref="R33" si="104">R32/R34</f>
+        <f t="shared" ref="R33" si="105">R32/R34</f>
         <v>14.077972709551657</v>
       </c>
       <c r="S33" s="7">
@@ -6339,63 +6333,63 @@
         <v>-7.5520628683693518</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" ref="X33:AL33" si="105">X32/X34</f>
+        <f t="shared" ref="X33:AL33" si="106">X32/X34</f>
         <v>0.29307125307125309</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.27799825767108705</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.31499805975941014</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.3065622885860636</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.64599483204134367</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.93568857738207989</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.0013195098963241</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.97760074976569822</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.2594322002241314</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.2054028877503493</v>
       </c>
       <c r="AH33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.8590660105839756</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.6629144816084498</v>
       </c>
       <c r="AJ33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>5.1277468729732245</v>
       </c>
       <c r="AK33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>5.5054199944408415</v>
       </c>
       <c r="AL33" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6.5073851570462349</v>
       </c>
       <c r="AT33" s="1">
@@ -6411,27 +6405,27 @@
         <v>0.60382208741105259</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="106">BG32/BG34</f>
+        <f t="shared" ref="BG33" si="107">BG32/BG34</f>
         <v>-0.52164502164502169</v>
       </c>
       <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="107">BH32/BH34</f>
+        <f t="shared" ref="BH33" si="108">BH32/BH34</f>
         <v>1.249475890985325</v>
       </c>
       <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="108">BI32/BI34</f>
+        <f t="shared" ref="BI33" si="109">BI32/BI34</f>
         <v>4.8987603305785123</v>
       </c>
       <c r="BJ33" s="7">
-        <f t="shared" ref="BJ33" si="109">BJ32/BJ34</f>
+        <f t="shared" ref="BJ33" si="110">BJ32/BJ34</f>
         <v>6.1521298174442194</v>
       </c>
       <c r="BK33" s="7">
-        <f t="shared" ref="BK33:BL33" si="110">BK32/BK34</f>
+        <f t="shared" ref="BK33:BL33" si="111">BK32/BK34</f>
         <v>20.146000000000001</v>
       </c>
       <c r="BL33" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>23.014895729890764</v>
       </c>
       <c r="BM33" s="7">
@@ -6443,39 +6437,39 @@
         <v>6.1676679914964412</v>
       </c>
       <c r="BO33" s="7">
-        <f t="shared" ref="BO33:BP33" si="111">BO32/BO34</f>
+        <f t="shared" ref="BO33:BP33" si="112">BO32/BO34</f>
         <v>0.51665847665847664</v>
       </c>
       <c r="BP33" s="7">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2.9001048517777144</v>
       </c>
       <c r="BQ33" s="7">
-        <f t="shared" ref="BQ33" si="112">BQ32/BQ34</f>
+        <f t="shared" ref="BQ33" si="113">BQ32/BQ34</f>
         <v>2.9384676802537055</v>
       </c>
       <c r="BR33" s="7">
-        <f t="shared" ref="BR33" si="113">BR32/BR34</f>
+        <f t="shared" ref="BR33" si="114">BR32/BR34</f>
         <v>3.8735229899008554</v>
       </c>
       <c r="BS33" s="7">
-        <f t="shared" ref="BS33" si="114">BS32/BS34</f>
+        <f t="shared" ref="BS33" si="115">BS32/BS34</f>
         <v>5.196282930580467</v>
       </c>
       <c r="BT33" s="7">
-        <f t="shared" ref="BT33" si="115">BT32/BT34</f>
+        <f t="shared" ref="BT33" si="116">BT32/BT34</f>
         <v>6.730538789281467</v>
       </c>
       <c r="BU33" s="7">
-        <f t="shared" ref="BU33" si="116">BU32/BU34</f>
+        <f t="shared" ref="BU33" si="117">BU32/BU34</f>
         <v>7.7782961361281027</v>
       </c>
       <c r="BV33" s="7">
-        <f t="shared" ref="BV33" si="117">BV32/BV34</f>
+        <f t="shared" ref="BV33" si="118">BV32/BV34</f>
         <v>8.7184613914535323</v>
       </c>
       <c r="BW33" s="7">
-        <f t="shared" ref="BW33" si="118">BW32/BW34</f>
+        <f t="shared" ref="BW33" si="119">BW32/BW34</f>
         <v>9.7415712688684764</v>
       </c>
     </row>
@@ -6629,23 +6623,23 @@
         <v>10793</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" ref="BR34:BW34" si="119">+BR34</f>
+        <f t="shared" ref="BS34:BW34" si="120">+BR34</f>
         <v>10793</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>10793</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>10793</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>10793</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>10793</v>
       </c>
     </row>
@@ -6673,31 +6667,31 @@
         <v>0.26385259631490787</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" ref="P36:R36" si="120">P20/L20-1</f>
+        <f t="shared" ref="P36:R36" si="121">P20/L20-1</f>
         <v>0.40230900258658764</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.37387290836084075</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.43594816839553041</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36" si="121">S20/O20-1</f>
+        <f t="shared" ref="S36" si="122">S20/O20-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="122">T20/P20-1</f>
+        <f t="shared" ref="T36" si="123">T20/P20-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36" si="123">U20/Q20-1</f>
+        <f t="shared" ref="U36" si="124">U20/Q20-1</f>
         <v>0.15255083467679031</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36" si="124">V20/R20-1</f>
+        <f t="shared" ref="V36" si="125">V20/R20-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="W36" s="10">
@@ -6705,7 +6699,7 @@
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36:AE36" si="125">X20/T20-1</f>
+        <f t="shared" ref="X36:AE36" si="126">X20/T20-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Y36" s="10">
@@ -6713,7 +6707,7 @@
         <v>0.14699671515720314</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="AA36" s="10">
@@ -6721,19 +6715,19 @@
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="AB36" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.10845967302901816</v>
       </c>
       <c r="AC36" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.125742519728405</v>
       </c>
       <c r="AD36" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.13911825420230017</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.12527677884388888</v>
       </c>
       <c r="AF36" s="10">
@@ -6741,119 +6735,119 @@
         <v>0.10116607011303502</v>
       </c>
       <c r="AG36" s="10">
-        <f t="shared" ref="AG36:AL36" si="126">AG20/AC20-1</f>
+        <f t="shared" ref="AG36:AL36" si="127">AG20/AC20-1</f>
         <v>0.11038348371225104</v>
       </c>
       <c r="AH36" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.10491230341078239</v>
       </c>
       <c r="AI36" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>8.6202926461660834E-2</v>
       </c>
       <c r="AJ36" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK36" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL36" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36:AR36" si="127">AQ20/AP20-1</f>
+        <f t="shared" ref="AQ36:AR36" si="128">AQ20/AP20-1</f>
         <v>3.1263372285789677</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1.6890585567192891</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" ref="AS36" si="128">AS20/AR20-1</f>
+        <f t="shared" ref="AS36" si="129">AS20/AR20-1</f>
         <v>0.68430132470321792</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" ref="AT36" si="129">AT20/AS20-1</f>
+        <f t="shared" ref="AT36" si="130">AT20/AS20-1</f>
         <v>0.1305040617556299</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" ref="AU36" si="130">AU20/AT20-1</f>
+        <f t="shared" ref="AU36" si="131">AU20/AT20-1</f>
         <v>0.25957418461821291</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" ref="AV36" si="131">AV20/AU20-1</f>
+        <f t="shared" ref="AV36" si="132">AV20/AU20-1</f>
         <v>0.3383637567455966</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="132">AW20/AV20-1</f>
+        <f t="shared" ref="AW36" si="133">AW20/AV20-1</f>
         <v>0.31485481977597884</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="133">AX20/AW20-1</f>
+        <f t="shared" ref="AX36" si="134">AX20/AW20-1</f>
         <v>0.22670134373645423</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="134">AY20/AX20-1</f>
+        <f t="shared" ref="AY36" si="135">AY20/AX20-1</f>
         <v>0.26160188457008249</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" ref="AZ36" si="135">AZ20/AY20-1</f>
+        <f t="shared" ref="AZ36" si="136">AZ20/AY20-1</f>
         <v>0.38502474092054895</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" ref="BA36" si="136">BA20/AZ20-1</f>
+        <f t="shared" ref="BA36" si="137">BA20/AZ20-1</f>
         <v>0.29194472531176263</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" ref="BB36" si="137">BB20/BA20-1</f>
+        <f t="shared" ref="BB36" si="138">BB20/BA20-1</f>
         <v>0.27877491391004905</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" ref="BC36" si="138">BC20/BB20-1</f>
+        <f t="shared" ref="BC36" si="139">BC20/BB20-1</f>
         <v>0.39556897466236896</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" ref="BD36" si="139">BD20/BC20-1</f>
+        <f t="shared" ref="BD36" si="140">BD20/BC20-1</f>
         <v>0.40559583674424049</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" ref="BE36" si="140">BE20/BD20-1</f>
+        <f t="shared" ref="BE36" si="141">BE20/BD20-1</f>
         <v>0.27073236682821311</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" ref="BF36:BJ36" si="141">BF20/BE20-1</f>
+        <f t="shared" ref="BF36:BJ36" si="142">BF20/BE20-1</f>
         <v>0.21866662301736706</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.1952398861011122</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="BJ36" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="BK36" s="15">
-        <f t="shared" ref="BK36" si="142">BK20/BJ20-1</f>
+        <f t="shared" ref="BK36" si="143">BK20/BJ20-1</f>
         <v>0.3093396152159491</v>
       </c>
       <c r="BL36" s="15">
-        <f t="shared" ref="BL36" si="143">BL20/BK20-1</f>
+        <f t="shared" ref="BL36" si="144">BL20/BK20-1</f>
         <v>0.20454125820676983</v>
       </c>
       <c r="BM36" s="15">
-        <f t="shared" ref="BM36" si="144">BM20/BL20-1</f>
+        <f t="shared" ref="BM36" si="145">BM20/BL20-1</f>
         <v>0.37623430604373276</v>
       </c>
       <c r="BN36" s="15">
@@ -6861,7 +6855,7 @@
         <v>0.21695366571345676</v>
       </c>
       <c r="BO36" s="15">
-        <f t="shared" ref="BO36:BW36" si="145">BO20/BN20-1</f>
+        <f t="shared" ref="BO36:BW36" si="146">BO20/BN20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="BP36" s="15">
@@ -6869,31 +6863,31 @@
         <v>0.1182957412988368</v>
       </c>
       <c r="BQ36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.1099089224666614</v>
       </c>
       <c r="BR36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>6.9019247318401256E-2</v>
       </c>
       <c r="BS36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>8.4513716431073416E-2</v>
       </c>
       <c r="BT36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>8.7440978564362837E-2</v>
       </c>
       <c r="BU36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>7.1491258309231309E-2</v>
       </c>
       <c r="BV36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>6.153296719126522E-2</v>
       </c>
       <c r="BW36" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>6.1950890177211004E-2</v>
       </c>
     </row>
@@ -6997,99 +6991,99 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f t="shared" ref="O38:R39" si="146">+O18/K18-1</f>
+        <f t="shared" ref="O38:R39" si="147">+O18/K18-1</f>
         <v>0.22045911968030807</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.40127175368139234</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.32844988168957356</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.40588025800324479</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" ref="S38:W38" si="147">+S18/O18-1</f>
+        <f t="shared" ref="S38:W38" si="148">+S18/O18-1</f>
         <v>0.37403503740350375</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.15444630204601539</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>3.9830219426232549E-2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>5.0664264805224679E-3</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-1.8020211859247515E-2</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" ref="X38:AF38" si="148">+X18/T18-1</f>
+        <f t="shared" ref="X38:AF38" si="149">+X18/T18-1</f>
         <v>-2.4636231984001111E-2</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>8.1347036956046281E-2</v>
       </c>
       <c r="Z38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-1.2392181023860194E-2</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9.317155256398868E-3</v>
       </c>
       <c r="AB38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>4.342907644719407E-2</v>
       </c>
       <c r="AC38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>6.4560161779575242E-2</v>
       </c>
       <c r="AD38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>8.7507620762501626E-2</v>
       </c>
       <c r="AE38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>6.9040557378775347E-2</v>
       </c>
       <c r="AF38" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" ref="AG38:AL38" si="149">+AG18/AC18-1</f>
+        <f t="shared" ref="AG38:AL38" si="150">+AG18/AC18-1</f>
         <v>7.0127115290243847E-2</v>
       </c>
       <c r="AH38" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>7.200500632309037E-2</v>
       </c>
       <c r="AI38" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>5.0151850939834208E-2</v>
       </c>
       <c r="AJ38" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-1</v>
       </c>
       <c r="AK38" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-1</v>
       </c>
       <c r="AL38" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-1</v>
       </c>
       <c r="BF38" s="13"/>
@@ -7121,55 +7115,55 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.32238265727662596</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.40365906780891536</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.43351512146752613</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.47713782355332701</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="150">+S19/O19-1</f>
+        <f t="shared" ref="S39" si="151">+S19/O19-1</f>
         <v>0.5181636964089138</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="151">+T19/P19-1</f>
+        <f t="shared" ref="T39" si="152">+T19/P19-1</f>
         <v>0.42433019551049966</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="152">+U19/Q19-1</f>
+        <f t="shared" ref="U39" si="153">+U19/Q19-1</f>
         <v>0.28970971386410271</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="153">+V19/R19-1</f>
+        <f t="shared" ref="V39" si="154">+V19/R19-1</f>
         <v>0.21095799922934355</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39:AA39" si="154">+W19/S19-1</f>
+        <f t="shared" ref="W39:AA39" si="155">+W19/S19-1</f>
         <v>0.17563250827993016</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.17399593289273008</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.21140231693363853</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.19208739923631746</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.17316508026471511</v>
       </c>
       <c r="AB39" s="8">
@@ -7193,27 +7187,27 @@
         <v>0.14675319504717921</v>
       </c>
       <c r="AG39" s="8">
-        <f t="shared" ref="AG39:AL39" si="155">+AG19/AC19-1</f>
+        <f t="shared" ref="AG39:AL39" si="156">+AG19/AC19-1</f>
         <v>0.14220642706977671</v>
       </c>
       <c r="AH39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.13197795363400466</v>
       </c>
       <c r="AI39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.11285468093885775</v>
       </c>
       <c r="AJ39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-1</v>
       </c>
       <c r="AK39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-1</v>
       </c>
       <c r="AL39" s="8">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-1</v>
       </c>
       <c r="BF39" s="13"/>
@@ -7240,39 +7234,39 @@
         <v>56</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40" si="156">+N11/J11-1</f>
+        <f t="shared" ref="N40" si="157">+N11/J11-1</f>
         <v>0.14652704535181549</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" ref="O40" si="157">+O11/K11-1</f>
+        <f t="shared" ref="O40" si="158">+O11/K11-1</f>
         <v>0.24252491694352152</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="158">+P11/L11-1</f>
+        <f t="shared" ref="P40" si="159">+P11/L11-1</f>
         <v>0.47798924419540789</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="159">+Q11/M11-1</f>
+        <f t="shared" ref="Q40" si="160">+Q11/M11-1</f>
         <v>0.37989097862381915</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:V40" si="160">+R11/N11-1</f>
+        <f t="shared" ref="R40:V40" si="161">+R11/N11-1</f>
         <v>0.45543947258908823</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.44333187820582776</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.15820550810528156</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>3.2926577042399208E-2</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-5.6583046154309313E-3</v>
       </c>
       <c r="W40" s="8">
@@ -7280,31 +7274,31 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" ref="X40:AD40" si="161">+X11/T11-1</f>
+        <f t="shared" ref="X40:AD40" si="162">+X11/T11-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7.0631344762474457E-2</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>9.3164525576854507E-2</v>
       </c>
       <c r="AE40" s="8">
@@ -7316,36 +7310,36 @@
         <v>4.5802967941698469E-2</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40:AL40" si="162">+AG11/AC11-1</f>
+        <f t="shared" ref="AG40:AL40" si="163">+AG11/AC11-1</f>
         <v>7.2362791834738927E-2</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>7.1063039564520869E-2</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>5.0064020486555671E-2</v>
       </c>
       <c r="AJ40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="AL40" s="8">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1</v>
       </c>
       <c r="BK40" s="13"/>
       <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="163">BL11/BK11-1</f>
+        <f t="shared" ref="BL40" si="164">BL11/BK11-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="164">BM11/BL11-1</f>
+        <f t="shared" ref="BM40" si="165">BM11/BL11-1</f>
         <v>0.39719073679440986</v>
       </c>
       <c r="BN40" s="13">
@@ -7353,39 +7347,39 @@
         <v>0.12529072860769497</v>
       </c>
       <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="165">BO11/BN11-1</f>
+        <f t="shared" ref="BO40:BW40" si="166">BO11/BN11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
       <c r="BP40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.3944473736841081E-2</v>
       </c>
       <c r="BQ40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>6.5367961634005045E-2</v>
       </c>
       <c r="BR40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW40" s="13">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7394,39 +7388,39 @@
         <v>57</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:V41" si="166">+N13/J13-1</f>
+        <f t="shared" ref="N41:V41" si="167">+N13/J13-1</f>
         <v>0.30359411193304942</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.54677565849227983</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.56637624670411557</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.63747496374058987</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.37867546029128873</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.18672930123311793</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.10952537783144867</v>
       </c>
       <c r="W41" s="8">
@@ -7434,72 +7428,72 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AD41" si="167">+X13/T13-1</f>
+        <f t="shared" ref="X41:AD41" si="168">+X13/T13-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.177027827116637</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.18103448275862077</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.19800460475825021</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.19868460882247718</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" ref="AE41:AL43" si="168">+AE13/AA13-1</f>
+        <f t="shared" ref="AE41:AL43" si="169">+AE13/AA13-1</f>
         <v>0.16016096579476868</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.11966472844240994</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.10255663618892319</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>9.0130627424872101E-2</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>5.538212510116769E-2</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="BK41" s="13"/>
       <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="169">BL13/BK13-1</f>
+        <f t="shared" ref="BL41" si="170">BL13/BK13-1</f>
         <v>0.25771435255585451</v>
       </c>
       <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="170">BM13/BL13-1</f>
+        <f t="shared" ref="BM41" si="171">BM13/BL13-1</f>
         <v>0.4961961273041795</v>
       </c>
       <c r="BN41" s="13">
@@ -7507,39 +7501,39 @@
         <v>0.28505538495965776</v>
       </c>
       <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="171">BO13/BN13-1</f>
+        <f t="shared" ref="BO41:BW41" si="172">BO13/BN13-1</f>
         <v>0.13882708047133496</v>
       </c>
       <c r="BP41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.18975330456352579</v>
       </c>
       <c r="BQ41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.11490649968226307</v>
       </c>
       <c r="BR41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW41" s="13">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7548,39 +7542,39 @@
         <v>58</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:V43" si="172">+N14/J14-1</f>
+        <f t="shared" ref="N42:V43" si="173">+N14/J14-1</f>
         <v>0.3223036120232381</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.32580189630825096</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.34880611270296091</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.36429085673146155</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.31555333998005985</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.23980523432744971</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.15040362554878905</v>
       </c>
       <c r="W42" s="8">
@@ -7588,72 +7582,72 @@
         <v>0.10949868073878632</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42:AD43" si="173">+X14/T14-1</f>
+        <f t="shared" ref="X42:AD43" si="174">+X14/T14-1</f>
         <v>0.10092206643930779</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>9.2660775650466265E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.13123230333620572</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.14827586206896548</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.13515374024782001</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.14231158036616876</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.14136467515507678</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.22439681060370709</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>9.824135839902981E-2</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.10894788593903648</v>
       </c>
       <c r="AH42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.64836003051106017</v>
       </c>
       <c r="AI42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.17735115020297698</v>
       </c>
       <c r="AJ42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="AK42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="AL42" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="BK42" s="13"/>
       <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="174">BL14/BK14-1</f>
+        <f t="shared" ref="BL42" si="175">BL14/BK14-1</f>
         <v>0.35596809486835612</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="175">BM14/BL14-1</f>
+        <f t="shared" ref="BM42" si="176">BM14/BL14-1</f>
         <v>0.31218115564810001</v>
       </c>
       <c r="BN42" s="13">
@@ -7661,39 +7655,39 @@
         <v>0.26028484151227826</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="176">BO14/BN14-1</f>
+        <f t="shared" ref="BO42:BW42" si="177">BO14/BN14-1</f>
         <v>0.10859984890455809</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.14171730365154178</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.27473948618468502</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BU42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7702,152 +7696,152 @@
         <v>59</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.50529838259899607</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.53701380175658731</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.63364055299539168</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.76522151149016815</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.41015190811411628</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.32190476190476192</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W43" si="177">+W15/S15-1</f>
+        <f t="shared" ref="W43" si="178">+W15/S15-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25433526011560703</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.18948126801152743</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.21993833504624871</v>
       </c>
       <c r="AC43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.26309174696271476</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.26797611836981905</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.12756336102639598</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.19545071609098574</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.18830845771144289</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-0.21468541012692777</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>9.2613318410744272E-2</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>-1</v>
       </c>
       <c r="BK43" s="13"/>
       <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="178">BL15/BK15-1</f>
+        <f t="shared" ref="BL43" si="179">BL15/BK15-1</f>
         <v>0.39354966363276622</v>
       </c>
       <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="179">BM15/BL15-1</f>
+        <f t="shared" ref="BM43:BN43" si="180">BM15/BL15-1</f>
         <v>0.4819679114013915</v>
       </c>
       <c r="BN43" s="13">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.49269461077844312</v>
       </c>
       <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="180">BO15/BN15-1</f>
+        <f t="shared" ref="BO43:BW43" si="181">BO15/BN15-1</f>
         <v>0.21113607188703476</v>
       </c>
       <c r="BP43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.24290521741434601</v>
       </c>
       <c r="BQ43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5.1720462200997686E-2</v>
       </c>
       <c r="BR43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BT43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.10000000000000031</v>
       </c>
       <c r="BU43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW43" s="13">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7856,71 +7850,71 @@
         <v>39</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44:O44" si="181">N9/J9-1</f>
+        <f t="shared" ref="N44:O44" si="182">N9/J9-1</f>
         <v>0.33970390309555865</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="182">P9/L9-1</f>
+        <f t="shared" ref="P44" si="183">P9/L9-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="183">Q9/M9-1</f>
+        <f t="shared" ref="Q44" si="184">Q9/M9-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="184">R9/N9-1</f>
+        <f t="shared" ref="R44" si="185">R9/N9-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" ref="S44" si="185">S9/O9-1</f>
+        <f t="shared" ref="S44" si="186">S9/O9-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44" si="186">T9/P9-1</f>
+        <f t="shared" ref="T44" si="187">T9/P9-1</f>
         <v>0.37018874907475952</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44" si="187">U9/Q9-1</f>
+        <f t="shared" ref="U44" si="188">U9/Q9-1</f>
         <v>0.3886733902249806</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" ref="V44:AA44" si="188">V9/R9-1</f>
+        <f t="shared" ref="V44:AA44" si="189">V9/R9-1</f>
         <v>0.39538533982106427</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.36569651188624741</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.33290566547369838</v>
       </c>
       <c r="Y44" s="8">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="Z44" s="8">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="AA44" s="8">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.157963234097934</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AD44" si="189">AB9/X9-1</f>
+        <f t="shared" ref="AB44:AD44" si="190">AB9/X9-1</f>
         <v>0.12163736764780375</v>
       </c>
       <c r="AC44" s="8">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.1227480767358069</v>
       </c>
       <c r="AD44" s="8">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.13219197305641317</v>
       </c>
       <c r="AE44" s="8">
@@ -7932,51 +7926,51 @@
         <v>0.18703703703703711</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" ref="AG44:AL44" si="190">AG9/AC9-1</f>
+        <f t="shared" ref="AG44:AL44" si="191">AG9/AC9-1</f>
         <v>0.1905112971074201</v>
       </c>
       <c r="AH44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.189307552470666</v>
       </c>
       <c r="AI44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.1689499540679793</v>
       </c>
       <c r="AJ44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL44" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="191">BH9/BG9-1</f>
+        <f t="shared" ref="BH44:BJ44" si="192">BH9/BG9-1</f>
         <v>0.69681309216192933</v>
       </c>
       <c r="BI44" s="13">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.55063451776649752</v>
       </c>
       <c r="BJ44" s="13">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.42884033063262139</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="192">BK9/BJ9-1</f>
+        <f t="shared" ref="BK44" si="193">BK9/BJ9-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="193">BL9/BK9-1</f>
+        <f t="shared" ref="BL44" si="194">BL9/BK9-1</f>
         <v>0.36526992788930035</v>
       </c>
       <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="194">BM9/BL9-1</f>
+        <f t="shared" ref="BM44" si="195">BM9/BL9-1</f>
         <v>0.29532347399074976</v>
       </c>
       <c r="BN44" s="13">
@@ -7984,39 +7978,39 @@
         <v>0.37099404893101173</v>
       </c>
       <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="195">BO9/BN9-1</f>
+        <f t="shared" ref="BO44:BW44" si="196">BO9/BN9-1</f>
         <v>0.28767563743931057</v>
       </c>
       <c r="BP44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.13310277666799841</v>
       </c>
       <c r="BQ44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.18509867007503544</v>
       </c>
       <c r="BR44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.11605024359403471</v>
       </c>
       <c r="BS44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BT44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BU44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BV44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BW44" s="13">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -8032,27 +8026,27 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
-        <f t="shared" ref="J45:O45" si="196">J23/J20</f>
+        <f t="shared" ref="J45:O45" si="197">J23/J20</f>
         <v>0.24272273876462705</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.28775544388609714</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.26452894357039769</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.26061602078142393</v>
       </c>
       <c r="P45" s="16">
@@ -8072,11 +8066,11 @@
         <v>0.2726275825208721</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" ref="T45:W45" si="197">T23/T20</f>
+        <f t="shared" ref="T45:W45" si="198">T23/T20</f>
         <v>0.27649451715599577</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0.26516983720174708</v>
       </c>
       <c r="V45" s="16">
@@ -8084,11 +8078,11 @@
         <v>0.23383692836142403</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0.25483494211809971</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" ref="X45:AD45" si="198">X23/X20</f>
+        <f t="shared" ref="X45:AD45" si="199">X23/X20</f>
         <v>0.2843096821023805</v>
       </c>
       <c r="Y45" s="16">
@@ -8104,15 +8098,15 @@
         <v>0.30356946560090453</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.32522714926739243</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.3197235171194342</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.30191043827701647</v>
       </c>
       <c r="AE45" s="17">
@@ -8124,55 +8118,55 @@
         <v>0.3421251807701145</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AL45" si="199">AG23/AG20</f>
+        <f t="shared" ref="AG45:AL45" si="200">AG23/AG20</f>
         <v>0.33510199714244354</v>
       </c>
       <c r="AH45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.32449199113913268</v>
       </c>
       <c r="AI45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.34752388110517962</v>
       </c>
       <c r="AJ45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.34</v>
       </c>
       <c r="AK45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.34</v>
       </c>
       <c r="AL45" s="16">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.34</v>
       </c>
       <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="200">BG23/BG20</f>
+        <f t="shared" ref="BG45:BI45" si="201">BG23/BG20</f>
         <v>0.17384366431428958</v>
       </c>
       <c r="BH45" s="14">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.20508195802104554</v>
       </c>
       <c r="BI45" s="14">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.22136674829211617</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="201">BJ23/BJ20</f>
+        <f t="shared" ref="BJ45" si="202">BJ23/BJ20</f>
         <v>0.22872836854710848</v>
       </c>
       <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="202">BK23/BK20</f>
+        <f t="shared" ref="BK45:BL45" si="203">BK23/BK20</f>
         <v>0.25636467471348767</v>
       </c>
       <c r="BL45" s="14">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.26648533804835273</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="203">BM23/BM20</f>
+        <f t="shared" ref="BM45" si="204">BM23/BM20</f>
         <v>0.24410719466202496</v>
       </c>
       <c r="BN45" s="14">
@@ -8180,39 +8174,39 @@
         <v>0.26045395915900066</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="204">BO23/BO20</f>
+        <f t="shared" ref="BO45:BW45" si="205">BO23/BO20</f>
         <v>0.27404213758042584</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.31216367859286515</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.28660196031406404</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.29200254197107889</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.29749298092248055</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.30287569572025252</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.30281801693000276</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.30278740073832278</v>
       </c>
       <c r="BW45" s="14">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.302756032131345</v>
       </c>
       <c r="BY45" t="s">
@@ -8235,75 +8229,75 @@
         <v>75</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:P47" si="205">+O48-O61</f>
+        <f t="shared" ref="O47:P47" si="206">+O48-O61</f>
         <v>25855</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>38263</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="206">+Q48-Q61</f>
+        <f t="shared" ref="Q47" si="207">+Q48-Q61</f>
         <v>35473</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" ref="R47:AB47" si="207">+R48-R61</f>
+        <f t="shared" ref="R47:AB47" si="208">+R48-R61</f>
         <v>52580</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>41402</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>39615</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>28933</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>47305</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>18829</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>2657</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>-257</v>
       </c>
       <c r="Z47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>2876</v>
       </c>
       <c r="AA47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>-2679</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>878</v>
       </c>
       <c r="AC47" s="4">
-        <f t="shared" ref="AC47:AD47" si="208">+AC48-AC61</f>
+        <f t="shared" ref="AC47:AD47" si="209">+AC48-AC61</f>
         <v>3071</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>28466</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" ref="AE47:AF47" si="209">+AE48-AE61</f>
+        <f t="shared" ref="AE47:AF47" si="210">+AE48-AE61</f>
         <v>27440</v>
       </c>
       <c r="AF47" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>34203</v>
       </c>
       <c r="AG47" s="4">
@@ -8326,11 +8320,11 @@
       <c r="AO47" s="4"/>
       <c r="AP47" s="4"/>
       <c r="BO47" s="2">
-        <f>+Z47</f>
+        <f>+BO48-BO61</f>
         <v>2876</v>
       </c>
       <c r="BP47" s="2">
-        <f>+AD47</f>
+        <f>+BP48-BP61</f>
         <v>28466</v>
       </c>
       <c r="BQ47" s="2">
@@ -8338,27 +8332,27 @@
         <v>48579</v>
       </c>
       <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="210">+BQ47+BR32</f>
+        <f t="shared" ref="BR47:BW47" si="211">+BQ47+BR32</f>
         <v>90385.933629999927</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>146469.41529975491</v>
       </c>
       <c r="BT47" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>219112.1204524698</v>
       </c>
       <c r="BU47" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>303063.27064970043</v>
       </c>
       <c r="BV47" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>397161.62444765843</v>
       </c>
       <c r="BW47" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>502302.40315255587</v>
       </c>
       <c r="BY47" t="s">
@@ -8468,6 +8462,14 @@
         <f>66207+28358</f>
         <v>94565</v>
       </c>
+      <c r="BO48" s="2">
+        <f>+Z48</f>
+        <v>70026</v>
+      </c>
+      <c r="BP48" s="2">
+        <f>+AD48</f>
+        <v>86780</v>
+      </c>
       <c r="BQ48" s="2">
         <f>+AH48</f>
         <v>101202</v>
@@ -8477,7 +8479,7 @@
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BR32:EI32)+Main!K5-Main!K6</f>
-        <v>1199599.8563311039</v>
+        <v>1198848.8563311039</v>
       </c>
     </row>
     <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8559,13 +8561,21 @@
       <c r="AI49" s="2">
         <v>35864</v>
       </c>
+      <c r="BO49" s="2">
+        <f t="shared" ref="BO49:BO54" si="212">+Z49</f>
+        <v>34405</v>
+      </c>
+      <c r="BP49" s="2">
+        <f t="shared" ref="BP49:BP54" si="213">+AD49</f>
+        <v>33318</v>
+      </c>
       <c r="BQ49" s="2">
-        <f t="shared" ref="BQ49:BQ54" si="211">+AH49</f>
+        <f t="shared" ref="BQ49:BQ54" si="214">+AH49</f>
         <v>34214</v>
       </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>111.37311821846662</v>
+        <v>111.07651777365922</v>
       </c>
     </row>
     <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8647,8 +8657,16 @@
       <c r="AI50" s="2">
         <v>54216</v>
       </c>
+      <c r="BO50" s="2">
+        <f t="shared" si="212"/>
+        <v>42360</v>
+      </c>
+      <c r="BP50" s="2">
+        <f t="shared" si="213"/>
+        <v>52253</v>
+      </c>
       <c r="BQ50" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>55451</v>
       </c>
     </row>
@@ -8731,8 +8749,16 @@
       <c r="AI51" s="2">
         <v>272781</v>
       </c>
+      <c r="BO51" s="2">
+        <f t="shared" si="212"/>
+        <v>186715</v>
+      </c>
+      <c r="BP51" s="2">
+        <f t="shared" si="213"/>
+        <v>204177</v>
+      </c>
       <c r="BQ51" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>252665</v>
       </c>
     </row>
@@ -8815,8 +8841,16 @@
       <c r="AI52" s="2">
         <v>78495</v>
       </c>
+      <c r="BO52" s="2">
+        <f t="shared" si="212"/>
+        <v>66123</v>
+      </c>
+      <c r="BP52" s="2">
+        <f t="shared" si="213"/>
+        <v>72513</v>
+      </c>
       <c r="BQ52" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>76141</v>
       </c>
     </row>
@@ -8900,8 +8934,16 @@
       <c r="AI53" s="2">
         <v>23089</v>
       </c>
+      <c r="BO53" s="2">
+        <f t="shared" si="212"/>
+        <v>20288</v>
+      </c>
+      <c r="BP53" s="2">
+        <f t="shared" si="213"/>
+        <v>22789</v>
+      </c>
       <c r="BQ53" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>23074</v>
       </c>
     </row>
@@ -8984,8 +9026,16 @@
       <c r="AI54" s="2">
         <v>84246</v>
       </c>
+      <c r="BO54" s="2">
+        <f t="shared" si="212"/>
+        <v>42758</v>
+      </c>
+      <c r="BP54" s="2">
+        <f t="shared" si="213"/>
+        <v>56024</v>
+      </c>
       <c r="BQ54" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>82147</v>
       </c>
     </row>
@@ -9006,88 +9056,96 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:P55" si="212">SUM(O48:O54)</f>
+        <f t="shared" ref="O55:P55" si="215">SUM(O48:O54)</f>
         <v>221238</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>258314</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" ref="Q55" si="213">SUM(Q48:Q54)</f>
+        <f t="shared" ref="Q55" si="216">SUM(Q48:Q54)</f>
         <v>282179</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55:AB55" si="214">SUM(R48:R54)</f>
+        <f t="shared" ref="R55:AB55" si="217">SUM(R48:R54)</f>
         <v>321195</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>323077</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>360319</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>382406</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>420549</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>410767</v>
       </c>
       <c r="X55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>419728</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>428362</v>
       </c>
       <c r="Z55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>462675</v>
       </c>
       <c r="AA55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>464378</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>477607</v>
       </c>
       <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AD55" si="215">SUM(AC48:AC54)</f>
+        <f t="shared" ref="AC55:AD55" si="218">SUM(AC48:AC54)</f>
         <v>486883</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>527854</v>
       </c>
       <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AI55" si="216">SUM(AE48:AE54)</f>
+        <f t="shared" ref="AE55:AI55" si="219">SUM(AE48:AE54)</f>
         <v>530969</v>
       </c>
       <c r="AF55" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>554818</v>
       </c>
       <c r="AG55" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>584626</v>
       </c>
       <c r="AH55" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>624894</v>
       </c>
       <c r="AI55" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>643256</v>
+      </c>
+      <c r="BO55" s="2">
+        <f>SUM(BO48:BO54)</f>
+        <v>462675</v>
+      </c>
+      <c r="BP55" s="2">
+        <f>SUM(BP48:BP54)</f>
+        <v>527854</v>
       </c>
       <c r="BQ55" s="2">
         <f>SUM(BQ48:BQ54)</f>
@@ -9173,8 +9231,16 @@
       <c r="AI57" s="2">
         <v>89241</v>
       </c>
+      <c r="BO57" s="2">
+        <f t="shared" ref="BO57:BO63" si="220">+Z57</f>
+        <v>79600</v>
+      </c>
+      <c r="BP57" s="2">
+        <f t="shared" ref="BP57:BP63" si="221">+AD57</f>
+        <v>84981</v>
+      </c>
       <c r="BQ57" s="2">
-        <f t="shared" ref="BQ57:BQ63" si="217">+AH57</f>
+        <f t="shared" ref="BQ57:BQ63" si="222">+AH57</f>
         <v>94363</v>
       </c>
     </row>
@@ -9257,8 +9323,16 @@
       <c r="AI58" s="2">
         <v>66331</v>
       </c>
+      <c r="BO58" s="2">
+        <f t="shared" si="220"/>
+        <v>62566</v>
+      </c>
+      <c r="BP58" s="2">
+        <f t="shared" si="221"/>
+        <v>64709</v>
+      </c>
       <c r="BQ58" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>66965</v>
       </c>
     </row>
@@ -9341,8 +9415,16 @@
       <c r="AI59" s="2">
         <v>20599</v>
       </c>
+      <c r="BO59" s="2">
+        <f t="shared" si="220"/>
+        <v>13227</v>
+      </c>
+      <c r="BP59" s="2">
+        <f t="shared" si="221"/>
+        <v>15227</v>
+      </c>
       <c r="BQ59" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>18103</v>
       </c>
     </row>
@@ -9425,8 +9507,16 @@
       <c r="AI60" s="2">
         <v>79871</v>
       </c>
+      <c r="BO60" s="2">
+        <f t="shared" si="220"/>
+        <v>72968</v>
+      </c>
+      <c r="BP60" s="2">
+        <f t="shared" si="221"/>
+        <v>77297</v>
+      </c>
       <c r="BQ60" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>78277</v>
       </c>
     </row>
@@ -9509,8 +9599,16 @@
       <c r="AI61" s="2">
         <v>53374</v>
       </c>
+      <c r="BO61" s="2">
+        <f t="shared" si="220"/>
+        <v>67150</v>
+      </c>
+      <c r="BP61" s="2">
+        <f t="shared" si="221"/>
+        <v>58314</v>
+      </c>
       <c r="BQ61" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>52623</v>
       </c>
     </row>
@@ -9593,8 +9691,16 @@
       <c r="AI62" s="2">
         <v>27973</v>
       </c>
+      <c r="BO62" s="2">
+        <f t="shared" si="220"/>
+        <v>21121</v>
+      </c>
+      <c r="BP62" s="2">
+        <f t="shared" si="221"/>
+        <v>25451</v>
+      </c>
       <c r="BQ62" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>28593</v>
       </c>
     </row>
@@ -9677,8 +9783,16 @@
       <c r="AI63" s="2">
         <v>305867</v>
       </c>
+      <c r="BO63" s="2">
+        <f t="shared" si="220"/>
+        <v>146043</v>
+      </c>
+      <c r="BP63" s="2">
+        <f t="shared" si="221"/>
+        <v>201875</v>
+      </c>
       <c r="BQ63" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>285970</v>
       </c>
     </row>
@@ -9699,71 +9813,71 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:P64" si="218">SUM(O57:O63)</f>
+        <f t="shared" ref="O64:P64" si="223">SUM(O57:O63)</f>
         <v>221238</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>258314</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" ref="Q64" si="219">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64" si="224">SUM(Q57:Q63)</f>
         <v>282179</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" ref="R64:AB64" si="220">SUM(R57:R63)</f>
+        <f t="shared" ref="R64:AB64" si="225">SUM(R57:R63)</f>
         <v>321195</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>323077</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>360319</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>382406</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>420549</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>410767</v>
       </c>
       <c r="X64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>419728</v>
       </c>
       <c r="Y64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>428362</v>
       </c>
       <c r="Z64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>462675</v>
       </c>
       <c r="AA64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>464378</v>
       </c>
       <c r="AB64" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>477607</v>
       </c>
       <c r="AC64" s="4">
-        <f t="shared" ref="AC64:AD64" si="221">SUM(AC57:AC63)</f>
+        <f t="shared" ref="AC64:AD64" si="226">SUM(AC57:AC63)</f>
         <v>486883</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>527854</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" ref="AE64" si="222">SUM(AE57:AE63)</f>
+        <f t="shared" ref="AE64" si="227">SUM(AE57:AE63)</f>
         <v>530969</v>
       </c>
       <c r="AF64" s="4">
@@ -9781,6 +9895,14 @@
       <c r="AI64" s="4">
         <f>SUM(AI57:AI63)</f>
         <v>643256</v>
+      </c>
+      <c r="BO64" s="2">
+        <f>SUM(BO57:BO63)</f>
+        <v>462675</v>
+      </c>
+      <c r="BP64" s="2">
+        <f>SUM(BP57:BP63)</f>
+        <v>527854</v>
       </c>
       <c r="BQ64" s="2">
         <f>SUM(BQ57:BQ63)</f>
@@ -9804,71 +9926,71 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:Q66" si="223">+O32</f>
+        <f t="shared" ref="O66:Q66" si="228">+O32</f>
         <v>2535</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>5243</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>6331</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" ref="R66:V66" si="224">+R32</f>
+        <f t="shared" ref="R66:V66" si="229">+R32</f>
         <v>7222</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="229"/>
         <v>8107</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="229"/>
         <v>7778</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="229"/>
         <v>3156</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="229"/>
         <v>14323</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" ref="W66:AE66" si="225">+W32</f>
+        <f t="shared" ref="W66:AE66" si="230">+W32</f>
         <v>-3844</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>2982</v>
       </c>
       <c r="Y66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>2872</v>
       </c>
       <c r="Z66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>3247</v>
       </c>
       <c r="AA66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>3172</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>6750</v>
       </c>
       <c r="AC66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>9879</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>10624</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" si="230"/>
         <v>10431</v>
       </c>
       <c r="AF66" s="4">
@@ -9886,6 +10008,14 @@
       <c r="AI66" s="4">
         <f>+AI32</f>
         <v>17947.835999999999</v>
+      </c>
+      <c r="BO66" s="2">
+        <f>+BO32</f>
+        <v>5257</v>
+      </c>
+      <c r="BP66" s="2">
+        <f>+BP32</f>
+        <v>30425</v>
       </c>
       <c r="BQ66" s="2">
         <f>+BQ32</f>
@@ -9971,6 +10101,14 @@
       <c r="AI67" s="2">
         <v>17127</v>
       </c>
+      <c r="BO67" s="2">
+        <f>SUM(W67:Z67)</f>
+        <v>-2722</v>
+      </c>
+      <c r="BP67" s="2">
+        <f t="shared" ref="BP67:BP73" si="231">SUM(AA67:AD67)</f>
+        <v>30425</v>
+      </c>
       <c r="BQ67" s="2">
         <f>SUM(AE67:AH67)</f>
         <v>59248</v>
@@ -10055,8 +10193,16 @@
       <c r="AI68" s="2">
         <v>14262</v>
       </c>
+      <c r="BO68" s="2">
+        <f t="shared" ref="BO68:BO73" si="232">SUM(W68:Z68)</f>
+        <v>41461</v>
+      </c>
+      <c r="BP68" s="2">
+        <f t="shared" si="231"/>
+        <v>48663</v>
+      </c>
       <c r="BQ68" s="2">
-        <f t="shared" ref="BQ68:BQ72" si="226">SUM(AE68:AH68)</f>
+        <f t="shared" ref="BQ68:BQ72" si="233">SUM(AE68:AH68)</f>
         <v>52795</v>
       </c>
     </row>
@@ -10139,8 +10285,16 @@
       <c r="AI69" s="2">
         <v>3689</v>
       </c>
+      <c r="BO69" s="2">
+        <f t="shared" si="232"/>
+        <v>19621</v>
+      </c>
+      <c r="BP69" s="2">
+        <f t="shared" si="231"/>
+        <v>24023</v>
+      </c>
       <c r="BQ69" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>22011</v>
       </c>
     </row>
@@ -10223,8 +10377,16 @@
       <c r="AI70" s="2">
         <v>-2817</v>
       </c>
+      <c r="BO70" s="2">
+        <f t="shared" si="232"/>
+        <v>3905</v>
+      </c>
+      <c r="BP70" s="2">
+        <f t="shared" si="231"/>
+        <v>-748</v>
+      </c>
       <c r="BQ70" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>2012</v>
       </c>
     </row>
@@ -10292,8 +10454,16 @@
       <c r="AD71" s="2">
         <v>0</v>
       </c>
+      <c r="BO71" s="2">
+        <f t="shared" si="232"/>
+        <v>13521</v>
+      </c>
+      <c r="BP71" s="2">
+        <f t="shared" si="231"/>
+        <v>0</v>
+      </c>
       <c r="BQ71" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>0</v>
       </c>
     </row>
@@ -10376,8 +10546,16 @@
       <c r="AI72" s="2">
         <v>507</v>
       </c>
+      <c r="BO72" s="2">
+        <f t="shared" si="232"/>
+        <v>-8148</v>
+      </c>
+      <c r="BP72" s="2">
+        <f t="shared" si="231"/>
+        <v>-5876</v>
+      </c>
       <c r="BQ72" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>-4648</v>
       </c>
     </row>
@@ -10481,6 +10659,14 @@
         <f>-1222+1247-3402-9043-4061+728</f>
         <v>-15753</v>
       </c>
+      <c r="BO73" s="2">
+        <f t="shared" si="232"/>
+        <v>-20886</v>
+      </c>
+      <c r="BP73" s="2">
+        <f t="shared" si="231"/>
+        <v>-11541</v>
+      </c>
       <c r="BQ73" s="2">
         <f>SUM(AE73:AH73)</f>
         <v>-15541</v>
@@ -10503,87 +10689,87 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4">
-        <f t="shared" ref="O74:Q74" si="227">SUM(O67:O73)</f>
+        <f t="shared" ref="O74:Q74" si="234">SUM(O67:O73)</f>
         <v>3064</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="234"/>
         <v>20606</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" si="234"/>
         <v>11964</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" ref="R74:AI74" si="228">SUM(R67:R73)</f>
+        <f t="shared" ref="R74:AI74" si="235">SUM(R67:R73)</f>
         <v>30430</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>4213</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>12715</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>7313</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>22086</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>-2790</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>8965</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>11404</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>29173</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>4788</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>16476</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>21217</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>42465</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>18989</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>25281</v>
       </c>
       <c r="AG74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>25971</v>
       </c>
       <c r="AH74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>45636</v>
       </c>
       <c r="AI74" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>17015</v>
       </c>
       <c r="AT74" s="2">
@@ -10594,6 +10780,14 @@
       </c>
       <c r="AV74" s="2">
         <v>392.02199999999999</v>
+      </c>
+      <c r="BO74" s="2">
+        <f>SUM(BO67:BO73)</f>
+        <v>46752</v>
+      </c>
+      <c r="BP74" s="2">
+        <f>SUM(BP67:BP73)</f>
+        <v>84946</v>
       </c>
       <c r="BQ74" s="2">
         <f>SUM(BQ67:BQ73)</f>
@@ -10705,8 +10899,16 @@
       <c r="AI76" s="2">
         <v>-25019</v>
       </c>
+      <c r="BO76" s="2">
+        <f t="shared" ref="BO76:BO79" si="236">SUM(W76:Z76)</f>
+        <v>-63645</v>
+      </c>
+      <c r="BP76" s="2">
+        <f>SUM(AA76:AD76)</f>
+        <v>-52729</v>
+      </c>
       <c r="BQ76" s="2">
-        <f t="shared" ref="BQ76:BQ79" si="229">SUM(AE76:AH76)</f>
+        <f t="shared" ref="BQ76:BQ79" si="237">SUM(AE76:AH76)</f>
         <v>-82999</v>
       </c>
     </row>
@@ -10789,8 +10991,16 @@
       <c r="AI77" s="2">
         <v>764</v>
       </c>
+      <c r="BO77" s="2">
+        <f t="shared" si="236"/>
+        <v>5324</v>
+      </c>
+      <c r="BP77" s="2">
+        <f t="shared" ref="BP77:BP79" si="238">SUM(AA77:AD77)</f>
+        <v>4596</v>
+      </c>
       <c r="BQ77" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="237"/>
         <v>5341</v>
       </c>
     </row>
@@ -10873,8 +11083,16 @@
       <c r="AI78" s="2">
         <v>48</v>
       </c>
+      <c r="BO78" s="2">
+        <f t="shared" si="236"/>
+        <v>-8316</v>
+      </c>
+      <c r="BP78" s="2">
+        <f t="shared" si="238"/>
+        <v>-5839</v>
+      </c>
       <c r="BQ78" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="237"/>
         <v>-7082</v>
       </c>
     </row>
@@ -10978,8 +11196,16 @@
         <f>7737-13333</f>
         <v>-5596</v>
       </c>
+      <c r="BO79" s="2">
+        <f t="shared" si="236"/>
+        <v>29036</v>
+      </c>
+      <c r="BP79" s="2">
+        <f t="shared" si="238"/>
+        <v>4139</v>
+      </c>
       <c r="BQ79" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="237"/>
         <v>-9602</v>
       </c>
     </row>
@@ -11000,88 +11226,96 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4">
-        <f t="shared" ref="O80:Q80" si="230">SUM(O76:O79)</f>
+        <f t="shared" ref="O80:Q80" si="239">SUM(O76:O79)</f>
         <v>-8894</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="239"/>
         <v>-17804</v>
       </c>
       <c r="Q80" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="239"/>
         <v>-15876</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" ref="R80:AI80" si="231">SUM(R76:R79)</f>
+        <f t="shared" ref="R80:AI80" si="240">SUM(R76:R79)</f>
         <v>-17038</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-8666</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-22080</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-14828</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-12580</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>906</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-12078</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-15608</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-10821</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-15806</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-9673</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-11753</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-12601</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-17862</v>
       </c>
       <c r="AF80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-22138</v>
       </c>
       <c r="AG80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-16899</v>
       </c>
       <c r="AH80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-37443</v>
       </c>
       <c r="AI80" s="4">
-        <f t="shared" si="231"/>
+        <f t="shared" si="240"/>
         <v>-29803</v>
+      </c>
+      <c r="BO80" s="2">
+        <f>SUM(BO76:BO79)</f>
+        <v>-37601</v>
+      </c>
+      <c r="BP80" s="2">
+        <f>SUM(BP76:BP79)</f>
+        <v>-49833</v>
       </c>
       <c r="BQ80" s="2">
         <f>SUM(BQ76:BQ79)</f>
@@ -11193,8 +11427,16 @@
       <c r="AI82" s="2">
         <v>0</v>
       </c>
+      <c r="BO82" s="2">
+        <f t="shared" ref="BO82:BO85" si="241">SUM(W82:Z82)</f>
+        <v>-6000</v>
+      </c>
+      <c r="BP82" s="2">
+        <f t="shared" ref="BP82:BP83" si="242">SUM(AA82:AD82)</f>
+        <v>0</v>
+      </c>
       <c r="BQ82" s="2">
-        <f t="shared" ref="BQ82:BQ85" si="232">SUM(AE82:AH82)</f>
+        <f t="shared" ref="BQ82:BQ85" si="243">SUM(AE82:AH82)</f>
         <v>0</v>
       </c>
     </row>
@@ -11298,8 +11540,16 @@
         <f>1815-2082+746-410-116</f>
         <v>-47</v>
       </c>
+      <c r="BO83" s="2">
+        <f t="shared" si="241"/>
+        <v>15718</v>
+      </c>
+      <c r="BP83" s="2">
+        <f t="shared" si="242"/>
+        <v>-15879</v>
+      </c>
       <c r="BQ83" s="2">
-        <f t="shared" si="232"/>
+        <f t="shared" si="243"/>
         <v>-11812</v>
       </c>
     </row>
@@ -11320,88 +11570,96 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:Q84" si="233">SUM(O82:O83)</f>
+        <f t="shared" ref="O84:Q84" si="244">SUM(O82:O83)</f>
         <v>-2591</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="244"/>
         <v>7408</v>
       </c>
       <c r="Q84" s="4">
-        <f t="shared" si="233"/>
+        <f t="shared" si="244"/>
         <v>-4105</v>
       </c>
       <c r="R84" s="4">
-        <f t="shared" ref="R84:AI84" si="234">SUM(R82:R83)</f>
+        <f t="shared" ref="R84:AI84" si="245">SUM(R82:R83)</f>
         <v>-1816</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-3476</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>15643</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-2776</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-3100</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>1990</v>
       </c>
       <c r="X84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>4626</v>
       </c>
       <c r="Y84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>3016</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>86</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>6354</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-6539</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-8948</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-6746</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-1256</v>
       </c>
       <c r="AF84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-4490</v>
       </c>
       <c r="AG84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-2758</v>
       </c>
       <c r="AH84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-3308</v>
       </c>
       <c r="AI84" s="4">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>-47</v>
+      </c>
+      <c r="BO84" s="2">
+        <f>+BO83+BO82</f>
+        <v>9718</v>
+      </c>
+      <c r="BP84" s="2">
+        <f>+BP83+BP82</f>
+        <v>-15879</v>
       </c>
       <c r="BQ84" s="2">
         <f>+BQ83+BQ82</f>
@@ -11487,8 +11745,16 @@
       <c r="AI85" s="2">
         <v>416</v>
       </c>
+      <c r="BO85" s="2">
+        <f t="shared" si="241"/>
+        <v>-1093</v>
+      </c>
+      <c r="BP85" s="2">
+        <f>SUM(AA85:AD85)</f>
+        <v>403</v>
+      </c>
       <c r="BQ85" s="2">
-        <f t="shared" si="232"/>
+        <f t="shared" si="243"/>
         <v>-1301</v>
       </c>
     </row>
@@ -11509,7 +11775,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4">
-        <f t="shared" ref="O86" si="235">+O85+O84+O80+O74</f>
+        <f t="shared" ref="O86" si="246">+O85+O84+O80+O74</f>
         <v>-8905</v>
       </c>
       <c r="P86" s="4">
@@ -11521,76 +11787,84 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AI86" si="236">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AI86" si="247">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-8222</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>6512</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-10490</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>6300</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>122</v>
       </c>
       <c r="X86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>1101</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-2522</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>19075</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-4519</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>333</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>14</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>23809</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-558</v>
       </c>
       <c r="AF86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-1659</v>
       </c>
       <c r="AG86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>7004</v>
       </c>
       <c r="AH86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>3635</v>
       </c>
       <c r="AI86" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="247"/>
         <v>-12419</v>
+      </c>
+      <c r="BO86" s="2">
+        <f>+BO85+BO84+BO80+BO74</f>
+        <v>17776</v>
+      </c>
+      <c r="BP86" s="2">
+        <f>+BP85+BP84+BP80+BP74</f>
+        <v>19637</v>
       </c>
       <c r="BQ86" s="2">
         <f>+BQ85+BQ84+BQ80+BQ74</f>
@@ -11688,6 +11962,18 @@
       </c>
       <c r="AQ88" s="2">
         <v>2.1</v>
+      </c>
+      <c r="BO88" s="2">
+        <f>Z88</f>
+        <v>1541</v>
+      </c>
+      <c r="BP88" s="2">
+        <f>+AD88</f>
+        <v>1525</v>
+      </c>
+      <c r="BQ88" s="2">
+        <f>+AH88</f>
+        <v>1556</v>
       </c>
     </row>
     <row r="90" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -11941,51 +12227,51 @@
         <v>102</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="237">+O74+O76+O77</f>
+        <f t="shared" ref="O94:W94" si="248">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>13991</v>
       </c>
       <c r="Q94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>2156</v>
       </c>
       <c r="R94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>17235</v>
       </c>
       <c r="S94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>-6974</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>-273</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>-7438</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>5616</v>
       </c>
       <c r="W94" s="4">
-        <f t="shared" si="237"/>
+        <f t="shared" si="248"/>
         <v>-16532</v>
       </c>
       <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="238">+X74+X76+X77</f>
+        <f t="shared" ref="X94:Z94" si="249">+X74+X76+X77</f>
         <v>-5133</v>
       </c>
       <c r="Y94" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="249"/>
         <v>-3637</v>
       </c>
       <c r="Z94" s="4">
-        <f t="shared" si="238"/>
+        <f t="shared" si="249"/>
         <v>13733</v>
       </c>
       <c r="AA94" s="4">
@@ -11993,36 +12279,44 @@
         <v>-8282</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="239">+AB74+AB76+AB77</f>
+        <f t="shared" ref="AB94:AE94" si="250">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
       <c r="AC94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="250"/>
         <v>9919</v>
       </c>
       <c r="AD94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="250"/>
         <v>29112</v>
       </c>
       <c r="AE94" s="4">
-        <f t="shared" si="239"/>
+        <f t="shared" si="250"/>
         <v>5054</v>
       </c>
       <c r="AF94" s="4">
-        <f t="shared" ref="AF94:AI94" si="240">+AF74+AF76+AF77</f>
+        <f t="shared" ref="AF94:AH94" si="251">+AF74+AF76+AF77</f>
         <v>8888</v>
       </c>
       <c r="AG94" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="251"/>
         <v>4693</v>
       </c>
       <c r="AH94" s="4">
-        <f t="shared" si="240"/>
+        <f t="shared" si="251"/>
         <v>19584</v>
       </c>
       <c r="AI94" s="4">
         <f>+AI74+AI76+AI77</f>
         <v>-7240</v>
+      </c>
+      <c r="BP94" s="2">
+        <f>+BP74+BP76</f>
+        <v>32217</v>
+      </c>
+      <c r="BQ94" s="2">
+        <f>+BQ74+BQ76</f>
+        <v>32878</v>
       </c>
     </row>
     <row r="95" spans="2:69" ht="13" x14ac:dyDescent="0.3">
@@ -12030,15 +12324,15 @@
         <v>107</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="241">SUM(O94:R94)</f>
+        <f t="shared" ref="R95:T95" si="252">SUM(O94:R94)</f>
     